--- a/Spreadsheets/DOM_Spreadsheet.xlsx
+++ b/Spreadsheets/DOM_Spreadsheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10714"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/saoirsekelleher/Documents/Research/QAEco/DOM_Review/Spreadsheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{396AFB2B-33BC-1740-8279-A78B1D0C7FDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A33E54C-1533-2A4E-9883-89916F66DE2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{981D9C2C-D510-E947-BD55-27C976277DB6}"/>
+    <workbookView xWindow="-9600" yWindow="-21600" windowWidth="38400" windowHeight="21600" xr2:uid="{981D9C2C-D510-E947-BD55-27C976277DB6}"/>
   </bookViews>
   <sheets>
     <sheet name="Article Data" sheetId="10" r:id="rId1"/>
@@ -236,7 +236,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5261" uniqueCount="885">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5335" uniqueCount="890">
   <si>
     <t>Review ID</t>
   </si>
@@ -4122,12 +4122,27 @@
   <si>
     <t>E-BIOT_SI_R_I, E-ANTH_SI_R_I, E-CONN_SI_D_I, E-ANTH_SI_R_I, E-AGRI_SI_R_I, E-AGRI_SI_R_I, E-HYDR_SI_R_I, E-HYDR_SI_R_B, E-SPAT_SI_I_L</t>
   </si>
+  <si>
+    <t>Occupancy dynamics in a tropical bird community: unexpectedly high forest use by birds classified as non-forest species</t>
+  </si>
+  <si>
+    <t>Ruiz-Gutierrez, Viviana; Zipkin, Elise F.; Dhondt, Andre A.</t>
+  </si>
+  <si>
+    <t>79 species of bird</t>
+  </si>
+  <si>
+    <t>E-HABT_SI_R_L, E-TOPO_SI_R_N</t>
+  </si>
+  <si>
+    <t>E-TOPO_SI_R_N</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4203,12 +4218,6 @@
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="25">
@@ -4745,19 +4754,16 @@
     <xf numFmtId="49" fontId="0" fillId="19" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4778,8 +4784,53 @@
     <xf numFmtId="0" fontId="10" fillId="14" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -4791,7 +4842,31 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -4799,20 +4874,8 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
@@ -4838,6 +4901,15 @@
     <xf numFmtId="0" fontId="7" fillId="5" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="17" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -4847,74 +4919,11 @@
     <xf numFmtId="0" fontId="10" fillId="17" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -5400,8 +5409,8 @@
   <dimension ref="A1:XFB128"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="103" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A60" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C61" sqref="C61"/>
+      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F62" sqref="F62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="16" zeroHeight="1" x14ac:dyDescent="0.2"/>
@@ -6820,14 +6829,28 @@
         <v>436</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A62" s="38"/>
-      <c r="B62" s="38"/>
-      <c r="C62" s="38"/>
-      <c r="D62" s="38"/>
-      <c r="E62" s="38"/>
-      <c r="F62" s="38"/>
-      <c r="G62" s="38"/>
+    <row r="62" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="A62" s="38">
+        <v>34</v>
+      </c>
+      <c r="B62" s="38" t="s">
+        <v>885</v>
+      </c>
+      <c r="C62" s="38">
+        <v>2010</v>
+      </c>
+      <c r="D62" s="38" t="s">
+        <v>397</v>
+      </c>
+      <c r="E62" s="38" t="s">
+        <v>804</v>
+      </c>
+      <c r="F62" s="38" t="s">
+        <v>886</v>
+      </c>
+      <c r="G62" s="38" t="s">
+        <v>432</v>
+      </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" s="39"/>
@@ -7143,8 +7166,8 @@
   <dimension ref="A1:I130"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A57" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I61" sqref="I61"/>
+      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H63" sqref="H63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="16" zeroHeight="1" x14ac:dyDescent="0.2"/>
@@ -9050,22 +9073,36 @@
         <v>422</v>
       </c>
     </row>
-    <row r="62" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:9" ht="85" x14ac:dyDescent="0.2">
       <c r="A62" s="38">
         <f>'Article Data'!A62</f>
-        <v>0</v>
-      </c>
-      <c r="B62" s="38">
+        <v>34</v>
+      </c>
+      <c r="B62" s="38" t="str">
         <f>'Article Data'!B62</f>
-        <v>0</v>
-      </c>
-      <c r="C62" s="38"/>
-      <c r="D62" s="38"/>
-      <c r="E62" s="38"/>
-      <c r="F62" s="38"/>
-      <c r="G62" s="38"/>
-      <c r="H62" s="38"/>
-      <c r="I62" s="38"/>
+        <v>Occupancy dynamics in a tropical bird community: unexpectedly high forest use by birds classified as non-forest species</v>
+      </c>
+      <c r="C62" s="38" t="s">
+        <v>433</v>
+      </c>
+      <c r="D62" s="38" t="s">
+        <v>422</v>
+      </c>
+      <c r="E62" s="38" t="s">
+        <v>422</v>
+      </c>
+      <c r="F62" s="38" t="s">
+        <v>422</v>
+      </c>
+      <c r="G62" s="38" t="s">
+        <v>423</v>
+      </c>
+      <c r="H62" s="38" t="s">
+        <v>422</v>
+      </c>
+      <c r="I62" s="38" t="s">
+        <v>422</v>
+      </c>
     </row>
     <row r="63" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A63" s="41">
@@ -9220,7 +9257,7 @@
       <c r="H71" s="39"/>
       <c r="I71" s="39"/>
     </row>
-    <row r="72" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A72" s="38">
         <f>'Article Data'!A72</f>
         <v>0</v>
@@ -9237,7 +9274,7 @@
       <c r="H72" s="38"/>
       <c r="I72" s="38"/>
     </row>
-    <row r="73" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A73" s="41">
         <f>'Article Data'!A73</f>
         <v>0</v>
@@ -9254,7 +9291,7 @@
       <c r="H73" s="39"/>
       <c r="I73" s="39"/>
     </row>
-    <row r="74" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A74" s="38">
         <f>'Article Data'!A74</f>
         <v>0</v>
@@ -9271,7 +9308,7 @@
       <c r="H74" s="38"/>
       <c r="I74" s="38"/>
     </row>
-    <row r="75" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A75" s="41">
         <f>'Article Data'!A75</f>
         <v>0</v>
@@ -9288,7 +9325,7 @@
       <c r="H75" s="39"/>
       <c r="I75" s="39"/>
     </row>
-    <row r="76" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A76" s="38">
         <f>'Article Data'!A76</f>
         <v>0</v>
@@ -9305,7 +9342,7 @@
       <c r="H76" s="38"/>
       <c r="I76" s="38"/>
     </row>
-    <row r="77" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A77" s="41">
         <f>'Article Data'!A77</f>
         <v>0</v>
@@ -9322,7 +9359,7 @@
       <c r="H77" s="39"/>
       <c r="I77" s="39"/>
     </row>
-    <row r="78" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A78" s="38">
         <f>'Article Data'!A78</f>
         <v>0</v>
@@ -9339,7 +9376,7 @@
       <c r="H78" s="38"/>
       <c r="I78" s="38"/>
     </row>
-    <row r="79" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A79" s="41">
         <f>'Article Data'!A79</f>
         <v>0</v>
@@ -9356,7 +9393,7 @@
       <c r="H79" s="39"/>
       <c r="I79" s="39"/>
     </row>
-    <row r="80" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A80" s="38">
         <f>'Article Data'!A80</f>
         <v>0</v>
@@ -9373,7 +9410,7 @@
       <c r="H80" s="38"/>
       <c r="I80" s="38"/>
     </row>
-    <row r="81" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A81" s="41">
         <f>'Article Data'!A81</f>
         <v>0</v>
@@ -9390,7 +9427,7 @@
       <c r="H81" s="39"/>
       <c r="I81" s="39"/>
     </row>
-    <row r="82" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A82" s="38">
         <f>'Article Data'!A82</f>
         <v>0</v>
@@ -9407,7 +9444,7 @@
       <c r="H82" s="38"/>
       <c r="I82" s="38"/>
     </row>
-    <row r="83" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A83" s="41">
         <f>'Article Data'!A83</f>
         <v>0</v>
@@ -9424,7 +9461,7 @@
       <c r="H83" s="39"/>
       <c r="I83" s="39"/>
     </row>
-    <row r="84" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A84" s="38">
         <f>'Article Data'!A84</f>
         <v>0</v>
@@ -9441,7 +9478,7 @@
       <c r="H84" s="38"/>
       <c r="I84" s="38"/>
     </row>
-    <row r="85" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A85" s="41">
         <f>'Article Data'!A85</f>
         <v>0</v>
@@ -9458,7 +9495,7 @@
       <c r="H85" s="39"/>
       <c r="I85" s="39"/>
     </row>
-    <row r="86" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A86" s="38">
         <f>'Article Data'!A86</f>
         <v>0</v>
@@ -9475,7 +9512,7 @@
       <c r="H86" s="38"/>
       <c r="I86" s="38"/>
     </row>
-    <row r="87" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A87" s="41">
         <f>'Article Data'!A87</f>
         <v>0</v>
@@ -9552,7 +9589,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A72" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J75" sqref="J75"/>
+      <selection pane="bottomLeft" activeCell="K76" sqref="K76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="16" zeroHeight="1" x14ac:dyDescent="0.2"/>
@@ -12302,24 +12339,42 @@
         <v>881</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A75" s="39">
         <f>'Article Data'!A62</f>
-        <v>0</v>
-      </c>
-      <c r="B75" s="39">
+        <v>34</v>
+      </c>
+      <c r="B75" s="39" t="str">
         <f>'Article Data'!B62</f>
-        <v>0</v>
-      </c>
-      <c r="C75" s="2"/>
-      <c r="D75" s="2"/>
-      <c r="E75" s="2"/>
-      <c r="F75" s="2"/>
-      <c r="G75" s="2"/>
-      <c r="H75" s="2"/>
-      <c r="I75" s="2"/>
-      <c r="J75" s="2"/>
-      <c r="K75" s="2"/>
+        <v>Occupancy dynamics in a tropical bird community: unexpectedly high forest use by birds classified as non-forest species</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="F75" s="2" t="s">
+        <v>887</v>
+      </c>
+      <c r="G75" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="H75" s="2">
+        <v>79</v>
+      </c>
+      <c r="I75" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="J75" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="K75" s="2" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A76" s="38">
@@ -12925,7 +12980,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H80" sqref="H80"/>
+      <selection pane="bottomLeft" activeCell="H81" sqref="H81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="16" zeroHeight="1" x14ac:dyDescent="0.2"/>
@@ -15625,23 +15680,39 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:10" ht="68" x14ac:dyDescent="0.2">
       <c r="A80" s="39">
         <f>'Article Data'!A62</f>
-        <v>0</v>
-      </c>
-      <c r="B80" s="39">
+        <v>34</v>
+      </c>
+      <c r="B80" s="39" t="str">
         <f>'Article Data'!B62</f>
-        <v>0</v>
-      </c>
-      <c r="C80" s="2"/>
-      <c r="D80" s="2"/>
-      <c r="E80" s="2"/>
-      <c r="F80" s="2"/>
-      <c r="G80" s="2"/>
-      <c r="H80" s="2"/>
-      <c r="I80" s="2"/>
-      <c r="J80" s="2"/>
+        <v>Occupancy dynamics in a tropical bird community: unexpectedly high forest use by birds classified as non-forest species</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="F80" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="G80" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="H80" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="I80" s="2">
+        <v>8.7799999999999994</v>
+      </c>
+      <c r="J80" s="2">
+        <v>-82.96</v>
+      </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A81" s="38">
@@ -16208,7 +16279,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A89" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N92" sqref="N92"/>
+      <selection pane="bottomLeft" activeCell="M93" sqref="M93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="16" zeroHeight="1" x14ac:dyDescent="0.2"/>
@@ -20408,27 +20479,51 @@
         <v>450</v>
       </c>
     </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:14" ht="85" x14ac:dyDescent="0.2">
       <c r="A92" s="39">
         <f>'Article Data'!A62</f>
-        <v>0</v>
-      </c>
-      <c r="B92" s="39">
+        <v>34</v>
+      </c>
+      <c r="B92" s="39" t="str">
         <f>'Article Data'!B62</f>
-        <v>0</v>
-      </c>
-      <c r="C92" s="39"/>
-      <c r="D92" s="39"/>
-      <c r="E92" s="39"/>
-      <c r="F92" s="39"/>
-      <c r="G92" s="39"/>
-      <c r="H92" s="39"/>
-      <c r="I92" s="39"/>
-      <c r="J92" s="39"/>
-      <c r="K92" s="39"/>
-      <c r="L92" s="39"/>
-      <c r="M92" s="39"/>
-      <c r="N92" s="39"/>
+        <v>Occupancy dynamics in a tropical bird community: unexpectedly high forest use by birds classified as non-forest species</v>
+      </c>
+      <c r="C92" s="39" t="s">
+        <v>424</v>
+      </c>
+      <c r="D92" s="39" t="s">
+        <v>424</v>
+      </c>
+      <c r="E92" s="46">
+        <v>38108</v>
+      </c>
+      <c r="F92" s="46">
+        <v>39692</v>
+      </c>
+      <c r="G92" s="39">
+        <v>5</v>
+      </c>
+      <c r="H92" s="39">
+        <v>3</v>
+      </c>
+      <c r="I92" s="39" t="s">
+        <v>155</v>
+      </c>
+      <c r="J92" s="39" t="s">
+        <v>169</v>
+      </c>
+      <c r="K92" s="39" t="s">
+        <v>422</v>
+      </c>
+      <c r="L92" s="39">
+        <v>31</v>
+      </c>
+      <c r="M92" s="39" t="s">
+        <v>183</v>
+      </c>
+      <c r="N92" s="39" t="s">
+        <v>194</v>
+      </c>
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A93" s="38">
@@ -21639,8 +21734,8 @@
   <dimension ref="A1:H540"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A266" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H271" sqref="H271"/>
+      <pane ySplit="1" topLeftCell="A269" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F275" sqref="F275"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="16" zeroHeight="1" x14ac:dyDescent="0.2"/>
@@ -29269,85 +29364,143 @@
         <v>882</v>
       </c>
     </row>
-    <row r="273" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:8" ht="68" x14ac:dyDescent="0.2">
       <c r="A273" s="39">
-        <f>'Article Data'!A267</f>
-        <v>0</v>
-      </c>
-      <c r="B273" s="39">
-        <f>'Article Data'!B267</f>
-        <v>0</v>
-      </c>
-      <c r="C273" s="39"/>
-      <c r="D273" s="39"/>
-      <c r="E273" s="39"/>
-      <c r="F273" s="39"/>
-      <c r="G273" s="39"/>
-      <c r="H273" s="39"/>
-    </row>
-    <row r="274" spans="1:8" x14ac:dyDescent="0.2">
+        <f>'Article Data'!A62</f>
+        <v>34</v>
+      </c>
+      <c r="B273" s="39" t="str">
+        <f>'Article Data'!B62</f>
+        <v>Occupancy dynamics in a tropical bird community: unexpectedly high forest use by birds classified as non-forest species</v>
+      </c>
+      <c r="C273" s="39" t="s">
+        <v>424</v>
+      </c>
+      <c r="D273" s="39" t="s">
+        <v>424</v>
+      </c>
+      <c r="E273" s="39" t="s">
+        <v>424</v>
+      </c>
+      <c r="F273" s="39" t="s">
+        <v>426</v>
+      </c>
+      <c r="G273" s="39" t="s">
+        <v>204</v>
+      </c>
+      <c r="H273" s="39" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="274" spans="1:8" ht="68" x14ac:dyDescent="0.2">
       <c r="A274" s="38">
-        <f>'Article Data'!A267</f>
-        <v>0</v>
-      </c>
-      <c r="B274" s="38">
-        <f>'Article Data'!B267</f>
-        <v>0</v>
-      </c>
-      <c r="C274" s="38"/>
-      <c r="D274" s="38"/>
-      <c r="E274" s="38"/>
-      <c r="F274" s="38"/>
-      <c r="G274" s="38"/>
-      <c r="H274" s="38"/>
-    </row>
-    <row r="275" spans="1:8" x14ac:dyDescent="0.2">
+        <f>'Article Data'!A62</f>
+        <v>34</v>
+      </c>
+      <c r="B274" s="38" t="str">
+        <f>'Article Data'!B62</f>
+        <v>Occupancy dynamics in a tropical bird community: unexpectedly high forest use by birds classified as non-forest species</v>
+      </c>
+      <c r="C274" s="38" t="s">
+        <v>424</v>
+      </c>
+      <c r="D274" s="38" t="s">
+        <v>424</v>
+      </c>
+      <c r="E274" s="38" t="s">
+        <v>424</v>
+      </c>
+      <c r="F274" s="38" t="s">
+        <v>205</v>
+      </c>
+      <c r="G274" s="38" t="s">
+        <v>205</v>
+      </c>
+      <c r="H274" s="38" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="275" spans="1:8" ht="68" x14ac:dyDescent="0.2">
       <c r="A275" s="39">
-        <f>'Article Data'!A267</f>
-        <v>0</v>
-      </c>
-      <c r="B275" s="39">
-        <f>'Article Data'!B267</f>
-        <v>0</v>
-      </c>
-      <c r="C275" s="39"/>
-      <c r="D275" s="39"/>
-      <c r="E275" s="39"/>
-      <c r="F275" s="39"/>
-      <c r="G275" s="39"/>
-      <c r="H275" s="39"/>
-    </row>
-    <row r="276" spans="1:8" x14ac:dyDescent="0.2">
+        <f>'Article Data'!A62</f>
+        <v>34</v>
+      </c>
+      <c r="B275" s="39" t="str">
+        <f>'Article Data'!B62</f>
+        <v>Occupancy dynamics in a tropical bird community: unexpectedly high forest use by birds classified as non-forest species</v>
+      </c>
+      <c r="C275" s="39" t="s">
+        <v>424</v>
+      </c>
+      <c r="D275" s="39" t="s">
+        <v>424</v>
+      </c>
+      <c r="E275" s="39" t="s">
+        <v>424</v>
+      </c>
+      <c r="F275" s="39" t="s">
+        <v>210</v>
+      </c>
+      <c r="G275" s="39" t="s">
+        <v>210</v>
+      </c>
+      <c r="H275" s="39" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="276" spans="1:8" ht="68" x14ac:dyDescent="0.2">
       <c r="A276" s="38">
-        <f>'Article Data'!A267</f>
-        <v>0</v>
-      </c>
-      <c r="B276" s="38">
-        <f>'Article Data'!B267</f>
-        <v>0</v>
-      </c>
-      <c r="C276" s="38"/>
-      <c r="D276" s="38"/>
-      <c r="E276" s="38"/>
-      <c r="F276" s="38"/>
-      <c r="G276" s="38"/>
-      <c r="H276" s="38"/>
-    </row>
-    <row r="277" spans="1:8" x14ac:dyDescent="0.2">
+        <f>'Article Data'!A62</f>
+        <v>34</v>
+      </c>
+      <c r="B276" s="38" t="str">
+        <f>'Article Data'!B62</f>
+        <v>Occupancy dynamics in a tropical bird community: unexpectedly high forest use by birds classified as non-forest species</v>
+      </c>
+      <c r="C276" s="38" t="s">
+        <v>424</v>
+      </c>
+      <c r="D276" s="38" t="s">
+        <v>424</v>
+      </c>
+      <c r="E276" s="38" t="s">
+        <v>424</v>
+      </c>
+      <c r="F276" s="38" t="s">
+        <v>427</v>
+      </c>
+      <c r="G276" s="38" t="s">
+        <v>212</v>
+      </c>
+      <c r="H276" s="38" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="277" spans="1:8" ht="68" x14ac:dyDescent="0.2">
       <c r="A277" s="39">
-        <f>'Article Data'!A268</f>
-        <v>0</v>
-      </c>
-      <c r="B277" s="39">
-        <f>'Article Data'!B268</f>
-        <v>0</v>
-      </c>
-      <c r="C277" s="39"/>
-      <c r="D277" s="39"/>
-      <c r="E277" s="39"/>
-      <c r="F277" s="39"/>
-      <c r="G277" s="39"/>
-      <c r="H277" s="39"/>
+        <v>34</v>
+      </c>
+      <c r="B277" s="39" t="s">
+        <v>885</v>
+      </c>
+      <c r="C277" s="39" t="s">
+        <v>424</v>
+      </c>
+      <c r="D277" s="39" t="s">
+        <v>424</v>
+      </c>
+      <c r="E277" s="39" t="s">
+        <v>424</v>
+      </c>
+      <c r="F277" s="39" t="s">
+        <v>213</v>
+      </c>
+      <c r="G277" s="39" t="s">
+        <v>213</v>
+      </c>
+      <c r="H277" s="39" t="s">
+        <v>601</v>
+      </c>
     </row>
     <row r="278" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A278" s="38">
@@ -30671,7 +30824,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K66" sqref="K66"/>
+      <selection pane="bottomLeft" activeCell="F66" sqref="F66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="16" zeroHeight="1" x14ac:dyDescent="0.2"/>
@@ -33288,25 +33441,45 @@
         <v>113</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:12" ht="68" x14ac:dyDescent="0.2">
       <c r="A66" s="38">
         <f>'Article Data'!A62</f>
-        <v>0</v>
-      </c>
-      <c r="B66" s="38">
+        <v>34</v>
+      </c>
+      <c r="B66" s="38" t="str">
         <f>'Article Data'!B62</f>
-        <v>0</v>
-      </c>
-      <c r="C66" s="38"/>
-      <c r="D66" s="38"/>
-      <c r="E66" s="38"/>
-      <c r="F66" s="38"/>
-      <c r="G66" s="38"/>
-      <c r="H66" s="38"/>
-      <c r="I66" s="38"/>
-      <c r="J66" s="38"/>
-      <c r="K66" s="38"/>
-      <c r="L66" s="38"/>
+        <v>Occupancy dynamics in a tropical bird community: unexpectedly high forest use by birds classified as non-forest species</v>
+      </c>
+      <c r="C66" s="38" t="s">
+        <v>424</v>
+      </c>
+      <c r="D66" s="38" t="s">
+        <v>424</v>
+      </c>
+      <c r="E66" s="38" t="s">
+        <v>424</v>
+      </c>
+      <c r="F66" s="38" t="s">
+        <v>287</v>
+      </c>
+      <c r="G66" s="38" t="s">
+        <v>297</v>
+      </c>
+      <c r="H66" s="38" t="s">
+        <v>113</v>
+      </c>
+      <c r="I66" s="38" t="s">
+        <v>341</v>
+      </c>
+      <c r="J66" s="38" t="s">
+        <v>301</v>
+      </c>
+      <c r="K66" s="38" t="s">
+        <v>96</v>
+      </c>
+      <c r="L66" s="38" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A67" s="39">
@@ -34604,13 +34777,13 @@
   <sheetData>
     <row r="1" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A1" s="3"/>
-      <c r="B1" s="73" t="s">
+      <c r="B1" s="88" t="s">
         <v>106</v>
       </c>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
-      <c r="E1" s="73"/>
-      <c r="F1" s="73"/>
+      <c r="C1" s="88"/>
+      <c r="D1" s="88"/>
+      <c r="E1" s="88"/>
+      <c r="F1" s="88"/>
     </row>
     <row r="2" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
@@ -34633,7 +34806,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="75" t="s">
+      <c r="A3" s="93" t="s">
         <v>331</v>
       </c>
       <c r="B3" s="23" t="s">
@@ -34649,7 +34822,7 @@
       <c r="F3" s="7"/>
     </row>
     <row r="4" spans="1:6" ht="31" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="76"/>
+      <c r="A4" s="94"/>
       <c r="B4" s="23" t="s">
         <v>2</v>
       </c>
@@ -34663,7 +34836,7 @@
       <c r="F4" s="7"/>
     </row>
     <row r="5" spans="1:6" ht="51" x14ac:dyDescent="0.2">
-      <c r="A5" s="76"/>
+      <c r="A5" s="94"/>
       <c r="B5" s="23" t="s">
         <v>15</v>
       </c>
@@ -34679,7 +34852,7 @@
       <c r="F5" s="7"/>
     </row>
     <row r="6" spans="1:6" ht="51" x14ac:dyDescent="0.2">
-      <c r="A6" s="77"/>
+      <c r="A6" s="95"/>
       <c r="B6" s="23" t="s">
         <v>16</v>
       </c>
@@ -34695,7 +34868,7 @@
       <c r="F6" s="7"/>
     </row>
     <row r="7" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A7" s="82" t="s">
+      <c r="A7" s="100" t="s">
         <v>52</v>
       </c>
       <c r="B7" s="24" t="s">
@@ -34711,14 +34884,14 @@
       <c r="F7" s="9"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="82"/>
-      <c r="B8" s="81" t="s">
+      <c r="A8" s="100"/>
+      <c r="B8" s="99" t="s">
         <v>55</v>
       </c>
-      <c r="C8" s="52" t="s">
+      <c r="C8" s="107" t="s">
         <v>56</v>
       </c>
-      <c r="D8" s="53" t="s">
+      <c r="D8" s="108" t="s">
         <v>53</v>
       </c>
       <c r="E8" s="9" t="s">
@@ -34729,10 +34902,10 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="82"/>
-      <c r="B9" s="81"/>
-      <c r="C9" s="52"/>
-      <c r="D9" s="53"/>
+      <c r="A9" s="100"/>
+      <c r="B9" s="99"/>
+      <c r="C9" s="107"/>
+      <c r="D9" s="108"/>
       <c r="E9" s="9" t="s">
         <v>397</v>
       </c>
@@ -34741,10 +34914,10 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="82"/>
-      <c r="B10" s="81"/>
-      <c r="C10" s="52"/>
-      <c r="D10" s="53"/>
+      <c r="A10" s="100"/>
+      <c r="B10" s="99"/>
+      <c r="C10" s="107"/>
+      <c r="D10" s="108"/>
       <c r="E10" s="9" t="s">
         <v>398</v>
       </c>
@@ -34753,10 +34926,10 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="82"/>
-      <c r="B11" s="81"/>
-      <c r="C11" s="52"/>
-      <c r="D11" s="53"/>
+      <c r="A11" s="100"/>
+      <c r="B11" s="99"/>
+      <c r="C11" s="107"/>
+      <c r="D11" s="108"/>
       <c r="E11" s="9" t="s">
         <v>399</v>
       </c>
@@ -34765,10 +34938,10 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="82"/>
-      <c r="B12" s="81"/>
-      <c r="C12" s="52"/>
-      <c r="D12" s="53"/>
+      <c r="A12" s="100"/>
+      <c r="B12" s="99"/>
+      <c r="C12" s="107"/>
+      <c r="D12" s="108"/>
       <c r="E12" s="9" t="s">
         <v>400</v>
       </c>
@@ -34777,7 +34950,7 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A13" s="82"/>
+      <c r="A13" s="100"/>
       <c r="B13" s="24" t="s">
         <v>5</v>
       </c>
@@ -34791,7 +34964,7 @@
       <c r="F13" s="9"/>
     </row>
     <row r="14" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A14" s="82"/>
+      <c r="A14" s="100"/>
       <c r="B14" s="24" t="s">
         <v>6</v>
       </c>
@@ -34805,7 +34978,7 @@
       <c r="F14" s="9"/>
     </row>
     <row r="15" spans="1:6" ht="34" x14ac:dyDescent="0.2">
-      <c r="A15" s="82"/>
+      <c r="A15" s="100"/>
       <c r="B15" s="24" t="s">
         <v>7</v>
       </c>
@@ -34821,16 +34994,16 @@
       <c r="F15" s="9"/>
     </row>
     <row r="16" spans="1:6" ht="87" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="78" t="s">
+      <c r="A16" s="96" t="s">
         <v>354</v>
       </c>
-      <c r="B16" s="83" t="s">
+      <c r="B16" s="104" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="54" t="s">
+      <c r="C16" s="101" t="s">
         <v>355</v>
       </c>
-      <c r="D16" s="54" t="s">
+      <c r="D16" s="101" t="s">
         <v>67</v>
       </c>
       <c r="E16" s="30" t="s">
@@ -34841,10 +35014,10 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="79"/>
-      <c r="B17" s="84"/>
-      <c r="C17" s="55"/>
-      <c r="D17" s="55"/>
+      <c r="A17" s="97"/>
+      <c r="B17" s="105"/>
+      <c r="C17" s="102"/>
+      <c r="D17" s="102"/>
       <c r="E17" s="30" t="s">
         <v>357</v>
       </c>
@@ -34853,10 +35026,10 @@
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="79"/>
-      <c r="B18" s="84"/>
-      <c r="C18" s="55"/>
-      <c r="D18" s="55"/>
+      <c r="A18" s="97"/>
+      <c r="B18" s="105"/>
+      <c r="C18" s="102"/>
+      <c r="D18" s="102"/>
       <c r="E18" s="30" t="s">
         <v>358</v>
       </c>
@@ -34865,10 +35038,10 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="79"/>
-      <c r="B19" s="85"/>
-      <c r="C19" s="56"/>
-      <c r="D19" s="56"/>
+      <c r="A19" s="97"/>
+      <c r="B19" s="106"/>
+      <c r="C19" s="103"/>
+      <c r="D19" s="103"/>
       <c r="E19" s="30" t="s">
         <v>359</v>
       </c>
@@ -34877,7 +35050,7 @@
       </c>
     </row>
     <row r="20" spans="1:6" ht="34" x14ac:dyDescent="0.2">
-      <c r="A20" s="79"/>
+      <c r="A20" s="97"/>
       <c r="B20" s="31" t="s">
         <v>9</v>
       </c>
@@ -34891,7 +35064,7 @@
       <c r="F20" s="30"/>
     </row>
     <row r="21" spans="1:6" ht="34" x14ac:dyDescent="0.2">
-      <c r="A21" s="79"/>
+      <c r="A21" s="97"/>
       <c r="B21" s="31" t="s">
         <v>10</v>
       </c>
@@ -34905,7 +35078,7 @@
       <c r="F21" s="30"/>
     </row>
     <row r="22" spans="1:6" ht="34" x14ac:dyDescent="0.2">
-      <c r="A22" s="79"/>
+      <c r="A22" s="97"/>
       <c r="B22" s="31" t="s">
         <v>11</v>
       </c>
@@ -34919,7 +35092,7 @@
       <c r="F22" s="30"/>
     </row>
     <row r="23" spans="1:6" ht="51" x14ac:dyDescent="0.2">
-      <c r="A23" s="79"/>
+      <c r="A23" s="97"/>
       <c r="B23" s="31" t="s">
         <v>12</v>
       </c>
@@ -34933,7 +35106,7 @@
       <c r="F23" s="30"/>
     </row>
     <row r="24" spans="1:6" ht="34" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="79"/>
+      <c r="A24" s="97"/>
       <c r="B24" s="31" t="s">
         <v>13</v>
       </c>
@@ -34947,7 +35120,7 @@
       <c r="F24" s="30"/>
     </row>
     <row r="25" spans="1:6" ht="34" x14ac:dyDescent="0.2">
-      <c r="A25" s="80"/>
+      <c r="A25" s="98"/>
       <c r="B25" s="31" t="s">
         <v>14</v>
       </c>
@@ -34961,7 +35134,7 @@
       <c r="F25" s="30"/>
     </row>
     <row r="26" spans="1:6" ht="34" x14ac:dyDescent="0.2">
-      <c r="A26" s="74" t="s">
+      <c r="A26" s="89" t="s">
         <v>353</v>
       </c>
       <c r="B26" s="25" t="s">
@@ -34977,14 +35150,14 @@
       <c r="F26" s="12"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" s="74"/>
-      <c r="B27" s="63" t="s">
+      <c r="A27" s="89"/>
+      <c r="B27" s="92" t="s">
         <v>19</v>
       </c>
-      <c r="C27" s="69" t="s">
+      <c r="C27" s="91" t="s">
         <v>66</v>
       </c>
-      <c r="D27" s="68" t="s">
+      <c r="D27" s="90" t="s">
         <v>67</v>
       </c>
       <c r="E27" s="12" t="s">
@@ -34995,10 +35168,10 @@
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28" s="74"/>
-      <c r="B28" s="63"/>
-      <c r="C28" s="69"/>
-      <c r="D28" s="68"/>
+      <c r="A28" s="89"/>
+      <c r="B28" s="92"/>
+      <c r="C28" s="91"/>
+      <c r="D28" s="90"/>
       <c r="E28" s="12" t="s">
         <v>69</v>
       </c>
@@ -35007,10 +35180,10 @@
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A29" s="74"/>
-      <c r="B29" s="63"/>
-      <c r="C29" s="69"/>
-      <c r="D29" s="68"/>
+      <c r="A29" s="89"/>
+      <c r="B29" s="92"/>
+      <c r="C29" s="91"/>
+      <c r="D29" s="90"/>
       <c r="E29" s="12" t="s">
         <v>70</v>
       </c>
@@ -35019,10 +35192,10 @@
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A30" s="74"/>
-      <c r="B30" s="63"/>
-      <c r="C30" s="69"/>
-      <c r="D30" s="68"/>
+      <c r="A30" s="89"/>
+      <c r="B30" s="92"/>
+      <c r="C30" s="91"/>
+      <c r="D30" s="90"/>
       <c r="E30" s="12" t="s">
         <v>73</v>
       </c>
@@ -35031,10 +35204,10 @@
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A31" s="74"/>
-      <c r="B31" s="63"/>
-      <c r="C31" s="69"/>
-      <c r="D31" s="68"/>
+      <c r="A31" s="89"/>
+      <c r="B31" s="92"/>
+      <c r="C31" s="91"/>
+      <c r="D31" s="90"/>
       <c r="E31" s="12" t="s">
         <v>72</v>
       </c>
@@ -35043,10 +35216,10 @@
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A32" s="74"/>
-      <c r="B32" s="63"/>
-      <c r="C32" s="69"/>
-      <c r="D32" s="68"/>
+      <c r="A32" s="89"/>
+      <c r="B32" s="92"/>
+      <c r="C32" s="91"/>
+      <c r="D32" s="90"/>
       <c r="E32" s="12" t="s">
         <v>71</v>
       </c>
@@ -35055,7 +35228,7 @@
       </c>
     </row>
     <row r="33" spans="1:6" ht="85" x14ac:dyDescent="0.2">
-      <c r="A33" s="74"/>
+      <c r="A33" s="89"/>
       <c r="B33" s="25" t="s">
         <v>20</v>
       </c>
@@ -35069,14 +35242,14 @@
       <c r="F33" s="12"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A34" s="74"/>
-      <c r="B34" s="63" t="s">
+      <c r="A34" s="89"/>
+      <c r="B34" s="92" t="s">
         <v>41</v>
       </c>
-      <c r="C34" s="69" t="s">
+      <c r="C34" s="91" t="s">
         <v>80</v>
       </c>
-      <c r="D34" s="68" t="s">
+      <c r="D34" s="90" t="s">
         <v>53</v>
       </c>
       <c r="E34" s="12" t="s">
@@ -35087,10 +35260,10 @@
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A35" s="74"/>
-      <c r="B35" s="63"/>
-      <c r="C35" s="69"/>
-      <c r="D35" s="68"/>
+      <c r="A35" s="89"/>
+      <c r="B35" s="92"/>
+      <c r="C35" s="91"/>
+      <c r="D35" s="90"/>
       <c r="E35" s="12" t="s">
         <v>82</v>
       </c>
@@ -35099,10 +35272,10 @@
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A36" s="74"/>
-      <c r="B36" s="63"/>
-      <c r="C36" s="69"/>
-      <c r="D36" s="68"/>
+      <c r="A36" s="89"/>
+      <c r="B36" s="92"/>
+      <c r="C36" s="91"/>
+      <c r="D36" s="90"/>
       <c r="E36" s="12" t="s">
         <v>85</v>
       </c>
@@ -35111,10 +35284,10 @@
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A37" s="74"/>
-      <c r="B37" s="63"/>
-      <c r="C37" s="69"/>
-      <c r="D37" s="68"/>
+      <c r="A37" s="89"/>
+      <c r="B37" s="92"/>
+      <c r="C37" s="91"/>
+      <c r="D37" s="90"/>
       <c r="E37" s="12" t="s">
         <v>87</v>
       </c>
@@ -35123,14 +35296,14 @@
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A38" s="74"/>
-      <c r="B38" s="63" t="s">
+      <c r="A38" s="89"/>
+      <c r="B38" s="92" t="s">
         <v>1</v>
       </c>
-      <c r="C38" s="69" t="s">
+      <c r="C38" s="91" t="s">
         <v>104</v>
       </c>
-      <c r="D38" s="68" t="s">
+      <c r="D38" s="90" t="s">
         <v>67</v>
       </c>
       <c r="E38" s="12" t="s">
@@ -35141,10 +35314,10 @@
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A39" s="74"/>
-      <c r="B39" s="63"/>
-      <c r="C39" s="69"/>
-      <c r="D39" s="68"/>
+      <c r="A39" s="89"/>
+      <c r="B39" s="92"/>
+      <c r="C39" s="91"/>
+      <c r="D39" s="90"/>
       <c r="E39" s="12" t="s">
         <v>89</v>
       </c>
@@ -35153,10 +35326,10 @@
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A40" s="74"/>
-      <c r="B40" s="63"/>
-      <c r="C40" s="69"/>
-      <c r="D40" s="68"/>
+      <c r="A40" s="89"/>
+      <c r="B40" s="92"/>
+      <c r="C40" s="91"/>
+      <c r="D40" s="90"/>
       <c r="E40" s="12" t="s">
         <v>91</v>
       </c>
@@ -35165,10 +35338,10 @@
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A41" s="74"/>
-      <c r="B41" s="63"/>
-      <c r="C41" s="69"/>
-      <c r="D41" s="68"/>
+      <c r="A41" s="89"/>
+      <c r="B41" s="92"/>
+      <c r="C41" s="91"/>
+      <c r="D41" s="90"/>
       <c r="E41" s="12" t="s">
         <v>391</v>
       </c>
@@ -35177,10 +35350,10 @@
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A42" s="74"/>
-      <c r="B42" s="63"/>
-      <c r="C42" s="69"/>
-      <c r="D42" s="68"/>
+      <c r="A42" s="89"/>
+      <c r="B42" s="92"/>
+      <c r="C42" s="91"/>
+      <c r="D42" s="90"/>
       <c r="E42" s="12" t="s">
         <v>92</v>
       </c>
@@ -35189,10 +35362,10 @@
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A43" s="74"/>
-      <c r="B43" s="63"/>
-      <c r="C43" s="69"/>
-      <c r="D43" s="68"/>
+      <c r="A43" s="89"/>
+      <c r="B43" s="92"/>
+      <c r="C43" s="91"/>
+      <c r="D43" s="90"/>
       <c r="E43" s="12" t="s">
         <v>93</v>
       </c>
@@ -35201,10 +35374,10 @@
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A44" s="74"/>
-      <c r="B44" s="63"/>
-      <c r="C44" s="69"/>
-      <c r="D44" s="68"/>
+      <c r="A44" s="89"/>
+      <c r="B44" s="92"/>
+      <c r="C44" s="91"/>
+      <c r="D44" s="90"/>
       <c r="E44" s="12" t="s">
         <v>94</v>
       </c>
@@ -35213,10 +35386,10 @@
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A45" s="74"/>
-      <c r="B45" s="63"/>
-      <c r="C45" s="69"/>
-      <c r="D45" s="68"/>
+      <c r="A45" s="89"/>
+      <c r="B45" s="92"/>
+      <c r="C45" s="91"/>
+      <c r="D45" s="90"/>
       <c r="E45" s="12" t="s">
         <v>95</v>
       </c>
@@ -35225,10 +35398,10 @@
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A46" s="74"/>
-      <c r="B46" s="63"/>
-      <c r="C46" s="69"/>
-      <c r="D46" s="68"/>
+      <c r="A46" s="89"/>
+      <c r="B46" s="92"/>
+      <c r="C46" s="91"/>
+      <c r="D46" s="90"/>
       <c r="E46" s="12" t="s">
         <v>96</v>
       </c>
@@ -35237,14 +35410,14 @@
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A47" s="74"/>
-      <c r="B47" s="63" t="s">
+      <c r="A47" s="89"/>
+      <c r="B47" s="92" t="s">
         <v>18</v>
       </c>
-      <c r="C47" s="69" t="s">
+      <c r="C47" s="91" t="s">
         <v>107</v>
       </c>
-      <c r="D47" s="68" t="s">
+      <c r="D47" s="90" t="s">
         <v>67</v>
       </c>
       <c r="E47" s="12" t="s">
@@ -35255,10 +35428,10 @@
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A48" s="74"/>
-      <c r="B48" s="63"/>
-      <c r="C48" s="69"/>
-      <c r="D48" s="68"/>
+      <c r="A48" s="89"/>
+      <c r="B48" s="92"/>
+      <c r="C48" s="91"/>
+      <c r="D48" s="90"/>
       <c r="E48" s="12" t="s">
         <v>109</v>
       </c>
@@ -35267,10 +35440,10 @@
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A49" s="74"/>
-      <c r="B49" s="63"/>
-      <c r="C49" s="69"/>
-      <c r="D49" s="68"/>
+      <c r="A49" s="89"/>
+      <c r="B49" s="92"/>
+      <c r="C49" s="91"/>
+      <c r="D49" s="90"/>
       <c r="E49" s="12" t="s">
         <v>110</v>
       </c>
@@ -35279,10 +35452,10 @@
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A50" s="74"/>
-      <c r="B50" s="63"/>
-      <c r="C50" s="69"/>
-      <c r="D50" s="68"/>
+      <c r="A50" s="89"/>
+      <c r="B50" s="92"/>
+      <c r="C50" s="91"/>
+      <c r="D50" s="90"/>
       <c r="E50" s="12" t="s">
         <v>111</v>
       </c>
@@ -35291,10 +35464,10 @@
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A51" s="74"/>
-      <c r="B51" s="63"/>
-      <c r="C51" s="69"/>
-      <c r="D51" s="68"/>
+      <c r="A51" s="89"/>
+      <c r="B51" s="92"/>
+      <c r="C51" s="91"/>
+      <c r="D51" s="90"/>
       <c r="E51" s="12" t="s">
         <v>112</v>
       </c>
@@ -35303,10 +35476,10 @@
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A52" s="74"/>
-      <c r="B52" s="63"/>
-      <c r="C52" s="69"/>
-      <c r="D52" s="68"/>
+      <c r="A52" s="89"/>
+      <c r="B52" s="92"/>
+      <c r="C52" s="91"/>
+      <c r="D52" s="90"/>
       <c r="E52" s="12" t="s">
         <v>114</v>
       </c>
@@ -35315,10 +35488,10 @@
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A53" s="74"/>
-      <c r="B53" s="63"/>
-      <c r="C53" s="69"/>
-      <c r="D53" s="68"/>
+      <c r="A53" s="89"/>
+      <c r="B53" s="92"/>
+      <c r="C53" s="91"/>
+      <c r="D53" s="90"/>
       <c r="E53" s="12" t="s">
         <v>71</v>
       </c>
@@ -35327,10 +35500,10 @@
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A54" s="74"/>
-      <c r="B54" s="63"/>
-      <c r="C54" s="69"/>
-      <c r="D54" s="68"/>
+      <c r="A54" s="89"/>
+      <c r="B54" s="92"/>
+      <c r="C54" s="91"/>
+      <c r="D54" s="90"/>
       <c r="E54" s="12" t="s">
         <v>113</v>
       </c>
@@ -35339,10 +35512,10 @@
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A55" s="74"/>
-      <c r="B55" s="63"/>
-      <c r="C55" s="69"/>
-      <c r="D55" s="68"/>
+      <c r="A55" s="89"/>
+      <c r="B55" s="92"/>
+      <c r="C55" s="91"/>
+      <c r="D55" s="90"/>
       <c r="E55" s="12" t="s">
         <v>96</v>
       </c>
@@ -35351,7 +35524,7 @@
       </c>
     </row>
     <row r="56" spans="1:6" ht="34" x14ac:dyDescent="0.2">
-      <c r="A56" s="93" t="s">
+      <c r="A56" s="72" t="s">
         <v>124</v>
       </c>
       <c r="B56" s="28" t="s">
@@ -35369,14 +35542,14 @@
       <c r="F56" s="13"/>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A57" s="94"/>
-      <c r="B57" s="71" t="s">
+      <c r="A57" s="73"/>
+      <c r="B57" s="84" t="s">
         <v>22</v>
       </c>
-      <c r="C57" s="70" t="s">
+      <c r="C57" s="83" t="s">
         <v>126</v>
       </c>
-      <c r="D57" s="67" t="s">
+      <c r="D57" s="82" t="s">
         <v>53</v>
       </c>
       <c r="E57" s="13" t="s">
@@ -35385,132 +35558,132 @@
       <c r="F57" s="13"/>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A58" s="94"/>
-      <c r="B58" s="71"/>
-      <c r="C58" s="70"/>
-      <c r="D58" s="67"/>
+      <c r="A58" s="73"/>
+      <c r="B58" s="84"/>
+      <c r="C58" s="83"/>
+      <c r="D58" s="82"/>
       <c r="E58" s="13" t="s">
         <v>130</v>
       </c>
       <c r="F58" s="13"/>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A59" s="94"/>
-      <c r="B59" s="71"/>
-      <c r="C59" s="70"/>
-      <c r="D59" s="67"/>
+      <c r="A59" s="73"/>
+      <c r="B59" s="84"/>
+      <c r="C59" s="83"/>
+      <c r="D59" s="82"/>
       <c r="E59" s="13" t="s">
         <v>129</v>
       </c>
       <c r="F59" s="13"/>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A60" s="94"/>
-      <c r="B60" s="71"/>
-      <c r="C60" s="70"/>
-      <c r="D60" s="67"/>
+      <c r="A60" s="73"/>
+      <c r="B60" s="84"/>
+      <c r="C60" s="83"/>
+      <c r="D60" s="82"/>
       <c r="E60" s="13" t="s">
         <v>127</v>
       </c>
       <c r="F60" s="13"/>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A61" s="94"/>
-      <c r="B61" s="71"/>
-      <c r="C61" s="70"/>
-      <c r="D61" s="67"/>
+      <c r="A61" s="73"/>
+      <c r="B61" s="84"/>
+      <c r="C61" s="83"/>
+      <c r="D61" s="82"/>
       <c r="E61" s="13" t="s">
         <v>132</v>
       </c>
       <c r="F61" s="13"/>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A62" s="94"/>
-      <c r="B62" s="71"/>
-      <c r="C62" s="70"/>
-      <c r="D62" s="67"/>
+      <c r="A62" s="73"/>
+      <c r="B62" s="84"/>
+      <c r="C62" s="83"/>
+      <c r="D62" s="82"/>
       <c r="E62" s="13" t="s">
         <v>128</v>
       </c>
       <c r="F62" s="13"/>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A63" s="94"/>
-      <c r="B63" s="71" t="s">
+      <c r="A63" s="73"/>
+      <c r="B63" s="84" t="s">
         <v>23</v>
       </c>
-      <c r="C63" s="70" t="s">
+      <c r="C63" s="83" t="s">
         <v>147</v>
       </c>
-      <c r="D63" s="67" t="s">
+      <c r="D63" s="82" t="s">
         <v>53</v>
       </c>
       <c r="E63" s="13" t="s">
         <v>133</v>
       </c>
-      <c r="F63" s="86" t="e" vm="1">
+      <c r="F63" s="81" t="e" vm="1">
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A64" s="94"/>
-      <c r="B64" s="71"/>
-      <c r="C64" s="70"/>
-      <c r="D64" s="67"/>
+      <c r="A64" s="73"/>
+      <c r="B64" s="84"/>
+      <c r="C64" s="83"/>
+      <c r="D64" s="82"/>
       <c r="E64" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="F64" s="86"/>
+      <c r="F64" s="81"/>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A65" s="94"/>
-      <c r="B65" s="71"/>
-      <c r="C65" s="70"/>
-      <c r="D65" s="67"/>
+      <c r="A65" s="73"/>
+      <c r="B65" s="84"/>
+      <c r="C65" s="83"/>
+      <c r="D65" s="82"/>
       <c r="E65" s="13" t="s">
         <v>134</v>
       </c>
-      <c r="F65" s="86"/>
+      <c r="F65" s="81"/>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A66" s="94"/>
-      <c r="B66" s="71"/>
-      <c r="C66" s="70"/>
-      <c r="D66" s="67"/>
+      <c r="A66" s="73"/>
+      <c r="B66" s="84"/>
+      <c r="C66" s="83"/>
+      <c r="D66" s="82"/>
       <c r="E66" s="13" t="s">
         <v>390</v>
       </c>
-      <c r="F66" s="86"/>
+      <c r="F66" s="81"/>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A67" s="94"/>
-      <c r="B67" s="71"/>
-      <c r="C67" s="70"/>
-      <c r="D67" s="67"/>
+      <c r="A67" s="73"/>
+      <c r="B67" s="84"/>
+      <c r="C67" s="83"/>
+      <c r="D67" s="82"/>
       <c r="E67" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="F67" s="86"/>
+      <c r="F67" s="81"/>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A68" s="94"/>
-      <c r="B68" s="71"/>
-      <c r="C68" s="70"/>
-      <c r="D68" s="67"/>
+      <c r="A68" s="73"/>
+      <c r="B68" s="84"/>
+      <c r="C68" s="83"/>
+      <c r="D68" s="82"/>
       <c r="E68" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="F68" s="86"/>
+      <c r="F68" s="81"/>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A69" s="94"/>
-      <c r="B69" s="71" t="s">
+      <c r="A69" s="73"/>
+      <c r="B69" s="84" t="s">
         <v>24</v>
       </c>
-      <c r="C69" s="70" t="s">
+      <c r="C69" s="83" t="s">
         <v>146</v>
       </c>
-      <c r="D69" s="67" t="s">
+      <c r="D69" s="82" t="s">
         <v>53</v>
       </c>
       <c r="E69" s="13" t="s">
@@ -35519,87 +35692,87 @@
       <c r="F69" s="13"/>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A70" s="94"/>
-      <c r="B70" s="71"/>
-      <c r="C70" s="70"/>
-      <c r="D70" s="67"/>
+      <c r="A70" s="73"/>
+      <c r="B70" s="84"/>
+      <c r="C70" s="83"/>
+      <c r="D70" s="82"/>
       <c r="E70" s="15" t="s">
         <v>139</v>
       </c>
       <c r="F70" s="13"/>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A71" s="94"/>
-      <c r="B71" s="71"/>
-      <c r="C71" s="70"/>
-      <c r="D71" s="67"/>
+      <c r="A71" s="73"/>
+      <c r="B71" s="84"/>
+      <c r="C71" s="83"/>
+      <c r="D71" s="82"/>
       <c r="E71" s="13" t="s">
         <v>140</v>
       </c>
       <c r="F71" s="13"/>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A72" s="94"/>
-      <c r="B72" s="71"/>
-      <c r="C72" s="70"/>
-      <c r="D72" s="67"/>
+      <c r="A72" s="73"/>
+      <c r="B72" s="84"/>
+      <c r="C72" s="83"/>
+      <c r="D72" s="82"/>
       <c r="E72" s="13" t="s">
         <v>141</v>
       </c>
       <c r="F72" s="13"/>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A73" s="94"/>
-      <c r="B73" s="71"/>
-      <c r="C73" s="70"/>
-      <c r="D73" s="67"/>
+      <c r="A73" s="73"/>
+      <c r="B73" s="84"/>
+      <c r="C73" s="83"/>
+      <c r="D73" s="82"/>
       <c r="E73" s="13" t="s">
         <v>143</v>
       </c>
       <c r="F73" s="13"/>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A74" s="94"/>
-      <c r="B74" s="71"/>
-      <c r="C74" s="70"/>
-      <c r="D74" s="67"/>
+      <c r="A74" s="73"/>
+      <c r="B74" s="84"/>
+      <c r="C74" s="83"/>
+      <c r="D74" s="82"/>
       <c r="E74" s="13" t="s">
         <v>142</v>
       </c>
       <c r="F74" s="13"/>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A75" s="94"/>
-      <c r="B75" s="71"/>
-      <c r="C75" s="70"/>
-      <c r="D75" s="67"/>
+      <c r="A75" s="73"/>
+      <c r="B75" s="84"/>
+      <c r="C75" s="83"/>
+      <c r="D75" s="82"/>
       <c r="E75" s="13" t="s">
         <v>144</v>
       </c>
       <c r="F75" s="13"/>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A76" s="94"/>
-      <c r="B76" s="71"/>
-      <c r="C76" s="70"/>
-      <c r="D76" s="67"/>
+      <c r="A76" s="73"/>
+      <c r="B76" s="84"/>
+      <c r="C76" s="83"/>
+      <c r="D76" s="82"/>
       <c r="E76" s="13" t="s">
         <v>145</v>
       </c>
       <c r="F76" s="13"/>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A77" s="94"/>
-      <c r="B77" s="71"/>
-      <c r="C77" s="70"/>
-      <c r="D77" s="67"/>
+      <c r="A77" s="73"/>
+      <c r="B77" s="84"/>
+      <c r="C77" s="83"/>
+      <c r="D77" s="82"/>
       <c r="E77" s="13" t="s">
         <v>372</v>
       </c>
       <c r="F77" s="13"/>
     </row>
     <row r="78" spans="1:6" ht="51" x14ac:dyDescent="0.2">
-      <c r="A78" s="98" t="s">
+      <c r="A78" s="77" t="s">
         <v>148</v>
       </c>
       <c r="B78" s="26" t="s">
@@ -35615,7 +35788,7 @@
       <c r="F78" s="16"/>
     </row>
     <row r="79" spans="1:6" ht="51" x14ac:dyDescent="0.2">
-      <c r="A79" s="98"/>
+      <c r="A79" s="77"/>
       <c r="B79" s="26" t="s">
         <v>30</v>
       </c>
@@ -35629,7 +35802,7 @@
       <c r="F79" s="16"/>
     </row>
     <row r="80" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A80" s="98"/>
+      <c r="A80" s="77"/>
       <c r="B80" s="26" t="s">
         <v>25</v>
       </c>
@@ -35643,7 +35816,7 @@
       <c r="F80" s="16"/>
     </row>
     <row r="81" spans="1:6" ht="85" x14ac:dyDescent="0.2">
-      <c r="A81" s="98"/>
+      <c r="A81" s="77"/>
       <c r="B81" s="26" t="s">
         <v>26</v>
       </c>
@@ -35657,14 +35830,14 @@
       <c r="F81" s="16"/>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A82" s="98"/>
-      <c r="B82" s="97" t="s">
+      <c r="A82" s="77"/>
+      <c r="B82" s="76" t="s">
         <v>27</v>
       </c>
-      <c r="C82" s="96" t="s">
+      <c r="C82" s="75" t="s">
         <v>168</v>
       </c>
-      <c r="D82" s="95" t="s">
+      <c r="D82" s="74" t="s">
         <v>53</v>
       </c>
       <c r="E82" s="16" t="s">
@@ -35675,10 +35848,10 @@
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A83" s="98"/>
-      <c r="B83" s="97"/>
-      <c r="C83" s="96"/>
-      <c r="D83" s="95"/>
+      <c r="A83" s="77"/>
+      <c r="B83" s="76"/>
+      <c r="C83" s="75"/>
+      <c r="D83" s="74"/>
       <c r="E83" s="16" t="s">
         <v>369</v>
       </c>
@@ -35687,10 +35860,10 @@
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A84" s="98"/>
-      <c r="B84" s="97"/>
-      <c r="C84" s="96"/>
-      <c r="D84" s="95"/>
+      <c r="A84" s="77"/>
+      <c r="B84" s="76"/>
+      <c r="C84" s="75"/>
+      <c r="D84" s="74"/>
       <c r="E84" s="16" t="s">
         <v>156</v>
       </c>
@@ -35699,10 +35872,10 @@
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A85" s="98"/>
-      <c r="B85" s="97"/>
-      <c r="C85" s="96"/>
-      <c r="D85" s="95"/>
+      <c r="A85" s="77"/>
+      <c r="B85" s="76"/>
+      <c r="C85" s="75"/>
+      <c r="D85" s="74"/>
       <c r="E85" s="16" t="s">
         <v>157</v>
       </c>
@@ -35711,10 +35884,10 @@
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A86" s="98"/>
-      <c r="B86" s="97"/>
-      <c r="C86" s="96"/>
-      <c r="D86" s="95"/>
+      <c r="A86" s="77"/>
+      <c r="B86" s="76"/>
+      <c r="C86" s="75"/>
+      <c r="D86" s="74"/>
       <c r="E86" s="16" t="s">
         <v>158</v>
       </c>
@@ -35723,10 +35896,10 @@
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A87" s="98"/>
-      <c r="B87" s="97"/>
-      <c r="C87" s="96"/>
-      <c r="D87" s="95"/>
+      <c r="A87" s="77"/>
+      <c r="B87" s="76"/>
+      <c r="C87" s="75"/>
+      <c r="D87" s="74"/>
       <c r="E87" s="16" t="s">
         <v>163</v>
       </c>
@@ -35735,10 +35908,10 @@
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A88" s="98"/>
-      <c r="B88" s="97"/>
-      <c r="C88" s="96"/>
-      <c r="D88" s="95"/>
+      <c r="A88" s="77"/>
+      <c r="B88" s="76"/>
+      <c r="C88" s="75"/>
+      <c r="D88" s="74"/>
       <c r="E88" s="16" t="s">
         <v>71</v>
       </c>
@@ -35747,10 +35920,10 @@
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A89" s="98"/>
-      <c r="B89" s="97"/>
-      <c r="C89" s="96"/>
-      <c r="D89" s="95"/>
+      <c r="A89" s="77"/>
+      <c r="B89" s="76"/>
+      <c r="C89" s="75"/>
+      <c r="D89" s="74"/>
       <c r="E89" s="16" t="s">
         <v>159</v>
       </c>
@@ -35759,14 +35932,14 @@
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A90" s="98"/>
-      <c r="B90" s="97" t="s">
+      <c r="A90" s="77"/>
+      <c r="B90" s="76" t="s">
         <v>29</v>
       </c>
-      <c r="C90" s="64" t="s">
+      <c r="C90" s="78" t="s">
         <v>167</v>
       </c>
-      <c r="D90" s="64" t="s">
+      <c r="D90" s="78" t="s">
         <v>67</v>
       </c>
       <c r="E90" s="16" t="s">
@@ -35777,10 +35950,10 @@
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A91" s="98"/>
-      <c r="B91" s="97"/>
-      <c r="C91" s="65"/>
-      <c r="D91" s="65"/>
+      <c r="A91" s="77"/>
+      <c r="B91" s="76"/>
+      <c r="C91" s="79"/>
+      <c r="D91" s="79"/>
       <c r="E91" s="16" t="s">
         <v>170</v>
       </c>
@@ -35789,10 +35962,10 @@
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A92" s="98"/>
-      <c r="B92" s="97"/>
-      <c r="C92" s="65"/>
-      <c r="D92" s="65"/>
+      <c r="A92" s="77"/>
+      <c r="B92" s="76"/>
+      <c r="C92" s="79"/>
+      <c r="D92" s="79"/>
       <c r="E92" s="16" t="s">
         <v>172</v>
       </c>
@@ -35801,10 +35974,10 @@
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A93" s="98"/>
-      <c r="B93" s="97"/>
-      <c r="C93" s="66"/>
-      <c r="D93" s="66"/>
+      <c r="A93" s="77"/>
+      <c r="B93" s="76"/>
+      <c r="C93" s="80"/>
+      <c r="D93" s="80"/>
       <c r="E93" s="16" t="s">
         <v>173</v>
       </c>
@@ -35813,7 +35986,7 @@
       </c>
     </row>
     <row r="94" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A94" s="98"/>
+      <c r="A94" s="77"/>
       <c r="B94" s="26" t="s">
         <v>178</v>
       </c>
@@ -35827,7 +36000,7 @@
       <c r="F94" s="16"/>
     </row>
     <row r="95" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A95" s="98"/>
+      <c r="A95" s="77"/>
       <c r="B95" s="26" t="s">
         <v>177</v>
       </c>
@@ -35841,14 +36014,14 @@
       <c r="F95" s="16"/>
     </row>
     <row r="96" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="98"/>
-      <c r="B96" s="97" t="s">
+      <c r="A96" s="77"/>
+      <c r="B96" s="76" t="s">
         <v>28</v>
       </c>
-      <c r="C96" s="96" t="s">
+      <c r="C96" s="75" t="s">
         <v>182</v>
       </c>
-      <c r="D96" s="95" t="s">
+      <c r="D96" s="74" t="s">
         <v>53</v>
       </c>
       <c r="E96" s="16" t="s">
@@ -35859,10 +36032,10 @@
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A97" s="98"/>
-      <c r="B97" s="97"/>
-      <c r="C97" s="96"/>
-      <c r="D97" s="95"/>
+      <c r="A97" s="77"/>
+      <c r="B97" s="76"/>
+      <c r="C97" s="75"/>
+      <c r="D97" s="74"/>
       <c r="E97" s="16" t="s">
         <v>184</v>
       </c>
@@ -35871,10 +36044,10 @@
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A98" s="98"/>
-      <c r="B98" s="97"/>
-      <c r="C98" s="96"/>
-      <c r="D98" s="95"/>
+      <c r="A98" s="77"/>
+      <c r="B98" s="76"/>
+      <c r="C98" s="75"/>
+      <c r="D98" s="74"/>
       <c r="E98" s="16" t="s">
         <v>185</v>
       </c>
@@ -35883,10 +36056,10 @@
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A99" s="98"/>
-      <c r="B99" s="97"/>
-      <c r="C99" s="96"/>
-      <c r="D99" s="95"/>
+      <c r="A99" s="77"/>
+      <c r="B99" s="76"/>
+      <c r="C99" s="75"/>
+      <c r="D99" s="74"/>
       <c r="E99" s="16" t="s">
         <v>71</v>
       </c>
@@ -35895,14 +36068,14 @@
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A100" s="98"/>
-      <c r="B100" s="97" t="s">
+      <c r="A100" s="77"/>
+      <c r="B100" s="76" t="s">
         <v>189</v>
       </c>
-      <c r="C100" s="96" t="s">
+      <c r="C100" s="75" t="s">
         <v>200</v>
       </c>
-      <c r="D100" s="95" t="s">
+      <c r="D100" s="74" t="s">
         <v>67</v>
       </c>
       <c r="E100" s="16" t="s">
@@ -35913,10 +36086,10 @@
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A101" s="98"/>
-      <c r="B101" s="97"/>
-      <c r="C101" s="96"/>
-      <c r="D101" s="95"/>
+      <c r="A101" s="77"/>
+      <c r="B101" s="76"/>
+      <c r="C101" s="75"/>
+      <c r="D101" s="74"/>
       <c r="E101" s="16" t="s">
         <v>192</v>
       </c>
@@ -35925,10 +36098,10 @@
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A102" s="98"/>
-      <c r="B102" s="97"/>
-      <c r="C102" s="96"/>
-      <c r="D102" s="95"/>
+      <c r="A102" s="77"/>
+      <c r="B102" s="76"/>
+      <c r="C102" s="75"/>
+      <c r="D102" s="74"/>
       <c r="E102" s="16" t="s">
         <v>381</v>
       </c>
@@ -35937,10 +36110,10 @@
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A103" s="98"/>
-      <c r="B103" s="97"/>
-      <c r="C103" s="96"/>
-      <c r="D103" s="95"/>
+      <c r="A103" s="77"/>
+      <c r="B103" s="76"/>
+      <c r="C103" s="75"/>
+      <c r="D103" s="74"/>
       <c r="E103" s="16" t="s">
         <v>194</v>
       </c>
@@ -35949,10 +36122,10 @@
       </c>
     </row>
     <row r="104" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="98"/>
-      <c r="B104" s="97"/>
-      <c r="C104" s="96"/>
-      <c r="D104" s="95"/>
+      <c r="A104" s="77"/>
+      <c r="B104" s="76"/>
+      <c r="C104" s="75"/>
+      <c r="D104" s="74"/>
       <c r="E104" s="16" t="s">
         <v>196</v>
       </c>
@@ -35961,10 +36134,10 @@
       </c>
     </row>
     <row r="105" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A105" s="98"/>
-      <c r="B105" s="97"/>
-      <c r="C105" s="96"/>
-      <c r="D105" s="95"/>
+      <c r="A105" s="77"/>
+      <c r="B105" s="76"/>
+      <c r="C105" s="75"/>
+      <c r="D105" s="74"/>
       <c r="E105" s="16" t="s">
         <v>309</v>
       </c>
@@ -35973,10 +36146,10 @@
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A106" s="98"/>
-      <c r="B106" s="97"/>
-      <c r="C106" s="96"/>
-      <c r="D106" s="95"/>
+      <c r="A106" s="77"/>
+      <c r="B106" s="76"/>
+      <c r="C106" s="75"/>
+      <c r="D106" s="74"/>
       <c r="E106" s="16" t="s">
         <v>198</v>
       </c>
@@ -35985,7 +36158,7 @@
       </c>
     </row>
     <row r="107" spans="1:6" ht="51" x14ac:dyDescent="0.2">
-      <c r="A107" s="102" t="s">
+      <c r="A107" s="62" t="s">
         <v>34</v>
       </c>
       <c r="B107" s="27" t="s">
@@ -36001,14 +36174,14 @@
       <c r="F107" s="19"/>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A108" s="102"/>
-      <c r="B108" s="103" t="s">
+      <c r="A108" s="62"/>
+      <c r="B108" s="63" t="s">
         <v>201</v>
       </c>
-      <c r="C108" s="106" t="s">
+      <c r="C108" s="66" t="s">
         <v>203</v>
       </c>
-      <c r="D108" s="89" t="s">
+      <c r="D108" s="85" t="s">
         <v>53</v>
       </c>
       <c r="E108" s="19" t="s">
@@ -36019,10 +36192,10 @@
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A109" s="102"/>
-      <c r="B109" s="104"/>
-      <c r="C109" s="107"/>
-      <c r="D109" s="90"/>
+      <c r="A109" s="62"/>
+      <c r="B109" s="64"/>
+      <c r="C109" s="67"/>
+      <c r="D109" s="86"/>
       <c r="E109" s="19" t="s">
         <v>205</v>
       </c>
@@ -36031,10 +36204,10 @@
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A110" s="102"/>
-      <c r="B110" s="104"/>
-      <c r="C110" s="107"/>
-      <c r="D110" s="90"/>
+      <c r="A110" s="62"/>
+      <c r="B110" s="64"/>
+      <c r="C110" s="67"/>
+      <c r="D110" s="86"/>
       <c r="E110" s="19" t="s">
         <v>210</v>
       </c>
@@ -36043,10 +36216,10 @@
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A111" s="102"/>
-      <c r="B111" s="104"/>
-      <c r="C111" s="107"/>
-      <c r="D111" s="90"/>
+      <c r="A111" s="62"/>
+      <c r="B111" s="64"/>
+      <c r="C111" s="67"/>
+      <c r="D111" s="86"/>
       <c r="E111" s="19" t="s">
         <v>212</v>
       </c>
@@ -36055,10 +36228,10 @@
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A112" s="102"/>
-      <c r="B112" s="104"/>
-      <c r="C112" s="107"/>
-      <c r="D112" s="90"/>
+      <c r="A112" s="62"/>
+      <c r="B112" s="64"/>
+      <c r="C112" s="67"/>
+      <c r="D112" s="86"/>
       <c r="E112" s="19" t="s">
         <v>208</v>
       </c>
@@ -36067,10 +36240,10 @@
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A113" s="102"/>
-      <c r="B113" s="104"/>
-      <c r="C113" s="107"/>
-      <c r="D113" s="90"/>
+      <c r="A113" s="62"/>
+      <c r="B113" s="64"/>
+      <c r="C113" s="67"/>
+      <c r="D113" s="86"/>
       <c r="E113" s="19" t="s">
         <v>213</v>
       </c>
@@ -36079,10 +36252,10 @@
       </c>
     </row>
     <row r="114" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A114" s="102"/>
-      <c r="B114" s="104"/>
-      <c r="C114" s="107"/>
-      <c r="D114" s="90"/>
+      <c r="A114" s="62"/>
+      <c r="B114" s="64"/>
+      <c r="C114" s="67"/>
+      <c r="D114" s="86"/>
       <c r="E114" s="19" t="s">
         <v>215</v>
       </c>
@@ -36091,10 +36264,10 @@
       </c>
     </row>
     <row r="115" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A115" s="102"/>
-      <c r="B115" s="105"/>
-      <c r="C115" s="108"/>
-      <c r="D115" s="91"/>
+      <c r="A115" s="62"/>
+      <c r="B115" s="65"/>
+      <c r="C115" s="68"/>
+      <c r="D115" s="87"/>
       <c r="E115" s="19" t="s">
         <v>388</v>
       </c>
@@ -36103,7 +36276,7 @@
       </c>
     </row>
     <row r="116" spans="1:7" ht="85" x14ac:dyDescent="0.2">
-      <c r="A116" s="102"/>
+      <c r="A116" s="62"/>
       <c r="B116" s="27" t="s">
         <v>34</v>
       </c>
@@ -36117,14 +36290,14 @@
       <c r="F116" s="19"/>
     </row>
     <row r="117" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A117" s="102"/>
-      <c r="B117" s="88" t="s">
+      <c r="A117" s="62"/>
+      <c r="B117" s="69" t="s">
         <v>218</v>
       </c>
-      <c r="C117" s="92" t="s">
+      <c r="C117" s="55" t="s">
         <v>281</v>
       </c>
-      <c r="D117" s="87" t="s">
+      <c r="D117" s="71" t="s">
         <v>53</v>
       </c>
       <c r="E117" s="19" t="s">
@@ -36136,10 +36309,10 @@
       <c r="G117" s="21"/>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A118" s="102"/>
-      <c r="B118" s="88"/>
-      <c r="C118" s="92"/>
-      <c r="D118" s="87"/>
+      <c r="A118" s="62"/>
+      <c r="B118" s="69"/>
+      <c r="C118" s="55"/>
+      <c r="D118" s="71"/>
       <c r="E118" s="19" t="s">
         <v>239</v>
       </c>
@@ -36149,10 +36322,10 @@
       <c r="G118" s="21"/>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A119" s="102"/>
-      <c r="B119" s="88"/>
-      <c r="C119" s="92"/>
-      <c r="D119" s="87"/>
+      <c r="A119" s="62"/>
+      <c r="B119" s="69"/>
+      <c r="C119" s="55"/>
+      <c r="D119" s="71"/>
       <c r="E119" s="19" t="s">
         <v>240</v>
       </c>
@@ -36162,10 +36335,10 @@
       <c r="G119" s="21"/>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A120" s="102"/>
-      <c r="B120" s="88"/>
-      <c r="C120" s="92"/>
-      <c r="D120" s="87"/>
+      <c r="A120" s="62"/>
+      <c r="B120" s="69"/>
+      <c r="C120" s="55"/>
+      <c r="D120" s="71"/>
       <c r="E120" s="19" t="s">
         <v>440</v>
       </c>
@@ -36175,10 +36348,10 @@
       <c r="G120" s="21"/>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A121" s="102"/>
-      <c r="B121" s="88"/>
-      <c r="C121" s="92"/>
-      <c r="D121" s="87"/>
+      <c r="A121" s="62"/>
+      <c r="B121" s="69"/>
+      <c r="C121" s="55"/>
+      <c r="D121" s="71"/>
       <c r="E121" s="19" t="s">
         <v>241</v>
       </c>
@@ -36188,10 +36361,10 @@
       <c r="G121" s="21"/>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A122" s="102"/>
-      <c r="B122" s="88"/>
-      <c r="C122" s="92"/>
-      <c r="D122" s="87"/>
+      <c r="A122" s="62"/>
+      <c r="B122" s="69"/>
+      <c r="C122" s="55"/>
+      <c r="D122" s="71"/>
       <c r="E122" s="19" t="s">
         <v>242</v>
       </c>
@@ -36201,10 +36374,10 @@
       <c r="G122" s="21"/>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A123" s="102"/>
-      <c r="B123" s="88"/>
-      <c r="C123" s="92"/>
-      <c r="D123" s="87"/>
+      <c r="A123" s="62"/>
+      <c r="B123" s="69"/>
+      <c r="C123" s="55"/>
+      <c r="D123" s="71"/>
       <c r="E123" s="19" t="s">
         <v>243</v>
       </c>
@@ -36214,10 +36387,10 @@
       <c r="G123" s="21"/>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A124" s="102"/>
-      <c r="B124" s="88"/>
-      <c r="C124" s="92"/>
-      <c r="D124" s="87"/>
+      <c r="A124" s="62"/>
+      <c r="B124" s="69"/>
+      <c r="C124" s="55"/>
+      <c r="D124" s="71"/>
       <c r="E124" s="19" t="s">
         <v>409</v>
       </c>
@@ -36227,10 +36400,10 @@
       <c r="G124" s="21"/>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A125" s="102"/>
-      <c r="B125" s="88"/>
-      <c r="C125" s="92"/>
-      <c r="D125" s="87"/>
+      <c r="A125" s="62"/>
+      <c r="B125" s="69"/>
+      <c r="C125" s="55"/>
+      <c r="D125" s="71"/>
       <c r="E125" s="19" t="s">
         <v>244</v>
       </c>
@@ -36240,10 +36413,10 @@
       <c r="G125" s="21"/>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A126" s="102"/>
-      <c r="B126" s="88"/>
-      <c r="C126" s="92"/>
-      <c r="D126" s="87"/>
+      <c r="A126" s="62"/>
+      <c r="B126" s="69"/>
+      <c r="C126" s="55"/>
+      <c r="D126" s="71"/>
       <c r="E126" s="19" t="s">
         <v>407</v>
       </c>
@@ -36253,10 +36426,10 @@
       <c r="G126" s="21"/>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A127" s="102"/>
-      <c r="B127" s="88"/>
-      <c r="C127" s="92"/>
-      <c r="D127" s="87"/>
+      <c r="A127" s="62"/>
+      <c r="B127" s="69"/>
+      <c r="C127" s="55"/>
+      <c r="D127" s="71"/>
       <c r="E127" s="19" t="s">
         <v>245</v>
       </c>
@@ -36266,10 +36439,10 @@
       <c r="G127" s="21"/>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A128" s="102"/>
-      <c r="B128" s="88"/>
-      <c r="C128" s="92"/>
-      <c r="D128" s="87"/>
+      <c r="A128" s="62"/>
+      <c r="B128" s="69"/>
+      <c r="C128" s="55"/>
+      <c r="D128" s="71"/>
       <c r="E128" s="19" t="s">
         <v>246</v>
       </c>
@@ -36279,10 +36452,10 @@
       <c r="G128" s="21"/>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A129" s="102"/>
-      <c r="B129" s="88"/>
-      <c r="C129" s="92"/>
-      <c r="D129" s="87"/>
+      <c r="A129" s="62"/>
+      <c r="B129" s="69"/>
+      <c r="C129" s="55"/>
+      <c r="D129" s="71"/>
       <c r="E129" s="19" t="s">
         <v>247</v>
       </c>
@@ -36292,10 +36465,10 @@
       <c r="G129" s="21"/>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A130" s="102"/>
-      <c r="B130" s="88"/>
-      <c r="C130" s="92"/>
-      <c r="D130" s="87"/>
+      <c r="A130" s="62"/>
+      <c r="B130" s="69"/>
+      <c r="C130" s="55"/>
+      <c r="D130" s="71"/>
       <c r="E130" s="19" t="s">
         <v>387</v>
       </c>
@@ -36305,10 +36478,10 @@
       <c r="G130" s="21"/>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A131" s="102"/>
-      <c r="B131" s="88"/>
-      <c r="C131" s="92"/>
-      <c r="D131" s="87"/>
+      <c r="A131" s="62"/>
+      <c r="B131" s="69"/>
+      <c r="C131" s="55"/>
+      <c r="D131" s="71"/>
       <c r="E131" s="19" t="s">
         <v>248</v>
       </c>
@@ -36318,10 +36491,10 @@
       <c r="G131" s="21"/>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A132" s="102"/>
-      <c r="B132" s="88"/>
-      <c r="C132" s="92"/>
-      <c r="D132" s="87"/>
+      <c r="A132" s="62"/>
+      <c r="B132" s="69"/>
+      <c r="C132" s="55"/>
+      <c r="D132" s="71"/>
       <c r="E132" s="19" t="s">
         <v>234</v>
       </c>
@@ -36331,10 +36504,10 @@
       <c r="G132" s="21"/>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A133" s="102"/>
-      <c r="B133" s="88"/>
-      <c r="C133" s="92"/>
-      <c r="D133" s="87"/>
+      <c r="A133" s="62"/>
+      <c r="B133" s="69"/>
+      <c r="C133" s="55"/>
+      <c r="D133" s="71"/>
       <c r="E133" s="19" t="s">
         <v>249</v>
       </c>
@@ -36344,10 +36517,10 @@
       <c r="G133" s="21"/>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A134" s="102"/>
-      <c r="B134" s="88"/>
-      <c r="C134" s="92"/>
-      <c r="D134" s="87"/>
+      <c r="A134" s="62"/>
+      <c r="B134" s="69"/>
+      <c r="C134" s="55"/>
+      <c r="D134" s="71"/>
       <c r="E134" s="19" t="s">
         <v>250</v>
       </c>
@@ -36357,10 +36530,10 @@
       <c r="G134" s="21"/>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A135" s="102"/>
-      <c r="B135" s="88"/>
-      <c r="C135" s="92"/>
-      <c r="D135" s="87"/>
+      <c r="A135" s="62"/>
+      <c r="B135" s="69"/>
+      <c r="C135" s="55"/>
+      <c r="D135" s="71"/>
       <c r="E135" s="19" t="s">
         <v>251</v>
       </c>
@@ -36370,10 +36543,10 @@
       <c r="G135" s="21"/>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A136" s="102"/>
-      <c r="B136" s="88"/>
-      <c r="C136" s="92"/>
-      <c r="D136" s="87"/>
+      <c r="A136" s="62"/>
+      <c r="B136" s="69"/>
+      <c r="C136" s="55"/>
+      <c r="D136" s="71"/>
       <c r="E136" s="19" t="s">
         <v>252</v>
       </c>
@@ -36383,10 +36556,10 @@
       <c r="G136" s="21"/>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A137" s="102"/>
-      <c r="B137" s="88"/>
-      <c r="C137" s="92"/>
-      <c r="D137" s="87"/>
+      <c r="A137" s="62"/>
+      <c r="B137" s="69"/>
+      <c r="C137" s="55"/>
+      <c r="D137" s="71"/>
       <c r="E137" s="19" t="s">
         <v>253</v>
       </c>
@@ -36396,10 +36569,10 @@
       <c r="G137" s="21"/>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A138" s="102"/>
-      <c r="B138" s="88"/>
-      <c r="C138" s="92"/>
-      <c r="D138" s="87"/>
+      <c r="A138" s="62"/>
+      <c r="B138" s="69"/>
+      <c r="C138" s="55"/>
+      <c r="D138" s="71"/>
       <c r="E138" s="19" t="s">
         <v>236</v>
       </c>
@@ -36409,14 +36582,14 @@
       <c r="G138" s="21"/>
     </row>
     <row r="139" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A139" s="102"/>
-      <c r="B139" s="88" t="s">
+      <c r="A139" s="62"/>
+      <c r="B139" s="69" t="s">
         <v>254</v>
       </c>
-      <c r="C139" s="92" t="s">
+      <c r="C139" s="55" t="s">
         <v>255</v>
       </c>
-      <c r="D139" s="87" t="s">
+      <c r="D139" s="71" t="s">
         <v>53</v>
       </c>
       <c r="E139" s="19" t="s">
@@ -36427,10 +36600,10 @@
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A140" s="102"/>
-      <c r="B140" s="88"/>
-      <c r="C140" s="92"/>
-      <c r="D140" s="87"/>
+      <c r="A140" s="62"/>
+      <c r="B140" s="69"/>
+      <c r="C140" s="55"/>
+      <c r="D140" s="71"/>
       <c r="E140" s="19" t="s">
         <v>258</v>
       </c>
@@ -36439,10 +36612,10 @@
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A141" s="102"/>
-      <c r="B141" s="88"/>
-      <c r="C141" s="92"/>
-      <c r="D141" s="87"/>
+      <c r="A141" s="62"/>
+      <c r="B141" s="69"/>
+      <c r="C141" s="55"/>
+      <c r="D141" s="71"/>
       <c r="E141" s="19" t="s">
         <v>261</v>
       </c>
@@ -36451,10 +36624,10 @@
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A142" s="102"/>
-      <c r="B142" s="88"/>
-      <c r="C142" s="92"/>
-      <c r="D142" s="87"/>
+      <c r="A142" s="62"/>
+      <c r="B142" s="69"/>
+      <c r="C142" s="55"/>
+      <c r="D142" s="71"/>
       <c r="E142" s="19" t="s">
         <v>257</v>
       </c>
@@ -36463,10 +36636,10 @@
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A143" s="102"/>
-      <c r="B143" s="88"/>
-      <c r="C143" s="92"/>
-      <c r="D143" s="87"/>
+      <c r="A143" s="62"/>
+      <c r="B143" s="69"/>
+      <c r="C143" s="55"/>
+      <c r="D143" s="71"/>
       <c r="E143" s="19" t="s">
         <v>231</v>
       </c>
@@ -36475,14 +36648,14 @@
       </c>
     </row>
     <row r="144" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A144" s="102"/>
-      <c r="B144" s="88" t="s">
+      <c r="A144" s="62"/>
+      <c r="B144" s="69" t="s">
         <v>215</v>
       </c>
-      <c r="C144" s="99" t="s">
+      <c r="C144" s="70" t="s">
         <v>263</v>
       </c>
-      <c r="D144" s="87" t="s">
+      <c r="D144" s="71" t="s">
         <v>53</v>
       </c>
       <c r="E144" s="19" t="s">
@@ -36493,10 +36666,10 @@
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A145" s="102"/>
-      <c r="B145" s="88"/>
-      <c r="C145" s="99"/>
-      <c r="D145" s="87"/>
+      <c r="A145" s="62"/>
+      <c r="B145" s="69"/>
+      <c r="C145" s="70"/>
+      <c r="D145" s="71"/>
       <c r="E145" s="19" t="s">
         <v>265</v>
       </c>
@@ -36505,10 +36678,10 @@
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A146" s="102"/>
-      <c r="B146" s="88"/>
-      <c r="C146" s="99"/>
-      <c r="D146" s="87"/>
+      <c r="A146" s="62"/>
+      <c r="B146" s="69"/>
+      <c r="C146" s="70"/>
+      <c r="D146" s="71"/>
       <c r="E146" s="19" t="s">
         <v>266</v>
       </c>
@@ -36517,14 +36690,14 @@
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A147" s="102"/>
-      <c r="B147" s="88" t="s">
+      <c r="A147" s="62"/>
+      <c r="B147" s="69" t="s">
         <v>272</v>
       </c>
-      <c r="C147" s="92" t="s">
+      <c r="C147" s="55" t="s">
         <v>273</v>
       </c>
-      <c r="D147" s="87" t="s">
+      <c r="D147" s="71" t="s">
         <v>53</v>
       </c>
       <c r="E147" s="19" t="s">
@@ -36535,10 +36708,10 @@
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A148" s="102"/>
-      <c r="B148" s="88"/>
-      <c r="C148" s="92"/>
-      <c r="D148" s="87"/>
+      <c r="A148" s="62"/>
+      <c r="B148" s="69"/>
+      <c r="C148" s="55"/>
+      <c r="D148" s="71"/>
       <c r="E148" s="19" t="s">
         <v>278</v>
       </c>
@@ -36547,10 +36720,10 @@
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A149" s="102"/>
-      <c r="B149" s="88"/>
-      <c r="C149" s="92"/>
-      <c r="D149" s="87"/>
+      <c r="A149" s="62"/>
+      <c r="B149" s="69"/>
+      <c r="C149" s="55"/>
+      <c r="D149" s="71"/>
       <c r="E149" s="19" t="s">
         <v>266</v>
       </c>
@@ -36559,10 +36732,10 @@
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A150" s="102"/>
-      <c r="B150" s="88"/>
-      <c r="C150" s="92"/>
-      <c r="D150" s="87"/>
+      <c r="A150" s="62"/>
+      <c r="B150" s="69"/>
+      <c r="C150" s="55"/>
+      <c r="D150" s="71"/>
       <c r="E150" s="19" t="s">
         <v>279</v>
       </c>
@@ -36571,16 +36744,16 @@
       </c>
     </row>
     <row r="151" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A151" s="100" t="s">
+      <c r="A151" s="52" t="s">
         <v>282</v>
       </c>
-      <c r="B151" s="60" t="s">
+      <c r="B151" s="59" t="s">
         <v>347</v>
       </c>
-      <c r="C151" s="57" t="s">
+      <c r="C151" s="56" t="s">
         <v>348</v>
       </c>
-      <c r="D151" s="57" t="s">
+      <c r="D151" s="56" t="s">
         <v>53</v>
       </c>
       <c r="E151" s="22" t="s">
@@ -36591,10 +36764,10 @@
       </c>
     </row>
     <row r="152" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A152" s="100"/>
-      <c r="B152" s="61"/>
-      <c r="C152" s="58"/>
-      <c r="D152" s="58"/>
+      <c r="A152" s="52"/>
+      <c r="B152" s="60"/>
+      <c r="C152" s="57"/>
+      <c r="D152" s="57"/>
       <c r="E152" s="22" t="s">
         <v>285</v>
       </c>
@@ -36603,10 +36776,10 @@
       </c>
     </row>
     <row r="153" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A153" s="100"/>
-      <c r="B153" s="61"/>
-      <c r="C153" s="58"/>
-      <c r="D153" s="58"/>
+      <c r="A153" s="52"/>
+      <c r="B153" s="60"/>
+      <c r="C153" s="57"/>
+      <c r="D153" s="57"/>
       <c r="E153" s="22" t="s">
         <v>287</v>
       </c>
@@ -36615,10 +36788,10 @@
       </c>
     </row>
     <row r="154" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A154" s="100"/>
-      <c r="B154" s="61"/>
-      <c r="C154" s="58"/>
-      <c r="D154" s="58"/>
+      <c r="A154" s="52"/>
+      <c r="B154" s="60"/>
+      <c r="C154" s="57"/>
+      <c r="D154" s="57"/>
       <c r="E154" s="22" t="s">
         <v>289</v>
       </c>
@@ -36627,10 +36800,10 @@
       </c>
     </row>
     <row r="155" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A155" s="100"/>
-      <c r="B155" s="61"/>
-      <c r="C155" s="58"/>
-      <c r="D155" s="58"/>
+      <c r="A155" s="52"/>
+      <c r="B155" s="60"/>
+      <c r="C155" s="57"/>
+      <c r="D155" s="57"/>
       <c r="E155" s="22" t="s">
         <v>291</v>
       </c>
@@ -36639,10 +36812,10 @@
       </c>
     </row>
     <row r="156" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A156" s="100"/>
-      <c r="B156" s="61"/>
-      <c r="C156" s="58"/>
-      <c r="D156" s="58"/>
+      <c r="A156" s="52"/>
+      <c r="B156" s="60"/>
+      <c r="C156" s="57"/>
+      <c r="D156" s="57"/>
       <c r="E156" s="22" t="s">
         <v>293</v>
       </c>
@@ -36651,10 +36824,10 @@
       </c>
     </row>
     <row r="157" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A157" s="100"/>
-      <c r="B157" s="61"/>
-      <c r="C157" s="58"/>
-      <c r="D157" s="58"/>
+      <c r="A157" s="52"/>
+      <c r="B157" s="60"/>
+      <c r="C157" s="57"/>
+      <c r="D157" s="57"/>
       <c r="E157" s="22" t="s">
         <v>385</v>
       </c>
@@ -36663,10 +36836,10 @@
       </c>
     </row>
     <row r="158" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A158" s="100"/>
-      <c r="B158" s="62"/>
-      <c r="C158" s="59"/>
-      <c r="D158" s="59"/>
+      <c r="A158" s="52"/>
+      <c r="B158" s="61"/>
+      <c r="C158" s="58"/>
+      <c r="D158" s="58"/>
       <c r="E158" s="22" t="s">
         <v>373</v>
       </c>
@@ -36675,14 +36848,14 @@
       </c>
     </row>
     <row r="159" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A159" s="100"/>
-      <c r="B159" s="60" t="s">
+      <c r="A159" s="52"/>
+      <c r="B159" s="59" t="s">
         <v>345</v>
       </c>
-      <c r="C159" s="57" t="s">
+      <c r="C159" s="56" t="s">
         <v>346</v>
       </c>
-      <c r="D159" s="57" t="s">
+      <c r="D159" s="56" t="s">
         <v>53</v>
       </c>
       <c r="E159" s="22" t="s">
@@ -36691,24 +36864,24 @@
       <c r="F159" s="22"/>
     </row>
     <row r="160" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A160" s="100"/>
-      <c r="B160" s="62"/>
-      <c r="C160" s="59"/>
-      <c r="D160" s="59"/>
+      <c r="A160" s="52"/>
+      <c r="B160" s="61"/>
+      <c r="C160" s="58"/>
+      <c r="D160" s="58"/>
       <c r="E160" s="22" t="s">
         <v>297</v>
       </c>
       <c r="F160" s="22"/>
     </row>
     <row r="161" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A161" s="100"/>
-      <c r="B161" s="101" t="s">
+      <c r="A161" s="52"/>
+      <c r="B161" s="53" t="s">
         <v>35</v>
       </c>
-      <c r="C161" s="72" t="s">
+      <c r="C161" s="54" t="s">
         <v>349</v>
       </c>
-      <c r="D161" s="72" t="s">
+      <c r="D161" s="54" t="s">
         <v>67</v>
       </c>
       <c r="E161" s="22" t="s">
@@ -36719,10 +36892,10 @@
       </c>
     </row>
     <row r="162" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A162" s="100"/>
-      <c r="B162" s="101"/>
-      <c r="C162" s="72"/>
-      <c r="D162" s="72"/>
+      <c r="A162" s="52"/>
+      <c r="B162" s="53"/>
+      <c r="C162" s="54"/>
+      <c r="D162" s="54"/>
       <c r="E162" s="22" t="s">
         <v>213</v>
       </c>
@@ -36731,10 +36904,10 @@
       </c>
     </row>
     <row r="163" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A163" s="100"/>
-      <c r="B163" s="101"/>
-      <c r="C163" s="72"/>
-      <c r="D163" s="72"/>
+      <c r="A163" s="52"/>
+      <c r="B163" s="53"/>
+      <c r="C163" s="54"/>
+      <c r="D163" s="54"/>
       <c r="E163" s="22" t="s">
         <v>295</v>
       </c>
@@ -36743,14 +36916,14 @@
       </c>
     </row>
     <row r="164" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A164" s="100"/>
-      <c r="B164" s="60" t="s">
+      <c r="A164" s="52"/>
+      <c r="B164" s="59" t="s">
         <v>298</v>
       </c>
-      <c r="C164" s="57" t="s">
+      <c r="C164" s="56" t="s">
         <v>299</v>
       </c>
-      <c r="D164" s="57" t="s">
+      <c r="D164" s="56" t="s">
         <v>53</v>
       </c>
       <c r="E164" s="22" t="s">
@@ -36761,10 +36934,10 @@
       </c>
     </row>
     <row r="165" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A165" s="100"/>
-      <c r="B165" s="61"/>
-      <c r="C165" s="58"/>
-      <c r="D165" s="58"/>
+      <c r="A165" s="52"/>
+      <c r="B165" s="60"/>
+      <c r="C165" s="57"/>
+      <c r="D165" s="57"/>
       <c r="E165" s="22" t="s">
         <v>339</v>
       </c>
@@ -36773,10 +36946,10 @@
       </c>
     </row>
     <row r="166" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A166" s="100"/>
-      <c r="B166" s="61"/>
-      <c r="C166" s="58"/>
-      <c r="D166" s="58"/>
+      <c r="A166" s="52"/>
+      <c r="B166" s="60"/>
+      <c r="C166" s="57"/>
+      <c r="D166" s="57"/>
       <c r="E166" s="22" t="s">
         <v>504</v>
       </c>
@@ -36785,10 +36958,10 @@
       </c>
     </row>
     <row r="167" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A167" s="100"/>
-      <c r="B167" s="61"/>
-      <c r="C167" s="58"/>
-      <c r="D167" s="58"/>
+      <c r="A167" s="52"/>
+      <c r="B167" s="60"/>
+      <c r="C167" s="57"/>
+      <c r="D167" s="57"/>
       <c r="E167" s="22" t="s">
         <v>340</v>
       </c>
@@ -36797,10 +36970,10 @@
       </c>
     </row>
     <row r="168" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A168" s="100"/>
-      <c r="B168" s="61"/>
-      <c r="C168" s="58"/>
-      <c r="D168" s="58"/>
+      <c r="A168" s="52"/>
+      <c r="B168" s="60"/>
+      <c r="C168" s="57"/>
+      <c r="D168" s="57"/>
       <c r="E168" s="22" t="s">
         <v>338</v>
       </c>
@@ -36809,10 +36982,10 @@
       </c>
     </row>
     <row r="169" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A169" s="100"/>
-      <c r="B169" s="61"/>
-      <c r="C169" s="58"/>
-      <c r="D169" s="58"/>
+      <c r="A169" s="52"/>
+      <c r="B169" s="60"/>
+      <c r="C169" s="57"/>
+      <c r="D169" s="57"/>
       <c r="E169" s="22" t="s">
         <v>341</v>
       </c>
@@ -36821,10 +36994,10 @@
       </c>
     </row>
     <row r="170" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A170" s="100"/>
-      <c r="B170" s="61"/>
-      <c r="C170" s="58"/>
-      <c r="D170" s="58"/>
+      <c r="A170" s="52"/>
+      <c r="B170" s="60"/>
+      <c r="C170" s="57"/>
+      <c r="D170" s="57"/>
       <c r="E170" s="22" t="s">
         <v>343</v>
       </c>
@@ -36833,10 +37006,10 @@
       </c>
     </row>
     <row r="171" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A171" s="100"/>
-      <c r="B171" s="62"/>
-      <c r="C171" s="59"/>
-      <c r="D171" s="59"/>
+      <c r="A171" s="52"/>
+      <c r="B171" s="61"/>
+      <c r="C171" s="58"/>
+      <c r="D171" s="58"/>
       <c r="E171" s="22" t="s">
         <v>71</v>
       </c>
@@ -36845,14 +37018,14 @@
       </c>
     </row>
     <row r="172" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A172" s="100"/>
-      <c r="B172" s="101" t="s">
+      <c r="A172" s="52"/>
+      <c r="B172" s="53" t="s">
         <v>36</v>
       </c>
-      <c r="C172" s="72" t="s">
+      <c r="C172" s="54" t="s">
         <v>300</v>
       </c>
-      <c r="D172" s="72" t="s">
+      <c r="D172" s="54" t="s">
         <v>67</v>
       </c>
       <c r="E172" s="22" t="s">
@@ -36863,10 +37036,10 @@
       </c>
     </row>
     <row r="173" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A173" s="100"/>
-      <c r="B173" s="101"/>
-      <c r="C173" s="72"/>
-      <c r="D173" s="72"/>
+      <c r="A173" s="52"/>
+      <c r="B173" s="53"/>
+      <c r="C173" s="54"/>
+      <c r="D173" s="54"/>
       <c r="E173" s="22" t="s">
         <v>302</v>
       </c>
@@ -36875,10 +37048,10 @@
       </c>
     </row>
     <row r="174" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A174" s="100"/>
-      <c r="B174" s="101"/>
-      <c r="C174" s="72"/>
-      <c r="D174" s="72"/>
+      <c r="A174" s="52"/>
+      <c r="B174" s="53"/>
+      <c r="C174" s="54"/>
+      <c r="D174" s="54"/>
       <c r="E174" s="22" t="s">
         <v>305</v>
       </c>
@@ -36887,10 +37060,10 @@
       </c>
     </row>
     <row r="175" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A175" s="100"/>
-      <c r="B175" s="101"/>
-      <c r="C175" s="72"/>
-      <c r="D175" s="72"/>
+      <c r="A175" s="52"/>
+      <c r="B175" s="53"/>
+      <c r="C175" s="54"/>
+      <c r="D175" s="54"/>
       <c r="E175" s="22" t="s">
         <v>307</v>
       </c>
@@ -36899,10 +37072,10 @@
       </c>
     </row>
     <row r="176" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A176" s="100"/>
-      <c r="B176" s="101"/>
-      <c r="C176" s="72"/>
-      <c r="D176" s="72"/>
+      <c r="A176" s="52"/>
+      <c r="B176" s="53"/>
+      <c r="C176" s="54"/>
+      <c r="D176" s="54"/>
       <c r="E176" s="22" t="s">
         <v>309</v>
       </c>
@@ -36911,10 +37084,10 @@
       </c>
     </row>
     <row r="177" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A177" s="100"/>
-      <c r="B177" s="101"/>
-      <c r="C177" s="72"/>
-      <c r="D177" s="72"/>
+      <c r="A177" s="52"/>
+      <c r="B177" s="53"/>
+      <c r="C177" s="54"/>
+      <c r="D177" s="54"/>
       <c r="E177" s="22" t="s">
         <v>311</v>
       </c>
@@ -36923,10 +37096,10 @@
       </c>
     </row>
     <row r="178" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A178" s="100"/>
-      <c r="B178" s="101"/>
-      <c r="C178" s="72"/>
-      <c r="D178" s="72"/>
+      <c r="A178" s="52"/>
+      <c r="B178" s="53"/>
+      <c r="C178" s="54"/>
+      <c r="D178" s="54"/>
       <c r="E178" s="22" t="s">
         <v>314</v>
       </c>
@@ -36935,10 +37108,10 @@
       </c>
     </row>
     <row r="179" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A179" s="100"/>
-      <c r="B179" s="101"/>
-      <c r="C179" s="72"/>
-      <c r="D179" s="72"/>
+      <c r="A179" s="52"/>
+      <c r="B179" s="53"/>
+      <c r="C179" s="54"/>
+      <c r="D179" s="54"/>
       <c r="E179" s="22" t="s">
         <v>322</v>
       </c>
@@ -36947,10 +37120,10 @@
       </c>
     </row>
     <row r="180" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A180" s="100"/>
-      <c r="B180" s="101"/>
-      <c r="C180" s="72"/>
-      <c r="D180" s="72"/>
+      <c r="A180" s="52"/>
+      <c r="B180" s="53"/>
+      <c r="C180" s="54"/>
+      <c r="D180" s="54"/>
       <c r="E180" s="22" t="s">
         <v>71</v>
       </c>
@@ -36959,14 +37132,14 @@
       </c>
     </row>
     <row r="181" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A181" s="100"/>
-      <c r="B181" s="60" t="s">
+      <c r="A181" s="52"/>
+      <c r="B181" s="59" t="s">
         <v>37</v>
       </c>
-      <c r="C181" s="57" t="s">
+      <c r="C181" s="56" t="s">
         <v>316</v>
       </c>
-      <c r="D181" s="57" t="s">
+      <c r="D181" s="56" t="s">
         <v>53</v>
       </c>
       <c r="E181" s="22" t="s">
@@ -36977,10 +37150,10 @@
       </c>
     </row>
     <row r="182" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A182" s="100"/>
-      <c r="B182" s="61"/>
-      <c r="C182" s="58"/>
-      <c r="D182" s="58"/>
+      <c r="A182" s="52"/>
+      <c r="B182" s="60"/>
+      <c r="C182" s="57"/>
+      <c r="D182" s="57"/>
       <c r="E182" s="22" t="s">
         <v>317</v>
       </c>
@@ -36989,10 +37162,10 @@
       </c>
     </row>
     <row r="183" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A183" s="100"/>
-      <c r="B183" s="61"/>
-      <c r="C183" s="58"/>
-      <c r="D183" s="58"/>
+      <c r="A183" s="52"/>
+      <c r="B183" s="60"/>
+      <c r="C183" s="57"/>
+      <c r="D183" s="57"/>
       <c r="E183" s="22" t="s">
         <v>464</v>
       </c>
@@ -37001,10 +37174,10 @@
       </c>
     </row>
     <row r="184" spans="1:6" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A184" s="100"/>
-      <c r="B184" s="61"/>
-      <c r="C184" s="58"/>
-      <c r="D184" s="58"/>
+      <c r="A184" s="52"/>
+      <c r="B184" s="60"/>
+      <c r="C184" s="57"/>
+      <c r="D184" s="57"/>
       <c r="E184" s="22" t="s">
         <v>318</v>
       </c>
@@ -37013,10 +37186,10 @@
       </c>
     </row>
     <row r="185" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A185" s="100"/>
-      <c r="B185" s="61"/>
-      <c r="C185" s="58"/>
-      <c r="D185" s="58"/>
+      <c r="A185" s="52"/>
+      <c r="B185" s="60"/>
+      <c r="C185" s="57"/>
+      <c r="D185" s="57"/>
       <c r="E185" s="22" t="s">
         <v>321</v>
       </c>
@@ -37025,10 +37198,10 @@
       </c>
     </row>
     <row r="186" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A186" s="100"/>
-      <c r="B186" s="61"/>
-      <c r="C186" s="58"/>
-      <c r="D186" s="58"/>
+      <c r="A186" s="52"/>
+      <c r="B186" s="60"/>
+      <c r="C186" s="57"/>
+      <c r="D186" s="57"/>
       <c r="E186" s="22" t="s">
         <v>71</v>
       </c>
@@ -37037,10 +37210,10 @@
       </c>
     </row>
     <row r="187" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A187" s="100"/>
-      <c r="B187" s="62"/>
-      <c r="C187" s="59"/>
-      <c r="D187" s="59"/>
+      <c r="A187" s="52"/>
+      <c r="B187" s="61"/>
+      <c r="C187" s="58"/>
+      <c r="D187" s="58"/>
       <c r="E187" s="22" t="s">
         <v>96</v>
       </c>
@@ -37049,14 +37222,14 @@
       </c>
     </row>
     <row r="188" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A188" s="100"/>
-      <c r="B188" s="101" t="s">
+      <c r="A188" s="52"/>
+      <c r="B188" s="53" t="s">
         <v>38</v>
       </c>
-      <c r="C188" s="72" t="s">
+      <c r="C188" s="54" t="s">
         <v>324</v>
       </c>
-      <c r="D188" s="72" t="s">
+      <c r="D188" s="54" t="s">
         <v>67</v>
       </c>
       <c r="E188" s="22" t="s">
@@ -37067,10 +37240,10 @@
       </c>
     </row>
     <row r="189" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A189" s="100"/>
-      <c r="B189" s="101"/>
-      <c r="C189" s="72"/>
-      <c r="D189" s="72"/>
+      <c r="A189" s="52"/>
+      <c r="B189" s="53"/>
+      <c r="C189" s="54"/>
+      <c r="D189" s="54"/>
       <c r="E189" s="22" t="s">
         <v>413</v>
       </c>
@@ -37079,10 +37252,10 @@
       </c>
     </row>
     <row r="190" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A190" s="100"/>
-      <c r="B190" s="101"/>
-      <c r="C190" s="72"/>
-      <c r="D190" s="72"/>
+      <c r="A190" s="52"/>
+      <c r="B190" s="53"/>
+      <c r="C190" s="54"/>
+      <c r="D190" s="54"/>
       <c r="E190" s="22" t="s">
         <v>386</v>
       </c>
@@ -37091,10 +37264,10 @@
       </c>
     </row>
     <row r="191" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A191" s="100"/>
-      <c r="B191" s="101"/>
-      <c r="C191" s="72"/>
-      <c r="D191" s="72"/>
+      <c r="A191" s="52"/>
+      <c r="B191" s="53"/>
+      <c r="C191" s="54"/>
+      <c r="D191" s="54"/>
       <c r="E191" s="22" t="s">
         <v>326</v>
       </c>
@@ -37103,10 +37276,10 @@
       </c>
     </row>
     <row r="192" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A192" s="100"/>
-      <c r="B192" s="101"/>
-      <c r="C192" s="72"/>
-      <c r="D192" s="72"/>
+      <c r="A192" s="52"/>
+      <c r="B192" s="53"/>
+      <c r="C192" s="54"/>
+      <c r="D192" s="54"/>
       <c r="E192" s="22" t="s">
         <v>327</v>
       </c>
@@ -37115,10 +37288,10 @@
       </c>
     </row>
     <row r="193" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A193" s="100"/>
-      <c r="B193" s="101"/>
-      <c r="C193" s="72"/>
-      <c r="D193" s="72"/>
+      <c r="A193" s="52"/>
+      <c r="B193" s="53"/>
+      <c r="C193" s="54"/>
+      <c r="D193" s="54"/>
       <c r="E193" s="22" t="s">
         <v>393</v>
       </c>
@@ -37127,10 +37300,10 @@
       </c>
     </row>
     <row r="194" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A194" s="100"/>
-      <c r="B194" s="101"/>
-      <c r="C194" s="72"/>
-      <c r="D194" s="72"/>
+      <c r="A194" s="52"/>
+      <c r="B194" s="53"/>
+      <c r="C194" s="54"/>
+      <c r="D194" s="54"/>
       <c r="E194" s="22" t="s">
         <v>113</v>
       </c>
@@ -37144,6 +37317,75 @@
     <row r="200" spans="1:6" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="85">
+    <mergeCell ref="C8:C12"/>
+    <mergeCell ref="D8:D12"/>
+    <mergeCell ref="D16:D19"/>
+    <mergeCell ref="D164:D171"/>
+    <mergeCell ref="C164:C171"/>
+    <mergeCell ref="B164:B171"/>
+    <mergeCell ref="D159:D160"/>
+    <mergeCell ref="C159:C160"/>
+    <mergeCell ref="B159:B160"/>
+    <mergeCell ref="B27:B32"/>
+    <mergeCell ref="C90:C93"/>
+    <mergeCell ref="D57:D62"/>
+    <mergeCell ref="D34:D37"/>
+    <mergeCell ref="C34:C37"/>
+    <mergeCell ref="B34:B37"/>
+    <mergeCell ref="C57:C62"/>
+    <mergeCell ref="B57:B62"/>
+    <mergeCell ref="D151:D158"/>
+    <mergeCell ref="C151:C158"/>
+    <mergeCell ref="D161:D163"/>
+    <mergeCell ref="B151:B158"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="A26:A55"/>
+    <mergeCell ref="D38:D46"/>
+    <mergeCell ref="D47:D55"/>
+    <mergeCell ref="C38:C46"/>
+    <mergeCell ref="B38:B46"/>
+    <mergeCell ref="C47:C55"/>
+    <mergeCell ref="B47:B55"/>
+    <mergeCell ref="D27:D32"/>
+    <mergeCell ref="C27:C32"/>
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="A16:A25"/>
+    <mergeCell ref="B8:B12"/>
+    <mergeCell ref="A7:A15"/>
+    <mergeCell ref="C16:C19"/>
+    <mergeCell ref="B16:B19"/>
+    <mergeCell ref="F63:F68"/>
+    <mergeCell ref="D63:D68"/>
+    <mergeCell ref="C63:C68"/>
+    <mergeCell ref="B63:B68"/>
+    <mergeCell ref="D117:D138"/>
+    <mergeCell ref="D69:D77"/>
+    <mergeCell ref="C69:C77"/>
+    <mergeCell ref="B69:B77"/>
+    <mergeCell ref="B117:B138"/>
+    <mergeCell ref="D108:D115"/>
+    <mergeCell ref="C117:C138"/>
+    <mergeCell ref="A56:A77"/>
+    <mergeCell ref="D82:D89"/>
+    <mergeCell ref="C82:C89"/>
+    <mergeCell ref="B82:B89"/>
+    <mergeCell ref="A78:A106"/>
+    <mergeCell ref="D96:D99"/>
+    <mergeCell ref="C96:C99"/>
+    <mergeCell ref="B96:B99"/>
+    <mergeCell ref="B90:B93"/>
+    <mergeCell ref="D100:D106"/>
+    <mergeCell ref="C100:C106"/>
+    <mergeCell ref="B100:B106"/>
+    <mergeCell ref="D90:D93"/>
+    <mergeCell ref="B147:B150"/>
+    <mergeCell ref="B144:B146"/>
+    <mergeCell ref="C144:C146"/>
+    <mergeCell ref="D144:D146"/>
+    <mergeCell ref="C139:C143"/>
+    <mergeCell ref="D139:D143"/>
+    <mergeCell ref="B139:B143"/>
+    <mergeCell ref="D147:D150"/>
     <mergeCell ref="A151:A194"/>
     <mergeCell ref="B161:B163"/>
     <mergeCell ref="C161:C163"/>
@@ -37160,75 +37402,6 @@
     <mergeCell ref="A107:A150"/>
     <mergeCell ref="B108:B115"/>
     <mergeCell ref="C108:C115"/>
-    <mergeCell ref="B147:B150"/>
-    <mergeCell ref="B144:B146"/>
-    <mergeCell ref="C144:C146"/>
-    <mergeCell ref="D144:D146"/>
-    <mergeCell ref="C139:C143"/>
-    <mergeCell ref="D139:D143"/>
-    <mergeCell ref="B139:B143"/>
-    <mergeCell ref="D147:D150"/>
-    <mergeCell ref="A56:A77"/>
-    <mergeCell ref="D82:D89"/>
-    <mergeCell ref="C82:C89"/>
-    <mergeCell ref="B82:B89"/>
-    <mergeCell ref="A78:A106"/>
-    <mergeCell ref="D96:D99"/>
-    <mergeCell ref="C96:C99"/>
-    <mergeCell ref="B96:B99"/>
-    <mergeCell ref="B90:B93"/>
-    <mergeCell ref="D100:D106"/>
-    <mergeCell ref="C100:C106"/>
-    <mergeCell ref="B100:B106"/>
-    <mergeCell ref="D90:D93"/>
-    <mergeCell ref="F63:F68"/>
-    <mergeCell ref="D63:D68"/>
-    <mergeCell ref="C63:C68"/>
-    <mergeCell ref="B63:B68"/>
-    <mergeCell ref="D117:D138"/>
-    <mergeCell ref="D69:D77"/>
-    <mergeCell ref="C69:C77"/>
-    <mergeCell ref="B69:B77"/>
-    <mergeCell ref="B117:B138"/>
-    <mergeCell ref="D108:D115"/>
-    <mergeCell ref="C117:C138"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="A26:A55"/>
-    <mergeCell ref="D38:D46"/>
-    <mergeCell ref="D47:D55"/>
-    <mergeCell ref="C38:C46"/>
-    <mergeCell ref="B38:B46"/>
-    <mergeCell ref="C47:C55"/>
-    <mergeCell ref="B47:B55"/>
-    <mergeCell ref="D27:D32"/>
-    <mergeCell ref="C27:C32"/>
-    <mergeCell ref="A3:A6"/>
-    <mergeCell ref="A16:A25"/>
-    <mergeCell ref="B8:B12"/>
-    <mergeCell ref="A7:A15"/>
-    <mergeCell ref="C16:C19"/>
-    <mergeCell ref="B16:B19"/>
-    <mergeCell ref="B164:B171"/>
-    <mergeCell ref="D159:D160"/>
-    <mergeCell ref="C159:C160"/>
-    <mergeCell ref="B159:B160"/>
-    <mergeCell ref="B27:B32"/>
-    <mergeCell ref="C90:C93"/>
-    <mergeCell ref="D57:D62"/>
-    <mergeCell ref="D34:D37"/>
-    <mergeCell ref="C34:C37"/>
-    <mergeCell ref="B34:B37"/>
-    <mergeCell ref="C57:C62"/>
-    <mergeCell ref="B57:B62"/>
-    <mergeCell ref="D151:D158"/>
-    <mergeCell ref="C151:C158"/>
-    <mergeCell ref="D161:D163"/>
-    <mergeCell ref="B151:B158"/>
-    <mergeCell ref="C8:C12"/>
-    <mergeCell ref="D8:D12"/>
-    <mergeCell ref="D16:D19"/>
-    <mergeCell ref="D164:D171"/>
-    <mergeCell ref="C164:C171"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="53" fitToHeight="4" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>

--- a/Spreadsheets/DOM_Spreadsheet.xlsx
+++ b/Spreadsheets/DOM_Spreadsheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/saoirsekelleher/Documents/Research/QAEco/DOM_Review/Spreadsheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A33E54C-1533-2A4E-9883-89916F66DE2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBE9E42D-B95F-AE48-9D83-3A9067A29717}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-9600" yWindow="-21600" windowWidth="38400" windowHeight="21600" xr2:uid="{981D9C2C-D510-E947-BD55-27C976277DB6}"/>
+    <workbookView xWindow="-9600" yWindow="-21600" windowWidth="38400" windowHeight="21600" activeTab="6" xr2:uid="{981D9C2C-D510-E947-BD55-27C976277DB6}"/>
   </bookViews>
   <sheets>
     <sheet name="Article Data" sheetId="10" r:id="rId1"/>
@@ -236,7 +236,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5335" uniqueCount="890">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5402" uniqueCount="896">
   <si>
     <t>Review ID</t>
   </si>
@@ -4136,6 +4136,66 @@
   </si>
   <si>
     <t>E-TOPO_SI_R_N</t>
+  </si>
+  <si>
+    <t>Time-lags in primate occupancy: a study case using dynamic models</t>
+  </si>
+  <si>
+    <t>Natureza &amp; conservacao</t>
+  </si>
+  <si>
+    <t>Sales, Lilian Patricia; Hayward, Matthew Warrington; Zambaldi, Ludimilla; Passamani, Marcelo; de Melo, Fabiano Rodrigues; Loyola, Rafael</t>
+  </si>
+  <si>
+    <r>
+      <t>2 species of primate:
+-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Black-fronted titi monkey </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Callicebus nigrifrons
+-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Black pencilled marmoset </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Callithrix penicilatta</t>
+    </r>
+  </si>
+  <si>
+    <t>E-GEOM_SI_R_L, E-CONN_SI_R_L</t>
+  </si>
+  <si>
+    <t>E-GEOM_SISE_R_L, E-CONN_SISE_R_L</t>
   </si>
 </sst>
 </file>
@@ -5408,9 +5468,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C80BA99-678B-E448-90AD-2521C38AEB8E}">
   <dimension ref="A1:XFB128"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="103" workbookViewId="0">
+    <sheetView zoomScale="103" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F62" sqref="F62"/>
+      <selection pane="bottomLeft" activeCell="G64" sqref="G64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="16" zeroHeight="1" x14ac:dyDescent="0.2"/>
@@ -6852,14 +6912,28 @@
         <v>432</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A63" s="39"/>
-      <c r="B63" s="39"/>
-      <c r="C63" s="39"/>
-      <c r="D63" s="39"/>
-      <c r="E63" s="39"/>
-      <c r="F63" s="39"/>
-      <c r="G63" s="39"/>
+    <row r="63" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+      <c r="A63" s="39">
+        <v>409</v>
+      </c>
+      <c r="B63" s="39" t="s">
+        <v>890</v>
+      </c>
+      <c r="C63" s="39">
+        <v>2015</v>
+      </c>
+      <c r="D63" s="39" t="s">
+        <v>398</v>
+      </c>
+      <c r="E63" s="39" t="s">
+        <v>891</v>
+      </c>
+      <c r="F63" s="39" t="s">
+        <v>892</v>
+      </c>
+      <c r="G63" s="39" t="s">
+        <v>420</v>
+      </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64" s="38"/>
@@ -7167,7 +7241,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H63" sqref="H63"/>
+      <selection pane="bottomLeft" activeCell="H64" sqref="H64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="16" zeroHeight="1" x14ac:dyDescent="0.2"/>
@@ -9104,22 +9178,36 @@
         <v>422</v>
       </c>
     </row>
-    <row r="63" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A63" s="41">
         <f>'Article Data'!A63</f>
-        <v>0</v>
-      </c>
-      <c r="B63" s="41">
+        <v>409</v>
+      </c>
+      <c r="B63" s="41" t="str">
         <f>'Article Data'!B63</f>
-        <v>0</v>
-      </c>
-      <c r="C63" s="39"/>
-      <c r="D63" s="39"/>
-      <c r="E63" s="39"/>
-      <c r="F63" s="39"/>
-      <c r="G63" s="39"/>
-      <c r="H63" s="39"/>
-      <c r="I63" s="39"/>
+        <v>Time-lags in primate occupancy: a study case using dynamic models</v>
+      </c>
+      <c r="C63" s="39" t="s">
+        <v>356</v>
+      </c>
+      <c r="D63" s="39" t="s">
+        <v>422</v>
+      </c>
+      <c r="E63" s="39" t="s">
+        <v>422</v>
+      </c>
+      <c r="F63" s="39" t="s">
+        <v>422</v>
+      </c>
+      <c r="G63" s="39" t="s">
+        <v>423</v>
+      </c>
+      <c r="H63" s="39" t="s">
+        <v>422</v>
+      </c>
+      <c r="I63" s="39" t="s">
+        <v>422</v>
+      </c>
     </row>
     <row r="64" spans="1:9" ht="68" x14ac:dyDescent="0.2">
       <c r="A64" s="38">
@@ -9589,7 +9677,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A72" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K76" sqref="K76"/>
+      <selection pane="bottomLeft" activeCell="J77" sqref="J77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="16" zeroHeight="1" x14ac:dyDescent="0.2"/>
@@ -12376,24 +12464,42 @@
         <v>96</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:11" ht="85" x14ac:dyDescent="0.2">
       <c r="A76" s="38">
         <f>'Article Data'!A63</f>
-        <v>0</v>
-      </c>
-      <c r="B76" s="38">
+        <v>409</v>
+      </c>
+      <c r="B76" s="38" t="str">
         <f>'Article Data'!B63</f>
-        <v>0</v>
-      </c>
-      <c r="C76" s="33"/>
-      <c r="D76" s="33"/>
-      <c r="E76" s="33"/>
-      <c r="F76" s="33"/>
-      <c r="G76" s="33"/>
-      <c r="H76" s="33"/>
-      <c r="I76" s="33"/>
-      <c r="J76" s="33"/>
-      <c r="K76" s="33"/>
+        <v>Time-lags in primate occupancy: a study case using dynamic models</v>
+      </c>
+      <c r="C76" s="33" t="s">
+        <v>424</v>
+      </c>
+      <c r="D76" s="33" t="s">
+        <v>424</v>
+      </c>
+      <c r="E76" s="33" t="s">
+        <v>424</v>
+      </c>
+      <c r="F76" s="33" t="s">
+        <v>893</v>
+      </c>
+      <c r="G76" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="H76" s="33">
+        <v>2</v>
+      </c>
+      <c r="I76" s="33" t="s">
+        <v>82</v>
+      </c>
+      <c r="J76" s="33" t="s">
+        <v>96</v>
+      </c>
+      <c r="K76" s="33" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A77" s="39">
@@ -12980,7 +13086,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H81" sqref="H81"/>
+      <selection pane="bottomLeft" activeCell="H82" sqref="H82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="16" zeroHeight="1" x14ac:dyDescent="0.2"/>
@@ -15714,23 +15820,39 @@
         <v>-82.96</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A81" s="38">
         <f>'Article Data'!A63</f>
-        <v>0</v>
-      </c>
-      <c r="B81" s="38">
+        <v>409</v>
+      </c>
+      <c r="B81" s="38" t="str">
         <f>'Article Data'!B63</f>
-        <v>0</v>
-      </c>
-      <c r="C81" s="33"/>
-      <c r="D81" s="33"/>
-      <c r="E81" s="33"/>
-      <c r="F81" s="33"/>
-      <c r="G81" s="33"/>
-      <c r="H81" s="33"/>
-      <c r="I81" s="33"/>
-      <c r="J81" s="33"/>
+        <v>Time-lags in primate occupancy: a study case using dynamic models</v>
+      </c>
+      <c r="C81" s="33" t="s">
+        <v>424</v>
+      </c>
+      <c r="D81" s="33" t="s">
+        <v>424</v>
+      </c>
+      <c r="E81" s="33" t="s">
+        <v>420</v>
+      </c>
+      <c r="F81" s="33" t="s">
+        <v>128</v>
+      </c>
+      <c r="G81" s="33" t="s">
+        <v>137</v>
+      </c>
+      <c r="H81" s="33" t="s">
+        <v>372</v>
+      </c>
+      <c r="I81" s="33">
+        <v>-21.14</v>
+      </c>
+      <c r="J81" s="33">
+        <v>-45.03</v>
+      </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A82" s="39">
@@ -16279,7 +16401,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A89" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M93" sqref="M93"/>
+      <selection pane="bottomLeft" activeCell="N93" sqref="N93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="16" zeroHeight="1" x14ac:dyDescent="0.2"/>
@@ -20525,27 +20647,51 @@
         <v>194</v>
       </c>
     </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A93" s="38">
         <f>'Article Data'!A63</f>
-        <v>0</v>
-      </c>
-      <c r="B93" s="38">
+        <v>409</v>
+      </c>
+      <c r="B93" s="38" t="str">
         <f>'Article Data'!B63</f>
-        <v>0</v>
-      </c>
-      <c r="C93" s="38"/>
-      <c r="D93" s="38"/>
-      <c r="E93" s="38"/>
-      <c r="F93" s="38"/>
-      <c r="G93" s="38"/>
-      <c r="H93" s="38"/>
-      <c r="I93" s="38"/>
-      <c r="J93" s="38"/>
-      <c r="K93" s="38"/>
-      <c r="L93" s="38"/>
-      <c r="M93" s="38"/>
-      <c r="N93" s="38"/>
+        <v>Time-lags in primate occupancy: a study case using dynamic models</v>
+      </c>
+      <c r="C93" s="38" t="s">
+        <v>424</v>
+      </c>
+      <c r="D93" s="38" t="s">
+        <v>424</v>
+      </c>
+      <c r="E93" s="45">
+        <v>37257</v>
+      </c>
+      <c r="F93" s="45">
+        <v>41609</v>
+      </c>
+      <c r="G93" s="38">
+        <v>2</v>
+      </c>
+      <c r="H93" s="38">
+        <v>3</v>
+      </c>
+      <c r="I93" s="38" t="s">
+        <v>155</v>
+      </c>
+      <c r="J93" s="38" t="s">
+        <v>169</v>
+      </c>
+      <c r="K93" s="38" t="s">
+        <v>422</v>
+      </c>
+      <c r="L93" s="38">
+        <v>28</v>
+      </c>
+      <c r="M93" s="38" t="s">
+        <v>185</v>
+      </c>
+      <c r="N93" s="38" t="s">
+        <v>372</v>
+      </c>
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A94" s="39">
@@ -21735,7 +21881,7 @@
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A269" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F275" sqref="F275"/>
+      <selection pane="bottomLeft" activeCell="H282" sqref="H282"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="16" zeroHeight="1" x14ac:dyDescent="0.2"/>
@@ -29502,69 +29648,117 @@
         <v>601</v>
       </c>
     </row>
-    <row r="278" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A278" s="38">
-        <f>'Article Data'!A268</f>
-        <v>0</v>
-      </c>
-      <c r="B278" s="38">
-        <f>'Article Data'!B268</f>
-        <v>0</v>
-      </c>
-      <c r="C278" s="38"/>
-      <c r="D278" s="38"/>
-      <c r="E278" s="38"/>
-      <c r="F278" s="38"/>
-      <c r="G278" s="38"/>
-      <c r="H278" s="38"/>
-    </row>
-    <row r="279" spans="1:8" x14ac:dyDescent="0.2">
+        <f>'Article Data'!A63</f>
+        <v>409</v>
+      </c>
+      <c r="B278" s="38" t="str">
+        <f>'Article Data'!B63</f>
+        <v>Time-lags in primate occupancy: a study case using dynamic models</v>
+      </c>
+      <c r="C278" s="38" t="s">
+        <v>424</v>
+      </c>
+      <c r="D278" s="38" t="s">
+        <v>424</v>
+      </c>
+      <c r="E278" s="38" t="s">
+        <v>424</v>
+      </c>
+      <c r="F278" s="38" t="s">
+        <v>426</v>
+      </c>
+      <c r="G278" s="38" t="s">
+        <v>204</v>
+      </c>
+      <c r="H278" s="38" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="279" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A279" s="39">
-        <f>'Article Data'!A268</f>
-        <v>0</v>
-      </c>
-      <c r="B279" s="39">
-        <f>'Article Data'!B268</f>
-        <v>0</v>
-      </c>
-      <c r="C279" s="39"/>
-      <c r="D279" s="39"/>
-      <c r="E279" s="39"/>
-      <c r="F279" s="39"/>
-      <c r="G279" s="39"/>
-      <c r="H279" s="39"/>
-    </row>
-    <row r="280" spans="1:8" x14ac:dyDescent="0.2">
+        <f>'Article Data'!A63</f>
+        <v>409</v>
+      </c>
+      <c r="B279" s="39" t="str">
+        <f>'Article Data'!B63</f>
+        <v>Time-lags in primate occupancy: a study case using dynamic models</v>
+      </c>
+      <c r="C279" s="39" t="s">
+        <v>424</v>
+      </c>
+      <c r="D279" s="39" t="s">
+        <v>424</v>
+      </c>
+      <c r="E279" s="39" t="s">
+        <v>424</v>
+      </c>
+      <c r="F279" s="39" t="s">
+        <v>210</v>
+      </c>
+      <c r="G279" s="39" t="s">
+        <v>210</v>
+      </c>
+      <c r="H279" s="39" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="280" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A280" s="38">
-        <f>'Article Data'!A268</f>
-        <v>0</v>
-      </c>
-      <c r="B280" s="38">
-        <f>'Article Data'!B268</f>
-        <v>0</v>
-      </c>
-      <c r="C280" s="38"/>
-      <c r="D280" s="38"/>
-      <c r="E280" s="38"/>
-      <c r="F280" s="38"/>
-      <c r="G280" s="38"/>
-      <c r="H280" s="38"/>
-    </row>
-    <row r="281" spans="1:8" x14ac:dyDescent="0.2">
+        <f>'Article Data'!A63</f>
+        <v>409</v>
+      </c>
+      <c r="B280" s="38" t="str">
+        <f>'Article Data'!B63</f>
+        <v>Time-lags in primate occupancy: a study case using dynamic models</v>
+      </c>
+      <c r="C280" s="38" t="s">
+        <v>424</v>
+      </c>
+      <c r="D280" s="38" t="s">
+        <v>424</v>
+      </c>
+      <c r="E280" s="38" t="s">
+        <v>424</v>
+      </c>
+      <c r="F280" s="38" t="s">
+        <v>427</v>
+      </c>
+      <c r="G280" s="38" t="s">
+        <v>212</v>
+      </c>
+      <c r="H280" s="38" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="281" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A281" s="39">
-        <f>'Article Data'!A278</f>
-        <v>0</v>
-      </c>
-      <c r="B281" s="39">
-        <f>'Article Data'!B278</f>
-        <v>0</v>
-      </c>
-      <c r="C281" s="39"/>
-      <c r="D281" s="39"/>
-      <c r="E281" s="39"/>
-      <c r="F281" s="39"/>
-      <c r="G281" s="39"/>
-      <c r="H281" s="39"/>
+        <f>'Article Data'!A63</f>
+        <v>409</v>
+      </c>
+      <c r="B281" s="39" t="str">
+        <f>'Article Data'!B63</f>
+        <v>Time-lags in primate occupancy: a study case using dynamic models</v>
+      </c>
+      <c r="C281" s="39" t="s">
+        <v>424</v>
+      </c>
+      <c r="D281" s="39" t="s">
+        <v>424</v>
+      </c>
+      <c r="E281" s="39" t="s">
+        <v>424</v>
+      </c>
+      <c r="F281" s="39" t="s">
+        <v>213</v>
+      </c>
+      <c r="G281" s="39" t="s">
+        <v>213</v>
+      </c>
+      <c r="H281" s="39" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="282" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A282" s="38">
@@ -30822,9 +31016,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75A75B7C-E7E1-234A-BD6D-A3B2966FCDDB}">
   <dimension ref="A1:L171"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F66" sqref="F66"/>
+      <selection pane="bottomLeft" activeCell="J68" sqref="J68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="16" zeroHeight="1" x14ac:dyDescent="0.2"/>
@@ -33481,25 +33675,45 @@
         <v>113</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:12" ht="34" x14ac:dyDescent="0.2">
       <c r="A67" s="39">
         <f>'Article Data'!A63</f>
-        <v>0</v>
-      </c>
-      <c r="B67" s="39">
+        <v>409</v>
+      </c>
+      <c r="B67" s="39" t="str">
         <f>'Article Data'!B63</f>
-        <v>0</v>
-      </c>
-      <c r="C67" s="39"/>
-      <c r="D67" s="39"/>
-      <c r="E67" s="39"/>
-      <c r="F67" s="39"/>
-      <c r="G67" s="39"/>
-      <c r="H67" s="39"/>
-      <c r="I67" s="39"/>
-      <c r="J67" s="39"/>
-      <c r="K67" s="39"/>
-      <c r="L67" s="39"/>
+        <v>Time-lags in primate occupancy: a study case using dynamic models</v>
+      </c>
+      <c r="C67" s="39" t="s">
+        <v>424</v>
+      </c>
+      <c r="D67" s="39" t="s">
+        <v>424</v>
+      </c>
+      <c r="E67" s="39" t="s">
+        <v>424</v>
+      </c>
+      <c r="F67" s="39" t="s">
+        <v>283</v>
+      </c>
+      <c r="G67" s="39" t="s">
+        <v>296</v>
+      </c>
+      <c r="H67" s="39" t="s">
+        <v>295</v>
+      </c>
+      <c r="I67" s="39" t="s">
+        <v>334</v>
+      </c>
+      <c r="J67" s="39" t="s">
+        <v>430</v>
+      </c>
+      <c r="K67" s="39" t="s">
+        <v>464</v>
+      </c>
+      <c r="L67" s="39" t="s">
+        <v>318</v>
+      </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A68" s="38">

--- a/Spreadsheets/DOM_Spreadsheet.xlsx
+++ b/Spreadsheets/DOM_Spreadsheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/saoirsekelleher/Documents/Research/QAEco/DOM_Review/Spreadsheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBE9E42D-B95F-AE48-9D83-3A9067A29717}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C701096-3E3A-FD4E-A093-202129FE7E9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-9600" yWindow="-21600" windowWidth="38400" windowHeight="21600" activeTab="6" xr2:uid="{981D9C2C-D510-E947-BD55-27C976277DB6}"/>
   </bookViews>
@@ -236,7 +236,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5402" uniqueCount="896">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5490" uniqueCount="904">
   <si>
     <t>Review ID</t>
   </si>
@@ -4196,6 +4196,54 @@
   </si>
   <si>
     <t>E-GEOM_SISE_R_L, E-CONN_SISE_R_L</t>
+  </si>
+  <si>
+    <t>Spatio-temporal variation of biotic factors underpins contemporary range dynamics of congeners</t>
+  </si>
+  <si>
+    <t>Naujokaitis-Lewis, Ilona; Fortin, Marie-Josee</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Golden-winged Warbler </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Vermivora chrysoptera</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Blue-winged warbler </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Vermivora cyanoptera</t>
+    </r>
+  </si>
+  <si>
+    <t>United States of America, Canada</t>
+  </si>
+  <si>
+    <t>E-CLWE_SI_R_I, E-CLWE_SI_R_L, E-HABT_SI_R_I, E-HABT_SI_R_L</t>
+  </si>
+  <si>
+    <t>E-CLWE_SISE_R_I, E-CLWE_SISE_R_L, E-HABT_SISE_R_I, E-HABT_SISE_R_L, S-SEAS_SE_I_L, E-BIOT_SISE_D_L</t>
+  </si>
+  <si>
+    <t>E-PHEN_SU_I_L, S-SEAS_SE_I_L</t>
   </si>
 </sst>
 </file>
@@ -5469,8 +5517,8 @@
   <dimension ref="A1:XFB128"/>
   <sheetViews>
     <sheetView zoomScale="103" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G64" sqref="G64"/>
+      <pane ySplit="1" topLeftCell="A60" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G65" sqref="G65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="16" zeroHeight="1" x14ac:dyDescent="0.2"/>
@@ -6935,14 +6983,28 @@
         <v>420</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A64" s="38"/>
-      <c r="B64" s="38"/>
-      <c r="C64" s="38"/>
-      <c r="D64" s="38"/>
-      <c r="E64" s="38"/>
-      <c r="F64" s="38"/>
-      <c r="G64" s="38"/>
+    <row r="64" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="A64" s="38">
+        <v>291</v>
+      </c>
+      <c r="B64" s="38" t="s">
+        <v>896</v>
+      </c>
+      <c r="C64" s="38">
+        <v>2016</v>
+      </c>
+      <c r="D64" s="38" t="s">
+        <v>399</v>
+      </c>
+      <c r="E64" s="38" t="s">
+        <v>552</v>
+      </c>
+      <c r="F64" s="38" t="s">
+        <v>897</v>
+      </c>
+      <c r="G64" s="38" t="s">
+        <v>455</v>
+      </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65" s="39"/>
@@ -7241,7 +7303,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H64" sqref="H64"/>
+      <selection pane="bottomLeft" activeCell="H65" sqref="H65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="16" zeroHeight="1" x14ac:dyDescent="0.2"/>
@@ -9212,19 +9274,33 @@
     <row r="64" spans="1:9" ht="68" x14ac:dyDescent="0.2">
       <c r="A64" s="38">
         <f>'Article Data'!A64</f>
-        <v>0</v>
-      </c>
-      <c r="B64" s="38">
+        <v>291</v>
+      </c>
+      <c r="B64" s="38" t="str">
         <f>'Article Data'!B64</f>
-        <v>0</v>
-      </c>
-      <c r="C64" s="38"/>
-      <c r="D64" s="38"/>
-      <c r="E64" s="38"/>
-      <c r="F64" s="38"/>
-      <c r="G64" s="38"/>
-      <c r="H64" s="38"/>
-      <c r="I64" s="38"/>
+        <v>Spatio-temporal variation of biotic factors underpins contemporary range dynamics of congeners</v>
+      </c>
+      <c r="C64" s="38" t="s">
+        <v>356</v>
+      </c>
+      <c r="D64" s="38" t="s">
+        <v>422</v>
+      </c>
+      <c r="E64" s="38" t="s">
+        <v>422</v>
+      </c>
+      <c r="F64" s="38" t="s">
+        <v>423</v>
+      </c>
+      <c r="G64" s="38" t="s">
+        <v>422</v>
+      </c>
+      <c r="H64" s="38" t="s">
+        <v>422</v>
+      </c>
+      <c r="I64" s="38" t="s">
+        <v>422</v>
+      </c>
     </row>
     <row r="65" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A65" s="41">
@@ -9673,11 +9749,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{972CA9F4-C4C2-C448-94BA-649C49266D7E}">
-  <dimension ref="A1:K168"/>
+  <dimension ref="A1:K169"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A72" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J77" sqref="J77"/>
+      <selection pane="bottomLeft" activeCell="J79" sqref="J79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="16" zeroHeight="1" x14ac:dyDescent="0.2"/>
@@ -12501,482 +12577,536 @@
         <v>96</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A77" s="39">
         <f>'Article Data'!A64</f>
-        <v>0</v>
-      </c>
-      <c r="B77" s="39">
+        <v>291</v>
+      </c>
+      <c r="B77" s="39" t="str">
         <f>'Article Data'!B64</f>
-        <v>0</v>
-      </c>
-      <c r="C77" s="2"/>
-      <c r="D77" s="2"/>
-      <c r="E77" s="2"/>
-      <c r="F77" s="2"/>
-      <c r="G77" s="2"/>
-      <c r="H77" s="2"/>
-      <c r="I77" s="2"/>
-      <c r="J77" s="2"/>
-      <c r="K77" s="2"/>
-    </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A78" s="38">
+        <v>Spatio-temporal variation of biotic factors underpins contemporary range dynamics of congeners</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="E77" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="F77" s="2" t="s">
+        <v>898</v>
+      </c>
+      <c r="G77" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="H77" s="2">
+        <v>1</v>
+      </c>
+      <c r="I77" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="J77" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="K77" s="2" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" ht="51" x14ac:dyDescent="0.2">
+      <c r="A78" s="39">
+        <f>'Article Data'!A64</f>
+        <v>291</v>
+      </c>
+      <c r="B78" s="39" t="str">
+        <f>'Article Data'!B64</f>
+        <v>Spatio-temporal variation of biotic factors underpins contemporary range dynamics of congeners</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="F78" s="2" t="s">
+        <v>899</v>
+      </c>
+      <c r="G78" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="H78" s="2">
+        <v>1</v>
+      </c>
+      <c r="I78" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="J78" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="K78" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A79" s="38">
         <f>'Article Data'!A65</f>
         <v>0</v>
       </c>
-      <c r="B78" s="38">
+      <c r="B79" s="38">
         <f>'Article Data'!B65</f>
         <v>0</v>
       </c>
-      <c r="C78" s="33"/>
-      <c r="D78" s="33"/>
-      <c r="E78" s="33"/>
-      <c r="F78" s="33"/>
-      <c r="G78" s="33"/>
-      <c r="H78" s="33"/>
-      <c r="I78" s="33"/>
-      <c r="J78" s="33"/>
-      <c r="K78" s="33"/>
-    </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A79" s="39">
+      <c r="C79" s="33"/>
+      <c r="D79" s="33"/>
+      <c r="E79" s="33"/>
+      <c r="F79" s="33"/>
+      <c r="G79" s="33"/>
+      <c r="H79" s="33"/>
+      <c r="I79" s="33"/>
+      <c r="J79" s="33"/>
+      <c r="K79" s="33"/>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A80" s="39">
         <f>'Article Data'!A66</f>
         <v>0</v>
       </c>
-      <c r="B79" s="39">
+      <c r="B80" s="39">
         <f>'Article Data'!B66</f>
         <v>0</v>
       </c>
-      <c r="C79" s="2"/>
-      <c r="D79" s="2"/>
-      <c r="E79" s="2"/>
-      <c r="F79" s="2"/>
-      <c r="G79" s="2"/>
-      <c r="H79" s="2"/>
-      <c r="I79" s="2"/>
-      <c r="J79" s="2"/>
-      <c r="K79" s="2"/>
-    </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A80" s="38">
+      <c r="C80" s="2"/>
+      <c r="D80" s="2"/>
+      <c r="E80" s="2"/>
+      <c r="F80" s="2"/>
+      <c r="G80" s="2"/>
+      <c r="H80" s="2"/>
+      <c r="I80" s="2"/>
+      <c r="J80" s="2"/>
+      <c r="K80" s="2"/>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A81" s="38">
         <f>'Article Data'!A67</f>
         <v>0</v>
       </c>
-      <c r="B80" s="38">
+      <c r="B81" s="38">
         <f>'Article Data'!B67</f>
         <v>0</v>
       </c>
-      <c r="C80" s="33"/>
-      <c r="D80" s="33"/>
-      <c r="E80" s="33"/>
-      <c r="F80" s="33"/>
-      <c r="G80" s="33"/>
-      <c r="H80" s="33"/>
-      <c r="I80" s="33"/>
-      <c r="J80" s="33"/>
-      <c r="K80" s="33"/>
-    </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A81" s="39">
+      <c r="C81" s="33"/>
+      <c r="D81" s="33"/>
+      <c r="E81" s="33"/>
+      <c r="F81" s="33"/>
+      <c r="G81" s="33"/>
+      <c r="H81" s="33"/>
+      <c r="I81" s="33"/>
+      <c r="J81" s="33"/>
+      <c r="K81" s="33"/>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A82" s="39">
         <f>'Article Data'!A68</f>
         <v>0</v>
       </c>
-      <c r="B81" s="39">
+      <c r="B82" s="39">
         <f>'Article Data'!B68</f>
         <v>0</v>
       </c>
-      <c r="C81" s="2"/>
-      <c r="D81" s="2"/>
-      <c r="E81" s="2"/>
-      <c r="F81" s="2"/>
-      <c r="G81" s="2"/>
-      <c r="H81" s="2"/>
-      <c r="I81" s="2"/>
-      <c r="J81" s="2"/>
-      <c r="K81" s="2"/>
-    </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A82" s="38">
+      <c r="C82" s="2"/>
+      <c r="D82" s="2"/>
+      <c r="E82" s="2"/>
+      <c r="F82" s="2"/>
+      <c r="G82" s="2"/>
+      <c r="H82" s="2"/>
+      <c r="I82" s="2"/>
+      <c r="J82" s="2"/>
+      <c r="K82" s="2"/>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A83" s="38">
         <f>'Article Data'!A69</f>
         <v>0</v>
       </c>
-      <c r="B82" s="38">
+      <c r="B83" s="38">
         <f>'Article Data'!B69</f>
         <v>0</v>
       </c>
-      <c r="C82" s="33"/>
-      <c r="D82" s="33"/>
-      <c r="E82" s="33"/>
-      <c r="F82" s="33"/>
-      <c r="G82" s="33"/>
-      <c r="H82" s="33"/>
-      <c r="I82" s="33"/>
-      <c r="J82" s="33"/>
-      <c r="K82" s="33"/>
-    </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A83" s="39">
+      <c r="C83" s="33"/>
+      <c r="D83" s="33"/>
+      <c r="E83" s="33"/>
+      <c r="F83" s="33"/>
+      <c r="G83" s="33"/>
+      <c r="H83" s="33"/>
+      <c r="I83" s="33"/>
+      <c r="J83" s="33"/>
+      <c r="K83" s="33"/>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A84" s="39">
         <f>'Article Data'!A70</f>
         <v>0</v>
       </c>
-      <c r="B83" s="39">
+      <c r="B84" s="39">
         <f>'Article Data'!B70</f>
         <v>0</v>
       </c>
-      <c r="C83" s="2"/>
-      <c r="D83" s="2"/>
-      <c r="E83" s="2"/>
-      <c r="F83" s="2"/>
-      <c r="G83" s="2"/>
-      <c r="H83" s="2"/>
-      <c r="I83" s="2"/>
-      <c r="J83" s="2"/>
-      <c r="K83" s="2"/>
-    </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A84" s="38">
+      <c r="C84" s="2"/>
+      <c r="D84" s="2"/>
+      <c r="E84" s="2"/>
+      <c r="F84" s="2"/>
+      <c r="G84" s="2"/>
+      <c r="H84" s="2"/>
+      <c r="I84" s="2"/>
+      <c r="J84" s="2"/>
+      <c r="K84" s="2"/>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A85" s="38">
         <f>'Article Data'!A71</f>
         <v>0</v>
       </c>
-      <c r="B84" s="38">
+      <c r="B85" s="38">
         <f>'Article Data'!B71</f>
         <v>0</v>
       </c>
-      <c r="C84" s="33"/>
-      <c r="D84" s="33"/>
-      <c r="E84" s="33"/>
-      <c r="F84" s="33"/>
-      <c r="G84" s="33"/>
-      <c r="H84" s="33"/>
-      <c r="I84" s="33"/>
-      <c r="J84" s="33"/>
-      <c r="K84" s="33"/>
-    </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A85" s="39">
+      <c r="C85" s="33"/>
+      <c r="D85" s="33"/>
+      <c r="E85" s="33"/>
+      <c r="F85" s="33"/>
+      <c r="G85" s="33"/>
+      <c r="H85" s="33"/>
+      <c r="I85" s="33"/>
+      <c r="J85" s="33"/>
+      <c r="K85" s="33"/>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A86" s="39">
         <f>'Article Data'!A72</f>
         <v>0</v>
       </c>
-      <c r="B85" s="39">
+      <c r="B86" s="39">
         <f>'Article Data'!B72</f>
         <v>0</v>
       </c>
-      <c r="C85" s="2"/>
-      <c r="D85" s="2"/>
-      <c r="E85" s="2"/>
-      <c r="F85" s="2"/>
-      <c r="G85" s="2"/>
-      <c r="H85" s="2"/>
-      <c r="I85" s="2"/>
-      <c r="J85" s="2"/>
-      <c r="K85" s="2"/>
-    </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A86" s="38">
+      <c r="C86" s="2"/>
+      <c r="D86" s="2"/>
+      <c r="E86" s="2"/>
+      <c r="F86" s="2"/>
+      <c r="G86" s="2"/>
+      <c r="H86" s="2"/>
+      <c r="I86" s="2"/>
+      <c r="J86" s="2"/>
+      <c r="K86" s="2"/>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A87" s="38">
         <f>'Article Data'!A73</f>
         <v>0</v>
       </c>
-      <c r="B86" s="38">
+      <c r="B87" s="38">
         <f>'Article Data'!B73</f>
         <v>0</v>
       </c>
-      <c r="C86" s="33"/>
-      <c r="D86" s="33"/>
-      <c r="E86" s="33"/>
-      <c r="F86" s="33"/>
-      <c r="G86" s="33"/>
-      <c r="H86" s="33"/>
-      <c r="I86" s="33"/>
-      <c r="J86" s="33"/>
-      <c r="K86" s="33"/>
-    </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A87" s="39">
+      <c r="C87" s="33"/>
+      <c r="D87" s="33"/>
+      <c r="E87" s="33"/>
+      <c r="F87" s="33"/>
+      <c r="G87" s="33"/>
+      <c r="H87" s="33"/>
+      <c r="I87" s="33"/>
+      <c r="J87" s="33"/>
+      <c r="K87" s="33"/>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A88" s="39">
         <f>'Article Data'!A74</f>
         <v>0</v>
       </c>
-      <c r="B87" s="39">
+      <c r="B88" s="39">
         <f>'Article Data'!B74</f>
         <v>0</v>
       </c>
-      <c r="C87" s="2"/>
-      <c r="D87" s="2"/>
-      <c r="E87" s="2"/>
-      <c r="F87" s="2"/>
-      <c r="G87" s="2"/>
-      <c r="H87" s="2"/>
-      <c r="I87" s="2"/>
-      <c r="J87" s="2"/>
-      <c r="K87" s="2"/>
-    </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A88" s="38">
+      <c r="C88" s="2"/>
+      <c r="D88" s="2"/>
+      <c r="E88" s="2"/>
+      <c r="F88" s="2"/>
+      <c r="G88" s="2"/>
+      <c r="H88" s="2"/>
+      <c r="I88" s="2"/>
+      <c r="J88" s="2"/>
+      <c r="K88" s="2"/>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A89" s="38">
         <f>'Article Data'!A75</f>
         <v>0</v>
       </c>
-      <c r="B88" s="38">
+      <c r="B89" s="38">
         <f>'Article Data'!B75</f>
         <v>0</v>
       </c>
-      <c r="C88" s="33"/>
-      <c r="D88" s="33"/>
-      <c r="E88" s="33"/>
-      <c r="F88" s="33"/>
-      <c r="G88" s="33"/>
-      <c r="H88" s="33"/>
-      <c r="I88" s="33"/>
-      <c r="J88" s="33"/>
-      <c r="K88" s="33"/>
-    </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A89" s="39">
+      <c r="C89" s="33"/>
+      <c r="D89" s="33"/>
+      <c r="E89" s="33"/>
+      <c r="F89" s="33"/>
+      <c r="G89" s="33"/>
+      <c r="H89" s="33"/>
+      <c r="I89" s="33"/>
+      <c r="J89" s="33"/>
+      <c r="K89" s="33"/>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A90" s="39">
         <f>'Article Data'!A76</f>
         <v>0</v>
       </c>
-      <c r="B89" s="39">
+      <c r="B90" s="39">
         <f>'Article Data'!B76</f>
         <v>0</v>
       </c>
-      <c r="C89" s="2"/>
-      <c r="D89" s="2"/>
-      <c r="E89" s="2"/>
-      <c r="F89" s="2"/>
-      <c r="G89" s="2"/>
-      <c r="H89" s="2"/>
-      <c r="I89" s="2"/>
-      <c r="J89" s="2"/>
-      <c r="K89" s="2"/>
-    </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A90" s="38">
+      <c r="C90" s="2"/>
+      <c r="D90" s="2"/>
+      <c r="E90" s="2"/>
+      <c r="F90" s="2"/>
+      <c r="G90" s="2"/>
+      <c r="H90" s="2"/>
+      <c r="I90" s="2"/>
+      <c r="J90" s="2"/>
+      <c r="K90" s="2"/>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A91" s="38">
         <f>'Article Data'!A77</f>
         <v>0</v>
       </c>
-      <c r="B90" s="38">
+      <c r="B91" s="38">
         <f>'Article Data'!B77</f>
         <v>0</v>
       </c>
-      <c r="C90" s="33"/>
-      <c r="D90" s="33"/>
-      <c r="E90" s="33"/>
-      <c r="F90" s="33"/>
-      <c r="G90" s="33"/>
-      <c r="H90" s="33"/>
-      <c r="I90" s="33"/>
-      <c r="J90" s="33"/>
-      <c r="K90" s="33"/>
-    </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A91" s="39">
+      <c r="C91" s="33"/>
+      <c r="D91" s="33"/>
+      <c r="E91" s="33"/>
+      <c r="F91" s="33"/>
+      <c r="G91" s="33"/>
+      <c r="H91" s="33"/>
+      <c r="I91" s="33"/>
+      <c r="J91" s="33"/>
+      <c r="K91" s="33"/>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A92" s="39">
         <f>'Article Data'!A78</f>
         <v>0</v>
       </c>
-      <c r="B91" s="39">
+      <c r="B92" s="39">
         <f>'Article Data'!B78</f>
         <v>0</v>
       </c>
-      <c r="C91" s="2"/>
-      <c r="D91" s="2"/>
-      <c r="E91" s="2"/>
-      <c r="F91" s="2"/>
-      <c r="G91" s="2"/>
-      <c r="H91" s="2"/>
-      <c r="I91" s="2"/>
-      <c r="J91" s="2"/>
-      <c r="K91" s="2"/>
-    </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A92" s="38">
+      <c r="C92" s="2"/>
+      <c r="D92" s="2"/>
+      <c r="E92" s="2"/>
+      <c r="F92" s="2"/>
+      <c r="G92" s="2"/>
+      <c r="H92" s="2"/>
+      <c r="I92" s="2"/>
+      <c r="J92" s="2"/>
+      <c r="K92" s="2"/>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A93" s="38">
         <f>'Article Data'!A79</f>
         <v>0</v>
       </c>
-      <c r="B92" s="38">
+      <c r="B93" s="38">
         <f>'Article Data'!B79</f>
         <v>0</v>
       </c>
-      <c r="C92" s="33"/>
-      <c r="D92" s="33"/>
-      <c r="E92" s="33"/>
-      <c r="F92" s="33"/>
-      <c r="G92" s="33"/>
-      <c r="H92" s="33"/>
-      <c r="I92" s="33"/>
-      <c r="J92" s="33"/>
-      <c r="K92" s="33"/>
-    </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A93" s="39">
+      <c r="C93" s="33"/>
+      <c r="D93" s="33"/>
+      <c r="E93" s="33"/>
+      <c r="F93" s="33"/>
+      <c r="G93" s="33"/>
+      <c r="H93" s="33"/>
+      <c r="I93" s="33"/>
+      <c r="J93" s="33"/>
+      <c r="K93" s="33"/>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A94" s="39">
         <f>'Article Data'!A80</f>
         <v>0</v>
       </c>
-      <c r="B93" s="39">
+      <c r="B94" s="39">
         <f>'Article Data'!B80</f>
         <v>0</v>
       </c>
-      <c r="C93" s="2"/>
-      <c r="D93" s="2"/>
-      <c r="E93" s="2"/>
-      <c r="F93" s="2"/>
-      <c r="G93" s="2"/>
-      <c r="H93" s="2"/>
-      <c r="I93" s="2"/>
-      <c r="J93" s="2"/>
-      <c r="K93" s="2"/>
-    </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A94" s="38">
+      <c r="C94" s="2"/>
+      <c r="D94" s="2"/>
+      <c r="E94" s="2"/>
+      <c r="F94" s="2"/>
+      <c r="G94" s="2"/>
+      <c r="H94" s="2"/>
+      <c r="I94" s="2"/>
+      <c r="J94" s="2"/>
+      <c r="K94" s="2"/>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A95" s="38">
         <f>'Article Data'!A81</f>
         <v>0</v>
       </c>
-      <c r="B94" s="38">
+      <c r="B95" s="38">
         <f>'Article Data'!B81</f>
         <v>0</v>
       </c>
-      <c r="C94" s="33"/>
-      <c r="D94" s="33"/>
-      <c r="E94" s="33"/>
-      <c r="F94" s="33"/>
-      <c r="G94" s="33"/>
-      <c r="H94" s="33"/>
-      <c r="I94" s="33"/>
-      <c r="J94" s="33"/>
-      <c r="K94" s="33"/>
-    </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A95" s="39">
+      <c r="C95" s="33"/>
+      <c r="D95" s="33"/>
+      <c r="E95" s="33"/>
+      <c r="F95" s="33"/>
+      <c r="G95" s="33"/>
+      <c r="H95" s="33"/>
+      <c r="I95" s="33"/>
+      <c r="J95" s="33"/>
+      <c r="K95" s="33"/>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A96" s="39">
         <f>'Article Data'!A82</f>
         <v>0</v>
       </c>
-      <c r="B95" s="39">
+      <c r="B96" s="39">
         <f>'Article Data'!B82</f>
         <v>0</v>
       </c>
-      <c r="C95" s="2"/>
-      <c r="D95" s="2"/>
-      <c r="E95" s="2"/>
-      <c r="F95" s="2"/>
-      <c r="G95" s="2"/>
-      <c r="H95" s="2"/>
-      <c r="I95" s="2"/>
-      <c r="J95" s="2"/>
-      <c r="K95" s="2"/>
-    </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A96" s="38">
+      <c r="C96" s="2"/>
+      <c r="D96" s="2"/>
+      <c r="E96" s="2"/>
+      <c r="F96" s="2"/>
+      <c r="G96" s="2"/>
+      <c r="H96" s="2"/>
+      <c r="I96" s="2"/>
+      <c r="J96" s="2"/>
+      <c r="K96" s="2"/>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A97" s="38">
         <f>'Article Data'!A83</f>
         <v>0</v>
       </c>
-      <c r="B96" s="38">
+      <c r="B97" s="38">
         <f>'Article Data'!B83</f>
         <v>0</v>
       </c>
-      <c r="C96" s="33"/>
-      <c r="D96" s="33"/>
-      <c r="E96" s="33"/>
-      <c r="F96" s="33"/>
-      <c r="G96" s="33"/>
-      <c r="H96" s="33"/>
-      <c r="I96" s="33"/>
-      <c r="J96" s="33"/>
-      <c r="K96" s="33"/>
-    </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A97" s="39">
+      <c r="C97" s="33"/>
+      <c r="D97" s="33"/>
+      <c r="E97" s="33"/>
+      <c r="F97" s="33"/>
+      <c r="G97" s="33"/>
+      <c r="H97" s="33"/>
+      <c r="I97" s="33"/>
+      <c r="J97" s="33"/>
+      <c r="K97" s="33"/>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A98" s="39">
         <f>'Article Data'!A84</f>
         <v>0</v>
       </c>
-      <c r="B97" s="39">
+      <c r="B98" s="39">
         <f>'Article Data'!B84</f>
         <v>0</v>
       </c>
-      <c r="C97" s="2"/>
-      <c r="D97" s="2"/>
-      <c r="E97" s="2"/>
-      <c r="F97" s="2"/>
-      <c r="G97" s="2"/>
-      <c r="H97" s="2"/>
-      <c r="I97" s="2"/>
-      <c r="J97" s="2"/>
-      <c r="K97" s="2"/>
-    </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A98" s="38">
+      <c r="C98" s="2"/>
+      <c r="D98" s="2"/>
+      <c r="E98" s="2"/>
+      <c r="F98" s="2"/>
+      <c r="G98" s="2"/>
+      <c r="H98" s="2"/>
+      <c r="I98" s="2"/>
+      <c r="J98" s="2"/>
+      <c r="K98" s="2"/>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A99" s="38">
         <f>'Article Data'!A85</f>
         <v>0</v>
       </c>
-      <c r="B98" s="38">
+      <c r="B99" s="38">
         <f>'Article Data'!B85</f>
         <v>0</v>
       </c>
-      <c r="C98" s="33"/>
-      <c r="D98" s="33"/>
-      <c r="E98" s="33"/>
-      <c r="F98" s="33"/>
-      <c r="G98" s="33"/>
-      <c r="H98" s="33"/>
-      <c r="I98" s="33"/>
-      <c r="J98" s="33"/>
-      <c r="K98" s="33"/>
-    </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A99" s="39">
+      <c r="C99" s="33"/>
+      <c r="D99" s="33"/>
+      <c r="E99" s="33"/>
+      <c r="F99" s="33"/>
+      <c r="G99" s="33"/>
+      <c r="H99" s="33"/>
+      <c r="I99" s="33"/>
+      <c r="J99" s="33"/>
+      <c r="K99" s="33"/>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A100" s="39">
         <f>'Article Data'!A86</f>
         <v>0</v>
       </c>
-      <c r="B99" s="39">
+      <c r="B100" s="39">
         <f>'Article Data'!B86</f>
         <v>0</v>
       </c>
-      <c r="C99" s="2"/>
-      <c r="D99" s="2"/>
-      <c r="E99" s="2"/>
-      <c r="F99" s="2"/>
-      <c r="G99" s="2"/>
-      <c r="H99" s="2"/>
-      <c r="I99" s="2"/>
-      <c r="J99" s="2"/>
-      <c r="K99" s="2"/>
-    </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A100" s="38">
+      <c r="C100" s="2"/>
+      <c r="D100" s="2"/>
+      <c r="E100" s="2"/>
+      <c r="F100" s="2"/>
+      <c r="G100" s="2"/>
+      <c r="H100" s="2"/>
+      <c r="I100" s="2"/>
+      <c r="J100" s="2"/>
+      <c r="K100" s="2"/>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A101" s="38">
         <f>'Article Data'!A87</f>
         <v>0</v>
       </c>
-      <c r="B100" s="38">
+      <c r="B101" s="38">
         <f>'Article Data'!B87</f>
         <v>0</v>
       </c>
-      <c r="C100" s="33"/>
-      <c r="D100" s="33"/>
-      <c r="E100" s="33"/>
-      <c r="F100" s="33"/>
-      <c r="G100" s="33"/>
-      <c r="H100" s="33"/>
-      <c r="I100" s="33"/>
-      <c r="J100" s="33"/>
-      <c r="K100" s="33"/>
-    </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A101" s="39">
+      <c r="C101" s="33"/>
+      <c r="D101" s="33"/>
+      <c r="E101" s="33"/>
+      <c r="F101" s="33"/>
+      <c r="G101" s="33"/>
+      <c r="H101" s="33"/>
+      <c r="I101" s="33"/>
+      <c r="J101" s="33"/>
+      <c r="K101" s="33"/>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A102" s="39">
         <f>'Article Data'!A88</f>
         <v>0</v>
       </c>
-      <c r="B101" s="39">
+      <c r="B102" s="39">
         <f>'Article Data'!B88</f>
         <v>0</v>
       </c>
-      <c r="C101" s="2"/>
-      <c r="D101" s="2"/>
-      <c r="E101" s="2"/>
-      <c r="F101" s="2"/>
-      <c r="G101" s="2"/>
-      <c r="H101" s="2"/>
-      <c r="I101" s="2"/>
-      <c r="J101" s="2"/>
-      <c r="K101" s="2"/>
-    </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.2"/>
+      <c r="C102" s="2"/>
+      <c r="D102" s="2"/>
+      <c r="E102" s="2"/>
+      <c r="F102" s="2"/>
+      <c r="G102" s="2"/>
+      <c r="H102" s="2"/>
+      <c r="I102" s="2"/>
+      <c r="J102" s="2"/>
+      <c r="K102" s="2"/>
+    </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.2"/>
     <row r="104" spans="1:11" x14ac:dyDescent="0.2"/>
     <row r="105" spans="1:11" x14ac:dyDescent="0.2"/>
@@ -13043,9 +13173,10 @@
     <row r="166" x14ac:dyDescent="0.2"/>
     <row r="167" x14ac:dyDescent="0.2"/>
     <row r="168" x14ac:dyDescent="0.2"/>
+    <row r="169" x14ac:dyDescent="0.2"/>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H101" xr:uid="{6040740E-CE9A-D448-8C18-9628B188DF67}">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H102" xr:uid="{6040740E-CE9A-D448-8C18-9628B188DF67}">
       <formula1>1</formula1>
       <formula2>1000</formula2>
     </dataValidation>
@@ -13060,19 +13191,19 @@
           <x14:formula1>
             <xm:f>Metadata!$E$38:$E$46</xm:f>
           </x14:formula1>
-          <xm:sqref>J2:J101</xm:sqref>
+          <xm:sqref>J2:J102</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{9C5920C0-FDE3-124A-BF1F-0D19704E4E52}">
           <x14:formula1>
             <xm:f>Metadata!$E$34:$E$37</xm:f>
           </x14:formula1>
-          <xm:sqref>I2:I101</xm:sqref>
+          <xm:sqref>I2:I102</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{3BCD9EFB-7F65-8942-80BF-C06CA60533BF}">
           <x14:formula1>
             <xm:f>Metadata!$E$27:$E$32</xm:f>
           </x14:formula1>
-          <xm:sqref>G2:G101</xm:sqref>
+          <xm:sqref>G2:G102</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -13082,11 +13213,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FCE83AF-3E41-DA47-93A8-FC261BD9FBFB}">
-  <dimension ref="A1:J157"/>
+  <dimension ref="A1:J158"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H82" sqref="H82"/>
+      <selection pane="bottomLeft" activeCell="H84" sqref="H84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="16" zeroHeight="1" x14ac:dyDescent="0.2"/>
@@ -15854,457 +15985,506 @@
         <v>-45.03</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:10" ht="68" x14ac:dyDescent="0.2">
       <c r="A82" s="39">
         <f>'Article Data'!A64</f>
-        <v>0</v>
-      </c>
-      <c r="B82" s="39">
+        <v>291</v>
+      </c>
+      <c r="B82" s="39" t="str">
         <f>'Article Data'!B64</f>
-        <v>0</v>
-      </c>
-      <c r="C82" s="2"/>
-      <c r="D82" s="2"/>
-      <c r="E82" s="2"/>
-      <c r="F82" s="2"/>
-      <c r="G82" s="2"/>
-      <c r="H82" s="2"/>
-      <c r="I82" s="2"/>
-      <c r="J82" s="2"/>
-    </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A83" s="38">
+        <v>Spatio-temporal variation of biotic factors underpins contemporary range dynamics of congeners</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="E82" s="2" t="s">
+        <v>900</v>
+      </c>
+      <c r="F82" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="G82" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="H82" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="I82" s="2">
+        <v>42.01</v>
+      </c>
+      <c r="J82" s="2">
+        <v>-84.71</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" ht="68" x14ac:dyDescent="0.2">
+      <c r="A83" s="39">
+        <f>'Article Data'!A64</f>
+        <v>291</v>
+      </c>
+      <c r="B83" s="39" t="str">
+        <f>'Article Data'!B64</f>
+        <v>Spatio-temporal variation of biotic factors underpins contemporary range dynamics of congeners</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>900</v>
+      </c>
+      <c r="F83" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="G83" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="H83" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="I83" s="2">
+        <v>40.08</v>
+      </c>
+      <c r="J83" s="2">
+        <v>-80.569999999999993</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A84" s="38">
         <f>'Article Data'!A65</f>
         <v>0</v>
       </c>
-      <c r="B83" s="38">
+      <c r="B84" s="38">
         <f>'Article Data'!B65</f>
         <v>0</v>
       </c>
-      <c r="C83" s="33"/>
-      <c r="D83" s="33"/>
-      <c r="E83" s="33"/>
-      <c r="F83" s="33"/>
-      <c r="G83" s="33"/>
-      <c r="H83" s="33"/>
-      <c r="I83" s="33"/>
-      <c r="J83" s="33"/>
-    </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A84" s="39">
+      <c r="C84" s="33"/>
+      <c r="D84" s="33"/>
+      <c r="E84" s="33"/>
+      <c r="F84" s="33"/>
+      <c r="G84" s="33"/>
+      <c r="H84" s="33"/>
+      <c r="I84" s="33"/>
+      <c r="J84" s="33"/>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A85" s="39">
         <f>'Article Data'!A66</f>
         <v>0</v>
       </c>
-      <c r="B84" s="39">
+      <c r="B85" s="39">
         <f>'Article Data'!B66</f>
         <v>0</v>
       </c>
-      <c r="C84" s="2"/>
-      <c r="D84" s="2"/>
-      <c r="E84" s="2"/>
-      <c r="F84" s="2"/>
-      <c r="G84" s="2"/>
-      <c r="H84" s="2"/>
-      <c r="I84" s="2"/>
-      <c r="J84" s="2"/>
-    </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A85" s="38">
+      <c r="C85" s="2"/>
+      <c r="D85" s="2"/>
+      <c r="E85" s="2"/>
+      <c r="F85" s="2"/>
+      <c r="G85" s="2"/>
+      <c r="H85" s="2"/>
+      <c r="I85" s="2"/>
+      <c r="J85" s="2"/>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A86" s="38">
         <f>'Article Data'!A67</f>
         <v>0</v>
       </c>
-      <c r="B85" s="38">
+      <c r="B86" s="38">
         <f>'Article Data'!B67</f>
         <v>0</v>
       </c>
-      <c r="C85" s="33"/>
-      <c r="D85" s="33"/>
-      <c r="E85" s="33"/>
-      <c r="F85" s="33"/>
-      <c r="G85" s="33"/>
-      <c r="H85" s="33"/>
-      <c r="I85" s="33"/>
-      <c r="J85" s="33"/>
-    </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A86" s="39">
+      <c r="C86" s="33"/>
+      <c r="D86" s="33"/>
+      <c r="E86" s="33"/>
+      <c r="F86" s="33"/>
+      <c r="G86" s="33"/>
+      <c r="H86" s="33"/>
+      <c r="I86" s="33"/>
+      <c r="J86" s="33"/>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A87" s="39">
         <f>'Article Data'!A68</f>
         <v>0</v>
       </c>
-      <c r="B86" s="39">
+      <c r="B87" s="39">
         <f>'Article Data'!B68</f>
         <v>0</v>
       </c>
-      <c r="C86" s="2"/>
-      <c r="D86" s="2"/>
-      <c r="E86" s="2"/>
-      <c r="F86" s="2"/>
-      <c r="G86" s="2"/>
-      <c r="H86" s="2"/>
-      <c r="I86" s="2"/>
-      <c r="J86" s="2"/>
-    </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A87" s="38">
+      <c r="C87" s="2"/>
+      <c r="D87" s="2"/>
+      <c r="E87" s="2"/>
+      <c r="F87" s="2"/>
+      <c r="G87" s="2"/>
+      <c r="H87" s="2"/>
+      <c r="I87" s="2"/>
+      <c r="J87" s="2"/>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A88" s="38">
         <f>'Article Data'!A69</f>
         <v>0</v>
       </c>
-      <c r="B87" s="38">
+      <c r="B88" s="38">
         <f>'Article Data'!B69</f>
         <v>0</v>
       </c>
-      <c r="C87" s="33"/>
-      <c r="D87" s="33"/>
-      <c r="E87" s="33"/>
-      <c r="F87" s="33"/>
-      <c r="G87" s="33"/>
-      <c r="H87" s="33"/>
-      <c r="I87" s="33"/>
-      <c r="J87" s="33"/>
-    </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A88" s="39">
+      <c r="C88" s="33"/>
+      <c r="D88" s="33"/>
+      <c r="E88" s="33"/>
+      <c r="F88" s="33"/>
+      <c r="G88" s="33"/>
+      <c r="H88" s="33"/>
+      <c r="I88" s="33"/>
+      <c r="J88" s="33"/>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A89" s="39">
         <f>'Article Data'!A70</f>
         <v>0</v>
       </c>
-      <c r="B88" s="39">
+      <c r="B89" s="39">
         <f>'Article Data'!B70</f>
         <v>0</v>
       </c>
-      <c r="C88" s="2"/>
-      <c r="D88" s="2"/>
-      <c r="E88" s="2"/>
-      <c r="F88" s="2"/>
-      <c r="G88" s="2"/>
-      <c r="H88" s="2"/>
-      <c r="I88" s="2"/>
-      <c r="J88" s="2"/>
-    </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A89" s="38">
+      <c r="C89" s="2"/>
+      <c r="D89" s="2"/>
+      <c r="E89" s="2"/>
+      <c r="F89" s="2"/>
+      <c r="G89" s="2"/>
+      <c r="H89" s="2"/>
+      <c r="I89" s="2"/>
+      <c r="J89" s="2"/>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A90" s="38">
         <f>'Article Data'!A71</f>
         <v>0</v>
       </c>
-      <c r="B89" s="38">
+      <c r="B90" s="38">
         <f>'Article Data'!B71</f>
         <v>0</v>
       </c>
-      <c r="C89" s="33"/>
-      <c r="D89" s="33"/>
-      <c r="E89" s="33"/>
-      <c r="F89" s="33"/>
-      <c r="G89" s="33"/>
-      <c r="H89" s="33"/>
-      <c r="I89" s="33"/>
-      <c r="J89" s="33"/>
-    </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A90" s="39">
+      <c r="C90" s="33"/>
+      <c r="D90" s="33"/>
+      <c r="E90" s="33"/>
+      <c r="F90" s="33"/>
+      <c r="G90" s="33"/>
+      <c r="H90" s="33"/>
+      <c r="I90" s="33"/>
+      <c r="J90" s="33"/>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A91" s="39">
         <f>'Article Data'!A72</f>
         <v>0</v>
       </c>
-      <c r="B90" s="39">
+      <c r="B91" s="39">
         <f>'Article Data'!B72</f>
         <v>0</v>
       </c>
-      <c r="C90" s="2"/>
-      <c r="D90" s="2"/>
-      <c r="E90" s="2"/>
-      <c r="F90" s="2"/>
-      <c r="G90" s="2"/>
-      <c r="H90" s="2"/>
-      <c r="I90" s="2"/>
-      <c r="J90" s="2"/>
-    </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A91" s="38">
+      <c r="C91" s="2"/>
+      <c r="D91" s="2"/>
+      <c r="E91" s="2"/>
+      <c r="F91" s="2"/>
+      <c r="G91" s="2"/>
+      <c r="H91" s="2"/>
+      <c r="I91" s="2"/>
+      <c r="J91" s="2"/>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A92" s="38">
         <f>'Article Data'!A73</f>
         <v>0</v>
       </c>
-      <c r="B91" s="38">
+      <c r="B92" s="38">
         <f>'Article Data'!B73</f>
         <v>0</v>
       </c>
-      <c r="C91" s="33"/>
-      <c r="D91" s="33"/>
-      <c r="E91" s="33"/>
-      <c r="F91" s="33"/>
-      <c r="G91" s="33"/>
-      <c r="H91" s="33"/>
-      <c r="I91" s="33"/>
-      <c r="J91" s="33"/>
-    </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A92" s="39">
+      <c r="C92" s="33"/>
+      <c r="D92" s="33"/>
+      <c r="E92" s="33"/>
+      <c r="F92" s="33"/>
+      <c r="G92" s="33"/>
+      <c r="H92" s="33"/>
+      <c r="I92" s="33"/>
+      <c r="J92" s="33"/>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A93" s="39">
         <f>'Article Data'!A74</f>
         <v>0</v>
       </c>
-      <c r="B92" s="39">
+      <c r="B93" s="39">
         <f>'Article Data'!B74</f>
         <v>0</v>
       </c>
-      <c r="C92" s="2"/>
-      <c r="D92" s="2"/>
-      <c r="E92" s="2"/>
-      <c r="F92" s="2"/>
-      <c r="G92" s="2"/>
-      <c r="H92" s="2"/>
-      <c r="I92" s="2"/>
-      <c r="J92" s="2"/>
-    </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A93" s="38">
+      <c r="C93" s="2"/>
+      <c r="D93" s="2"/>
+      <c r="E93" s="2"/>
+      <c r="F93" s="2"/>
+      <c r="G93" s="2"/>
+      <c r="H93" s="2"/>
+      <c r="I93" s="2"/>
+      <c r="J93" s="2"/>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A94" s="38">
         <f>'Article Data'!A75</f>
         <v>0</v>
       </c>
-      <c r="B93" s="38">
+      <c r="B94" s="38">
         <f>'Article Data'!B75</f>
         <v>0</v>
       </c>
-      <c r="C93" s="33"/>
-      <c r="D93" s="33"/>
-      <c r="E93" s="33"/>
-      <c r="F93" s="33"/>
-      <c r="G93" s="33"/>
-      <c r="H93" s="33"/>
-      <c r="I93" s="33"/>
-      <c r="J93" s="33"/>
-    </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A94" s="39">
+      <c r="C94" s="33"/>
+      <c r="D94" s="33"/>
+      <c r="E94" s="33"/>
+      <c r="F94" s="33"/>
+      <c r="G94" s="33"/>
+      <c r="H94" s="33"/>
+      <c r="I94" s="33"/>
+      <c r="J94" s="33"/>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A95" s="39">
         <f>'Article Data'!A76</f>
         <v>0</v>
       </c>
-      <c r="B94" s="39">
+      <c r="B95" s="39">
         <f>'Article Data'!B76</f>
         <v>0</v>
       </c>
-      <c r="C94" s="2"/>
-      <c r="D94" s="2"/>
-      <c r="E94" s="2"/>
-      <c r="F94" s="2"/>
-      <c r="G94" s="2"/>
-      <c r="H94" s="2"/>
-      <c r="I94" s="2"/>
-      <c r="J94" s="2"/>
-    </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A95" s="38">
+      <c r="C95" s="2"/>
+      <c r="D95" s="2"/>
+      <c r="E95" s="2"/>
+      <c r="F95" s="2"/>
+      <c r="G95" s="2"/>
+      <c r="H95" s="2"/>
+      <c r="I95" s="2"/>
+      <c r="J95" s="2"/>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A96" s="38">
         <f>'Article Data'!A77</f>
         <v>0</v>
       </c>
-      <c r="B95" s="38">
+      <c r="B96" s="38">
         <f>'Article Data'!B77</f>
         <v>0</v>
       </c>
-      <c r="C95" s="33"/>
-      <c r="D95" s="33"/>
-      <c r="E95" s="33"/>
-      <c r="F95" s="33"/>
-      <c r="G95" s="33"/>
-      <c r="H95" s="33"/>
-      <c r="I95" s="33"/>
-      <c r="J95" s="33"/>
-    </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A96" s="39">
+      <c r="C96" s="33"/>
+      <c r="D96" s="33"/>
+      <c r="E96" s="33"/>
+      <c r="F96" s="33"/>
+      <c r="G96" s="33"/>
+      <c r="H96" s="33"/>
+      <c r="I96" s="33"/>
+      <c r="J96" s="33"/>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A97" s="39">
         <f>'Article Data'!A78</f>
         <v>0</v>
       </c>
-      <c r="B96" s="39">
+      <c r="B97" s="39">
         <f>'Article Data'!B78</f>
         <v>0</v>
       </c>
-      <c r="C96" s="2"/>
-      <c r="D96" s="2"/>
-      <c r="E96" s="2"/>
-      <c r="F96" s="2"/>
-      <c r="G96" s="2"/>
-      <c r="H96" s="2"/>
-      <c r="I96" s="2"/>
-      <c r="J96" s="2"/>
-    </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A97" s="38">
+      <c r="C97" s="2"/>
+      <c r="D97" s="2"/>
+      <c r="E97" s="2"/>
+      <c r="F97" s="2"/>
+      <c r="G97" s="2"/>
+      <c r="H97" s="2"/>
+      <c r="I97" s="2"/>
+      <c r="J97" s="2"/>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A98" s="38">
         <f>'Article Data'!A79</f>
         <v>0</v>
       </c>
-      <c r="B97" s="38">
+      <c r="B98" s="38">
         <f>'Article Data'!B79</f>
         <v>0</v>
       </c>
-      <c r="C97" s="33"/>
-      <c r="D97" s="33"/>
-      <c r="E97" s="33"/>
-      <c r="F97" s="33"/>
-      <c r="G97" s="33"/>
-      <c r="H97" s="33"/>
-      <c r="I97" s="33"/>
-      <c r="J97" s="33"/>
-    </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A98" s="39">
+      <c r="C98" s="33"/>
+      <c r="D98" s="33"/>
+      <c r="E98" s="33"/>
+      <c r="F98" s="33"/>
+      <c r="G98" s="33"/>
+      <c r="H98" s="33"/>
+      <c r="I98" s="33"/>
+      <c r="J98" s="33"/>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A99" s="39">
         <f>'Article Data'!A80</f>
         <v>0</v>
       </c>
-      <c r="B98" s="39">
+      <c r="B99" s="39">
         <f>'Article Data'!B80</f>
         <v>0</v>
       </c>
-      <c r="C98" s="2"/>
-      <c r="D98" s="2"/>
-      <c r="E98" s="2"/>
-      <c r="F98" s="2"/>
-      <c r="G98" s="2"/>
-      <c r="H98" s="2"/>
-      <c r="I98" s="2"/>
-      <c r="J98" s="2"/>
-    </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A99" s="38">
+      <c r="C99" s="2"/>
+      <c r="D99" s="2"/>
+      <c r="E99" s="2"/>
+      <c r="F99" s="2"/>
+      <c r="G99" s="2"/>
+      <c r="H99" s="2"/>
+      <c r="I99" s="2"/>
+      <c r="J99" s="2"/>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A100" s="38">
         <f>'Article Data'!A81</f>
         <v>0</v>
       </c>
-      <c r="B99" s="38">
+      <c r="B100" s="38">
         <f>'Article Data'!B81</f>
         <v>0</v>
       </c>
-      <c r="C99" s="33"/>
-      <c r="D99" s="33"/>
-      <c r="E99" s="33"/>
-      <c r="F99" s="33"/>
-      <c r="G99" s="33"/>
-      <c r="H99" s="33"/>
-      <c r="I99" s="33"/>
-      <c r="J99" s="33"/>
-    </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A100" s="39">
+      <c r="C100" s="33"/>
+      <c r="D100" s="33"/>
+      <c r="E100" s="33"/>
+      <c r="F100" s="33"/>
+      <c r="G100" s="33"/>
+      <c r="H100" s="33"/>
+      <c r="I100" s="33"/>
+      <c r="J100" s="33"/>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A101" s="39">
         <f>'Article Data'!A82</f>
         <v>0</v>
       </c>
-      <c r="B100" s="39">
+      <c r="B101" s="39">
         <f>'Article Data'!B82</f>
         <v>0</v>
       </c>
-      <c r="C100" s="2"/>
-      <c r="D100" s="2"/>
-      <c r="E100" s="2"/>
-      <c r="F100" s="2"/>
-      <c r="G100" s="2"/>
-      <c r="H100" s="2"/>
-      <c r="I100" s="2"/>
-      <c r="J100" s="2"/>
-    </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A101" s="38">
+      <c r="C101" s="2"/>
+      <c r="D101" s="2"/>
+      <c r="E101" s="2"/>
+      <c r="F101" s="2"/>
+      <c r="G101" s="2"/>
+      <c r="H101" s="2"/>
+      <c r="I101" s="2"/>
+      <c r="J101" s="2"/>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A102" s="38">
         <f>'Article Data'!A83</f>
         <v>0</v>
       </c>
-      <c r="B101" s="38">
+      <c r="B102" s="38">
         <f>'Article Data'!B83</f>
         <v>0</v>
       </c>
-      <c r="C101" s="33"/>
-      <c r="D101" s="33"/>
-      <c r="E101" s="33"/>
-      <c r="F101" s="33"/>
-      <c r="G101" s="33"/>
-      <c r="H101" s="33"/>
-      <c r="I101" s="33"/>
-      <c r="J101" s="33"/>
-    </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A102" s="39">
+      <c r="C102" s="33"/>
+      <c r="D102" s="33"/>
+      <c r="E102" s="33"/>
+      <c r="F102" s="33"/>
+      <c r="G102" s="33"/>
+      <c r="H102" s="33"/>
+      <c r="I102" s="33"/>
+      <c r="J102" s="33"/>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A103" s="39">
         <f>'Article Data'!A84</f>
         <v>0</v>
       </c>
-      <c r="B102" s="39">
+      <c r="B103" s="39">
         <f>'Article Data'!B84</f>
         <v>0</v>
       </c>
-      <c r="C102" s="2"/>
-      <c r="D102" s="2"/>
-      <c r="E102" s="2"/>
-      <c r="F102" s="2"/>
-      <c r="G102" s="2"/>
-      <c r="H102" s="2"/>
-      <c r="I102" s="2"/>
-      <c r="J102" s="2"/>
-    </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A103" s="38">
+      <c r="C103" s="2"/>
+      <c r="D103" s="2"/>
+      <c r="E103" s="2"/>
+      <c r="F103" s="2"/>
+      <c r="G103" s="2"/>
+      <c r="H103" s="2"/>
+      <c r="I103" s="2"/>
+      <c r="J103" s="2"/>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A104" s="38">
         <f>'Article Data'!A85</f>
         <v>0</v>
       </c>
-      <c r="B103" s="38">
+      <c r="B104" s="38">
         <f>'Article Data'!B85</f>
         <v>0</v>
       </c>
-      <c r="C103" s="33"/>
-      <c r="D103" s="33"/>
-      <c r="E103" s="33"/>
-      <c r="F103" s="33"/>
-      <c r="G103" s="33"/>
-      <c r="H103" s="33"/>
-      <c r="I103" s="33"/>
-      <c r="J103" s="33"/>
-    </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A104" s="39">
+      <c r="C104" s="33"/>
+      <c r="D104" s="33"/>
+      <c r="E104" s="33"/>
+      <c r="F104" s="33"/>
+      <c r="G104" s="33"/>
+      <c r="H104" s="33"/>
+      <c r="I104" s="33"/>
+      <c r="J104" s="33"/>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A105" s="39">
         <f>'Article Data'!A86</f>
         <v>0</v>
       </c>
-      <c r="B104" s="39">
+      <c r="B105" s="39">
         <f>'Article Data'!B86</f>
         <v>0</v>
       </c>
-      <c r="C104" s="2"/>
-      <c r="D104" s="2"/>
-      <c r="E104" s="2"/>
-      <c r="F104" s="2"/>
-      <c r="G104" s="2"/>
-      <c r="H104" s="2"/>
-      <c r="I104" s="2"/>
-      <c r="J104" s="2"/>
-    </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A105" s="38">
+      <c r="C105" s="2"/>
+      <c r="D105" s="2"/>
+      <c r="E105" s="2"/>
+      <c r="F105" s="2"/>
+      <c r="G105" s="2"/>
+      <c r="H105" s="2"/>
+      <c r="I105" s="2"/>
+      <c r="J105" s="2"/>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A106" s="38">
         <f>'Article Data'!A87</f>
         <v>0</v>
       </c>
-      <c r="B105" s="38">
+      <c r="B106" s="38">
         <f>'Article Data'!B87</f>
         <v>0</v>
       </c>
-      <c r="C105" s="33"/>
-      <c r="D105" s="33"/>
-      <c r="E105" s="33"/>
-      <c r="F105" s="33"/>
-      <c r="G105" s="33"/>
-      <c r="H105" s="33"/>
-      <c r="I105" s="33"/>
-      <c r="J105" s="33"/>
-    </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A106" s="39">
+      <c r="C106" s="33"/>
+      <c r="D106" s="33"/>
+      <c r="E106" s="33"/>
+      <c r="F106" s="33"/>
+      <c r="G106" s="33"/>
+      <c r="H106" s="33"/>
+      <c r="I106" s="33"/>
+      <c r="J106" s="33"/>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A107" s="39">
         <f>'Article Data'!A88</f>
         <v>0</v>
       </c>
-      <c r="B106" s="39">
+      <c r="B107" s="39">
         <f>'Article Data'!B88</f>
         <v>0</v>
       </c>
-      <c r="C106" s="2"/>
-      <c r="D106" s="2"/>
-      <c r="E106" s="2"/>
-      <c r="F106" s="2"/>
-      <c r="G106" s="2"/>
-      <c r="H106" s="2"/>
-      <c r="I106" s="2"/>
-      <c r="J106" s="2"/>
-    </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.2"/>
+      <c r="C107" s="2"/>
+      <c r="D107" s="2"/>
+      <c r="E107" s="2"/>
+      <c r="F107" s="2"/>
+      <c r="G107" s="2"/>
+      <c r="H107" s="2"/>
+      <c r="I107" s="2"/>
+      <c r="J107" s="2"/>
+    </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.2"/>
     <row r="109" spans="1:10" x14ac:dyDescent="0.2"/>
     <row r="110" spans="1:10" x14ac:dyDescent="0.2"/>
@@ -16355,13 +16535,14 @@
     <row r="155" x14ac:dyDescent="0.2"/>
     <row r="156" x14ac:dyDescent="0.2"/>
     <row r="157" x14ac:dyDescent="0.2"/>
+    <row r="158" x14ac:dyDescent="0.2"/>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J106" xr:uid="{CF1CF838-A2EB-C745-A15D-ED9076061FC2}">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J107" xr:uid="{CF1CF838-A2EB-C745-A15D-ED9076061FC2}">
       <formula1>-180</formula1>
       <formula2>180</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I106" xr:uid="{4F8149AA-0D30-4548-9C73-FB18A7A78FB2}">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I107" xr:uid="{4F8149AA-0D30-4548-9C73-FB18A7A78FB2}">
       <formula1>-90</formula1>
       <formula2>90</formula2>
     </dataValidation>
@@ -16375,19 +16556,19 @@
           <x14:formula1>
             <xm:f>Metadata!$E$69:$E$77</xm:f>
           </x14:formula1>
-          <xm:sqref>H1:H106</xm:sqref>
+          <xm:sqref>H1:H107</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{4E364754-8EEB-4D41-ABC6-B75E40EC13A4}">
           <x14:formula1>
             <xm:f>Metadata!$E$57:$E$62</xm:f>
           </x14:formula1>
-          <xm:sqref>F2:F106</xm:sqref>
+          <xm:sqref>F2:F107</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{B0DCEE14-3D38-204B-9695-362777ABB14E}">
           <x14:formula1>
             <xm:f>Metadata!$E$63:$E$68</xm:f>
           </x14:formula1>
-          <xm:sqref>G2:G106</xm:sqref>
+          <xm:sqref>G2:G107</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -16397,11 +16578,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B60FD29C-9206-FA47-9E36-5CC91A5A2C02}">
-  <dimension ref="A1:N203"/>
+  <dimension ref="A1:N204"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A89" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N93" sqref="N93"/>
+      <pane ySplit="1" topLeftCell="A91" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G95" sqref="G95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="16" zeroHeight="1" x14ac:dyDescent="0.2"/>
@@ -20693,1085 +20874,1154 @@
         <v>372</v>
       </c>
     </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:14" ht="68" x14ac:dyDescent="0.2">
       <c r="A94" s="39">
         <f>'Article Data'!A64</f>
-        <v>0</v>
-      </c>
-      <c r="B94" s="39">
+        <v>291</v>
+      </c>
+      <c r="B94" s="39" t="str">
         <f>'Article Data'!B64</f>
-        <v>0</v>
-      </c>
-      <c r="C94" s="39"/>
-      <c r="D94" s="39"/>
-      <c r="E94" s="39"/>
-      <c r="F94" s="39"/>
-      <c r="G94" s="39"/>
-      <c r="H94" s="39"/>
-      <c r="I94" s="39"/>
-      <c r="J94" s="39"/>
-      <c r="K94" s="39"/>
-      <c r="L94" s="39"/>
-      <c r="M94" s="39"/>
-      <c r="N94" s="39"/>
-    </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A95" s="38">
+        <v>Spatio-temporal variation of biotic factors underpins contemporary range dynamics of congeners</v>
+      </c>
+      <c r="C94" s="39" t="s">
+        <v>424</v>
+      </c>
+      <c r="D94" s="39" t="s">
+        <v>424</v>
+      </c>
+      <c r="E94" s="46">
+        <v>30437</v>
+      </c>
+      <c r="F94" s="46">
+        <v>41091</v>
+      </c>
+      <c r="G94" s="39">
+        <v>30</v>
+      </c>
+      <c r="H94" s="39">
+        <v>50</v>
+      </c>
+      <c r="I94" s="39" t="s">
+        <v>156</v>
+      </c>
+      <c r="J94" s="39" t="s">
+        <v>169</v>
+      </c>
+      <c r="K94" s="39" t="s">
+        <v>423</v>
+      </c>
+      <c r="L94" s="39">
+        <v>331</v>
+      </c>
+      <c r="M94" s="39" t="s">
+        <v>71</v>
+      </c>
+      <c r="N94" s="39" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14" ht="68" x14ac:dyDescent="0.2">
+      <c r="A95" s="39">
+        <f>'Article Data'!A64</f>
+        <v>291</v>
+      </c>
+      <c r="B95" s="39" t="str">
+        <f>'Article Data'!B64</f>
+        <v>Spatio-temporal variation of biotic factors underpins contemporary range dynamics of congeners</v>
+      </c>
+      <c r="C95" s="39" t="s">
+        <v>459</v>
+      </c>
+      <c r="D95" s="39" t="s">
+        <v>459</v>
+      </c>
+      <c r="E95" s="46">
+        <v>30437</v>
+      </c>
+      <c r="F95" s="46">
+        <v>41091</v>
+      </c>
+      <c r="G95" s="39">
+        <v>30</v>
+      </c>
+      <c r="H95" s="39">
+        <v>50</v>
+      </c>
+      <c r="I95" s="39" t="s">
+        <v>156</v>
+      </c>
+      <c r="J95" s="39" t="s">
+        <v>169</v>
+      </c>
+      <c r="K95" s="39" t="s">
+        <v>423</v>
+      </c>
+      <c r="L95" s="39">
+        <v>631</v>
+      </c>
+      <c r="M95" s="39" t="s">
+        <v>71</v>
+      </c>
+      <c r="N95" s="39" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A96" s="38">
         <f>'Article Data'!A65</f>
         <v>0</v>
       </c>
-      <c r="B95" s="38">
+      <c r="B96" s="38">
         <f>'Article Data'!B65</f>
         <v>0</v>
       </c>
-      <c r="C95" s="38"/>
-      <c r="D95" s="38"/>
-      <c r="E95" s="38"/>
-      <c r="F95" s="38"/>
-      <c r="G95" s="38"/>
-      <c r="H95" s="38"/>
-      <c r="I95" s="38"/>
-      <c r="J95" s="38"/>
-      <c r="K95" s="38"/>
-      <c r="L95" s="38"/>
-      <c r="M95" s="38"/>
-      <c r="N95" s="38"/>
-    </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A96" s="39">
+      <c r="C96" s="38"/>
+      <c r="D96" s="38"/>
+      <c r="E96" s="38"/>
+      <c r="F96" s="38"/>
+      <c r="G96" s="38"/>
+      <c r="H96" s="38"/>
+      <c r="I96" s="38"/>
+      <c r="J96" s="38"/>
+      <c r="K96" s="38"/>
+      <c r="L96" s="38"/>
+      <c r="M96" s="38"/>
+      <c r="N96" s="38"/>
+    </row>
+    <row r="97" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A97" s="39">
         <f>'Article Data'!A66</f>
         <v>0</v>
       </c>
-      <c r="B96" s="39">
+      <c r="B97" s="39">
         <f>'Article Data'!B66</f>
         <v>0</v>
       </c>
-      <c r="C96" s="39"/>
-      <c r="D96" s="39"/>
-      <c r="E96" s="39"/>
-      <c r="F96" s="39"/>
-      <c r="G96" s="39"/>
-      <c r="H96" s="39"/>
-      <c r="I96" s="39"/>
-      <c r="J96" s="39"/>
-      <c r="K96" s="39"/>
-      <c r="L96" s="39"/>
-      <c r="M96" s="39"/>
-      <c r="N96" s="39"/>
-    </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A97" s="38">
+      <c r="C97" s="39"/>
+      <c r="D97" s="39"/>
+      <c r="E97" s="39"/>
+      <c r="F97" s="39"/>
+      <c r="G97" s="39"/>
+      <c r="H97" s="39"/>
+      <c r="I97" s="39"/>
+      <c r="J97" s="39"/>
+      <c r="K97" s="39"/>
+      <c r="L97" s="39"/>
+      <c r="M97" s="39"/>
+      <c r="N97" s="39"/>
+    </row>
+    <row r="98" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A98" s="38">
         <f>'Article Data'!A67</f>
         <v>0</v>
       </c>
-      <c r="B97" s="38">
+      <c r="B98" s="38">
         <f>'Article Data'!B67</f>
         <v>0</v>
       </c>
-      <c r="C97" s="38"/>
-      <c r="D97" s="38"/>
-      <c r="E97" s="38"/>
-      <c r="F97" s="38"/>
-      <c r="G97" s="38"/>
-      <c r="H97" s="38"/>
-      <c r="I97" s="38"/>
-      <c r="J97" s="38"/>
-      <c r="K97" s="38"/>
-      <c r="L97" s="38"/>
-      <c r="M97" s="38"/>
-      <c r="N97" s="38"/>
-    </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A98" s="39">
+      <c r="C98" s="38"/>
+      <c r="D98" s="38"/>
+      <c r="E98" s="38"/>
+      <c r="F98" s="38"/>
+      <c r="G98" s="38"/>
+      <c r="H98" s="38"/>
+      <c r="I98" s="38"/>
+      <c r="J98" s="38"/>
+      <c r="K98" s="38"/>
+      <c r="L98" s="38"/>
+      <c r="M98" s="38"/>
+      <c r="N98" s="38"/>
+    </row>
+    <row r="99" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A99" s="39">
         <f>'Article Data'!A68</f>
         <v>0</v>
       </c>
-      <c r="B98" s="39">
+      <c r="B99" s="39">
         <f>'Article Data'!B68</f>
         <v>0</v>
       </c>
-      <c r="C98" s="39"/>
-      <c r="D98" s="39"/>
-      <c r="E98" s="39"/>
-      <c r="F98" s="39"/>
-      <c r="G98" s="39"/>
-      <c r="H98" s="39"/>
-      <c r="I98" s="39"/>
-      <c r="J98" s="39"/>
-      <c r="K98" s="39"/>
-      <c r="L98" s="39"/>
-      <c r="M98" s="39"/>
-      <c r="N98" s="39"/>
-    </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A99" s="38">
+      <c r="C99" s="39"/>
+      <c r="D99" s="39"/>
+      <c r="E99" s="39"/>
+      <c r="F99" s="39"/>
+      <c r="G99" s="39"/>
+      <c r="H99" s="39"/>
+      <c r="I99" s="39"/>
+      <c r="J99" s="39"/>
+      <c r="K99" s="39"/>
+      <c r="L99" s="39"/>
+      <c r="M99" s="39"/>
+      <c r="N99" s="39"/>
+    </row>
+    <row r="100" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A100" s="38">
         <f>'Article Data'!A69</f>
         <v>0</v>
       </c>
-      <c r="B99" s="38">
+      <c r="B100" s="38">
         <f>'Article Data'!B69</f>
         <v>0</v>
       </c>
-      <c r="C99" s="38"/>
-      <c r="D99" s="38"/>
-      <c r="E99" s="38"/>
-      <c r="F99" s="38"/>
-      <c r="G99" s="38"/>
-      <c r="H99" s="38"/>
-      <c r="I99" s="38"/>
-      <c r="J99" s="38"/>
-      <c r="K99" s="38"/>
-      <c r="L99" s="38"/>
-      <c r="M99" s="38"/>
-      <c r="N99" s="38"/>
-    </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A100" s="39">
+      <c r="C100" s="38"/>
+      <c r="D100" s="38"/>
+      <c r="E100" s="38"/>
+      <c r="F100" s="38"/>
+      <c r="G100" s="38"/>
+      <c r="H100" s="38"/>
+      <c r="I100" s="38"/>
+      <c r="J100" s="38"/>
+      <c r="K100" s="38"/>
+      <c r="L100" s="38"/>
+      <c r="M100" s="38"/>
+      <c r="N100" s="38"/>
+    </row>
+    <row r="101" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A101" s="39">
         <f>'Article Data'!A70</f>
         <v>0</v>
       </c>
-      <c r="B100" s="39">
+      <c r="B101" s="39">
         <f>'Article Data'!B70</f>
         <v>0</v>
       </c>
-      <c r="C100" s="39"/>
-      <c r="D100" s="39"/>
-      <c r="E100" s="39"/>
-      <c r="F100" s="39"/>
-      <c r="G100" s="39"/>
-      <c r="H100" s="39"/>
-      <c r="I100" s="39"/>
-      <c r="J100" s="39"/>
-      <c r="K100" s="39"/>
-      <c r="L100" s="39"/>
-      <c r="M100" s="39"/>
-      <c r="N100" s="39"/>
-    </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A101" s="38">
+      <c r="C101" s="39"/>
+      <c r="D101" s="39"/>
+      <c r="E101" s="39"/>
+      <c r="F101" s="39"/>
+      <c r="G101" s="39"/>
+      <c r="H101" s="39"/>
+      <c r="I101" s="39"/>
+      <c r="J101" s="39"/>
+      <c r="K101" s="39"/>
+      <c r="L101" s="39"/>
+      <c r="M101" s="39"/>
+      <c r="N101" s="39"/>
+    </row>
+    <row r="102" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A102" s="38">
         <f>'Article Data'!A71</f>
         <v>0</v>
       </c>
-      <c r="B101" s="38">
+      <c r="B102" s="38">
         <f>'Article Data'!B71</f>
         <v>0</v>
       </c>
-      <c r="C101" s="38"/>
-      <c r="D101" s="38"/>
-      <c r="E101" s="38"/>
-      <c r="F101" s="38"/>
-      <c r="G101" s="38"/>
-      <c r="H101" s="38"/>
-      <c r="I101" s="38"/>
-      <c r="J101" s="38"/>
-      <c r="K101" s="38"/>
-      <c r="L101" s="38"/>
-      <c r="M101" s="38"/>
-      <c r="N101" s="38"/>
-    </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A102" s="39">
+      <c r="C102" s="38"/>
+      <c r="D102" s="38"/>
+      <c r="E102" s="38"/>
+      <c r="F102" s="38"/>
+      <c r="G102" s="38"/>
+      <c r="H102" s="38"/>
+      <c r="I102" s="38"/>
+      <c r="J102" s="38"/>
+      <c r="K102" s="38"/>
+      <c r="L102" s="38"/>
+      <c r="M102" s="38"/>
+      <c r="N102" s="38"/>
+    </row>
+    <row r="103" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A103" s="39">
         <f>'Article Data'!A72</f>
         <v>0</v>
       </c>
-      <c r="B102" s="39">
+      <c r="B103" s="39">
         <f>'Article Data'!B72</f>
         <v>0</v>
       </c>
-      <c r="C102" s="39"/>
-      <c r="D102" s="39"/>
-      <c r="E102" s="39"/>
-      <c r="F102" s="39"/>
-      <c r="G102" s="39"/>
-      <c r="H102" s="39"/>
-      <c r="I102" s="39"/>
-      <c r="J102" s="39"/>
-      <c r="K102" s="39"/>
-      <c r="L102" s="39"/>
-      <c r="M102" s="39"/>
-      <c r="N102" s="39"/>
-    </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A103" s="38">
+      <c r="C103" s="39"/>
+      <c r="D103" s="39"/>
+      <c r="E103" s="39"/>
+      <c r="F103" s="39"/>
+      <c r="G103" s="39"/>
+      <c r="H103" s="39"/>
+      <c r="I103" s="39"/>
+      <c r="J103" s="39"/>
+      <c r="K103" s="39"/>
+      <c r="L103" s="39"/>
+      <c r="M103" s="39"/>
+      <c r="N103" s="39"/>
+    </row>
+    <row r="104" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A104" s="38">
         <f>'Article Data'!A73</f>
         <v>0</v>
       </c>
-      <c r="B103" s="38">
+      <c r="B104" s="38">
         <f>'Article Data'!B73</f>
         <v>0</v>
       </c>
-      <c r="C103" s="38"/>
-      <c r="D103" s="38"/>
-      <c r="E103" s="38"/>
-      <c r="F103" s="38"/>
-      <c r="G103" s="38"/>
-      <c r="H103" s="38"/>
-      <c r="I103" s="38"/>
-      <c r="J103" s="38"/>
-      <c r="K103" s="38"/>
-      <c r="L103" s="38"/>
-      <c r="M103" s="38"/>
-      <c r="N103" s="38"/>
-    </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A104" s="39">
+      <c r="C104" s="38"/>
+      <c r="D104" s="38"/>
+      <c r="E104" s="38"/>
+      <c r="F104" s="38"/>
+      <c r="G104" s="38"/>
+      <c r="H104" s="38"/>
+      <c r="I104" s="38"/>
+      <c r="J104" s="38"/>
+      <c r="K104" s="38"/>
+      <c r="L104" s="38"/>
+      <c r="M104" s="38"/>
+      <c r="N104" s="38"/>
+    </row>
+    <row r="105" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A105" s="39">
         <f>'Article Data'!A74</f>
         <v>0</v>
       </c>
-      <c r="B104" s="39">
+      <c r="B105" s="39">
         <f>'Article Data'!B74</f>
         <v>0</v>
       </c>
-      <c r="C104" s="39"/>
-      <c r="D104" s="39"/>
-      <c r="E104" s="39"/>
-      <c r="F104" s="39"/>
-      <c r="G104" s="39"/>
-      <c r="H104" s="39"/>
-      <c r="I104" s="39"/>
-      <c r="J104" s="39"/>
-      <c r="K104" s="39"/>
-      <c r="L104" s="39"/>
-      <c r="M104" s="39"/>
-      <c r="N104" s="39"/>
-    </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A105" s="38">
+      <c r="C105" s="39"/>
+      <c r="D105" s="39"/>
+      <c r="E105" s="39"/>
+      <c r="F105" s="39"/>
+      <c r="G105" s="39"/>
+      <c r="H105" s="39"/>
+      <c r="I105" s="39"/>
+      <c r="J105" s="39"/>
+      <c r="K105" s="39"/>
+      <c r="L105" s="39"/>
+      <c r="M105" s="39"/>
+      <c r="N105" s="39"/>
+    </row>
+    <row r="106" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A106" s="38">
         <f>'Article Data'!A75</f>
         <v>0</v>
       </c>
-      <c r="B105" s="38">
+      <c r="B106" s="38">
         <f>'Article Data'!B75</f>
         <v>0</v>
       </c>
-      <c r="C105" s="38"/>
-      <c r="D105" s="38"/>
-      <c r="E105" s="38"/>
-      <c r="F105" s="38"/>
-      <c r="G105" s="38"/>
-      <c r="H105" s="38"/>
-      <c r="I105" s="38"/>
-      <c r="J105" s="38"/>
-      <c r="K105" s="38"/>
-      <c r="L105" s="38"/>
-      <c r="M105" s="38"/>
-      <c r="N105" s="38"/>
-    </row>
-    <row r="106" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A106" s="39">
+      <c r="C106" s="38"/>
+      <c r="D106" s="38"/>
+      <c r="E106" s="38"/>
+      <c r="F106" s="38"/>
+      <c r="G106" s="38"/>
+      <c r="H106" s="38"/>
+      <c r="I106" s="38"/>
+      <c r="J106" s="38"/>
+      <c r="K106" s="38"/>
+      <c r="L106" s="38"/>
+      <c r="M106" s="38"/>
+      <c r="N106" s="38"/>
+    </row>
+    <row r="107" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A107" s="39">
         <f>'Article Data'!A76</f>
         <v>0</v>
       </c>
-      <c r="B106" s="39">
+      <c r="B107" s="39">
         <f>'Article Data'!B76</f>
         <v>0</v>
       </c>
-      <c r="C106" s="39"/>
-      <c r="D106" s="39"/>
-      <c r="E106" s="39"/>
-      <c r="F106" s="39"/>
-      <c r="G106" s="39"/>
-      <c r="H106" s="39"/>
-      <c r="I106" s="39"/>
-      <c r="J106" s="39"/>
-      <c r="K106" s="39"/>
-      <c r="L106" s="39"/>
-      <c r="M106" s="39"/>
-      <c r="N106" s="39"/>
-    </row>
-    <row r="107" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A107" s="38">
+      <c r="C107" s="39"/>
+      <c r="D107" s="39"/>
+      <c r="E107" s="39"/>
+      <c r="F107" s="39"/>
+      <c r="G107" s="39"/>
+      <c r="H107" s="39"/>
+      <c r="I107" s="39"/>
+      <c r="J107" s="39"/>
+      <c r="K107" s="39"/>
+      <c r="L107" s="39"/>
+      <c r="M107" s="39"/>
+      <c r="N107" s="39"/>
+    </row>
+    <row r="108" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A108" s="38">
         <f>'Article Data'!A77</f>
         <v>0</v>
       </c>
-      <c r="B107" s="38">
+      <c r="B108" s="38">
         <f>'Article Data'!B77</f>
         <v>0</v>
       </c>
-      <c r="C107" s="38"/>
-      <c r="D107" s="38"/>
-      <c r="E107" s="38"/>
-      <c r="F107" s="38"/>
-      <c r="G107" s="38"/>
-      <c r="H107" s="38"/>
-      <c r="I107" s="38"/>
-      <c r="J107" s="38"/>
-      <c r="K107" s="38"/>
-      <c r="L107" s="38"/>
-      <c r="M107" s="38"/>
-      <c r="N107" s="38"/>
-    </row>
-    <row r="108" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A108" s="39">
+      <c r="C108" s="38"/>
+      <c r="D108" s="38"/>
+      <c r="E108" s="38"/>
+      <c r="F108" s="38"/>
+      <c r="G108" s="38"/>
+      <c r="H108" s="38"/>
+      <c r="I108" s="38"/>
+      <c r="J108" s="38"/>
+      <c r="K108" s="38"/>
+      <c r="L108" s="38"/>
+      <c r="M108" s="38"/>
+      <c r="N108" s="38"/>
+    </row>
+    <row r="109" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A109" s="39">
         <f>'Article Data'!A78</f>
         <v>0</v>
       </c>
-      <c r="B108" s="39">
+      <c r="B109" s="39">
         <f>'Article Data'!B78</f>
         <v>0</v>
       </c>
-      <c r="C108" s="39"/>
-      <c r="D108" s="39"/>
-      <c r="E108" s="39"/>
-      <c r="F108" s="39"/>
-      <c r="G108" s="39"/>
-      <c r="H108" s="39"/>
-      <c r="I108" s="39"/>
-      <c r="J108" s="39"/>
-      <c r="K108" s="39"/>
-      <c r="L108" s="39"/>
-      <c r="M108" s="39"/>
-      <c r="N108" s="39"/>
-    </row>
-    <row r="109" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A109" s="38">
+      <c r="C109" s="39"/>
+      <c r="D109" s="39"/>
+      <c r="E109" s="39"/>
+      <c r="F109" s="39"/>
+      <c r="G109" s="39"/>
+      <c r="H109" s="39"/>
+      <c r="I109" s="39"/>
+      <c r="J109" s="39"/>
+      <c r="K109" s="39"/>
+      <c r="L109" s="39"/>
+      <c r="M109" s="39"/>
+      <c r="N109" s="39"/>
+    </row>
+    <row r="110" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A110" s="38">
         <f>'Article Data'!A79</f>
         <v>0</v>
       </c>
-      <c r="B109" s="38">
+      <c r="B110" s="38">
         <f>'Article Data'!B79</f>
         <v>0</v>
       </c>
-      <c r="C109" s="38"/>
-      <c r="D109" s="38"/>
-      <c r="E109" s="38"/>
-      <c r="F109" s="38"/>
-      <c r="G109" s="38"/>
-      <c r="H109" s="38"/>
-      <c r="I109" s="38"/>
-      <c r="J109" s="38"/>
-      <c r="K109" s="38"/>
-      <c r="L109" s="38"/>
-      <c r="M109" s="38"/>
-      <c r="N109" s="38"/>
-    </row>
-    <row r="110" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A110" s="39">
+      <c r="C110" s="38"/>
+      <c r="D110" s="38"/>
+      <c r="E110" s="38"/>
+      <c r="F110" s="38"/>
+      <c r="G110" s="38"/>
+      <c r="H110" s="38"/>
+      <c r="I110" s="38"/>
+      <c r="J110" s="38"/>
+      <c r="K110" s="38"/>
+      <c r="L110" s="38"/>
+      <c r="M110" s="38"/>
+      <c r="N110" s="38"/>
+    </row>
+    <row r="111" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A111" s="39">
         <f>'Article Data'!A80</f>
         <v>0</v>
       </c>
-      <c r="B110" s="39">
+      <c r="B111" s="39">
         <f>'Article Data'!B80</f>
         <v>0</v>
       </c>
-      <c r="C110" s="39"/>
-      <c r="D110" s="39"/>
-      <c r="E110" s="39"/>
-      <c r="F110" s="39"/>
-      <c r="G110" s="39"/>
-      <c r="H110" s="39"/>
-      <c r="I110" s="39"/>
-      <c r="J110" s="39"/>
-      <c r="K110" s="39"/>
-      <c r="L110" s="39"/>
-      <c r="M110" s="39"/>
-      <c r="N110" s="39"/>
-    </row>
-    <row r="111" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A111" s="38">
+      <c r="C111" s="39"/>
+      <c r="D111" s="39"/>
+      <c r="E111" s="39"/>
+      <c r="F111" s="39"/>
+      <c r="G111" s="39"/>
+      <c r="H111" s="39"/>
+      <c r="I111" s="39"/>
+      <c r="J111" s="39"/>
+      <c r="K111" s="39"/>
+      <c r="L111" s="39"/>
+      <c r="M111" s="39"/>
+      <c r="N111" s="39"/>
+    </row>
+    <row r="112" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A112" s="38">
         <f>'Article Data'!A81</f>
         <v>0</v>
       </c>
-      <c r="B111" s="38">
+      <c r="B112" s="38">
         <f>'Article Data'!B81</f>
         <v>0</v>
       </c>
-      <c r="C111" s="38"/>
-      <c r="D111" s="38"/>
-      <c r="E111" s="38"/>
-      <c r="F111" s="38"/>
-      <c r="G111" s="38"/>
-      <c r="H111" s="38"/>
-      <c r="I111" s="38"/>
-      <c r="J111" s="38"/>
-      <c r="K111" s="38"/>
-      <c r="L111" s="38"/>
-      <c r="M111" s="38"/>
-      <c r="N111" s="38"/>
-    </row>
-    <row r="112" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A112" s="39">
+      <c r="C112" s="38"/>
+      <c r="D112" s="38"/>
+      <c r="E112" s="38"/>
+      <c r="F112" s="38"/>
+      <c r="G112" s="38"/>
+      <c r="H112" s="38"/>
+      <c r="I112" s="38"/>
+      <c r="J112" s="38"/>
+      <c r="K112" s="38"/>
+      <c r="L112" s="38"/>
+      <c r="M112" s="38"/>
+      <c r="N112" s="38"/>
+    </row>
+    <row r="113" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A113" s="39">
         <f>'Article Data'!A82</f>
         <v>0</v>
       </c>
-      <c r="B112" s="39">
+      <c r="B113" s="39">
         <f>'Article Data'!B82</f>
         <v>0</v>
       </c>
-      <c r="C112" s="39"/>
-      <c r="D112" s="39"/>
-      <c r="E112" s="39"/>
-      <c r="F112" s="39"/>
-      <c r="G112" s="39"/>
-      <c r="H112" s="39"/>
-      <c r="I112" s="39"/>
-      <c r="J112" s="39"/>
-      <c r="K112" s="39"/>
-      <c r="L112" s="39"/>
-      <c r="M112" s="39"/>
-      <c r="N112" s="39"/>
-    </row>
-    <row r="113" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A113" s="38">
+      <c r="C113" s="39"/>
+      <c r="D113" s="39"/>
+      <c r="E113" s="39"/>
+      <c r="F113" s="39"/>
+      <c r="G113" s="39"/>
+      <c r="H113" s="39"/>
+      <c r="I113" s="39"/>
+      <c r="J113" s="39"/>
+      <c r="K113" s="39"/>
+      <c r="L113" s="39"/>
+      <c r="M113" s="39"/>
+      <c r="N113" s="39"/>
+    </row>
+    <row r="114" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A114" s="38">
         <f>'Article Data'!A83</f>
         <v>0</v>
       </c>
-      <c r="B113" s="38">
+      <c r="B114" s="38">
         <f>'Article Data'!B83</f>
         <v>0</v>
       </c>
-      <c r="C113" s="38"/>
-      <c r="D113" s="38"/>
-      <c r="E113" s="38"/>
-      <c r="F113" s="38"/>
-      <c r="G113" s="38"/>
-      <c r="H113" s="38"/>
-      <c r="I113" s="38"/>
-      <c r="J113" s="38"/>
-      <c r="K113" s="38"/>
-      <c r="L113" s="38"/>
-      <c r="M113" s="38"/>
-      <c r="N113" s="38"/>
-    </row>
-    <row r="114" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A114" s="39">
+      <c r="C114" s="38"/>
+      <c r="D114" s="38"/>
+      <c r="E114" s="38"/>
+      <c r="F114" s="38"/>
+      <c r="G114" s="38"/>
+      <c r="H114" s="38"/>
+      <c r="I114" s="38"/>
+      <c r="J114" s="38"/>
+      <c r="K114" s="38"/>
+      <c r="L114" s="38"/>
+      <c r="M114" s="38"/>
+      <c r="N114" s="38"/>
+    </row>
+    <row r="115" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A115" s="39">
         <f>'Article Data'!A84</f>
         <v>0</v>
       </c>
-      <c r="B114" s="39">
+      <c r="B115" s="39">
         <f>'Article Data'!B84</f>
         <v>0</v>
       </c>
-      <c r="C114" s="39"/>
-      <c r="D114" s="39"/>
-      <c r="E114" s="39"/>
-      <c r="F114" s="39"/>
-      <c r="G114" s="39"/>
-      <c r="H114" s="39"/>
-      <c r="I114" s="39"/>
-      <c r="J114" s="39"/>
-      <c r="K114" s="39"/>
-      <c r="L114" s="39"/>
-      <c r="M114" s="39"/>
-      <c r="N114" s="39"/>
-    </row>
-    <row r="115" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A115" s="38">
+      <c r="C115" s="39"/>
+      <c r="D115" s="39"/>
+      <c r="E115" s="39"/>
+      <c r="F115" s="39"/>
+      <c r="G115" s="39"/>
+      <c r="H115" s="39"/>
+      <c r="I115" s="39"/>
+      <c r="J115" s="39"/>
+      <c r="K115" s="39"/>
+      <c r="L115" s="39"/>
+      <c r="M115" s="39"/>
+      <c r="N115" s="39"/>
+    </row>
+    <row r="116" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A116" s="38">
         <f>'Article Data'!A85</f>
         <v>0</v>
       </c>
-      <c r="B115" s="38">
+      <c r="B116" s="38">
         <f>'Article Data'!B85</f>
         <v>0</v>
       </c>
-      <c r="C115" s="38"/>
-      <c r="D115" s="38"/>
-      <c r="E115" s="38"/>
-      <c r="F115" s="38"/>
-      <c r="G115" s="38"/>
-      <c r="H115" s="38"/>
-      <c r="I115" s="38"/>
-      <c r="J115" s="38"/>
-      <c r="K115" s="38"/>
-      <c r="L115" s="38"/>
-      <c r="M115" s="38"/>
-      <c r="N115" s="38"/>
-    </row>
-    <row r="116" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A116" s="39">
+      <c r="C116" s="38"/>
+      <c r="D116" s="38"/>
+      <c r="E116" s="38"/>
+      <c r="F116" s="38"/>
+      <c r="G116" s="38"/>
+      <c r="H116" s="38"/>
+      <c r="I116" s="38"/>
+      <c r="J116" s="38"/>
+      <c r="K116" s="38"/>
+      <c r="L116" s="38"/>
+      <c r="M116" s="38"/>
+      <c r="N116" s="38"/>
+    </row>
+    <row r="117" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A117" s="39">
         <f>'Article Data'!A86</f>
         <v>0</v>
       </c>
-      <c r="B116" s="39">
+      <c r="B117" s="39">
         <f>'Article Data'!B86</f>
         <v>0</v>
       </c>
-      <c r="C116" s="39"/>
-      <c r="D116" s="39"/>
-      <c r="E116" s="39"/>
-      <c r="F116" s="39"/>
-      <c r="G116" s="39"/>
-      <c r="H116" s="39"/>
-      <c r="I116" s="39"/>
-      <c r="J116" s="39"/>
-      <c r="K116" s="39"/>
-      <c r="L116" s="39"/>
-      <c r="M116" s="39"/>
-      <c r="N116" s="39"/>
-    </row>
-    <row r="117" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A117" s="38">
+      <c r="C117" s="39"/>
+      <c r="D117" s="39"/>
+      <c r="E117" s="39"/>
+      <c r="F117" s="39"/>
+      <c r="G117" s="39"/>
+      <c r="H117" s="39"/>
+      <c r="I117" s="39"/>
+      <c r="J117" s="39"/>
+      <c r="K117" s="39"/>
+      <c r="L117" s="39"/>
+      <c r="M117" s="39"/>
+      <c r="N117" s="39"/>
+    </row>
+    <row r="118" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A118" s="38">
         <f>'Article Data'!A87</f>
         <v>0</v>
       </c>
-      <c r="B117" s="38">
+      <c r="B118" s="38">
         <f>'Article Data'!B87</f>
         <v>0</v>
       </c>
-      <c r="C117" s="38"/>
-      <c r="D117" s="38"/>
-      <c r="E117" s="38"/>
-      <c r="F117" s="38"/>
-      <c r="G117" s="38"/>
-      <c r="H117" s="38"/>
-      <c r="I117" s="38"/>
-      <c r="J117" s="38"/>
-      <c r="K117" s="38"/>
-      <c r="L117" s="38"/>
-      <c r="M117" s="38"/>
-      <c r="N117" s="38"/>
-    </row>
-    <row r="118" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A118" s="39">
+      <c r="C118" s="38"/>
+      <c r="D118" s="38"/>
+      <c r="E118" s="38"/>
+      <c r="F118" s="38"/>
+      <c r="G118" s="38"/>
+      <c r="H118" s="38"/>
+      <c r="I118" s="38"/>
+      <c r="J118" s="38"/>
+      <c r="K118" s="38"/>
+      <c r="L118" s="38"/>
+      <c r="M118" s="38"/>
+      <c r="N118" s="38"/>
+    </row>
+    <row r="119" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A119" s="39">
         <f>'Article Data'!A88</f>
         <v>0</v>
       </c>
-      <c r="B118" s="39">
+      <c r="B119" s="39">
         <f>'Article Data'!B88</f>
         <v>0</v>
       </c>
-      <c r="C118" s="39"/>
-      <c r="D118" s="39"/>
-      <c r="E118" s="39"/>
-      <c r="F118" s="39"/>
-      <c r="G118" s="39"/>
-      <c r="H118" s="39"/>
-      <c r="I118" s="39"/>
-      <c r="J118" s="39"/>
-      <c r="K118" s="39"/>
-      <c r="L118" s="39"/>
-      <c r="M118" s="39"/>
-      <c r="N118" s="39"/>
-    </row>
-    <row r="119" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A119" s="38">
+      <c r="C119" s="39"/>
+      <c r="D119" s="39"/>
+      <c r="E119" s="39"/>
+      <c r="F119" s="39"/>
+      <c r="G119" s="39"/>
+      <c r="H119" s="39"/>
+      <c r="I119" s="39"/>
+      <c r="J119" s="39"/>
+      <c r="K119" s="39"/>
+      <c r="L119" s="39"/>
+      <c r="M119" s="39"/>
+      <c r="N119" s="39"/>
+    </row>
+    <row r="120" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A120" s="38">
         <f>'Article Data'!A89</f>
         <v>0</v>
       </c>
-      <c r="B119" s="38">
+      <c r="B120" s="38">
         <f>'Article Data'!B89</f>
         <v>0</v>
       </c>
-      <c r="C119" s="38"/>
-      <c r="D119" s="38"/>
-      <c r="E119" s="38"/>
-      <c r="F119" s="38"/>
-      <c r="G119" s="38"/>
-      <c r="H119" s="38"/>
-      <c r="I119" s="38"/>
-      <c r="J119" s="38"/>
-      <c r="K119" s="38"/>
-      <c r="L119" s="38"/>
-      <c r="M119" s="38"/>
-      <c r="N119" s="38"/>
-    </row>
-    <row r="120" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A120" s="39">
+      <c r="C120" s="38"/>
+      <c r="D120" s="38"/>
+      <c r="E120" s="38"/>
+      <c r="F120" s="38"/>
+      <c r="G120" s="38"/>
+      <c r="H120" s="38"/>
+      <c r="I120" s="38"/>
+      <c r="J120" s="38"/>
+      <c r="K120" s="38"/>
+      <c r="L120" s="38"/>
+      <c r="M120" s="38"/>
+      <c r="N120" s="38"/>
+    </row>
+    <row r="121" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A121" s="39">
         <f>'Article Data'!A90</f>
         <v>0</v>
       </c>
-      <c r="B120" s="39">
+      <c r="B121" s="39">
         <f>'Article Data'!B90</f>
         <v>0</v>
       </c>
-      <c r="C120" s="39"/>
-      <c r="D120" s="39"/>
-      <c r="E120" s="39"/>
-      <c r="F120" s="39"/>
-      <c r="G120" s="39"/>
-      <c r="H120" s="39"/>
-      <c r="I120" s="39"/>
-      <c r="J120" s="39"/>
-      <c r="K120" s="39"/>
-      <c r="L120" s="39"/>
-      <c r="M120" s="39"/>
-      <c r="N120" s="39"/>
-    </row>
-    <row r="121" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A121" s="38">
+      <c r="C121" s="39"/>
+      <c r="D121" s="39"/>
+      <c r="E121" s="39"/>
+      <c r="F121" s="39"/>
+      <c r="G121" s="39"/>
+      <c r="H121" s="39"/>
+      <c r="I121" s="39"/>
+      <c r="J121" s="39"/>
+      <c r="K121" s="39"/>
+      <c r="L121" s="39"/>
+      <c r="M121" s="39"/>
+      <c r="N121" s="39"/>
+    </row>
+    <row r="122" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A122" s="38">
         <f>'Article Data'!A91</f>
         <v>0</v>
       </c>
-      <c r="B121" s="38">
+      <c r="B122" s="38">
         <f>'Article Data'!B91</f>
         <v>0</v>
       </c>
-      <c r="C121" s="38"/>
-      <c r="D121" s="38"/>
-      <c r="E121" s="38"/>
-      <c r="F121" s="38"/>
-      <c r="G121" s="38"/>
-      <c r="H121" s="38"/>
-      <c r="I121" s="38"/>
-      <c r="J121" s="38"/>
-      <c r="K121" s="38"/>
-      <c r="L121" s="38"/>
-      <c r="M121" s="38"/>
-      <c r="N121" s="38"/>
-    </row>
-    <row r="122" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A122" s="39">
+      <c r="C122" s="38"/>
+      <c r="D122" s="38"/>
+      <c r="E122" s="38"/>
+      <c r="F122" s="38"/>
+      <c r="G122" s="38"/>
+      <c r="H122" s="38"/>
+      <c r="I122" s="38"/>
+      <c r="J122" s="38"/>
+      <c r="K122" s="38"/>
+      <c r="L122" s="38"/>
+      <c r="M122" s="38"/>
+      <c r="N122" s="38"/>
+    </row>
+    <row r="123" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A123" s="39">
         <f>'Article Data'!A92</f>
         <v>0</v>
       </c>
-      <c r="B122" s="39">
+      <c r="B123" s="39">
         <f>'Article Data'!B92</f>
         <v>0</v>
       </c>
-      <c r="C122" s="39"/>
-      <c r="D122" s="39"/>
-      <c r="E122" s="39"/>
-      <c r="F122" s="39"/>
-      <c r="G122" s="39"/>
-      <c r="H122" s="39"/>
-      <c r="I122" s="39"/>
-      <c r="J122" s="39"/>
-      <c r="K122" s="39"/>
-      <c r="L122" s="39"/>
-      <c r="M122" s="39"/>
-      <c r="N122" s="39"/>
-    </row>
-    <row r="123" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A123" s="38">
+      <c r="C123" s="39"/>
+      <c r="D123" s="39"/>
+      <c r="E123" s="39"/>
+      <c r="F123" s="39"/>
+      <c r="G123" s="39"/>
+      <c r="H123" s="39"/>
+      <c r="I123" s="39"/>
+      <c r="J123" s="39"/>
+      <c r="K123" s="39"/>
+      <c r="L123" s="39"/>
+      <c r="M123" s="39"/>
+      <c r="N123" s="39"/>
+    </row>
+    <row r="124" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A124" s="38">
         <f>'Article Data'!A93</f>
         <v>0</v>
       </c>
-      <c r="B123" s="38">
+      <c r="B124" s="38">
         <f>'Article Data'!B93</f>
         <v>0</v>
       </c>
-      <c r="C123" s="38"/>
-      <c r="D123" s="38"/>
-      <c r="E123" s="38"/>
-      <c r="F123" s="38"/>
-      <c r="G123" s="38"/>
-      <c r="H123" s="38"/>
-      <c r="I123" s="38"/>
-      <c r="J123" s="38"/>
-      <c r="K123" s="38"/>
-      <c r="L123" s="38"/>
-      <c r="M123" s="38"/>
-      <c r="N123" s="38"/>
-    </row>
-    <row r="124" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A124" s="39">
+      <c r="C124" s="38"/>
+      <c r="D124" s="38"/>
+      <c r="E124" s="38"/>
+      <c r="F124" s="38"/>
+      <c r="G124" s="38"/>
+      <c r="H124" s="38"/>
+      <c r="I124" s="38"/>
+      <c r="J124" s="38"/>
+      <c r="K124" s="38"/>
+      <c r="L124" s="38"/>
+      <c r="M124" s="38"/>
+      <c r="N124" s="38"/>
+    </row>
+    <row r="125" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A125" s="39">
         <f>'Article Data'!A94</f>
         <v>0</v>
       </c>
-      <c r="B124" s="39">
+      <c r="B125" s="39">
         <f>'Article Data'!B94</f>
         <v>0</v>
       </c>
-      <c r="C124" s="39"/>
-      <c r="D124" s="39"/>
-      <c r="E124" s="39"/>
-      <c r="F124" s="39"/>
-      <c r="G124" s="39"/>
-      <c r="H124" s="39"/>
-      <c r="I124" s="39"/>
-      <c r="J124" s="39"/>
-      <c r="K124" s="39"/>
-      <c r="L124" s="39"/>
-      <c r="M124" s="39"/>
-      <c r="N124" s="39"/>
-    </row>
-    <row r="125" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A125" s="38">
+      <c r="C125" s="39"/>
+      <c r="D125" s="39"/>
+      <c r="E125" s="39"/>
+      <c r="F125" s="39"/>
+      <c r="G125" s="39"/>
+      <c r="H125" s="39"/>
+      <c r="I125" s="39"/>
+      <c r="J125" s="39"/>
+      <c r="K125" s="39"/>
+      <c r="L125" s="39"/>
+      <c r="M125" s="39"/>
+      <c r="N125" s="39"/>
+    </row>
+    <row r="126" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A126" s="38">
         <f>'Article Data'!A95</f>
         <v>0</v>
       </c>
-      <c r="B125" s="38">
+      <c r="B126" s="38">
         <f>'Article Data'!B95</f>
         <v>0</v>
       </c>
-      <c r="C125" s="38"/>
-      <c r="D125" s="38"/>
-      <c r="E125" s="38"/>
-      <c r="F125" s="38"/>
-      <c r="G125" s="38"/>
-      <c r="H125" s="38"/>
-      <c r="I125" s="38"/>
-      <c r="J125" s="38"/>
-      <c r="K125" s="38"/>
-      <c r="L125" s="38"/>
-      <c r="M125" s="38"/>
-      <c r="N125" s="38"/>
-    </row>
-    <row r="126" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A126" s="39">
+      <c r="C126" s="38"/>
+      <c r="D126" s="38"/>
+      <c r="E126" s="38"/>
+      <c r="F126" s="38"/>
+      <c r="G126" s="38"/>
+      <c r="H126" s="38"/>
+      <c r="I126" s="38"/>
+      <c r="J126" s="38"/>
+      <c r="K126" s="38"/>
+      <c r="L126" s="38"/>
+      <c r="M126" s="38"/>
+      <c r="N126" s="38"/>
+    </row>
+    <row r="127" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A127" s="39">
         <f>'Article Data'!A96</f>
         <v>0</v>
       </c>
-      <c r="B126" s="39">
+      <c r="B127" s="39">
         <f>'Article Data'!B96</f>
         <v>0</v>
       </c>
-      <c r="C126" s="39"/>
-      <c r="D126" s="39"/>
-      <c r="E126" s="39"/>
-      <c r="F126" s="39"/>
-      <c r="G126" s="39"/>
-      <c r="H126" s="39"/>
-      <c r="I126" s="39"/>
-      <c r="J126" s="39"/>
-      <c r="K126" s="39"/>
-      <c r="L126" s="39"/>
-      <c r="M126" s="39"/>
-      <c r="N126" s="39"/>
-    </row>
-    <row r="127" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A127" s="38">
+      <c r="C127" s="39"/>
+      <c r="D127" s="39"/>
+      <c r="E127" s="39"/>
+      <c r="F127" s="39"/>
+      <c r="G127" s="39"/>
+      <c r="H127" s="39"/>
+      <c r="I127" s="39"/>
+      <c r="J127" s="39"/>
+      <c r="K127" s="39"/>
+      <c r="L127" s="39"/>
+      <c r="M127" s="39"/>
+      <c r="N127" s="39"/>
+    </row>
+    <row r="128" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A128" s="38">
         <f>'Article Data'!A97</f>
         <v>0</v>
       </c>
-      <c r="B127" s="38">
+      <c r="B128" s="38">
         <f>'Article Data'!B97</f>
         <v>0</v>
       </c>
-      <c r="C127" s="38"/>
-      <c r="D127" s="38"/>
-      <c r="E127" s="38"/>
-      <c r="F127" s="38"/>
-      <c r="G127" s="38"/>
-      <c r="H127" s="38"/>
-      <c r="I127" s="38"/>
-      <c r="J127" s="38"/>
-      <c r="K127" s="38"/>
-      <c r="L127" s="38"/>
-      <c r="M127" s="38"/>
-      <c r="N127" s="38"/>
-    </row>
-    <row r="128" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A128" s="39">
+      <c r="C128" s="38"/>
+      <c r="D128" s="38"/>
+      <c r="E128" s="38"/>
+      <c r="F128" s="38"/>
+      <c r="G128" s="38"/>
+      <c r="H128" s="38"/>
+      <c r="I128" s="38"/>
+      <c r="J128" s="38"/>
+      <c r="K128" s="38"/>
+      <c r="L128" s="38"/>
+      <c r="M128" s="38"/>
+      <c r="N128" s="38"/>
+    </row>
+    <row r="129" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A129" s="39">
         <f>'Article Data'!A98</f>
         <v>0</v>
       </c>
-      <c r="B128" s="39">
+      <c r="B129" s="39">
         <f>'Article Data'!B98</f>
         <v>0</v>
       </c>
-      <c r="C128" s="39"/>
-      <c r="D128" s="39"/>
-      <c r="E128" s="39"/>
-      <c r="F128" s="39"/>
-      <c r="G128" s="39"/>
-      <c r="H128" s="39"/>
-      <c r="I128" s="39"/>
-      <c r="J128" s="39"/>
-      <c r="K128" s="39"/>
-      <c r="L128" s="39"/>
-      <c r="M128" s="39"/>
-      <c r="N128" s="39"/>
-    </row>
-    <row r="129" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A129" s="38">
+      <c r="C129" s="39"/>
+      <c r="D129" s="39"/>
+      <c r="E129" s="39"/>
+      <c r="F129" s="39"/>
+      <c r="G129" s="39"/>
+      <c r="H129" s="39"/>
+      <c r="I129" s="39"/>
+      <c r="J129" s="39"/>
+      <c r="K129" s="39"/>
+      <c r="L129" s="39"/>
+      <c r="M129" s="39"/>
+      <c r="N129" s="39"/>
+    </row>
+    <row r="130" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A130" s="38">
         <f>'Article Data'!A99</f>
         <v>0</v>
       </c>
-      <c r="B129" s="38">
+      <c r="B130" s="38">
         <f>'Article Data'!B99</f>
         <v>0</v>
       </c>
-      <c r="C129" s="38"/>
-      <c r="D129" s="38"/>
-      <c r="E129" s="38"/>
-      <c r="F129" s="38"/>
-      <c r="G129" s="38"/>
-      <c r="H129" s="38"/>
-      <c r="I129" s="38"/>
-      <c r="J129" s="38"/>
-      <c r="K129" s="38"/>
-      <c r="L129" s="38"/>
-      <c r="M129" s="38"/>
-      <c r="N129" s="38"/>
-    </row>
-    <row r="130" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A130" s="39">
+      <c r="C130" s="38"/>
+      <c r="D130" s="38"/>
+      <c r="E130" s="38"/>
+      <c r="F130" s="38"/>
+      <c r="G130" s="38"/>
+      <c r="H130" s="38"/>
+      <c r="I130" s="38"/>
+      <c r="J130" s="38"/>
+      <c r="K130" s="38"/>
+      <c r="L130" s="38"/>
+      <c r="M130" s="38"/>
+      <c r="N130" s="38"/>
+    </row>
+    <row r="131" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A131" s="39">
         <f>'Article Data'!A100</f>
         <v>0</v>
       </c>
-      <c r="B130" s="39">
+      <c r="B131" s="39">
         <f>'Article Data'!B100</f>
         <v>0</v>
       </c>
-      <c r="C130" s="39"/>
-      <c r="D130" s="39"/>
-      <c r="E130" s="39"/>
-      <c r="F130" s="39"/>
-      <c r="G130" s="39"/>
-      <c r="H130" s="39"/>
-      <c r="I130" s="39"/>
-      <c r="J130" s="39"/>
-      <c r="K130" s="39"/>
-      <c r="L130" s="39"/>
-      <c r="M130" s="39"/>
-      <c r="N130" s="39"/>
-    </row>
-    <row r="131" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A131" s="38">
+      <c r="C131" s="39"/>
+      <c r="D131" s="39"/>
+      <c r="E131" s="39"/>
+      <c r="F131" s="39"/>
+      <c r="G131" s="39"/>
+      <c r="H131" s="39"/>
+      <c r="I131" s="39"/>
+      <c r="J131" s="39"/>
+      <c r="K131" s="39"/>
+      <c r="L131" s="39"/>
+      <c r="M131" s="39"/>
+      <c r="N131" s="39"/>
+    </row>
+    <row r="132" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A132" s="38">
         <f>'Article Data'!A101</f>
         <v>0</v>
       </c>
-      <c r="B131" s="38">
+      <c r="B132" s="38">
         <f>'Article Data'!B101</f>
         <v>0</v>
       </c>
-      <c r="C131" s="38"/>
-      <c r="D131" s="38"/>
-      <c r="E131" s="38"/>
-      <c r="F131" s="38"/>
-      <c r="G131" s="38"/>
-      <c r="H131" s="38"/>
-      <c r="I131" s="38"/>
-      <c r="J131" s="38"/>
-      <c r="K131" s="38"/>
-      <c r="L131" s="38"/>
-      <c r="M131" s="38"/>
-      <c r="N131" s="38"/>
-    </row>
-    <row r="132" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A132" s="39">
+      <c r="C132" s="38"/>
+      <c r="D132" s="38"/>
+      <c r="E132" s="38"/>
+      <c r="F132" s="38"/>
+      <c r="G132" s="38"/>
+      <c r="H132" s="38"/>
+      <c r="I132" s="38"/>
+      <c r="J132" s="38"/>
+      <c r="K132" s="38"/>
+      <c r="L132" s="38"/>
+      <c r="M132" s="38"/>
+      <c r="N132" s="38"/>
+    </row>
+    <row r="133" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A133" s="39">
         <f>'Article Data'!A102</f>
         <v>0</v>
       </c>
-      <c r="B132" s="39">
+      <c r="B133" s="39">
         <f>'Article Data'!B102</f>
         <v>0</v>
       </c>
-      <c r="C132" s="39"/>
-      <c r="D132" s="39"/>
-      <c r="E132" s="39"/>
-      <c r="F132" s="39"/>
-      <c r="G132" s="39"/>
-      <c r="H132" s="39"/>
-      <c r="I132" s="39"/>
-      <c r="J132" s="39"/>
-      <c r="K132" s="39"/>
-      <c r="L132" s="39"/>
-      <c r="M132" s="39"/>
-      <c r="N132" s="39"/>
-    </row>
-    <row r="133" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A133" s="38">
+      <c r="C133" s="39"/>
+      <c r="D133" s="39"/>
+      <c r="E133" s="39"/>
+      <c r="F133" s="39"/>
+      <c r="G133" s="39"/>
+      <c r="H133" s="39"/>
+      <c r="I133" s="39"/>
+      <c r="J133" s="39"/>
+      <c r="K133" s="39"/>
+      <c r="L133" s="39"/>
+      <c r="M133" s="39"/>
+      <c r="N133" s="39"/>
+    </row>
+    <row r="134" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A134" s="38">
         <f>'Article Data'!A103</f>
         <v>0</v>
       </c>
-      <c r="B133" s="38">
+      <c r="B134" s="38">
         <f>'Article Data'!B103</f>
         <v>0</v>
       </c>
-      <c r="C133" s="38"/>
-      <c r="D133" s="38"/>
-      <c r="E133" s="38"/>
-      <c r="F133" s="38"/>
-      <c r="G133" s="38"/>
-      <c r="H133" s="38"/>
-      <c r="I133" s="38"/>
-      <c r="J133" s="38"/>
-      <c r="K133" s="38"/>
-      <c r="L133" s="38"/>
-      <c r="M133" s="38"/>
-      <c r="N133" s="38"/>
-    </row>
-    <row r="134" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A134" s="39">
+      <c r="C134" s="38"/>
+      <c r="D134" s="38"/>
+      <c r="E134" s="38"/>
+      <c r="F134" s="38"/>
+      <c r="G134" s="38"/>
+      <c r="H134" s="38"/>
+      <c r="I134" s="38"/>
+      <c r="J134" s="38"/>
+      <c r="K134" s="38"/>
+      <c r="L134" s="38"/>
+      <c r="M134" s="38"/>
+      <c r="N134" s="38"/>
+    </row>
+    <row r="135" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A135" s="39">
         <f>'Article Data'!A104</f>
         <v>0</v>
       </c>
-      <c r="B134" s="39">
+      <c r="B135" s="39">
         <f>'Article Data'!B104</f>
         <v>0</v>
       </c>
-      <c r="C134" s="39"/>
-      <c r="D134" s="39"/>
-      <c r="E134" s="39"/>
-      <c r="F134" s="39"/>
-      <c r="G134" s="39"/>
-      <c r="H134" s="39"/>
-      <c r="I134" s="39"/>
-      <c r="J134" s="39"/>
-      <c r="K134" s="39"/>
-      <c r="L134" s="39"/>
-      <c r="M134" s="39"/>
-      <c r="N134" s="39"/>
-    </row>
-    <row r="135" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A135" s="38">
+      <c r="C135" s="39"/>
+      <c r="D135" s="39"/>
+      <c r="E135" s="39"/>
+      <c r="F135" s="39"/>
+      <c r="G135" s="39"/>
+      <c r="H135" s="39"/>
+      <c r="I135" s="39"/>
+      <c r="J135" s="39"/>
+      <c r="K135" s="39"/>
+      <c r="L135" s="39"/>
+      <c r="M135" s="39"/>
+      <c r="N135" s="39"/>
+    </row>
+    <row r="136" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A136" s="38">
         <f>'Article Data'!A105</f>
         <v>0</v>
       </c>
-      <c r="B135" s="38">
+      <c r="B136" s="38">
         <f>'Article Data'!B105</f>
         <v>0</v>
       </c>
-      <c r="C135" s="38"/>
-      <c r="D135" s="38"/>
-      <c r="E135" s="38"/>
-      <c r="F135" s="38"/>
-      <c r="G135" s="38"/>
-      <c r="H135" s="38"/>
-      <c r="I135" s="38"/>
-      <c r="J135" s="38"/>
-      <c r="K135" s="38"/>
-      <c r="L135" s="38"/>
-      <c r="M135" s="38"/>
-      <c r="N135" s="38"/>
-    </row>
-    <row r="136" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A136" s="39">
+      <c r="C136" s="38"/>
+      <c r="D136" s="38"/>
+      <c r="E136" s="38"/>
+      <c r="F136" s="38"/>
+      <c r="G136" s="38"/>
+      <c r="H136" s="38"/>
+      <c r="I136" s="38"/>
+      <c r="J136" s="38"/>
+      <c r="K136" s="38"/>
+      <c r="L136" s="38"/>
+      <c r="M136" s="38"/>
+      <c r="N136" s="38"/>
+    </row>
+    <row r="137" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A137" s="39">
         <f>'Article Data'!A106</f>
         <v>0</v>
       </c>
-      <c r="B136" s="39">
+      <c r="B137" s="39">
         <f>'Article Data'!B106</f>
         <v>0</v>
       </c>
-      <c r="C136" s="39"/>
-      <c r="D136" s="39"/>
-      <c r="E136" s="39"/>
-      <c r="F136" s="39"/>
-      <c r="G136" s="39"/>
-      <c r="H136" s="39"/>
-      <c r="I136" s="39"/>
-      <c r="J136" s="39"/>
-      <c r="K136" s="39"/>
-      <c r="L136" s="39"/>
-      <c r="M136" s="39"/>
-      <c r="N136" s="39"/>
-    </row>
-    <row r="137" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A137" s="38">
+      <c r="C137" s="39"/>
+      <c r="D137" s="39"/>
+      <c r="E137" s="39"/>
+      <c r="F137" s="39"/>
+      <c r="G137" s="39"/>
+      <c r="H137" s="39"/>
+      <c r="I137" s="39"/>
+      <c r="J137" s="39"/>
+      <c r="K137" s="39"/>
+      <c r="L137" s="39"/>
+      <c r="M137" s="39"/>
+      <c r="N137" s="39"/>
+    </row>
+    <row r="138" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A138" s="38">
         <f>'Article Data'!A107</f>
         <v>0</v>
       </c>
-      <c r="B137" s="38">
+      <c r="B138" s="38">
         <f>'Article Data'!B107</f>
         <v>0</v>
       </c>
-      <c r="C137" s="38"/>
-      <c r="D137" s="38"/>
-      <c r="E137" s="38"/>
-      <c r="F137" s="38"/>
-      <c r="G137" s="38"/>
-      <c r="H137" s="38"/>
-      <c r="I137" s="38"/>
-      <c r="J137" s="38"/>
-      <c r="K137" s="38"/>
-      <c r="L137" s="38"/>
-      <c r="M137" s="38"/>
-      <c r="N137" s="38"/>
-    </row>
-    <row r="138" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A138" s="39">
+      <c r="C138" s="38"/>
+      <c r="D138" s="38"/>
+      <c r="E138" s="38"/>
+      <c r="F138" s="38"/>
+      <c r="G138" s="38"/>
+      <c r="H138" s="38"/>
+      <c r="I138" s="38"/>
+      <c r="J138" s="38"/>
+      <c r="K138" s="38"/>
+      <c r="L138" s="38"/>
+      <c r="M138" s="38"/>
+      <c r="N138" s="38"/>
+    </row>
+    <row r="139" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A139" s="39">
         <f>'Article Data'!A108</f>
         <v>0</v>
       </c>
-      <c r="B138" s="39">
+      <c r="B139" s="39">
         <f>'Article Data'!B108</f>
         <v>0</v>
       </c>
-      <c r="C138" s="39"/>
-      <c r="D138" s="39"/>
-      <c r="E138" s="39"/>
-      <c r="F138" s="39"/>
-      <c r="G138" s="39"/>
-      <c r="H138" s="39"/>
-      <c r="I138" s="39"/>
-      <c r="J138" s="39"/>
-      <c r="K138" s="39"/>
-      <c r="L138" s="39"/>
-      <c r="M138" s="39"/>
-      <c r="N138" s="39"/>
-    </row>
-    <row r="139" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A139" s="38">
+      <c r="C139" s="39"/>
+      <c r="D139" s="39"/>
+      <c r="E139" s="39"/>
+      <c r="F139" s="39"/>
+      <c r="G139" s="39"/>
+      <c r="H139" s="39"/>
+      <c r="I139" s="39"/>
+      <c r="J139" s="39"/>
+      <c r="K139" s="39"/>
+      <c r="L139" s="39"/>
+      <c r="M139" s="39"/>
+      <c r="N139" s="39"/>
+    </row>
+    <row r="140" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A140" s="38">
         <f>'Article Data'!A109</f>
         <v>0</v>
       </c>
-      <c r="B139" s="38">
+      <c r="B140" s="38">
         <f>'Article Data'!B109</f>
         <v>0</v>
       </c>
-      <c r="C139" s="38"/>
-      <c r="D139" s="38"/>
-      <c r="E139" s="38"/>
-      <c r="F139" s="38"/>
-      <c r="G139" s="38"/>
-      <c r="H139" s="38"/>
-      <c r="I139" s="38"/>
-      <c r="J139" s="38"/>
-      <c r="K139" s="38"/>
-      <c r="L139" s="38"/>
-      <c r="M139" s="38"/>
-      <c r="N139" s="38"/>
-    </row>
-    <row r="140" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A140" s="39">
+      <c r="C140" s="38"/>
+      <c r="D140" s="38"/>
+      <c r="E140" s="38"/>
+      <c r="F140" s="38"/>
+      <c r="G140" s="38"/>
+      <c r="H140" s="38"/>
+      <c r="I140" s="38"/>
+      <c r="J140" s="38"/>
+      <c r="K140" s="38"/>
+      <c r="L140" s="38"/>
+      <c r="M140" s="38"/>
+      <c r="N140" s="38"/>
+    </row>
+    <row r="141" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A141" s="39">
         <f>'Article Data'!A110</f>
         <v>0</v>
       </c>
-      <c r="B140" s="39">
+      <c r="B141" s="39">
         <f>'Article Data'!B110</f>
         <v>0</v>
       </c>
-      <c r="C140" s="39"/>
-      <c r="D140" s="39"/>
-      <c r="E140" s="39"/>
-      <c r="F140" s="39"/>
-      <c r="G140" s="39"/>
-      <c r="H140" s="39"/>
-      <c r="I140" s="39"/>
-      <c r="J140" s="39"/>
-      <c r="K140" s="39"/>
-      <c r="L140" s="39"/>
-      <c r="M140" s="39"/>
-      <c r="N140" s="39"/>
-    </row>
-    <row r="141" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A141" s="38">
+      <c r="C141" s="39"/>
+      <c r="D141" s="39"/>
+      <c r="E141" s="39"/>
+      <c r="F141" s="39"/>
+      <c r="G141" s="39"/>
+      <c r="H141" s="39"/>
+      <c r="I141" s="39"/>
+      <c r="J141" s="39"/>
+      <c r="K141" s="39"/>
+      <c r="L141" s="39"/>
+      <c r="M141" s="39"/>
+      <c r="N141" s="39"/>
+    </row>
+    <row r="142" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A142" s="38">
         <f>'Article Data'!A111</f>
         <v>0</v>
       </c>
-      <c r="B141" s="38">
+      <c r="B142" s="38">
         <f>'Article Data'!B111</f>
         <v>0</v>
       </c>
-      <c r="C141" s="38"/>
-      <c r="D141" s="38"/>
-      <c r="E141" s="38"/>
-      <c r="F141" s="38"/>
-      <c r="G141" s="38"/>
-      <c r="H141" s="38"/>
-      <c r="I141" s="38"/>
-      <c r="J141" s="38"/>
-      <c r="K141" s="38"/>
-      <c r="L141" s="38"/>
-      <c r="M141" s="38"/>
-      <c r="N141" s="38"/>
-    </row>
-    <row r="142" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A142" s="39">
+      <c r="C142" s="38"/>
+      <c r="D142" s="38"/>
+      <c r="E142" s="38"/>
+      <c r="F142" s="38"/>
+      <c r="G142" s="38"/>
+      <c r="H142" s="38"/>
+      <c r="I142" s="38"/>
+      <c r="J142" s="38"/>
+      <c r="K142" s="38"/>
+      <c r="L142" s="38"/>
+      <c r="M142" s="38"/>
+      <c r="N142" s="38"/>
+    </row>
+    <row r="143" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A143" s="39">
         <f>'Article Data'!A112</f>
         <v>0</v>
       </c>
-      <c r="B142" s="39">
+      <c r="B143" s="39">
         <f>'Article Data'!B112</f>
         <v>0</v>
       </c>
-      <c r="C142" s="39"/>
-      <c r="D142" s="39"/>
-      <c r="E142" s="39"/>
-      <c r="F142" s="39"/>
-      <c r="G142" s="39"/>
-      <c r="H142" s="39"/>
-      <c r="I142" s="39"/>
-      <c r="J142" s="39"/>
-      <c r="K142" s="39"/>
-      <c r="L142" s="39"/>
-      <c r="M142" s="39"/>
-      <c r="N142" s="39"/>
-    </row>
-    <row r="143" spans="1:14" x14ac:dyDescent="0.2"/>
+      <c r="C143" s="39"/>
+      <c r="D143" s="39"/>
+      <c r="E143" s="39"/>
+      <c r="F143" s="39"/>
+      <c r="G143" s="39"/>
+      <c r="H143" s="39"/>
+      <c r="I143" s="39"/>
+      <c r="J143" s="39"/>
+      <c r="K143" s="39"/>
+      <c r="L143" s="39"/>
+      <c r="M143" s="39"/>
+      <c r="N143" s="39"/>
+    </row>
     <row r="144" spans="1:14" x14ac:dyDescent="0.2"/>
     <row r="145" x14ac:dyDescent="0.2"/>
     <row r="146" x14ac:dyDescent="0.2"/>
@@ -21832,16 +22082,17 @@
     <row r="201" x14ac:dyDescent="0.2"/>
     <row r="202" x14ac:dyDescent="0.2"/>
     <row r="203" x14ac:dyDescent="0.2"/>
+    <row r="204" x14ac:dyDescent="0.2"/>
   </sheetData>
   <dataValidations count="3">
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L79 L91:L142" xr:uid="{55496FE6-1B3F-AE44-B2C2-5708C72C95DC}">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L79 L91:L143" xr:uid="{55496FE6-1B3F-AE44-B2C2-5708C72C95DC}">
       <formula1>0</formula1>
       <formula2>10000</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K142" xr:uid="{24B5B928-4371-DB41-AC03-F640264E6DDE}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K143" xr:uid="{24B5B928-4371-DB41-AC03-F640264E6DDE}">
       <formula1>"YES,NO"</formula1>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G142" xr:uid="{AAF6135C-1676-C140-8D57-ABEBDA225049}">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G143" xr:uid="{AAF6135C-1676-C140-8D57-ABEBDA225049}">
       <formula1>0</formula1>
       <formula2>1000</formula2>
     </dataValidation>
@@ -21855,19 +22106,19 @@
           <x14:formula1>
             <xm:f>Metadata!$E$90:$E$93</xm:f>
           </x14:formula1>
-          <xm:sqref>J2:J41 J43:J53 J55:J62 J64:J142</xm:sqref>
+          <xm:sqref>J2:J41 J43:J53 J55:J62 J64:J143</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{9F837C0B-9AA9-9142-8F5F-3080D684177C}">
           <x14:formula1>
             <xm:f>Metadata!$E$82:$E$89</xm:f>
           </x14:formula1>
-          <xm:sqref>I2:I26 I28:I62 I64:I142</xm:sqref>
+          <xm:sqref>I2:I26 I28:I62 I64:I143</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{1FF5D619-DB05-DE45-8C9A-C1DA5F89F6CE}">
           <x14:formula1>
             <xm:f>Metadata!$E$96:$E$99</xm:f>
           </x14:formula1>
-          <xm:sqref>M2:M142</xm:sqref>
+          <xm:sqref>M2:M143</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -21880,8 +22131,8 @@
   <dimension ref="A1:H540"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A269" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H282" sqref="H282"/>
+      <pane ySplit="1" topLeftCell="A275" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H285" sqref="H285"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="16" zeroHeight="1" x14ac:dyDescent="0.2"/>
@@ -29760,69 +30011,117 @@
         <v>113</v>
       </c>
     </row>
-    <row r="282" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A282" s="38">
-        <f>'Article Data'!A278</f>
-        <v>0</v>
-      </c>
-      <c r="B282" s="38">
-        <f>'Article Data'!B278</f>
-        <v>0</v>
-      </c>
-      <c r="C282" s="38"/>
-      <c r="D282" s="38"/>
-      <c r="E282" s="38"/>
-      <c r="F282" s="38"/>
-      <c r="G282" s="38"/>
-      <c r="H282" s="38"/>
-    </row>
-    <row r="283" spans="1:8" x14ac:dyDescent="0.2">
+        <f>'Article Data'!A64</f>
+        <v>291</v>
+      </c>
+      <c r="B282" s="38" t="str">
+        <f>'Article Data'!B64</f>
+        <v>Spatio-temporal variation of biotic factors underpins contemporary range dynamics of congeners</v>
+      </c>
+      <c r="C282" s="38" t="s">
+        <v>457</v>
+      </c>
+      <c r="D282" s="38" t="s">
+        <v>457</v>
+      </c>
+      <c r="E282" s="38" t="s">
+        <v>424</v>
+      </c>
+      <c r="F282" s="38" t="s">
+        <v>426</v>
+      </c>
+      <c r="G282" s="38" t="s">
+        <v>204</v>
+      </c>
+      <c r="H282" s="38" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="283" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A283" s="39">
-        <f>'Article Data'!A278</f>
-        <v>0</v>
-      </c>
-      <c r="B283" s="39">
-        <f>'Article Data'!B278</f>
-        <v>0</v>
-      </c>
-      <c r="C283" s="39"/>
-      <c r="D283" s="39"/>
-      <c r="E283" s="39"/>
-      <c r="F283" s="39"/>
-      <c r="G283" s="39"/>
-      <c r="H283" s="39"/>
-    </row>
-    <row r="284" spans="1:8" x14ac:dyDescent="0.2">
+        <f>'Article Data'!A64</f>
+        <v>291</v>
+      </c>
+      <c r="B283" s="39" t="str">
+        <f>'Article Data'!B64</f>
+        <v>Spatio-temporal variation of biotic factors underpins contemporary range dynamics of congeners</v>
+      </c>
+      <c r="C283" s="39" t="s">
+        <v>457</v>
+      </c>
+      <c r="D283" s="39" t="s">
+        <v>457</v>
+      </c>
+      <c r="E283" s="39" t="s">
+        <v>424</v>
+      </c>
+      <c r="F283" s="39" t="s">
+        <v>210</v>
+      </c>
+      <c r="G283" s="39" t="s">
+        <v>210</v>
+      </c>
+      <c r="H283" s="39" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="284" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A284" s="38">
-        <f>'Article Data'!A278</f>
-        <v>0</v>
-      </c>
-      <c r="B284" s="38">
-        <f>'Article Data'!B278</f>
-        <v>0</v>
-      </c>
-      <c r="C284" s="38"/>
-      <c r="D284" s="38"/>
-      <c r="E284" s="38"/>
-      <c r="F284" s="38"/>
-      <c r="G284" s="38"/>
-      <c r="H284" s="38"/>
-    </row>
-    <row r="285" spans="1:8" x14ac:dyDescent="0.2">
+        <f>'Article Data'!A64</f>
+        <v>291</v>
+      </c>
+      <c r="B284" s="38" t="str">
+        <f>'Article Data'!B64</f>
+        <v>Spatio-temporal variation of biotic factors underpins contemporary range dynamics of congeners</v>
+      </c>
+      <c r="C284" s="38" t="s">
+        <v>457</v>
+      </c>
+      <c r="D284" s="38" t="s">
+        <v>457</v>
+      </c>
+      <c r="E284" s="38" t="s">
+        <v>424</v>
+      </c>
+      <c r="F284" s="38" t="s">
+        <v>427</v>
+      </c>
+      <c r="G284" s="38" t="s">
+        <v>212</v>
+      </c>
+      <c r="H284" s="38" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="285" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A285" s="39">
-        <f>'Article Data'!A279</f>
-        <v>0</v>
-      </c>
-      <c r="B285" s="39">
-        <f>'Article Data'!B279</f>
-        <v>0</v>
-      </c>
-      <c r="C285" s="39"/>
-      <c r="D285" s="39"/>
-      <c r="E285" s="39"/>
-      <c r="F285" s="39"/>
-      <c r="G285" s="39"/>
-      <c r="H285" s="39"/>
+        <f>'Article Data'!A64</f>
+        <v>291</v>
+      </c>
+      <c r="B285" s="39" t="str">
+        <f>'Article Data'!B64</f>
+        <v>Spatio-temporal variation of biotic factors underpins contemporary range dynamics of congeners</v>
+      </c>
+      <c r="C285" s="39" t="s">
+        <v>457</v>
+      </c>
+      <c r="D285" s="39" t="s">
+        <v>457</v>
+      </c>
+      <c r="E285" s="39" t="s">
+        <v>424</v>
+      </c>
+      <c r="F285" s="39" t="s">
+        <v>213</v>
+      </c>
+      <c r="G285" s="39" t="s">
+        <v>213</v>
+      </c>
+      <c r="H285" s="39" t="s">
+        <v>903</v>
+      </c>
     </row>
     <row r="286" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A286" s="38">
@@ -31018,7 +31317,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J68" sqref="J68"/>
+      <selection pane="bottomLeft" activeCell="K69" sqref="K69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="16" zeroHeight="1" x14ac:dyDescent="0.2"/>
@@ -33715,25 +34014,45 @@
         <v>318</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:12" ht="51" x14ac:dyDescent="0.2">
       <c r="A68" s="38">
         <f>'Article Data'!A64</f>
-        <v>0</v>
-      </c>
-      <c r="B68" s="38">
+        <v>291</v>
+      </c>
+      <c r="B68" s="38" t="str">
         <f>'Article Data'!B64</f>
-        <v>0</v>
-      </c>
-      <c r="C68" s="38"/>
-      <c r="D68" s="38"/>
-      <c r="E68" s="38"/>
-      <c r="F68" s="38"/>
-      <c r="G68" s="38"/>
-      <c r="H68" s="38"/>
-      <c r="I68" s="38"/>
-      <c r="J68" s="38"/>
-      <c r="K68" s="38"/>
-      <c r="L68" s="38"/>
+        <v>Spatio-temporal variation of biotic factors underpins contemporary range dynamics of congeners</v>
+      </c>
+      <c r="C68" s="38" t="s">
+        <v>424</v>
+      </c>
+      <c r="D68" s="38" t="s">
+        <v>424</v>
+      </c>
+      <c r="E68" s="38" t="s">
+        <v>424</v>
+      </c>
+      <c r="F68" s="38" t="s">
+        <v>283</v>
+      </c>
+      <c r="G68" s="38" t="s">
+        <v>296</v>
+      </c>
+      <c r="H68" s="38" t="s">
+        <v>113</v>
+      </c>
+      <c r="I68" s="38" t="s">
+        <v>334</v>
+      </c>
+      <c r="J68" s="38" t="s">
+        <v>616</v>
+      </c>
+      <c r="K68" s="38" t="s">
+        <v>320</v>
+      </c>
+      <c r="L68" s="38" t="s">
+        <v>318</v>
+      </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A69" s="39">

--- a/Spreadsheets/DOM_Spreadsheet.xlsx
+++ b/Spreadsheets/DOM_Spreadsheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/saoirsekelleher/Documents/Research/QAEco/DOM_Review/Spreadsheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C701096-3E3A-FD4E-A093-202129FE7E9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3FBEA66-7C94-F341-8B05-1402AEB4BCB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-9600" yWindow="-21600" windowWidth="38400" windowHeight="21600" activeTab="6" xr2:uid="{981D9C2C-D510-E947-BD55-27C976277DB6}"/>
   </bookViews>
@@ -236,7 +236,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5490" uniqueCount="904">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5888" uniqueCount="948">
   <si>
     <t>Review ID</t>
   </si>
@@ -4244,6 +4244,317 @@
   </si>
   <si>
     <t>E-PHEN_SU_I_L, S-SEAS_SE_I_L</t>
+  </si>
+  <si>
+    <t>Influence of surrounding land cover on marsh-breeding birds: Implications for wetland restoration and conservation planning</t>
+  </si>
+  <si>
+    <t>Journal of great lakes research</t>
+  </si>
+  <si>
+    <t>Studholme, Katharine R.; Fiorino, Giuseppe E.; Grabas, Greg P.; Tozer, Douglas C.</t>
+  </si>
+  <si>
+    <t>NGO, Government</t>
+  </si>
+  <si>
+    <t>13 species of marsh-breeding birds</t>
+  </si>
+  <si>
+    <t>4-6</t>
+  </si>
+  <si>
+    <t>E-PHEN_SU_I_N, E-PHEN_SU_I_L, E-CLWE_SU_D_N</t>
+  </si>
+  <si>
+    <t>E-HYDR_SISE_R_I, E-HYDR_SISE_R_I, E-HYDR_SISE_R_I, E-HYDR_SISE_R_I, E-ANTH_SISE_R_I, E-ANTH_SISE_R_I, E-ANTH_SISE_R_I, E-ANTH_SISE_R_I, E-ANTH_SISE_R_I, E-ANTH_SISE_R_I, E-ANTH_SISE_R_I, E-LACO_SISE_R_I, E-LACO_SISE_R_I, E-HYDR_SISE_R_I, E-HYDR_SISE_R_I, E-HYDR_SISE_R_I, E-HYDR_SISE_R_I, E-ANTH_SISE_R_I, E-ANTH_SISE_R_I, E-ANTH_SISE_R_I, E-ANTH_SISE_R_I, E-ANTH_SISE_R_I, E-ANTH_SISE_R_I, E-ANTH_SISE_R_I, E-LACO_SISE_R_I, E-LACO_SISE_R_I, E-HYDR_SISE_R_I, E-HYDR_SISE_R_I, E-HYDR_SISE_R_I, E-HYDR_SISE_R_I, E-ANTH_SISE_R_I, E-ANTH_SISE_R_I, E-ANTH_SISE_R_I, E-ANTH_SISE_R_I, E-ANTH_SISE_R_I, E-ANTH_SISE_R_I, E-ANTH_SISE_R_I, E-LACO_SISE_R_I, E-LACO_SISE_R_I, E-HYDR_SISE_R_I, E-HYDR_SISE_R_I, E-HYDR_SISE_R_I, E-HYDR_SISE_R_I, E-ANTH_SISE_R_I, E-ANTH_SISE_R_I, E-ANTH_SISE_R_I, E-ANTH_SISE_R_I, E-ANTH_SISE_R_I, E-ANTH_SISE_R_I, E-ANTH_SISE_R_I, E-LACO_SISE_R_I, E-LACO_SISE_R_I, E-HYDR_SISE_R_I, E-HYDR_SISE_R_I, E-HYDR_SISE_R_I, E-HYDR_SISE_R_I, E-ANTH_SISE_R_I, E-ANTH_SISE_R_I, E-ANTH_SISE_R_I, E-ANTH_SISE_R_I, E-ANTH_SISE_R_I, E-ANTH_SISE_R_I, E-ANTH_SISE_R_I, E-LACO_SISE_R_I, E-LACO_SISE_R_I, E-HYDR_SISE_R_I, E-HYDR_SISE_R_I, E-HYDR_SISE_R_I, E-HYDR_SISE_R_I, E-ANTH_SISE_R_I, E-ANTH_SISE_R_I, E-ANTH_SISE_R_I, E-ANTH_SISE_R_I, E-ANTH_SISE_R_I, E-ANTH_SISE_R_I, E-ANTH_SISE_R_I, E-LACO_SISE_R_I, E-LACO_SISE_R_I, E-HYDR_SISE_R_I, E-HYDR_SISE_R_I, E-HYDR_SISE_R_I, E-HYDR_SISE_R_I, E-ANTH_SISE_R_I, E-ANTH_SISE_R_I, E-ANTH_SISE_R_I, E-ANTH_SISE_R_I, E-ANTH_SISE_R_I, E-ANTH_SISE_R_I, E-ANTH_SISE_R_I, E-LACO_SISE_R_I, E-LACO_SISE_R_I, E-HYDR_SISE_R_I, E-HYDR_SISE_R_I, E-HYDR_SISE_R_I, E-HYDR_SISE_R_I, E-ANTH_SISE_R_I, E-ANTH_SISE_R_I, E-ANTH_SISE_R_I, E-ANTH_SISE_R_I, E-ANTH_SISE_R_I, E-ANTH_SISE_R_I, E-ANTH_SISE_R_I, E-LACO_SISE_R_I, E-LACO_SISE_R_I, E-HYDR_SISE_R_I, E-HYDR_SISE_R_I, E-HYDR_SISE_R_I, E-HYDR_SISE_R_I, E-ANTH_SISE_R_I, E-ANTH_SISE_R_I, E-ANTH_SISE_R_I, E-ANTH_SISE_R_I, E-ANTH_SISE_R_I, E-ANTH_SISE_R_I, E-ANTH_SISE_R_I, E-LACO_SISE_R_I, E-LACO_SISE_R_I, E-HYDR_SISE_R_I, E-HYDR_SISE_R_I, E-HYDR_SISE_R_I, E-HYDR_SISE_R_I, E-ANTH_SISE_R_I, E-ANTH_SISE_R_I, E-ANTH_SISE_R_I, E-ANTH_SISE_R_I, E-ANTH_SISE_R_I, E-ANTH_SISE_R_I, E-ANTH_SISE_R_I, E-LACO_SISE_R_I, E-LACO_SISE_R_I, E-HYDR_SISE_R_I, E-HYDR_SISE_R_I, E-HYDR_SISE_R_I, E-HYDR_SISE_R_I, E-ANTH_SISE_R_I, E-ANTH_SISE_R_I, E-ANTH_SISE_R_I, E-ANTH_SISE_R_I, E-ANTH_SISE_R_I, E-ANTH_SISE_R_I, E-ANTH_SISE_R_I, E-LACO_SISE_R_I, E-LACO_SISE_R_I, E-HYDR_SISE_R_I, E-HYDR_SISE_R_I, E-HYDR_SISE_R_I, E-HYDR_SISE_R_I, E-ANTH_SISE_R_I, E-ANTH_SISE_R_I, E-ANTH_SISE_R_I, E-ANTH_SISE_R_I, E-ANTH_SISE_R_I, E-ANTH_SISE_R_I, E-ANTH_SISE_R_I, E-LACO_SISE_R_I, E-LACO_SISE_R_I, E-HYDR_SI_R_L</t>
+  </si>
+  <si>
+    <t>E-HYDR_SI_R_L, E-HYDR_SI_R_L, E-HYDR_SI_R_L, E-HYDR_SI_R_L, E-ANTH_SI_R_L, E-ANTH_SI_R_L, E-ANTH_SI_R_L, E-ANTH_SI_R_L, E-ANTH_SI_R_L, E-ANTH_SI_R_L, E-ANTH_SI_R_L, E-LACO_SI_R_L, E-LACO_SI_R_L, E-HYDR_SI_R_L, E-HYDR_SI_R_L, E-HYDR_SI_R_L, E-HYDR_SI_R_L, E-HYDR_SI_R_L, E-ANTH_SI_R_L, E-ANTH_SI_R_L, E-ANTH_SI_R_L, E-ANTH_SI_R_L, E-ANTH_SI_R_L, E-ANTH_SI_R_L, E-ANTH_SI_R_L, E-LACO_SI_R_L, E-LACO_SI_R_L, E-HYDR_SI_R_L, E-HYDR_SI_R_L, E-HYDR_SI_R_L, E-HYDR_SI_R_L, E-ANTH_SI_R_L, E-ANTH_SI_R_L, E-ANTH_SI_R_L, E-ANTH_SI_R_L, E-ANTH_SI_R_L, E-ANTH_SI_R_L, E-ANTH_SI_R_L, E-LACO_SI_R_L, E-LACO_SI_R_L, E-HYDR_SI_R_L, E-HYDR_SI_R_L, E-HYDR_SI_R_L, E-HYDR_SI_R_L, E-ANTH_SI_R_L, E-ANTH_SI_R_L, E-ANTH_SI_R_L, E-ANTH_SI_R_L, E-ANTH_SI_R_L, E-ANTH_SI_R_L, E-ANTH_SI_R_L, E-LACO_SI_R_L, E-LACO_SI_R_L, E-HYDR_SI_R_L, E-HYDR_SI_R_L, E-HYDR_SI_R_L, E-HYDR_SI_R_L, E-ANTH_SI_R_L, E-ANTH_SI_R_L, E-ANTH_SI_R_L, E-ANTH_SI_R_L, E-ANTH_SI_R_L, E-ANTH_SI_R_L, E-ANTH_SI_R_L, E-LACO_SI_R_L, E-LACO_SI_R_L, E-HYDR_SI_R_L, E-HYDR_SI_R_L, E-HYDR_SI_R_L, E-HYDR_SI_R_L, E-ANTH_SI_R_L, E-ANTH_SI_R_L, E-ANTH_SI_R_L, E-ANTH_SI_R_L, E-ANTH_SI_R_L, E-ANTH_SI_R_L, E-ANTH_SI_R_L, E-LACO_SI_R_L, E-LACO_SI_R_L</t>
+  </si>
+  <si>
+    <t>Simple, Sequential</t>
+  </si>
+  <si>
+    <t>Dynamic multistate site occupancy models to evaluate hypotheses relevant to conservation of Golden Eagles in Denali National Park, Alaska</t>
+  </si>
+  <si>
+    <t>Martin, Julien; McIntyre, Carol L.; Hines, James E.; Nichols, James D.; Schmutz, Joel A.; MacCluskie, Maggie C.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Golden eagle </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Aquila chrysaetos</t>
+    </r>
+  </si>
+  <si>
+    <t>Breeding to unoccupied</t>
+  </si>
+  <si>
+    <t>Unoccupied to breeding</t>
+  </si>
+  <si>
+    <t>Occupied to breeding</t>
+  </si>
+  <si>
+    <t>Breeding to breeding</t>
+  </si>
+  <si>
+    <t>Detection given reproduction</t>
+  </si>
+  <si>
+    <t>Detection of reproduction</t>
+  </si>
+  <si>
+    <t>E-BIOT_SISE_D_L, E-TOPO_SI_R_L, E-HABT_SI_R_L, E-ANTH_SI_D_L</t>
+  </si>
+  <si>
+    <t>Exhaustive, Model averaging</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Detection probability of the Collared Flycatcher </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Ficedula albicollis</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> during quick, multiple surveys: a case study in an isolated population in northern Poland</t>
+    </r>
+  </si>
+  <si>
+    <t>Ornis fennica</t>
+  </si>
+  <si>
+    <t>Poland</t>
+  </si>
+  <si>
+    <t>Neubauer, Grzegorz; Sikora, Arkadiusz</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Collared flycatcher </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Ficedula albicollis</t>
+    </r>
+  </si>
+  <si>
+    <t>E-OTHER_SU_D_L, E-PHEN_SU_I_L, E-OBSE_SU_I_L, S-SURV_SU_I_L</t>
+  </si>
+  <si>
+    <t>Coupled range dynamics of brood parasites and their hosts responding to climate and vegetation changes</t>
+  </si>
+  <si>
+    <t>Journal of animal ecology</t>
+  </si>
+  <si>
+    <t>Peron, Guillaume; Altwegg, Res; Jamie, Gabriel A.; Spottiswoode, Claire N.</t>
+  </si>
+  <si>
+    <t>South Africa</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Pair of birds:
+-Village indigobird </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Vidua chalybeata
+-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Red-billed firefinch </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Lagonosticta senegala</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Pair of birds:
+-Lesser honeyguide </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Indicator minor
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">-Black-collared barbet </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Lybius torquatus</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Pair of birds:
+-Purple indigobird </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Vidua purpurascens
+-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Jameson's firefinch </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Lybius rhodopareia</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Pair of birds:
+-Dusky indigobird </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Vidua funerea
+-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">African firefinch </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Lybius rubricata</t>
+    </r>
+  </si>
+  <si>
+    <t>South Africa, Lesotho, Eswatini</t>
+  </si>
+  <si>
+    <t>E-CLWE_SI_R_L, E-CLWE_SI_R_L, E-CLWE_SI_R_L, E-CLWE_SI_R_L, E-HABT_SI_R_L, E-HABT_SI_R_L, E-ANTH_SI_R_L, E-ANTH_SI_R_L</t>
+  </si>
+  <si>
+    <t>E-CLWE_SI_R_L, E-CLWE_SI_R_L, E-CLWE_SI_R_L, E-CLWE_SI_R_L, E-HABT_SI_R_L, E-HABT_SI_R_L, E-ANTH_SI_R_L, E-ANTH_SI_R_L, E-CONN_SISE_D_I, E-BIOT_SISE_D_I</t>
+  </si>
+  <si>
+    <t>Estimating species misclassification with occupancy dynamics and encounter rates: A semi-supervised, individual-level approach</t>
+  </si>
+  <si>
+    <t>Spiers, Anna, I; Royle, J. Andrew; Torrens, Christa L.; Joseph, Maxwell B.</t>
+  </si>
+  <si>
+    <t>55 species of carabid beetle</t>
+  </si>
+  <si>
+    <t>Encounter rate</t>
+  </si>
+  <si>
+    <t>Classification rate</t>
+  </si>
+  <si>
+    <t>S-SPEC_SPEC_I_L, S-OTHER_SI_I_L</t>
   </si>
 </sst>
 </file>
@@ -5518,7 +5829,7 @@
   <sheetViews>
     <sheetView zoomScale="103" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A60" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G65" sqref="G65"/>
+      <selection pane="bottomLeft" activeCell="G70" sqref="G70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="16" zeroHeight="1" x14ac:dyDescent="0.2"/>
@@ -7006,50 +7317,120 @@
         <v>455</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A65" s="39"/>
-      <c r="B65" s="39"/>
-      <c r="C65" s="39"/>
-      <c r="D65" s="39"/>
-      <c r="E65" s="39"/>
-      <c r="F65" s="39"/>
-      <c r="G65" s="39"/>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A66" s="38"/>
-      <c r="B66" s="38"/>
-      <c r="C66" s="38"/>
-      <c r="D66" s="38"/>
-      <c r="E66" s="38"/>
-      <c r="F66" s="38"/>
-      <c r="G66" s="38"/>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A67" s="39"/>
-      <c r="B67" s="39"/>
-      <c r="C67" s="39"/>
-      <c r="D67" s="39"/>
-      <c r="E67" s="39"/>
-      <c r="F67" s="39"/>
-      <c r="G67" s="39"/>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A68" s="38"/>
-      <c r="B68" s="38"/>
-      <c r="C68" s="38"/>
-      <c r="D68" s="38"/>
-      <c r="E68" s="38"/>
-      <c r="F68" s="38"/>
-      <c r="G68" s="38"/>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A69" s="39"/>
-      <c r="B69" s="39"/>
-      <c r="C69" s="39"/>
-      <c r="D69" s="39"/>
-      <c r="E69" s="39"/>
-      <c r="F69" s="39"/>
-      <c r="G69" s="39"/>
+    <row r="65" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+      <c r="A65" s="39">
+        <v>488</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>904</v>
+      </c>
+      <c r="C65" s="39">
+        <v>2023</v>
+      </c>
+      <c r="D65" s="39" t="s">
+        <v>400</v>
+      </c>
+      <c r="E65" s="39" t="s">
+        <v>905</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>906</v>
+      </c>
+      <c r="G65" s="39" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+      <c r="A66" s="38">
+        <v>53</v>
+      </c>
+      <c r="B66" s="38" t="s">
+        <v>914</v>
+      </c>
+      <c r="C66" s="38">
+        <v>2009</v>
+      </c>
+      <c r="D66" s="38" t="s">
+        <v>397</v>
+      </c>
+      <c r="E66" s="38" t="s">
+        <v>431</v>
+      </c>
+      <c r="F66" s="38" t="s">
+        <v>915</v>
+      </c>
+      <c r="G66" s="38" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+      <c r="A67" s="39">
+        <v>543</v>
+      </c>
+      <c r="B67" s="39" t="s">
+        <v>925</v>
+      </c>
+      <c r="C67" s="39">
+        <v>2013</v>
+      </c>
+      <c r="D67" s="39" t="s">
+        <v>398</v>
+      </c>
+      <c r="E67" s="39" t="s">
+        <v>926</v>
+      </c>
+      <c r="F67" s="39" t="s">
+        <v>928</v>
+      </c>
+      <c r="G67" s="39" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="A68" s="38">
+        <v>208</v>
+      </c>
+      <c r="B68" s="38" t="s">
+        <v>931</v>
+      </c>
+      <c r="C68" s="38">
+        <v>2016</v>
+      </c>
+      <c r="D68" s="38" t="s">
+        <v>399</v>
+      </c>
+      <c r="E68" s="38" t="s">
+        <v>932</v>
+      </c>
+      <c r="F68" s="38" t="s">
+        <v>933</v>
+      </c>
+      <c r="G68" s="38" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+      <c r="A69" s="39">
+        <v>415</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>942</v>
+      </c>
+      <c r="C69" s="39">
+        <v>2022</v>
+      </c>
+      <c r="D69" s="39" t="s">
+        <v>400</v>
+      </c>
+      <c r="E69" s="39" t="s">
+        <v>546</v>
+      </c>
+      <c r="F69" s="2" t="s">
+        <v>943</v>
+      </c>
+      <c r="G69" s="39" t="s">
+        <v>432</v>
+      </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70" s="38"/>
@@ -7302,8 +7683,8 @@
   <dimension ref="A1:I130"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H65" sqref="H65"/>
+      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H70" sqref="H70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="16" zeroHeight="1" x14ac:dyDescent="0.2"/>
@@ -9302,90 +9683,160 @@
         <v>422</v>
       </c>
     </row>
-    <row r="65" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:9" ht="85" x14ac:dyDescent="0.2">
       <c r="A65" s="41">
         <f>'Article Data'!A65</f>
-        <v>0</v>
-      </c>
-      <c r="B65" s="41">
+        <v>488</v>
+      </c>
+      <c r="B65" s="41" t="str">
         <f>'Article Data'!B65</f>
-        <v>0</v>
-      </c>
-      <c r="C65" s="39"/>
-      <c r="D65" s="39"/>
-      <c r="E65" s="39"/>
-      <c r="F65" s="39"/>
-      <c r="G65" s="39"/>
-      <c r="H65" s="39"/>
-      <c r="I65" s="39"/>
-    </row>
-    <row r="66" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+        <v>Influence of surrounding land cover on marsh-breeding birds: Implications for wetland restoration and conservation planning</v>
+      </c>
+      <c r="C65" s="39" t="s">
+        <v>907</v>
+      </c>
+      <c r="D65" s="39" t="s">
+        <v>422</v>
+      </c>
+      <c r="E65" s="39" t="s">
+        <v>422</v>
+      </c>
+      <c r="F65" s="39" t="s">
+        <v>423</v>
+      </c>
+      <c r="G65" s="39" t="s">
+        <v>422</v>
+      </c>
+      <c r="H65" s="39" t="s">
+        <v>422</v>
+      </c>
+      <c r="I65" s="39" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" ht="85" x14ac:dyDescent="0.2">
       <c r="A66" s="38">
         <f>'Article Data'!A66</f>
-        <v>0</v>
-      </c>
-      <c r="B66" s="38">
+        <v>53</v>
+      </c>
+      <c r="B66" s="38" t="str">
         <f>'Article Data'!B66</f>
-        <v>0</v>
-      </c>
-      <c r="C66" s="38"/>
-      <c r="D66" s="38"/>
-      <c r="E66" s="38"/>
-      <c r="F66" s="38"/>
-      <c r="G66" s="38"/>
-      <c r="H66" s="38"/>
-      <c r="I66" s="38"/>
-    </row>
-    <row r="67" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+        <v>Dynamic multistate site occupancy models to evaluate hypotheses relevant to conservation of Golden Eagles in Denali National Park, Alaska</v>
+      </c>
+      <c r="C66" s="38" t="s">
+        <v>433</v>
+      </c>
+      <c r="D66" s="38" t="s">
+        <v>422</v>
+      </c>
+      <c r="E66" s="38" t="s">
+        <v>423</v>
+      </c>
+      <c r="F66" s="38" t="s">
+        <v>422</v>
+      </c>
+      <c r="G66" s="38" t="s">
+        <v>423</v>
+      </c>
+      <c r="H66" s="38" t="s">
+        <v>422</v>
+      </c>
+      <c r="I66" s="38" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" ht="102" x14ac:dyDescent="0.2">
       <c r="A67" s="41">
         <f>'Article Data'!A67</f>
-        <v>0</v>
-      </c>
-      <c r="B67" s="41">
+        <v>543</v>
+      </c>
+      <c r="B67" s="41" t="str">
         <f>'Article Data'!B67</f>
-        <v>0</v>
-      </c>
-      <c r="C67" s="39"/>
-      <c r="D67" s="39"/>
-      <c r="E67" s="39"/>
-      <c r="F67" s="39"/>
-      <c r="G67" s="39"/>
-      <c r="H67" s="39"/>
-      <c r="I67" s="39"/>
-    </row>
-    <row r="68" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+        <v>Detection probability of the Collared Flycatcher Ficedula albicollis during quick, multiple surveys: a case study in an isolated population in northern Poland</v>
+      </c>
+      <c r="C67" s="39" t="s">
+        <v>357</v>
+      </c>
+      <c r="D67" s="39" t="s">
+        <v>422</v>
+      </c>
+      <c r="E67" s="39" t="s">
+        <v>422</v>
+      </c>
+      <c r="F67" s="39" t="s">
+        <v>422</v>
+      </c>
+      <c r="G67" s="39" t="s">
+        <v>423</v>
+      </c>
+      <c r="H67" s="39" t="s">
+        <v>422</v>
+      </c>
+      <c r="I67" s="39" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" ht="68" x14ac:dyDescent="0.2">
       <c r="A68" s="38">
         <f>'Article Data'!A68</f>
-        <v>0</v>
-      </c>
-      <c r="B68" s="38">
+        <v>208</v>
+      </c>
+      <c r="B68" s="38" t="str">
         <f>'Article Data'!B68</f>
-        <v>0</v>
-      </c>
-      <c r="C68" s="38"/>
-      <c r="D68" s="38"/>
-      <c r="E68" s="38"/>
-      <c r="F68" s="38"/>
-      <c r="G68" s="38"/>
-      <c r="H68" s="38"/>
-      <c r="I68" s="38"/>
-    </row>
-    <row r="69" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+        <v>Coupled range dynamics of brood parasites and their hosts responding to climate and vegetation changes</v>
+      </c>
+      <c r="C68" s="38" t="s">
+        <v>356</v>
+      </c>
+      <c r="D68" s="38" t="s">
+        <v>422</v>
+      </c>
+      <c r="E68" s="38" t="s">
+        <v>422</v>
+      </c>
+      <c r="F68" s="38" t="s">
+        <v>422</v>
+      </c>
+      <c r="G68" s="38" t="s">
+        <v>423</v>
+      </c>
+      <c r="H68" s="38" t="s">
+        <v>422</v>
+      </c>
+      <c r="I68" s="38" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" ht="102" x14ac:dyDescent="0.2">
       <c r="A69" s="41">
         <f>'Article Data'!A69</f>
-        <v>0</v>
-      </c>
-      <c r="B69" s="41">
+        <v>415</v>
+      </c>
+      <c r="B69" s="41" t="str">
         <f>'Article Data'!B69</f>
-        <v>0</v>
-      </c>
-      <c r="C69" s="39"/>
-      <c r="D69" s="39"/>
-      <c r="E69" s="39"/>
-      <c r="F69" s="39"/>
-      <c r="G69" s="39"/>
-      <c r="H69" s="39"/>
-      <c r="I69" s="39"/>
+        <v>Estimating species misclassification with occupancy dynamics and encounter rates: A semi-supervised, individual-level approach</v>
+      </c>
+      <c r="C69" s="39" t="s">
+        <v>433</v>
+      </c>
+      <c r="D69" s="39" t="s">
+        <v>423</v>
+      </c>
+      <c r="E69" s="39" t="s">
+        <v>422</v>
+      </c>
+      <c r="F69" s="39" t="s">
+        <v>422</v>
+      </c>
+      <c r="G69" s="39" t="s">
+        <v>422</v>
+      </c>
+      <c r="H69" s="39" t="s">
+        <v>422</v>
+      </c>
+      <c r="I69" s="39" t="s">
+        <v>422</v>
+      </c>
     </row>
     <row r="70" spans="1:9" ht="68" x14ac:dyDescent="0.2">
       <c r="A70" s="38">
@@ -9749,11 +10200,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{972CA9F4-C4C2-C448-94BA-649C49266D7E}">
-  <dimension ref="A1:K169"/>
+  <dimension ref="A1:K172"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A72" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J79" sqref="J79"/>
+      <pane ySplit="1" topLeftCell="A76" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J87" sqref="J87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="16" zeroHeight="1" x14ac:dyDescent="0.2"/>
@@ -12651,465 +13102,663 @@
         <v>96</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A79" s="38">
         <f>'Article Data'!A65</f>
-        <v>0</v>
-      </c>
-      <c r="B79" s="38">
+        <v>488</v>
+      </c>
+      <c r="B79" s="38" t="str">
         <f>'Article Data'!B65</f>
-        <v>0</v>
-      </c>
-      <c r="C79" s="33"/>
-      <c r="D79" s="33"/>
-      <c r="E79" s="33"/>
-      <c r="F79" s="33"/>
-      <c r="G79" s="33"/>
-      <c r="H79" s="33"/>
-      <c r="I79" s="33"/>
-      <c r="J79" s="33"/>
-      <c r="K79" s="33"/>
-    </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
+        <v>Influence of surrounding land cover on marsh-breeding birds: Implications for wetland restoration and conservation planning</v>
+      </c>
+      <c r="C79" s="33" t="s">
+        <v>424</v>
+      </c>
+      <c r="D79" s="33" t="s">
+        <v>424</v>
+      </c>
+      <c r="E79" s="33" t="s">
+        <v>424</v>
+      </c>
+      <c r="F79" s="33" t="s">
+        <v>908</v>
+      </c>
+      <c r="G79" s="33" t="s">
+        <v>69</v>
+      </c>
+      <c r="H79" s="33">
+        <v>13</v>
+      </c>
+      <c r="I79" s="33" t="s">
+        <v>82</v>
+      </c>
+      <c r="J79" s="33" t="s">
+        <v>96</v>
+      </c>
+      <c r="K79" s="33" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" ht="85" x14ac:dyDescent="0.2">
       <c r="A80" s="39">
         <f>'Article Data'!A66</f>
-        <v>0</v>
-      </c>
-      <c r="B80" s="39">
+        <v>53</v>
+      </c>
+      <c r="B80" s="39" t="str">
         <f>'Article Data'!B66</f>
-        <v>0</v>
-      </c>
-      <c r="C80" s="2"/>
-      <c r="D80" s="2"/>
-      <c r="E80" s="2"/>
-      <c r="F80" s="2"/>
-      <c r="G80" s="2"/>
-      <c r="H80" s="2"/>
-      <c r="I80" s="2"/>
-      <c r="J80" s="2"/>
-      <c r="K80" s="2"/>
-    </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
+        <v>Dynamic multistate site occupancy models to evaluate hypotheses relevant to conservation of Golden Eagles in Denali National Park, Alaska</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="F80" s="2" t="s">
+        <v>916</v>
+      </c>
+      <c r="G80" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="H80" s="2">
+        <v>1</v>
+      </c>
+      <c r="I80" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="J80" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="K80" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" ht="85" x14ac:dyDescent="0.2">
       <c r="A81" s="38">
         <f>'Article Data'!A67</f>
-        <v>0</v>
-      </c>
-      <c r="B81" s="38">
+        <v>543</v>
+      </c>
+      <c r="B81" s="38" t="str">
         <f>'Article Data'!B67</f>
-        <v>0</v>
-      </c>
-      <c r="C81" s="33"/>
-      <c r="D81" s="33"/>
-      <c r="E81" s="33"/>
-      <c r="F81" s="33"/>
-      <c r="G81" s="33"/>
-      <c r="H81" s="33"/>
-      <c r="I81" s="33"/>
-      <c r="J81" s="33"/>
-      <c r="K81" s="33"/>
-    </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
+        <v>Detection probability of the Collared Flycatcher Ficedula albicollis during quick, multiple surveys: a case study in an isolated population in northern Poland</v>
+      </c>
+      <c r="C81" s="33" t="s">
+        <v>424</v>
+      </c>
+      <c r="D81" s="33" t="s">
+        <v>424</v>
+      </c>
+      <c r="E81" s="33" t="s">
+        <v>424</v>
+      </c>
+      <c r="F81" s="33" t="s">
+        <v>929</v>
+      </c>
+      <c r="G81" s="33" t="s">
+        <v>69</v>
+      </c>
+      <c r="H81" s="33">
+        <v>1</v>
+      </c>
+      <c r="I81" s="33" t="s">
+        <v>81</v>
+      </c>
+      <c r="J81" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="K81" s="33" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" ht="85" x14ac:dyDescent="0.2">
       <c r="A82" s="39">
         <f>'Article Data'!A68</f>
-        <v>0</v>
-      </c>
-      <c r="B82" s="39">
+        <v>208</v>
+      </c>
+      <c r="B82" s="39" t="str">
         <f>'Article Data'!B68</f>
-        <v>0</v>
-      </c>
-      <c r="C82" s="2"/>
-      <c r="D82" s="2"/>
-      <c r="E82" s="2"/>
-      <c r="F82" s="2"/>
-      <c r="G82" s="2"/>
-      <c r="H82" s="2"/>
-      <c r="I82" s="2"/>
-      <c r="J82" s="2"/>
-      <c r="K82" s="2"/>
-    </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A83" s="38">
+        <v>Coupled range dynamics of brood parasites and their hosts responding to climate and vegetation changes</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="E82" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="F82" s="2" t="s">
+        <v>936</v>
+      </c>
+      <c r="G82" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="H82" s="2">
+        <v>2</v>
+      </c>
+      <c r="I82" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="J82" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="K82" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" ht="85" x14ac:dyDescent="0.2">
+      <c r="A83" s="39">
+        <f>'Article Data'!A68</f>
+        <v>208</v>
+      </c>
+      <c r="B83" s="39" t="str">
+        <f>'Article Data'!B68</f>
+        <v>Coupled range dynamics of brood parasites and their hosts responding to climate and vegetation changes</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="F83" s="2" t="s">
+        <v>935</v>
+      </c>
+      <c r="G83" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="H83" s="2">
+        <v>2</v>
+      </c>
+      <c r="I83" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="J83" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="K83" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" ht="85" x14ac:dyDescent="0.2">
+      <c r="A84" s="39">
+        <f>'Article Data'!A68</f>
+        <v>208</v>
+      </c>
+      <c r="B84" s="39" t="str">
+        <f>'Article Data'!B68</f>
+        <v>Coupled range dynamics of brood parasites and their hosts responding to climate and vegetation changes</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="E84" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="F84" s="2" t="s">
+        <v>937</v>
+      </c>
+      <c r="G84" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="H84" s="2">
+        <v>2</v>
+      </c>
+      <c r="I84" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="J84" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="K84" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" ht="68" x14ac:dyDescent="0.2">
+      <c r="A85" s="39">
+        <f>'Article Data'!A68</f>
+        <v>208</v>
+      </c>
+      <c r="B85" s="39" t="str">
+        <f>'Article Data'!B68</f>
+        <v>Coupled range dynamics of brood parasites and their hosts responding to climate and vegetation changes</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>511</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="F85" s="2" t="s">
+        <v>938</v>
+      </c>
+      <c r="G85" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="H85" s="2">
+        <v>2</v>
+      </c>
+      <c r="I85" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="J85" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="K85" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" ht="85" x14ac:dyDescent="0.2">
+      <c r="A86" s="38">
         <f>'Article Data'!A69</f>
-        <v>0</v>
-      </c>
-      <c r="B83" s="38">
+        <v>415</v>
+      </c>
+      <c r="B86" s="38" t="str">
         <f>'Article Data'!B69</f>
-        <v>0</v>
-      </c>
-      <c r="C83" s="33"/>
-      <c r="D83" s="33"/>
-      <c r="E83" s="33"/>
-      <c r="F83" s="33"/>
-      <c r="G83" s="33"/>
-      <c r="H83" s="33"/>
-      <c r="I83" s="33"/>
-      <c r="J83" s="33"/>
-      <c r="K83" s="33"/>
-    </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A84" s="39">
+        <v>Estimating species misclassification with occupancy dynamics and encounter rates: A semi-supervised, individual-level approach</v>
+      </c>
+      <c r="C86" s="33" t="s">
+        <v>424</v>
+      </c>
+      <c r="D86" s="33" t="s">
+        <v>424</v>
+      </c>
+      <c r="E86" s="33" t="s">
+        <v>424</v>
+      </c>
+      <c r="F86" s="33" t="s">
+        <v>944</v>
+      </c>
+      <c r="G86" s="33" t="s">
+        <v>72</v>
+      </c>
+      <c r="H86" s="33">
+        <v>55</v>
+      </c>
+      <c r="I86" s="33" t="s">
+        <v>87</v>
+      </c>
+      <c r="J86" s="33" t="s">
+        <v>96</v>
+      </c>
+      <c r="K86" s="33" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A87" s="39">
         <f>'Article Data'!A70</f>
         <v>0</v>
       </c>
-      <c r="B84" s="39">
+      <c r="B87" s="39">
         <f>'Article Data'!B70</f>
         <v>0</v>
       </c>
-      <c r="C84" s="2"/>
-      <c r="D84" s="2"/>
-      <c r="E84" s="2"/>
-      <c r="F84" s="2"/>
-      <c r="G84" s="2"/>
-      <c r="H84" s="2"/>
-      <c r="I84" s="2"/>
-      <c r="J84" s="2"/>
-      <c r="K84" s="2"/>
-    </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A85" s="38">
+      <c r="C87" s="2"/>
+      <c r="D87" s="2"/>
+      <c r="E87" s="2"/>
+      <c r="F87" s="2"/>
+      <c r="G87" s="2"/>
+      <c r="H87" s="2"/>
+      <c r="I87" s="2"/>
+      <c r="J87" s="2"/>
+      <c r="K87" s="2"/>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A88" s="38">
         <f>'Article Data'!A71</f>
         <v>0</v>
       </c>
-      <c r="B85" s="38">
+      <c r="B88" s="38">
         <f>'Article Data'!B71</f>
         <v>0</v>
       </c>
-      <c r="C85" s="33"/>
-      <c r="D85" s="33"/>
-      <c r="E85" s="33"/>
-      <c r="F85" s="33"/>
-      <c r="G85" s="33"/>
-      <c r="H85" s="33"/>
-      <c r="I85" s="33"/>
-      <c r="J85" s="33"/>
-      <c r="K85" s="33"/>
-    </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A86" s="39">
+      <c r="C88" s="33"/>
+      <c r="D88" s="33"/>
+      <c r="E88" s="33"/>
+      <c r="F88" s="33"/>
+      <c r="G88" s="33"/>
+      <c r="H88" s="33"/>
+      <c r="I88" s="33"/>
+      <c r="J88" s="33"/>
+      <c r="K88" s="33"/>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A89" s="39">
         <f>'Article Data'!A72</f>
         <v>0</v>
       </c>
-      <c r="B86" s="39">
+      <c r="B89" s="39">
         <f>'Article Data'!B72</f>
         <v>0</v>
       </c>
-      <c r="C86" s="2"/>
-      <c r="D86" s="2"/>
-      <c r="E86" s="2"/>
-      <c r="F86" s="2"/>
-      <c r="G86" s="2"/>
-      <c r="H86" s="2"/>
-      <c r="I86" s="2"/>
-      <c r="J86" s="2"/>
-      <c r="K86" s="2"/>
-    </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A87" s="38">
+      <c r="C89" s="2"/>
+      <c r="D89" s="2"/>
+      <c r="E89" s="2"/>
+      <c r="F89" s="2"/>
+      <c r="G89" s="2"/>
+      <c r="H89" s="2"/>
+      <c r="I89" s="2"/>
+      <c r="J89" s="2"/>
+      <c r="K89" s="2"/>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A90" s="38">
         <f>'Article Data'!A73</f>
         <v>0</v>
       </c>
-      <c r="B87" s="38">
+      <c r="B90" s="38">
         <f>'Article Data'!B73</f>
         <v>0</v>
       </c>
-      <c r="C87" s="33"/>
-      <c r="D87" s="33"/>
-      <c r="E87" s="33"/>
-      <c r="F87" s="33"/>
-      <c r="G87" s="33"/>
-      <c r="H87" s="33"/>
-      <c r="I87" s="33"/>
-      <c r="J87" s="33"/>
-      <c r="K87" s="33"/>
-    </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A88" s="39">
+      <c r="C90" s="33"/>
+      <c r="D90" s="33"/>
+      <c r="E90" s="33"/>
+      <c r="F90" s="33"/>
+      <c r="G90" s="33"/>
+      <c r="H90" s="33"/>
+      <c r="I90" s="33"/>
+      <c r="J90" s="33"/>
+      <c r="K90" s="33"/>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A91" s="39">
         <f>'Article Data'!A74</f>
         <v>0</v>
       </c>
-      <c r="B88" s="39">
+      <c r="B91" s="39">
         <f>'Article Data'!B74</f>
         <v>0</v>
       </c>
-      <c r="C88" s="2"/>
-      <c r="D88" s="2"/>
-      <c r="E88" s="2"/>
-      <c r="F88" s="2"/>
-      <c r="G88" s="2"/>
-      <c r="H88" s="2"/>
-      <c r="I88" s="2"/>
-      <c r="J88" s="2"/>
-      <c r="K88" s="2"/>
-    </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A89" s="38">
+      <c r="C91" s="2"/>
+      <c r="D91" s="2"/>
+      <c r="E91" s="2"/>
+      <c r="F91" s="2"/>
+      <c r="G91" s="2"/>
+      <c r="H91" s="2"/>
+      <c r="I91" s="2"/>
+      <c r="J91" s="2"/>
+      <c r="K91" s="2"/>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A92" s="38">
         <f>'Article Data'!A75</f>
         <v>0</v>
       </c>
-      <c r="B89" s="38">
+      <c r="B92" s="38">
         <f>'Article Data'!B75</f>
         <v>0</v>
       </c>
-      <c r="C89" s="33"/>
-      <c r="D89" s="33"/>
-      <c r="E89" s="33"/>
-      <c r="F89" s="33"/>
-      <c r="G89" s="33"/>
-      <c r="H89" s="33"/>
-      <c r="I89" s="33"/>
-      <c r="J89" s="33"/>
-      <c r="K89" s="33"/>
-    </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A90" s="39">
+      <c r="C92" s="33"/>
+      <c r="D92" s="33"/>
+      <c r="E92" s="33"/>
+      <c r="F92" s="33"/>
+      <c r="G92" s="33"/>
+      <c r="H92" s="33"/>
+      <c r="I92" s="33"/>
+      <c r="J92" s="33"/>
+      <c r="K92" s="33"/>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A93" s="39">
         <f>'Article Data'!A76</f>
         <v>0</v>
       </c>
-      <c r="B90" s="39">
+      <c r="B93" s="39">
         <f>'Article Data'!B76</f>
         <v>0</v>
       </c>
-      <c r="C90" s="2"/>
-      <c r="D90" s="2"/>
-      <c r="E90" s="2"/>
-      <c r="F90" s="2"/>
-      <c r="G90" s="2"/>
-      <c r="H90" s="2"/>
-      <c r="I90" s="2"/>
-      <c r="J90" s="2"/>
-      <c r="K90" s="2"/>
-    </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A91" s="38">
+      <c r="C93" s="2"/>
+      <c r="D93" s="2"/>
+      <c r="E93" s="2"/>
+      <c r="F93" s="2"/>
+      <c r="G93" s="2"/>
+      <c r="H93" s="2"/>
+      <c r="I93" s="2"/>
+      <c r="J93" s="2"/>
+      <c r="K93" s="2"/>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A94" s="38">
         <f>'Article Data'!A77</f>
         <v>0</v>
       </c>
-      <c r="B91" s="38">
+      <c r="B94" s="38">
         <f>'Article Data'!B77</f>
         <v>0</v>
       </c>
-      <c r="C91" s="33"/>
-      <c r="D91" s="33"/>
-      <c r="E91" s="33"/>
-      <c r="F91" s="33"/>
-      <c r="G91" s="33"/>
-      <c r="H91" s="33"/>
-      <c r="I91" s="33"/>
-      <c r="J91" s="33"/>
-      <c r="K91" s="33"/>
-    </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A92" s="39">
+      <c r="C94" s="33"/>
+      <c r="D94" s="33"/>
+      <c r="E94" s="33"/>
+      <c r="F94" s="33"/>
+      <c r="G94" s="33"/>
+      <c r="H94" s="33"/>
+      <c r="I94" s="33"/>
+      <c r="J94" s="33"/>
+      <c r="K94" s="33"/>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A95" s="39">
         <f>'Article Data'!A78</f>
         <v>0</v>
       </c>
-      <c r="B92" s="39">
+      <c r="B95" s="39">
         <f>'Article Data'!B78</f>
         <v>0</v>
       </c>
-      <c r="C92" s="2"/>
-      <c r="D92" s="2"/>
-      <c r="E92" s="2"/>
-      <c r="F92" s="2"/>
-      <c r="G92" s="2"/>
-      <c r="H92" s="2"/>
-      <c r="I92" s="2"/>
-      <c r="J92" s="2"/>
-      <c r="K92" s="2"/>
-    </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A93" s="38">
+      <c r="C95" s="2"/>
+      <c r="D95" s="2"/>
+      <c r="E95" s="2"/>
+      <c r="F95" s="2"/>
+      <c r="G95" s="2"/>
+      <c r="H95" s="2"/>
+      <c r="I95" s="2"/>
+      <c r="J95" s="2"/>
+      <c r="K95" s="2"/>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A96" s="38">
         <f>'Article Data'!A79</f>
         <v>0</v>
       </c>
-      <c r="B93" s="38">
+      <c r="B96" s="38">
         <f>'Article Data'!B79</f>
         <v>0</v>
       </c>
-      <c r="C93" s="33"/>
-      <c r="D93" s="33"/>
-      <c r="E93" s="33"/>
-      <c r="F93" s="33"/>
-      <c r="G93" s="33"/>
-      <c r="H93" s="33"/>
-      <c r="I93" s="33"/>
-      <c r="J93" s="33"/>
-      <c r="K93" s="33"/>
-    </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A94" s="39">
+      <c r="C96" s="33"/>
+      <c r="D96" s="33"/>
+      <c r="E96" s="33"/>
+      <c r="F96" s="33"/>
+      <c r="G96" s="33"/>
+      <c r="H96" s="33"/>
+      <c r="I96" s="33"/>
+      <c r="J96" s="33"/>
+      <c r="K96" s="33"/>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A97" s="39">
         <f>'Article Data'!A80</f>
         <v>0</v>
       </c>
-      <c r="B94" s="39">
+      <c r="B97" s="39">
         <f>'Article Data'!B80</f>
         <v>0</v>
       </c>
-      <c r="C94" s="2"/>
-      <c r="D94" s="2"/>
-      <c r="E94" s="2"/>
-      <c r="F94" s="2"/>
-      <c r="G94" s="2"/>
-      <c r="H94" s="2"/>
-      <c r="I94" s="2"/>
-      <c r="J94" s="2"/>
-      <c r="K94" s="2"/>
-    </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A95" s="38">
+      <c r="C97" s="2"/>
+      <c r="D97" s="2"/>
+      <c r="E97" s="2"/>
+      <c r="F97" s="2"/>
+      <c r="G97" s="2"/>
+      <c r="H97" s="2"/>
+      <c r="I97" s="2"/>
+      <c r="J97" s="2"/>
+      <c r="K97" s="2"/>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A98" s="38">
         <f>'Article Data'!A81</f>
         <v>0</v>
       </c>
-      <c r="B95" s="38">
+      <c r="B98" s="38">
         <f>'Article Data'!B81</f>
         <v>0</v>
       </c>
-      <c r="C95" s="33"/>
-      <c r="D95" s="33"/>
-      <c r="E95" s="33"/>
-      <c r="F95" s="33"/>
-      <c r="G95" s="33"/>
-      <c r="H95" s="33"/>
-      <c r="I95" s="33"/>
-      <c r="J95" s="33"/>
-      <c r="K95" s="33"/>
-    </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A96" s="39">
+      <c r="C98" s="33"/>
+      <c r="D98" s="33"/>
+      <c r="E98" s="33"/>
+      <c r="F98" s="33"/>
+      <c r="G98" s="33"/>
+      <c r="H98" s="33"/>
+      <c r="I98" s="33"/>
+      <c r="J98" s="33"/>
+      <c r="K98" s="33"/>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A99" s="39">
         <f>'Article Data'!A82</f>
         <v>0</v>
       </c>
-      <c r="B96" s="39">
+      <c r="B99" s="39">
         <f>'Article Data'!B82</f>
         <v>0</v>
       </c>
-      <c r="C96" s="2"/>
-      <c r="D96" s="2"/>
-      <c r="E96" s="2"/>
-      <c r="F96" s="2"/>
-      <c r="G96" s="2"/>
-      <c r="H96" s="2"/>
-      <c r="I96" s="2"/>
-      <c r="J96" s="2"/>
-      <c r="K96" s="2"/>
-    </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A97" s="38">
+      <c r="C99" s="2"/>
+      <c r="D99" s="2"/>
+      <c r="E99" s="2"/>
+      <c r="F99" s="2"/>
+      <c r="G99" s="2"/>
+      <c r="H99" s="2"/>
+      <c r="I99" s="2"/>
+      <c r="J99" s="2"/>
+      <c r="K99" s="2"/>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A100" s="38">
         <f>'Article Data'!A83</f>
         <v>0</v>
       </c>
-      <c r="B97" s="38">
+      <c r="B100" s="38">
         <f>'Article Data'!B83</f>
         <v>0</v>
       </c>
-      <c r="C97" s="33"/>
-      <c r="D97" s="33"/>
-      <c r="E97" s="33"/>
-      <c r="F97" s="33"/>
-      <c r="G97" s="33"/>
-      <c r="H97" s="33"/>
-      <c r="I97" s="33"/>
-      <c r="J97" s="33"/>
-      <c r="K97" s="33"/>
-    </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A98" s="39">
+      <c r="C100" s="33"/>
+      <c r="D100" s="33"/>
+      <c r="E100" s="33"/>
+      <c r="F100" s="33"/>
+      <c r="G100" s="33"/>
+      <c r="H100" s="33"/>
+      <c r="I100" s="33"/>
+      <c r="J100" s="33"/>
+      <c r="K100" s="33"/>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A101" s="39">
         <f>'Article Data'!A84</f>
         <v>0</v>
       </c>
-      <c r="B98" s="39">
+      <c r="B101" s="39">
         <f>'Article Data'!B84</f>
         <v>0</v>
       </c>
-      <c r="C98" s="2"/>
-      <c r="D98" s="2"/>
-      <c r="E98" s="2"/>
-      <c r="F98" s="2"/>
-      <c r="G98" s="2"/>
-      <c r="H98" s="2"/>
-      <c r="I98" s="2"/>
-      <c r="J98" s="2"/>
-      <c r="K98" s="2"/>
-    </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A99" s="38">
+      <c r="C101" s="2"/>
+      <c r="D101" s="2"/>
+      <c r="E101" s="2"/>
+      <c r="F101" s="2"/>
+      <c r="G101" s="2"/>
+      <c r="H101" s="2"/>
+      <c r="I101" s="2"/>
+      <c r="J101" s="2"/>
+      <c r="K101" s="2"/>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A102" s="38">
         <f>'Article Data'!A85</f>
         <v>0</v>
       </c>
-      <c r="B99" s="38">
+      <c r="B102" s="38">
         <f>'Article Data'!B85</f>
         <v>0</v>
       </c>
-      <c r="C99" s="33"/>
-      <c r="D99" s="33"/>
-      <c r="E99" s="33"/>
-      <c r="F99" s="33"/>
-      <c r="G99" s="33"/>
-      <c r="H99" s="33"/>
-      <c r="I99" s="33"/>
-      <c r="J99" s="33"/>
-      <c r="K99" s="33"/>
-    </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A100" s="39">
+      <c r="C102" s="33"/>
+      <c r="D102" s="33"/>
+      <c r="E102" s="33"/>
+      <c r="F102" s="33"/>
+      <c r="G102" s="33"/>
+      <c r="H102" s="33"/>
+      <c r="I102" s="33"/>
+      <c r="J102" s="33"/>
+      <c r="K102" s="33"/>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A103" s="39">
         <f>'Article Data'!A86</f>
         <v>0</v>
       </c>
-      <c r="B100" s="39">
+      <c r="B103" s="39">
         <f>'Article Data'!B86</f>
         <v>0</v>
       </c>
-      <c r="C100" s="2"/>
-      <c r="D100" s="2"/>
-      <c r="E100" s="2"/>
-      <c r="F100" s="2"/>
-      <c r="G100" s="2"/>
-      <c r="H100" s="2"/>
-      <c r="I100" s="2"/>
-      <c r="J100" s="2"/>
-      <c r="K100" s="2"/>
-    </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A101" s="38">
+      <c r="C103" s="2"/>
+      <c r="D103" s="2"/>
+      <c r="E103" s="2"/>
+      <c r="F103" s="2"/>
+      <c r="G103" s="2"/>
+      <c r="H103" s="2"/>
+      <c r="I103" s="2"/>
+      <c r="J103" s="2"/>
+      <c r="K103" s="2"/>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A104" s="38">
         <f>'Article Data'!A87</f>
         <v>0</v>
       </c>
-      <c r="B101" s="38">
+      <c r="B104" s="38">
         <f>'Article Data'!B87</f>
         <v>0</v>
       </c>
-      <c r="C101" s="33"/>
-      <c r="D101" s="33"/>
-      <c r="E101" s="33"/>
-      <c r="F101" s="33"/>
-      <c r="G101" s="33"/>
-      <c r="H101" s="33"/>
-      <c r="I101" s="33"/>
-      <c r="J101" s="33"/>
-      <c r="K101" s="33"/>
-    </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A102" s="39">
+      <c r="C104" s="33"/>
+      <c r="D104" s="33"/>
+      <c r="E104" s="33"/>
+      <c r="F104" s="33"/>
+      <c r="G104" s="33"/>
+      <c r="H104" s="33"/>
+      <c r="I104" s="33"/>
+      <c r="J104" s="33"/>
+      <c r="K104" s="33"/>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A105" s="39">
         <f>'Article Data'!A88</f>
         <v>0</v>
       </c>
-      <c r="B102" s="39">
+      <c r="B105" s="39">
         <f>'Article Data'!B88</f>
         <v>0</v>
       </c>
-      <c r="C102" s="2"/>
-      <c r="D102" s="2"/>
-      <c r="E102" s="2"/>
-      <c r="F102" s="2"/>
-      <c r="G102" s="2"/>
-      <c r="H102" s="2"/>
-      <c r="I102" s="2"/>
-      <c r="J102" s="2"/>
-      <c r="K102" s="2"/>
-    </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.2"/>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.2"/>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.2"/>
+      <c r="C105" s="2"/>
+      <c r="D105" s="2"/>
+      <c r="E105" s="2"/>
+      <c r="F105" s="2"/>
+      <c r="G105" s="2"/>
+      <c r="H105" s="2"/>
+      <c r="I105" s="2"/>
+      <c r="J105" s="2"/>
+      <c r="K105" s="2"/>
+    </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.2"/>
     <row r="107" spans="1:11" x14ac:dyDescent="0.2"/>
     <row r="108" spans="1:11" x14ac:dyDescent="0.2"/>
@@ -13174,9 +13823,12 @@
     <row r="167" x14ac:dyDescent="0.2"/>
     <row r="168" x14ac:dyDescent="0.2"/>
     <row r="169" x14ac:dyDescent="0.2"/>
+    <row r="170" x14ac:dyDescent="0.2"/>
+    <row r="171" x14ac:dyDescent="0.2"/>
+    <row r="172" x14ac:dyDescent="0.2"/>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H102" xr:uid="{6040740E-CE9A-D448-8C18-9628B188DF67}">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H105" xr:uid="{6040740E-CE9A-D448-8C18-9628B188DF67}">
       <formula1>1</formula1>
       <formula2>1000</formula2>
     </dataValidation>
@@ -13191,19 +13843,19 @@
           <x14:formula1>
             <xm:f>Metadata!$E$38:$E$46</xm:f>
           </x14:formula1>
-          <xm:sqref>J2:J102</xm:sqref>
+          <xm:sqref>J2:J105</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{9C5920C0-FDE3-124A-BF1F-0D19704E4E52}">
           <x14:formula1>
             <xm:f>Metadata!$E$34:$E$37</xm:f>
           </x14:formula1>
-          <xm:sqref>I2:I102</xm:sqref>
+          <xm:sqref>I2:I105</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{3BCD9EFB-7F65-8942-80BF-C06CA60533BF}">
           <x14:formula1>
             <xm:f>Metadata!$E$27:$E$32</xm:f>
           </x14:formula1>
-          <xm:sqref>G2:G102</xm:sqref>
+          <xm:sqref>G2:G81 G86:G105</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -13216,8 +13868,8 @@
   <dimension ref="A1:J158"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H84" sqref="H84"/>
+      <pane ySplit="1" topLeftCell="A84" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H89" sqref="H89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="16" zeroHeight="1" x14ac:dyDescent="0.2"/>
@@ -16053,95 +16705,175 @@
         <v>-80.569999999999993</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:10" ht="85" x14ac:dyDescent="0.2">
       <c r="A84" s="38">
         <f>'Article Data'!A65</f>
-        <v>0</v>
-      </c>
-      <c r="B84" s="38">
+        <v>488</v>
+      </c>
+      <c r="B84" s="38" t="str">
         <f>'Article Data'!B65</f>
-        <v>0</v>
-      </c>
-      <c r="C84" s="33"/>
-      <c r="D84" s="33"/>
-      <c r="E84" s="33"/>
-      <c r="F84" s="33"/>
-      <c r="G84" s="33"/>
-      <c r="H84" s="33"/>
-      <c r="I84" s="33"/>
-      <c r="J84" s="33"/>
-    </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
+        <v>Influence of surrounding land cover on marsh-breeding birds: Implications for wetland restoration and conservation planning</v>
+      </c>
+      <c r="C84" s="33" t="s">
+        <v>424</v>
+      </c>
+      <c r="D84" s="33" t="s">
+        <v>424</v>
+      </c>
+      <c r="E84" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="F84" s="33" t="s">
+        <v>127</v>
+      </c>
+      <c r="G84" s="33" t="s">
+        <v>133</v>
+      </c>
+      <c r="H84" s="33" t="s">
+        <v>144</v>
+      </c>
+      <c r="I84" s="33">
+        <v>44.06</v>
+      </c>
+      <c r="J84" s="33">
+        <v>-80.25</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" ht="85" x14ac:dyDescent="0.2">
       <c r="A85" s="39">
         <f>'Article Data'!A66</f>
-        <v>0</v>
-      </c>
-      <c r="B85" s="39">
+        <v>53</v>
+      </c>
+      <c r="B85" s="39" t="str">
         <f>'Article Data'!B66</f>
-        <v>0</v>
-      </c>
-      <c r="C85" s="2"/>
-      <c r="D85" s="2"/>
-      <c r="E85" s="2"/>
-      <c r="F85" s="2"/>
-      <c r="G85" s="2"/>
-      <c r="H85" s="2"/>
-      <c r="I85" s="2"/>
-      <c r="J85" s="2"/>
-    </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
+        <v>Dynamic multistate site occupancy models to evaluate hypotheses relevant to conservation of Golden Eagles in Denali National Park, Alaska</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="F85" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="G85" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="H85" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="I85" s="2">
+        <v>63.6</v>
+      </c>
+      <c r="J85" s="2">
+        <v>-149.63999999999999</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" ht="102" x14ac:dyDescent="0.2">
       <c r="A86" s="38">
         <f>'Article Data'!A67</f>
-        <v>0</v>
-      </c>
-      <c r="B86" s="38">
+        <v>543</v>
+      </c>
+      <c r="B86" s="38" t="str">
         <f>'Article Data'!B67</f>
-        <v>0</v>
-      </c>
-      <c r="C86" s="33"/>
-      <c r="D86" s="33"/>
-      <c r="E86" s="33"/>
-      <c r="F86" s="33"/>
-      <c r="G86" s="33"/>
-      <c r="H86" s="33"/>
-      <c r="I86" s="33"/>
-      <c r="J86" s="33"/>
-    </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
+        <v>Detection probability of the Collared Flycatcher Ficedula albicollis during quick, multiple surveys: a case study in an isolated population in northern Poland</v>
+      </c>
+      <c r="C86" s="33" t="s">
+        <v>424</v>
+      </c>
+      <c r="D86" s="33" t="s">
+        <v>424</v>
+      </c>
+      <c r="E86" s="33" t="s">
+        <v>927</v>
+      </c>
+      <c r="F86" s="33" t="s">
+        <v>129</v>
+      </c>
+      <c r="G86" s="33" t="s">
+        <v>134</v>
+      </c>
+      <c r="H86" s="33" t="s">
+        <v>143</v>
+      </c>
+      <c r="I86" s="33">
+        <v>53.64</v>
+      </c>
+      <c r="J86" s="33">
+        <v>20.51</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" ht="68" x14ac:dyDescent="0.2">
       <c r="A87" s="39">
         <f>'Article Data'!A68</f>
-        <v>0</v>
-      </c>
-      <c r="B87" s="39">
+        <v>208</v>
+      </c>
+      <c r="B87" s="39" t="str">
         <f>'Article Data'!B68</f>
-        <v>0</v>
-      </c>
-      <c r="C87" s="2"/>
-      <c r="D87" s="2"/>
-      <c r="E87" s="2"/>
-      <c r="F87" s="2"/>
-      <c r="G87" s="2"/>
-      <c r="H87" s="2"/>
-      <c r="I87" s="2"/>
-      <c r="J87" s="2"/>
-    </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.2">
+        <v>Coupled range dynamics of brood parasites and their hosts responding to climate and vegetation changes</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>939</v>
+      </c>
+      <c r="F87" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="G87" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="H87" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="I87" s="2">
+        <v>-29.06</v>
+      </c>
+      <c r="J87" s="2">
+        <v>28.45</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" ht="85" x14ac:dyDescent="0.2">
       <c r="A88" s="38">
         <f>'Article Data'!A69</f>
-        <v>0</v>
-      </c>
-      <c r="B88" s="38">
+        <v>415</v>
+      </c>
+      <c r="B88" s="38" t="str">
         <f>'Article Data'!B69</f>
-        <v>0</v>
-      </c>
-      <c r="C88" s="33"/>
-      <c r="D88" s="33"/>
-      <c r="E88" s="33"/>
-      <c r="F88" s="33"/>
-      <c r="G88" s="33"/>
-      <c r="H88" s="33"/>
-      <c r="I88" s="33"/>
-      <c r="J88" s="33"/>
+        <v>Estimating species misclassification with occupancy dynamics and encounter rates: A semi-supervised, individual-level approach</v>
+      </c>
+      <c r="C88" s="33" t="s">
+        <v>424</v>
+      </c>
+      <c r="D88" s="33" t="s">
+        <v>424</v>
+      </c>
+      <c r="E88" s="33" t="s">
+        <v>432</v>
+      </c>
+      <c r="F88" s="33" t="s">
+        <v>127</v>
+      </c>
+      <c r="G88" s="33" t="s">
+        <v>133</v>
+      </c>
+      <c r="H88" s="33" t="s">
+        <v>140</v>
+      </c>
+      <c r="I88" s="33">
+        <v>40.03</v>
+      </c>
+      <c r="J88" s="33">
+        <v>-105.53</v>
+      </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A89" s="39">
@@ -16581,8 +17313,8 @@
   <dimension ref="A1:N204"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A91" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G95" sqref="G95"/>
+      <pane ySplit="1" topLeftCell="A94" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G101" sqref="G101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="16" zeroHeight="1" x14ac:dyDescent="0.2"/>
@@ -20966,115 +21698,235 @@
         <v>372</v>
       </c>
     </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:14" ht="85" x14ac:dyDescent="0.2">
       <c r="A96" s="38">
         <f>'Article Data'!A65</f>
-        <v>0</v>
-      </c>
-      <c r="B96" s="38">
+        <v>488</v>
+      </c>
+      <c r="B96" s="38" t="str">
         <f>'Article Data'!B65</f>
-        <v>0</v>
-      </c>
-      <c r="C96" s="38"/>
-      <c r="D96" s="38"/>
-      <c r="E96" s="38"/>
-      <c r="F96" s="38"/>
-      <c r="G96" s="38"/>
-      <c r="H96" s="38"/>
-      <c r="I96" s="38"/>
-      <c r="J96" s="38"/>
-      <c r="K96" s="38"/>
-      <c r="L96" s="38"/>
-      <c r="M96" s="38"/>
-      <c r="N96" s="38"/>
-    </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.2">
+        <v>Influence of surrounding land cover on marsh-breeding birds: Implications for wetland restoration and conservation planning</v>
+      </c>
+      <c r="C96" s="38" t="s">
+        <v>424</v>
+      </c>
+      <c r="D96" s="38" t="s">
+        <v>424</v>
+      </c>
+      <c r="E96" s="45">
+        <v>36647</v>
+      </c>
+      <c r="F96" s="45">
+        <v>42552</v>
+      </c>
+      <c r="G96" s="38">
+        <v>4</v>
+      </c>
+      <c r="H96" s="51" t="s">
+        <v>909</v>
+      </c>
+      <c r="I96" s="38" t="s">
+        <v>155</v>
+      </c>
+      <c r="J96" s="38" t="s">
+        <v>169</v>
+      </c>
+      <c r="K96" s="38" t="s">
+        <v>422</v>
+      </c>
+      <c r="L96" s="38">
+        <v>521</v>
+      </c>
+      <c r="M96" s="38" t="s">
+        <v>183</v>
+      </c>
+      <c r="N96" s="38" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="97" spans="1:14" ht="85" x14ac:dyDescent="0.2">
       <c r="A97" s="39">
         <f>'Article Data'!A66</f>
-        <v>0</v>
-      </c>
-      <c r="B97" s="39">
+        <v>53</v>
+      </c>
+      <c r="B97" s="39" t="str">
         <f>'Article Data'!B66</f>
-        <v>0</v>
-      </c>
-      <c r="C97" s="39"/>
-      <c r="D97" s="39"/>
-      <c r="E97" s="39"/>
-      <c r="F97" s="39"/>
-      <c r="G97" s="39"/>
-      <c r="H97" s="39"/>
-      <c r="I97" s="39"/>
-      <c r="J97" s="39"/>
-      <c r="K97" s="39"/>
-      <c r="L97" s="39"/>
-      <c r="M97" s="39"/>
-      <c r="N97" s="39"/>
-    </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.2">
+        <v>Dynamic multistate site occupancy models to evaluate hypotheses relevant to conservation of Golden Eagles in Denali National Park, Alaska</v>
+      </c>
+      <c r="C97" s="39" t="s">
+        <v>424</v>
+      </c>
+      <c r="D97" s="39" t="s">
+        <v>424</v>
+      </c>
+      <c r="E97" s="46">
+        <v>32234</v>
+      </c>
+      <c r="F97" s="46">
+        <v>39264</v>
+      </c>
+      <c r="G97" s="39">
+        <v>20</v>
+      </c>
+      <c r="H97" s="39">
+        <v>4</v>
+      </c>
+      <c r="I97" s="39" t="s">
+        <v>155</v>
+      </c>
+      <c r="J97" s="39" t="s">
+        <v>169</v>
+      </c>
+      <c r="K97" s="39" t="s">
+        <v>422</v>
+      </c>
+      <c r="L97" s="39" t="s">
+        <v>159</v>
+      </c>
+      <c r="M97" s="39" t="s">
+        <v>183</v>
+      </c>
+      <c r="N97" s="39" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14" ht="102" x14ac:dyDescent="0.2">
       <c r="A98" s="38">
         <f>'Article Data'!A67</f>
-        <v>0</v>
-      </c>
-      <c r="B98" s="38">
+        <v>543</v>
+      </c>
+      <c r="B98" s="38" t="str">
         <f>'Article Data'!B67</f>
-        <v>0</v>
-      </c>
-      <c r="C98" s="38"/>
-      <c r="D98" s="38"/>
-      <c r="E98" s="38"/>
-      <c r="F98" s="38"/>
-      <c r="G98" s="38"/>
-      <c r="H98" s="38"/>
-      <c r="I98" s="38"/>
-      <c r="J98" s="38"/>
-      <c r="K98" s="38"/>
-      <c r="L98" s="38"/>
-      <c r="M98" s="38"/>
-      <c r="N98" s="38"/>
-    </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.2">
+        <v>Detection probability of the Collared Flycatcher Ficedula albicollis during quick, multiple surveys: a case study in an isolated population in northern Poland</v>
+      </c>
+      <c r="C98" s="38" t="s">
+        <v>424</v>
+      </c>
+      <c r="D98" s="38" t="s">
+        <v>424</v>
+      </c>
+      <c r="E98" s="45">
+        <v>41000</v>
+      </c>
+      <c r="F98" s="45">
+        <v>41030</v>
+      </c>
+      <c r="G98" s="38">
+        <v>2</v>
+      </c>
+      <c r="H98" s="38">
+        <v>2</v>
+      </c>
+      <c r="I98" s="38" t="s">
+        <v>155</v>
+      </c>
+      <c r="J98" s="38" t="s">
+        <v>169</v>
+      </c>
+      <c r="K98" s="38" t="s">
+        <v>422</v>
+      </c>
+      <c r="L98" s="38">
+        <v>78</v>
+      </c>
+      <c r="M98" s="38" t="s">
+        <v>185</v>
+      </c>
+      <c r="N98" s="38" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="99" spans="1:14" ht="68" x14ac:dyDescent="0.2">
       <c r="A99" s="39">
         <f>'Article Data'!A68</f>
-        <v>0</v>
-      </c>
-      <c r="B99" s="39">
+        <v>208</v>
+      </c>
+      <c r="B99" s="39" t="str">
         <f>'Article Data'!B68</f>
-        <v>0</v>
-      </c>
-      <c r="C99" s="39"/>
-      <c r="D99" s="39"/>
-      <c r="E99" s="39"/>
-      <c r="F99" s="39"/>
-      <c r="G99" s="39"/>
-      <c r="H99" s="39"/>
-      <c r="I99" s="39"/>
-      <c r="J99" s="39"/>
-      <c r="K99" s="39"/>
-      <c r="L99" s="39"/>
-      <c r="M99" s="39"/>
-      <c r="N99" s="39"/>
-    </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.2">
+        <v>Coupled range dynamics of brood parasites and their hosts responding to climate and vegetation changes</v>
+      </c>
+      <c r="C99" s="39" t="s">
+        <v>424</v>
+      </c>
+      <c r="D99" s="39" t="s">
+        <v>424</v>
+      </c>
+      <c r="E99" s="46">
+        <v>31778</v>
+      </c>
+      <c r="F99" s="46">
+        <v>41548</v>
+      </c>
+      <c r="G99" s="39">
+        <v>2</v>
+      </c>
+      <c r="H99" s="39" t="s">
+        <v>372</v>
+      </c>
+      <c r="I99" s="39" t="s">
+        <v>155</v>
+      </c>
+      <c r="J99" s="39" t="s">
+        <v>169</v>
+      </c>
+      <c r="K99" s="39" t="s">
+        <v>423</v>
+      </c>
+      <c r="L99" s="39">
+        <v>2025</v>
+      </c>
+      <c r="M99" s="39" t="s">
+        <v>184</v>
+      </c>
+      <c r="N99" s="39" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="100" spans="1:14" ht="102" x14ac:dyDescent="0.2">
       <c r="A100" s="38">
         <f>'Article Data'!A69</f>
-        <v>0</v>
-      </c>
-      <c r="B100" s="38">
+        <v>415</v>
+      </c>
+      <c r="B100" s="38" t="str">
         <f>'Article Data'!B69</f>
-        <v>0</v>
-      </c>
-      <c r="C100" s="38"/>
-      <c r="D100" s="38"/>
-      <c r="E100" s="38"/>
-      <c r="F100" s="38"/>
-      <c r="G100" s="38"/>
-      <c r="H100" s="38"/>
-      <c r="I100" s="38"/>
-      <c r="J100" s="38"/>
-      <c r="K100" s="38"/>
-      <c r="L100" s="38"/>
-      <c r="M100" s="38"/>
-      <c r="N100" s="38"/>
+        <v>Estimating species misclassification with occupancy dynamics and encounter rates: A semi-supervised, individual-level approach</v>
+      </c>
+      <c r="C100" s="38" t="s">
+        <v>424</v>
+      </c>
+      <c r="D100" s="38" t="s">
+        <v>424</v>
+      </c>
+      <c r="E100" s="45">
+        <v>42005</v>
+      </c>
+      <c r="F100" s="45">
+        <v>43800</v>
+      </c>
+      <c r="G100" s="38">
+        <v>5</v>
+      </c>
+      <c r="H100" s="38">
+        <v>7</v>
+      </c>
+      <c r="I100" s="38" t="s">
+        <v>155</v>
+      </c>
+      <c r="J100" s="38" t="s">
+        <v>170</v>
+      </c>
+      <c r="K100" s="38" t="s">
+        <v>422</v>
+      </c>
+      <c r="L100" s="38">
+        <v>10</v>
+      </c>
+      <c r="M100" s="38" t="s">
+        <v>184</v>
+      </c>
+      <c r="N100" s="38" t="s">
+        <v>372</v>
+      </c>
     </row>
     <row r="101" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A101" s="39">
@@ -22085,7 +22937,7 @@
     <row r="204" x14ac:dyDescent="0.2"/>
   </sheetData>
   <dataValidations count="3">
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L79 L91:L143" xr:uid="{55496FE6-1B3F-AE44-B2C2-5708C72C95DC}">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L79 L91:L96 L98:L143" xr:uid="{55496FE6-1B3F-AE44-B2C2-5708C72C95DC}">
       <formula1>0</formula1>
       <formula2>10000</formula2>
     </dataValidation>
@@ -22131,8 +22983,8 @@
   <dimension ref="A1:H540"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A275" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H285" sqref="H285"/>
+      <pane ySplit="1" topLeftCell="A302" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H312" sqref="H312"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="16" zeroHeight="1" x14ac:dyDescent="0.2"/>
@@ -30123,421 +30975,733 @@
         <v>903</v>
       </c>
     </row>
-    <row r="286" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:8" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A286" s="38">
-        <f>'Article Data'!A279</f>
-        <v>0</v>
-      </c>
-      <c r="B286" s="38">
-        <f>'Article Data'!B279</f>
-        <v>0</v>
-      </c>
-      <c r="C286" s="38"/>
-      <c r="D286" s="38"/>
-      <c r="E286" s="38"/>
-      <c r="F286" s="38"/>
-      <c r="G286" s="38"/>
-      <c r="H286" s="38"/>
-    </row>
-    <row r="287" spans="1:8" x14ac:dyDescent="0.2">
+        <f>'Article Data'!A65</f>
+        <v>488</v>
+      </c>
+      <c r="B286" s="38" t="str">
+        <f>'Article Data'!B65</f>
+        <v>Influence of surrounding land cover on marsh-breeding birds: Implications for wetland restoration and conservation planning</v>
+      </c>
+      <c r="C286" s="38" t="s">
+        <v>424</v>
+      </c>
+      <c r="D286" s="38" t="s">
+        <v>424</v>
+      </c>
+      <c r="E286" s="38" t="s">
+        <v>424</v>
+      </c>
+      <c r="F286" s="38" t="s">
+        <v>843</v>
+      </c>
+      <c r="G286" s="38" t="s">
+        <v>204</v>
+      </c>
+      <c r="H286" s="38" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="287" spans="1:8" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A287" s="39">
-        <f>'Article Data'!A279</f>
-        <v>0</v>
-      </c>
-      <c r="B287" s="39">
-        <f>'Article Data'!B279</f>
-        <v>0</v>
-      </c>
-      <c r="C287" s="39"/>
-      <c r="D287" s="39"/>
-      <c r="E287" s="39"/>
-      <c r="F287" s="39"/>
-      <c r="G287" s="39"/>
-      <c r="H287" s="39"/>
-    </row>
-    <row r="288" spans="1:8" x14ac:dyDescent="0.2">
+        <f>'Article Data'!A65</f>
+        <v>488</v>
+      </c>
+      <c r="B287" s="39" t="str">
+        <f>'Article Data'!B65</f>
+        <v>Influence of surrounding land cover on marsh-breeding birds: Implications for wetland restoration and conservation planning</v>
+      </c>
+      <c r="C287" s="39" t="s">
+        <v>424</v>
+      </c>
+      <c r="D287" s="39" t="s">
+        <v>424</v>
+      </c>
+      <c r="E287" s="39" t="s">
+        <v>424</v>
+      </c>
+      <c r="F287" s="39" t="s">
+        <v>210</v>
+      </c>
+      <c r="G287" s="39" t="s">
+        <v>210</v>
+      </c>
+      <c r="H287" s="39" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="288" spans="1:8" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A288" s="38">
-        <f>'Article Data'!A279</f>
-        <v>0</v>
-      </c>
-      <c r="B288" s="38">
-        <f>'Article Data'!B279</f>
-        <v>0</v>
-      </c>
-      <c r="C288" s="38"/>
-      <c r="D288" s="38"/>
-      <c r="E288" s="38"/>
-      <c r="F288" s="38"/>
-      <c r="G288" s="38"/>
-      <c r="H288" s="38"/>
-    </row>
-    <row r="289" spans="1:8" x14ac:dyDescent="0.2">
+        <f>'Article Data'!A65</f>
+        <v>488</v>
+      </c>
+      <c r="B288" s="38" t="str">
+        <f>'Article Data'!B65</f>
+        <v>Influence of surrounding land cover on marsh-breeding birds: Implications for wetland restoration and conservation planning</v>
+      </c>
+      <c r="C288" s="38" t="s">
+        <v>424</v>
+      </c>
+      <c r="D288" s="38" t="s">
+        <v>424</v>
+      </c>
+      <c r="E288" s="38" t="s">
+        <v>424</v>
+      </c>
+      <c r="F288" s="38" t="s">
+        <v>427</v>
+      </c>
+      <c r="G288" s="38" t="s">
+        <v>212</v>
+      </c>
+      <c r="H288" s="38" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="289" spans="1:8" ht="68" x14ac:dyDescent="0.2">
       <c r="A289" s="39">
-        <f>'Article Data'!A280</f>
-        <v>0</v>
-      </c>
-      <c r="B289" s="39">
-        <f>'Article Data'!B280</f>
-        <v>0</v>
-      </c>
-      <c r="C289" s="39"/>
-      <c r="D289" s="39"/>
-      <c r="E289" s="39"/>
-      <c r="F289" s="39"/>
-      <c r="G289" s="39"/>
-      <c r="H289" s="39"/>
-    </row>
-    <row r="290" spans="1:8" x14ac:dyDescent="0.2">
+        <f>'Article Data'!A65</f>
+        <v>488</v>
+      </c>
+      <c r="B289" s="39" t="str">
+        <f>'Article Data'!B65</f>
+        <v>Influence of surrounding land cover on marsh-breeding birds: Implications for wetland restoration and conservation planning</v>
+      </c>
+      <c r="C289" s="39" t="s">
+        <v>424</v>
+      </c>
+      <c r="D289" s="39" t="s">
+        <v>424</v>
+      </c>
+      <c r="E289" s="39" t="s">
+        <v>424</v>
+      </c>
+      <c r="F289" s="39" t="s">
+        <v>213</v>
+      </c>
+      <c r="G289" s="39" t="s">
+        <v>213</v>
+      </c>
+      <c r="H289" s="39" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="290" spans="1:8" ht="85" x14ac:dyDescent="0.2">
       <c r="A290" s="38">
-        <f>'Article Data'!A280</f>
-        <v>0</v>
-      </c>
-      <c r="B290" s="38">
-        <f>'Article Data'!B280</f>
-        <v>0</v>
-      </c>
-      <c r="C290" s="38"/>
-      <c r="D290" s="38"/>
-      <c r="E290" s="38"/>
-      <c r="F290" s="38"/>
-      <c r="G290" s="38"/>
-      <c r="H290" s="38"/>
-    </row>
-    <row r="291" spans="1:8" x14ac:dyDescent="0.2">
+        <f>'Article Data'!A66</f>
+        <v>53</v>
+      </c>
+      <c r="B290" s="38" t="str">
+        <f>'Article Data'!B66</f>
+        <v>Dynamic multistate site occupancy models to evaluate hypotheses relevant to conservation of Golden Eagles in Denali National Park, Alaska</v>
+      </c>
+      <c r="C290" s="38" t="s">
+        <v>424</v>
+      </c>
+      <c r="D290" s="38" t="s">
+        <v>424</v>
+      </c>
+      <c r="E290" s="38" t="s">
+        <v>424</v>
+      </c>
+      <c r="F290" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="G290" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="H290" s="38" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="291" spans="1:8" ht="85" x14ac:dyDescent="0.2">
       <c r="A291" s="39">
-        <f>'Article Data'!A280</f>
-        <v>0</v>
-      </c>
-      <c r="B291" s="39">
-        <f>'Article Data'!B280</f>
-        <v>0</v>
-      </c>
-      <c r="C291" s="39"/>
-      <c r="D291" s="39"/>
-      <c r="E291" s="39"/>
-      <c r="F291" s="39"/>
-      <c r="G291" s="39"/>
-      <c r="H291" s="39"/>
-    </row>
-    <row r="292" spans="1:8" x14ac:dyDescent="0.2">
+        <f>'Article Data'!A66</f>
+        <v>53</v>
+      </c>
+      <c r="B291" s="39" t="str">
+        <f>'Article Data'!B66</f>
+        <v>Dynamic multistate site occupancy models to evaluate hypotheses relevant to conservation of Golden Eagles in Denali National Park, Alaska</v>
+      </c>
+      <c r="C291" s="39" t="s">
+        <v>424</v>
+      </c>
+      <c r="D291" s="39" t="s">
+        <v>424</v>
+      </c>
+      <c r="E291" s="39" t="s">
+        <v>424</v>
+      </c>
+      <c r="F291" s="39" t="s">
+        <v>427</v>
+      </c>
+      <c r="G291" s="39" t="s">
+        <v>212</v>
+      </c>
+      <c r="H291" s="39" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="292" spans="1:8" ht="85" x14ac:dyDescent="0.2">
       <c r="A292" s="38">
-        <f>'Article Data'!A280</f>
-        <v>0</v>
-      </c>
-      <c r="B292" s="38">
-        <f>'Article Data'!B280</f>
-        <v>0</v>
-      </c>
-      <c r="C292" s="38"/>
-      <c r="D292" s="38"/>
-      <c r="E292" s="38"/>
-      <c r="F292" s="38"/>
-      <c r="G292" s="38"/>
-      <c r="H292" s="38"/>
-    </row>
-    <row r="293" spans="1:8" x14ac:dyDescent="0.2">
+        <f>'Article Data'!A66</f>
+        <v>53</v>
+      </c>
+      <c r="B292" s="38" t="str">
+        <f>'Article Data'!B66</f>
+        <v>Dynamic multistate site occupancy models to evaluate hypotheses relevant to conservation of Golden Eagles in Denali National Park, Alaska</v>
+      </c>
+      <c r="C292" s="38" t="s">
+        <v>424</v>
+      </c>
+      <c r="D292" s="38" t="s">
+        <v>424</v>
+      </c>
+      <c r="E292" s="38" t="s">
+        <v>424</v>
+      </c>
+      <c r="F292" s="38" t="s">
+        <v>917</v>
+      </c>
+      <c r="G292" s="38" t="s">
+        <v>208</v>
+      </c>
+      <c r="H292" s="38" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="293" spans="1:8" ht="85" x14ac:dyDescent="0.2">
       <c r="A293" s="39">
-        <f>'Article Data'!A290</f>
-        <v>0</v>
-      </c>
-      <c r="B293" s="39">
-        <f>'Article Data'!B290</f>
-        <v>0</v>
-      </c>
-      <c r="C293" s="39"/>
-      <c r="D293" s="39"/>
-      <c r="E293" s="39"/>
-      <c r="F293" s="39"/>
-      <c r="G293" s="39"/>
-      <c r="H293" s="39"/>
-    </row>
-    <row r="294" spans="1:8" x14ac:dyDescent="0.2">
+        <f>'Article Data'!A66</f>
+        <v>53</v>
+      </c>
+      <c r="B293" s="39" t="str">
+        <f>'Article Data'!B66</f>
+        <v>Dynamic multistate site occupancy models to evaluate hypotheses relevant to conservation of Golden Eagles in Denali National Park, Alaska</v>
+      </c>
+      <c r="C293" s="39" t="s">
+        <v>424</v>
+      </c>
+      <c r="D293" s="39" t="s">
+        <v>424</v>
+      </c>
+      <c r="E293" s="39" t="s">
+        <v>424</v>
+      </c>
+      <c r="F293" s="39" t="s">
+        <v>918</v>
+      </c>
+      <c r="G293" s="39" t="s">
+        <v>208</v>
+      </c>
+      <c r="H293" s="39" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="294" spans="1:8" ht="85" x14ac:dyDescent="0.2">
       <c r="A294" s="38">
-        <f>'Article Data'!A290</f>
-        <v>0</v>
-      </c>
-      <c r="B294" s="38">
-        <f>'Article Data'!B290</f>
-        <v>0</v>
-      </c>
-      <c r="C294" s="38"/>
-      <c r="D294" s="38"/>
-      <c r="E294" s="38"/>
-      <c r="F294" s="38"/>
-      <c r="G294" s="38"/>
-      <c r="H294" s="38"/>
-    </row>
-    <row r="295" spans="1:8" x14ac:dyDescent="0.2">
+        <f>'Article Data'!A66</f>
+        <v>53</v>
+      </c>
+      <c r="B294" s="38" t="str">
+        <f>'Article Data'!B66</f>
+        <v>Dynamic multistate site occupancy models to evaluate hypotheses relevant to conservation of Golden Eagles in Denali National Park, Alaska</v>
+      </c>
+      <c r="C294" s="38" t="s">
+        <v>424</v>
+      </c>
+      <c r="D294" s="38" t="s">
+        <v>424</v>
+      </c>
+      <c r="E294" s="38" t="s">
+        <v>424</v>
+      </c>
+      <c r="F294" s="38" t="s">
+        <v>919</v>
+      </c>
+      <c r="G294" s="38" t="s">
+        <v>208</v>
+      </c>
+      <c r="H294" s="38" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="295" spans="1:8" ht="85" x14ac:dyDescent="0.2">
       <c r="A295" s="39">
-        <f>'Article Data'!A290</f>
-        <v>0</v>
-      </c>
-      <c r="B295" s="39">
-        <f>'Article Data'!B290</f>
-        <v>0</v>
-      </c>
-      <c r="C295" s="39"/>
-      <c r="D295" s="39"/>
-      <c r="E295" s="39"/>
-      <c r="F295" s="39"/>
-      <c r="G295" s="39"/>
-      <c r="H295" s="39"/>
-    </row>
-    <row r="296" spans="1:8" x14ac:dyDescent="0.2">
+        <f>'Article Data'!A66</f>
+        <v>53</v>
+      </c>
+      <c r="B295" s="39" t="str">
+        <f>'Article Data'!B66</f>
+        <v>Dynamic multistate site occupancy models to evaluate hypotheses relevant to conservation of Golden Eagles in Denali National Park, Alaska</v>
+      </c>
+      <c r="C295" s="39" t="s">
+        <v>424</v>
+      </c>
+      <c r="D295" s="39" t="s">
+        <v>424</v>
+      </c>
+      <c r="E295" s="39" t="s">
+        <v>424</v>
+      </c>
+      <c r="F295" s="39" t="s">
+        <v>920</v>
+      </c>
+      <c r="G295" s="39" t="s">
+        <v>208</v>
+      </c>
+      <c r="H295" s="39" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="296" spans="1:8" ht="85" x14ac:dyDescent="0.2">
       <c r="A296" s="38">
-        <f>'Article Data'!A290</f>
-        <v>0</v>
-      </c>
-      <c r="B296" s="38">
-        <f>'Article Data'!B290</f>
-        <v>0</v>
-      </c>
-      <c r="C296" s="38"/>
-      <c r="D296" s="38"/>
-      <c r="E296" s="38"/>
-      <c r="F296" s="38"/>
-      <c r="G296" s="38"/>
-      <c r="H296" s="38"/>
-    </row>
-    <row r="297" spans="1:8" x14ac:dyDescent="0.2">
+        <f>'Article Data'!A66</f>
+        <v>53</v>
+      </c>
+      <c r="B296" s="38" t="str">
+        <f>'Article Data'!B66</f>
+        <v>Dynamic multistate site occupancy models to evaluate hypotheses relevant to conservation of Golden Eagles in Denali National Park, Alaska</v>
+      </c>
+      <c r="C296" s="38" t="s">
+        <v>424</v>
+      </c>
+      <c r="D296" s="38" t="s">
+        <v>424</v>
+      </c>
+      <c r="E296" s="38" t="s">
+        <v>424</v>
+      </c>
+      <c r="F296" s="38" t="s">
+        <v>213</v>
+      </c>
+      <c r="G296" s="38" t="s">
+        <v>213</v>
+      </c>
+      <c r="H296" s="38" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="297" spans="1:8" ht="85" x14ac:dyDescent="0.2">
       <c r="A297" s="39">
-        <f>'Article Data'!A291</f>
-        <v>0</v>
-      </c>
-      <c r="B297" s="39">
-        <f>'Article Data'!B291</f>
-        <v>0</v>
-      </c>
-      <c r="C297" s="39"/>
-      <c r="D297" s="39"/>
-      <c r="E297" s="39"/>
-      <c r="F297" s="39"/>
-      <c r="G297" s="39"/>
-      <c r="H297" s="39"/>
-    </row>
-    <row r="298" spans="1:8" x14ac:dyDescent="0.2">
+        <f>'Article Data'!A66</f>
+        <v>53</v>
+      </c>
+      <c r="B297" s="39" t="str">
+        <f>'Article Data'!B66</f>
+        <v>Dynamic multistate site occupancy models to evaluate hypotheses relevant to conservation of Golden Eagles in Denali National Park, Alaska</v>
+      </c>
+      <c r="C297" s="39" t="s">
+        <v>424</v>
+      </c>
+      <c r="D297" s="39" t="s">
+        <v>424</v>
+      </c>
+      <c r="E297" s="39" t="s">
+        <v>424</v>
+      </c>
+      <c r="F297" s="39" t="s">
+        <v>921</v>
+      </c>
+      <c r="G297" s="39" t="s">
+        <v>215</v>
+      </c>
+      <c r="H297" s="39" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="298" spans="1:8" ht="85" x14ac:dyDescent="0.2">
       <c r="A298" s="38">
-        <f>'Article Data'!A291</f>
-        <v>0</v>
-      </c>
-      <c r="B298" s="38">
-        <f>'Article Data'!B291</f>
-        <v>0</v>
-      </c>
-      <c r="C298" s="38"/>
-      <c r="D298" s="38"/>
-      <c r="E298" s="38"/>
-      <c r="F298" s="38"/>
-      <c r="G298" s="38"/>
-      <c r="H298" s="38"/>
-    </row>
-    <row r="299" spans="1:8" x14ac:dyDescent="0.2">
+        <f>'Article Data'!A66</f>
+        <v>53</v>
+      </c>
+      <c r="B298" s="38" t="str">
+        <f>'Article Data'!B66</f>
+        <v>Dynamic multistate site occupancy models to evaluate hypotheses relevant to conservation of Golden Eagles in Denali National Park, Alaska</v>
+      </c>
+      <c r="C298" s="38" t="s">
+        <v>424</v>
+      </c>
+      <c r="D298" s="38" t="s">
+        <v>424</v>
+      </c>
+      <c r="E298" s="38" t="s">
+        <v>424</v>
+      </c>
+      <c r="F298" s="38" t="s">
+        <v>922</v>
+      </c>
+      <c r="G298" s="38" t="s">
+        <v>215</v>
+      </c>
+      <c r="H298" s="38" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="299" spans="1:8" ht="85" x14ac:dyDescent="0.2">
       <c r="A299" s="39">
-        <f>'Article Data'!A291</f>
-        <v>0</v>
-      </c>
-      <c r="B299" s="39">
-        <f>'Article Data'!B291</f>
-        <v>0</v>
-      </c>
-      <c r="C299" s="39"/>
-      <c r="D299" s="39"/>
-      <c r="E299" s="39"/>
-      <c r="F299" s="39"/>
-      <c r="G299" s="39"/>
-      <c r="H299" s="39"/>
-    </row>
-    <row r="300" spans="1:8" x14ac:dyDescent="0.2">
+        <f>'Article Data'!A67</f>
+        <v>543</v>
+      </c>
+      <c r="B299" s="39" t="str">
+        <f>'Article Data'!B67</f>
+        <v>Detection probability of the Collared Flycatcher Ficedula albicollis during quick, multiple surveys: a case study in an isolated population in northern Poland</v>
+      </c>
+      <c r="C299" s="39" t="s">
+        <v>424</v>
+      </c>
+      <c r="D299" s="39" t="s">
+        <v>424</v>
+      </c>
+      <c r="E299" s="39" t="s">
+        <v>424</v>
+      </c>
+      <c r="F299" s="39" t="s">
+        <v>426</v>
+      </c>
+      <c r="G299" s="39" t="s">
+        <v>204</v>
+      </c>
+      <c r="H299" s="39" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="300" spans="1:8" ht="85" x14ac:dyDescent="0.2">
       <c r="A300" s="38">
-        <f>'Article Data'!A291</f>
-        <v>0</v>
-      </c>
-      <c r="B300" s="38">
-        <f>'Article Data'!B291</f>
-        <v>0</v>
-      </c>
-      <c r="C300" s="38"/>
-      <c r="D300" s="38"/>
-      <c r="E300" s="38"/>
-      <c r="F300" s="38"/>
-      <c r="G300" s="38"/>
-      <c r="H300" s="38"/>
-    </row>
-    <row r="301" spans="1:8" x14ac:dyDescent="0.2">
+        <f>'Article Data'!A67</f>
+        <v>543</v>
+      </c>
+      <c r="B300" s="38" t="str">
+        <f>'Article Data'!B67</f>
+        <v>Detection probability of the Collared Flycatcher Ficedula albicollis during quick, multiple surveys: a case study in an isolated population in northern Poland</v>
+      </c>
+      <c r="C300" s="38" t="s">
+        <v>424</v>
+      </c>
+      <c r="D300" s="38" t="s">
+        <v>424</v>
+      </c>
+      <c r="E300" s="38" t="s">
+        <v>424</v>
+      </c>
+      <c r="F300" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="G300" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="H300" s="38" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="301" spans="1:8" ht="85" x14ac:dyDescent="0.2">
       <c r="A301" s="39">
-        <f>'Article Data'!A292</f>
-        <v>0</v>
-      </c>
-      <c r="B301" s="39">
-        <f>'Article Data'!B292</f>
-        <v>0</v>
-      </c>
-      <c r="C301" s="39"/>
-      <c r="D301" s="39"/>
-      <c r="E301" s="39"/>
-      <c r="F301" s="39"/>
-      <c r="G301" s="39"/>
-      <c r="H301" s="39"/>
-    </row>
-    <row r="302" spans="1:8" x14ac:dyDescent="0.2">
+        <f>'Article Data'!A67</f>
+        <v>543</v>
+      </c>
+      <c r="B301" s="39" t="str">
+        <f>'Article Data'!B67</f>
+        <v>Detection probability of the Collared Flycatcher Ficedula albicollis during quick, multiple surveys: a case study in an isolated population in northern Poland</v>
+      </c>
+      <c r="C301" s="39" t="s">
+        <v>424</v>
+      </c>
+      <c r="D301" s="39" t="s">
+        <v>424</v>
+      </c>
+      <c r="E301" s="39" t="s">
+        <v>424</v>
+      </c>
+      <c r="F301" s="39" t="s">
+        <v>427</v>
+      </c>
+      <c r="G301" s="39" t="s">
+        <v>212</v>
+      </c>
+      <c r="H301" s="39" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="302" spans="1:8" ht="85" x14ac:dyDescent="0.2">
       <c r="A302" s="38">
-        <f>'Article Data'!A292</f>
-        <v>0</v>
-      </c>
-      <c r="B302" s="38">
-        <f>'Article Data'!B292</f>
-        <v>0</v>
-      </c>
-      <c r="C302" s="38"/>
-      <c r="D302" s="38"/>
-      <c r="E302" s="38"/>
-      <c r="F302" s="38"/>
-      <c r="G302" s="38"/>
-      <c r="H302" s="38"/>
-    </row>
-    <row r="303" spans="1:8" x14ac:dyDescent="0.2">
+        <f>'Article Data'!A67</f>
+        <v>543</v>
+      </c>
+      <c r="B302" s="38" t="str">
+        <f>'Article Data'!B67</f>
+        <v>Detection probability of the Collared Flycatcher Ficedula albicollis during quick, multiple surveys: a case study in an isolated population in northern Poland</v>
+      </c>
+      <c r="C302" s="38" t="s">
+        <v>424</v>
+      </c>
+      <c r="D302" s="38" t="s">
+        <v>424</v>
+      </c>
+      <c r="E302" s="38" t="s">
+        <v>424</v>
+      </c>
+      <c r="F302" s="38" t="s">
+        <v>213</v>
+      </c>
+      <c r="G302" s="38" t="s">
+        <v>213</v>
+      </c>
+      <c r="H302" s="38" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="303" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A303" s="39">
-        <f>'Article Data'!A292</f>
-        <v>0</v>
-      </c>
-      <c r="B303" s="39">
-        <f>'Article Data'!B292</f>
-        <v>0</v>
-      </c>
-      <c r="C303" s="39"/>
-      <c r="D303" s="39"/>
-      <c r="E303" s="39"/>
-      <c r="F303" s="39"/>
-      <c r="G303" s="39"/>
-      <c r="H303" s="39"/>
-    </row>
-    <row r="304" spans="1:8" x14ac:dyDescent="0.2">
+        <f>'Article Data'!A68</f>
+        <v>208</v>
+      </c>
+      <c r="B303" s="39" t="str">
+        <f>'Article Data'!B68</f>
+        <v>Coupled range dynamics of brood parasites and their hosts responding to climate and vegetation changes</v>
+      </c>
+      <c r="C303" s="39" t="s">
+        <v>424</v>
+      </c>
+      <c r="D303" s="39" t="s">
+        <v>516</v>
+      </c>
+      <c r="E303" s="39" t="s">
+        <v>424</v>
+      </c>
+      <c r="F303" s="39" t="s">
+        <v>426</v>
+      </c>
+      <c r="G303" s="39" t="s">
+        <v>204</v>
+      </c>
+      <c r="H303" s="39" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="304" spans="1:8" ht="68" x14ac:dyDescent="0.2">
       <c r="A304" s="38">
-        <f>'Article Data'!A292</f>
-        <v>0</v>
-      </c>
-      <c r="B304" s="38">
-        <f>'Article Data'!B292</f>
-        <v>0</v>
-      </c>
-      <c r="C304" s="38"/>
-      <c r="D304" s="38"/>
-      <c r="E304" s="38"/>
-      <c r="F304" s="38"/>
-      <c r="G304" s="38"/>
-      <c r="H304" s="38"/>
-    </row>
-    <row r="305" spans="1:8" x14ac:dyDescent="0.2">
+        <f>'Article Data'!A68</f>
+        <v>208</v>
+      </c>
+      <c r="B304" s="38" t="str">
+        <f>'Article Data'!B68</f>
+        <v>Coupled range dynamics of brood parasites and their hosts responding to climate and vegetation changes</v>
+      </c>
+      <c r="C304" s="38" t="s">
+        <v>424</v>
+      </c>
+      <c r="D304" s="38" t="s">
+        <v>516</v>
+      </c>
+      <c r="E304" s="38" t="s">
+        <v>424</v>
+      </c>
+      <c r="F304" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="G304" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="H304" s="38" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="305" spans="1:8" ht="68" x14ac:dyDescent="0.2">
       <c r="A305" s="39">
-        <f>'Article Data'!A302</f>
-        <v>0</v>
-      </c>
-      <c r="B305" s="39">
-        <f>'Article Data'!B302</f>
-        <v>0</v>
-      </c>
-      <c r="C305" s="39"/>
-      <c r="D305" s="39"/>
-      <c r="E305" s="39"/>
-      <c r="F305" s="39"/>
-      <c r="G305" s="39"/>
-      <c r="H305" s="39"/>
-    </row>
-    <row r="306" spans="1:8" x14ac:dyDescent="0.2">
+        <f>'Article Data'!A68</f>
+        <v>208</v>
+      </c>
+      <c r="B305" s="39" t="str">
+        <f>'Article Data'!B68</f>
+        <v>Coupled range dynamics of brood parasites and their hosts responding to climate and vegetation changes</v>
+      </c>
+      <c r="C305" s="39" t="s">
+        <v>424</v>
+      </c>
+      <c r="D305" s="39" t="s">
+        <v>516</v>
+      </c>
+      <c r="E305" s="39" t="s">
+        <v>424</v>
+      </c>
+      <c r="F305" s="39" t="s">
+        <v>427</v>
+      </c>
+      <c r="G305" s="39" t="s">
+        <v>212</v>
+      </c>
+      <c r="H305" s="39" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="306" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A306" s="38">
-        <f>'Article Data'!A302</f>
-        <v>0</v>
-      </c>
-      <c r="B306" s="38">
-        <f>'Article Data'!B302</f>
-        <v>0</v>
-      </c>
-      <c r="C306" s="38"/>
-      <c r="D306" s="38"/>
-      <c r="E306" s="38"/>
-      <c r="F306" s="38"/>
-      <c r="G306" s="38"/>
-      <c r="H306" s="38"/>
-    </row>
-    <row r="307" spans="1:8" x14ac:dyDescent="0.2">
+        <f>'Article Data'!A68</f>
+        <v>208</v>
+      </c>
+      <c r="B306" s="38" t="str">
+        <f>'Article Data'!B68</f>
+        <v>Coupled range dynamics of brood parasites and their hosts responding to climate and vegetation changes</v>
+      </c>
+      <c r="C306" s="38" t="s">
+        <v>424</v>
+      </c>
+      <c r="D306" s="38" t="s">
+        <v>516</v>
+      </c>
+      <c r="E306" s="38" t="s">
+        <v>424</v>
+      </c>
+      <c r="F306" s="38" t="s">
+        <v>213</v>
+      </c>
+      <c r="G306" s="38" t="s">
+        <v>213</v>
+      </c>
+      <c r="H306" s="38" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="307" spans="1:8" ht="68" x14ac:dyDescent="0.2">
       <c r="A307" s="39">
-        <f>'Article Data'!A302</f>
-        <v>0</v>
-      </c>
-      <c r="B307" s="39">
-        <f>'Article Data'!B302</f>
-        <v>0</v>
-      </c>
-      <c r="C307" s="39"/>
-      <c r="D307" s="39"/>
-      <c r="E307" s="39"/>
-      <c r="F307" s="39"/>
-      <c r="G307" s="39"/>
-      <c r="H307" s="39"/>
-    </row>
-    <row r="308" spans="1:8" x14ac:dyDescent="0.2">
+        <f>'Article Data'!A69</f>
+        <v>415</v>
+      </c>
+      <c r="B307" s="39" t="str">
+        <f>'Article Data'!B69</f>
+        <v>Estimating species misclassification with occupancy dynamics and encounter rates: A semi-supervised, individual-level approach</v>
+      </c>
+      <c r="C307" s="39" t="s">
+        <v>424</v>
+      </c>
+      <c r="D307" s="39" t="s">
+        <v>424</v>
+      </c>
+      <c r="E307" s="39" t="s">
+        <v>424</v>
+      </c>
+      <c r="F307" s="39" t="s">
+        <v>426</v>
+      </c>
+      <c r="G307" s="39" t="s">
+        <v>204</v>
+      </c>
+      <c r="H307" s="39" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="308" spans="1:8" ht="68" x14ac:dyDescent="0.2">
       <c r="A308" s="38">
-        <f>'Article Data'!A302</f>
-        <v>0</v>
-      </c>
-      <c r="B308" s="38">
-        <f>'Article Data'!B302</f>
-        <v>0</v>
-      </c>
-      <c r="C308" s="38"/>
-      <c r="D308" s="38"/>
-      <c r="E308" s="38"/>
-      <c r="F308" s="38"/>
-      <c r="G308" s="38"/>
-      <c r="H308" s="38"/>
-    </row>
-    <row r="309" spans="1:8" x14ac:dyDescent="0.2">
+        <f>'Article Data'!A69</f>
+        <v>415</v>
+      </c>
+      <c r="B308" s="38" t="str">
+        <f>'Article Data'!B69</f>
+        <v>Estimating species misclassification with occupancy dynamics and encounter rates: A semi-supervised, individual-level approach</v>
+      </c>
+      <c r="C308" s="38" t="s">
+        <v>424</v>
+      </c>
+      <c r="D308" s="38" t="s">
+        <v>424</v>
+      </c>
+      <c r="E308" s="38" t="s">
+        <v>424</v>
+      </c>
+      <c r="F308" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="G308" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="H308" s="38" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="309" spans="1:8" ht="68" x14ac:dyDescent="0.2">
       <c r="A309" s="39">
-        <f>'Article Data'!A303</f>
-        <v>0</v>
-      </c>
-      <c r="B309" s="39">
-        <f>'Article Data'!B303</f>
-        <v>0</v>
-      </c>
-      <c r="C309" s="39"/>
-      <c r="D309" s="39"/>
-      <c r="E309" s="39"/>
-      <c r="F309" s="39"/>
-      <c r="G309" s="39"/>
-      <c r="H309" s="39"/>
-    </row>
-    <row r="310" spans="1:8" x14ac:dyDescent="0.2">
+        <f>'Article Data'!A69</f>
+        <v>415</v>
+      </c>
+      <c r="B309" s="39" t="str">
+        <f>'Article Data'!B69</f>
+        <v>Estimating species misclassification with occupancy dynamics and encounter rates: A semi-supervised, individual-level approach</v>
+      </c>
+      <c r="C309" s="39" t="s">
+        <v>424</v>
+      </c>
+      <c r="D309" s="39" t="s">
+        <v>424</v>
+      </c>
+      <c r="E309" s="39" t="s">
+        <v>424</v>
+      </c>
+      <c r="F309" s="39" t="s">
+        <v>427</v>
+      </c>
+      <c r="G309" s="39" t="s">
+        <v>212</v>
+      </c>
+      <c r="H309" s="39" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="310" spans="1:8" ht="68" x14ac:dyDescent="0.2">
       <c r="A310" s="38">
-        <f>'Article Data'!A303</f>
-        <v>0</v>
-      </c>
-      <c r="B310" s="38">
-        <f>'Article Data'!B303</f>
-        <v>0</v>
-      </c>
-      <c r="C310" s="38"/>
-      <c r="D310" s="38"/>
-      <c r="E310" s="38"/>
-      <c r="F310" s="38"/>
-      <c r="G310" s="38"/>
-      <c r="H310" s="38"/>
-    </row>
-    <row r="311" spans="1:8" x14ac:dyDescent="0.2">
+        <f>'Article Data'!A69</f>
+        <v>415</v>
+      </c>
+      <c r="B310" s="38" t="str">
+        <f>'Article Data'!B69</f>
+        <v>Estimating species misclassification with occupancy dynamics and encounter rates: A semi-supervised, individual-level approach</v>
+      </c>
+      <c r="C310" s="38" t="s">
+        <v>424</v>
+      </c>
+      <c r="D310" s="38" t="s">
+        <v>424</v>
+      </c>
+      <c r="E310" s="38" t="s">
+        <v>424</v>
+      </c>
+      <c r="F310" s="38" t="s">
+        <v>945</v>
+      </c>
+      <c r="G310" s="38" t="s">
+        <v>215</v>
+      </c>
+      <c r="H310" s="38" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="311" spans="1:8" ht="68" x14ac:dyDescent="0.2">
       <c r="A311" s="39">
-        <f>'Article Data'!A303</f>
-        <v>0</v>
-      </c>
-      <c r="B311" s="39">
-        <f>'Article Data'!B303</f>
-        <v>0</v>
-      </c>
-      <c r="C311" s="39"/>
-      <c r="D311" s="39"/>
-      <c r="E311" s="39"/>
-      <c r="F311" s="39"/>
-      <c r="G311" s="39"/>
-      <c r="H311" s="39"/>
+        <f>'Article Data'!A69</f>
+        <v>415</v>
+      </c>
+      <c r="B311" s="39" t="str">
+        <f>'Article Data'!B69</f>
+        <v>Estimating species misclassification with occupancy dynamics and encounter rates: A semi-supervised, individual-level approach</v>
+      </c>
+      <c r="C311" s="39" t="s">
+        <v>424</v>
+      </c>
+      <c r="D311" s="39" t="s">
+        <v>424</v>
+      </c>
+      <c r="E311" s="39" t="s">
+        <v>424</v>
+      </c>
+      <c r="F311" s="39" t="s">
+        <v>946</v>
+      </c>
+      <c r="G311" s="39" t="s">
+        <v>215</v>
+      </c>
+      <c r="H311" s="39" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="312" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A312" s="38">
@@ -31316,8 +32480,8 @@
   <dimension ref="A1:L171"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K69" sqref="K69"/>
+      <pane ySplit="1" topLeftCell="A64" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L74" sqref="L74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="16" zeroHeight="1" x14ac:dyDescent="0.2"/>
@@ -34054,105 +35218,205 @@
         <v>318</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:12" ht="68" x14ac:dyDescent="0.2">
       <c r="A69" s="39">
         <f>'Article Data'!A65</f>
-        <v>0</v>
-      </c>
-      <c r="B69" s="39">
+        <v>488</v>
+      </c>
+      <c r="B69" s="39" t="str">
         <f>'Article Data'!B65</f>
-        <v>0</v>
-      </c>
-      <c r="C69" s="39"/>
-      <c r="D69" s="39"/>
-      <c r="E69" s="39"/>
-      <c r="F69" s="39"/>
-      <c r="G69" s="39"/>
-      <c r="H69" s="39"/>
-      <c r="I69" s="39"/>
-      <c r="J69" s="39"/>
-      <c r="K69" s="39"/>
-      <c r="L69" s="39"/>
-    </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.2">
+        <v>Influence of surrounding land cover on marsh-breeding birds: Implications for wetland restoration and conservation planning</v>
+      </c>
+      <c r="C69" s="39" t="s">
+        <v>424</v>
+      </c>
+      <c r="D69" s="39" t="s">
+        <v>424</v>
+      </c>
+      <c r="E69" s="39" t="s">
+        <v>424</v>
+      </c>
+      <c r="F69" s="39" t="s">
+        <v>283</v>
+      </c>
+      <c r="G69" s="39" t="s">
+        <v>296</v>
+      </c>
+      <c r="H69" s="39" t="s">
+        <v>113</v>
+      </c>
+      <c r="I69" s="39" t="s">
+        <v>334</v>
+      </c>
+      <c r="J69" s="39" t="s">
+        <v>913</v>
+      </c>
+      <c r="K69" s="39" t="s">
+        <v>317</v>
+      </c>
+      <c r="L69" s="39" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" ht="85" x14ac:dyDescent="0.2">
       <c r="A70" s="38">
         <f>'Article Data'!A66</f>
-        <v>0</v>
-      </c>
-      <c r="B70" s="38">
+        <v>53</v>
+      </c>
+      <c r="B70" s="38" t="str">
         <f>'Article Data'!B66</f>
-        <v>0</v>
-      </c>
-      <c r="C70" s="38"/>
-      <c r="D70" s="38"/>
-      <c r="E70" s="38"/>
-      <c r="F70" s="38"/>
-      <c r="G70" s="38"/>
-      <c r="H70" s="38"/>
-      <c r="I70" s="38"/>
-      <c r="J70" s="38"/>
-      <c r="K70" s="38"/>
-      <c r="L70" s="38"/>
-    </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.2">
+        <v>Dynamic multistate site occupancy models to evaluate hypotheses relevant to conservation of Golden Eagles in Denali National Park, Alaska</v>
+      </c>
+      <c r="C70" s="38" t="s">
+        <v>424</v>
+      </c>
+      <c r="D70" s="38" t="s">
+        <v>424</v>
+      </c>
+      <c r="E70" s="38" t="s">
+        <v>424</v>
+      </c>
+      <c r="F70" s="38" t="s">
+        <v>293</v>
+      </c>
+      <c r="G70" s="38" t="s">
+        <v>296</v>
+      </c>
+      <c r="H70" s="38" t="s">
+        <v>113</v>
+      </c>
+      <c r="I70" s="38" t="s">
+        <v>340</v>
+      </c>
+      <c r="J70" s="38" t="s">
+        <v>924</v>
+      </c>
+      <c r="K70" s="38" t="s">
+        <v>320</v>
+      </c>
+      <c r="L70" s="38" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" ht="85" x14ac:dyDescent="0.2">
       <c r="A71" s="39">
         <f>'Article Data'!A67</f>
-        <v>0</v>
-      </c>
-      <c r="B71" s="39">
+        <v>543</v>
+      </c>
+      <c r="B71" s="39" t="str">
         <f>'Article Data'!B67</f>
-        <v>0</v>
-      </c>
-      <c r="C71" s="39"/>
-      <c r="D71" s="39"/>
-      <c r="E71" s="39"/>
-      <c r="F71" s="39"/>
-      <c r="G71" s="39"/>
-      <c r="H71" s="39"/>
-      <c r="I71" s="39"/>
-      <c r="J71" s="39"/>
-      <c r="K71" s="39"/>
-      <c r="L71" s="39"/>
-    </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.2">
+        <v>Detection probability of the Collared Flycatcher Ficedula albicollis during quick, multiple surveys: a case study in an isolated population in northern Poland</v>
+      </c>
+      <c r="C71" s="39" t="s">
+        <v>424</v>
+      </c>
+      <c r="D71" s="39" t="s">
+        <v>424</v>
+      </c>
+      <c r="E71" s="39" t="s">
+        <v>424</v>
+      </c>
+      <c r="F71" s="39" t="s">
+        <v>283</v>
+      </c>
+      <c r="G71" s="39" t="s">
+        <v>296</v>
+      </c>
+      <c r="H71" s="39" t="s">
+        <v>113</v>
+      </c>
+      <c r="I71" s="39" t="s">
+        <v>340</v>
+      </c>
+      <c r="J71" s="39" t="s">
+        <v>924</v>
+      </c>
+      <c r="K71" s="39" t="s">
+        <v>464</v>
+      </c>
+      <c r="L71" s="39" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" ht="51" x14ac:dyDescent="0.2">
       <c r="A72" s="38">
         <f>'Article Data'!A68</f>
-        <v>0</v>
-      </c>
-      <c r="B72" s="38">
+        <v>208</v>
+      </c>
+      <c r="B72" s="38" t="str">
         <f>'Article Data'!B68</f>
-        <v>0</v>
-      </c>
-      <c r="C72" s="38"/>
-      <c r="D72" s="38"/>
-      <c r="E72" s="38"/>
-      <c r="F72" s="38"/>
-      <c r="G72" s="38"/>
-      <c r="H72" s="38"/>
-      <c r="I72" s="38"/>
-      <c r="J72" s="38"/>
-      <c r="K72" s="38"/>
-      <c r="L72" s="38"/>
-    </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.2">
+        <v>Coupled range dynamics of brood parasites and their hosts responding to climate and vegetation changes</v>
+      </c>
+      <c r="C72" s="38" t="s">
+        <v>424</v>
+      </c>
+      <c r="D72" s="38" t="s">
+        <v>424</v>
+      </c>
+      <c r="E72" s="38" t="s">
+        <v>424</v>
+      </c>
+      <c r="F72" s="38" t="s">
+        <v>289</v>
+      </c>
+      <c r="G72" s="38" t="s">
+        <v>296</v>
+      </c>
+      <c r="H72" s="38" t="s">
+        <v>295</v>
+      </c>
+      <c r="I72" s="38" t="s">
+        <v>71</v>
+      </c>
+      <c r="J72" s="38" t="s">
+        <v>519</v>
+      </c>
+      <c r="K72" s="38" t="s">
+        <v>320</v>
+      </c>
+      <c r="L72" s="38" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" ht="85" x14ac:dyDescent="0.2">
       <c r="A73" s="39">
         <f>'Article Data'!A69</f>
-        <v>0</v>
-      </c>
-      <c r="B73" s="39">
+        <v>415</v>
+      </c>
+      <c r="B73" s="39" t="str">
         <f>'Article Data'!B69</f>
-        <v>0</v>
-      </c>
-      <c r="C73" s="39"/>
-      <c r="D73" s="39"/>
-      <c r="E73" s="39"/>
-      <c r="F73" s="39"/>
-      <c r="G73" s="39"/>
-      <c r="H73" s="39"/>
-      <c r="I73" s="39"/>
-      <c r="J73" s="39"/>
-      <c r="K73" s="39"/>
-      <c r="L73" s="39"/>
+        <v>Estimating species misclassification with occupancy dynamics and encounter rates: A semi-supervised, individual-level approach</v>
+      </c>
+      <c r="C73" s="39" t="s">
+        <v>424</v>
+      </c>
+      <c r="D73" s="39" t="s">
+        <v>424</v>
+      </c>
+      <c r="E73" s="39" t="s">
+        <v>424</v>
+      </c>
+      <c r="F73" s="39" t="s">
+        <v>287</v>
+      </c>
+      <c r="G73" s="39" t="s">
+        <v>297</v>
+      </c>
+      <c r="H73" s="39" t="s">
+        <v>113</v>
+      </c>
+      <c r="I73" s="39" t="s">
+        <v>338</v>
+      </c>
+      <c r="J73" s="39" t="s">
+        <v>301</v>
+      </c>
+      <c r="K73" s="39" t="s">
+        <v>96</v>
+      </c>
+      <c r="L73" s="39" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A74" s="38">
@@ -35290,7 +36554,7 @@
   <dimension ref="A1:G200"/>
   <sheetViews>
     <sheetView zoomScale="113" zoomScaleNormal="113" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B136" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B27" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="bottomRight" activeCell="E148" sqref="E148"/>

--- a/Spreadsheets/DOM_Spreadsheet.xlsx
+++ b/Spreadsheets/DOM_Spreadsheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/saoirsekelleher/Documents/Research/QAEco/DOM_Review/Spreadsheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3FBEA66-7C94-F341-8B05-1402AEB4BCB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88004669-556F-334B-9A3A-0C68615EECF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-9600" yWindow="-21600" windowWidth="38400" windowHeight="21600" activeTab="6" xr2:uid="{981D9C2C-D510-E947-BD55-27C976277DB6}"/>
   </bookViews>
@@ -236,7 +236,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5888" uniqueCount="948">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6162" uniqueCount="974">
   <si>
     <t>Review ID</t>
   </si>
@@ -4555,6 +4555,108 @@
   </si>
   <si>
     <t>S-SPEC_SPEC_I_L, S-OTHER_SI_I_L</t>
+  </si>
+  <si>
+    <t>Dynamics of an endangered New Zealand skink: accounting for incomplete detectability in estimating patch occupancy</t>
+  </si>
+  <si>
+    <t>Seddon, Philip J.; Roughton, Catherine M.; Reardon, James; MacKenzie, Darryl I.</t>
+  </si>
+  <si>
+    <t>E-HABT_SI_D_L, S-SEAS_SE_I_L</t>
+  </si>
+  <si>
+    <t>Monitoring in the presence of species misidentification: the case of the Eurasian lynx in the Alps</t>
+  </si>
+  <si>
+    <t>Molinari-Jobin, A.; Kery, M.; Marboutin, E.; Molinari, P.; Koren, I.; Fuxjaeger, C.; Breitenmoser-Wuersten, C.; Woelfl, S.; Fasel, M.; Kos, I.; Woelfl, M.; Breitenmoser, U.</t>
+  </si>
+  <si>
+    <t>NGO, Government, Academic</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Eurasian lynx </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Lynx lynx</t>
+    </r>
+  </si>
+  <si>
+    <t>France, Italy, Switzerland, Liechtenstein, Germany, Austria, Slovenia</t>
+  </si>
+  <si>
+    <t>Human, Camera</t>
+  </si>
+  <si>
+    <t>Using Fourier series to estimate periodic patterns in dynamic occupancy models</t>
+  </si>
+  <si>
+    <t>Fidino, Mason; Magle, Seth B.</t>
+  </si>
+  <si>
+    <t>5 species of medium/large mammals</t>
+  </si>
+  <si>
+    <t>S-SPEC_SPEC_I_L, S-SITE_SI_I_L</t>
+  </si>
+  <si>
+    <t>E-ANTH_SI_R_L</t>
+  </si>
+  <si>
+    <t>S-SEAS_SE_I_L, S-SITE_SI_I_L, E-ANTH_SI_R_L</t>
+  </si>
+  <si>
+    <t>E-ANTH_SI_R_L, E-PHEN_SISE_I_N</t>
+  </si>
+  <si>
+    <t>Estimation of metademographic rates and landscape connectivity for a conservation-reliant anuran</t>
+  </si>
+  <si>
+    <t>Landscape ecology</t>
+  </si>
+  <si>
+    <t>Duarte, Adam; Peterson, James T.; Pearl, Christopher A.; Rowe, Jennifer C.; McCreary, Brome; Galvan, Stephanie K.; Adams, Michael J.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Oregon spotted frog </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Rana pretiosa</t>
+    </r>
+  </si>
+  <si>
+    <t>Reproduction</t>
+  </si>
+  <si>
+    <t>E-SPAT_SI_I_L, E-TOPO_SI_D_L</t>
+  </si>
+  <si>
+    <t>E-SPAT_SI_I_N, E-TOPO_SI_D_N, E-HYDR_SI_D_N, E-GEOM_SI_D_N, E-HYDR_SISE_R_N, E-CONN_SI_R_L</t>
+  </si>
+  <si>
+    <t>E-SPAT_SI_I_L, E-TOPO_SI_D_L, E-HABA_SI_D_L, E-HABA_SI_D_L, E-HYDR_SI_D_L, E-HABA_SI_D_L, E-GEOM_SI_D_L, E-HYDR_SISE_D_L, E-OTHER_SISE_D_L, E-HYDR_SISE_R_L</t>
+  </si>
+  <si>
+    <t>E-HABA_SI_D_L, E-OTHER_SISE_D_L, E-CLWE_SU_D_L, E-PHEN_SU_I_L</t>
+  </si>
+  <si>
+    <t>E-SPAT_SI_I_L, E-TOPO_SI_D_L, E-HABA_SI_D_L, E-HABA_SI_D_L, E-HYDR_SI_D_L, E-HABA_SI_D_L, E-HABA_SI_D_L, E-HABA_SI_D_L, E-OTHER_SISE_D_L, E-HYDR_SISE_R_L</t>
   </si>
 </sst>
 </file>
@@ -5828,8 +5930,8 @@
   <dimension ref="A1:XFB128"/>
   <sheetViews>
     <sheetView zoomScale="103" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A60" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G70" sqref="G70"/>
+      <pane ySplit="1" topLeftCell="A67" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F74" sqref="F74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="16" zeroHeight="1" x14ac:dyDescent="0.2"/>
@@ -7432,41 +7534,97 @@
         <v>432</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A70" s="38"/>
-      <c r="B70" s="38"/>
-      <c r="C70" s="38"/>
-      <c r="D70" s="38"/>
-      <c r="E70" s="38"/>
-      <c r="F70" s="38"/>
-      <c r="G70" s="38"/>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A71" s="39"/>
-      <c r="B71" s="39"/>
-      <c r="C71" s="39"/>
-      <c r="D71" s="39"/>
-      <c r="E71" s="39"/>
-      <c r="F71" s="39"/>
-      <c r="G71" s="39"/>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A72" s="38"/>
-      <c r="B72" s="38"/>
-      <c r="C72" s="38"/>
-      <c r="D72" s="38"/>
-      <c r="E72" s="38"/>
-      <c r="F72" s="38"/>
-      <c r="G72" s="38"/>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A73" s="39"/>
-      <c r="B73" s="39"/>
-      <c r="C73" s="39"/>
-      <c r="D73" s="39"/>
-      <c r="E73" s="39"/>
-      <c r="F73" s="39"/>
-      <c r="G73" s="39"/>
+    <row r="70" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+      <c r="A70" s="38">
+        <v>373</v>
+      </c>
+      <c r="B70" s="38" t="s">
+        <v>948</v>
+      </c>
+      <c r="C70" s="38">
+        <v>2008</v>
+      </c>
+      <c r="D70" s="38" t="s">
+        <v>397</v>
+      </c>
+      <c r="E70" s="38" t="s">
+        <v>804</v>
+      </c>
+      <c r="F70" s="38" t="s">
+        <v>949</v>
+      </c>
+      <c r="G70" s="38" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+      <c r="A71" s="39">
+        <v>707</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>951</v>
+      </c>
+      <c r="C71" s="39">
+        <v>2012</v>
+      </c>
+      <c r="D71" s="39" t="s">
+        <v>398</v>
+      </c>
+      <c r="E71" s="39" t="s">
+        <v>665</v>
+      </c>
+      <c r="F71" s="39" t="s">
+        <v>952</v>
+      </c>
+      <c r="G71" s="39" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A72" s="38">
+        <v>360</v>
+      </c>
+      <c r="B72" s="38" t="s">
+        <v>957</v>
+      </c>
+      <c r="C72" s="38">
+        <v>2017</v>
+      </c>
+      <c r="D72" s="38" t="s">
+        <v>399</v>
+      </c>
+      <c r="E72" s="38" t="s">
+        <v>728</v>
+      </c>
+      <c r="F72" s="38" t="s">
+        <v>958</v>
+      </c>
+      <c r="G72" s="38" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+      <c r="A73" s="39">
+        <v>315</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>964</v>
+      </c>
+      <c r="C73" s="39">
+        <v>2020</v>
+      </c>
+      <c r="D73" s="39" t="s">
+        <v>400</v>
+      </c>
+      <c r="E73" s="39" t="s">
+        <v>965</v>
+      </c>
+      <c r="F73" s="39" t="s">
+        <v>966</v>
+      </c>
+      <c r="G73" s="39" t="s">
+        <v>432</v>
+      </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74" s="38"/>
@@ -7683,8 +7841,8 @@
   <dimension ref="A1:I130"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H70" sqref="H70"/>
+      <pane ySplit="1" topLeftCell="A70" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H74" sqref="H74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="16" zeroHeight="1" x14ac:dyDescent="0.2"/>
@@ -9841,70 +9999,126 @@
     <row r="70" spans="1:9" ht="68" x14ac:dyDescent="0.2">
       <c r="A70" s="38">
         <f>'Article Data'!A70</f>
-        <v>0</v>
-      </c>
-      <c r="B70" s="38">
+        <v>373</v>
+      </c>
+      <c r="B70" s="38" t="str">
         <f>'Article Data'!B70</f>
-        <v>0</v>
-      </c>
-      <c r="C70" s="38"/>
-      <c r="D70" s="38"/>
-      <c r="E70" s="38"/>
-      <c r="F70" s="38"/>
-      <c r="G70" s="38"/>
-      <c r="H70" s="38"/>
-      <c r="I70" s="38"/>
-    </row>
-    <row r="71" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+        <v>Dynamics of an endangered New Zealand skink: accounting for incomplete detectability in estimating patch occupancy</v>
+      </c>
+      <c r="C70" s="38" t="s">
+        <v>879</v>
+      </c>
+      <c r="D70" s="38" t="s">
+        <v>422</v>
+      </c>
+      <c r="E70" s="38" t="s">
+        <v>423</v>
+      </c>
+      <c r="F70" s="38" t="s">
+        <v>422</v>
+      </c>
+      <c r="G70" s="38" t="s">
+        <v>422</v>
+      </c>
+      <c r="H70" s="38" t="s">
+        <v>422</v>
+      </c>
+      <c r="I70" s="38" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" ht="68" x14ac:dyDescent="0.2">
       <c r="A71" s="41">
         <f>'Article Data'!A71</f>
-        <v>0</v>
-      </c>
-      <c r="B71" s="41">
+        <v>707</v>
+      </c>
+      <c r="B71" s="41" t="str">
         <f>'Article Data'!B71</f>
-        <v>0</v>
-      </c>
-      <c r="C71" s="39"/>
-      <c r="D71" s="39"/>
-      <c r="E71" s="39"/>
-      <c r="F71" s="39"/>
-      <c r="G71" s="39"/>
-      <c r="H71" s="39"/>
-      <c r="I71" s="39"/>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
+        <v>Monitoring in the presence of species misidentification: the case of the Eurasian lynx in the Alps</v>
+      </c>
+      <c r="C71" s="39" t="s">
+        <v>953</v>
+      </c>
+      <c r="D71" s="39" t="s">
+        <v>422</v>
+      </c>
+      <c r="E71" s="39" t="s">
+        <v>423</v>
+      </c>
+      <c r="F71" s="39" t="s">
+        <v>422</v>
+      </c>
+      <c r="G71" s="39" t="s">
+        <v>422</v>
+      </c>
+      <c r="H71" s="39" t="s">
+        <v>422</v>
+      </c>
+      <c r="I71" s="39" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A72" s="38">
         <f>'Article Data'!A72</f>
-        <v>0</v>
-      </c>
-      <c r="B72" s="38">
+        <v>360</v>
+      </c>
+      <c r="B72" s="38" t="str">
         <f>'Article Data'!B72</f>
-        <v>0</v>
-      </c>
-      <c r="C72" s="38"/>
-      <c r="D72" s="38"/>
-      <c r="E72" s="38"/>
-      <c r="F72" s="38"/>
-      <c r="G72" s="38"/>
-      <c r="H72" s="38"/>
-      <c r="I72" s="38"/>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
+        <v>Using Fourier series to estimate periodic patterns in dynamic occupancy models</v>
+      </c>
+      <c r="C72" s="38" t="s">
+        <v>358</v>
+      </c>
+      <c r="D72" s="38" t="s">
+        <v>423</v>
+      </c>
+      <c r="E72" s="38" t="s">
+        <v>422</v>
+      </c>
+      <c r="F72" s="38" t="s">
+        <v>422</v>
+      </c>
+      <c r="G72" s="38" t="s">
+        <v>422</v>
+      </c>
+      <c r="H72" s="38" t="s">
+        <v>422</v>
+      </c>
+      <c r="I72" s="38" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" ht="68" x14ac:dyDescent="0.2">
       <c r="A73" s="41">
         <f>'Article Data'!A73</f>
-        <v>0</v>
-      </c>
-      <c r="B73" s="41">
+        <v>315</v>
+      </c>
+      <c r="B73" s="41" t="str">
         <f>'Article Data'!B73</f>
-        <v>0</v>
-      </c>
-      <c r="C73" s="39"/>
-      <c r="D73" s="39"/>
-      <c r="E73" s="39"/>
-      <c r="F73" s="39"/>
-      <c r="G73" s="39"/>
-      <c r="H73" s="39"/>
-      <c r="I73" s="39"/>
+        <v>Estimation of metademographic rates and landscape connectivity for a conservation-reliant anuran</v>
+      </c>
+      <c r="C73" s="39" t="s">
+        <v>433</v>
+      </c>
+      <c r="D73" s="39" t="s">
+        <v>422</v>
+      </c>
+      <c r="E73" s="39" t="s">
+        <v>423</v>
+      </c>
+      <c r="F73" s="39" t="s">
+        <v>423</v>
+      </c>
+      <c r="G73" s="39" t="s">
+        <v>423</v>
+      </c>
+      <c r="H73" s="39" t="s">
+        <v>422</v>
+      </c>
+      <c r="I73" s="39" t="s">
+        <v>422</v>
+      </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A74" s="38">
@@ -10203,8 +10417,8 @@
   <dimension ref="A1:K172"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A76" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J87" sqref="J87"/>
+      <pane ySplit="1" topLeftCell="A84" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J91" sqref="J91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="16" zeroHeight="1" x14ac:dyDescent="0.2"/>
@@ -13398,81 +13612,153 @@
         <v>96</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A87" s="39">
         <f>'Article Data'!A70</f>
-        <v>0</v>
-      </c>
-      <c r="B87" s="39">
+        <v>373</v>
+      </c>
+      <c r="B87" s="39" t="str">
         <f>'Article Data'!B70</f>
-        <v>0</v>
-      </c>
-      <c r="C87" s="2"/>
-      <c r="D87" s="2"/>
-      <c r="E87" s="2"/>
-      <c r="F87" s="2"/>
-      <c r="G87" s="2"/>
-      <c r="H87" s="2"/>
-      <c r="I87" s="2"/>
-      <c r="J87" s="2"/>
-      <c r="K87" s="2"/>
-    </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.2">
+        <v>Dynamics of an endangered New Zealand skink: accounting for incomplete detectability in estimating patch occupancy</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="F87" s="2" t="s">
+        <v>582</v>
+      </c>
+      <c r="G87" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="H87" s="2">
+        <v>1</v>
+      </c>
+      <c r="I87" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="J87" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="K87" s="2" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A88" s="38">
         <f>'Article Data'!A71</f>
-        <v>0</v>
-      </c>
-      <c r="B88" s="38">
+        <v>707</v>
+      </c>
+      <c r="B88" s="38" t="str">
         <f>'Article Data'!B71</f>
-        <v>0</v>
-      </c>
-      <c r="C88" s="33"/>
-      <c r="D88" s="33"/>
-      <c r="E88" s="33"/>
-      <c r="F88" s="33"/>
-      <c r="G88" s="33"/>
-      <c r="H88" s="33"/>
-      <c r="I88" s="33"/>
-      <c r="J88" s="33"/>
-      <c r="K88" s="33"/>
-    </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.2">
+        <v>Monitoring in the presence of species misidentification: the case of the Eurasian lynx in the Alps</v>
+      </c>
+      <c r="C88" s="33" t="s">
+        <v>424</v>
+      </c>
+      <c r="D88" s="33" t="s">
+        <v>424</v>
+      </c>
+      <c r="E88" s="33" t="s">
+        <v>424</v>
+      </c>
+      <c r="F88" s="33" t="s">
+        <v>954</v>
+      </c>
+      <c r="G88" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="H88" s="33">
+        <v>1</v>
+      </c>
+      <c r="I88" s="33" t="s">
+        <v>81</v>
+      </c>
+      <c r="J88" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="K88" s="33" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A89" s="39">
         <f>'Article Data'!A72</f>
-        <v>0</v>
-      </c>
-      <c r="B89" s="39">
+        <v>360</v>
+      </c>
+      <c r="B89" s="39" t="str">
         <f>'Article Data'!B72</f>
-        <v>0</v>
-      </c>
-      <c r="C89" s="2"/>
-      <c r="D89" s="2"/>
-      <c r="E89" s="2"/>
-      <c r="F89" s="2"/>
-      <c r="G89" s="2"/>
-      <c r="H89" s="2"/>
-      <c r="I89" s="2"/>
-      <c r="J89" s="2"/>
-      <c r="K89" s="2"/>
-    </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.2">
+        <v>Using Fourier series to estimate periodic patterns in dynamic occupancy models</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="E89" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="F89" s="2" t="s">
+        <v>959</v>
+      </c>
+      <c r="G89" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="H89" s="2">
+        <v>5</v>
+      </c>
+      <c r="I89" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="J89" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="K89" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A90" s="38">
         <f>'Article Data'!A73</f>
-        <v>0</v>
-      </c>
-      <c r="B90" s="38">
+        <v>315</v>
+      </c>
+      <c r="B90" s="38" t="str">
         <f>'Article Data'!B73</f>
-        <v>0</v>
-      </c>
-      <c r="C90" s="33"/>
-      <c r="D90" s="33"/>
-      <c r="E90" s="33"/>
-      <c r="F90" s="33"/>
-      <c r="G90" s="33"/>
-      <c r="H90" s="33"/>
-      <c r="I90" s="33"/>
-      <c r="J90" s="33"/>
-      <c r="K90" s="33"/>
+        <v>Estimation of metademographic rates and landscape connectivity for a conservation-reliant anuran</v>
+      </c>
+      <c r="C90" s="33" t="s">
+        <v>424</v>
+      </c>
+      <c r="D90" s="33" t="s">
+        <v>424</v>
+      </c>
+      <c r="E90" s="33" t="s">
+        <v>424</v>
+      </c>
+      <c r="F90" s="33" t="s">
+        <v>967</v>
+      </c>
+      <c r="G90" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="H90" s="33">
+        <v>1</v>
+      </c>
+      <c r="I90" s="33" t="s">
+        <v>81</v>
+      </c>
+      <c r="J90" s="33" t="s">
+        <v>391</v>
+      </c>
+      <c r="K90" s="33" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A91" s="39">
@@ -13868,8 +14154,8 @@
   <dimension ref="A1:J158"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A84" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H89" sqref="H89"/>
+      <pane ySplit="1" topLeftCell="A88" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H93" sqref="H93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="16" zeroHeight="1" x14ac:dyDescent="0.2"/>
@@ -16875,77 +17161,141 @@
         <v>-105.53</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:10" ht="68" x14ac:dyDescent="0.2">
       <c r="A89" s="39">
         <f>'Article Data'!A70</f>
-        <v>0</v>
-      </c>
-      <c r="B89" s="39">
+        <v>373</v>
+      </c>
+      <c r="B89" s="39" t="str">
         <f>'Article Data'!B70</f>
-        <v>0</v>
-      </c>
-      <c r="C89" s="2"/>
-      <c r="D89" s="2"/>
-      <c r="E89" s="2"/>
-      <c r="F89" s="2"/>
-      <c r="G89" s="2"/>
-      <c r="H89" s="2"/>
-      <c r="I89" s="2"/>
-      <c r="J89" s="2"/>
-    </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.2">
+        <v>Dynamics of an endangered New Zealand skink: accounting for incomplete detectability in estimating patch occupancy</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="E89" s="2" t="s">
+        <v>580</v>
+      </c>
+      <c r="F89" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="G89" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="H89" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="I89" s="2">
+        <v>-45.45</v>
+      </c>
+      <c r="J89" s="2">
+        <v>170.43</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" ht="153" x14ac:dyDescent="0.2">
       <c r="A90" s="38">
         <f>'Article Data'!A71</f>
-        <v>0</v>
-      </c>
-      <c r="B90" s="38">
+        <v>707</v>
+      </c>
+      <c r="B90" s="38" t="str">
         <f>'Article Data'!B71</f>
-        <v>0</v>
-      </c>
-      <c r="C90" s="33"/>
-      <c r="D90" s="33"/>
-      <c r="E90" s="33"/>
-      <c r="F90" s="33"/>
-      <c r="G90" s="33"/>
-      <c r="H90" s="33"/>
-      <c r="I90" s="33"/>
-      <c r="J90" s="33"/>
-    </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.2">
+        <v>Monitoring in the presence of species misidentification: the case of the Eurasian lynx in the Alps</v>
+      </c>
+      <c r="C90" s="33" t="s">
+        <v>424</v>
+      </c>
+      <c r="D90" s="33" t="s">
+        <v>424</v>
+      </c>
+      <c r="E90" s="33" t="s">
+        <v>955</v>
+      </c>
+      <c r="F90" s="33" t="s">
+        <v>129</v>
+      </c>
+      <c r="G90" s="33" t="s">
+        <v>134</v>
+      </c>
+      <c r="H90" s="33" t="s">
+        <v>144</v>
+      </c>
+      <c r="I90" s="33">
+        <v>46.8</v>
+      </c>
+      <c r="J90" s="33">
+        <v>11.25</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A91" s="39">
         <f>'Article Data'!A72</f>
-        <v>0</v>
-      </c>
-      <c r="B91" s="39">
+        <v>360</v>
+      </c>
+      <c r="B91" s="39" t="str">
         <f>'Article Data'!B72</f>
-        <v>0</v>
-      </c>
-      <c r="C91" s="2"/>
-      <c r="D91" s="2"/>
-      <c r="E91" s="2"/>
-      <c r="F91" s="2"/>
-      <c r="G91" s="2"/>
-      <c r="H91" s="2"/>
-      <c r="I91" s="2"/>
-      <c r="J91" s="2"/>
-    </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.2">
+        <v>Using Fourier series to estimate periodic patterns in dynamic occupancy models</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="E91" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="F91" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="G91" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="H91" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="I91" s="2">
+        <v>41.88</v>
+      </c>
+      <c r="J91" s="2">
+        <v>-87.67</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A92" s="38">
         <f>'Article Data'!A73</f>
-        <v>0</v>
-      </c>
-      <c r="B92" s="38">
+        <v>315</v>
+      </c>
+      <c r="B92" s="38" t="str">
         <f>'Article Data'!B73</f>
-        <v>0</v>
-      </c>
-      <c r="C92" s="33"/>
-      <c r="D92" s="33"/>
-      <c r="E92" s="33"/>
-      <c r="F92" s="33"/>
-      <c r="G92" s="33"/>
-      <c r="H92" s="33"/>
-      <c r="I92" s="33"/>
-      <c r="J92" s="33"/>
+        <v>Estimation of metademographic rates and landscape connectivity for a conservation-reliant anuran</v>
+      </c>
+      <c r="C92" s="33" t="s">
+        <v>424</v>
+      </c>
+      <c r="D92" s="33" t="s">
+        <v>424</v>
+      </c>
+      <c r="E92" s="33" t="s">
+        <v>432</v>
+      </c>
+      <c r="F92" s="33" t="s">
+        <v>127</v>
+      </c>
+      <c r="G92" s="33" t="s">
+        <v>133</v>
+      </c>
+      <c r="H92" s="33" t="s">
+        <v>142</v>
+      </c>
+      <c r="I92" s="33">
+        <v>43.58</v>
+      </c>
+      <c r="J92" s="33">
+        <v>-121.46</v>
+      </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A93" s="39">
@@ -17313,8 +17663,8 @@
   <dimension ref="A1:N204"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A94" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G101" sqref="G101"/>
+      <pane ySplit="1" topLeftCell="A97" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M105" sqref="M105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="16" zeroHeight="1" x14ac:dyDescent="0.2"/>
@@ -21928,93 +22278,189 @@
         <v>372</v>
       </c>
     </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:14" ht="68" x14ac:dyDescent="0.2">
       <c r="A101" s="39">
         <f>'Article Data'!A70</f>
-        <v>0</v>
-      </c>
-      <c r="B101" s="39">
+        <v>373</v>
+      </c>
+      <c r="B101" s="39" t="str">
         <f>'Article Data'!B70</f>
-        <v>0</v>
-      </c>
-      <c r="C101" s="39"/>
-      <c r="D101" s="39"/>
-      <c r="E101" s="39"/>
-      <c r="F101" s="39"/>
-      <c r="G101" s="39"/>
-      <c r="H101" s="39"/>
-      <c r="I101" s="39"/>
-      <c r="J101" s="39"/>
-      <c r="K101" s="39"/>
-      <c r="L101" s="39"/>
-      <c r="M101" s="39"/>
-      <c r="N101" s="39"/>
-    </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.2">
+        <v>Dynamics of an endangered New Zealand skink: accounting for incomplete detectability in estimating patch occupancy</v>
+      </c>
+      <c r="C101" s="39" t="s">
+        <v>424</v>
+      </c>
+      <c r="D101" s="39" t="s">
+        <v>424</v>
+      </c>
+      <c r="E101" s="46">
+        <v>35796</v>
+      </c>
+      <c r="F101" s="46">
+        <v>37257</v>
+      </c>
+      <c r="G101" s="39">
+        <v>5</v>
+      </c>
+      <c r="H101" s="39">
+        <v>3</v>
+      </c>
+      <c r="I101" s="39" t="s">
+        <v>155</v>
+      </c>
+      <c r="J101" s="39" t="s">
+        <v>169</v>
+      </c>
+      <c r="K101" s="39" t="s">
+        <v>422</v>
+      </c>
+      <c r="L101" s="39">
+        <v>299</v>
+      </c>
+      <c r="M101" s="39" t="s">
+        <v>185</v>
+      </c>
+      <c r="N101" s="39" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="102" spans="1:14" ht="68" x14ac:dyDescent="0.2">
       <c r="A102" s="38">
         <f>'Article Data'!A71</f>
-        <v>0</v>
-      </c>
-      <c r="B102" s="38">
+        <v>707</v>
+      </c>
+      <c r="B102" s="38" t="str">
         <f>'Article Data'!B71</f>
-        <v>0</v>
-      </c>
-      <c r="C102" s="38"/>
-      <c r="D102" s="38"/>
-      <c r="E102" s="38"/>
-      <c r="F102" s="38"/>
-      <c r="G102" s="38"/>
-      <c r="H102" s="38"/>
-      <c r="I102" s="38"/>
-      <c r="J102" s="38"/>
-      <c r="K102" s="38"/>
-      <c r="L102" s="38"/>
-      <c r="M102" s="38"/>
-      <c r="N102" s="38"/>
-    </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.2">
+        <v>Monitoring in the presence of species misidentification: the case of the Eurasian lynx in the Alps</v>
+      </c>
+      <c r="C102" s="38" t="s">
+        <v>424</v>
+      </c>
+      <c r="D102" s="38" t="s">
+        <v>424</v>
+      </c>
+      <c r="E102" s="45">
+        <v>34700</v>
+      </c>
+      <c r="F102" s="45">
+        <v>39783</v>
+      </c>
+      <c r="G102" s="38">
+        <v>2</v>
+      </c>
+      <c r="H102" s="38">
+        <v>3</v>
+      </c>
+      <c r="I102" s="38" t="s">
+        <v>369</v>
+      </c>
+      <c r="J102" s="38" t="s">
+        <v>956</v>
+      </c>
+      <c r="K102" s="38" t="s">
+        <v>422</v>
+      </c>
+      <c r="L102" s="38">
+        <v>2176</v>
+      </c>
+      <c r="M102" s="38" t="s">
+        <v>184</v>
+      </c>
+      <c r="N102" s="38" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="103" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A103" s="39">
         <f>'Article Data'!A72</f>
-        <v>0</v>
-      </c>
-      <c r="B103" s="39">
+        <v>360</v>
+      </c>
+      <c r="B103" s="39" t="str">
         <f>'Article Data'!B72</f>
-        <v>0</v>
-      </c>
-      <c r="C103" s="39"/>
-      <c r="D103" s="39"/>
-      <c r="E103" s="39"/>
-      <c r="F103" s="39"/>
-      <c r="G103" s="39"/>
-      <c r="H103" s="39"/>
-      <c r="I103" s="39"/>
-      <c r="J103" s="39"/>
-      <c r="K103" s="39"/>
-      <c r="L103" s="39"/>
-      <c r="M103" s="39"/>
-      <c r="N103" s="39"/>
-    </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.2">
+        <v>Using Fourier series to estimate periodic patterns in dynamic occupancy models</v>
+      </c>
+      <c r="C103" s="39" t="s">
+        <v>424</v>
+      </c>
+      <c r="D103" s="39" t="s">
+        <v>424</v>
+      </c>
+      <c r="E103" s="46">
+        <v>40603</v>
+      </c>
+      <c r="F103" s="46">
+        <v>41548</v>
+      </c>
+      <c r="G103" s="39">
+        <v>11</v>
+      </c>
+      <c r="H103" s="39">
+        <v>28</v>
+      </c>
+      <c r="I103" s="39" t="s">
+        <v>369</v>
+      </c>
+      <c r="J103" s="39" t="s">
+        <v>172</v>
+      </c>
+      <c r="K103" s="39" t="s">
+        <v>422</v>
+      </c>
+      <c r="L103" s="39">
+        <v>95</v>
+      </c>
+      <c r="M103" s="39" t="s">
+        <v>183</v>
+      </c>
+      <c r="N103" s="39" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="104" spans="1:14" ht="68" x14ac:dyDescent="0.2">
       <c r="A104" s="38">
         <f>'Article Data'!A73</f>
-        <v>0</v>
-      </c>
-      <c r="B104" s="38">
+        <v>315</v>
+      </c>
+      <c r="B104" s="38" t="str">
         <f>'Article Data'!B73</f>
-        <v>0</v>
-      </c>
-      <c r="C104" s="38"/>
-      <c r="D104" s="38"/>
-      <c r="E104" s="38"/>
-      <c r="F104" s="38"/>
-      <c r="G104" s="38"/>
-      <c r="H104" s="38"/>
-      <c r="I104" s="38"/>
-      <c r="J104" s="38"/>
-      <c r="K104" s="38"/>
-      <c r="L104" s="38"/>
-      <c r="M104" s="38"/>
-      <c r="N104" s="38"/>
+        <v>Estimation of metademographic rates and landscape connectivity for a conservation-reliant anuran</v>
+      </c>
+      <c r="C104" s="38" t="s">
+        <v>424</v>
+      </c>
+      <c r="D104" s="38" t="s">
+        <v>424</v>
+      </c>
+      <c r="E104" s="45">
+        <v>40330</v>
+      </c>
+      <c r="F104" s="45">
+        <v>43313</v>
+      </c>
+      <c r="G104" s="38">
+        <v>9</v>
+      </c>
+      <c r="H104" s="38">
+        <v>3</v>
+      </c>
+      <c r="I104" s="38" t="s">
+        <v>155</v>
+      </c>
+      <c r="J104" s="38" t="s">
+        <v>169</v>
+      </c>
+      <c r="K104" s="38" t="s">
+        <v>422</v>
+      </c>
+      <c r="L104" s="38">
+        <v>93</v>
+      </c>
+      <c r="M104" s="38" t="s">
+        <v>185</v>
+      </c>
+      <c r="N104" s="38" t="s">
+        <v>196</v>
+      </c>
     </row>
     <row r="105" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A105" s="39">
@@ -22958,7 +23404,7 @@
           <x14:formula1>
             <xm:f>Metadata!$E$90:$E$93</xm:f>
           </x14:formula1>
-          <xm:sqref>J2:J41 J43:J53 J55:J62 J64:J143</xm:sqref>
+          <xm:sqref>J2:J41 J43:J53 J55:J62 J64:J101 J103:J143</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{9F837C0B-9AA9-9142-8F5F-3080D684177C}">
           <x14:formula1>
@@ -22983,8 +23429,8 @@
   <dimension ref="A1:H540"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A302" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H312" sqref="H312"/>
+      <pane ySplit="1" topLeftCell="A319" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H329" sqref="H329"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="16" zeroHeight="1" x14ac:dyDescent="0.2"/>
@@ -31616,7 +32062,7 @@
         <v>210</v>
       </c>
       <c r="H308" s="38" t="s">
-        <v>947</v>
+        <v>960</v>
       </c>
     </row>
     <row r="309" spans="1:8" ht="68" x14ac:dyDescent="0.2">
@@ -31644,7 +32090,7 @@
         <v>212</v>
       </c>
       <c r="H309" s="39" t="s">
-        <v>947</v>
+        <v>960</v>
       </c>
     </row>
     <row r="310" spans="1:8" ht="68" x14ac:dyDescent="0.2">
@@ -31672,7 +32118,7 @@
         <v>215</v>
       </c>
       <c r="H310" s="38" t="s">
-        <v>947</v>
+        <v>960</v>
       </c>
     </row>
     <row r="311" spans="1:8" ht="68" x14ac:dyDescent="0.2">
@@ -31703,277 +32149,481 @@
         <v>113</v>
       </c>
     </row>
-    <row r="312" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:8" ht="68" x14ac:dyDescent="0.2">
       <c r="A312" s="38">
-        <f>'Article Data'!A303</f>
-        <v>0</v>
-      </c>
-      <c r="B312" s="38">
-        <f>'Article Data'!B303</f>
-        <v>0</v>
-      </c>
-      <c r="C312" s="38"/>
-      <c r="D312" s="38"/>
-      <c r="E312" s="38"/>
-      <c r="F312" s="38"/>
-      <c r="G312" s="38"/>
-      <c r="H312" s="38"/>
-    </row>
-    <row r="313" spans="1:8" x14ac:dyDescent="0.2">
+        <f>'Article Data'!A70</f>
+        <v>373</v>
+      </c>
+      <c r="B312" s="38" t="str">
+        <f>'Article Data'!B70</f>
+        <v>Dynamics of an endangered New Zealand skink: accounting for incomplete detectability in estimating patch occupancy</v>
+      </c>
+      <c r="C312" s="38" t="s">
+        <v>424</v>
+      </c>
+      <c r="D312" s="38" t="s">
+        <v>424</v>
+      </c>
+      <c r="E312" s="38" t="s">
+        <v>424</v>
+      </c>
+      <c r="F312" s="38" t="s">
+        <v>426</v>
+      </c>
+      <c r="G312" s="38" t="s">
+        <v>204</v>
+      </c>
+      <c r="H312" s="38" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="313" spans="1:8" ht="68" x14ac:dyDescent="0.2">
       <c r="A313" s="39">
-        <f>'Article Data'!A304</f>
-        <v>0</v>
-      </c>
-      <c r="B313" s="39">
-        <f>'Article Data'!B304</f>
-        <v>0</v>
-      </c>
-      <c r="C313" s="39"/>
-      <c r="D313" s="39"/>
-      <c r="E313" s="39"/>
-      <c r="F313" s="39"/>
-      <c r="G313" s="39"/>
-      <c r="H313" s="39"/>
-    </row>
-    <row r="314" spans="1:8" x14ac:dyDescent="0.2">
+        <f>'Article Data'!A70</f>
+        <v>373</v>
+      </c>
+      <c r="B313" s="39" t="str">
+        <f>'Article Data'!B70</f>
+        <v>Dynamics of an endangered New Zealand skink: accounting for incomplete detectability in estimating patch occupancy</v>
+      </c>
+      <c r="C313" s="39" t="s">
+        <v>424</v>
+      </c>
+      <c r="D313" s="39" t="s">
+        <v>424</v>
+      </c>
+      <c r="E313" s="39" t="s">
+        <v>424</v>
+      </c>
+      <c r="F313" s="39" t="s">
+        <v>210</v>
+      </c>
+      <c r="G313" s="39" t="s">
+        <v>210</v>
+      </c>
+      <c r="H313" s="39" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="314" spans="1:8" ht="68" x14ac:dyDescent="0.2">
       <c r="A314" s="38">
-        <f>'Article Data'!A304</f>
-        <v>0</v>
-      </c>
-      <c r="B314" s="38">
-        <f>'Article Data'!B304</f>
-        <v>0</v>
-      </c>
-      <c r="C314" s="38"/>
-      <c r="D314" s="38"/>
-      <c r="E314" s="38"/>
-      <c r="F314" s="38"/>
-      <c r="G314" s="38"/>
-      <c r="H314" s="38"/>
-    </row>
-    <row r="315" spans="1:8" x14ac:dyDescent="0.2">
+        <f>'Article Data'!A70</f>
+        <v>373</v>
+      </c>
+      <c r="B314" s="38" t="str">
+        <f>'Article Data'!B70</f>
+        <v>Dynamics of an endangered New Zealand skink: accounting for incomplete detectability in estimating patch occupancy</v>
+      </c>
+      <c r="C314" s="38" t="s">
+        <v>424</v>
+      </c>
+      <c r="D314" s="38" t="s">
+        <v>424</v>
+      </c>
+      <c r="E314" s="38" t="s">
+        <v>424</v>
+      </c>
+      <c r="F314" s="38" t="s">
+        <v>427</v>
+      </c>
+      <c r="G314" s="38" t="s">
+        <v>212</v>
+      </c>
+      <c r="H314" s="38" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="315" spans="1:8" ht="68" x14ac:dyDescent="0.2">
       <c r="A315" s="39">
-        <f>'Article Data'!A304</f>
-        <v>0</v>
-      </c>
-      <c r="B315" s="39">
-        <f>'Article Data'!B304</f>
-        <v>0</v>
-      </c>
-      <c r="C315" s="39"/>
-      <c r="D315" s="39"/>
-      <c r="E315" s="39"/>
-      <c r="F315" s="39"/>
-      <c r="G315" s="39"/>
-      <c r="H315" s="39"/>
-    </row>
-    <row r="316" spans="1:8" x14ac:dyDescent="0.2">
+        <f>'Article Data'!A70</f>
+        <v>373</v>
+      </c>
+      <c r="B315" s="39" t="str">
+        <f>'Article Data'!B70</f>
+        <v>Dynamics of an endangered New Zealand skink: accounting for incomplete detectability in estimating patch occupancy</v>
+      </c>
+      <c r="C315" s="39" t="s">
+        <v>424</v>
+      </c>
+      <c r="D315" s="39" t="s">
+        <v>424</v>
+      </c>
+      <c r="E315" s="39" t="s">
+        <v>424</v>
+      </c>
+      <c r="F315" s="39" t="s">
+        <v>213</v>
+      </c>
+      <c r="G315" s="39" t="s">
+        <v>213</v>
+      </c>
+      <c r="H315" s="39" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="316" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A316" s="38">
-        <f>'Article Data'!A304</f>
-        <v>0</v>
-      </c>
-      <c r="B316" s="38">
-        <f>'Article Data'!B304</f>
-        <v>0</v>
-      </c>
-      <c r="C316" s="38"/>
-      <c r="D316" s="38"/>
-      <c r="E316" s="38"/>
-      <c r="F316" s="38"/>
-      <c r="G316" s="38"/>
-      <c r="H316" s="38"/>
-    </row>
-    <row r="317" spans="1:8" x14ac:dyDescent="0.2">
+        <f>'Article Data'!A71</f>
+        <v>707</v>
+      </c>
+      <c r="B316" s="38" t="str">
+        <f>'Article Data'!B71</f>
+        <v>Monitoring in the presence of species misidentification: the case of the Eurasian lynx in the Alps</v>
+      </c>
+      <c r="C316" s="38" t="s">
+        <v>424</v>
+      </c>
+      <c r="D316" s="38" t="s">
+        <v>424</v>
+      </c>
+      <c r="E316" s="38" t="s">
+        <v>424</v>
+      </c>
+      <c r="F316" s="38" t="s">
+        <v>426</v>
+      </c>
+      <c r="G316" s="38" t="s">
+        <v>204</v>
+      </c>
+      <c r="H316" s="38" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="317" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A317" s="39">
-        <f>'Article Data'!A314</f>
-        <v>0</v>
-      </c>
-      <c r="B317" s="39">
-        <f>'Article Data'!B314</f>
-        <v>0</v>
-      </c>
-      <c r="C317" s="39"/>
-      <c r="D317" s="39"/>
-      <c r="E317" s="39"/>
-      <c r="F317" s="39"/>
-      <c r="G317" s="39"/>
-      <c r="H317" s="39"/>
-    </row>
-    <row r="318" spans="1:8" x14ac:dyDescent="0.2">
+        <f>'Article Data'!A71</f>
+        <v>707</v>
+      </c>
+      <c r="B317" s="39" t="str">
+        <f>'Article Data'!B71</f>
+        <v>Monitoring in the presence of species misidentification: the case of the Eurasian lynx in the Alps</v>
+      </c>
+      <c r="C317" s="39" t="s">
+        <v>424</v>
+      </c>
+      <c r="D317" s="39" t="s">
+        <v>424</v>
+      </c>
+      <c r="E317" s="39" t="s">
+        <v>424</v>
+      </c>
+      <c r="F317" s="39" t="s">
+        <v>210</v>
+      </c>
+      <c r="G317" s="39" t="s">
+        <v>210</v>
+      </c>
+      <c r="H317" s="39" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="318" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A318" s="38">
-        <f>'Article Data'!A314</f>
-        <v>0</v>
-      </c>
-      <c r="B318" s="38">
-        <f>'Article Data'!B314</f>
-        <v>0</v>
-      </c>
-      <c r="C318" s="38"/>
-      <c r="D318" s="38"/>
-      <c r="E318" s="38"/>
-      <c r="F318" s="38"/>
-      <c r="G318" s="38"/>
-      <c r="H318" s="38"/>
-    </row>
-    <row r="319" spans="1:8" x14ac:dyDescent="0.2">
+        <f>'Article Data'!A71</f>
+        <v>707</v>
+      </c>
+      <c r="B318" s="38" t="str">
+        <f>'Article Data'!B71</f>
+        <v>Monitoring in the presence of species misidentification: the case of the Eurasian lynx in the Alps</v>
+      </c>
+      <c r="C318" s="38" t="s">
+        <v>424</v>
+      </c>
+      <c r="D318" s="38" t="s">
+        <v>424</v>
+      </c>
+      <c r="E318" s="38" t="s">
+        <v>424</v>
+      </c>
+      <c r="F318" s="38" t="s">
+        <v>427</v>
+      </c>
+      <c r="G318" s="38" t="s">
+        <v>212</v>
+      </c>
+      <c r="H318" s="38" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="319" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A319" s="39">
-        <f>'Article Data'!A314</f>
-        <v>0</v>
-      </c>
-      <c r="B319" s="39">
-        <f>'Article Data'!B314</f>
-        <v>0</v>
-      </c>
-      <c r="C319" s="39"/>
-      <c r="D319" s="39"/>
-      <c r="E319" s="39"/>
-      <c r="F319" s="39"/>
-      <c r="G319" s="39"/>
-      <c r="H319" s="39"/>
-    </row>
-    <row r="320" spans="1:8" x14ac:dyDescent="0.2">
+        <f>'Article Data'!A71</f>
+        <v>707</v>
+      </c>
+      <c r="B319" s="39" t="str">
+        <f>'Article Data'!B71</f>
+        <v>Monitoring in the presence of species misidentification: the case of the Eurasian lynx in the Alps</v>
+      </c>
+      <c r="C319" s="39" t="s">
+        <v>424</v>
+      </c>
+      <c r="D319" s="39" t="s">
+        <v>424</v>
+      </c>
+      <c r="E319" s="39" t="s">
+        <v>424</v>
+      </c>
+      <c r="F319" s="39" t="s">
+        <v>213</v>
+      </c>
+      <c r="G319" s="39" t="s">
+        <v>213</v>
+      </c>
+      <c r="H319" s="39" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="320" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A320" s="38">
-        <f>'Article Data'!A314</f>
-        <v>0</v>
-      </c>
-      <c r="B320" s="38">
-        <f>'Article Data'!B314</f>
-        <v>0</v>
-      </c>
-      <c r="C320" s="38"/>
-      <c r="D320" s="38"/>
-      <c r="E320" s="38"/>
-      <c r="F320" s="38"/>
-      <c r="G320" s="38"/>
-      <c r="H320" s="38"/>
-    </row>
-    <row r="321" spans="1:8" x14ac:dyDescent="0.2">
+        <f>'Article Data'!A72</f>
+        <v>360</v>
+      </c>
+      <c r="B320" s="38" t="str">
+        <f>'Article Data'!B72</f>
+        <v>Using Fourier series to estimate periodic patterns in dynamic occupancy models</v>
+      </c>
+      <c r="C320" s="38" t="s">
+        <v>424</v>
+      </c>
+      <c r="D320" s="38" t="s">
+        <v>424</v>
+      </c>
+      <c r="E320" s="38" t="s">
+        <v>424</v>
+      </c>
+      <c r="F320" s="38" t="s">
+        <v>426</v>
+      </c>
+      <c r="G320" s="38" t="s">
+        <v>204</v>
+      </c>
+      <c r="H320" s="38" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="321" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A321" s="39">
-        <f>'Article Data'!A315</f>
-        <v>0</v>
-      </c>
-      <c r="B321" s="39">
-        <f>'Article Data'!B315</f>
-        <v>0</v>
-      </c>
-      <c r="C321" s="39"/>
-      <c r="D321" s="39"/>
-      <c r="E321" s="39"/>
-      <c r="F321" s="39"/>
-      <c r="G321" s="39"/>
-      <c r="H321" s="39"/>
-    </row>
-    <row r="322" spans="1:8" x14ac:dyDescent="0.2">
+        <f>'Article Data'!A72</f>
+        <v>360</v>
+      </c>
+      <c r="B321" s="39" t="str">
+        <f>'Article Data'!B72</f>
+        <v>Using Fourier series to estimate periodic patterns in dynamic occupancy models</v>
+      </c>
+      <c r="C321" s="39" t="s">
+        <v>424</v>
+      </c>
+      <c r="D321" s="39" t="s">
+        <v>424</v>
+      </c>
+      <c r="E321" s="39" t="s">
+        <v>424</v>
+      </c>
+      <c r="F321" s="39" t="s">
+        <v>210</v>
+      </c>
+      <c r="G321" s="39" t="s">
+        <v>210</v>
+      </c>
+      <c r="H321" s="39" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="322" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A322" s="38">
-        <f>'Article Data'!A315</f>
-        <v>0</v>
-      </c>
-      <c r="B322" s="38">
-        <f>'Article Data'!B315</f>
-        <v>0</v>
-      </c>
-      <c r="C322" s="38"/>
-      <c r="D322" s="38"/>
-      <c r="E322" s="38"/>
-      <c r="F322" s="38"/>
-      <c r="G322" s="38"/>
-      <c r="H322" s="38"/>
-    </row>
-    <row r="323" spans="1:8" x14ac:dyDescent="0.2">
+        <f>'Article Data'!A72</f>
+        <v>360</v>
+      </c>
+      <c r="B322" s="38" t="str">
+        <f>'Article Data'!B72</f>
+        <v>Using Fourier series to estimate periodic patterns in dynamic occupancy models</v>
+      </c>
+      <c r="C322" s="38" t="s">
+        <v>424</v>
+      </c>
+      <c r="D322" s="38" t="s">
+        <v>424</v>
+      </c>
+      <c r="E322" s="38" t="s">
+        <v>424</v>
+      </c>
+      <c r="F322" s="38" t="s">
+        <v>427</v>
+      </c>
+      <c r="G322" s="38" t="s">
+        <v>212</v>
+      </c>
+      <c r="H322" s="38" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="323" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A323" s="39">
-        <f>'Article Data'!A315</f>
-        <v>0</v>
-      </c>
-      <c r="B323" s="39">
-        <f>'Article Data'!B315</f>
-        <v>0</v>
-      </c>
-      <c r="C323" s="39"/>
-      <c r="D323" s="39"/>
-      <c r="E323" s="39"/>
-      <c r="F323" s="39"/>
-      <c r="G323" s="39"/>
-      <c r="H323" s="39"/>
-    </row>
-    <row r="324" spans="1:8" x14ac:dyDescent="0.2">
+        <f>'Article Data'!A72</f>
+        <v>360</v>
+      </c>
+      <c r="B323" s="39" t="str">
+        <f>'Article Data'!B72</f>
+        <v>Using Fourier series to estimate periodic patterns in dynamic occupancy models</v>
+      </c>
+      <c r="C323" s="39" t="s">
+        <v>424</v>
+      </c>
+      <c r="D323" s="39" t="s">
+        <v>424</v>
+      </c>
+      <c r="E323" s="39" t="s">
+        <v>424</v>
+      </c>
+      <c r="F323" s="39" t="s">
+        <v>213</v>
+      </c>
+      <c r="G323" s="39" t="s">
+        <v>213</v>
+      </c>
+      <c r="H323" s="39" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="324" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A324" s="38">
-        <f>'Article Data'!A315</f>
-        <v>0</v>
-      </c>
-      <c r="B324" s="38">
-        <f>'Article Data'!B315</f>
-        <v>0</v>
-      </c>
-      <c r="C324" s="38"/>
-      <c r="D324" s="38"/>
-      <c r="E324" s="38"/>
-      <c r="F324" s="38"/>
-      <c r="G324" s="38"/>
-      <c r="H324" s="38"/>
-    </row>
-    <row r="325" spans="1:8" x14ac:dyDescent="0.2">
+        <f>'Article Data'!A73</f>
+        <v>315</v>
+      </c>
+      <c r="B324" s="38" t="str">
+        <f>'Article Data'!B73</f>
+        <v>Estimation of metademographic rates and landscape connectivity for a conservation-reliant anuran</v>
+      </c>
+      <c r="C324" s="38" t="s">
+        <v>424</v>
+      </c>
+      <c r="D324" s="38" t="s">
+        <v>424</v>
+      </c>
+      <c r="E324" s="38" t="s">
+        <v>424</v>
+      </c>
+      <c r="F324" s="38" t="s">
+        <v>426</v>
+      </c>
+      <c r="G324" s="38" t="s">
+        <v>204</v>
+      </c>
+      <c r="H324" s="38" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="325" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A325" s="39">
-        <f>'Article Data'!A316</f>
-        <v>0</v>
-      </c>
-      <c r="B325" s="39">
-        <f>'Article Data'!B316</f>
-        <v>0</v>
-      </c>
-      <c r="C325" s="39"/>
-      <c r="D325" s="39"/>
-      <c r="E325" s="39"/>
-      <c r="F325" s="39"/>
-      <c r="G325" s="39"/>
-      <c r="H325" s="39"/>
-    </row>
-    <row r="326" spans="1:8" x14ac:dyDescent="0.2">
+        <f>'Article Data'!A73</f>
+        <v>315</v>
+      </c>
+      <c r="B325" s="39" t="str">
+        <f>'Article Data'!B73</f>
+        <v>Estimation of metademographic rates and landscape connectivity for a conservation-reliant anuran</v>
+      </c>
+      <c r="C325" s="39" t="s">
+        <v>424</v>
+      </c>
+      <c r="D325" s="39" t="s">
+        <v>424</v>
+      </c>
+      <c r="E325" s="39" t="s">
+        <v>424</v>
+      </c>
+      <c r="F325" s="39" t="s">
+        <v>210</v>
+      </c>
+      <c r="G325" s="39" t="s">
+        <v>210</v>
+      </c>
+      <c r="H325" s="39" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="326" spans="1:8" ht="68" x14ac:dyDescent="0.2">
       <c r="A326" s="38">
-        <f>'Article Data'!A316</f>
-        <v>0</v>
-      </c>
-      <c r="B326" s="38">
-        <f>'Article Data'!B316</f>
-        <v>0</v>
-      </c>
-      <c r="C326" s="38"/>
-      <c r="D326" s="38"/>
-      <c r="E326" s="38"/>
-      <c r="F326" s="38"/>
-      <c r="G326" s="38"/>
-      <c r="H326" s="38"/>
-    </row>
-    <row r="327" spans="1:8" x14ac:dyDescent="0.2">
+        <f>'Article Data'!A73</f>
+        <v>315</v>
+      </c>
+      <c r="B326" s="38" t="str">
+        <f>'Article Data'!B73</f>
+        <v>Estimation of metademographic rates and landscape connectivity for a conservation-reliant anuran</v>
+      </c>
+      <c r="C326" s="38" t="s">
+        <v>424</v>
+      </c>
+      <c r="D326" s="38" t="s">
+        <v>424</v>
+      </c>
+      <c r="E326" s="38" t="s">
+        <v>424</v>
+      </c>
+      <c r="F326" s="38" t="s">
+        <v>427</v>
+      </c>
+      <c r="G326" s="38" t="s">
+        <v>212</v>
+      </c>
+      <c r="H326" s="38" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="327" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A327" s="39">
-        <f>'Article Data'!A316</f>
-        <v>0</v>
-      </c>
-      <c r="B327" s="39">
-        <f>'Article Data'!B316</f>
-        <v>0</v>
-      </c>
-      <c r="C327" s="39"/>
-      <c r="D327" s="39"/>
-      <c r="E327" s="39"/>
-      <c r="F327" s="39"/>
-      <c r="G327" s="39"/>
-      <c r="H327" s="39"/>
-    </row>
-    <row r="328" spans="1:8" x14ac:dyDescent="0.2">
+        <f>'Article Data'!A73</f>
+        <v>315</v>
+      </c>
+      <c r="B327" s="39" t="str">
+        <f>'Article Data'!B73</f>
+        <v>Estimation of metademographic rates and landscape connectivity for a conservation-reliant anuran</v>
+      </c>
+      <c r="C327" s="39" t="s">
+        <v>424</v>
+      </c>
+      <c r="D327" s="39" t="s">
+        <v>424</v>
+      </c>
+      <c r="E327" s="39" t="s">
+        <v>424</v>
+      </c>
+      <c r="F327" s="39" t="s">
+        <v>213</v>
+      </c>
+      <c r="G327" s="39" t="s">
+        <v>213</v>
+      </c>
+      <c r="H327" s="39" t="s">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="328" spans="1:8" ht="68" x14ac:dyDescent="0.2">
       <c r="A328" s="38">
-        <f>'Article Data'!A316</f>
-        <v>0</v>
-      </c>
-      <c r="B328" s="38">
-        <f>'Article Data'!B316</f>
-        <v>0</v>
-      </c>
-      <c r="C328" s="38"/>
-      <c r="D328" s="38"/>
-      <c r="E328" s="38"/>
-      <c r="F328" s="38"/>
-      <c r="G328" s="38"/>
-      <c r="H328" s="38"/>
+        <f>'Article Data'!A70</f>
+        <v>373</v>
+      </c>
+      <c r="B328" s="38" t="str">
+        <f>'Article Data'!B70</f>
+        <v>Dynamics of an endangered New Zealand skink: accounting for incomplete detectability in estimating patch occupancy</v>
+      </c>
+      <c r="C328" s="38" t="s">
+        <v>424</v>
+      </c>
+      <c r="D328" s="38" t="s">
+        <v>424</v>
+      </c>
+      <c r="E328" s="38" t="s">
+        <v>424</v>
+      </c>
+      <c r="F328" s="38" t="s">
+        <v>968</v>
+      </c>
+      <c r="G328" s="38" t="s">
+        <v>388</v>
+      </c>
+      <c r="H328" s="38" t="s">
+        <v>973</v>
+      </c>
     </row>
     <row r="329" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A329" s="39">
@@ -32480,8 +33130,8 @@
   <dimension ref="A1:L171"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A64" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L74" sqref="L74"/>
+      <pane ySplit="1" topLeftCell="A66" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K78" sqref="K78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="16" zeroHeight="1" x14ac:dyDescent="0.2"/>
@@ -35418,85 +36068,165 @@
         <v>113</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:12" ht="68" x14ac:dyDescent="0.2">
       <c r="A74" s="38">
         <f>'Article Data'!A70</f>
-        <v>0</v>
-      </c>
-      <c r="B74" s="38">
+        <v>373</v>
+      </c>
+      <c r="B74" s="38" t="str">
         <f>'Article Data'!B70</f>
-        <v>0</v>
-      </c>
-      <c r="C74" s="38"/>
-      <c r="D74" s="38"/>
-      <c r="E74" s="38"/>
-      <c r="F74" s="38"/>
-      <c r="G74" s="38"/>
-      <c r="H74" s="38"/>
-      <c r="I74" s="38"/>
-      <c r="J74" s="38"/>
-      <c r="K74" s="38"/>
-      <c r="L74" s="38"/>
-    </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.2">
+        <v>Dynamics of an endangered New Zealand skink: accounting for incomplete detectability in estimating patch occupancy</v>
+      </c>
+      <c r="C74" s="38" t="s">
+        <v>424</v>
+      </c>
+      <c r="D74" s="38" t="s">
+        <v>424</v>
+      </c>
+      <c r="E74" s="38" t="s">
+        <v>424</v>
+      </c>
+      <c r="F74" s="38" t="s">
+        <v>283</v>
+      </c>
+      <c r="G74" s="38" t="s">
+        <v>296</v>
+      </c>
+      <c r="H74" s="38" t="s">
+        <v>113</v>
+      </c>
+      <c r="I74" s="38" t="s">
+        <v>340</v>
+      </c>
+      <c r="J74" s="38" t="s">
+        <v>519</v>
+      </c>
+      <c r="K74" s="38" t="s">
+        <v>320</v>
+      </c>
+      <c r="L74" s="38" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" ht="51" x14ac:dyDescent="0.2">
       <c r="A75" s="39">
         <f>'Article Data'!A71</f>
-        <v>0</v>
-      </c>
-      <c r="B75" s="39">
+        <v>707</v>
+      </c>
+      <c r="B75" s="39" t="str">
         <f>'Article Data'!B71</f>
-        <v>0</v>
-      </c>
-      <c r="C75" s="39"/>
-      <c r="D75" s="39"/>
-      <c r="E75" s="39"/>
-      <c r="F75" s="39"/>
-      <c r="G75" s="39"/>
-      <c r="H75" s="39"/>
-      <c r="I75" s="39"/>
-      <c r="J75" s="39"/>
-      <c r="K75" s="39"/>
-      <c r="L75" s="39"/>
-    </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.2">
+        <v>Monitoring in the presence of species misidentification: the case of the Eurasian lynx in the Alps</v>
+      </c>
+      <c r="C75" s="39" t="s">
+        <v>424</v>
+      </c>
+      <c r="D75" s="39" t="s">
+        <v>424</v>
+      </c>
+      <c r="E75" s="39" t="s">
+        <v>424</v>
+      </c>
+      <c r="F75" s="39" t="s">
+        <v>283</v>
+      </c>
+      <c r="G75" s="39" t="s">
+        <v>297</v>
+      </c>
+      <c r="H75" s="39" t="s">
+        <v>113</v>
+      </c>
+      <c r="I75" s="39" t="s">
+        <v>341</v>
+      </c>
+      <c r="J75" s="39" t="s">
+        <v>301</v>
+      </c>
+      <c r="K75" s="39" t="s">
+        <v>96</v>
+      </c>
+      <c r="L75" s="39" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" ht="51" x14ac:dyDescent="0.2">
       <c r="A76" s="38">
         <f>'Article Data'!A72</f>
-        <v>0</v>
-      </c>
-      <c r="B76" s="38">
+        <v>360</v>
+      </c>
+      <c r="B76" s="38" t="str">
         <f>'Article Data'!B72</f>
-        <v>0</v>
-      </c>
-      <c r="C76" s="38"/>
-      <c r="D76" s="38"/>
-      <c r="E76" s="38"/>
-      <c r="F76" s="38"/>
-      <c r="G76" s="38"/>
-      <c r="H76" s="38"/>
-      <c r="I76" s="38"/>
-      <c r="J76" s="38"/>
-      <c r="K76" s="38"/>
-      <c r="L76" s="38"/>
-    </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.2">
+        <v>Using Fourier series to estimate periodic patterns in dynamic occupancy models</v>
+      </c>
+      <c r="C76" s="38" t="s">
+        <v>424</v>
+      </c>
+      <c r="D76" s="38" t="s">
+        <v>424</v>
+      </c>
+      <c r="E76" s="38" t="s">
+        <v>424</v>
+      </c>
+      <c r="F76" s="38" t="s">
+        <v>283</v>
+      </c>
+      <c r="G76" s="38" t="s">
+        <v>297</v>
+      </c>
+      <c r="H76" s="38" t="s">
+        <v>113</v>
+      </c>
+      <c r="I76" s="38" t="s">
+        <v>338</v>
+      </c>
+      <c r="J76" s="38" t="s">
+        <v>519</v>
+      </c>
+      <c r="K76" s="38" t="s">
+        <v>71</v>
+      </c>
+      <c r="L76" s="38" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" ht="51" x14ac:dyDescent="0.2">
       <c r="A77" s="39">
         <f>'Article Data'!A73</f>
-        <v>0</v>
-      </c>
-      <c r="B77" s="39">
+        <v>315</v>
+      </c>
+      <c r="B77" s="39" t="str">
         <f>'Article Data'!B73</f>
-        <v>0</v>
-      </c>
-      <c r="C77" s="39"/>
-      <c r="D77" s="39"/>
-      <c r="E77" s="39"/>
-      <c r="F77" s="39"/>
-      <c r="G77" s="39"/>
-      <c r="H77" s="39"/>
-      <c r="I77" s="39"/>
-      <c r="J77" s="39"/>
-      <c r="K77" s="39"/>
-      <c r="L77" s="39"/>
+        <v>Estimation of metademographic rates and landscape connectivity for a conservation-reliant anuran</v>
+      </c>
+      <c r="C77" s="39" t="s">
+        <v>424</v>
+      </c>
+      <c r="D77" s="39" t="s">
+        <v>424</v>
+      </c>
+      <c r="E77" s="39" t="s">
+        <v>424</v>
+      </c>
+      <c r="F77" s="39" t="s">
+        <v>385</v>
+      </c>
+      <c r="G77" s="39" t="s">
+        <v>297</v>
+      </c>
+      <c r="H77" s="39" t="s">
+        <v>295</v>
+      </c>
+      <c r="I77" s="39" t="s">
+        <v>338</v>
+      </c>
+      <c r="J77" s="39" t="s">
+        <v>301</v>
+      </c>
+      <c r="K77" s="39" t="s">
+        <v>96</v>
+      </c>
+      <c r="L77" s="39" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A78" s="38">
@@ -36554,7 +37284,7 @@
   <dimension ref="A1:G200"/>
   <sheetViews>
     <sheetView zoomScale="113" zoomScaleNormal="113" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B27" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B60" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="bottomRight" activeCell="E148" sqref="E148"/>

--- a/Spreadsheets/DOM_Spreadsheet.xlsx
+++ b/Spreadsheets/DOM_Spreadsheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/saoirsekelleher/Documents/Research/QAEco/DOM_Review/Spreadsheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C47012D4-B408-124A-A5D6-5DE8F639BB50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CFF9170-6993-E948-A50C-ADA2FFB171F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-9600" yWindow="-21600" windowWidth="38400" windowHeight="21600" activeTab="6" xr2:uid="{981D9C2C-D510-E947-BD55-27C976277DB6}"/>
+    <workbookView xWindow="-9600" yWindow="-21100" windowWidth="38400" windowHeight="21100" activeTab="5" xr2:uid="{981D9C2C-D510-E947-BD55-27C976277DB6}"/>
   </bookViews>
   <sheets>
     <sheet name="Article Data" sheetId="10" r:id="rId1"/>
@@ -5239,12 +5239,6 @@
     </r>
   </si>
   <si>
-    <t>E-HYDR_SI_R_L, E-ANTH_SI_R_L, E-LACO_SI_R_L, E-LACO_SI_R_L, E-HYDR_SI_R_L, E-HYDR_SI_R_L, E-ANTH_SI_R_L, E-ANTH_SI_R_L, E-ANTH_SI_R_L, E-HYDR_SI_R_L, E-HYDR_SI_R_L, E-HYDR_SI_R_L, E-HYDR_SI_R_L,E-HABT_SI_R_L, E-HABT_SI_R_L, E-HYDR_SI_D_L, E-HYDR_SI_D_L, E-HYDR_SI_D_L</t>
-  </si>
-  <si>
-    <t>E-HYDR_SI_R_L, E-ANTH_SI_R_L, E-LACO_SI_R_L, E-LACO_SI_R_L, E-HYDR_SI_R_L, E-HYDR_SI_R_L, E-ANTH_SI_R_L, E-ANTH_SI_R_L, E-ANTH_SI_R_L, E-HYDR_SI_R_L, E-HYDR_SI_R_L, E-HYDR_SI_R_L, E-HYDR_SI_R_L,E-HABT_SI_R_L, E-HABT_SI_R_L, E-HYDR_SI_D_L, E-HYDR_SI_D_L, E-HYDR_SI_D_L, S-SEAS_SE_I_L, E-PHEN_SE_I_L, E-PHEN_SE_I_L, E-CLWE_SISE_R_L, E-CLWE_SISE_R_L,  E-CLWE_SISE_R_L,  E-CLWE_SISE_R_L,  E-CLWE_SISE_R_L,  E-CLWE_SISE_R_L, E-BIOT_SISE_D_L, E-BIOT_SISE_D_L, E-BIOT_SISE_D_L</t>
-  </si>
-  <si>
     <t>E-HYDR_SU_D_L, S-OTHER_SI_I_L, S-OBSE_SU_I_L, S-OBSE_SU_I_L, S-OBSE_SU_I_L, S-OBSE_SU_I_L, E-PHEN_SU_I_L, S-SEAS_SE_I_L, E-PHEN_SE_I_L, E-PHEN_SE_I_L, E-CLWE_SU_R_L, E-CLWE_SU_R_L, E-CLWE_SU_R_L, E-CLWE_SU_R_L, E-CLWE_SU_R_L, E-CLWE_SU_R_L</t>
   </si>
   <si>
@@ -5413,12 +5407,18 @@
   <si>
     <t>Other, Model averaging</t>
   </si>
+  <si>
+    <t>E-HYDR_SI_R_L, E-ANTH_SI_R_L, E-LACO_SI_R_L, E-LACO_SI_R_L, E-HYDR_SI_R_L, E-HYDR_SI_R_L, E-ANTH_SI_R_L, E-ANTH_SI_R_L, E-ANTH_SI_R_L, E-HYDR_SI_R_L, E-HYDR_SI_R_L, E-HYDR_SI_R_L, E-HYDR_SI_R_L, E-HABT_SI_R_L, E-HABT_SI_R_L, E-HYDR_SI_D_L, E-HYDR_SI_D_L, E-HYDR_SI_D_L</t>
+  </si>
+  <si>
+    <t>E-HYDR_SI_R_L, E-ANTH_SI_R_L, E-LACO_SI_R_L, E-LACO_SI_R_L, E-HYDR_SI_R_L, E-HYDR_SI_R_L, E-ANTH_SI_R_L, E-ANTH_SI_R_L, E-ANTH_SI_R_L, E-HYDR_SI_R_L, E-HYDR_SI_R_L, E-HYDR_SI_R_L, E-HYDR_SI_R_L, E-HABT_SI_R_L, E-HABT_SI_R_L, E-HYDR_SI_D_L, E-HYDR_SI_D_L, E-HYDR_SI_D_L, S-SEAS_SE_I_L, E-PHEN_SE_I_L, E-PHEN_SE_I_L, E-CLWE_SISE_R_L, E-CLWE_SISE_R_L, E-CLWE_SISE_R_L, E-CLWE_SISE_R_L, E-CLWE_SISE_R_L, E-CLWE_SISE_R_L, E-BIOT_SISE_D_L, E-BIOT_SISE_D_L, E-BIOT_SISE_D_L</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -5494,12 +5494,6 @@
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="25">
@@ -6036,19 +6030,19 @@
     <xf numFmtId="49" fontId="0" fillId="19" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6069,8 +6063,53 @@
     <xf numFmtId="0" fontId="10" fillId="14" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -6082,7 +6121,31 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -6090,20 +6153,8 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
@@ -6129,6 +6180,15 @@
     <xf numFmtId="0" fontId="7" fillId="5" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="17" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -6138,77 +6198,11 @@
     <xf numFmtId="0" fontId="10" fillId="17" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -8743,7 +8737,7 @@
         <v>313</v>
       </c>
       <c r="B89" s="39" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
       <c r="C89" s="39">
         <v>2021</v>
@@ -8752,10 +8746,10 @@
         <v>400</v>
       </c>
       <c r="E89" s="39" t="s">
-        <v>1073</v>
+        <v>1071</v>
       </c>
       <c r="F89" s="39" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="G89" s="39" t="s">
         <v>448</v>
@@ -8766,7 +8760,7 @@
         <v>94</v>
       </c>
       <c r="B90" s="38" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
       <c r="C90" s="38">
         <v>2010</v>
@@ -8775,10 +8769,10 @@
         <v>397</v>
       </c>
       <c r="E90" s="38" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
       <c r="F90" s="38" t="s">
-        <v>1079</v>
+        <v>1077</v>
       </c>
       <c r="G90" s="38" t="s">
         <v>554</v>
@@ -8789,7 +8783,7 @@
         <v>295</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
       <c r="C91" s="39">
         <v>2014</v>
@@ -8798,10 +8792,10 @@
         <v>398</v>
       </c>
       <c r="E91" s="39" t="s">
-        <v>1084</v>
+        <v>1082</v>
       </c>
       <c r="F91" s="39" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
       <c r="G91" s="39" t="s">
         <v>432</v>
@@ -8812,7 +8806,7 @@
         <v>138</v>
       </c>
       <c r="B92" s="38" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
       <c r="C92" s="38">
         <v>2019</v>
@@ -8824,7 +8818,7 @@
         <v>546</v>
       </c>
       <c r="F92" s="38" t="s">
-        <v>1100</v>
+        <v>1098</v>
       </c>
       <c r="G92" s="38" t="s">
         <v>432</v>
@@ -8838,7 +8832,7 @@
         <v>549</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
       <c r="C93" s="39">
         <v>2023</v>
@@ -8850,7 +8844,7 @@
         <v>692</v>
       </c>
       <c r="F93" s="39" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="G93" s="39" t="s">
         <v>432</v>
@@ -11890,7 +11884,7 @@
         <v>A multistate dynamic occupancy model to estimate local colonization &amp; extinction rates and patterns of co-occurrence between two or more interacting species</v>
       </c>
       <c r="C92" s="38" t="s">
-        <v>1089</v>
+        <v>1087</v>
       </c>
       <c r="D92" s="38" t="s">
         <v>423</v>
@@ -16237,7 +16231,7 @@
         <v>424</v>
       </c>
       <c r="F107" s="33" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
       <c r="G107" s="33" t="s">
         <v>73</v>
@@ -16274,7 +16268,7 @@
         <v>424</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
       <c r="G108" s="2" t="s">
         <v>70</v>
@@ -16289,7 +16283,7 @@
         <v>91</v>
       </c>
       <c r="K108" s="2" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="109" spans="1:11" ht="51" x14ac:dyDescent="0.2">
@@ -16311,7 +16305,7 @@
         <v>424</v>
       </c>
       <c r="F109" s="33" t="s">
-        <v>1086</v>
+        <v>1084</v>
       </c>
       <c r="G109" s="33" t="s">
         <v>69</v>
@@ -16348,7 +16342,7 @@
         <v>424</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>1090</v>
+        <v>1088</v>
       </c>
       <c r="G110" s="2" t="s">
         <v>68</v>
@@ -16385,7 +16379,7 @@
         <v>424</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>1091</v>
+        <v>1089</v>
       </c>
       <c r="G111" s="2" t="s">
         <v>68</v>
@@ -16422,7 +16416,7 @@
         <v>424</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>1092</v>
+        <v>1090</v>
       </c>
       <c r="G112" s="2" t="s">
         <v>68</v>
@@ -16459,7 +16453,7 @@
         <v>424</v>
       </c>
       <c r="F113" s="33" t="s">
-        <v>1102</v>
+        <v>1100</v>
       </c>
       <c r="G113" s="33" t="s">
         <v>69</v>
@@ -27153,7 +27147,7 @@
         <v>183</v>
       </c>
       <c r="N130" s="39" t="s">
-        <v>1093</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="131" spans="1:14" ht="102" x14ac:dyDescent="0.2">
@@ -27728,9 +27722,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61C2225F-50EA-0B46-B746-50DCEE0DEA60}">
   <dimension ref="A1:H540"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A410" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H414" sqref="H414"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A394" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D395" sqref="D395"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="16" zeroHeight="1" x14ac:dyDescent="0.2"/>
@@ -38742,7 +38736,7 @@
         <v>204</v>
       </c>
       <c r="H393" s="39" t="s">
-        <v>1069</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="394" spans="1:8" ht="187" x14ac:dyDescent="0.2">
@@ -38770,7 +38764,7 @@
         <v>210</v>
       </c>
       <c r="H394" s="38" t="s">
-        <v>1070</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="395" spans="1:8" ht="187" x14ac:dyDescent="0.2">
@@ -38798,7 +38792,7 @@
         <v>212</v>
       </c>
       <c r="H395" s="39" t="s">
-        <v>1070</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="396" spans="1:8" ht="102" x14ac:dyDescent="0.2">
@@ -38826,7 +38820,7 @@
         <v>213</v>
       </c>
       <c r="H396" s="38" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="397" spans="1:8" ht="85" x14ac:dyDescent="0.2">
@@ -38854,7 +38848,7 @@
         <v>205</v>
       </c>
       <c r="H397" s="39" t="s">
-        <v>1076</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="398" spans="1:8" ht="85" x14ac:dyDescent="0.2">
@@ -38882,7 +38876,7 @@
         <v>210</v>
       </c>
       <c r="H398" s="38" t="s">
-        <v>1076</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="399" spans="1:8" ht="85" x14ac:dyDescent="0.2">
@@ -38910,7 +38904,7 @@
         <v>212</v>
       </c>
       <c r="H399" s="39" t="s">
-        <v>1076</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="400" spans="1:8" ht="85" x14ac:dyDescent="0.2">
@@ -38966,7 +38960,7 @@
         <v>205</v>
       </c>
       <c r="H401" s="39" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="402" spans="1:8" ht="68" x14ac:dyDescent="0.2">
@@ -38994,7 +38988,7 @@
         <v>212</v>
       </c>
       <c r="H402" s="38" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="403" spans="1:8" ht="68" x14ac:dyDescent="0.2">
@@ -39078,7 +39072,7 @@
         <v>210</v>
       </c>
       <c r="H405" s="39" t="s">
-        <v>1087</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="406" spans="1:8" ht="119" x14ac:dyDescent="0.2">
@@ -39106,7 +39100,7 @@
         <v>212</v>
       </c>
       <c r="H406" s="38" t="s">
-        <v>1087</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="407" spans="1:8" ht="51" x14ac:dyDescent="0.2">
@@ -39156,7 +39150,7 @@
         <v>424</v>
       </c>
       <c r="F408" s="38" t="s">
-        <v>1094</v>
+        <v>1092</v>
       </c>
       <c r="G408" s="38" t="s">
         <v>204</v>
@@ -39184,7 +39178,7 @@
         <v>424</v>
       </c>
       <c r="F409" s="39" t="s">
-        <v>1095</v>
+        <v>1093</v>
       </c>
       <c r="G409" s="39" t="s">
         <v>210</v>
@@ -39212,7 +39206,7 @@
         <v>424</v>
       </c>
       <c r="F410" s="38" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="G410" s="38" t="s">
         <v>212</v>
@@ -39240,7 +39234,7 @@
         <v>424</v>
       </c>
       <c r="F411" s="39" t="s">
-        <v>1097</v>
+        <v>1095</v>
       </c>
       <c r="G411" s="39" t="s">
         <v>213</v>
@@ -39302,7 +39296,7 @@
         <v>210</v>
       </c>
       <c r="H413" s="39" t="s">
-        <v>1108</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="414" spans="1:8" ht="85" x14ac:dyDescent="0.2">
@@ -39330,7 +39324,7 @@
         <v>212</v>
       </c>
       <c r="H414" s="38" t="s">
-        <v>1108</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="415" spans="1:8" ht="85" x14ac:dyDescent="0.2">
@@ -39358,7 +39352,7 @@
         <v>213</v>
       </c>
       <c r="H415" s="39" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="416" spans="1:8" ht="85" x14ac:dyDescent="0.2">
@@ -39380,13 +39374,13 @@
         <v>424</v>
       </c>
       <c r="F416" s="38" t="s">
-        <v>1103</v>
+        <v>1101</v>
       </c>
       <c r="G416" s="38" t="s">
         <v>215</v>
       </c>
       <c r="H416" s="38" t="s">
-        <v>1106</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="417" spans="1:8" ht="85" x14ac:dyDescent="0.2">
@@ -39398,23 +39392,23 @@
         <f>'Article Data'!B93</f>
         <v>Accounting for misclassification of subspecies provides insights about habitat use and dynamics of the Florida Grasshopper Sparrow in response to fire</v>
       </c>
-      <c r="C417" s="109" t="s">
-        <v>424</v>
-      </c>
-      <c r="D417" s="109" t="s">
-        <v>424</v>
-      </c>
-      <c r="E417" s="109" t="s">
-        <v>424</v>
-      </c>
-      <c r="F417" s="109" t="s">
-        <v>1104</v>
-      </c>
-      <c r="G417" s="109" t="s">
+      <c r="C417" s="52" t="s">
+        <v>424</v>
+      </c>
+      <c r="D417" s="52" t="s">
+        <v>424</v>
+      </c>
+      <c r="E417" s="52" t="s">
+        <v>424</v>
+      </c>
+      <c r="F417" s="52" t="s">
+        <v>1102</v>
+      </c>
+      <c r="G417" s="52" t="s">
         <v>215</v>
       </c>
-      <c r="H417" s="109" t="s">
-        <v>1107</v>
+      <c r="H417" s="52" t="s">
+        <v>1105</v>
       </c>
     </row>
     <row r="418" spans="1:8" x14ac:dyDescent="0.2"/>
@@ -39562,9 +39556,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75A75B7C-E7E1-234A-BD6D-A3B2966FCDDB}">
   <dimension ref="A1:M171"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A87" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K95" sqref="K95"/>
+    <sheetView zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D92" sqref="D92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="16" zeroHeight="1" x14ac:dyDescent="0.2"/>
@@ -43421,7 +43415,7 @@
         <v>326</v>
       </c>
       <c r="M96" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="97" spans="1:12" ht="85" x14ac:dyDescent="0.2">
@@ -43455,7 +43449,7 @@
         <v>71</v>
       </c>
       <c r="J97" s="38" t="s">
-        <v>1109</v>
+        <v>1107</v>
       </c>
       <c r="K97" s="38" t="s">
         <v>71</v>
@@ -44140,13 +44134,13 @@
   <sheetData>
     <row r="1" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A1" s="3"/>
-      <c r="B1" s="73" t="s">
+      <c r="B1" s="89" t="s">
         <v>106</v>
       </c>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
-      <c r="E1" s="73"/>
-      <c r="F1" s="73"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
     </row>
     <row r="2" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
@@ -44169,7 +44163,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="75" t="s">
+      <c r="A3" s="94" t="s">
         <v>331</v>
       </c>
       <c r="B3" s="23" t="s">
@@ -44185,7 +44179,7 @@
       <c r="F3" s="7"/>
     </row>
     <row r="4" spans="1:6" ht="31" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="76"/>
+      <c r="A4" s="95"/>
       <c r="B4" s="23" t="s">
         <v>2</v>
       </c>
@@ -44199,7 +44193,7 @@
       <c r="F4" s="7"/>
     </row>
     <row r="5" spans="1:6" ht="51" x14ac:dyDescent="0.2">
-      <c r="A5" s="76"/>
+      <c r="A5" s="95"/>
       <c r="B5" s="23" t="s">
         <v>15</v>
       </c>
@@ -44215,7 +44209,7 @@
       <c r="F5" s="7"/>
     </row>
     <row r="6" spans="1:6" ht="51" x14ac:dyDescent="0.2">
-      <c r="A6" s="77"/>
+      <c r="A6" s="96"/>
       <c r="B6" s="23" t="s">
         <v>16</v>
       </c>
@@ -44231,7 +44225,7 @@
       <c r="F6" s="7"/>
     </row>
     <row r="7" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A7" s="82" t="s">
+      <c r="A7" s="101" t="s">
         <v>52</v>
       </c>
       <c r="B7" s="24" t="s">
@@ -44247,14 +44241,14 @@
       <c r="F7" s="9"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="82"/>
-      <c r="B8" s="81" t="s">
+      <c r="A8" s="101"/>
+      <c r="B8" s="100" t="s">
         <v>55</v>
       </c>
-      <c r="C8" s="52" t="s">
+      <c r="C8" s="108" t="s">
         <v>56</v>
       </c>
-      <c r="D8" s="53" t="s">
+      <c r="D8" s="109" t="s">
         <v>53</v>
       </c>
       <c r="E8" s="9" t="s">
@@ -44265,10 +44259,10 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="82"/>
-      <c r="B9" s="81"/>
-      <c r="C9" s="52"/>
-      <c r="D9" s="53"/>
+      <c r="A9" s="101"/>
+      <c r="B9" s="100"/>
+      <c r="C9" s="108"/>
+      <c r="D9" s="109"/>
       <c r="E9" s="9" t="s">
         <v>397</v>
       </c>
@@ -44277,10 +44271,10 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="82"/>
-      <c r="B10" s="81"/>
-      <c r="C10" s="52"/>
-      <c r="D10" s="53"/>
+      <c r="A10" s="101"/>
+      <c r="B10" s="100"/>
+      <c r="C10" s="108"/>
+      <c r="D10" s="109"/>
       <c r="E10" s="9" t="s">
         <v>398</v>
       </c>
@@ -44289,10 +44283,10 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="82"/>
-      <c r="B11" s="81"/>
-      <c r="C11" s="52"/>
-      <c r="D11" s="53"/>
+      <c r="A11" s="101"/>
+      <c r="B11" s="100"/>
+      <c r="C11" s="108"/>
+      <c r="D11" s="109"/>
       <c r="E11" s="9" t="s">
         <v>399</v>
       </c>
@@ -44301,10 +44295,10 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="82"/>
-      <c r="B12" s="81"/>
-      <c r="C12" s="52"/>
-      <c r="D12" s="53"/>
+      <c r="A12" s="101"/>
+      <c r="B12" s="100"/>
+      <c r="C12" s="108"/>
+      <c r="D12" s="109"/>
       <c r="E12" s="9" t="s">
         <v>400</v>
       </c>
@@ -44313,7 +44307,7 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A13" s="82"/>
+      <c r="A13" s="101"/>
       <c r="B13" s="24" t="s">
         <v>5</v>
       </c>
@@ -44327,7 +44321,7 @@
       <c r="F13" s="9"/>
     </row>
     <row r="14" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A14" s="82"/>
+      <c r="A14" s="101"/>
       <c r="B14" s="24" t="s">
         <v>6</v>
       </c>
@@ -44341,7 +44335,7 @@
       <c r="F14" s="9"/>
     </row>
     <row r="15" spans="1:6" ht="34" x14ac:dyDescent="0.2">
-      <c r="A15" s="82"/>
+      <c r="A15" s="101"/>
       <c r="B15" s="24" t="s">
         <v>7</v>
       </c>
@@ -44357,16 +44351,16 @@
       <c r="F15" s="9"/>
     </row>
     <row r="16" spans="1:6" ht="87" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="78" t="s">
+      <c r="A16" s="97" t="s">
         <v>354</v>
       </c>
-      <c r="B16" s="83" t="s">
+      <c r="B16" s="105" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="54" t="s">
+      <c r="C16" s="102" t="s">
         <v>355</v>
       </c>
-      <c r="D16" s="54" t="s">
+      <c r="D16" s="102" t="s">
         <v>67</v>
       </c>
       <c r="E16" s="30" t="s">
@@ -44377,10 +44371,10 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="79"/>
-      <c r="B17" s="84"/>
-      <c r="C17" s="55"/>
-      <c r="D17" s="55"/>
+      <c r="A17" s="98"/>
+      <c r="B17" s="106"/>
+      <c r="C17" s="103"/>
+      <c r="D17" s="103"/>
       <c r="E17" s="30" t="s">
         <v>357</v>
       </c>
@@ -44389,10 +44383,10 @@
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="79"/>
-      <c r="B18" s="84"/>
-      <c r="C18" s="55"/>
-      <c r="D18" s="55"/>
+      <c r="A18" s="98"/>
+      <c r="B18" s="106"/>
+      <c r="C18" s="103"/>
+      <c r="D18" s="103"/>
       <c r="E18" s="30" t="s">
         <v>358</v>
       </c>
@@ -44401,10 +44395,10 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="79"/>
-      <c r="B19" s="85"/>
-      <c r="C19" s="56"/>
-      <c r="D19" s="56"/>
+      <c r="A19" s="98"/>
+      <c r="B19" s="107"/>
+      <c r="C19" s="104"/>
+      <c r="D19" s="104"/>
       <c r="E19" s="30" t="s">
         <v>359</v>
       </c>
@@ -44413,7 +44407,7 @@
       </c>
     </row>
     <row r="20" spans="1:6" ht="34" x14ac:dyDescent="0.2">
-      <c r="A20" s="79"/>
+      <c r="A20" s="98"/>
       <c r="B20" s="31" t="s">
         <v>9</v>
       </c>
@@ -44427,7 +44421,7 @@
       <c r="F20" s="30"/>
     </row>
     <row r="21" spans="1:6" ht="34" x14ac:dyDescent="0.2">
-      <c r="A21" s="79"/>
+      <c r="A21" s="98"/>
       <c r="B21" s="31" t="s">
         <v>10</v>
       </c>
@@ -44441,7 +44435,7 @@
       <c r="F21" s="30"/>
     </row>
     <row r="22" spans="1:6" ht="34" x14ac:dyDescent="0.2">
-      <c r="A22" s="79"/>
+      <c r="A22" s="98"/>
       <c r="B22" s="31" t="s">
         <v>11</v>
       </c>
@@ -44455,7 +44449,7 @@
       <c r="F22" s="30"/>
     </row>
     <row r="23" spans="1:6" ht="51" x14ac:dyDescent="0.2">
-      <c r="A23" s="79"/>
+      <c r="A23" s="98"/>
       <c r="B23" s="31" t="s">
         <v>12</v>
       </c>
@@ -44469,7 +44463,7 @@
       <c r="F23" s="30"/>
     </row>
     <row r="24" spans="1:6" ht="34" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="79"/>
+      <c r="A24" s="98"/>
       <c r="B24" s="31" t="s">
         <v>13</v>
       </c>
@@ -44483,7 +44477,7 @@
       <c r="F24" s="30"/>
     </row>
     <row r="25" spans="1:6" ht="34" x14ac:dyDescent="0.2">
-      <c r="A25" s="80"/>
+      <c r="A25" s="99"/>
       <c r="B25" s="31" t="s">
         <v>14</v>
       </c>
@@ -44497,7 +44491,7 @@
       <c r="F25" s="30"/>
     </row>
     <row r="26" spans="1:6" ht="34" x14ac:dyDescent="0.2">
-      <c r="A26" s="74" t="s">
+      <c r="A26" s="90" t="s">
         <v>353</v>
       </c>
       <c r="B26" s="25" t="s">
@@ -44513,14 +44507,14 @@
       <c r="F26" s="12"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" s="74"/>
-      <c r="B27" s="63" t="s">
+      <c r="A27" s="90"/>
+      <c r="B27" s="93" t="s">
         <v>19</v>
       </c>
-      <c r="C27" s="69" t="s">
+      <c r="C27" s="92" t="s">
         <v>66</v>
       </c>
-      <c r="D27" s="68" t="s">
+      <c r="D27" s="91" t="s">
         <v>67</v>
       </c>
       <c r="E27" s="12" t="s">
@@ -44531,10 +44525,10 @@
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28" s="74"/>
-      <c r="B28" s="63"/>
-      <c r="C28" s="69"/>
-      <c r="D28" s="68"/>
+      <c r="A28" s="90"/>
+      <c r="B28" s="93"/>
+      <c r="C28" s="92"/>
+      <c r="D28" s="91"/>
       <c r="E28" s="12" t="s">
         <v>69</v>
       </c>
@@ -44543,10 +44537,10 @@
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A29" s="74"/>
-      <c r="B29" s="63"/>
-      <c r="C29" s="69"/>
-      <c r="D29" s="68"/>
+      <c r="A29" s="90"/>
+      <c r="B29" s="93"/>
+      <c r="C29" s="92"/>
+      <c r="D29" s="91"/>
       <c r="E29" s="12" t="s">
         <v>70</v>
       </c>
@@ -44555,10 +44549,10 @@
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A30" s="74"/>
-      <c r="B30" s="63"/>
-      <c r="C30" s="69"/>
-      <c r="D30" s="68"/>
+      <c r="A30" s="90"/>
+      <c r="B30" s="93"/>
+      <c r="C30" s="92"/>
+      <c r="D30" s="91"/>
       <c r="E30" s="12" t="s">
         <v>73</v>
       </c>
@@ -44567,10 +44561,10 @@
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A31" s="74"/>
-      <c r="B31" s="63"/>
-      <c r="C31" s="69"/>
-      <c r="D31" s="68"/>
+      <c r="A31" s="90"/>
+      <c r="B31" s="93"/>
+      <c r="C31" s="92"/>
+      <c r="D31" s="91"/>
       <c r="E31" s="12" t="s">
         <v>72</v>
       </c>
@@ -44579,10 +44573,10 @@
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A32" s="74"/>
-      <c r="B32" s="63"/>
-      <c r="C32" s="69"/>
-      <c r="D32" s="68"/>
+      <c r="A32" s="90"/>
+      <c r="B32" s="93"/>
+      <c r="C32" s="92"/>
+      <c r="D32" s="91"/>
       <c r="E32" s="12" t="s">
         <v>71</v>
       </c>
@@ -44591,7 +44585,7 @@
       </c>
     </row>
     <row r="33" spans="1:6" ht="85" x14ac:dyDescent="0.2">
-      <c r="A33" s="74"/>
+      <c r="A33" s="90"/>
       <c r="B33" s="25" t="s">
         <v>20</v>
       </c>
@@ -44605,14 +44599,14 @@
       <c r="F33" s="12"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A34" s="74"/>
-      <c r="B34" s="63" t="s">
+      <c r="A34" s="90"/>
+      <c r="B34" s="93" t="s">
         <v>41</v>
       </c>
-      <c r="C34" s="69" t="s">
+      <c r="C34" s="92" t="s">
         <v>80</v>
       </c>
-      <c r="D34" s="68" t="s">
+      <c r="D34" s="91" t="s">
         <v>53</v>
       </c>
       <c r="E34" s="12" t="s">
@@ -44623,10 +44617,10 @@
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A35" s="74"/>
-      <c r="B35" s="63"/>
-      <c r="C35" s="69"/>
-      <c r="D35" s="68"/>
+      <c r="A35" s="90"/>
+      <c r="B35" s="93"/>
+      <c r="C35" s="92"/>
+      <c r="D35" s="91"/>
       <c r="E35" s="12" t="s">
         <v>82</v>
       </c>
@@ -44635,10 +44629,10 @@
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A36" s="74"/>
-      <c r="B36" s="63"/>
-      <c r="C36" s="69"/>
-      <c r="D36" s="68"/>
+      <c r="A36" s="90"/>
+      <c r="B36" s="93"/>
+      <c r="C36" s="92"/>
+      <c r="D36" s="91"/>
       <c r="E36" s="12" t="s">
         <v>85</v>
       </c>
@@ -44647,10 +44641,10 @@
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A37" s="74"/>
-      <c r="B37" s="63"/>
-      <c r="C37" s="69"/>
-      <c r="D37" s="68"/>
+      <c r="A37" s="90"/>
+      <c r="B37" s="93"/>
+      <c r="C37" s="92"/>
+      <c r="D37" s="91"/>
       <c r="E37" s="12" t="s">
         <v>87</v>
       </c>
@@ -44659,14 +44653,14 @@
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A38" s="74"/>
-      <c r="B38" s="63" t="s">
+      <c r="A38" s="90"/>
+      <c r="B38" s="93" t="s">
         <v>1</v>
       </c>
-      <c r="C38" s="69" t="s">
+      <c r="C38" s="92" t="s">
         <v>104</v>
       </c>
-      <c r="D38" s="68" t="s">
+      <c r="D38" s="91" t="s">
         <v>67</v>
       </c>
       <c r="E38" s="12" t="s">
@@ -44677,10 +44671,10 @@
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A39" s="74"/>
-      <c r="B39" s="63"/>
-      <c r="C39" s="69"/>
-      <c r="D39" s="68"/>
+      <c r="A39" s="90"/>
+      <c r="B39" s="93"/>
+      <c r="C39" s="92"/>
+      <c r="D39" s="91"/>
       <c r="E39" s="12" t="s">
         <v>89</v>
       </c>
@@ -44689,10 +44683,10 @@
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A40" s="74"/>
-      <c r="B40" s="63"/>
-      <c r="C40" s="69"/>
-      <c r="D40" s="68"/>
+      <c r="A40" s="90"/>
+      <c r="B40" s="93"/>
+      <c r="C40" s="92"/>
+      <c r="D40" s="91"/>
       <c r="E40" s="12" t="s">
         <v>91</v>
       </c>
@@ -44701,10 +44695,10 @@
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A41" s="74"/>
-      <c r="B41" s="63"/>
-      <c r="C41" s="69"/>
-      <c r="D41" s="68"/>
+      <c r="A41" s="90"/>
+      <c r="B41" s="93"/>
+      <c r="C41" s="92"/>
+      <c r="D41" s="91"/>
       <c r="E41" s="12" t="s">
         <v>391</v>
       </c>
@@ -44713,10 +44707,10 @@
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A42" s="74"/>
-      <c r="B42" s="63"/>
-      <c r="C42" s="69"/>
-      <c r="D42" s="68"/>
+      <c r="A42" s="90"/>
+      <c r="B42" s="93"/>
+      <c r="C42" s="92"/>
+      <c r="D42" s="91"/>
       <c r="E42" s="12" t="s">
         <v>92</v>
       </c>
@@ -44725,10 +44719,10 @@
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A43" s="74"/>
-      <c r="B43" s="63"/>
-      <c r="C43" s="69"/>
-      <c r="D43" s="68"/>
+      <c r="A43" s="90"/>
+      <c r="B43" s="93"/>
+      <c r="C43" s="92"/>
+      <c r="D43" s="91"/>
       <c r="E43" s="12" t="s">
         <v>93</v>
       </c>
@@ -44737,10 +44731,10 @@
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A44" s="74"/>
-      <c r="B44" s="63"/>
-      <c r="C44" s="69"/>
-      <c r="D44" s="68"/>
+      <c r="A44" s="90"/>
+      <c r="B44" s="93"/>
+      <c r="C44" s="92"/>
+      <c r="D44" s="91"/>
       <c r="E44" s="12" t="s">
         <v>94</v>
       </c>
@@ -44749,10 +44743,10 @@
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A45" s="74"/>
-      <c r="B45" s="63"/>
-      <c r="C45" s="69"/>
-      <c r="D45" s="68"/>
+      <c r="A45" s="90"/>
+      <c r="B45" s="93"/>
+      <c r="C45" s="92"/>
+      <c r="D45" s="91"/>
       <c r="E45" s="12" t="s">
         <v>95</v>
       </c>
@@ -44761,10 +44755,10 @@
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A46" s="74"/>
-      <c r="B46" s="63"/>
-      <c r="C46" s="69"/>
-      <c r="D46" s="68"/>
+      <c r="A46" s="90"/>
+      <c r="B46" s="93"/>
+      <c r="C46" s="92"/>
+      <c r="D46" s="91"/>
       <c r="E46" s="12" t="s">
         <v>96</v>
       </c>
@@ -44773,14 +44767,14 @@
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A47" s="74"/>
-      <c r="B47" s="63" t="s">
+      <c r="A47" s="90"/>
+      <c r="B47" s="93" t="s">
         <v>18</v>
       </c>
-      <c r="C47" s="69" t="s">
+      <c r="C47" s="92" t="s">
         <v>107</v>
       </c>
-      <c r="D47" s="68" t="s">
+      <c r="D47" s="91" t="s">
         <v>67</v>
       </c>
       <c r="E47" s="12" t="s">
@@ -44791,10 +44785,10 @@
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A48" s="74"/>
-      <c r="B48" s="63"/>
-      <c r="C48" s="69"/>
-      <c r="D48" s="68"/>
+      <c r="A48" s="90"/>
+      <c r="B48" s="93"/>
+      <c r="C48" s="92"/>
+      <c r="D48" s="91"/>
       <c r="E48" s="12" t="s">
         <v>109</v>
       </c>
@@ -44803,10 +44797,10 @@
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A49" s="74"/>
-      <c r="B49" s="63"/>
-      <c r="C49" s="69"/>
-      <c r="D49" s="68"/>
+      <c r="A49" s="90"/>
+      <c r="B49" s="93"/>
+      <c r="C49" s="92"/>
+      <c r="D49" s="91"/>
       <c r="E49" s="12" t="s">
         <v>110</v>
       </c>
@@ -44815,10 +44809,10 @@
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A50" s="74"/>
-      <c r="B50" s="63"/>
-      <c r="C50" s="69"/>
-      <c r="D50" s="68"/>
+      <c r="A50" s="90"/>
+      <c r="B50" s="93"/>
+      <c r="C50" s="92"/>
+      <c r="D50" s="91"/>
       <c r="E50" s="12" t="s">
         <v>111</v>
       </c>
@@ -44827,10 +44821,10 @@
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A51" s="74"/>
-      <c r="B51" s="63"/>
-      <c r="C51" s="69"/>
-      <c r="D51" s="68"/>
+      <c r="A51" s="90"/>
+      <c r="B51" s="93"/>
+      <c r="C51" s="92"/>
+      <c r="D51" s="91"/>
       <c r="E51" s="12" t="s">
         <v>112</v>
       </c>
@@ -44839,10 +44833,10 @@
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A52" s="74"/>
-      <c r="B52" s="63"/>
-      <c r="C52" s="69"/>
-      <c r="D52" s="68"/>
+      <c r="A52" s="90"/>
+      <c r="B52" s="93"/>
+      <c r="C52" s="92"/>
+      <c r="D52" s="91"/>
       <c r="E52" s="12" t="s">
         <v>114</v>
       </c>
@@ -44851,10 +44845,10 @@
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A53" s="74"/>
-      <c r="B53" s="63"/>
-      <c r="C53" s="69"/>
-      <c r="D53" s="68"/>
+      <c r="A53" s="90"/>
+      <c r="B53" s="93"/>
+      <c r="C53" s="92"/>
+      <c r="D53" s="91"/>
       <c r="E53" s="12" t="s">
         <v>71</v>
       </c>
@@ -44863,10 +44857,10 @@
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A54" s="74"/>
-      <c r="B54" s="63"/>
-      <c r="C54" s="69"/>
-      <c r="D54" s="68"/>
+      <c r="A54" s="90"/>
+      <c r="B54" s="93"/>
+      <c r="C54" s="92"/>
+      <c r="D54" s="91"/>
       <c r="E54" s="12" t="s">
         <v>113</v>
       </c>
@@ -44875,10 +44869,10 @@
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A55" s="74"/>
-      <c r="B55" s="63"/>
-      <c r="C55" s="69"/>
-      <c r="D55" s="68"/>
+      <c r="A55" s="90"/>
+      <c r="B55" s="93"/>
+      <c r="C55" s="92"/>
+      <c r="D55" s="91"/>
       <c r="E55" s="12" t="s">
         <v>96</v>
       </c>
@@ -44887,7 +44881,7 @@
       </c>
     </row>
     <row r="56" spans="1:6" ht="34" x14ac:dyDescent="0.2">
-      <c r="A56" s="93" t="s">
+      <c r="A56" s="73" t="s">
         <v>124</v>
       </c>
       <c r="B56" s="28" t="s">
@@ -44905,14 +44899,14 @@
       <c r="F56" s="13"/>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A57" s="94"/>
-      <c r="B57" s="71" t="s">
+      <c r="A57" s="74"/>
+      <c r="B57" s="85" t="s">
         <v>22</v>
       </c>
-      <c r="C57" s="70" t="s">
+      <c r="C57" s="84" t="s">
         <v>126</v>
       </c>
-      <c r="D57" s="67" t="s">
+      <c r="D57" s="83" t="s">
         <v>53</v>
       </c>
       <c r="E57" s="13" t="s">
@@ -44921,132 +44915,132 @@
       <c r="F57" s="13"/>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A58" s="94"/>
-      <c r="B58" s="71"/>
-      <c r="C58" s="70"/>
-      <c r="D58" s="67"/>
+      <c r="A58" s="74"/>
+      <c r="B58" s="85"/>
+      <c r="C58" s="84"/>
+      <c r="D58" s="83"/>
       <c r="E58" s="13" t="s">
         <v>130</v>
       </c>
       <c r="F58" s="13"/>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A59" s="94"/>
-      <c r="B59" s="71"/>
-      <c r="C59" s="70"/>
-      <c r="D59" s="67"/>
+      <c r="A59" s="74"/>
+      <c r="B59" s="85"/>
+      <c r="C59" s="84"/>
+      <c r="D59" s="83"/>
       <c r="E59" s="13" t="s">
         <v>129</v>
       </c>
       <c r="F59" s="13"/>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A60" s="94"/>
-      <c r="B60" s="71"/>
-      <c r="C60" s="70"/>
-      <c r="D60" s="67"/>
+      <c r="A60" s="74"/>
+      <c r="B60" s="85"/>
+      <c r="C60" s="84"/>
+      <c r="D60" s="83"/>
       <c r="E60" s="13" t="s">
         <v>127</v>
       </c>
       <c r="F60" s="13"/>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A61" s="94"/>
-      <c r="B61" s="71"/>
-      <c r="C61" s="70"/>
-      <c r="D61" s="67"/>
+      <c r="A61" s="74"/>
+      <c r="B61" s="85"/>
+      <c r="C61" s="84"/>
+      <c r="D61" s="83"/>
       <c r="E61" s="13" t="s">
         <v>132</v>
       </c>
       <c r="F61" s="13"/>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A62" s="94"/>
-      <c r="B62" s="71"/>
-      <c r="C62" s="70"/>
-      <c r="D62" s="67"/>
+      <c r="A62" s="74"/>
+      <c r="B62" s="85"/>
+      <c r="C62" s="84"/>
+      <c r="D62" s="83"/>
       <c r="E62" s="13" t="s">
         <v>128</v>
       </c>
       <c r="F62" s="13"/>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A63" s="94"/>
-      <c r="B63" s="71" t="s">
+      <c r="A63" s="74"/>
+      <c r="B63" s="85" t="s">
         <v>23</v>
       </c>
-      <c r="C63" s="70" t="s">
+      <c r="C63" s="84" t="s">
         <v>147</v>
       </c>
-      <c r="D63" s="67" t="s">
+      <c r="D63" s="83" t="s">
         <v>53</v>
       </c>
       <c r="E63" s="13" t="s">
         <v>133</v>
       </c>
-      <c r="F63" s="86" t="e" vm="1">
+      <c r="F63" s="82" t="e" vm="1">
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A64" s="94"/>
-      <c r="B64" s="71"/>
-      <c r="C64" s="70"/>
-      <c r="D64" s="67"/>
+      <c r="A64" s="74"/>
+      <c r="B64" s="85"/>
+      <c r="C64" s="84"/>
+      <c r="D64" s="83"/>
       <c r="E64" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="F64" s="86"/>
+      <c r="F64" s="82"/>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A65" s="94"/>
-      <c r="B65" s="71"/>
-      <c r="C65" s="70"/>
-      <c r="D65" s="67"/>
+      <c r="A65" s="74"/>
+      <c r="B65" s="85"/>
+      <c r="C65" s="84"/>
+      <c r="D65" s="83"/>
       <c r="E65" s="13" t="s">
         <v>134</v>
       </c>
-      <c r="F65" s="86"/>
+      <c r="F65" s="82"/>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A66" s="94"/>
-      <c r="B66" s="71"/>
-      <c r="C66" s="70"/>
-      <c r="D66" s="67"/>
+      <c r="A66" s="74"/>
+      <c r="B66" s="85"/>
+      <c r="C66" s="84"/>
+      <c r="D66" s="83"/>
       <c r="E66" s="13" t="s">
         <v>390</v>
       </c>
-      <c r="F66" s="86"/>
+      <c r="F66" s="82"/>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A67" s="94"/>
-      <c r="B67" s="71"/>
-      <c r="C67" s="70"/>
-      <c r="D67" s="67"/>
+      <c r="A67" s="74"/>
+      <c r="B67" s="85"/>
+      <c r="C67" s="84"/>
+      <c r="D67" s="83"/>
       <c r="E67" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="F67" s="86"/>
+      <c r="F67" s="82"/>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A68" s="94"/>
-      <c r="B68" s="71"/>
-      <c r="C68" s="70"/>
-      <c r="D68" s="67"/>
+      <c r="A68" s="74"/>
+      <c r="B68" s="85"/>
+      <c r="C68" s="84"/>
+      <c r="D68" s="83"/>
       <c r="E68" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="F68" s="86"/>
+      <c r="F68" s="82"/>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A69" s="94"/>
-      <c r="B69" s="71" t="s">
+      <c r="A69" s="74"/>
+      <c r="B69" s="85" t="s">
         <v>24</v>
       </c>
-      <c r="C69" s="70" t="s">
+      <c r="C69" s="84" t="s">
         <v>146</v>
       </c>
-      <c r="D69" s="67" t="s">
+      <c r="D69" s="83" t="s">
         <v>53</v>
       </c>
       <c r="E69" s="13" t="s">
@@ -45055,87 +45049,87 @@
       <c r="F69" s="13"/>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A70" s="94"/>
-      <c r="B70" s="71"/>
-      <c r="C70" s="70"/>
-      <c r="D70" s="67"/>
+      <c r="A70" s="74"/>
+      <c r="B70" s="85"/>
+      <c r="C70" s="84"/>
+      <c r="D70" s="83"/>
       <c r="E70" s="15" t="s">
         <v>139</v>
       </c>
       <c r="F70" s="13"/>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A71" s="94"/>
-      <c r="B71" s="71"/>
-      <c r="C71" s="70"/>
-      <c r="D71" s="67"/>
+      <c r="A71" s="74"/>
+      <c r="B71" s="85"/>
+      <c r="C71" s="84"/>
+      <c r="D71" s="83"/>
       <c r="E71" s="13" t="s">
         <v>140</v>
       </c>
       <c r="F71" s="13"/>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A72" s="94"/>
-      <c r="B72" s="71"/>
-      <c r="C72" s="70"/>
-      <c r="D72" s="67"/>
+      <c r="A72" s="74"/>
+      <c r="B72" s="85"/>
+      <c r="C72" s="84"/>
+      <c r="D72" s="83"/>
       <c r="E72" s="13" t="s">
         <v>141</v>
       </c>
       <c r="F72" s="13"/>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A73" s="94"/>
-      <c r="B73" s="71"/>
-      <c r="C73" s="70"/>
-      <c r="D73" s="67"/>
+      <c r="A73" s="74"/>
+      <c r="B73" s="85"/>
+      <c r="C73" s="84"/>
+      <c r="D73" s="83"/>
       <c r="E73" s="13" t="s">
         <v>143</v>
       </c>
       <c r="F73" s="13"/>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A74" s="94"/>
-      <c r="B74" s="71"/>
-      <c r="C74" s="70"/>
-      <c r="D74" s="67"/>
+      <c r="A74" s="74"/>
+      <c r="B74" s="85"/>
+      <c r="C74" s="84"/>
+      <c r="D74" s="83"/>
       <c r="E74" s="13" t="s">
         <v>142</v>
       </c>
       <c r="F74" s="13"/>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A75" s="94"/>
-      <c r="B75" s="71"/>
-      <c r="C75" s="70"/>
-      <c r="D75" s="67"/>
+      <c r="A75" s="74"/>
+      <c r="B75" s="85"/>
+      <c r="C75" s="84"/>
+      <c r="D75" s="83"/>
       <c r="E75" s="13" t="s">
         <v>144</v>
       </c>
       <c r="F75" s="13"/>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A76" s="94"/>
-      <c r="B76" s="71"/>
-      <c r="C76" s="70"/>
-      <c r="D76" s="67"/>
+      <c r="A76" s="74"/>
+      <c r="B76" s="85"/>
+      <c r="C76" s="84"/>
+      <c r="D76" s="83"/>
       <c r="E76" s="13" t="s">
         <v>145</v>
       </c>
       <c r="F76" s="13"/>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A77" s="94"/>
-      <c r="B77" s="71"/>
-      <c r="C77" s="70"/>
-      <c r="D77" s="67"/>
+      <c r="A77" s="74"/>
+      <c r="B77" s="85"/>
+      <c r="C77" s="84"/>
+      <c r="D77" s="83"/>
       <c r="E77" s="13" t="s">
         <v>372</v>
       </c>
       <c r="F77" s="13"/>
     </row>
     <row r="78" spans="1:6" ht="51" x14ac:dyDescent="0.2">
-      <c r="A78" s="98" t="s">
+      <c r="A78" s="78" t="s">
         <v>148</v>
       </c>
       <c r="B78" s="26" t="s">
@@ -45151,7 +45145,7 @@
       <c r="F78" s="16"/>
     </row>
     <row r="79" spans="1:6" ht="51" x14ac:dyDescent="0.2">
-      <c r="A79" s="98"/>
+      <c r="A79" s="78"/>
       <c r="B79" s="26" t="s">
         <v>30</v>
       </c>
@@ -45165,7 +45159,7 @@
       <c r="F79" s="16"/>
     </row>
     <row r="80" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A80" s="98"/>
+      <c r="A80" s="78"/>
       <c r="B80" s="26" t="s">
         <v>25</v>
       </c>
@@ -45179,7 +45173,7 @@
       <c r="F80" s="16"/>
     </row>
     <row r="81" spans="1:6" ht="85" x14ac:dyDescent="0.2">
-      <c r="A81" s="98"/>
+      <c r="A81" s="78"/>
       <c r="B81" s="26" t="s">
         <v>26</v>
       </c>
@@ -45193,14 +45187,14 @@
       <c r="F81" s="16"/>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A82" s="98"/>
-      <c r="B82" s="97" t="s">
+      <c r="A82" s="78"/>
+      <c r="B82" s="77" t="s">
         <v>27</v>
       </c>
-      <c r="C82" s="96" t="s">
+      <c r="C82" s="76" t="s">
         <v>168</v>
       </c>
-      <c r="D82" s="95" t="s">
+      <c r="D82" s="75" t="s">
         <v>53</v>
       </c>
       <c r="E82" s="16" t="s">
@@ -45211,10 +45205,10 @@
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A83" s="98"/>
-      <c r="B83" s="97"/>
-      <c r="C83" s="96"/>
-      <c r="D83" s="95"/>
+      <c r="A83" s="78"/>
+      <c r="B83" s="77"/>
+      <c r="C83" s="76"/>
+      <c r="D83" s="75"/>
       <c r="E83" s="16" t="s">
         <v>369</v>
       </c>
@@ -45223,10 +45217,10 @@
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A84" s="98"/>
-      <c r="B84" s="97"/>
-      <c r="C84" s="96"/>
-      <c r="D84" s="95"/>
+      <c r="A84" s="78"/>
+      <c r="B84" s="77"/>
+      <c r="C84" s="76"/>
+      <c r="D84" s="75"/>
       <c r="E84" s="16" t="s">
         <v>156</v>
       </c>
@@ -45235,10 +45229,10 @@
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A85" s="98"/>
-      <c r="B85" s="97"/>
-      <c r="C85" s="96"/>
-      <c r="D85" s="95"/>
+      <c r="A85" s="78"/>
+      <c r="B85" s="77"/>
+      <c r="C85" s="76"/>
+      <c r="D85" s="75"/>
       <c r="E85" s="16" t="s">
         <v>157</v>
       </c>
@@ -45247,10 +45241,10 @@
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A86" s="98"/>
-      <c r="B86" s="97"/>
-      <c r="C86" s="96"/>
-      <c r="D86" s="95"/>
+      <c r="A86" s="78"/>
+      <c r="B86" s="77"/>
+      <c r="C86" s="76"/>
+      <c r="D86" s="75"/>
       <c r="E86" s="16" t="s">
         <v>158</v>
       </c>
@@ -45259,10 +45253,10 @@
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A87" s="98"/>
-      <c r="B87" s="97"/>
-      <c r="C87" s="96"/>
-      <c r="D87" s="95"/>
+      <c r="A87" s="78"/>
+      <c r="B87" s="77"/>
+      <c r="C87" s="76"/>
+      <c r="D87" s="75"/>
       <c r="E87" s="16" t="s">
         <v>163</v>
       </c>
@@ -45271,10 +45265,10 @@
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A88" s="98"/>
-      <c r="B88" s="97"/>
-      <c r="C88" s="96"/>
-      <c r="D88" s="95"/>
+      <c r="A88" s="78"/>
+      <c r="B88" s="77"/>
+      <c r="C88" s="76"/>
+      <c r="D88" s="75"/>
       <c r="E88" s="16" t="s">
         <v>71</v>
       </c>
@@ -45283,10 +45277,10 @@
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A89" s="98"/>
-      <c r="B89" s="97"/>
-      <c r="C89" s="96"/>
-      <c r="D89" s="95"/>
+      <c r="A89" s="78"/>
+      <c r="B89" s="77"/>
+      <c r="C89" s="76"/>
+      <c r="D89" s="75"/>
       <c r="E89" s="16" t="s">
         <v>159</v>
       </c>
@@ -45295,14 +45289,14 @@
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A90" s="98"/>
-      <c r="B90" s="97" t="s">
+      <c r="A90" s="78"/>
+      <c r="B90" s="77" t="s">
         <v>29</v>
       </c>
-      <c r="C90" s="64" t="s">
+      <c r="C90" s="79" t="s">
         <v>167</v>
       </c>
-      <c r="D90" s="64" t="s">
+      <c r="D90" s="79" t="s">
         <v>67</v>
       </c>
       <c r="E90" s="16" t="s">
@@ -45313,10 +45307,10 @@
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A91" s="98"/>
-      <c r="B91" s="97"/>
-      <c r="C91" s="65"/>
-      <c r="D91" s="65"/>
+      <c r="A91" s="78"/>
+      <c r="B91" s="77"/>
+      <c r="C91" s="80"/>
+      <c r="D91" s="80"/>
       <c r="E91" s="16" t="s">
         <v>170</v>
       </c>
@@ -45325,10 +45319,10 @@
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A92" s="98"/>
-      <c r="B92" s="97"/>
-      <c r="C92" s="65"/>
-      <c r="D92" s="65"/>
+      <c r="A92" s="78"/>
+      <c r="B92" s="77"/>
+      <c r="C92" s="80"/>
+      <c r="D92" s="80"/>
       <c r="E92" s="16" t="s">
         <v>172</v>
       </c>
@@ -45337,10 +45331,10 @@
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A93" s="98"/>
-      <c r="B93" s="97"/>
-      <c r="C93" s="66"/>
-      <c r="D93" s="66"/>
+      <c r="A93" s="78"/>
+      <c r="B93" s="77"/>
+      <c r="C93" s="81"/>
+      <c r="D93" s="81"/>
       <c r="E93" s="16" t="s">
         <v>173</v>
       </c>
@@ -45349,7 +45343,7 @@
       </c>
     </row>
     <row r="94" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A94" s="98"/>
+      <c r="A94" s="78"/>
       <c r="B94" s="26" t="s">
         <v>178</v>
       </c>
@@ -45363,7 +45357,7 @@
       <c r="F94" s="16"/>
     </row>
     <row r="95" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A95" s="98"/>
+      <c r="A95" s="78"/>
       <c r="B95" s="26" t="s">
         <v>177</v>
       </c>
@@ -45377,14 +45371,14 @@
       <c r="F95" s="16"/>
     </row>
     <row r="96" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="98"/>
-      <c r="B96" s="97" t="s">
+      <c r="A96" s="78"/>
+      <c r="B96" s="77" t="s">
         <v>28</v>
       </c>
-      <c r="C96" s="96" t="s">
+      <c r="C96" s="76" t="s">
         <v>182</v>
       </c>
-      <c r="D96" s="95" t="s">
+      <c r="D96" s="75" t="s">
         <v>53</v>
       </c>
       <c r="E96" s="16" t="s">
@@ -45395,10 +45389,10 @@
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A97" s="98"/>
-      <c r="B97" s="97"/>
-      <c r="C97" s="96"/>
-      <c r="D97" s="95"/>
+      <c r="A97" s="78"/>
+      <c r="B97" s="77"/>
+      <c r="C97" s="76"/>
+      <c r="D97" s="75"/>
       <c r="E97" s="16" t="s">
         <v>184</v>
       </c>
@@ -45407,10 +45401,10 @@
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A98" s="98"/>
-      <c r="B98" s="97"/>
-      <c r="C98" s="96"/>
-      <c r="D98" s="95"/>
+      <c r="A98" s="78"/>
+      <c r="B98" s="77"/>
+      <c r="C98" s="76"/>
+      <c r="D98" s="75"/>
       <c r="E98" s="16" t="s">
         <v>185</v>
       </c>
@@ -45419,10 +45413,10 @@
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A99" s="98"/>
-      <c r="B99" s="97"/>
-      <c r="C99" s="96"/>
-      <c r="D99" s="95"/>
+      <c r="A99" s="78"/>
+      <c r="B99" s="77"/>
+      <c r="C99" s="76"/>
+      <c r="D99" s="75"/>
       <c r="E99" s="16" t="s">
         <v>71</v>
       </c>
@@ -45431,14 +45425,14 @@
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A100" s="98"/>
-      <c r="B100" s="97" t="s">
+      <c r="A100" s="78"/>
+      <c r="B100" s="77" t="s">
         <v>189</v>
       </c>
-      <c r="C100" s="96" t="s">
+      <c r="C100" s="76" t="s">
         <v>200</v>
       </c>
-      <c r="D100" s="95" t="s">
+      <c r="D100" s="75" t="s">
         <v>67</v>
       </c>
       <c r="E100" s="16" t="s">
@@ -45449,10 +45443,10 @@
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A101" s="98"/>
-      <c r="B101" s="97"/>
-      <c r="C101" s="96"/>
-      <c r="D101" s="95"/>
+      <c r="A101" s="78"/>
+      <c r="B101" s="77"/>
+      <c r="C101" s="76"/>
+      <c r="D101" s="75"/>
       <c r="E101" s="16" t="s">
         <v>192</v>
       </c>
@@ -45461,10 +45455,10 @@
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A102" s="98"/>
-      <c r="B102" s="97"/>
-      <c r="C102" s="96"/>
-      <c r="D102" s="95"/>
+      <c r="A102" s="78"/>
+      <c r="B102" s="77"/>
+      <c r="C102" s="76"/>
+      <c r="D102" s="75"/>
       <c r="E102" s="16" t="s">
         <v>381</v>
       </c>
@@ -45473,10 +45467,10 @@
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A103" s="98"/>
-      <c r="B103" s="97"/>
-      <c r="C103" s="96"/>
-      <c r="D103" s="95"/>
+      <c r="A103" s="78"/>
+      <c r="B103" s="77"/>
+      <c r="C103" s="76"/>
+      <c r="D103" s="75"/>
       <c r="E103" s="16" t="s">
         <v>194</v>
       </c>
@@ -45485,10 +45479,10 @@
       </c>
     </row>
     <row r="104" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="98"/>
-      <c r="B104" s="97"/>
-      <c r="C104" s="96"/>
-      <c r="D104" s="95"/>
+      <c r="A104" s="78"/>
+      <c r="B104" s="77"/>
+      <c r="C104" s="76"/>
+      <c r="D104" s="75"/>
       <c r="E104" s="16" t="s">
         <v>196</v>
       </c>
@@ -45497,10 +45491,10 @@
       </c>
     </row>
     <row r="105" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A105" s="98"/>
-      <c r="B105" s="97"/>
-      <c r="C105" s="96"/>
-      <c r="D105" s="95"/>
+      <c r="A105" s="78"/>
+      <c r="B105" s="77"/>
+      <c r="C105" s="76"/>
+      <c r="D105" s="75"/>
       <c r="E105" s="16" t="s">
         <v>309</v>
       </c>
@@ -45509,10 +45503,10 @@
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A106" s="98"/>
-      <c r="B106" s="97"/>
-      <c r="C106" s="96"/>
-      <c r="D106" s="95"/>
+      <c r="A106" s="78"/>
+      <c r="B106" s="77"/>
+      <c r="C106" s="76"/>
+      <c r="D106" s="75"/>
       <c r="E106" s="16" t="s">
         <v>198</v>
       </c>
@@ -45521,7 +45515,7 @@
       </c>
     </row>
     <row r="107" spans="1:6" ht="51" x14ac:dyDescent="0.2">
-      <c r="A107" s="102" t="s">
+      <c r="A107" s="63" t="s">
         <v>34</v>
       </c>
       <c r="B107" s="27" t="s">
@@ -45537,14 +45531,14 @@
       <c r="F107" s="19"/>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A108" s="102"/>
-      <c r="B108" s="103" t="s">
+      <c r="A108" s="63"/>
+      <c r="B108" s="64" t="s">
         <v>201</v>
       </c>
-      <c r="C108" s="106" t="s">
+      <c r="C108" s="67" t="s">
         <v>203</v>
       </c>
-      <c r="D108" s="89" t="s">
+      <c r="D108" s="86" t="s">
         <v>53</v>
       </c>
       <c r="E108" s="19" t="s">
@@ -45555,10 +45549,10 @@
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A109" s="102"/>
-      <c r="B109" s="104"/>
-      <c r="C109" s="107"/>
-      <c r="D109" s="90"/>
+      <c r="A109" s="63"/>
+      <c r="B109" s="65"/>
+      <c r="C109" s="68"/>
+      <c r="D109" s="87"/>
       <c r="E109" s="19" t="s">
         <v>205</v>
       </c>
@@ -45567,10 +45561,10 @@
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A110" s="102"/>
-      <c r="B110" s="104"/>
-      <c r="C110" s="107"/>
-      <c r="D110" s="90"/>
+      <c r="A110" s="63"/>
+      <c r="B110" s="65"/>
+      <c r="C110" s="68"/>
+      <c r="D110" s="87"/>
       <c r="E110" s="19" t="s">
         <v>210</v>
       </c>
@@ -45579,10 +45573,10 @@
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A111" s="102"/>
-      <c r="B111" s="104"/>
-      <c r="C111" s="107"/>
-      <c r="D111" s="90"/>
+      <c r="A111" s="63"/>
+      <c r="B111" s="65"/>
+      <c r="C111" s="68"/>
+      <c r="D111" s="87"/>
       <c r="E111" s="19" t="s">
         <v>212</v>
       </c>
@@ -45591,10 +45585,10 @@
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A112" s="102"/>
-      <c r="B112" s="104"/>
-      <c r="C112" s="107"/>
-      <c r="D112" s="90"/>
+      <c r="A112" s="63"/>
+      <c r="B112" s="65"/>
+      <c r="C112" s="68"/>
+      <c r="D112" s="87"/>
       <c r="E112" s="19" t="s">
         <v>208</v>
       </c>
@@ -45603,10 +45597,10 @@
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A113" s="102"/>
-      <c r="B113" s="104"/>
-      <c r="C113" s="107"/>
-      <c r="D113" s="90"/>
+      <c r="A113" s="63"/>
+      <c r="B113" s="65"/>
+      <c r="C113" s="68"/>
+      <c r="D113" s="87"/>
       <c r="E113" s="19" t="s">
         <v>213</v>
       </c>
@@ -45615,10 +45609,10 @@
       </c>
     </row>
     <row r="114" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A114" s="102"/>
-      <c r="B114" s="104"/>
-      <c r="C114" s="107"/>
-      <c r="D114" s="90"/>
+      <c r="A114" s="63"/>
+      <c r="B114" s="65"/>
+      <c r="C114" s="68"/>
+      <c r="D114" s="87"/>
       <c r="E114" s="19" t="s">
         <v>215</v>
       </c>
@@ -45627,10 +45621,10 @@
       </c>
     </row>
     <row r="115" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A115" s="102"/>
-      <c r="B115" s="105"/>
-      <c r="C115" s="108"/>
-      <c r="D115" s="91"/>
+      <c r="A115" s="63"/>
+      <c r="B115" s="66"/>
+      <c r="C115" s="69"/>
+      <c r="D115" s="88"/>
       <c r="E115" s="19" t="s">
         <v>388</v>
       </c>
@@ -45639,7 +45633,7 @@
       </c>
     </row>
     <row r="116" spans="1:7" ht="85" x14ac:dyDescent="0.2">
-      <c r="A116" s="102"/>
+      <c r="A116" s="63"/>
       <c r="B116" s="27" t="s">
         <v>34</v>
       </c>
@@ -45653,14 +45647,14 @@
       <c r="F116" s="19"/>
     </row>
     <row r="117" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A117" s="102"/>
-      <c r="B117" s="88" t="s">
+      <c r="A117" s="63"/>
+      <c r="B117" s="70" t="s">
         <v>218</v>
       </c>
-      <c r="C117" s="92" t="s">
+      <c r="C117" s="56" t="s">
         <v>281</v>
       </c>
-      <c r="D117" s="87" t="s">
+      <c r="D117" s="72" t="s">
         <v>53</v>
       </c>
       <c r="E117" s="19" t="s">
@@ -45672,10 +45666,10 @@
       <c r="G117" s="21"/>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A118" s="102"/>
-      <c r="B118" s="88"/>
-      <c r="C118" s="92"/>
-      <c r="D118" s="87"/>
+      <c r="A118" s="63"/>
+      <c r="B118" s="70"/>
+      <c r="C118" s="56"/>
+      <c r="D118" s="72"/>
       <c r="E118" s="19" t="s">
         <v>239</v>
       </c>
@@ -45685,10 +45679,10 @@
       <c r="G118" s="21"/>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A119" s="102"/>
-      <c r="B119" s="88"/>
-      <c r="C119" s="92"/>
-      <c r="D119" s="87"/>
+      <c r="A119" s="63"/>
+      <c r="B119" s="70"/>
+      <c r="C119" s="56"/>
+      <c r="D119" s="72"/>
       <c r="E119" s="19" t="s">
         <v>240</v>
       </c>
@@ -45698,10 +45692,10 @@
       <c r="G119" s="21"/>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A120" s="102"/>
-      <c r="B120" s="88"/>
-      <c r="C120" s="92"/>
-      <c r="D120" s="87"/>
+      <c r="A120" s="63"/>
+      <c r="B120" s="70"/>
+      <c r="C120" s="56"/>
+      <c r="D120" s="72"/>
       <c r="E120" s="19" t="s">
         <v>440</v>
       </c>
@@ -45711,10 +45705,10 @@
       <c r="G120" s="21"/>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A121" s="102"/>
-      <c r="B121" s="88"/>
-      <c r="C121" s="92"/>
-      <c r="D121" s="87"/>
+      <c r="A121" s="63"/>
+      <c r="B121" s="70"/>
+      <c r="C121" s="56"/>
+      <c r="D121" s="72"/>
       <c r="E121" s="19" t="s">
         <v>241</v>
       </c>
@@ -45724,10 +45718,10 @@
       <c r="G121" s="21"/>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A122" s="102"/>
-      <c r="B122" s="88"/>
-      <c r="C122" s="92"/>
-      <c r="D122" s="87"/>
+      <c r="A122" s="63"/>
+      <c r="B122" s="70"/>
+      <c r="C122" s="56"/>
+      <c r="D122" s="72"/>
       <c r="E122" s="19" t="s">
         <v>242</v>
       </c>
@@ -45737,10 +45731,10 @@
       <c r="G122" s="21"/>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A123" s="102"/>
-      <c r="B123" s="88"/>
-      <c r="C123" s="92"/>
-      <c r="D123" s="87"/>
+      <c r="A123" s="63"/>
+      <c r="B123" s="70"/>
+      <c r="C123" s="56"/>
+      <c r="D123" s="72"/>
       <c r="E123" s="19" t="s">
         <v>243</v>
       </c>
@@ -45750,10 +45744,10 @@
       <c r="G123" s="21"/>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A124" s="102"/>
-      <c r="B124" s="88"/>
-      <c r="C124" s="92"/>
-      <c r="D124" s="87"/>
+      <c r="A124" s="63"/>
+      <c r="B124" s="70"/>
+      <c r="C124" s="56"/>
+      <c r="D124" s="72"/>
       <c r="E124" s="19" t="s">
         <v>409</v>
       </c>
@@ -45763,10 +45757,10 @@
       <c r="G124" s="21"/>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A125" s="102"/>
-      <c r="B125" s="88"/>
-      <c r="C125" s="92"/>
-      <c r="D125" s="87"/>
+      <c r="A125" s="63"/>
+      <c r="B125" s="70"/>
+      <c r="C125" s="56"/>
+      <c r="D125" s="72"/>
       <c r="E125" s="19" t="s">
         <v>244</v>
       </c>
@@ -45776,10 +45770,10 @@
       <c r="G125" s="21"/>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A126" s="102"/>
-      <c r="B126" s="88"/>
-      <c r="C126" s="92"/>
-      <c r="D126" s="87"/>
+      <c r="A126" s="63"/>
+      <c r="B126" s="70"/>
+      <c r="C126" s="56"/>
+      <c r="D126" s="72"/>
       <c r="E126" s="19" t="s">
         <v>407</v>
       </c>
@@ -45789,10 +45783,10 @@
       <c r="G126" s="21"/>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A127" s="102"/>
-      <c r="B127" s="88"/>
-      <c r="C127" s="92"/>
-      <c r="D127" s="87"/>
+      <c r="A127" s="63"/>
+      <c r="B127" s="70"/>
+      <c r="C127" s="56"/>
+      <c r="D127" s="72"/>
       <c r="E127" s="19" t="s">
         <v>245</v>
       </c>
@@ -45802,10 +45796,10 @@
       <c r="G127" s="21"/>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A128" s="102"/>
-      <c r="B128" s="88"/>
-      <c r="C128" s="92"/>
-      <c r="D128" s="87"/>
+      <c r="A128" s="63"/>
+      <c r="B128" s="70"/>
+      <c r="C128" s="56"/>
+      <c r="D128" s="72"/>
       <c r="E128" s="19" t="s">
         <v>246</v>
       </c>
@@ -45815,10 +45809,10 @@
       <c r="G128" s="21"/>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A129" s="102"/>
-      <c r="B129" s="88"/>
-      <c r="C129" s="92"/>
-      <c r="D129" s="87"/>
+      <c r="A129" s="63"/>
+      <c r="B129" s="70"/>
+      <c r="C129" s="56"/>
+      <c r="D129" s="72"/>
       <c r="E129" s="19" t="s">
         <v>247</v>
       </c>
@@ -45828,10 +45822,10 @@
       <c r="G129" s="21"/>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A130" s="102"/>
-      <c r="B130" s="88"/>
-      <c r="C130" s="92"/>
-      <c r="D130" s="87"/>
+      <c r="A130" s="63"/>
+      <c r="B130" s="70"/>
+      <c r="C130" s="56"/>
+      <c r="D130" s="72"/>
       <c r="E130" s="19" t="s">
         <v>387</v>
       </c>
@@ -45841,10 +45835,10 @@
       <c r="G130" s="21"/>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A131" s="102"/>
-      <c r="B131" s="88"/>
-      <c r="C131" s="92"/>
-      <c r="D131" s="87"/>
+      <c r="A131" s="63"/>
+      <c r="B131" s="70"/>
+      <c r="C131" s="56"/>
+      <c r="D131" s="72"/>
       <c r="E131" s="19" t="s">
         <v>248</v>
       </c>
@@ -45854,10 +45848,10 @@
       <c r="G131" s="21"/>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A132" s="102"/>
-      <c r="B132" s="88"/>
-      <c r="C132" s="92"/>
-      <c r="D132" s="87"/>
+      <c r="A132" s="63"/>
+      <c r="B132" s="70"/>
+      <c r="C132" s="56"/>
+      <c r="D132" s="72"/>
       <c r="E132" s="19" t="s">
         <v>234</v>
       </c>
@@ -45867,10 +45861,10 @@
       <c r="G132" s="21"/>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A133" s="102"/>
-      <c r="B133" s="88"/>
-      <c r="C133" s="92"/>
-      <c r="D133" s="87"/>
+      <c r="A133" s="63"/>
+      <c r="B133" s="70"/>
+      <c r="C133" s="56"/>
+      <c r="D133" s="72"/>
       <c r="E133" s="19" t="s">
         <v>249</v>
       </c>
@@ -45880,10 +45874,10 @@
       <c r="G133" s="21"/>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A134" s="102"/>
-      <c r="B134" s="88"/>
-      <c r="C134" s="92"/>
-      <c r="D134" s="87"/>
+      <c r="A134" s="63"/>
+      <c r="B134" s="70"/>
+      <c r="C134" s="56"/>
+      <c r="D134" s="72"/>
       <c r="E134" s="19" t="s">
         <v>250</v>
       </c>
@@ -45893,10 +45887,10 @@
       <c r="G134" s="21"/>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A135" s="102"/>
-      <c r="B135" s="88"/>
-      <c r="C135" s="92"/>
-      <c r="D135" s="87"/>
+      <c r="A135" s="63"/>
+      <c r="B135" s="70"/>
+      <c r="C135" s="56"/>
+      <c r="D135" s="72"/>
       <c r="E135" s="19" t="s">
         <v>251</v>
       </c>
@@ -45906,10 +45900,10 @@
       <c r="G135" s="21"/>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A136" s="102"/>
-      <c r="B136" s="88"/>
-      <c r="C136" s="92"/>
-      <c r="D136" s="87"/>
+      <c r="A136" s="63"/>
+      <c r="B136" s="70"/>
+      <c r="C136" s="56"/>
+      <c r="D136" s="72"/>
       <c r="E136" s="19" t="s">
         <v>252</v>
       </c>
@@ -45919,10 +45913,10 @@
       <c r="G136" s="21"/>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A137" s="102"/>
-      <c r="B137" s="88"/>
-      <c r="C137" s="92"/>
-      <c r="D137" s="87"/>
+      <c r="A137" s="63"/>
+      <c r="B137" s="70"/>
+      <c r="C137" s="56"/>
+      <c r="D137" s="72"/>
       <c r="E137" s="19" t="s">
         <v>253</v>
       </c>
@@ -45932,10 +45926,10 @@
       <c r="G137" s="21"/>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A138" s="102"/>
-      <c r="B138" s="88"/>
-      <c r="C138" s="92"/>
-      <c r="D138" s="87"/>
+      <c r="A138" s="63"/>
+      <c r="B138" s="70"/>
+      <c r="C138" s="56"/>
+      <c r="D138" s="72"/>
       <c r="E138" s="19" t="s">
         <v>236</v>
       </c>
@@ -45945,14 +45939,14 @@
       <c r="G138" s="21"/>
     </row>
     <row r="139" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A139" s="102"/>
-      <c r="B139" s="88" t="s">
+      <c r="A139" s="63"/>
+      <c r="B139" s="70" t="s">
         <v>254</v>
       </c>
-      <c r="C139" s="92" t="s">
+      <c r="C139" s="56" t="s">
         <v>255</v>
       </c>
-      <c r="D139" s="87" t="s">
+      <c r="D139" s="72" t="s">
         <v>53</v>
       </c>
       <c r="E139" s="19" t="s">
@@ -45963,10 +45957,10 @@
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A140" s="102"/>
-      <c r="B140" s="88"/>
-      <c r="C140" s="92"/>
-      <c r="D140" s="87"/>
+      <c r="A140" s="63"/>
+      <c r="B140" s="70"/>
+      <c r="C140" s="56"/>
+      <c r="D140" s="72"/>
       <c r="E140" s="19" t="s">
         <v>258</v>
       </c>
@@ -45975,10 +45969,10 @@
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A141" s="102"/>
-      <c r="B141" s="88"/>
-      <c r="C141" s="92"/>
-      <c r="D141" s="87"/>
+      <c r="A141" s="63"/>
+      <c r="B141" s="70"/>
+      <c r="C141" s="56"/>
+      <c r="D141" s="72"/>
       <c r="E141" s="19" t="s">
         <v>261</v>
       </c>
@@ -45987,10 +45981,10 @@
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A142" s="102"/>
-      <c r="B142" s="88"/>
-      <c r="C142" s="92"/>
-      <c r="D142" s="87"/>
+      <c r="A142" s="63"/>
+      <c r="B142" s="70"/>
+      <c r="C142" s="56"/>
+      <c r="D142" s="72"/>
       <c r="E142" s="19" t="s">
         <v>257</v>
       </c>
@@ -45999,10 +45993,10 @@
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A143" s="102"/>
-      <c r="B143" s="88"/>
-      <c r="C143" s="92"/>
-      <c r="D143" s="87"/>
+      <c r="A143" s="63"/>
+      <c r="B143" s="70"/>
+      <c r="C143" s="56"/>
+      <c r="D143" s="72"/>
       <c r="E143" s="19" t="s">
         <v>231</v>
       </c>
@@ -46011,14 +46005,14 @@
       </c>
     </row>
     <row r="144" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A144" s="102"/>
-      <c r="B144" s="88" t="s">
+      <c r="A144" s="63"/>
+      <c r="B144" s="70" t="s">
         <v>215</v>
       </c>
-      <c r="C144" s="99" t="s">
+      <c r="C144" s="71" t="s">
         <v>263</v>
       </c>
-      <c r="D144" s="87" t="s">
+      <c r="D144" s="72" t="s">
         <v>53</v>
       </c>
       <c r="E144" s="19" t="s">
@@ -46029,10 +46023,10 @@
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A145" s="102"/>
-      <c r="B145" s="88"/>
-      <c r="C145" s="99"/>
-      <c r="D145" s="87"/>
+      <c r="A145" s="63"/>
+      <c r="B145" s="70"/>
+      <c r="C145" s="71"/>
+      <c r="D145" s="72"/>
       <c r="E145" s="19" t="s">
         <v>265</v>
       </c>
@@ -46041,10 +46035,10 @@
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A146" s="102"/>
-      <c r="B146" s="88"/>
-      <c r="C146" s="99"/>
-      <c r="D146" s="87"/>
+      <c r="A146" s="63"/>
+      <c r="B146" s="70"/>
+      <c r="C146" s="71"/>
+      <c r="D146" s="72"/>
       <c r="E146" s="19" t="s">
         <v>266</v>
       </c>
@@ -46053,14 +46047,14 @@
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A147" s="102"/>
-      <c r="B147" s="88" t="s">
+      <c r="A147" s="63"/>
+      <c r="B147" s="70" t="s">
         <v>272</v>
       </c>
-      <c r="C147" s="92" t="s">
+      <c r="C147" s="56" t="s">
         <v>273</v>
       </c>
-      <c r="D147" s="87" t="s">
+      <c r="D147" s="72" t="s">
         <v>53</v>
       </c>
       <c r="E147" s="19" t="s">
@@ -46071,10 +46065,10 @@
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A148" s="102"/>
-      <c r="B148" s="88"/>
-      <c r="C148" s="92"/>
-      <c r="D148" s="87"/>
+      <c r="A148" s="63"/>
+      <c r="B148" s="70"/>
+      <c r="C148" s="56"/>
+      <c r="D148" s="72"/>
       <c r="E148" s="19" t="s">
         <v>278</v>
       </c>
@@ -46083,10 +46077,10 @@
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A149" s="102"/>
-      <c r="B149" s="88"/>
-      <c r="C149" s="92"/>
-      <c r="D149" s="87"/>
+      <c r="A149" s="63"/>
+      <c r="B149" s="70"/>
+      <c r="C149" s="56"/>
+      <c r="D149" s="72"/>
       <c r="E149" s="19" t="s">
         <v>266</v>
       </c>
@@ -46095,10 +46089,10 @@
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A150" s="102"/>
-      <c r="B150" s="88"/>
-      <c r="C150" s="92"/>
-      <c r="D150" s="87"/>
+      <c r="A150" s="63"/>
+      <c r="B150" s="70"/>
+      <c r="C150" s="56"/>
+      <c r="D150" s="72"/>
       <c r="E150" s="19" t="s">
         <v>279</v>
       </c>
@@ -46107,7 +46101,7 @@
       </c>
     </row>
     <row r="151" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A151" s="100" t="s">
+      <c r="A151" s="53" t="s">
         <v>282</v>
       </c>
       <c r="B151" s="60" t="s">
@@ -46127,7 +46121,7 @@
       </c>
     </row>
     <row r="152" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A152" s="100"/>
+      <c r="A152" s="53"/>
       <c r="B152" s="61"/>
       <c r="C152" s="58"/>
       <c r="D152" s="58"/>
@@ -46139,7 +46133,7 @@
       </c>
     </row>
     <row r="153" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A153" s="100"/>
+      <c r="A153" s="53"/>
       <c r="B153" s="61"/>
       <c r="C153" s="58"/>
       <c r="D153" s="58"/>
@@ -46151,7 +46145,7 @@
       </c>
     </row>
     <row r="154" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A154" s="100"/>
+      <c r="A154" s="53"/>
       <c r="B154" s="61"/>
       <c r="C154" s="58"/>
       <c r="D154" s="58"/>
@@ -46163,7 +46157,7 @@
       </c>
     </row>
     <row r="155" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A155" s="100"/>
+      <c r="A155" s="53"/>
       <c r="B155" s="61"/>
       <c r="C155" s="58"/>
       <c r="D155" s="58"/>
@@ -46175,7 +46169,7 @@
       </c>
     </row>
     <row r="156" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A156" s="100"/>
+      <c r="A156" s="53"/>
       <c r="B156" s="61"/>
       <c r="C156" s="58"/>
       <c r="D156" s="58"/>
@@ -46187,7 +46181,7 @@
       </c>
     </row>
     <row r="157" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A157" s="100"/>
+      <c r="A157" s="53"/>
       <c r="B157" s="61"/>
       <c r="C157" s="58"/>
       <c r="D157" s="58"/>
@@ -46199,7 +46193,7 @@
       </c>
     </row>
     <row r="158" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A158" s="100"/>
+      <c r="A158" s="53"/>
       <c r="B158" s="62"/>
       <c r="C158" s="59"/>
       <c r="D158" s="59"/>
@@ -46211,7 +46205,7 @@
       </c>
     </row>
     <row r="159" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A159" s="100"/>
+      <c r="A159" s="53"/>
       <c r="B159" s="60" t="s">
         <v>345</v>
       </c>
@@ -46227,7 +46221,7 @@
       <c r="F159" s="22"/>
     </row>
     <row r="160" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A160" s="100"/>
+      <c r="A160" s="53"/>
       <c r="B160" s="62"/>
       <c r="C160" s="59"/>
       <c r="D160" s="59"/>
@@ -46237,14 +46231,14 @@
       <c r="F160" s="22"/>
     </row>
     <row r="161" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A161" s="100"/>
-      <c r="B161" s="101" t="s">
+      <c r="A161" s="53"/>
+      <c r="B161" s="54" t="s">
         <v>35</v>
       </c>
-      <c r="C161" s="72" t="s">
+      <c r="C161" s="55" t="s">
         <v>349</v>
       </c>
-      <c r="D161" s="72" t="s">
+      <c r="D161" s="55" t="s">
         <v>67</v>
       </c>
       <c r="E161" s="22" t="s">
@@ -46255,10 +46249,10 @@
       </c>
     </row>
     <row r="162" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A162" s="100"/>
-      <c r="B162" s="101"/>
-      <c r="C162" s="72"/>
-      <c r="D162" s="72"/>
+      <c r="A162" s="53"/>
+      <c r="B162" s="54"/>
+      <c r="C162" s="55"/>
+      <c r="D162" s="55"/>
       <c r="E162" s="22" t="s">
         <v>213</v>
       </c>
@@ -46267,10 +46261,10 @@
       </c>
     </row>
     <row r="163" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A163" s="100"/>
-      <c r="B163" s="101"/>
-      <c r="C163" s="72"/>
-      <c r="D163" s="72"/>
+      <c r="A163" s="53"/>
+      <c r="B163" s="54"/>
+      <c r="C163" s="55"/>
+      <c r="D163" s="55"/>
       <c r="E163" s="22" t="s">
         <v>295</v>
       </c>
@@ -46279,7 +46273,7 @@
       </c>
     </row>
     <row r="164" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A164" s="100"/>
+      <c r="A164" s="53"/>
       <c r="B164" s="60" t="s">
         <v>298</v>
       </c>
@@ -46297,7 +46291,7 @@
       </c>
     </row>
     <row r="165" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A165" s="100"/>
+      <c r="A165" s="53"/>
       <c r="B165" s="61"/>
       <c r="C165" s="58"/>
       <c r="D165" s="58"/>
@@ -46309,7 +46303,7 @@
       </c>
     </row>
     <row r="166" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A166" s="100"/>
+      <c r="A166" s="53"/>
       <c r="B166" s="61"/>
       <c r="C166" s="58"/>
       <c r="D166" s="58"/>
@@ -46321,7 +46315,7 @@
       </c>
     </row>
     <row r="167" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A167" s="100"/>
+      <c r="A167" s="53"/>
       <c r="B167" s="61"/>
       <c r="C167" s="58"/>
       <c r="D167" s="58"/>
@@ -46333,7 +46327,7 @@
       </c>
     </row>
     <row r="168" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A168" s="100"/>
+      <c r="A168" s="53"/>
       <c r="B168" s="61"/>
       <c r="C168" s="58"/>
       <c r="D168" s="58"/>
@@ -46345,7 +46339,7 @@
       </c>
     </row>
     <row r="169" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A169" s="100"/>
+      <c r="A169" s="53"/>
       <c r="B169" s="61"/>
       <c r="C169" s="58"/>
       <c r="D169" s="58"/>
@@ -46357,7 +46351,7 @@
       </c>
     </row>
     <row r="170" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A170" s="100"/>
+      <c r="A170" s="53"/>
       <c r="B170" s="61"/>
       <c r="C170" s="58"/>
       <c r="D170" s="58"/>
@@ -46369,7 +46363,7 @@
       </c>
     </row>
     <row r="171" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A171" s="100"/>
+      <c r="A171" s="53"/>
       <c r="B171" s="62"/>
       <c r="C171" s="59"/>
       <c r="D171" s="59"/>
@@ -46381,14 +46375,14 @@
       </c>
     </row>
     <row r="172" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A172" s="100"/>
-      <c r="B172" s="101" t="s">
+      <c r="A172" s="53"/>
+      <c r="B172" s="54" t="s">
         <v>36</v>
       </c>
-      <c r="C172" s="72" t="s">
+      <c r="C172" s="55" t="s">
         <v>300</v>
       </c>
-      <c r="D172" s="72" t="s">
+      <c r="D172" s="55" t="s">
         <v>67</v>
       </c>
       <c r="E172" s="22" t="s">
@@ -46399,10 +46393,10 @@
       </c>
     </row>
     <row r="173" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A173" s="100"/>
-      <c r="B173" s="101"/>
-      <c r="C173" s="72"/>
-      <c r="D173" s="72"/>
+      <c r="A173" s="53"/>
+      <c r="B173" s="54"/>
+      <c r="C173" s="55"/>
+      <c r="D173" s="55"/>
       <c r="E173" s="22" t="s">
         <v>302</v>
       </c>
@@ -46411,10 +46405,10 @@
       </c>
     </row>
     <row r="174" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A174" s="100"/>
-      <c r="B174" s="101"/>
-      <c r="C174" s="72"/>
-      <c r="D174" s="72"/>
+      <c r="A174" s="53"/>
+      <c r="B174" s="54"/>
+      <c r="C174" s="55"/>
+      <c r="D174" s="55"/>
       <c r="E174" s="22" t="s">
         <v>305</v>
       </c>
@@ -46423,10 +46417,10 @@
       </c>
     </row>
     <row r="175" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A175" s="100"/>
-      <c r="B175" s="101"/>
-      <c r="C175" s="72"/>
-      <c r="D175" s="72"/>
+      <c r="A175" s="53"/>
+      <c r="B175" s="54"/>
+      <c r="C175" s="55"/>
+      <c r="D175" s="55"/>
       <c r="E175" s="22" t="s">
         <v>307</v>
       </c>
@@ -46435,10 +46429,10 @@
       </c>
     </row>
     <row r="176" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A176" s="100"/>
-      <c r="B176" s="101"/>
-      <c r="C176" s="72"/>
-      <c r="D176" s="72"/>
+      <c r="A176" s="53"/>
+      <c r="B176" s="54"/>
+      <c r="C176" s="55"/>
+      <c r="D176" s="55"/>
       <c r="E176" s="22" t="s">
         <v>309</v>
       </c>
@@ -46447,10 +46441,10 @@
       </c>
     </row>
     <row r="177" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A177" s="100"/>
-      <c r="B177" s="101"/>
-      <c r="C177" s="72"/>
-      <c r="D177" s="72"/>
+      <c r="A177" s="53"/>
+      <c r="B177" s="54"/>
+      <c r="C177" s="55"/>
+      <c r="D177" s="55"/>
       <c r="E177" s="22" t="s">
         <v>311</v>
       </c>
@@ -46459,10 +46453,10 @@
       </c>
     </row>
     <row r="178" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A178" s="100"/>
-      <c r="B178" s="101"/>
-      <c r="C178" s="72"/>
-      <c r="D178" s="72"/>
+      <c r="A178" s="53"/>
+      <c r="B178" s="54"/>
+      <c r="C178" s="55"/>
+      <c r="D178" s="55"/>
       <c r="E178" s="22" t="s">
         <v>314</v>
       </c>
@@ -46471,10 +46465,10 @@
       </c>
     </row>
     <row r="179" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A179" s="100"/>
-      <c r="B179" s="101"/>
-      <c r="C179" s="72"/>
-      <c r="D179" s="72"/>
+      <c r="A179" s="53"/>
+      <c r="B179" s="54"/>
+      <c r="C179" s="55"/>
+      <c r="D179" s="55"/>
       <c r="E179" s="22" t="s">
         <v>322</v>
       </c>
@@ -46483,10 +46477,10 @@
       </c>
     </row>
     <row r="180" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A180" s="100"/>
-      <c r="B180" s="101"/>
-      <c r="C180" s="72"/>
-      <c r="D180" s="72"/>
+      <c r="A180" s="53"/>
+      <c r="B180" s="54"/>
+      <c r="C180" s="55"/>
+      <c r="D180" s="55"/>
       <c r="E180" s="22" t="s">
         <v>71</v>
       </c>
@@ -46495,7 +46489,7 @@
       </c>
     </row>
     <row r="181" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A181" s="100"/>
+      <c r="A181" s="53"/>
       <c r="B181" s="60" t="s">
         <v>37</v>
       </c>
@@ -46513,7 +46507,7 @@
       </c>
     </row>
     <row r="182" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A182" s="100"/>
+      <c r="A182" s="53"/>
       <c r="B182" s="61"/>
       <c r="C182" s="58"/>
       <c r="D182" s="58"/>
@@ -46525,7 +46519,7 @@
       </c>
     </row>
     <row r="183" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A183" s="100"/>
+      <c r="A183" s="53"/>
       <c r="B183" s="61"/>
       <c r="C183" s="58"/>
       <c r="D183" s="58"/>
@@ -46537,7 +46531,7 @@
       </c>
     </row>
     <row r="184" spans="1:6" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A184" s="100"/>
+      <c r="A184" s="53"/>
       <c r="B184" s="61"/>
       <c r="C184" s="58"/>
       <c r="D184" s="58"/>
@@ -46549,7 +46543,7 @@
       </c>
     </row>
     <row r="185" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A185" s="100"/>
+      <c r="A185" s="53"/>
       <c r="B185" s="61"/>
       <c r="C185" s="58"/>
       <c r="D185" s="58"/>
@@ -46561,7 +46555,7 @@
       </c>
     </row>
     <row r="186" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A186" s="100"/>
+      <c r="A186" s="53"/>
       <c r="B186" s="61"/>
       <c r="C186" s="58"/>
       <c r="D186" s="58"/>
@@ -46573,7 +46567,7 @@
       </c>
     </row>
     <row r="187" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A187" s="100"/>
+      <c r="A187" s="53"/>
       <c r="B187" s="62"/>
       <c r="C187" s="59"/>
       <c r="D187" s="59"/>
@@ -46585,14 +46579,14 @@
       </c>
     </row>
     <row r="188" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A188" s="100"/>
-      <c r="B188" s="101" t="s">
+      <c r="A188" s="53"/>
+      <c r="B188" s="54" t="s">
         <v>38</v>
       </c>
-      <c r="C188" s="72" t="s">
+      <c r="C188" s="55" t="s">
         <v>324</v>
       </c>
-      <c r="D188" s="72" t="s">
+      <c r="D188" s="55" t="s">
         <v>67</v>
       </c>
       <c r="E188" s="22" t="s">
@@ -46603,10 +46597,10 @@
       </c>
     </row>
     <row r="189" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A189" s="100"/>
-      <c r="B189" s="101"/>
-      <c r="C189" s="72"/>
-      <c r="D189" s="72"/>
+      <c r="A189" s="53"/>
+      <c r="B189" s="54"/>
+      <c r="C189" s="55"/>
+      <c r="D189" s="55"/>
       <c r="E189" s="22" t="s">
         <v>413</v>
       </c>
@@ -46615,10 +46609,10 @@
       </c>
     </row>
     <row r="190" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A190" s="100"/>
-      <c r="B190" s="101"/>
-      <c r="C190" s="72"/>
-      <c r="D190" s="72"/>
+      <c r="A190" s="53"/>
+      <c r="B190" s="54"/>
+      <c r="C190" s="55"/>
+      <c r="D190" s="55"/>
       <c r="E190" s="22" t="s">
         <v>386</v>
       </c>
@@ -46627,10 +46621,10 @@
       </c>
     </row>
     <row r="191" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A191" s="100"/>
-      <c r="B191" s="101"/>
-      <c r="C191" s="72"/>
-      <c r="D191" s="72"/>
+      <c r="A191" s="53"/>
+      <c r="B191" s="54"/>
+      <c r="C191" s="55"/>
+      <c r="D191" s="55"/>
       <c r="E191" s="22" t="s">
         <v>326</v>
       </c>
@@ -46639,10 +46633,10 @@
       </c>
     </row>
     <row r="192" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A192" s="100"/>
-      <c r="B192" s="101"/>
-      <c r="C192" s="72"/>
-      <c r="D192" s="72"/>
+      <c r="A192" s="53"/>
+      <c r="B192" s="54"/>
+      <c r="C192" s="55"/>
+      <c r="D192" s="55"/>
       <c r="E192" s="22" t="s">
         <v>327</v>
       </c>
@@ -46651,10 +46645,10 @@
       </c>
     </row>
     <row r="193" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A193" s="100"/>
-      <c r="B193" s="101"/>
-      <c r="C193" s="72"/>
-      <c r="D193" s="72"/>
+      <c r="A193" s="53"/>
+      <c r="B193" s="54"/>
+      <c r="C193" s="55"/>
+      <c r="D193" s="55"/>
       <c r="E193" s="22" t="s">
         <v>393</v>
       </c>
@@ -46663,10 +46657,10 @@
       </c>
     </row>
     <row r="194" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A194" s="100"/>
-      <c r="B194" s="101"/>
-      <c r="C194" s="72"/>
-      <c r="D194" s="72"/>
+      <c r="A194" s="53"/>
+      <c r="B194" s="54"/>
+      <c r="C194" s="55"/>
+      <c r="D194" s="55"/>
       <c r="E194" s="22" t="s">
         <v>113</v>
       </c>
@@ -46680,6 +46674,75 @@
     <row r="200" spans="1:6" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="85">
+    <mergeCell ref="C8:C12"/>
+    <mergeCell ref="D8:D12"/>
+    <mergeCell ref="D16:D19"/>
+    <mergeCell ref="D164:D171"/>
+    <mergeCell ref="C164:C171"/>
+    <mergeCell ref="B164:B171"/>
+    <mergeCell ref="D159:D160"/>
+    <mergeCell ref="C159:C160"/>
+    <mergeCell ref="B159:B160"/>
+    <mergeCell ref="B27:B32"/>
+    <mergeCell ref="C90:C93"/>
+    <mergeCell ref="D57:D62"/>
+    <mergeCell ref="D34:D37"/>
+    <mergeCell ref="C34:C37"/>
+    <mergeCell ref="B34:B37"/>
+    <mergeCell ref="C57:C62"/>
+    <mergeCell ref="B57:B62"/>
+    <mergeCell ref="D151:D158"/>
+    <mergeCell ref="C151:C158"/>
+    <mergeCell ref="D161:D163"/>
+    <mergeCell ref="B151:B158"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="A26:A55"/>
+    <mergeCell ref="D38:D46"/>
+    <mergeCell ref="D47:D55"/>
+    <mergeCell ref="C38:C46"/>
+    <mergeCell ref="B38:B46"/>
+    <mergeCell ref="C47:C55"/>
+    <mergeCell ref="B47:B55"/>
+    <mergeCell ref="D27:D32"/>
+    <mergeCell ref="C27:C32"/>
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="A16:A25"/>
+    <mergeCell ref="B8:B12"/>
+    <mergeCell ref="A7:A15"/>
+    <mergeCell ref="C16:C19"/>
+    <mergeCell ref="B16:B19"/>
+    <mergeCell ref="F63:F68"/>
+    <mergeCell ref="D63:D68"/>
+    <mergeCell ref="C63:C68"/>
+    <mergeCell ref="B63:B68"/>
+    <mergeCell ref="D117:D138"/>
+    <mergeCell ref="D69:D77"/>
+    <mergeCell ref="C69:C77"/>
+    <mergeCell ref="B69:B77"/>
+    <mergeCell ref="B117:B138"/>
+    <mergeCell ref="D108:D115"/>
+    <mergeCell ref="C117:C138"/>
+    <mergeCell ref="A56:A77"/>
+    <mergeCell ref="D82:D89"/>
+    <mergeCell ref="C82:C89"/>
+    <mergeCell ref="B82:B89"/>
+    <mergeCell ref="A78:A106"/>
+    <mergeCell ref="D96:D99"/>
+    <mergeCell ref="C96:C99"/>
+    <mergeCell ref="B96:B99"/>
+    <mergeCell ref="B90:B93"/>
+    <mergeCell ref="D100:D106"/>
+    <mergeCell ref="C100:C106"/>
+    <mergeCell ref="B100:B106"/>
+    <mergeCell ref="D90:D93"/>
+    <mergeCell ref="B147:B150"/>
+    <mergeCell ref="B144:B146"/>
+    <mergeCell ref="C144:C146"/>
+    <mergeCell ref="D144:D146"/>
+    <mergeCell ref="C139:C143"/>
+    <mergeCell ref="D139:D143"/>
+    <mergeCell ref="B139:B143"/>
+    <mergeCell ref="D147:D150"/>
     <mergeCell ref="A151:A194"/>
     <mergeCell ref="B161:B163"/>
     <mergeCell ref="C161:C163"/>
@@ -46696,75 +46759,6 @@
     <mergeCell ref="A107:A150"/>
     <mergeCell ref="B108:B115"/>
     <mergeCell ref="C108:C115"/>
-    <mergeCell ref="B147:B150"/>
-    <mergeCell ref="B144:B146"/>
-    <mergeCell ref="C144:C146"/>
-    <mergeCell ref="D144:D146"/>
-    <mergeCell ref="C139:C143"/>
-    <mergeCell ref="D139:D143"/>
-    <mergeCell ref="B139:B143"/>
-    <mergeCell ref="D147:D150"/>
-    <mergeCell ref="A56:A77"/>
-    <mergeCell ref="D82:D89"/>
-    <mergeCell ref="C82:C89"/>
-    <mergeCell ref="B82:B89"/>
-    <mergeCell ref="A78:A106"/>
-    <mergeCell ref="D96:D99"/>
-    <mergeCell ref="C96:C99"/>
-    <mergeCell ref="B96:B99"/>
-    <mergeCell ref="B90:B93"/>
-    <mergeCell ref="D100:D106"/>
-    <mergeCell ref="C100:C106"/>
-    <mergeCell ref="B100:B106"/>
-    <mergeCell ref="D90:D93"/>
-    <mergeCell ref="F63:F68"/>
-    <mergeCell ref="D63:D68"/>
-    <mergeCell ref="C63:C68"/>
-    <mergeCell ref="B63:B68"/>
-    <mergeCell ref="D117:D138"/>
-    <mergeCell ref="D69:D77"/>
-    <mergeCell ref="C69:C77"/>
-    <mergeCell ref="B69:B77"/>
-    <mergeCell ref="B117:B138"/>
-    <mergeCell ref="D108:D115"/>
-    <mergeCell ref="C117:C138"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="A26:A55"/>
-    <mergeCell ref="D38:D46"/>
-    <mergeCell ref="D47:D55"/>
-    <mergeCell ref="C38:C46"/>
-    <mergeCell ref="B38:B46"/>
-    <mergeCell ref="C47:C55"/>
-    <mergeCell ref="B47:B55"/>
-    <mergeCell ref="D27:D32"/>
-    <mergeCell ref="C27:C32"/>
-    <mergeCell ref="A3:A6"/>
-    <mergeCell ref="A16:A25"/>
-    <mergeCell ref="B8:B12"/>
-    <mergeCell ref="A7:A15"/>
-    <mergeCell ref="C16:C19"/>
-    <mergeCell ref="B16:B19"/>
-    <mergeCell ref="B164:B171"/>
-    <mergeCell ref="D159:D160"/>
-    <mergeCell ref="C159:C160"/>
-    <mergeCell ref="B159:B160"/>
-    <mergeCell ref="B27:B32"/>
-    <mergeCell ref="C90:C93"/>
-    <mergeCell ref="D57:D62"/>
-    <mergeCell ref="D34:D37"/>
-    <mergeCell ref="C34:C37"/>
-    <mergeCell ref="B34:B37"/>
-    <mergeCell ref="C57:C62"/>
-    <mergeCell ref="B57:B62"/>
-    <mergeCell ref="D151:D158"/>
-    <mergeCell ref="C151:C158"/>
-    <mergeCell ref="D161:D163"/>
-    <mergeCell ref="B151:B158"/>
-    <mergeCell ref="C8:C12"/>
-    <mergeCell ref="D8:D12"/>
-    <mergeCell ref="D16:D19"/>
-    <mergeCell ref="D164:D171"/>
-    <mergeCell ref="C164:C171"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="53" fitToHeight="4" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>

--- a/Spreadsheets/DOM_Spreadsheet.xlsx
+++ b/Spreadsheets/DOM_Spreadsheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/saoirsekelleher/Documents/Research/QAEco/DOM_Review/Spreadsheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CFF9170-6993-E948-A50C-ADA2FFB171F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E79E2AD-09E8-A848-BCBA-B4FFC255402B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-9600" yWindow="-21100" windowWidth="38400" windowHeight="21100" activeTab="5" xr2:uid="{981D9C2C-D510-E947-BD55-27C976277DB6}"/>
+    <workbookView xWindow="-9600" yWindow="-21600" windowWidth="38400" windowHeight="21600" activeTab="5" xr2:uid="{981D9C2C-D510-E947-BD55-27C976277DB6}"/>
   </bookViews>
   <sheets>
     <sheet name="Article Data" sheetId="10" r:id="rId1"/>
@@ -4379,9 +4379,6 @@
     </r>
   </si>
   <si>
-    <t>E-OTHER_SU_D_L, E-PHEN_SU_I_L, E-OBSE_SU_I_L, S-SURV_SU_I_L</t>
-  </si>
-  <si>
     <t>Coupled range dynamics of brood parasites and their hosts responding to climate and vegetation changes</t>
   </si>
   <si>
@@ -5412,6 +5409,9 @@
   </si>
   <si>
     <t>E-HYDR_SI_R_L, E-ANTH_SI_R_L, E-LACO_SI_R_L, E-LACO_SI_R_L, E-HYDR_SI_R_L, E-HYDR_SI_R_L, E-ANTH_SI_R_L, E-ANTH_SI_R_L, E-ANTH_SI_R_L, E-HYDR_SI_R_L, E-HYDR_SI_R_L, E-HYDR_SI_R_L, E-HYDR_SI_R_L, E-HABT_SI_R_L, E-HABT_SI_R_L, E-HYDR_SI_D_L, E-HYDR_SI_D_L, E-HYDR_SI_D_L, S-SEAS_SE_I_L, E-PHEN_SE_I_L, E-PHEN_SE_I_L, E-CLWE_SISE_R_L, E-CLWE_SISE_R_L, E-CLWE_SISE_R_L, E-CLWE_SISE_R_L, E-CLWE_SISE_R_L, E-CLWE_SISE_R_L, E-BIOT_SISE_D_L, E-BIOT_SISE_D_L, E-BIOT_SISE_D_L</t>
+  </si>
+  <si>
+    <t>E-OTHER_SU_D_L, E-PHEN_SU_I_L, S-OBSE_SU_I_L, S-SURV_SU_I_L</t>
   </si>
 </sst>
 </file>
@@ -6033,16 +6033,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6063,53 +6066,8 @@
     <xf numFmtId="0" fontId="10" fillId="14" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -6121,10 +6079,13 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -6132,29 +6093,14 @@
     <xf numFmtId="0" fontId="10" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
@@ -6180,15 +6126,6 @@
     <xf numFmtId="0" fontId="7" fillId="5" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="17" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -6198,11 +6135,74 @@
     <xf numFmtId="0" fontId="10" fillId="17" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -8254,7 +8254,7 @@
         <v>208</v>
       </c>
       <c r="B68" s="38" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="C68" s="38">
         <v>2016</v>
@@ -8263,13 +8263,13 @@
         <v>399</v>
       </c>
       <c r="E68" s="38" t="s">
+        <v>931</v>
+      </c>
+      <c r="F68" s="38" t="s">
         <v>932</v>
       </c>
-      <c r="F68" s="38" t="s">
+      <c r="G68" s="38" t="s">
         <v>933</v>
-      </c>
-      <c r="G68" s="38" t="s">
-        <v>934</v>
       </c>
     </row>
     <row r="69" spans="1:7" ht="68" x14ac:dyDescent="0.2">
@@ -8277,7 +8277,7 @@
         <v>415</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="C69" s="39">
         <v>2022</v>
@@ -8289,7 +8289,7 @@
         <v>546</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="G69" s="39" t="s">
         <v>432</v>
@@ -8300,7 +8300,7 @@
         <v>373</v>
       </c>
       <c r="B70" s="38" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="C70" s="38">
         <v>2008</v>
@@ -8312,7 +8312,7 @@
         <v>804</v>
       </c>
       <c r="F70" s="38" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="G70" s="38" t="s">
         <v>580</v>
@@ -8323,7 +8323,7 @@
         <v>707</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="C71" s="39">
         <v>2012</v>
@@ -8335,7 +8335,7 @@
         <v>665</v>
       </c>
       <c r="F71" s="39" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="G71" s="39" t="s">
         <v>480</v>
@@ -8346,7 +8346,7 @@
         <v>360</v>
       </c>
       <c r="B72" s="38" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="C72" s="38">
         <v>2017</v>
@@ -8358,7 +8358,7 @@
         <v>728</v>
       </c>
       <c r="F72" s="38" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="G72" s="38" t="s">
         <v>432</v>
@@ -8369,7 +8369,7 @@
         <v>315</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="C73" s="39">
         <v>2020</v>
@@ -8378,10 +8378,10 @@
         <v>400</v>
       </c>
       <c r="E73" s="39" t="s">
+        <v>964</v>
+      </c>
+      <c r="F73" s="39" t="s">
         <v>965</v>
-      </c>
-      <c r="F73" s="39" t="s">
-        <v>966</v>
       </c>
       <c r="G73" s="39" t="s">
         <v>432</v>
@@ -8392,7 +8392,7 @@
         <v>164</v>
       </c>
       <c r="B74" s="38" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="C74" s="38">
         <v>2009</v>
@@ -8404,7 +8404,7 @@
         <v>475</v>
       </c>
       <c r="F74" s="38" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="G74" s="38" t="s">
         <v>432</v>
@@ -8415,7 +8415,7 @@
         <v>482</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="C75" s="39">
         <v>2012</v>
@@ -8427,7 +8427,7 @@
         <v>572</v>
       </c>
       <c r="F75" s="39" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="G75" s="39" t="s">
         <v>432</v>
@@ -8438,7 +8438,7 @@
         <v>251</v>
       </c>
       <c r="B76" s="38" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="C76" s="38">
         <v>2018</v>
@@ -8447,10 +8447,10 @@
         <v>399</v>
       </c>
       <c r="E76" s="38" t="s">
+        <v>982</v>
+      </c>
+      <c r="F76" s="38" t="s">
         <v>983</v>
-      </c>
-      <c r="F76" s="38" t="s">
-        <v>984</v>
       </c>
       <c r="G76" s="38" t="s">
         <v>432</v>
@@ -8461,7 +8461,7 @@
         <v>353</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="C77" s="39">
         <v>2022</v>
@@ -8473,10 +8473,10 @@
         <v>610</v>
       </c>
       <c r="F77" s="39" t="s">
+        <v>990</v>
+      </c>
+      <c r="G77" s="39" t="s">
         <v>991</v>
-      </c>
-      <c r="G77" s="39" t="s">
-        <v>992</v>
       </c>
     </row>
     <row r="78" spans="1:7" ht="68" x14ac:dyDescent="0.2">
@@ -8484,7 +8484,7 @@
         <v>309</v>
       </c>
       <c r="B78" s="38" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="C78" s="38">
         <v>2011</v>
@@ -8493,10 +8493,10 @@
         <v>397</v>
       </c>
       <c r="E78" s="38" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="F78" s="38" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="G78" s="38" t="s">
         <v>432</v>
@@ -8507,7 +8507,7 @@
         <v>388</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="C79" s="39">
         <v>2012</v>
@@ -8516,10 +8516,10 @@
         <v>398</v>
       </c>
       <c r="E79" s="39" t="s">
+        <v>1005</v>
+      </c>
+      <c r="F79" s="39" t="s">
         <v>1006</v>
-      </c>
-      <c r="F79" s="39" t="s">
-        <v>1007</v>
       </c>
       <c r="G79" s="39" t="s">
         <v>432</v>
@@ -8530,7 +8530,7 @@
         <v>329</v>
       </c>
       <c r="B80" s="38" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="C80" s="38">
         <v>2017</v>
@@ -8542,10 +8542,10 @@
         <v>624</v>
       </c>
       <c r="F80" s="38" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="G80" s="38" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="81" spans="1:8" ht="51" x14ac:dyDescent="0.2">
@@ -8553,7 +8553,7 @@
         <v>1353</v>
       </c>
       <c r="B81" s="39" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="C81" s="39">
         <v>2022</v>
@@ -8565,7 +8565,7 @@
         <v>498</v>
       </c>
       <c r="F81" s="39" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="G81" s="39" t="s">
         <v>432</v>
@@ -8576,7 +8576,7 @@
         <v>98</v>
       </c>
       <c r="B82" s="38" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="C82" s="38">
         <v>2010</v>
@@ -8588,7 +8588,7 @@
         <v>565</v>
       </c>
       <c r="F82" s="38" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="G82" s="38" t="s">
         <v>432</v>
@@ -8599,7 +8599,7 @@
         <v>277</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="C83" s="39">
         <v>2014</v>
@@ -8608,10 +8608,10 @@
         <v>398</v>
       </c>
       <c r="E83" s="39" t="s">
+        <v>1032</v>
+      </c>
+      <c r="F83" s="39" t="s">
         <v>1033</v>
-      </c>
-      <c r="F83" s="39" t="s">
-        <v>1034</v>
       </c>
       <c r="G83" s="39" t="s">
         <v>455</v>
@@ -8622,7 +8622,7 @@
         <v>1051</v>
       </c>
       <c r="B84" s="38" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="C84" s="38">
         <v>2019</v>
@@ -8631,10 +8631,10 @@
         <v>399</v>
       </c>
       <c r="E84" s="38" t="s">
+        <v>1038</v>
+      </c>
+      <c r="F84" s="38" t="s">
         <v>1039</v>
-      </c>
-      <c r="F84" s="38" t="s">
-        <v>1040</v>
       </c>
       <c r="G84" s="38" t="s">
         <v>432</v>
@@ -8645,7 +8645,7 @@
         <v>435</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="C85" s="39">
         <v>2022</v>
@@ -8654,10 +8654,10 @@
         <v>400</v>
       </c>
       <c r="E85" s="39" t="s">
+        <v>1048</v>
+      </c>
+      <c r="F85" s="39" t="s">
         <v>1049</v>
-      </c>
-      <c r="F85" s="39" t="s">
-        <v>1050</v>
       </c>
       <c r="G85" s="39" t="s">
         <v>554</v>
@@ -8668,7 +8668,7 @@
         <v>127</v>
       </c>
       <c r="B86" s="38" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="C86" s="38">
         <v>2010</v>
@@ -8680,7 +8680,7 @@
         <v>572</v>
       </c>
       <c r="F86" s="38" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="G86" s="38" t="s">
         <v>432</v>
@@ -8691,7 +8691,7 @@
         <v>109</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="C87" s="39">
         <v>2012</v>
@@ -8703,7 +8703,7 @@
         <v>572</v>
       </c>
       <c r="F87" s="39" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="G87" s="39" t="s">
         <v>432</v>
@@ -8714,7 +8714,7 @@
         <v>380</v>
       </c>
       <c r="B88" s="38" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="C88" s="38">
         <v>2019</v>
@@ -8726,7 +8726,7 @@
         <v>728</v>
       </c>
       <c r="F88" s="38" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="G88" s="38" t="s">
         <v>432</v>
@@ -8737,7 +8737,7 @@
         <v>313</v>
       </c>
       <c r="B89" s="39" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="C89" s="39">
         <v>2021</v>
@@ -8746,10 +8746,10 @@
         <v>400</v>
       </c>
       <c r="E89" s="39" t="s">
+        <v>1070</v>
+      </c>
+      <c r="F89" s="39" t="s">
         <v>1071</v>
-      </c>
-      <c r="F89" s="39" t="s">
-        <v>1072</v>
       </c>
       <c r="G89" s="39" t="s">
         <v>448</v>
@@ -8760,7 +8760,7 @@
         <v>94</v>
       </c>
       <c r="B90" s="38" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="C90" s="38">
         <v>2010</v>
@@ -8769,10 +8769,10 @@
         <v>397</v>
       </c>
       <c r="E90" s="38" t="s">
+        <v>1075</v>
+      </c>
+      <c r="F90" s="38" t="s">
         <v>1076</v>
-      </c>
-      <c r="F90" s="38" t="s">
-        <v>1077</v>
       </c>
       <c r="G90" s="38" t="s">
         <v>554</v>
@@ -8783,7 +8783,7 @@
         <v>295</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="C91" s="39">
         <v>2014</v>
@@ -8792,10 +8792,10 @@
         <v>398</v>
       </c>
       <c r="E91" s="39" t="s">
+        <v>1081</v>
+      </c>
+      <c r="F91" s="39" t="s">
         <v>1082</v>
-      </c>
-      <c r="F91" s="39" t="s">
-        <v>1083</v>
       </c>
       <c r="G91" s="39" t="s">
         <v>432</v>
@@ -8806,7 +8806,7 @@
         <v>138</v>
       </c>
       <c r="B92" s="38" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="C92" s="38">
         <v>2019</v>
@@ -8818,7 +8818,7 @@
         <v>546</v>
       </c>
       <c r="F92" s="38" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="G92" s="38" t="s">
         <v>432</v>
@@ -8832,7 +8832,7 @@
         <v>549</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="C93" s="39">
         <v>2023</v>
@@ -8844,7 +8844,7 @@
         <v>692</v>
       </c>
       <c r="F93" s="39" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="G93" s="39" t="s">
         <v>432</v>
@@ -11233,7 +11233,7 @@
         <v>Monitoring in the presence of species misidentification: the case of the Eurasian lynx in the Alps</v>
       </c>
       <c r="C71" s="39" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="D71" s="39" t="s">
         <v>422</v>
@@ -11419,7 +11419,7 @@
         <v>Collaboration for conservation: Assessing countrywide carnivore occupancy dynamics from sparse data</v>
       </c>
       <c r="C77" s="39" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="D77" s="39" t="s">
         <v>423</v>
@@ -11512,7 +11512,7 @@
         <v>Territory occupancy and breeding success of Peregrine Falcons Falco peregrinus at various stages of population recovery</v>
       </c>
       <c r="C80" s="38" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="D80" s="38" t="s">
         <v>422</v>
@@ -11698,7 +11698,7 @@
         <v>Site Occupancy Dynamics of Northern Spotted Owls in the Eastern Cascades, Washington, USA, 1990-2003</v>
       </c>
       <c r="C86" s="38" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="D86" s="38" t="s">
         <v>422</v>
@@ -11884,7 +11884,7 @@
         <v>A multistate dynamic occupancy model to estimate local colonization &amp; extinction rates and patterns of co-occurrence between two or more interacting species</v>
       </c>
       <c r="C92" s="38" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="D92" s="38" t="s">
         <v>423</v>
@@ -15306,7 +15306,7 @@
         <v>424</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="G82" s="2" t="s">
         <v>69</v>
@@ -15343,7 +15343,7 @@
         <v>424</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="G83" s="2" t="s">
         <v>69</v>
@@ -15380,7 +15380,7 @@
         <v>424</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="G84" s="2" t="s">
         <v>69</v>
@@ -15417,7 +15417,7 @@
         <v>424</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="G85" s="2" t="s">
         <v>69</v>
@@ -15454,7 +15454,7 @@
         <v>424</v>
       </c>
       <c r="F86" s="33" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="G86" s="33" t="s">
         <v>72</v>
@@ -15528,7 +15528,7 @@
         <v>424</v>
       </c>
       <c r="F88" s="33" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="G88" s="33" t="s">
         <v>68</v>
@@ -15565,7 +15565,7 @@
         <v>424</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="G89" s="2" t="s">
         <v>68</v>
@@ -15602,7 +15602,7 @@
         <v>424</v>
       </c>
       <c r="F90" s="33" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="G90" s="33" t="s">
         <v>70</v>
@@ -15676,7 +15676,7 @@
         <v>424</v>
       </c>
       <c r="F92" s="33" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="G92" s="33" t="s">
         <v>69</v>
@@ -15713,7 +15713,7 @@
         <v>424</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="G93" s="2" t="s">
         <v>68</v>
@@ -15750,7 +15750,7 @@
         <v>424</v>
       </c>
       <c r="F94" s="33" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="G94" s="33" t="s">
         <v>68</v>
@@ -15787,7 +15787,7 @@
         <v>424</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="G95" s="2" t="s">
         <v>68</v>
@@ -15824,7 +15824,7 @@
         <v>424</v>
       </c>
       <c r="F96" s="33" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="G96" s="33" t="s">
         <v>70</v>
@@ -15861,7 +15861,7 @@
         <v>424</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="G97" s="2" t="s">
         <v>69</v>
@@ -15876,7 +15876,7 @@
         <v>89</v>
       </c>
       <c r="K97" s="2" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="98" spans="1:11" ht="68" x14ac:dyDescent="0.2">
@@ -15913,7 +15913,7 @@
         <v>89</v>
       </c>
       <c r="K98" s="33" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="99" spans="1:11" ht="68" x14ac:dyDescent="0.2">
@@ -15935,7 +15935,7 @@
         <v>424</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="G99" s="2" t="s">
         <v>69</v>
@@ -15972,7 +15972,7 @@
         <v>424</v>
       </c>
       <c r="F100" s="33" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="G100" s="33" t="s">
         <v>70</v>
@@ -16009,7 +16009,7 @@
         <v>424</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="G101" s="2" t="s">
         <v>69</v>
@@ -16046,7 +16046,7 @@
         <v>459</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="G102" s="2" t="s">
         <v>68</v>
@@ -16074,16 +16074,16 @@
         <v>Experimentally testing the response of feral cats and their prey to poison baiting</v>
       </c>
       <c r="C103" s="33" t="s">
+        <v>1050</v>
+      </c>
+      <c r="D103" s="33" t="s">
+        <v>424</v>
+      </c>
+      <c r="E103" s="33" t="s">
+        <v>424</v>
+      </c>
+      <c r="F103" s="33" t="s">
         <v>1051</v>
-      </c>
-      <c r="D103" s="33" t="s">
-        <v>424</v>
-      </c>
-      <c r="E103" s="33" t="s">
-        <v>424</v>
-      </c>
-      <c r="F103" s="33" t="s">
-        <v>1052</v>
       </c>
       <c r="G103" s="33" t="s">
         <v>68</v>
@@ -16120,7 +16120,7 @@
         <v>424</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="G104" s="2" t="s">
         <v>69</v>
@@ -16157,7 +16157,7 @@
         <v>457</v>
       </c>
       <c r="F105" s="33" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="G105" s="33" t="s">
         <v>69</v>
@@ -16194,7 +16194,7 @@
         <v>424</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="G106" s="2" t="s">
         <v>68</v>
@@ -16231,7 +16231,7 @@
         <v>424</v>
       </c>
       <c r="F107" s="33" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="G107" s="33" t="s">
         <v>73</v>
@@ -16268,7 +16268,7 @@
         <v>424</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="G108" s="2" t="s">
         <v>70</v>
@@ -16283,7 +16283,7 @@
         <v>91</v>
       </c>
       <c r="K108" s="2" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="109" spans="1:11" ht="51" x14ac:dyDescent="0.2">
@@ -16305,7 +16305,7 @@
         <v>424</v>
       </c>
       <c r="F109" s="33" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="G109" s="33" t="s">
         <v>69</v>
@@ -16342,7 +16342,7 @@
         <v>424</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="G110" s="2" t="s">
         <v>68</v>
@@ -16379,7 +16379,7 @@
         <v>424</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="G111" s="2" t="s">
         <v>68</v>
@@ -16416,7 +16416,7 @@
         <v>424</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="G112" s="2" t="s">
         <v>68</v>
@@ -16453,7 +16453,7 @@
         <v>424</v>
       </c>
       <c r="F113" s="33" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="G113" s="33" t="s">
         <v>69</v>
@@ -19890,7 +19890,7 @@
         <v>424</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>131</v>
@@ -19992,7 +19992,7 @@
         <v>424</v>
       </c>
       <c r="E90" s="33" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="F90" s="33" t="s">
         <v>129</v>
@@ -20196,7 +20196,7 @@
         <v>424</v>
       </c>
       <c r="E96" s="33" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="F96" s="33" t="s">
         <v>131</v>
@@ -20298,7 +20298,7 @@
         <v>424</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>129</v>
@@ -20462,7 +20462,7 @@
         <v>Experimentally testing the response of feral cats and their prey to poison baiting</v>
       </c>
       <c r="C104" s="33" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="D104" s="33" t="s">
         <v>424</v>
@@ -25847,7 +25847,7 @@
         <v>369</v>
       </c>
       <c r="J102" s="38" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="K102" s="38" t="s">
         <v>422</v>
@@ -26071,7 +26071,7 @@
         <v>20</v>
       </c>
       <c r="H107" s="39" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="I107" s="39" t="s">
         <v>369</v>
@@ -26123,7 +26123,7 @@
         <v>71</v>
       </c>
       <c r="J108" s="38" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="K108" s="38" t="s">
         <v>422</v>
@@ -26135,7 +26135,7 @@
         <v>184</v>
       </c>
       <c r="N108" s="38" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
     </row>
     <row r="109" spans="1:14" ht="85" x14ac:dyDescent="0.2">
@@ -26319,7 +26319,7 @@
         <v>184</v>
       </c>
       <c r="N112" s="38" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="113" spans="1:14" ht="68" x14ac:dyDescent="0.2">
@@ -26503,7 +26503,7 @@
         <v>184</v>
       </c>
       <c r="N116" s="39" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="117" spans="1:14" ht="51" x14ac:dyDescent="0.2">
@@ -27147,7 +27147,7 @@
         <v>183</v>
       </c>
       <c r="N130" s="39" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="131" spans="1:14" ht="102" x14ac:dyDescent="0.2">
@@ -27723,8 +27723,8 @@
   <dimension ref="A1:H540"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A394" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D395" sqref="D395"/>
+      <pane ySplit="1" topLeftCell="A299" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H302" sqref="H302"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="16" zeroHeight="1" x14ac:dyDescent="0.2"/>
@@ -36188,7 +36188,7 @@
         <v>213</v>
       </c>
       <c r="H302" s="38" t="s">
-        <v>930</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="303" spans="1:8" ht="51" x14ac:dyDescent="0.2">
@@ -36216,7 +36216,7 @@
         <v>204</v>
       </c>
       <c r="H303" s="39" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
     </row>
     <row r="304" spans="1:8" ht="68" x14ac:dyDescent="0.2">
@@ -36244,7 +36244,7 @@
         <v>210</v>
       </c>
       <c r="H304" s="38" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
     </row>
     <row r="305" spans="1:8" ht="68" x14ac:dyDescent="0.2">
@@ -36272,7 +36272,7 @@
         <v>212</v>
       </c>
       <c r="H305" s="39" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
     </row>
     <row r="306" spans="1:8" ht="51" x14ac:dyDescent="0.2">
@@ -36300,7 +36300,7 @@
         <v>213</v>
       </c>
       <c r="H306" s="38" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
     </row>
     <row r="307" spans="1:8" ht="68" x14ac:dyDescent="0.2">
@@ -36328,7 +36328,7 @@
         <v>204</v>
       </c>
       <c r="H307" s="39" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
     </row>
     <row r="308" spans="1:8" ht="68" x14ac:dyDescent="0.2">
@@ -36356,7 +36356,7 @@
         <v>210</v>
       </c>
       <c r="H308" s="38" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="309" spans="1:8" ht="68" x14ac:dyDescent="0.2">
@@ -36384,7 +36384,7 @@
         <v>212</v>
       </c>
       <c r="H309" s="39" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="310" spans="1:8" ht="68" x14ac:dyDescent="0.2">
@@ -36406,13 +36406,13 @@
         <v>424</v>
       </c>
       <c r="F310" s="38" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="G310" s="38" t="s">
         <v>215</v>
       </c>
       <c r="H310" s="38" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="311" spans="1:8" ht="68" x14ac:dyDescent="0.2">
@@ -36434,7 +36434,7 @@
         <v>424</v>
       </c>
       <c r="F311" s="39" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="G311" s="39" t="s">
         <v>215</v>
@@ -36496,7 +36496,7 @@
         <v>210</v>
       </c>
       <c r="H313" s="39" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
     </row>
     <row r="314" spans="1:8" ht="68" x14ac:dyDescent="0.2">
@@ -36524,7 +36524,7 @@
         <v>212</v>
       </c>
       <c r="H314" s="38" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
     </row>
     <row r="315" spans="1:8" ht="68" x14ac:dyDescent="0.2">
@@ -36552,7 +36552,7 @@
         <v>213</v>
       </c>
       <c r="H315" s="39" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
     </row>
     <row r="316" spans="1:8" ht="51" x14ac:dyDescent="0.2">
@@ -36720,7 +36720,7 @@
         <v>210</v>
       </c>
       <c r="H321" s="39" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
     </row>
     <row r="322" spans="1:8" ht="51" x14ac:dyDescent="0.2">
@@ -36748,7 +36748,7 @@
         <v>212</v>
       </c>
       <c r="H322" s="38" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="323" spans="1:8" ht="51" x14ac:dyDescent="0.2">
@@ -36776,7 +36776,7 @@
         <v>213</v>
       </c>
       <c r="H323" s="39" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
     </row>
     <row r="324" spans="1:8" ht="51" x14ac:dyDescent="0.2">
@@ -36804,7 +36804,7 @@
         <v>204</v>
       </c>
       <c r="H324" s="38" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
     </row>
     <row r="325" spans="1:8" ht="51" x14ac:dyDescent="0.2">
@@ -36832,7 +36832,7 @@
         <v>210</v>
       </c>
       <c r="H325" s="39" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
     </row>
     <row r="326" spans="1:8" ht="68" x14ac:dyDescent="0.2">
@@ -36860,7 +36860,7 @@
         <v>212</v>
       </c>
       <c r="H326" s="38" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
     </row>
     <row r="327" spans="1:8" ht="51" x14ac:dyDescent="0.2">
@@ -36888,7 +36888,7 @@
         <v>213</v>
       </c>
       <c r="H327" s="39" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
     </row>
     <row r="328" spans="1:8" ht="68" x14ac:dyDescent="0.2">
@@ -36910,13 +36910,13 @@
         <v>424</v>
       </c>
       <c r="F328" s="38" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="G328" s="38" t="s">
         <v>388</v>
       </c>
       <c r="H328" s="38" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
     </row>
     <row r="329" spans="1:8" ht="17" x14ac:dyDescent="0.2">
@@ -37084,7 +37084,7 @@
         <v>210</v>
       </c>
       <c r="H334" s="38" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
     </row>
     <row r="335" spans="1:8" ht="34" x14ac:dyDescent="0.2">
@@ -37112,7 +37112,7 @@
         <v>212</v>
       </c>
       <c r="H335" s="39" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
     </row>
     <row r="336" spans="1:8" ht="17" x14ac:dyDescent="0.2">
@@ -37140,7 +37140,7 @@
         <v>213</v>
       </c>
       <c r="H336" s="38" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
     </row>
     <row r="337" spans="1:8" ht="17" x14ac:dyDescent="0.2">
@@ -37168,7 +37168,7 @@
         <v>204</v>
       </c>
       <c r="H337" s="39" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
     </row>
     <row r="338" spans="1:8" ht="34" x14ac:dyDescent="0.2">
@@ -37196,7 +37196,7 @@
         <v>210</v>
       </c>
       <c r="H338" s="38" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="339" spans="1:8" ht="34" x14ac:dyDescent="0.2">
@@ -37224,7 +37224,7 @@
         <v>212</v>
       </c>
       <c r="H339" s="39" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="340" spans="1:8" ht="17" x14ac:dyDescent="0.2">
@@ -37252,7 +37252,7 @@
         <v>213</v>
       </c>
       <c r="H340" s="38" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
     </row>
     <row r="341" spans="1:8" ht="68" x14ac:dyDescent="0.2">
@@ -37280,7 +37280,7 @@
         <v>204</v>
       </c>
       <c r="H341" s="39" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
     </row>
     <row r="342" spans="1:8" ht="68" x14ac:dyDescent="0.2">
@@ -37308,7 +37308,7 @@
         <v>210</v>
       </c>
       <c r="H342" s="38" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="343" spans="1:8" ht="68" x14ac:dyDescent="0.2">
@@ -37336,7 +37336,7 @@
         <v>212</v>
       </c>
       <c r="H343" s="39" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="344" spans="1:8" ht="68" x14ac:dyDescent="0.2">
@@ -37364,7 +37364,7 @@
         <v>213</v>
       </c>
       <c r="H344" s="38" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
     </row>
     <row r="345" spans="1:8" ht="85" x14ac:dyDescent="0.2">
@@ -37392,7 +37392,7 @@
         <v>204</v>
       </c>
       <c r="H345" s="39" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="346" spans="1:8" ht="85" x14ac:dyDescent="0.2">
@@ -37420,7 +37420,7 @@
         <v>210</v>
       </c>
       <c r="H346" s="38" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="347" spans="1:8" ht="85" x14ac:dyDescent="0.2">
@@ -37448,7 +37448,7 @@
         <v>212</v>
       </c>
       <c r="H347" s="39" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="348" spans="1:8" ht="85" x14ac:dyDescent="0.2">
@@ -37476,7 +37476,7 @@
         <v>213</v>
       </c>
       <c r="H348" s="38" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="349" spans="1:8" ht="51" x14ac:dyDescent="0.2">
@@ -37504,7 +37504,7 @@
         <v>205</v>
       </c>
       <c r="H349" s="39" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="350" spans="1:8" ht="51" x14ac:dyDescent="0.2">
@@ -37560,7 +37560,7 @@
         <v>213</v>
       </c>
       <c r="H351" s="39" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="352" spans="1:8" ht="68" x14ac:dyDescent="0.2">
@@ -37588,7 +37588,7 @@
         <v>204</v>
       </c>
       <c r="H352" s="38" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="353" spans="1:8" ht="68" x14ac:dyDescent="0.2">
@@ -37610,13 +37610,13 @@
         <v>424</v>
       </c>
       <c r="F353" s="39" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="G353" s="39" t="s">
         <v>388</v>
       </c>
       <c r="H353" s="39" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="354" spans="1:8" ht="68" x14ac:dyDescent="0.2">
@@ -37644,7 +37644,7 @@
         <v>208</v>
       </c>
       <c r="H354" s="38" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="355" spans="1:8" ht="68" x14ac:dyDescent="0.2">
@@ -37666,13 +37666,13 @@
         <v>424</v>
       </c>
       <c r="F355" s="39" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="G355" s="39" t="s">
         <v>208</v>
       </c>
       <c r="H355" s="39" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="356" spans="1:8" ht="68" x14ac:dyDescent="0.2">
@@ -37700,7 +37700,7 @@
         <v>213</v>
       </c>
       <c r="H356" s="38" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="357" spans="1:8" ht="68" x14ac:dyDescent="0.2">
@@ -37756,7 +37756,7 @@
         <v>204</v>
       </c>
       <c r="H358" s="38" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="359" spans="1:8" ht="51" x14ac:dyDescent="0.2">
@@ -37840,7 +37840,7 @@
         <v>213</v>
       </c>
       <c r="H361" s="39" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="362" spans="1:8" ht="68" x14ac:dyDescent="0.2">
@@ -37868,7 +37868,7 @@
         <v>204</v>
       </c>
       <c r="H362" s="38" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="363" spans="1:8" ht="68" x14ac:dyDescent="0.2">
@@ -37896,7 +37896,7 @@
         <v>210</v>
       </c>
       <c r="H363" s="39" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="364" spans="1:8" ht="68" x14ac:dyDescent="0.2">
@@ -37924,7 +37924,7 @@
         <v>212</v>
       </c>
       <c r="H364" s="38" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="365" spans="1:8" ht="68" x14ac:dyDescent="0.2">
@@ -37952,7 +37952,7 @@
         <v>213</v>
       </c>
       <c r="H365" s="39" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="366" spans="1:8" ht="68" x14ac:dyDescent="0.2">
@@ -38064,7 +38064,7 @@
         <v>213</v>
       </c>
       <c r="H369" s="39" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="370" spans="1:8" ht="34" x14ac:dyDescent="0.2">
@@ -38092,7 +38092,7 @@
         <v>204</v>
       </c>
       <c r="H370" s="38" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="371" spans="1:8" ht="34" x14ac:dyDescent="0.2">
@@ -38120,7 +38120,7 @@
         <v>210</v>
       </c>
       <c r="H371" s="39" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="372" spans="1:8" ht="34" x14ac:dyDescent="0.2">
@@ -38148,7 +38148,7 @@
         <v>212</v>
       </c>
       <c r="H372" s="38" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="373" spans="1:8" ht="34" x14ac:dyDescent="0.2">
@@ -38176,7 +38176,7 @@
         <v>213</v>
       </c>
       <c r="H373" s="39" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="374" spans="1:8" ht="34" x14ac:dyDescent="0.2">
@@ -38204,7 +38204,7 @@
         <v>204</v>
       </c>
       <c r="H374" s="38" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="375" spans="1:8" ht="34" x14ac:dyDescent="0.2">
@@ -38232,7 +38232,7 @@
         <v>210</v>
       </c>
       <c r="H375" s="39" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="376" spans="1:8" ht="34" x14ac:dyDescent="0.2">
@@ -38260,7 +38260,7 @@
         <v>212</v>
       </c>
       <c r="H376" s="38" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="377" spans="1:8" ht="34" x14ac:dyDescent="0.2">
@@ -38288,7 +38288,7 @@
         <v>213</v>
       </c>
       <c r="H377" s="39" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="378" spans="1:8" ht="51" x14ac:dyDescent="0.2">
@@ -38301,7 +38301,7 @@
         <v>Experimentally testing the response of feral cats and their prey to poison baiting</v>
       </c>
       <c r="C378" s="38" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="D378" s="38" t="s">
         <v>424</v>
@@ -38316,7 +38316,7 @@
         <v>204</v>
       </c>
       <c r="H378" s="38" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="379" spans="1:8" ht="51" x14ac:dyDescent="0.2">
@@ -38329,7 +38329,7 @@
         <v>Experimentally testing the response of feral cats and their prey to poison baiting</v>
       </c>
       <c r="C379" s="39" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="D379" s="39" t="s">
         <v>424</v>
@@ -38357,7 +38357,7 @@
         <v>Experimentally testing the response of feral cats and their prey to poison baiting</v>
       </c>
       <c r="C380" s="38" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="D380" s="38" t="s">
         <v>424</v>
@@ -38372,7 +38372,7 @@
         <v>212</v>
       </c>
       <c r="H380" s="38" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="381" spans="1:8" ht="51" x14ac:dyDescent="0.2">
@@ -38385,7 +38385,7 @@
         <v>Experimentally testing the response of feral cats and their prey to poison baiting</v>
       </c>
       <c r="C381" s="39" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="D381" s="39" t="s">
         <v>424</v>
@@ -38400,7 +38400,7 @@
         <v>213</v>
       </c>
       <c r="H381" s="39" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="382" spans="1:8" ht="68" x14ac:dyDescent="0.2">
@@ -38456,7 +38456,7 @@
         <v>210</v>
       </c>
       <c r="H383" s="39" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="384" spans="1:8" ht="68" x14ac:dyDescent="0.2">
@@ -38484,7 +38484,7 @@
         <v>212</v>
       </c>
       <c r="H384" s="38" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="385" spans="1:8" ht="68" x14ac:dyDescent="0.2">
@@ -38512,7 +38512,7 @@
         <v>213</v>
       </c>
       <c r="H385" s="39" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="386" spans="1:8" ht="68" x14ac:dyDescent="0.2">
@@ -38540,7 +38540,7 @@
         <v>205</v>
       </c>
       <c r="H386" s="38" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
     </row>
     <row r="387" spans="1:8" ht="68" x14ac:dyDescent="0.2">
@@ -38596,7 +38596,7 @@
         <v>213</v>
       </c>
       <c r="H388" s="38" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="389" spans="1:8" ht="68" x14ac:dyDescent="0.2">
@@ -38652,7 +38652,7 @@
         <v>210</v>
       </c>
       <c r="H390" s="38" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="391" spans="1:8" ht="68" x14ac:dyDescent="0.2">
@@ -38680,7 +38680,7 @@
         <v>212</v>
       </c>
       <c r="H391" s="39" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="392" spans="1:8" ht="68" x14ac:dyDescent="0.2">
@@ -38736,7 +38736,7 @@
         <v>204</v>
       </c>
       <c r="H393" s="39" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="394" spans="1:8" ht="187" x14ac:dyDescent="0.2">
@@ -38764,7 +38764,7 @@
         <v>210</v>
       </c>
       <c r="H394" s="38" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="395" spans="1:8" ht="187" x14ac:dyDescent="0.2">
@@ -38792,7 +38792,7 @@
         <v>212</v>
       </c>
       <c r="H395" s="39" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="396" spans="1:8" ht="102" x14ac:dyDescent="0.2">
@@ -38820,7 +38820,7 @@
         <v>213</v>
       </c>
       <c r="H396" s="38" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="397" spans="1:8" ht="85" x14ac:dyDescent="0.2">
@@ -38848,7 +38848,7 @@
         <v>205</v>
       </c>
       <c r="H397" s="39" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="398" spans="1:8" ht="85" x14ac:dyDescent="0.2">
@@ -38876,7 +38876,7 @@
         <v>210</v>
       </c>
       <c r="H398" s="38" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="399" spans="1:8" ht="85" x14ac:dyDescent="0.2">
@@ -38904,7 +38904,7 @@
         <v>212</v>
       </c>
       <c r="H399" s="39" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="400" spans="1:8" ht="85" x14ac:dyDescent="0.2">
@@ -38960,7 +38960,7 @@
         <v>205</v>
       </c>
       <c r="H401" s="39" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="402" spans="1:8" ht="68" x14ac:dyDescent="0.2">
@@ -38988,7 +38988,7 @@
         <v>212</v>
       </c>
       <c r="H402" s="38" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="403" spans="1:8" ht="68" x14ac:dyDescent="0.2">
@@ -39072,7 +39072,7 @@
         <v>210</v>
       </c>
       <c r="H405" s="39" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="406" spans="1:8" ht="119" x14ac:dyDescent="0.2">
@@ -39100,7 +39100,7 @@
         <v>212</v>
       </c>
       <c r="H406" s="38" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="407" spans="1:8" ht="51" x14ac:dyDescent="0.2">
@@ -39150,7 +39150,7 @@
         <v>424</v>
       </c>
       <c r="F408" s="38" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="G408" s="38" t="s">
         <v>204</v>
@@ -39178,13 +39178,13 @@
         <v>424</v>
       </c>
       <c r="F409" s="39" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="G409" s="39" t="s">
         <v>210</v>
       </c>
       <c r="H409" s="39" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="410" spans="1:8" ht="85" x14ac:dyDescent="0.2">
@@ -39206,13 +39206,13 @@
         <v>424</v>
       </c>
       <c r="F410" s="38" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="G410" s="38" t="s">
         <v>212</v>
       </c>
       <c r="H410" s="38" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="411" spans="1:8" ht="85" x14ac:dyDescent="0.2">
@@ -39234,7 +39234,7 @@
         <v>424</v>
       </c>
       <c r="F411" s="39" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="G411" s="39" t="s">
         <v>213</v>
@@ -39296,7 +39296,7 @@
         <v>210</v>
       </c>
       <c r="H413" s="39" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="414" spans="1:8" ht="85" x14ac:dyDescent="0.2">
@@ -39324,7 +39324,7 @@
         <v>212</v>
       </c>
       <c r="H414" s="38" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="415" spans="1:8" ht="85" x14ac:dyDescent="0.2">
@@ -39352,7 +39352,7 @@
         <v>213</v>
       </c>
       <c r="H415" s="39" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="416" spans="1:8" ht="85" x14ac:dyDescent="0.2">
@@ -39374,13 +39374,13 @@
         <v>424</v>
       </c>
       <c r="F416" s="38" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="G416" s="38" t="s">
         <v>215</v>
       </c>
       <c r="H416" s="38" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="417" spans="1:8" ht="85" x14ac:dyDescent="0.2">
@@ -39402,13 +39402,13 @@
         <v>424</v>
       </c>
       <c r="F417" s="52" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="G417" s="52" t="s">
         <v>215</v>
       </c>
       <c r="H417" s="52" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="418" spans="1:8" x14ac:dyDescent="0.2"/>
@@ -43046,7 +43046,7 @@
         <v>340</v>
       </c>
       <c r="J87" s="38" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="K87" s="38" t="s">
         <v>320</v>
@@ -43105,7 +43105,7 @@
         <v>Experimentally testing the response of feral cats and their prey to poison baiting</v>
       </c>
       <c r="C89" s="38" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="D89" s="38" t="s">
         <v>424</v>
@@ -43126,7 +43126,7 @@
         <v>334</v>
       </c>
       <c r="J89" s="38" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="K89" s="38" t="s">
         <v>317</v>
@@ -43326,7 +43326,7 @@
         <v>71</v>
       </c>
       <c r="J94" s="39" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="K94" s="39" t="s">
         <v>317</v>
@@ -43415,7 +43415,7 @@
         <v>326</v>
       </c>
       <c r="M96" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="97" spans="1:12" ht="85" x14ac:dyDescent="0.2">
@@ -43449,7 +43449,7 @@
         <v>71</v>
       </c>
       <c r="J97" s="38" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="K97" s="38" t="s">
         <v>71</v>
@@ -44134,13 +44134,13 @@
   <sheetData>
     <row r="1" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A1" s="3"/>
-      <c r="B1" s="89" t="s">
+      <c r="B1" s="74" t="s">
         <v>106</v>
       </c>
-      <c r="C1" s="89"/>
-      <c r="D1" s="89"/>
-      <c r="E1" s="89"/>
-      <c r="F1" s="89"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
     </row>
     <row r="2" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
@@ -44163,7 +44163,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="94" t="s">
+      <c r="A3" s="76" t="s">
         <v>331</v>
       </c>
       <c r="B3" s="23" t="s">
@@ -44179,7 +44179,7 @@
       <c r="F3" s="7"/>
     </row>
     <row r="4" spans="1:6" ht="31" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="95"/>
+      <c r="A4" s="77"/>
       <c r="B4" s="23" t="s">
         <v>2</v>
       </c>
@@ -44193,7 +44193,7 @@
       <c r="F4" s="7"/>
     </row>
     <row r="5" spans="1:6" ht="51" x14ac:dyDescent="0.2">
-      <c r="A5" s="95"/>
+      <c r="A5" s="77"/>
       <c r="B5" s="23" t="s">
         <v>15</v>
       </c>
@@ -44209,7 +44209,7 @@
       <c r="F5" s="7"/>
     </row>
     <row r="6" spans="1:6" ht="51" x14ac:dyDescent="0.2">
-      <c r="A6" s="96"/>
+      <c r="A6" s="78"/>
       <c r="B6" s="23" t="s">
         <v>16</v>
       </c>
@@ -44225,7 +44225,7 @@
       <c r="F6" s="7"/>
     </row>
     <row r="7" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A7" s="101" t="s">
+      <c r="A7" s="83" t="s">
         <v>52</v>
       </c>
       <c r="B7" s="24" t="s">
@@ -44241,14 +44241,14 @@
       <c r="F7" s="9"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="101"/>
-      <c r="B8" s="100" t="s">
+      <c r="A8" s="83"/>
+      <c r="B8" s="82" t="s">
         <v>55</v>
       </c>
-      <c r="C8" s="108" t="s">
+      <c r="C8" s="53" t="s">
         <v>56</v>
       </c>
-      <c r="D8" s="109" t="s">
+      <c r="D8" s="54" t="s">
         <v>53</v>
       </c>
       <c r="E8" s="9" t="s">
@@ -44259,10 +44259,10 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="101"/>
-      <c r="B9" s="100"/>
-      <c r="C9" s="108"/>
-      <c r="D9" s="109"/>
+      <c r="A9" s="83"/>
+      <c r="B9" s="82"/>
+      <c r="C9" s="53"/>
+      <c r="D9" s="54"/>
       <c r="E9" s="9" t="s">
         <v>397</v>
       </c>
@@ -44271,10 +44271,10 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="101"/>
-      <c r="B10" s="100"/>
-      <c r="C10" s="108"/>
-      <c r="D10" s="109"/>
+      <c r="A10" s="83"/>
+      <c r="B10" s="82"/>
+      <c r="C10" s="53"/>
+      <c r="D10" s="54"/>
       <c r="E10" s="9" t="s">
         <v>398</v>
       </c>
@@ -44283,10 +44283,10 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="101"/>
-      <c r="B11" s="100"/>
-      <c r="C11" s="108"/>
-      <c r="D11" s="109"/>
+      <c r="A11" s="83"/>
+      <c r="B11" s="82"/>
+      <c r="C11" s="53"/>
+      <c r="D11" s="54"/>
       <c r="E11" s="9" t="s">
         <v>399</v>
       </c>
@@ -44295,10 +44295,10 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="101"/>
-      <c r="B12" s="100"/>
-      <c r="C12" s="108"/>
-      <c r="D12" s="109"/>
+      <c r="A12" s="83"/>
+      <c r="B12" s="82"/>
+      <c r="C12" s="53"/>
+      <c r="D12" s="54"/>
       <c r="E12" s="9" t="s">
         <v>400</v>
       </c>
@@ -44307,7 +44307,7 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A13" s="101"/>
+      <c r="A13" s="83"/>
       <c r="B13" s="24" t="s">
         <v>5</v>
       </c>
@@ -44321,7 +44321,7 @@
       <c r="F13" s="9"/>
     </row>
     <row r="14" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A14" s="101"/>
+      <c r="A14" s="83"/>
       <c r="B14" s="24" t="s">
         <v>6</v>
       </c>
@@ -44335,7 +44335,7 @@
       <c r="F14" s="9"/>
     </row>
     <row r="15" spans="1:6" ht="34" x14ac:dyDescent="0.2">
-      <c r="A15" s="101"/>
+      <c r="A15" s="83"/>
       <c r="B15" s="24" t="s">
         <v>7</v>
       </c>
@@ -44351,16 +44351,16 @@
       <c r="F15" s="9"/>
     </row>
     <row r="16" spans="1:6" ht="87" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="97" t="s">
+      <c r="A16" s="79" t="s">
         <v>354</v>
       </c>
-      <c r="B16" s="105" t="s">
+      <c r="B16" s="84" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="102" t="s">
+      <c r="C16" s="55" t="s">
         <v>355</v>
       </c>
-      <c r="D16" s="102" t="s">
+      <c r="D16" s="55" t="s">
         <v>67</v>
       </c>
       <c r="E16" s="30" t="s">
@@ -44371,10 +44371,10 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="98"/>
-      <c r="B17" s="106"/>
-      <c r="C17" s="103"/>
-      <c r="D17" s="103"/>
+      <c r="A17" s="80"/>
+      <c r="B17" s="85"/>
+      <c r="C17" s="56"/>
+      <c r="D17" s="56"/>
       <c r="E17" s="30" t="s">
         <v>357</v>
       </c>
@@ -44383,10 +44383,10 @@
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="98"/>
-      <c r="B18" s="106"/>
-      <c r="C18" s="103"/>
-      <c r="D18" s="103"/>
+      <c r="A18" s="80"/>
+      <c r="B18" s="85"/>
+      <c r="C18" s="56"/>
+      <c r="D18" s="56"/>
       <c r="E18" s="30" t="s">
         <v>358</v>
       </c>
@@ -44395,10 +44395,10 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="98"/>
-      <c r="B19" s="107"/>
-      <c r="C19" s="104"/>
-      <c r="D19" s="104"/>
+      <c r="A19" s="80"/>
+      <c r="B19" s="86"/>
+      <c r="C19" s="57"/>
+      <c r="D19" s="57"/>
       <c r="E19" s="30" t="s">
         <v>359</v>
       </c>
@@ -44407,7 +44407,7 @@
       </c>
     </row>
     <row r="20" spans="1:6" ht="34" x14ac:dyDescent="0.2">
-      <c r="A20" s="98"/>
+      <c r="A20" s="80"/>
       <c r="B20" s="31" t="s">
         <v>9</v>
       </c>
@@ -44421,7 +44421,7 @@
       <c r="F20" s="30"/>
     </row>
     <row r="21" spans="1:6" ht="34" x14ac:dyDescent="0.2">
-      <c r="A21" s="98"/>
+      <c r="A21" s="80"/>
       <c r="B21" s="31" t="s">
         <v>10</v>
       </c>
@@ -44435,7 +44435,7 @@
       <c r="F21" s="30"/>
     </row>
     <row r="22" spans="1:6" ht="34" x14ac:dyDescent="0.2">
-      <c r="A22" s="98"/>
+      <c r="A22" s="80"/>
       <c r="B22" s="31" t="s">
         <v>11</v>
       </c>
@@ -44449,7 +44449,7 @@
       <c r="F22" s="30"/>
     </row>
     <row r="23" spans="1:6" ht="51" x14ac:dyDescent="0.2">
-      <c r="A23" s="98"/>
+      <c r="A23" s="80"/>
       <c r="B23" s="31" t="s">
         <v>12</v>
       </c>
@@ -44463,7 +44463,7 @@
       <c r="F23" s="30"/>
     </row>
     <row r="24" spans="1:6" ht="34" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="98"/>
+      <c r="A24" s="80"/>
       <c r="B24" s="31" t="s">
         <v>13</v>
       </c>
@@ -44477,7 +44477,7 @@
       <c r="F24" s="30"/>
     </row>
     <row r="25" spans="1:6" ht="34" x14ac:dyDescent="0.2">
-      <c r="A25" s="99"/>
+      <c r="A25" s="81"/>
       <c r="B25" s="31" t="s">
         <v>14</v>
       </c>
@@ -44491,7 +44491,7 @@
       <c r="F25" s="30"/>
     </row>
     <row r="26" spans="1:6" ht="34" x14ac:dyDescent="0.2">
-      <c r="A26" s="90" t="s">
+      <c r="A26" s="75" t="s">
         <v>353</v>
       </c>
       <c r="B26" s="25" t="s">
@@ -44507,14 +44507,14 @@
       <c r="F26" s="12"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" s="90"/>
-      <c r="B27" s="93" t="s">
+      <c r="A27" s="75"/>
+      <c r="B27" s="64" t="s">
         <v>19</v>
       </c>
-      <c r="C27" s="92" t="s">
+      <c r="C27" s="70" t="s">
         <v>66</v>
       </c>
-      <c r="D27" s="91" t="s">
+      <c r="D27" s="69" t="s">
         <v>67</v>
       </c>
       <c r="E27" s="12" t="s">
@@ -44525,10 +44525,10 @@
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28" s="90"/>
-      <c r="B28" s="93"/>
-      <c r="C28" s="92"/>
-      <c r="D28" s="91"/>
+      <c r="A28" s="75"/>
+      <c r="B28" s="64"/>
+      <c r="C28" s="70"/>
+      <c r="D28" s="69"/>
       <c r="E28" s="12" t="s">
         <v>69</v>
       </c>
@@ -44537,10 +44537,10 @@
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A29" s="90"/>
-      <c r="B29" s="93"/>
-      <c r="C29" s="92"/>
-      <c r="D29" s="91"/>
+      <c r="A29" s="75"/>
+      <c r="B29" s="64"/>
+      <c r="C29" s="70"/>
+      <c r="D29" s="69"/>
       <c r="E29" s="12" t="s">
         <v>70</v>
       </c>
@@ -44549,10 +44549,10 @@
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A30" s="90"/>
-      <c r="B30" s="93"/>
-      <c r="C30" s="92"/>
-      <c r="D30" s="91"/>
+      <c r="A30" s="75"/>
+      <c r="B30" s="64"/>
+      <c r="C30" s="70"/>
+      <c r="D30" s="69"/>
       <c r="E30" s="12" t="s">
         <v>73</v>
       </c>
@@ -44561,10 +44561,10 @@
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A31" s="90"/>
-      <c r="B31" s="93"/>
-      <c r="C31" s="92"/>
-      <c r="D31" s="91"/>
+      <c r="A31" s="75"/>
+      <c r="B31" s="64"/>
+      <c r="C31" s="70"/>
+      <c r="D31" s="69"/>
       <c r="E31" s="12" t="s">
         <v>72</v>
       </c>
@@ -44573,10 +44573,10 @@
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A32" s="90"/>
-      <c r="B32" s="93"/>
-      <c r="C32" s="92"/>
-      <c r="D32" s="91"/>
+      <c r="A32" s="75"/>
+      <c r="B32" s="64"/>
+      <c r="C32" s="70"/>
+      <c r="D32" s="69"/>
       <c r="E32" s="12" t="s">
         <v>71</v>
       </c>
@@ -44585,7 +44585,7 @@
       </c>
     </row>
     <row r="33" spans="1:6" ht="85" x14ac:dyDescent="0.2">
-      <c r="A33" s="90"/>
+      <c r="A33" s="75"/>
       <c r="B33" s="25" t="s">
         <v>20</v>
       </c>
@@ -44599,14 +44599,14 @@
       <c r="F33" s="12"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A34" s="90"/>
-      <c r="B34" s="93" t="s">
+      <c r="A34" s="75"/>
+      <c r="B34" s="64" t="s">
         <v>41</v>
       </c>
-      <c r="C34" s="92" t="s">
+      <c r="C34" s="70" t="s">
         <v>80</v>
       </c>
-      <c r="D34" s="91" t="s">
+      <c r="D34" s="69" t="s">
         <v>53</v>
       </c>
       <c r="E34" s="12" t="s">
@@ -44617,10 +44617,10 @@
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A35" s="90"/>
-      <c r="B35" s="93"/>
-      <c r="C35" s="92"/>
-      <c r="D35" s="91"/>
+      <c r="A35" s="75"/>
+      <c r="B35" s="64"/>
+      <c r="C35" s="70"/>
+      <c r="D35" s="69"/>
       <c r="E35" s="12" t="s">
         <v>82</v>
       </c>
@@ -44629,10 +44629,10 @@
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A36" s="90"/>
-      <c r="B36" s="93"/>
-      <c r="C36" s="92"/>
-      <c r="D36" s="91"/>
+      <c r="A36" s="75"/>
+      <c r="B36" s="64"/>
+      <c r="C36" s="70"/>
+      <c r="D36" s="69"/>
       <c r="E36" s="12" t="s">
         <v>85</v>
       </c>
@@ -44641,10 +44641,10 @@
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A37" s="90"/>
-      <c r="B37" s="93"/>
-      <c r="C37" s="92"/>
-      <c r="D37" s="91"/>
+      <c r="A37" s="75"/>
+      <c r="B37" s="64"/>
+      <c r="C37" s="70"/>
+      <c r="D37" s="69"/>
       <c r="E37" s="12" t="s">
         <v>87</v>
       </c>
@@ -44653,14 +44653,14 @@
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A38" s="90"/>
-      <c r="B38" s="93" t="s">
+      <c r="A38" s="75"/>
+      <c r="B38" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="C38" s="92" t="s">
+      <c r="C38" s="70" t="s">
         <v>104</v>
       </c>
-      <c r="D38" s="91" t="s">
+      <c r="D38" s="69" t="s">
         <v>67</v>
       </c>
       <c r="E38" s="12" t="s">
@@ -44671,10 +44671,10 @@
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A39" s="90"/>
-      <c r="B39" s="93"/>
-      <c r="C39" s="92"/>
-      <c r="D39" s="91"/>
+      <c r="A39" s="75"/>
+      <c r="B39" s="64"/>
+      <c r="C39" s="70"/>
+      <c r="D39" s="69"/>
       <c r="E39" s="12" t="s">
         <v>89</v>
       </c>
@@ -44683,10 +44683,10 @@
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A40" s="90"/>
-      <c r="B40" s="93"/>
-      <c r="C40" s="92"/>
-      <c r="D40" s="91"/>
+      <c r="A40" s="75"/>
+      <c r="B40" s="64"/>
+      <c r="C40" s="70"/>
+      <c r="D40" s="69"/>
       <c r="E40" s="12" t="s">
         <v>91</v>
       </c>
@@ -44695,10 +44695,10 @@
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A41" s="90"/>
-      <c r="B41" s="93"/>
-      <c r="C41" s="92"/>
-      <c r="D41" s="91"/>
+      <c r="A41" s="75"/>
+      <c r="B41" s="64"/>
+      <c r="C41" s="70"/>
+      <c r="D41" s="69"/>
       <c r="E41" s="12" t="s">
         <v>391</v>
       </c>
@@ -44707,10 +44707,10 @@
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A42" s="90"/>
-      <c r="B42" s="93"/>
-      <c r="C42" s="92"/>
-      <c r="D42" s="91"/>
+      <c r="A42" s="75"/>
+      <c r="B42" s="64"/>
+      <c r="C42" s="70"/>
+      <c r="D42" s="69"/>
       <c r="E42" s="12" t="s">
         <v>92</v>
       </c>
@@ -44719,10 +44719,10 @@
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A43" s="90"/>
-      <c r="B43" s="93"/>
-      <c r="C43" s="92"/>
-      <c r="D43" s="91"/>
+      <c r="A43" s="75"/>
+      <c r="B43" s="64"/>
+      <c r="C43" s="70"/>
+      <c r="D43" s="69"/>
       <c r="E43" s="12" t="s">
         <v>93</v>
       </c>
@@ -44731,10 +44731,10 @@
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A44" s="90"/>
-      <c r="B44" s="93"/>
-      <c r="C44" s="92"/>
-      <c r="D44" s="91"/>
+      <c r="A44" s="75"/>
+      <c r="B44" s="64"/>
+      <c r="C44" s="70"/>
+      <c r="D44" s="69"/>
       <c r="E44" s="12" t="s">
         <v>94</v>
       </c>
@@ -44743,10 +44743,10 @@
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A45" s="90"/>
-      <c r="B45" s="93"/>
-      <c r="C45" s="92"/>
-      <c r="D45" s="91"/>
+      <c r="A45" s="75"/>
+      <c r="B45" s="64"/>
+      <c r="C45" s="70"/>
+      <c r="D45" s="69"/>
       <c r="E45" s="12" t="s">
         <v>95</v>
       </c>
@@ -44755,10 +44755,10 @@
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A46" s="90"/>
-      <c r="B46" s="93"/>
-      <c r="C46" s="92"/>
-      <c r="D46" s="91"/>
+      <c r="A46" s="75"/>
+      <c r="B46" s="64"/>
+      <c r="C46" s="70"/>
+      <c r="D46" s="69"/>
       <c r="E46" s="12" t="s">
         <v>96</v>
       </c>
@@ -44767,14 +44767,14 @@
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A47" s="90"/>
-      <c r="B47" s="93" t="s">
+      <c r="A47" s="75"/>
+      <c r="B47" s="64" t="s">
         <v>18</v>
       </c>
-      <c r="C47" s="92" t="s">
+      <c r="C47" s="70" t="s">
         <v>107</v>
       </c>
-      <c r="D47" s="91" t="s">
+      <c r="D47" s="69" t="s">
         <v>67</v>
       </c>
       <c r="E47" s="12" t="s">
@@ -44785,10 +44785,10 @@
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A48" s="90"/>
-      <c r="B48" s="93"/>
-      <c r="C48" s="92"/>
-      <c r="D48" s="91"/>
+      <c r="A48" s="75"/>
+      <c r="B48" s="64"/>
+      <c r="C48" s="70"/>
+      <c r="D48" s="69"/>
       <c r="E48" s="12" t="s">
         <v>109</v>
       </c>
@@ -44797,10 +44797,10 @@
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A49" s="90"/>
-      <c r="B49" s="93"/>
-      <c r="C49" s="92"/>
-      <c r="D49" s="91"/>
+      <c r="A49" s="75"/>
+      <c r="B49" s="64"/>
+      <c r="C49" s="70"/>
+      <c r="D49" s="69"/>
       <c r="E49" s="12" t="s">
         <v>110</v>
       </c>
@@ -44809,10 +44809,10 @@
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A50" s="90"/>
-      <c r="B50" s="93"/>
-      <c r="C50" s="92"/>
-      <c r="D50" s="91"/>
+      <c r="A50" s="75"/>
+      <c r="B50" s="64"/>
+      <c r="C50" s="70"/>
+      <c r="D50" s="69"/>
       <c r="E50" s="12" t="s">
         <v>111</v>
       </c>
@@ -44821,10 +44821,10 @@
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A51" s="90"/>
-      <c r="B51" s="93"/>
-      <c r="C51" s="92"/>
-      <c r="D51" s="91"/>
+      <c r="A51" s="75"/>
+      <c r="B51" s="64"/>
+      <c r="C51" s="70"/>
+      <c r="D51" s="69"/>
       <c r="E51" s="12" t="s">
         <v>112</v>
       </c>
@@ -44833,10 +44833,10 @@
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A52" s="90"/>
-      <c r="B52" s="93"/>
-      <c r="C52" s="92"/>
-      <c r="D52" s="91"/>
+      <c r="A52" s="75"/>
+      <c r="B52" s="64"/>
+      <c r="C52" s="70"/>
+      <c r="D52" s="69"/>
       <c r="E52" s="12" t="s">
         <v>114</v>
       </c>
@@ -44845,10 +44845,10 @@
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A53" s="90"/>
-      <c r="B53" s="93"/>
-      <c r="C53" s="92"/>
-      <c r="D53" s="91"/>
+      <c r="A53" s="75"/>
+      <c r="B53" s="64"/>
+      <c r="C53" s="70"/>
+      <c r="D53" s="69"/>
       <c r="E53" s="12" t="s">
         <v>71</v>
       </c>
@@ -44857,10 +44857,10 @@
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A54" s="90"/>
-      <c r="B54" s="93"/>
-      <c r="C54" s="92"/>
-      <c r="D54" s="91"/>
+      <c r="A54" s="75"/>
+      <c r="B54" s="64"/>
+      <c r="C54" s="70"/>
+      <c r="D54" s="69"/>
       <c r="E54" s="12" t="s">
         <v>113</v>
       </c>
@@ -44869,10 +44869,10 @@
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A55" s="90"/>
-      <c r="B55" s="93"/>
-      <c r="C55" s="92"/>
-      <c r="D55" s="91"/>
+      <c r="A55" s="75"/>
+      <c r="B55" s="64"/>
+      <c r="C55" s="70"/>
+      <c r="D55" s="69"/>
       <c r="E55" s="12" t="s">
         <v>96</v>
       </c>
@@ -44881,7 +44881,7 @@
       </c>
     </row>
     <row r="56" spans="1:6" ht="34" x14ac:dyDescent="0.2">
-      <c r="A56" s="73" t="s">
+      <c r="A56" s="94" t="s">
         <v>124</v>
       </c>
       <c r="B56" s="28" t="s">
@@ -44899,14 +44899,14 @@
       <c r="F56" s="13"/>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A57" s="74"/>
-      <c r="B57" s="85" t="s">
+      <c r="A57" s="95"/>
+      <c r="B57" s="72" t="s">
         <v>22</v>
       </c>
-      <c r="C57" s="84" t="s">
+      <c r="C57" s="71" t="s">
         <v>126</v>
       </c>
-      <c r="D57" s="83" t="s">
+      <c r="D57" s="68" t="s">
         <v>53</v>
       </c>
       <c r="E57" s="13" t="s">
@@ -44915,132 +44915,132 @@
       <c r="F57" s="13"/>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A58" s="74"/>
-      <c r="B58" s="85"/>
-      <c r="C58" s="84"/>
-      <c r="D58" s="83"/>
+      <c r="A58" s="95"/>
+      <c r="B58" s="72"/>
+      <c r="C58" s="71"/>
+      <c r="D58" s="68"/>
       <c r="E58" s="13" t="s">
         <v>130</v>
       </c>
       <c r="F58" s="13"/>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A59" s="74"/>
-      <c r="B59" s="85"/>
-      <c r="C59" s="84"/>
-      <c r="D59" s="83"/>
+      <c r="A59" s="95"/>
+      <c r="B59" s="72"/>
+      <c r="C59" s="71"/>
+      <c r="D59" s="68"/>
       <c r="E59" s="13" t="s">
         <v>129</v>
       </c>
       <c r="F59" s="13"/>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A60" s="74"/>
-      <c r="B60" s="85"/>
-      <c r="C60" s="84"/>
-      <c r="D60" s="83"/>
+      <c r="A60" s="95"/>
+      <c r="B60" s="72"/>
+      <c r="C60" s="71"/>
+      <c r="D60" s="68"/>
       <c r="E60" s="13" t="s">
         <v>127</v>
       </c>
       <c r="F60" s="13"/>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A61" s="74"/>
-      <c r="B61" s="85"/>
-      <c r="C61" s="84"/>
-      <c r="D61" s="83"/>
+      <c r="A61" s="95"/>
+      <c r="B61" s="72"/>
+      <c r="C61" s="71"/>
+      <c r="D61" s="68"/>
       <c r="E61" s="13" t="s">
         <v>132</v>
       </c>
       <c r="F61" s="13"/>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A62" s="74"/>
-      <c r="B62" s="85"/>
-      <c r="C62" s="84"/>
-      <c r="D62" s="83"/>
+      <c r="A62" s="95"/>
+      <c r="B62" s="72"/>
+      <c r="C62" s="71"/>
+      <c r="D62" s="68"/>
       <c r="E62" s="13" t="s">
         <v>128</v>
       </c>
       <c r="F62" s="13"/>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A63" s="74"/>
-      <c r="B63" s="85" t="s">
+      <c r="A63" s="95"/>
+      <c r="B63" s="72" t="s">
         <v>23</v>
       </c>
-      <c r="C63" s="84" t="s">
+      <c r="C63" s="71" t="s">
         <v>147</v>
       </c>
-      <c r="D63" s="83" t="s">
+      <c r="D63" s="68" t="s">
         <v>53</v>
       </c>
       <c r="E63" s="13" t="s">
         <v>133</v>
       </c>
-      <c r="F63" s="82" t="e" vm="1">
+      <c r="F63" s="87" t="e" vm="1">
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A64" s="74"/>
-      <c r="B64" s="85"/>
-      <c r="C64" s="84"/>
-      <c r="D64" s="83"/>
+      <c r="A64" s="95"/>
+      <c r="B64" s="72"/>
+      <c r="C64" s="71"/>
+      <c r="D64" s="68"/>
       <c r="E64" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="F64" s="82"/>
+      <c r="F64" s="87"/>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A65" s="74"/>
-      <c r="B65" s="85"/>
-      <c r="C65" s="84"/>
-      <c r="D65" s="83"/>
+      <c r="A65" s="95"/>
+      <c r="B65" s="72"/>
+      <c r="C65" s="71"/>
+      <c r="D65" s="68"/>
       <c r="E65" s="13" t="s">
         <v>134</v>
       </c>
-      <c r="F65" s="82"/>
+      <c r="F65" s="87"/>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A66" s="74"/>
-      <c r="B66" s="85"/>
-      <c r="C66" s="84"/>
-      <c r="D66" s="83"/>
+      <c r="A66" s="95"/>
+      <c r="B66" s="72"/>
+      <c r="C66" s="71"/>
+      <c r="D66" s="68"/>
       <c r="E66" s="13" t="s">
         <v>390</v>
       </c>
-      <c r="F66" s="82"/>
+      <c r="F66" s="87"/>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A67" s="74"/>
-      <c r="B67" s="85"/>
-      <c r="C67" s="84"/>
-      <c r="D67" s="83"/>
+      <c r="A67" s="95"/>
+      <c r="B67" s="72"/>
+      <c r="C67" s="71"/>
+      <c r="D67" s="68"/>
       <c r="E67" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="F67" s="82"/>
+      <c r="F67" s="87"/>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A68" s="74"/>
-      <c r="B68" s="85"/>
-      <c r="C68" s="84"/>
-      <c r="D68" s="83"/>
+      <c r="A68" s="95"/>
+      <c r="B68" s="72"/>
+      <c r="C68" s="71"/>
+      <c r="D68" s="68"/>
       <c r="E68" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="F68" s="82"/>
+      <c r="F68" s="87"/>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A69" s="74"/>
-      <c r="B69" s="85" t="s">
+      <c r="A69" s="95"/>
+      <c r="B69" s="72" t="s">
         <v>24</v>
       </c>
-      <c r="C69" s="84" t="s">
+      <c r="C69" s="71" t="s">
         <v>146</v>
       </c>
-      <c r="D69" s="83" t="s">
+      <c r="D69" s="68" t="s">
         <v>53</v>
       </c>
       <c r="E69" s="13" t="s">
@@ -45049,87 +45049,87 @@
       <c r="F69" s="13"/>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A70" s="74"/>
-      <c r="B70" s="85"/>
-      <c r="C70" s="84"/>
-      <c r="D70" s="83"/>
+      <c r="A70" s="95"/>
+      <c r="B70" s="72"/>
+      <c r="C70" s="71"/>
+      <c r="D70" s="68"/>
       <c r="E70" s="15" t="s">
         <v>139</v>
       </c>
       <c r="F70" s="13"/>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A71" s="74"/>
-      <c r="B71" s="85"/>
-      <c r="C71" s="84"/>
-      <c r="D71" s="83"/>
+      <c r="A71" s="95"/>
+      <c r="B71" s="72"/>
+      <c r="C71" s="71"/>
+      <c r="D71" s="68"/>
       <c r="E71" s="13" t="s">
         <v>140</v>
       </c>
       <c r="F71" s="13"/>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A72" s="74"/>
-      <c r="B72" s="85"/>
-      <c r="C72" s="84"/>
-      <c r="D72" s="83"/>
+      <c r="A72" s="95"/>
+      <c r="B72" s="72"/>
+      <c r="C72" s="71"/>
+      <c r="D72" s="68"/>
       <c r="E72" s="13" t="s">
         <v>141</v>
       </c>
       <c r="F72" s="13"/>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A73" s="74"/>
-      <c r="B73" s="85"/>
-      <c r="C73" s="84"/>
-      <c r="D73" s="83"/>
+      <c r="A73" s="95"/>
+      <c r="B73" s="72"/>
+      <c r="C73" s="71"/>
+      <c r="D73" s="68"/>
       <c r="E73" s="13" t="s">
         <v>143</v>
       </c>
       <c r="F73" s="13"/>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A74" s="74"/>
-      <c r="B74" s="85"/>
-      <c r="C74" s="84"/>
-      <c r="D74" s="83"/>
+      <c r="A74" s="95"/>
+      <c r="B74" s="72"/>
+      <c r="C74" s="71"/>
+      <c r="D74" s="68"/>
       <c r="E74" s="13" t="s">
         <v>142</v>
       </c>
       <c r="F74" s="13"/>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A75" s="74"/>
-      <c r="B75" s="85"/>
-      <c r="C75" s="84"/>
-      <c r="D75" s="83"/>
+      <c r="A75" s="95"/>
+      <c r="B75" s="72"/>
+      <c r="C75" s="71"/>
+      <c r="D75" s="68"/>
       <c r="E75" s="13" t="s">
         <v>144</v>
       </c>
       <c r="F75" s="13"/>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A76" s="74"/>
-      <c r="B76" s="85"/>
-      <c r="C76" s="84"/>
-      <c r="D76" s="83"/>
+      <c r="A76" s="95"/>
+      <c r="B76" s="72"/>
+      <c r="C76" s="71"/>
+      <c r="D76" s="68"/>
       <c r="E76" s="13" t="s">
         <v>145</v>
       </c>
       <c r="F76" s="13"/>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A77" s="74"/>
-      <c r="B77" s="85"/>
-      <c r="C77" s="84"/>
-      <c r="D77" s="83"/>
+      <c r="A77" s="95"/>
+      <c r="B77" s="72"/>
+      <c r="C77" s="71"/>
+      <c r="D77" s="68"/>
       <c r="E77" s="13" t="s">
         <v>372</v>
       </c>
       <c r="F77" s="13"/>
     </row>
     <row r="78" spans="1:6" ht="51" x14ac:dyDescent="0.2">
-      <c r="A78" s="78" t="s">
+      <c r="A78" s="99" t="s">
         <v>148</v>
       </c>
       <c r="B78" s="26" t="s">
@@ -45145,7 +45145,7 @@
       <c r="F78" s="16"/>
     </row>
     <row r="79" spans="1:6" ht="51" x14ac:dyDescent="0.2">
-      <c r="A79" s="78"/>
+      <c r="A79" s="99"/>
       <c r="B79" s="26" t="s">
         <v>30</v>
       </c>
@@ -45159,7 +45159,7 @@
       <c r="F79" s="16"/>
     </row>
     <row r="80" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A80" s="78"/>
+      <c r="A80" s="99"/>
       <c r="B80" s="26" t="s">
         <v>25</v>
       </c>
@@ -45173,7 +45173,7 @@
       <c r="F80" s="16"/>
     </row>
     <row r="81" spans="1:6" ht="85" x14ac:dyDescent="0.2">
-      <c r="A81" s="78"/>
+      <c r="A81" s="99"/>
       <c r="B81" s="26" t="s">
         <v>26</v>
       </c>
@@ -45187,14 +45187,14 @@
       <c r="F81" s="16"/>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A82" s="78"/>
-      <c r="B82" s="77" t="s">
+      <c r="A82" s="99"/>
+      <c r="B82" s="98" t="s">
         <v>27</v>
       </c>
-      <c r="C82" s="76" t="s">
+      <c r="C82" s="97" t="s">
         <v>168</v>
       </c>
-      <c r="D82" s="75" t="s">
+      <c r="D82" s="96" t="s">
         <v>53</v>
       </c>
       <c r="E82" s="16" t="s">
@@ -45205,10 +45205,10 @@
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A83" s="78"/>
-      <c r="B83" s="77"/>
-      <c r="C83" s="76"/>
-      <c r="D83" s="75"/>
+      <c r="A83" s="99"/>
+      <c r="B83" s="98"/>
+      <c r="C83" s="97"/>
+      <c r="D83" s="96"/>
       <c r="E83" s="16" t="s">
         <v>369</v>
       </c>
@@ -45217,10 +45217,10 @@
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A84" s="78"/>
-      <c r="B84" s="77"/>
-      <c r="C84" s="76"/>
-      <c r="D84" s="75"/>
+      <c r="A84" s="99"/>
+      <c r="B84" s="98"/>
+      <c r="C84" s="97"/>
+      <c r="D84" s="96"/>
       <c r="E84" s="16" t="s">
         <v>156</v>
       </c>
@@ -45229,10 +45229,10 @@
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A85" s="78"/>
-      <c r="B85" s="77"/>
-      <c r="C85" s="76"/>
-      <c r="D85" s="75"/>
+      <c r="A85" s="99"/>
+      <c r="B85" s="98"/>
+      <c r="C85" s="97"/>
+      <c r="D85" s="96"/>
       <c r="E85" s="16" t="s">
         <v>157</v>
       </c>
@@ -45241,10 +45241,10 @@
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A86" s="78"/>
-      <c r="B86" s="77"/>
-      <c r="C86" s="76"/>
-      <c r="D86" s="75"/>
+      <c r="A86" s="99"/>
+      <c r="B86" s="98"/>
+      <c r="C86" s="97"/>
+      <c r="D86" s="96"/>
       <c r="E86" s="16" t="s">
         <v>158</v>
       </c>
@@ -45253,10 +45253,10 @@
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A87" s="78"/>
-      <c r="B87" s="77"/>
-      <c r="C87" s="76"/>
-      <c r="D87" s="75"/>
+      <c r="A87" s="99"/>
+      <c r="B87" s="98"/>
+      <c r="C87" s="97"/>
+      <c r="D87" s="96"/>
       <c r="E87" s="16" t="s">
         <v>163</v>
       </c>
@@ -45265,10 +45265,10 @@
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A88" s="78"/>
-      <c r="B88" s="77"/>
-      <c r="C88" s="76"/>
-      <c r="D88" s="75"/>
+      <c r="A88" s="99"/>
+      <c r="B88" s="98"/>
+      <c r="C88" s="97"/>
+      <c r="D88" s="96"/>
       <c r="E88" s="16" t="s">
         <v>71</v>
       </c>
@@ -45277,10 +45277,10 @@
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A89" s="78"/>
-      <c r="B89" s="77"/>
-      <c r="C89" s="76"/>
-      <c r="D89" s="75"/>
+      <c r="A89" s="99"/>
+      <c r="B89" s="98"/>
+      <c r="C89" s="97"/>
+      <c r="D89" s="96"/>
       <c r="E89" s="16" t="s">
         <v>159</v>
       </c>
@@ -45289,14 +45289,14 @@
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A90" s="78"/>
-      <c r="B90" s="77" t="s">
+      <c r="A90" s="99"/>
+      <c r="B90" s="98" t="s">
         <v>29</v>
       </c>
-      <c r="C90" s="79" t="s">
+      <c r="C90" s="65" t="s">
         <v>167</v>
       </c>
-      <c r="D90" s="79" t="s">
+      <c r="D90" s="65" t="s">
         <v>67</v>
       </c>
       <c r="E90" s="16" t="s">
@@ -45307,10 +45307,10 @@
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A91" s="78"/>
-      <c r="B91" s="77"/>
-      <c r="C91" s="80"/>
-      <c r="D91" s="80"/>
+      <c r="A91" s="99"/>
+      <c r="B91" s="98"/>
+      <c r="C91" s="66"/>
+      <c r="D91" s="66"/>
       <c r="E91" s="16" t="s">
         <v>170</v>
       </c>
@@ -45319,10 +45319,10 @@
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A92" s="78"/>
-      <c r="B92" s="77"/>
-      <c r="C92" s="80"/>
-      <c r="D92" s="80"/>
+      <c r="A92" s="99"/>
+      <c r="B92" s="98"/>
+      <c r="C92" s="66"/>
+      <c r="D92" s="66"/>
       <c r="E92" s="16" t="s">
         <v>172</v>
       </c>
@@ -45331,10 +45331,10 @@
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A93" s="78"/>
-      <c r="B93" s="77"/>
-      <c r="C93" s="81"/>
-      <c r="D93" s="81"/>
+      <c r="A93" s="99"/>
+      <c r="B93" s="98"/>
+      <c r="C93" s="67"/>
+      <c r="D93" s="67"/>
       <c r="E93" s="16" t="s">
         <v>173</v>
       </c>
@@ -45343,7 +45343,7 @@
       </c>
     </row>
     <row r="94" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A94" s="78"/>
+      <c r="A94" s="99"/>
       <c r="B94" s="26" t="s">
         <v>178</v>
       </c>
@@ -45357,7 +45357,7 @@
       <c r="F94" s="16"/>
     </row>
     <row r="95" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A95" s="78"/>
+      <c r="A95" s="99"/>
       <c r="B95" s="26" t="s">
         <v>177</v>
       </c>
@@ -45371,14 +45371,14 @@
       <c r="F95" s="16"/>
     </row>
     <row r="96" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="78"/>
-      <c r="B96" s="77" t="s">
+      <c r="A96" s="99"/>
+      <c r="B96" s="98" t="s">
         <v>28</v>
       </c>
-      <c r="C96" s="76" t="s">
+      <c r="C96" s="97" t="s">
         <v>182</v>
       </c>
-      <c r="D96" s="75" t="s">
+      <c r="D96" s="96" t="s">
         <v>53</v>
       </c>
       <c r="E96" s="16" t="s">
@@ -45389,10 +45389,10 @@
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A97" s="78"/>
-      <c r="B97" s="77"/>
-      <c r="C97" s="76"/>
-      <c r="D97" s="75"/>
+      <c r="A97" s="99"/>
+      <c r="B97" s="98"/>
+      <c r="C97" s="97"/>
+      <c r="D97" s="96"/>
       <c r="E97" s="16" t="s">
         <v>184</v>
       </c>
@@ -45401,10 +45401,10 @@
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A98" s="78"/>
-      <c r="B98" s="77"/>
-      <c r="C98" s="76"/>
-      <c r="D98" s="75"/>
+      <c r="A98" s="99"/>
+      <c r="B98" s="98"/>
+      <c r="C98" s="97"/>
+      <c r="D98" s="96"/>
       <c r="E98" s="16" t="s">
         <v>185</v>
       </c>
@@ -45413,10 +45413,10 @@
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A99" s="78"/>
-      <c r="B99" s="77"/>
-      <c r="C99" s="76"/>
-      <c r="D99" s="75"/>
+      <c r="A99" s="99"/>
+      <c r="B99" s="98"/>
+      <c r="C99" s="97"/>
+      <c r="D99" s="96"/>
       <c r="E99" s="16" t="s">
         <v>71</v>
       </c>
@@ -45425,14 +45425,14 @@
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A100" s="78"/>
-      <c r="B100" s="77" t="s">
+      <c r="A100" s="99"/>
+      <c r="B100" s="98" t="s">
         <v>189</v>
       </c>
-      <c r="C100" s="76" t="s">
+      <c r="C100" s="97" t="s">
         <v>200</v>
       </c>
-      <c r="D100" s="75" t="s">
+      <c r="D100" s="96" t="s">
         <v>67</v>
       </c>
       <c r="E100" s="16" t="s">
@@ -45443,10 +45443,10 @@
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A101" s="78"/>
-      <c r="B101" s="77"/>
-      <c r="C101" s="76"/>
-      <c r="D101" s="75"/>
+      <c r="A101" s="99"/>
+      <c r="B101" s="98"/>
+      <c r="C101" s="97"/>
+      <c r="D101" s="96"/>
       <c r="E101" s="16" t="s">
         <v>192</v>
       </c>
@@ -45455,10 +45455,10 @@
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A102" s="78"/>
-      <c r="B102" s="77"/>
-      <c r="C102" s="76"/>
-      <c r="D102" s="75"/>
+      <c r="A102" s="99"/>
+      <c r="B102" s="98"/>
+      <c r="C102" s="97"/>
+      <c r="D102" s="96"/>
       <c r="E102" s="16" t="s">
         <v>381</v>
       </c>
@@ -45467,10 +45467,10 @@
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A103" s="78"/>
-      <c r="B103" s="77"/>
-      <c r="C103" s="76"/>
-      <c r="D103" s="75"/>
+      <c r="A103" s="99"/>
+      <c r="B103" s="98"/>
+      <c r="C103" s="97"/>
+      <c r="D103" s="96"/>
       <c r="E103" s="16" t="s">
         <v>194</v>
       </c>
@@ -45479,10 +45479,10 @@
       </c>
     </row>
     <row r="104" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="78"/>
-      <c r="B104" s="77"/>
-      <c r="C104" s="76"/>
-      <c r="D104" s="75"/>
+      <c r="A104" s="99"/>
+      <c r="B104" s="98"/>
+      <c r="C104" s="97"/>
+      <c r="D104" s="96"/>
       <c r="E104" s="16" t="s">
         <v>196</v>
       </c>
@@ -45491,10 +45491,10 @@
       </c>
     </row>
     <row r="105" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A105" s="78"/>
-      <c r="B105" s="77"/>
-      <c r="C105" s="76"/>
-      <c r="D105" s="75"/>
+      <c r="A105" s="99"/>
+      <c r="B105" s="98"/>
+      <c r="C105" s="97"/>
+      <c r="D105" s="96"/>
       <c r="E105" s="16" t="s">
         <v>309</v>
       </c>
@@ -45503,10 +45503,10 @@
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A106" s="78"/>
-      <c r="B106" s="77"/>
-      <c r="C106" s="76"/>
-      <c r="D106" s="75"/>
+      <c r="A106" s="99"/>
+      <c r="B106" s="98"/>
+      <c r="C106" s="97"/>
+      <c r="D106" s="96"/>
       <c r="E106" s="16" t="s">
         <v>198</v>
       </c>
@@ -45515,7 +45515,7 @@
       </c>
     </row>
     <row r="107" spans="1:6" ht="51" x14ac:dyDescent="0.2">
-      <c r="A107" s="63" t="s">
+      <c r="A107" s="103" t="s">
         <v>34</v>
       </c>
       <c r="B107" s="27" t="s">
@@ -45531,14 +45531,14 @@
       <c r="F107" s="19"/>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A108" s="63"/>
-      <c r="B108" s="64" t="s">
+      <c r="A108" s="103"/>
+      <c r="B108" s="104" t="s">
         <v>201</v>
       </c>
-      <c r="C108" s="67" t="s">
+      <c r="C108" s="107" t="s">
         <v>203</v>
       </c>
-      <c r="D108" s="86" t="s">
+      <c r="D108" s="90" t="s">
         <v>53</v>
       </c>
       <c r="E108" s="19" t="s">
@@ -45549,10 +45549,10 @@
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A109" s="63"/>
-      <c r="B109" s="65"/>
-      <c r="C109" s="68"/>
-      <c r="D109" s="87"/>
+      <c r="A109" s="103"/>
+      <c r="B109" s="105"/>
+      <c r="C109" s="108"/>
+      <c r="D109" s="91"/>
       <c r="E109" s="19" t="s">
         <v>205</v>
       </c>
@@ -45561,10 +45561,10 @@
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A110" s="63"/>
-      <c r="B110" s="65"/>
-      <c r="C110" s="68"/>
-      <c r="D110" s="87"/>
+      <c r="A110" s="103"/>
+      <c r="B110" s="105"/>
+      <c r="C110" s="108"/>
+      <c r="D110" s="91"/>
       <c r="E110" s="19" t="s">
         <v>210</v>
       </c>
@@ -45573,10 +45573,10 @@
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A111" s="63"/>
-      <c r="B111" s="65"/>
-      <c r="C111" s="68"/>
-      <c r="D111" s="87"/>
+      <c r="A111" s="103"/>
+      <c r="B111" s="105"/>
+      <c r="C111" s="108"/>
+      <c r="D111" s="91"/>
       <c r="E111" s="19" t="s">
         <v>212</v>
       </c>
@@ -45585,10 +45585,10 @@
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A112" s="63"/>
-      <c r="B112" s="65"/>
-      <c r="C112" s="68"/>
-      <c r="D112" s="87"/>
+      <c r="A112" s="103"/>
+      <c r="B112" s="105"/>
+      <c r="C112" s="108"/>
+      <c r="D112" s="91"/>
       <c r="E112" s="19" t="s">
         <v>208</v>
       </c>
@@ -45597,10 +45597,10 @@
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A113" s="63"/>
-      <c r="B113" s="65"/>
-      <c r="C113" s="68"/>
-      <c r="D113" s="87"/>
+      <c r="A113" s="103"/>
+      <c r="B113" s="105"/>
+      <c r="C113" s="108"/>
+      <c r="D113" s="91"/>
       <c r="E113" s="19" t="s">
         <v>213</v>
       </c>
@@ -45609,10 +45609,10 @@
       </c>
     </row>
     <row r="114" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A114" s="63"/>
-      <c r="B114" s="65"/>
-      <c r="C114" s="68"/>
-      <c r="D114" s="87"/>
+      <c r="A114" s="103"/>
+      <c r="B114" s="105"/>
+      <c r="C114" s="108"/>
+      <c r="D114" s="91"/>
       <c r="E114" s="19" t="s">
         <v>215</v>
       </c>
@@ -45621,10 +45621,10 @@
       </c>
     </row>
     <row r="115" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A115" s="63"/>
-      <c r="B115" s="66"/>
-      <c r="C115" s="69"/>
-      <c r="D115" s="88"/>
+      <c r="A115" s="103"/>
+      <c r="B115" s="106"/>
+      <c r="C115" s="109"/>
+      <c r="D115" s="92"/>
       <c r="E115" s="19" t="s">
         <v>388</v>
       </c>
@@ -45633,7 +45633,7 @@
       </c>
     </row>
     <row r="116" spans="1:7" ht="85" x14ac:dyDescent="0.2">
-      <c r="A116" s="63"/>
+      <c r="A116" s="103"/>
       <c r="B116" s="27" t="s">
         <v>34</v>
       </c>
@@ -45647,14 +45647,14 @@
       <c r="F116" s="19"/>
     </row>
     <row r="117" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A117" s="63"/>
-      <c r="B117" s="70" t="s">
+      <c r="A117" s="103"/>
+      <c r="B117" s="89" t="s">
         <v>218</v>
       </c>
-      <c r="C117" s="56" t="s">
+      <c r="C117" s="93" t="s">
         <v>281</v>
       </c>
-      <c r="D117" s="72" t="s">
+      <c r="D117" s="88" t="s">
         <v>53</v>
       </c>
       <c r="E117" s="19" t="s">
@@ -45666,10 +45666,10 @@
       <c r="G117" s="21"/>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A118" s="63"/>
-      <c r="B118" s="70"/>
-      <c r="C118" s="56"/>
-      <c r="D118" s="72"/>
+      <c r="A118" s="103"/>
+      <c r="B118" s="89"/>
+      <c r="C118" s="93"/>
+      <c r="D118" s="88"/>
       <c r="E118" s="19" t="s">
         <v>239</v>
       </c>
@@ -45679,10 +45679,10 @@
       <c r="G118" s="21"/>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A119" s="63"/>
-      <c r="B119" s="70"/>
-      <c r="C119" s="56"/>
-      <c r="D119" s="72"/>
+      <c r="A119" s="103"/>
+      <c r="B119" s="89"/>
+      <c r="C119" s="93"/>
+      <c r="D119" s="88"/>
       <c r="E119" s="19" t="s">
         <v>240</v>
       </c>
@@ -45692,10 +45692,10 @@
       <c r="G119" s="21"/>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A120" s="63"/>
-      <c r="B120" s="70"/>
-      <c r="C120" s="56"/>
-      <c r="D120" s="72"/>
+      <c r="A120" s="103"/>
+      <c r="B120" s="89"/>
+      <c r="C120" s="93"/>
+      <c r="D120" s="88"/>
       <c r="E120" s="19" t="s">
         <v>440</v>
       </c>
@@ -45705,10 +45705,10 @@
       <c r="G120" s="21"/>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A121" s="63"/>
-      <c r="B121" s="70"/>
-      <c r="C121" s="56"/>
-      <c r="D121" s="72"/>
+      <c r="A121" s="103"/>
+      <c r="B121" s="89"/>
+      <c r="C121" s="93"/>
+      <c r="D121" s="88"/>
       <c r="E121" s="19" t="s">
         <v>241</v>
       </c>
@@ -45718,10 +45718,10 @@
       <c r="G121" s="21"/>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A122" s="63"/>
-      <c r="B122" s="70"/>
-      <c r="C122" s="56"/>
-      <c r="D122" s="72"/>
+      <c r="A122" s="103"/>
+      <c r="B122" s="89"/>
+      <c r="C122" s="93"/>
+      <c r="D122" s="88"/>
       <c r="E122" s="19" t="s">
         <v>242</v>
       </c>
@@ -45731,10 +45731,10 @@
       <c r="G122" s="21"/>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A123" s="63"/>
-      <c r="B123" s="70"/>
-      <c r="C123" s="56"/>
-      <c r="D123" s="72"/>
+      <c r="A123" s="103"/>
+      <c r="B123" s="89"/>
+      <c r="C123" s="93"/>
+      <c r="D123" s="88"/>
       <c r="E123" s="19" t="s">
         <v>243</v>
       </c>
@@ -45744,10 +45744,10 @@
       <c r="G123" s="21"/>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A124" s="63"/>
-      <c r="B124" s="70"/>
-      <c r="C124" s="56"/>
-      <c r="D124" s="72"/>
+      <c r="A124" s="103"/>
+      <c r="B124" s="89"/>
+      <c r="C124" s="93"/>
+      <c r="D124" s="88"/>
       <c r="E124" s="19" t="s">
         <v>409</v>
       </c>
@@ -45757,10 +45757,10 @@
       <c r="G124" s="21"/>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A125" s="63"/>
-      <c r="B125" s="70"/>
-      <c r="C125" s="56"/>
-      <c r="D125" s="72"/>
+      <c r="A125" s="103"/>
+      <c r="B125" s="89"/>
+      <c r="C125" s="93"/>
+      <c r="D125" s="88"/>
       <c r="E125" s="19" t="s">
         <v>244</v>
       </c>
@@ -45770,10 +45770,10 @@
       <c r="G125" s="21"/>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A126" s="63"/>
-      <c r="B126" s="70"/>
-      <c r="C126" s="56"/>
-      <c r="D126" s="72"/>
+      <c r="A126" s="103"/>
+      <c r="B126" s="89"/>
+      <c r="C126" s="93"/>
+      <c r="D126" s="88"/>
       <c r="E126" s="19" t="s">
         <v>407</v>
       </c>
@@ -45783,10 +45783,10 @@
       <c r="G126" s="21"/>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A127" s="63"/>
-      <c r="B127" s="70"/>
-      <c r="C127" s="56"/>
-      <c r="D127" s="72"/>
+      <c r="A127" s="103"/>
+      <c r="B127" s="89"/>
+      <c r="C127" s="93"/>
+      <c r="D127" s="88"/>
       <c r="E127" s="19" t="s">
         <v>245</v>
       </c>
@@ -45796,10 +45796,10 @@
       <c r="G127" s="21"/>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A128" s="63"/>
-      <c r="B128" s="70"/>
-      <c r="C128" s="56"/>
-      <c r="D128" s="72"/>
+      <c r="A128" s="103"/>
+      <c r="B128" s="89"/>
+      <c r="C128" s="93"/>
+      <c r="D128" s="88"/>
       <c r="E128" s="19" t="s">
         <v>246</v>
       </c>
@@ -45809,10 +45809,10 @@
       <c r="G128" s="21"/>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A129" s="63"/>
-      <c r="B129" s="70"/>
-      <c r="C129" s="56"/>
-      <c r="D129" s="72"/>
+      <c r="A129" s="103"/>
+      <c r="B129" s="89"/>
+      <c r="C129" s="93"/>
+      <c r="D129" s="88"/>
       <c r="E129" s="19" t="s">
         <v>247</v>
       </c>
@@ -45822,10 +45822,10 @@
       <c r="G129" s="21"/>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A130" s="63"/>
-      <c r="B130" s="70"/>
-      <c r="C130" s="56"/>
-      <c r="D130" s="72"/>
+      <c r="A130" s="103"/>
+      <c r="B130" s="89"/>
+      <c r="C130" s="93"/>
+      <c r="D130" s="88"/>
       <c r="E130" s="19" t="s">
         <v>387</v>
       </c>
@@ -45835,10 +45835,10 @@
       <c r="G130" s="21"/>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A131" s="63"/>
-      <c r="B131" s="70"/>
-      <c r="C131" s="56"/>
-      <c r="D131" s="72"/>
+      <c r="A131" s="103"/>
+      <c r="B131" s="89"/>
+      <c r="C131" s="93"/>
+      <c r="D131" s="88"/>
       <c r="E131" s="19" t="s">
         <v>248</v>
       </c>
@@ -45848,10 +45848,10 @@
       <c r="G131" s="21"/>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A132" s="63"/>
-      <c r="B132" s="70"/>
-      <c r="C132" s="56"/>
-      <c r="D132" s="72"/>
+      <c r="A132" s="103"/>
+      <c r="B132" s="89"/>
+      <c r="C132" s="93"/>
+      <c r="D132" s="88"/>
       <c r="E132" s="19" t="s">
         <v>234</v>
       </c>
@@ -45861,10 +45861,10 @@
       <c r="G132" s="21"/>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A133" s="63"/>
-      <c r="B133" s="70"/>
-      <c r="C133" s="56"/>
-      <c r="D133" s="72"/>
+      <c r="A133" s="103"/>
+      <c r="B133" s="89"/>
+      <c r="C133" s="93"/>
+      <c r="D133" s="88"/>
       <c r="E133" s="19" t="s">
         <v>249</v>
       </c>
@@ -45874,10 +45874,10 @@
       <c r="G133" s="21"/>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A134" s="63"/>
-      <c r="B134" s="70"/>
-      <c r="C134" s="56"/>
-      <c r="D134" s="72"/>
+      <c r="A134" s="103"/>
+      <c r="B134" s="89"/>
+      <c r="C134" s="93"/>
+      <c r="D134" s="88"/>
       <c r="E134" s="19" t="s">
         <v>250</v>
       </c>
@@ -45887,10 +45887,10 @@
       <c r="G134" s="21"/>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A135" s="63"/>
-      <c r="B135" s="70"/>
-      <c r="C135" s="56"/>
-      <c r="D135" s="72"/>
+      <c r="A135" s="103"/>
+      <c r="B135" s="89"/>
+      <c r="C135" s="93"/>
+      <c r="D135" s="88"/>
       <c r="E135" s="19" t="s">
         <v>251</v>
       </c>
@@ -45900,10 +45900,10 @@
       <c r="G135" s="21"/>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A136" s="63"/>
-      <c r="B136" s="70"/>
-      <c r="C136" s="56"/>
-      <c r="D136" s="72"/>
+      <c r="A136" s="103"/>
+      <c r="B136" s="89"/>
+      <c r="C136" s="93"/>
+      <c r="D136" s="88"/>
       <c r="E136" s="19" t="s">
         <v>252</v>
       </c>
@@ -45913,10 +45913,10 @@
       <c r="G136" s="21"/>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A137" s="63"/>
-      <c r="B137" s="70"/>
-      <c r="C137" s="56"/>
-      <c r="D137" s="72"/>
+      <c r="A137" s="103"/>
+      <c r="B137" s="89"/>
+      <c r="C137" s="93"/>
+      <c r="D137" s="88"/>
       <c r="E137" s="19" t="s">
         <v>253</v>
       </c>
@@ -45926,10 +45926,10 @@
       <c r="G137" s="21"/>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A138" s="63"/>
-      <c r="B138" s="70"/>
-      <c r="C138" s="56"/>
-      <c r="D138" s="72"/>
+      <c r="A138" s="103"/>
+      <c r="B138" s="89"/>
+      <c r="C138" s="93"/>
+      <c r="D138" s="88"/>
       <c r="E138" s="19" t="s">
         <v>236</v>
       </c>
@@ -45939,14 +45939,14 @@
       <c r="G138" s="21"/>
     </row>
     <row r="139" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A139" s="63"/>
-      <c r="B139" s="70" t="s">
+      <c r="A139" s="103"/>
+      <c r="B139" s="89" t="s">
         <v>254</v>
       </c>
-      <c r="C139" s="56" t="s">
+      <c r="C139" s="93" t="s">
         <v>255</v>
       </c>
-      <c r="D139" s="72" t="s">
+      <c r="D139" s="88" t="s">
         <v>53</v>
       </c>
       <c r="E139" s="19" t="s">
@@ -45957,10 +45957,10 @@
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A140" s="63"/>
-      <c r="B140" s="70"/>
-      <c r="C140" s="56"/>
-      <c r="D140" s="72"/>
+      <c r="A140" s="103"/>
+      <c r="B140" s="89"/>
+      <c r="C140" s="93"/>
+      <c r="D140" s="88"/>
       <c r="E140" s="19" t="s">
         <v>258</v>
       </c>
@@ -45969,10 +45969,10 @@
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A141" s="63"/>
-      <c r="B141" s="70"/>
-      <c r="C141" s="56"/>
-      <c r="D141" s="72"/>
+      <c r="A141" s="103"/>
+      <c r="B141" s="89"/>
+      <c r="C141" s="93"/>
+      <c r="D141" s="88"/>
       <c r="E141" s="19" t="s">
         <v>261</v>
       </c>
@@ -45981,10 +45981,10 @@
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A142" s="63"/>
-      <c r="B142" s="70"/>
-      <c r="C142" s="56"/>
-      <c r="D142" s="72"/>
+      <c r="A142" s="103"/>
+      <c r="B142" s="89"/>
+      <c r="C142" s="93"/>
+      <c r="D142" s="88"/>
       <c r="E142" s="19" t="s">
         <v>257</v>
       </c>
@@ -45993,10 +45993,10 @@
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A143" s="63"/>
-      <c r="B143" s="70"/>
-      <c r="C143" s="56"/>
-      <c r="D143" s="72"/>
+      <c r="A143" s="103"/>
+      <c r="B143" s="89"/>
+      <c r="C143" s="93"/>
+      <c r="D143" s="88"/>
       <c r="E143" s="19" t="s">
         <v>231</v>
       </c>
@@ -46005,14 +46005,14 @@
       </c>
     </row>
     <row r="144" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A144" s="63"/>
-      <c r="B144" s="70" t="s">
+      <c r="A144" s="103"/>
+      <c r="B144" s="89" t="s">
         <v>215</v>
       </c>
-      <c r="C144" s="71" t="s">
+      <c r="C144" s="100" t="s">
         <v>263</v>
       </c>
-      <c r="D144" s="72" t="s">
+      <c r="D144" s="88" t="s">
         <v>53</v>
       </c>
       <c r="E144" s="19" t="s">
@@ -46023,10 +46023,10 @@
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A145" s="63"/>
-      <c r="B145" s="70"/>
-      <c r="C145" s="71"/>
-      <c r="D145" s="72"/>
+      <c r="A145" s="103"/>
+      <c r="B145" s="89"/>
+      <c r="C145" s="100"/>
+      <c r="D145" s="88"/>
       <c r="E145" s="19" t="s">
         <v>265</v>
       </c>
@@ -46035,10 +46035,10 @@
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A146" s="63"/>
-      <c r="B146" s="70"/>
-      <c r="C146" s="71"/>
-      <c r="D146" s="72"/>
+      <c r="A146" s="103"/>
+      <c r="B146" s="89"/>
+      <c r="C146" s="100"/>
+      <c r="D146" s="88"/>
       <c r="E146" s="19" t="s">
         <v>266</v>
       </c>
@@ -46047,14 +46047,14 @@
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A147" s="63"/>
-      <c r="B147" s="70" t="s">
+      <c r="A147" s="103"/>
+      <c r="B147" s="89" t="s">
         <v>272</v>
       </c>
-      <c r="C147" s="56" t="s">
+      <c r="C147" s="93" t="s">
         <v>273</v>
       </c>
-      <c r="D147" s="72" t="s">
+      <c r="D147" s="88" t="s">
         <v>53</v>
       </c>
       <c r="E147" s="19" t="s">
@@ -46065,10 +46065,10 @@
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A148" s="63"/>
-      <c r="B148" s="70"/>
-      <c r="C148" s="56"/>
-      <c r="D148" s="72"/>
+      <c r="A148" s="103"/>
+      <c r="B148" s="89"/>
+      <c r="C148" s="93"/>
+      <c r="D148" s="88"/>
       <c r="E148" s="19" t="s">
         <v>278</v>
       </c>
@@ -46077,10 +46077,10 @@
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A149" s="63"/>
-      <c r="B149" s="70"/>
-      <c r="C149" s="56"/>
-      <c r="D149" s="72"/>
+      <c r="A149" s="103"/>
+      <c r="B149" s="89"/>
+      <c r="C149" s="93"/>
+      <c r="D149" s="88"/>
       <c r="E149" s="19" t="s">
         <v>266</v>
       </c>
@@ -46089,10 +46089,10 @@
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A150" s="63"/>
-      <c r="B150" s="70"/>
-      <c r="C150" s="56"/>
-      <c r="D150" s="72"/>
+      <c r="A150" s="103"/>
+      <c r="B150" s="89"/>
+      <c r="C150" s="93"/>
+      <c r="D150" s="88"/>
       <c r="E150" s="19" t="s">
         <v>279</v>
       </c>
@@ -46101,16 +46101,16 @@
       </c>
     </row>
     <row r="151" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A151" s="53" t="s">
+      <c r="A151" s="101" t="s">
         <v>282</v>
       </c>
-      <c r="B151" s="60" t="s">
+      <c r="B151" s="61" t="s">
         <v>347</v>
       </c>
-      <c r="C151" s="57" t="s">
+      <c r="C151" s="58" t="s">
         <v>348</v>
       </c>
-      <c r="D151" s="57" t="s">
+      <c r="D151" s="58" t="s">
         <v>53</v>
       </c>
       <c r="E151" s="22" t="s">
@@ -46121,10 +46121,10 @@
       </c>
     </row>
     <row r="152" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A152" s="53"/>
-      <c r="B152" s="61"/>
-      <c r="C152" s="58"/>
-      <c r="D152" s="58"/>
+      <c r="A152" s="101"/>
+      <c r="B152" s="62"/>
+      <c r="C152" s="59"/>
+      <c r="D152" s="59"/>
       <c r="E152" s="22" t="s">
         <v>285</v>
       </c>
@@ -46133,10 +46133,10 @@
       </c>
     </row>
     <row r="153" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A153" s="53"/>
-      <c r="B153" s="61"/>
-      <c r="C153" s="58"/>
-      <c r="D153" s="58"/>
+      <c r="A153" s="101"/>
+      <c r="B153" s="62"/>
+      <c r="C153" s="59"/>
+      <c r="D153" s="59"/>
       <c r="E153" s="22" t="s">
         <v>287</v>
       </c>
@@ -46145,10 +46145,10 @@
       </c>
     </row>
     <row r="154" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A154" s="53"/>
-      <c r="B154" s="61"/>
-      <c r="C154" s="58"/>
-      <c r="D154" s="58"/>
+      <c r="A154" s="101"/>
+      <c r="B154" s="62"/>
+      <c r="C154" s="59"/>
+      <c r="D154" s="59"/>
       <c r="E154" s="22" t="s">
         <v>289</v>
       </c>
@@ -46157,10 +46157,10 @@
       </c>
     </row>
     <row r="155" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A155" s="53"/>
-      <c r="B155" s="61"/>
-      <c r="C155" s="58"/>
-      <c r="D155" s="58"/>
+      <c r="A155" s="101"/>
+      <c r="B155" s="62"/>
+      <c r="C155" s="59"/>
+      <c r="D155" s="59"/>
       <c r="E155" s="22" t="s">
         <v>291</v>
       </c>
@@ -46169,10 +46169,10 @@
       </c>
     </row>
     <row r="156" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A156" s="53"/>
-      <c r="B156" s="61"/>
-      <c r="C156" s="58"/>
-      <c r="D156" s="58"/>
+      <c r="A156" s="101"/>
+      <c r="B156" s="62"/>
+      <c r="C156" s="59"/>
+      <c r="D156" s="59"/>
       <c r="E156" s="22" t="s">
         <v>293</v>
       </c>
@@ -46181,10 +46181,10 @@
       </c>
     </row>
     <row r="157" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A157" s="53"/>
-      <c r="B157" s="61"/>
-      <c r="C157" s="58"/>
-      <c r="D157" s="58"/>
+      <c r="A157" s="101"/>
+      <c r="B157" s="62"/>
+      <c r="C157" s="59"/>
+      <c r="D157" s="59"/>
       <c r="E157" s="22" t="s">
         <v>385</v>
       </c>
@@ -46193,10 +46193,10 @@
       </c>
     </row>
     <row r="158" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A158" s="53"/>
-      <c r="B158" s="62"/>
-      <c r="C158" s="59"/>
-      <c r="D158" s="59"/>
+      <c r="A158" s="101"/>
+      <c r="B158" s="63"/>
+      <c r="C158" s="60"/>
+      <c r="D158" s="60"/>
       <c r="E158" s="22" t="s">
         <v>373</v>
       </c>
@@ -46205,14 +46205,14 @@
       </c>
     </row>
     <row r="159" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A159" s="53"/>
-      <c r="B159" s="60" t="s">
+      <c r="A159" s="101"/>
+      <c r="B159" s="61" t="s">
         <v>345</v>
       </c>
-      <c r="C159" s="57" t="s">
+      <c r="C159" s="58" t="s">
         <v>346</v>
       </c>
-      <c r="D159" s="57" t="s">
+      <c r="D159" s="58" t="s">
         <v>53</v>
       </c>
       <c r="E159" s="22" t="s">
@@ -46221,24 +46221,24 @@
       <c r="F159" s="22"/>
     </row>
     <row r="160" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A160" s="53"/>
-      <c r="B160" s="62"/>
-      <c r="C160" s="59"/>
-      <c r="D160" s="59"/>
+      <c r="A160" s="101"/>
+      <c r="B160" s="63"/>
+      <c r="C160" s="60"/>
+      <c r="D160" s="60"/>
       <c r="E160" s="22" t="s">
         <v>297</v>
       </c>
       <c r="F160" s="22"/>
     </row>
     <row r="161" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A161" s="53"/>
-      <c r="B161" s="54" t="s">
+      <c r="A161" s="101"/>
+      <c r="B161" s="102" t="s">
         <v>35</v>
       </c>
-      <c r="C161" s="55" t="s">
+      <c r="C161" s="73" t="s">
         <v>349</v>
       </c>
-      <c r="D161" s="55" t="s">
+      <c r="D161" s="73" t="s">
         <v>67</v>
       </c>
       <c r="E161" s="22" t="s">
@@ -46249,10 +46249,10 @@
       </c>
     </row>
     <row r="162" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A162" s="53"/>
-      <c r="B162" s="54"/>
-      <c r="C162" s="55"/>
-      <c r="D162" s="55"/>
+      <c r="A162" s="101"/>
+      <c r="B162" s="102"/>
+      <c r="C162" s="73"/>
+      <c r="D162" s="73"/>
       <c r="E162" s="22" t="s">
         <v>213</v>
       </c>
@@ -46261,10 +46261,10 @@
       </c>
     </row>
     <row r="163" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A163" s="53"/>
-      <c r="B163" s="54"/>
-      <c r="C163" s="55"/>
-      <c r="D163" s="55"/>
+      <c r="A163" s="101"/>
+      <c r="B163" s="102"/>
+      <c r="C163" s="73"/>
+      <c r="D163" s="73"/>
       <c r="E163" s="22" t="s">
         <v>295</v>
       </c>
@@ -46273,14 +46273,14 @@
       </c>
     </row>
     <row r="164" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A164" s="53"/>
-      <c r="B164" s="60" t="s">
+      <c r="A164" s="101"/>
+      <c r="B164" s="61" t="s">
         <v>298</v>
       </c>
-      <c r="C164" s="57" t="s">
+      <c r="C164" s="58" t="s">
         <v>299</v>
       </c>
-      <c r="D164" s="57" t="s">
+      <c r="D164" s="58" t="s">
         <v>53</v>
       </c>
       <c r="E164" s="22" t="s">
@@ -46291,10 +46291,10 @@
       </c>
     </row>
     <row r="165" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A165" s="53"/>
-      <c r="B165" s="61"/>
-      <c r="C165" s="58"/>
-      <c r="D165" s="58"/>
+      <c r="A165" s="101"/>
+      <c r="B165" s="62"/>
+      <c r="C165" s="59"/>
+      <c r="D165" s="59"/>
       <c r="E165" s="22" t="s">
         <v>339</v>
       </c>
@@ -46303,10 +46303,10 @@
       </c>
     </row>
     <row r="166" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A166" s="53"/>
-      <c r="B166" s="61"/>
-      <c r="C166" s="58"/>
-      <c r="D166" s="58"/>
+      <c r="A166" s="101"/>
+      <c r="B166" s="62"/>
+      <c r="C166" s="59"/>
+      <c r="D166" s="59"/>
       <c r="E166" s="22" t="s">
         <v>504</v>
       </c>
@@ -46315,10 +46315,10 @@
       </c>
     </row>
     <row r="167" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A167" s="53"/>
-      <c r="B167" s="61"/>
-      <c r="C167" s="58"/>
-      <c r="D167" s="58"/>
+      <c r="A167" s="101"/>
+      <c r="B167" s="62"/>
+      <c r="C167" s="59"/>
+      <c r="D167" s="59"/>
       <c r="E167" s="22" t="s">
         <v>340</v>
       </c>
@@ -46327,10 +46327,10 @@
       </c>
     </row>
     <row r="168" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A168" s="53"/>
-      <c r="B168" s="61"/>
-      <c r="C168" s="58"/>
-      <c r="D168" s="58"/>
+      <c r="A168" s="101"/>
+      <c r="B168" s="62"/>
+      <c r="C168" s="59"/>
+      <c r="D168" s="59"/>
       <c r="E168" s="22" t="s">
         <v>338</v>
       </c>
@@ -46339,10 +46339,10 @@
       </c>
     </row>
     <row r="169" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A169" s="53"/>
-      <c r="B169" s="61"/>
-      <c r="C169" s="58"/>
-      <c r="D169" s="58"/>
+      <c r="A169" s="101"/>
+      <c r="B169" s="62"/>
+      <c r="C169" s="59"/>
+      <c r="D169" s="59"/>
       <c r="E169" s="22" t="s">
         <v>341</v>
       </c>
@@ -46351,10 +46351,10 @@
       </c>
     </row>
     <row r="170" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A170" s="53"/>
-      <c r="B170" s="61"/>
-      <c r="C170" s="58"/>
-      <c r="D170" s="58"/>
+      <c r="A170" s="101"/>
+      <c r="B170" s="62"/>
+      <c r="C170" s="59"/>
+      <c r="D170" s="59"/>
       <c r="E170" s="22" t="s">
         <v>343</v>
       </c>
@@ -46363,10 +46363,10 @@
       </c>
     </row>
     <row r="171" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A171" s="53"/>
-      <c r="B171" s="62"/>
-      <c r="C171" s="59"/>
-      <c r="D171" s="59"/>
+      <c r="A171" s="101"/>
+      <c r="B171" s="63"/>
+      <c r="C171" s="60"/>
+      <c r="D171" s="60"/>
       <c r="E171" s="22" t="s">
         <v>71</v>
       </c>
@@ -46375,14 +46375,14 @@
       </c>
     </row>
     <row r="172" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A172" s="53"/>
-      <c r="B172" s="54" t="s">
+      <c r="A172" s="101"/>
+      <c r="B172" s="102" t="s">
         <v>36</v>
       </c>
-      <c r="C172" s="55" t="s">
+      <c r="C172" s="73" t="s">
         <v>300</v>
       </c>
-      <c r="D172" s="55" t="s">
+      <c r="D172" s="73" t="s">
         <v>67</v>
       </c>
       <c r="E172" s="22" t="s">
@@ -46393,10 +46393,10 @@
       </c>
     </row>
     <row r="173" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A173" s="53"/>
-      <c r="B173" s="54"/>
-      <c r="C173" s="55"/>
-      <c r="D173" s="55"/>
+      <c r="A173" s="101"/>
+      <c r="B173" s="102"/>
+      <c r="C173" s="73"/>
+      <c r="D173" s="73"/>
       <c r="E173" s="22" t="s">
         <v>302</v>
       </c>
@@ -46405,10 +46405,10 @@
       </c>
     </row>
     <row r="174" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A174" s="53"/>
-      <c r="B174" s="54"/>
-      <c r="C174" s="55"/>
-      <c r="D174" s="55"/>
+      <c r="A174" s="101"/>
+      <c r="B174" s="102"/>
+      <c r="C174" s="73"/>
+      <c r="D174" s="73"/>
       <c r="E174" s="22" t="s">
         <v>305</v>
       </c>
@@ -46417,10 +46417,10 @@
       </c>
     </row>
     <row r="175" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A175" s="53"/>
-      <c r="B175" s="54"/>
-      <c r="C175" s="55"/>
-      <c r="D175" s="55"/>
+      <c r="A175" s="101"/>
+      <c r="B175" s="102"/>
+      <c r="C175" s="73"/>
+      <c r="D175" s="73"/>
       <c r="E175" s="22" t="s">
         <v>307</v>
       </c>
@@ -46429,10 +46429,10 @@
       </c>
     </row>
     <row r="176" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A176" s="53"/>
-      <c r="B176" s="54"/>
-      <c r="C176" s="55"/>
-      <c r="D176" s="55"/>
+      <c r="A176" s="101"/>
+      <c r="B176" s="102"/>
+      <c r="C176" s="73"/>
+      <c r="D176" s="73"/>
       <c r="E176" s="22" t="s">
         <v>309</v>
       </c>
@@ -46441,10 +46441,10 @@
       </c>
     </row>
     <row r="177" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A177" s="53"/>
-      <c r="B177" s="54"/>
-      <c r="C177" s="55"/>
-      <c r="D177" s="55"/>
+      <c r="A177" s="101"/>
+      <c r="B177" s="102"/>
+      <c r="C177" s="73"/>
+      <c r="D177" s="73"/>
       <c r="E177" s="22" t="s">
         <v>311</v>
       </c>
@@ -46453,10 +46453,10 @@
       </c>
     </row>
     <row r="178" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A178" s="53"/>
-      <c r="B178" s="54"/>
-      <c r="C178" s="55"/>
-      <c r="D178" s="55"/>
+      <c r="A178" s="101"/>
+      <c r="B178" s="102"/>
+      <c r="C178" s="73"/>
+      <c r="D178" s="73"/>
       <c r="E178" s="22" t="s">
         <v>314</v>
       </c>
@@ -46465,10 +46465,10 @@
       </c>
     </row>
     <row r="179" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A179" s="53"/>
-      <c r="B179" s="54"/>
-      <c r="C179" s="55"/>
-      <c r="D179" s="55"/>
+      <c r="A179" s="101"/>
+      <c r="B179" s="102"/>
+      <c r="C179" s="73"/>
+      <c r="D179" s="73"/>
       <c r="E179" s="22" t="s">
         <v>322</v>
       </c>
@@ -46477,10 +46477,10 @@
       </c>
     </row>
     <row r="180" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A180" s="53"/>
-      <c r="B180" s="54"/>
-      <c r="C180" s="55"/>
-      <c r="D180" s="55"/>
+      <c r="A180" s="101"/>
+      <c r="B180" s="102"/>
+      <c r="C180" s="73"/>
+      <c r="D180" s="73"/>
       <c r="E180" s="22" t="s">
         <v>71</v>
       </c>
@@ -46489,14 +46489,14 @@
       </c>
     </row>
     <row r="181" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A181" s="53"/>
-      <c r="B181" s="60" t="s">
+      <c r="A181" s="101"/>
+      <c r="B181" s="61" t="s">
         <v>37</v>
       </c>
-      <c r="C181" s="57" t="s">
+      <c r="C181" s="58" t="s">
         <v>316</v>
       </c>
-      <c r="D181" s="57" t="s">
+      <c r="D181" s="58" t="s">
         <v>53</v>
       </c>
       <c r="E181" s="22" t="s">
@@ -46507,10 +46507,10 @@
       </c>
     </row>
     <row r="182" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A182" s="53"/>
-      <c r="B182" s="61"/>
-      <c r="C182" s="58"/>
-      <c r="D182" s="58"/>
+      <c r="A182" s="101"/>
+      <c r="B182" s="62"/>
+      <c r="C182" s="59"/>
+      <c r="D182" s="59"/>
       <c r="E182" s="22" t="s">
         <v>317</v>
       </c>
@@ -46519,10 +46519,10 @@
       </c>
     </row>
     <row r="183" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A183" s="53"/>
-      <c r="B183" s="61"/>
-      <c r="C183" s="58"/>
-      <c r="D183" s="58"/>
+      <c r="A183" s="101"/>
+      <c r="B183" s="62"/>
+      <c r="C183" s="59"/>
+      <c r="D183" s="59"/>
       <c r="E183" s="22" t="s">
         <v>464</v>
       </c>
@@ -46531,10 +46531,10 @@
       </c>
     </row>
     <row r="184" spans="1:6" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A184" s="53"/>
-      <c r="B184" s="61"/>
-      <c r="C184" s="58"/>
-      <c r="D184" s="58"/>
+      <c r="A184" s="101"/>
+      <c r="B184" s="62"/>
+      <c r="C184" s="59"/>
+      <c r="D184" s="59"/>
       <c r="E184" s="22" t="s">
         <v>318</v>
       </c>
@@ -46543,10 +46543,10 @@
       </c>
     </row>
     <row r="185" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A185" s="53"/>
-      <c r="B185" s="61"/>
-      <c r="C185" s="58"/>
-      <c r="D185" s="58"/>
+      <c r="A185" s="101"/>
+      <c r="B185" s="62"/>
+      <c r="C185" s="59"/>
+      <c r="D185" s="59"/>
       <c r="E185" s="22" t="s">
         <v>321</v>
       </c>
@@ -46555,10 +46555,10 @@
       </c>
     </row>
     <row r="186" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A186" s="53"/>
-      <c r="B186" s="61"/>
-      <c r="C186" s="58"/>
-      <c r="D186" s="58"/>
+      <c r="A186" s="101"/>
+      <c r="B186" s="62"/>
+      <c r="C186" s="59"/>
+      <c r="D186" s="59"/>
       <c r="E186" s="22" t="s">
         <v>71</v>
       </c>
@@ -46567,10 +46567,10 @@
       </c>
     </row>
     <row r="187" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A187" s="53"/>
-      <c r="B187" s="62"/>
-      <c r="C187" s="59"/>
-      <c r="D187" s="59"/>
+      <c r="A187" s="101"/>
+      <c r="B187" s="63"/>
+      <c r="C187" s="60"/>
+      <c r="D187" s="60"/>
       <c r="E187" s="22" t="s">
         <v>96</v>
       </c>
@@ -46579,14 +46579,14 @@
       </c>
     </row>
     <row r="188" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A188" s="53"/>
-      <c r="B188" s="54" t="s">
+      <c r="A188" s="101"/>
+      <c r="B188" s="102" t="s">
         <v>38</v>
       </c>
-      <c r="C188" s="55" t="s">
+      <c r="C188" s="73" t="s">
         <v>324</v>
       </c>
-      <c r="D188" s="55" t="s">
+      <c r="D188" s="73" t="s">
         <v>67</v>
       </c>
       <c r="E188" s="22" t="s">
@@ -46597,10 +46597,10 @@
       </c>
     </row>
     <row r="189" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A189" s="53"/>
-      <c r="B189" s="54"/>
-      <c r="C189" s="55"/>
-      <c r="D189" s="55"/>
+      <c r="A189" s="101"/>
+      <c r="B189" s="102"/>
+      <c r="C189" s="73"/>
+      <c r="D189" s="73"/>
       <c r="E189" s="22" t="s">
         <v>413</v>
       </c>
@@ -46609,10 +46609,10 @@
       </c>
     </row>
     <row r="190" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A190" s="53"/>
-      <c r="B190" s="54"/>
-      <c r="C190" s="55"/>
-      <c r="D190" s="55"/>
+      <c r="A190" s="101"/>
+      <c r="B190" s="102"/>
+      <c r="C190" s="73"/>
+      <c r="D190" s="73"/>
       <c r="E190" s="22" t="s">
         <v>386</v>
       </c>
@@ -46621,10 +46621,10 @@
       </c>
     </row>
     <row r="191" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A191" s="53"/>
-      <c r="B191" s="54"/>
-      <c r="C191" s="55"/>
-      <c r="D191" s="55"/>
+      <c r="A191" s="101"/>
+      <c r="B191" s="102"/>
+      <c r="C191" s="73"/>
+      <c r="D191" s="73"/>
       <c r="E191" s="22" t="s">
         <v>326</v>
       </c>
@@ -46633,10 +46633,10 @@
       </c>
     </row>
     <row r="192" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A192" s="53"/>
-      <c r="B192" s="54"/>
-      <c r="C192" s="55"/>
-      <c r="D192" s="55"/>
+      <c r="A192" s="101"/>
+      <c r="B192" s="102"/>
+      <c r="C192" s="73"/>
+      <c r="D192" s="73"/>
       <c r="E192" s="22" t="s">
         <v>327</v>
       </c>
@@ -46645,10 +46645,10 @@
       </c>
     </row>
     <row r="193" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A193" s="53"/>
-      <c r="B193" s="54"/>
-      <c r="C193" s="55"/>
-      <c r="D193" s="55"/>
+      <c r="A193" s="101"/>
+      <c r="B193" s="102"/>
+      <c r="C193" s="73"/>
+      <c r="D193" s="73"/>
       <c r="E193" s="22" t="s">
         <v>393</v>
       </c>
@@ -46657,10 +46657,10 @@
       </c>
     </row>
     <row r="194" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A194" s="53"/>
-      <c r="B194" s="54"/>
-      <c r="C194" s="55"/>
-      <c r="D194" s="55"/>
+      <c r="A194" s="101"/>
+      <c r="B194" s="102"/>
+      <c r="C194" s="73"/>
+      <c r="D194" s="73"/>
       <c r="E194" s="22" t="s">
         <v>113</v>
       </c>
@@ -46674,11 +46674,70 @@
     <row r="200" spans="1:6" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="85">
-    <mergeCell ref="C8:C12"/>
-    <mergeCell ref="D8:D12"/>
-    <mergeCell ref="D16:D19"/>
-    <mergeCell ref="D164:D171"/>
-    <mergeCell ref="C164:C171"/>
+    <mergeCell ref="A151:A194"/>
+    <mergeCell ref="B161:B163"/>
+    <mergeCell ref="C161:C163"/>
+    <mergeCell ref="C147:C150"/>
+    <mergeCell ref="D172:D180"/>
+    <mergeCell ref="C172:C180"/>
+    <mergeCell ref="B172:B180"/>
+    <mergeCell ref="D188:D194"/>
+    <mergeCell ref="C188:C194"/>
+    <mergeCell ref="B188:B194"/>
+    <mergeCell ref="D181:D187"/>
+    <mergeCell ref="C181:C187"/>
+    <mergeCell ref="B181:B187"/>
+    <mergeCell ref="A107:A150"/>
+    <mergeCell ref="B108:B115"/>
+    <mergeCell ref="C108:C115"/>
+    <mergeCell ref="B147:B150"/>
+    <mergeCell ref="B144:B146"/>
+    <mergeCell ref="C144:C146"/>
+    <mergeCell ref="D144:D146"/>
+    <mergeCell ref="C139:C143"/>
+    <mergeCell ref="D139:D143"/>
+    <mergeCell ref="B139:B143"/>
+    <mergeCell ref="D147:D150"/>
+    <mergeCell ref="A56:A77"/>
+    <mergeCell ref="D82:D89"/>
+    <mergeCell ref="C82:C89"/>
+    <mergeCell ref="B82:B89"/>
+    <mergeCell ref="A78:A106"/>
+    <mergeCell ref="D96:D99"/>
+    <mergeCell ref="C96:C99"/>
+    <mergeCell ref="B96:B99"/>
+    <mergeCell ref="B90:B93"/>
+    <mergeCell ref="D100:D106"/>
+    <mergeCell ref="C100:C106"/>
+    <mergeCell ref="B100:B106"/>
+    <mergeCell ref="D90:D93"/>
+    <mergeCell ref="F63:F68"/>
+    <mergeCell ref="D63:D68"/>
+    <mergeCell ref="C63:C68"/>
+    <mergeCell ref="B63:B68"/>
+    <mergeCell ref="D117:D138"/>
+    <mergeCell ref="D69:D77"/>
+    <mergeCell ref="C69:C77"/>
+    <mergeCell ref="B69:B77"/>
+    <mergeCell ref="B117:B138"/>
+    <mergeCell ref="D108:D115"/>
+    <mergeCell ref="C117:C138"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="A26:A55"/>
+    <mergeCell ref="D38:D46"/>
+    <mergeCell ref="D47:D55"/>
+    <mergeCell ref="C38:C46"/>
+    <mergeCell ref="B38:B46"/>
+    <mergeCell ref="C47:C55"/>
+    <mergeCell ref="B47:B55"/>
+    <mergeCell ref="D27:D32"/>
+    <mergeCell ref="C27:C32"/>
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="A16:A25"/>
+    <mergeCell ref="B8:B12"/>
+    <mergeCell ref="A7:A15"/>
+    <mergeCell ref="C16:C19"/>
+    <mergeCell ref="B16:B19"/>
     <mergeCell ref="B164:B171"/>
     <mergeCell ref="D159:D160"/>
     <mergeCell ref="C159:C160"/>
@@ -46695,70 +46754,11 @@
     <mergeCell ref="C151:C158"/>
     <mergeCell ref="D161:D163"/>
     <mergeCell ref="B151:B158"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="A26:A55"/>
-    <mergeCell ref="D38:D46"/>
-    <mergeCell ref="D47:D55"/>
-    <mergeCell ref="C38:C46"/>
-    <mergeCell ref="B38:B46"/>
-    <mergeCell ref="C47:C55"/>
-    <mergeCell ref="B47:B55"/>
-    <mergeCell ref="D27:D32"/>
-    <mergeCell ref="C27:C32"/>
-    <mergeCell ref="A3:A6"/>
-    <mergeCell ref="A16:A25"/>
-    <mergeCell ref="B8:B12"/>
-    <mergeCell ref="A7:A15"/>
-    <mergeCell ref="C16:C19"/>
-    <mergeCell ref="B16:B19"/>
-    <mergeCell ref="F63:F68"/>
-    <mergeCell ref="D63:D68"/>
-    <mergeCell ref="C63:C68"/>
-    <mergeCell ref="B63:B68"/>
-    <mergeCell ref="D117:D138"/>
-    <mergeCell ref="D69:D77"/>
-    <mergeCell ref="C69:C77"/>
-    <mergeCell ref="B69:B77"/>
-    <mergeCell ref="B117:B138"/>
-    <mergeCell ref="D108:D115"/>
-    <mergeCell ref="C117:C138"/>
-    <mergeCell ref="A56:A77"/>
-    <mergeCell ref="D82:D89"/>
-    <mergeCell ref="C82:C89"/>
-    <mergeCell ref="B82:B89"/>
-    <mergeCell ref="A78:A106"/>
-    <mergeCell ref="D96:D99"/>
-    <mergeCell ref="C96:C99"/>
-    <mergeCell ref="B96:B99"/>
-    <mergeCell ref="B90:B93"/>
-    <mergeCell ref="D100:D106"/>
-    <mergeCell ref="C100:C106"/>
-    <mergeCell ref="B100:B106"/>
-    <mergeCell ref="D90:D93"/>
-    <mergeCell ref="B147:B150"/>
-    <mergeCell ref="B144:B146"/>
-    <mergeCell ref="C144:C146"/>
-    <mergeCell ref="D144:D146"/>
-    <mergeCell ref="C139:C143"/>
-    <mergeCell ref="D139:D143"/>
-    <mergeCell ref="B139:B143"/>
-    <mergeCell ref="D147:D150"/>
-    <mergeCell ref="A151:A194"/>
-    <mergeCell ref="B161:B163"/>
-    <mergeCell ref="C161:C163"/>
-    <mergeCell ref="C147:C150"/>
-    <mergeCell ref="D172:D180"/>
-    <mergeCell ref="C172:C180"/>
-    <mergeCell ref="B172:B180"/>
-    <mergeCell ref="D188:D194"/>
-    <mergeCell ref="C188:C194"/>
-    <mergeCell ref="B188:B194"/>
-    <mergeCell ref="D181:D187"/>
-    <mergeCell ref="C181:C187"/>
-    <mergeCell ref="B181:B187"/>
-    <mergeCell ref="A107:A150"/>
-    <mergeCell ref="B108:B115"/>
-    <mergeCell ref="C108:C115"/>
+    <mergeCell ref="C8:C12"/>
+    <mergeCell ref="D8:D12"/>
+    <mergeCell ref="D16:D19"/>
+    <mergeCell ref="D164:D171"/>
+    <mergeCell ref="C164:C171"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="53" fitToHeight="4" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>

--- a/Spreadsheets/DOM_Spreadsheet.xlsx
+++ b/Spreadsheets/DOM_Spreadsheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/saoirsekelleher/Documents/Research/QAEco/DOM_Review/Spreadsheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED9DF370-9302-7844-9470-33798B0C52B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F16886A5-5949-E246-8510-84B7667C3A2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="520" windowWidth="26880" windowHeight="28300" xr2:uid="{981D9C2C-D510-E947-BD55-27C976277DB6}"/>
+    <workbookView xWindow="20" yWindow="500" windowWidth="26880" windowHeight="28300" xr2:uid="{981D9C2C-D510-E947-BD55-27C976277DB6}"/>
   </bookViews>
   <sheets>
     <sheet name="Article Data" sheetId="10" r:id="rId1"/>
@@ -72,8 +72,6 @@
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={B8220DA5-5FAD-B24D-AEEA-1BC9AAA6A2E1}</author>
-    <author>tc={C98B750B-876B-A048-A128-563CE8E43DCC}</author>
     <author>tc={73E682D2-D154-A54E-AD09-14F672C4E933}</author>
     <author>tc={DB0E7FE7-04E4-914E-98DC-690DFFBE2987}</author>
     <author>tc={FCBD3F9D-AE56-3749-BFFC-6B111FF2DCA8}</author>
@@ -83,23 +81,7 @@
     <author>tc={B4C0F129-054A-724D-AD17-F2572B27E9B9}</author>
   </authors>
   <commentList>
-    <comment ref="P29" authorId="0" shapeId="0" xr:uid="{B8220DA5-5FAD-B24D-AEEA-1BC9AAA6A2E1}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    Transect route</t>
-      </text>
-    </comment>
-    <comment ref="P31" authorId="1" shapeId="0" xr:uid="{C98B750B-876B-A048-A128-563CE8E43DCC}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    Standard route within grid cell</t>
-      </text>
-    </comment>
-    <comment ref="M54" authorId="2" shapeId="0" xr:uid="{73E682D2-D154-A54E-AD09-14F672C4E933}">
+    <comment ref="M54" authorId="0" shapeId="0" xr:uid="{73E682D2-D154-A54E-AD09-14F672C4E933}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -107,7 +89,7 @@
     Immunoassay on deer tissue</t>
       </text>
     </comment>
-    <comment ref="D55" authorId="3" shapeId="0" xr:uid="{DB0E7FE7-04E4-914E-98DC-690DFFBE2987}">
+    <comment ref="D55" authorId="1" shapeId="0" xr:uid="{DB0E7FE7-04E4-914E-98DC-690DFFBE2987}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -115,7 +97,7 @@
     Actual year unclear - authors state study took 1 year/4 seasons</t>
       </text>
     </comment>
-    <comment ref="D57" authorId="4" shapeId="0" xr:uid="{FCBD3F9D-AE56-3749-BFFC-6B111FF2DCA8}">
+    <comment ref="D57" authorId="2" shapeId="0" xr:uid="{FCBD3F9D-AE56-3749-BFFC-6B111FF2DCA8}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -123,7 +105,7 @@
     Month unclear?</t>
       </text>
     </comment>
-    <comment ref="D63" authorId="5" shapeId="0" xr:uid="{6DBBE3F6-AA68-864A-818C-65C9CABFD942}">
+    <comment ref="D63" authorId="3" shapeId="0" xr:uid="{6DBBE3F6-AA68-864A-818C-65C9CABFD942}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -131,7 +113,7 @@
     Somewhat unclear</t>
       </text>
     </comment>
-    <comment ref="P70" authorId="6" shapeId="0" xr:uid="{67FD50A1-CC8B-A34B-B9CE-7955900B4994}">
+    <comment ref="P70" authorId="4" shapeId="0" xr:uid="{67FD50A1-CC8B-A34B-B9CE-7955900B4994}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -139,7 +121,7 @@
     Transect</t>
       </text>
     </comment>
-    <comment ref="P74" authorId="7" shapeId="0" xr:uid="{7ECE793D-E849-6949-9D7E-A75E613750A0}">
+    <comment ref="P74" authorId="5" shapeId="0" xr:uid="{7ECE793D-E849-6949-9D7E-A75E613750A0}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -147,7 +129,7 @@
     Transect</t>
       </text>
     </comment>
-    <comment ref="L108" authorId="8" shapeId="0" xr:uid="{B4C0F129-054A-724D-AD17-F2572B27E9B9}">
+    <comment ref="L108" authorId="6" shapeId="0" xr:uid="{B4C0F129-054A-724D-AD17-F2572B27E9B9}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -245,7 +227,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6679" uniqueCount="1125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6696" uniqueCount="1128">
   <si>
     <t>Review ID</t>
   </si>
@@ -2022,9 +2004,6 @@
     <t>Habitat loss, Pollution, Persecution</t>
   </si>
   <si>
-    <t>1-2</t>
-  </si>
-  <si>
     <t>Preferential</t>
   </si>
   <si>
@@ -2065,9 +2044,6 @@
   </si>
   <si>
     <t>a,b,c</t>
-  </si>
-  <si>
-    <t>69 species of bird</t>
   </si>
   <si>
     <t>Grid, Stratified</t>
@@ -2377,9 +2353,6 @@
 -Pseudomys hermannsburgensis
 -Smithopsis macroura</t>
     </r>
-  </si>
-  <si>
-    <t>6-8</t>
   </si>
   <si>
     <t>E-HABT_SI_D_L, E-HABT_SI_D_L, E-TOPO_SI_R_L, E-HYDR_SI_R_N, E-TOPO_SI_D_L, S-SEAS_SE_I_L</t>
@@ -5617,6 +5590,24 @@
   </si>
   <si>
     <t>Panama, Czechia, Ecuador</t>
+  </si>
+  <si>
+    <t>United States of America, Gabon</t>
+  </si>
+  <si>
+    <t>Australia, Germany, Switzerland</t>
+  </si>
+  <si>
+    <t>69 species of bird; exact species not specified</t>
+  </si>
+  <si>
+    <t>United States of America, New Zealand</t>
+  </si>
+  <si>
+    <t>SP-2008</t>
+  </si>
+  <si>
+    <t>AU-2020</t>
   </si>
 </sst>
 </file>
@@ -6086,7 +6077,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="111">
+  <cellXfs count="113">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -6410,6 +6401,12 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -6839,12 +6836,6 @@
 
 <file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="P29" dT="2024-07-30T04:20:44.89" personId="{7E158FB0-5ED6-8845-85E3-203C36CA0ECA}" id="{B8220DA5-5FAD-B24D-AEEA-1BC9AAA6A2E1}">
-    <text>Transect route</text>
-  </threadedComment>
-  <threadedComment ref="P31" dT="2024-07-30T07:09:26.61" personId="{7E158FB0-5ED6-8845-85E3-203C36CA0ECA}" id="{C98B750B-876B-A048-A128-563CE8E43DCC}">
-    <text>Standard route within grid cell</text>
-  </threadedComment>
   <threadedComment ref="M54" dT="2024-07-31T08:22:19.25" personId="{7E158FB0-5ED6-8845-85E3-203C36CA0ECA}" id="{73E682D2-D154-A54E-AD09-14F672C4E933}">
     <text>Immunoassay on deer tissue</text>
   </threadedComment>
@@ -6899,8 +6890,8 @@
   <dimension ref="A1:XFB128"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E5" sqref="E5"/>
+      <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="16" zeroHeight="1" x14ac:dyDescent="0.2"/>
@@ -6936,7 +6927,7 @@
         <v>6</v>
       </c>
       <c r="G1" s="36" t="s">
-        <v>1053</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="68" x14ac:dyDescent="0.2">
@@ -6959,7 +6950,7 @@
         <v>363</v>
       </c>
       <c r="G2" s="38" t="s">
-        <v>1108</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="51" x14ac:dyDescent="0.2">
@@ -7005,7 +6996,7 @@
         <v>387</v>
       </c>
       <c r="G4" s="38" t="s">
-        <v>1113</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="68" x14ac:dyDescent="0.2">
@@ -7074,7 +7065,7 @@
         <v>417</v>
       </c>
       <c r="G7" s="39" t="s">
-        <v>1116</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="34" x14ac:dyDescent="0.2">
@@ -7120,7 +7111,7 @@
         <v>431</v>
       </c>
       <c r="G9" s="39" t="s">
-        <v>1121</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="51" x14ac:dyDescent="0.2">
@@ -7166,7 +7157,7 @@
         <v>447</v>
       </c>
       <c r="G11" s="39" t="s">
-        <v>1124</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="119" x14ac:dyDescent="0.2">
@@ -7189,7 +7180,7 @@
         <v>460</v>
       </c>
       <c r="G12" s="38" t="s">
-        <v>373</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="51" x14ac:dyDescent="0.2">
@@ -7243,7 +7234,7 @@
         <v>253</v>
       </c>
       <c r="B15" s="39" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C15" s="39">
         <v>2017</v>
@@ -7252,10 +7243,10 @@
         <v>344</v>
       </c>
       <c r="E15" s="39" t="s">
+        <v>484</v>
+      </c>
+      <c r="F15" s="39" t="s">
         <v>485</v>
-      </c>
-      <c r="F15" s="39" t="s">
-        <v>486</v>
       </c>
       <c r="G15" s="39" t="s">
         <v>373</v>
@@ -7266,7 +7257,7 @@
         <v>180</v>
       </c>
       <c r="B16" s="38" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C16" s="38">
         <v>2021</v>
@@ -7275,13 +7266,13 @@
         <v>345</v>
       </c>
       <c r="E16" s="38" t="s">
+        <v>490</v>
+      </c>
+      <c r="F16" s="38" t="s">
         <v>491</v>
       </c>
-      <c r="F16" s="38" t="s">
-        <v>492</v>
-      </c>
       <c r="G16" s="38" t="s">
-        <v>493</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="68" x14ac:dyDescent="0.2">
@@ -7289,7 +7280,7 @@
         <v>723</v>
       </c>
       <c r="B17" s="39" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="C17" s="39">
         <v>2007</v>
@@ -7298,10 +7289,10 @@
         <v>341</v>
       </c>
       <c r="E17" s="39" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="F17" s="39" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="G17" s="39" t="s">
         <v>373</v>
@@ -7312,7 +7303,7 @@
         <v>124</v>
       </c>
       <c r="B18" s="38" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="C18" s="38">
         <v>2010</v>
@@ -7321,13 +7312,13 @@
         <v>342</v>
       </c>
       <c r="E18" s="38" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="F18" s="38" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="G18" s="38" t="s">
-        <v>373</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="68" x14ac:dyDescent="0.2">
@@ -7335,7 +7326,7 @@
         <v>1013</v>
       </c>
       <c r="B19" s="39" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="C19" s="39">
         <v>2013</v>
@@ -7347,10 +7338,10 @@
         <v>432</v>
       </c>
       <c r="F19" s="39" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="G19" s="39" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="68" x14ac:dyDescent="0.2">
@@ -7358,7 +7349,7 @@
         <v>321</v>
       </c>
       <c r="B20" s="38" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="C20" s="38">
         <v>2019</v>
@@ -7367,10 +7358,10 @@
         <v>344</v>
       </c>
       <c r="E20" s="38" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="F20" s="38" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="G20" s="38" t="s">
         <v>373</v>
@@ -7381,7 +7372,7 @@
         <v>413</v>
       </c>
       <c r="B21" s="39" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="C21" s="39">
         <v>2022</v>
@@ -7390,13 +7381,13 @@
         <v>345</v>
       </c>
       <c r="E21" s="39" t="s">
+        <v>533</v>
+      </c>
+      <c r="F21" s="39" t="s">
+        <v>534</v>
+      </c>
+      <c r="G21" s="39" t="s">
         <v>535</v>
-      </c>
-      <c r="F21" s="39" t="s">
-        <v>536</v>
-      </c>
-      <c r="G21" s="39" t="s">
-        <v>537</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="68" x14ac:dyDescent="0.2">
@@ -7404,7 +7395,7 @@
         <v>70</v>
       </c>
       <c r="B22" s="38" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="C22" s="38">
         <v>2007</v>
@@ -7413,10 +7404,10 @@
         <v>341</v>
       </c>
       <c r="E22" s="38" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="F22" s="38" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="G22" s="38" t="s">
         <v>377</v>
@@ -7427,7 +7418,7 @@
         <v>281</v>
       </c>
       <c r="B23" s="39" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="C23" s="39">
         <v>2011</v>
@@ -7436,13 +7427,13 @@
         <v>342</v>
       </c>
       <c r="E23" s="39" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="G23" s="39" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="85" x14ac:dyDescent="0.2">
@@ -7450,7 +7441,7 @@
         <v>697</v>
       </c>
       <c r="B24" s="38" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="C24" s="38">
         <v>2014</v>
@@ -7459,10 +7450,10 @@
         <v>343</v>
       </c>
       <c r="E24" s="38" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="F24" s="38" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="G24" s="38" t="s">
         <v>373</v>
@@ -7473,7 +7464,7 @@
         <v>385</v>
       </c>
       <c r="B25" s="39" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="C25" s="39">
         <v>2017</v>
@@ -7482,10 +7473,10 @@
         <v>344</v>
       </c>
       <c r="E25" s="39" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="F25" s="39" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="G25" s="39" t="s">
         <v>421</v>
@@ -7496,7 +7487,7 @@
         <v>556</v>
       </c>
       <c r="B26" s="38" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="C26" s="38">
         <v>2023</v>
@@ -7505,10 +7496,10 @@
         <v>345</v>
       </c>
       <c r="E26" s="38" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="F26" s="38" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="G26" s="38" t="s">
         <v>373</v>
@@ -7519,7 +7510,7 @@
         <v>37</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="C27" s="39">
         <v>2007</v>
@@ -7531,7 +7522,7 @@
         <v>372</v>
       </c>
       <c r="F27" s="39" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="G27" s="39" t="s">
         <v>373</v>
@@ -7542,7 +7533,7 @@
         <v>62</v>
       </c>
       <c r="B28" s="38" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="C28" s="38">
         <v>2011</v>
@@ -7551,10 +7542,10 @@
         <v>342</v>
       </c>
       <c r="E28" s="38" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="F28" s="38" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="G28" s="38" t="s">
         <v>373</v>
@@ -7565,7 +7556,7 @@
         <v>675</v>
       </c>
       <c r="B29" s="39" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="C29" s="39">
         <v>2012</v>
@@ -7577,7 +7568,7 @@
         <v>432</v>
       </c>
       <c r="F29" s="39" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="G29" s="39" t="s">
         <v>373</v>
@@ -7588,7 +7579,7 @@
         <v>730</v>
       </c>
       <c r="B30" s="38" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="C30" s="38">
         <v>2016</v>
@@ -7597,10 +7588,10 @@
         <v>344</v>
       </c>
       <c r="E30" s="38" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="F30" s="38" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="G30" s="38" t="s">
         <v>373</v>
@@ -7611,7 +7602,7 @@
         <v>200</v>
       </c>
       <c r="B31" s="39" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="C31" s="39">
         <v>2022</v>
@@ -7620,10 +7611,10 @@
         <v>345</v>
       </c>
       <c r="E31" s="39" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="F31" s="39" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="G31" s="39" t="s">
         <v>373</v>
@@ -7634,7 +7625,7 @@
         <v>17</v>
       </c>
       <c r="B32" s="38" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="C32" s="38">
         <v>2005</v>
@@ -7643,10 +7634,10 @@
         <v>341</v>
       </c>
       <c r="E32" s="38" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="F32" s="38" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="G32" s="38" t="s">
         <v>373</v>
@@ -7657,7 +7648,7 @@
         <v>76</v>
       </c>
       <c r="B33" s="39" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="C33" s="39">
         <v>2011</v>
@@ -7669,7 +7660,7 @@
         <v>416</v>
       </c>
       <c r="F33" s="39" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="G33" s="39" t="s">
         <v>373</v>
@@ -7680,7 +7671,7 @@
         <v>1292</v>
       </c>
       <c r="B34" s="38" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="C34" s="38">
         <v>2012</v>
@@ -7689,10 +7680,10 @@
         <v>343</v>
       </c>
       <c r="E34" s="38" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="F34" s="38" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="G34" s="38" t="s">
         <v>396</v>
@@ -7703,7 +7694,7 @@
         <v>1074</v>
       </c>
       <c r="B35" s="39" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="C35" s="39">
         <v>2019</v>
@@ -7715,10 +7706,10 @@
         <v>432</v>
       </c>
       <c r="F35" s="39" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="G35" s="39" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="68" x14ac:dyDescent="0.2">
@@ -7726,7 +7717,7 @@
         <v>526</v>
       </c>
       <c r="B36" s="38" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="C36" s="38">
         <v>2022</v>
@@ -7735,10 +7726,10 @@
         <v>345</v>
       </c>
       <c r="E36" s="38" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="F36" s="38" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="G36" s="38" t="s">
         <v>373</v>
@@ -7749,7 +7740,7 @@
         <v>240</v>
       </c>
       <c r="B37" s="39" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="C37" s="39">
         <v>2007</v>
@@ -7758,10 +7749,10 @@
         <v>341</v>
       </c>
       <c r="E37" s="39" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="F37" s="39" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="G37" s="39" t="s">
         <v>389</v>
@@ -7772,7 +7763,7 @@
         <v>128</v>
       </c>
       <c r="B38" s="38" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="C38" s="38">
         <v>2011</v>
@@ -7781,13 +7772,13 @@
         <v>342</v>
       </c>
       <c r="E38" s="38" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="F38" s="38" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="G38" s="38" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="51" x14ac:dyDescent="0.2">
@@ -7795,7 +7786,7 @@
         <v>1139</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="C39" s="39">
         <v>2015</v>
@@ -7804,10 +7795,10 @@
         <v>343</v>
       </c>
       <c r="E39" s="39" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="G39" s="39" t="s">
         <v>373</v>
@@ -7818,7 +7809,7 @@
         <v>27</v>
       </c>
       <c r="B40" s="38" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="C40" s="38">
         <v>2017</v>
@@ -7827,10 +7818,10 @@
         <v>344</v>
       </c>
       <c r="E40" s="38" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="F40" s="38" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="G40" s="38" t="s">
         <v>373</v>
@@ -7841,7 +7832,7 @@
         <v>515</v>
       </c>
       <c r="B41" s="39" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="C41" s="39">
         <v>2023</v>
@@ -7850,10 +7841,10 @@
         <v>345</v>
       </c>
       <c r="E41" s="39" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="F41" s="39" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="G41" s="39" t="s">
         <v>373</v>
@@ -7864,7 +7855,7 @@
         <v>49</v>
       </c>
       <c r="B42" s="38" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="C42" s="38">
         <v>2007</v>
@@ -7873,10 +7864,10 @@
         <v>341</v>
       </c>
       <c r="E42" s="38" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="F42" s="38" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="G42" s="38" t="s">
         <v>373</v>
@@ -7887,7 +7878,7 @@
         <v>822</v>
       </c>
       <c r="B43" s="39" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
       <c r="C43" s="39">
         <v>2011</v>
@@ -7896,10 +7887,10 @@
         <v>342</v>
       </c>
       <c r="E43" s="39" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="F43" s="39" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="G43" s="39" t="s">
         <v>396</v>
@@ -7910,7 +7901,7 @@
         <v>237</v>
       </c>
       <c r="B44" s="38" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="C44" s="38">
         <v>2014</v>
@@ -7919,10 +7910,10 @@
         <v>343</v>
       </c>
       <c r="E44" s="38" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="F44" s="38" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="G44" s="38" t="s">
         <v>373</v>
@@ -7933,7 +7924,7 @@
         <v>69</v>
       </c>
       <c r="B45" s="39" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
       <c r="C45" s="39">
         <v>2017</v>
@@ -7942,13 +7933,13 @@
         <v>344</v>
       </c>
       <c r="E45" s="39" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="F45" s="39" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="G45" s="39" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="85" x14ac:dyDescent="0.2">
@@ -7956,7 +7947,7 @@
         <v>261</v>
       </c>
       <c r="B46" s="38" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="C46" s="38">
         <v>2023</v>
@@ -7965,10 +7956,10 @@
         <v>345</v>
       </c>
       <c r="E46" s="38" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="F46" s="38" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="G46" s="38" t="s">
         <v>389</v>
@@ -7979,7 +7970,7 @@
         <v>336</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
       <c r="C47" s="39">
         <v>2007</v>
@@ -7988,10 +7979,10 @@
         <v>341</v>
       </c>
       <c r="E47" s="39" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
       <c r="F47" s="39" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="G47" s="39" t="s">
         <v>373</v>
@@ -8002,7 +7993,7 @@
         <v>157</v>
       </c>
       <c r="B48" s="38" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="C48" s="38">
         <v>2008</v>
@@ -8011,10 +8002,10 @@
         <v>342</v>
       </c>
       <c r="E48" s="38" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="F48" s="38" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="G48" s="38" t="s">
         <v>373</v>
@@ -8025,7 +8016,7 @@
         <v>46</v>
       </c>
       <c r="B49" s="39" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
       <c r="C49" s="39">
         <v>2012</v>
@@ -8037,7 +8028,7 @@
         <v>416</v>
       </c>
       <c r="F49" s="39" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
       <c r="G49" s="39" t="s">
         <v>373</v>
@@ -8048,7 +8039,7 @@
         <v>43</v>
       </c>
       <c r="B50" s="38" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
       <c r="C50" s="38">
         <v>2018</v>
@@ -8057,10 +8048,10 @@
         <v>344</v>
       </c>
       <c r="E50" s="38" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
       <c r="F50" s="38" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="G50" s="38" t="s">
         <v>373</v>
@@ -8071,7 +8062,7 @@
         <v>154</v>
       </c>
       <c r="B51" s="39" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
       <c r="C51" s="39">
         <v>2020</v>
@@ -8080,10 +8071,10 @@
         <v>345</v>
       </c>
       <c r="E51" s="39" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
       <c r="G51" s="39" t="s">
         <v>373</v>
@@ -8094,7 +8085,7 @@
         <v>2</v>
       </c>
       <c r="B52" s="38" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
       <c r="C52" s="38">
         <v>2005</v>
@@ -8106,10 +8097,10 @@
         <v>416</v>
       </c>
       <c r="F52" s="38" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
       <c r="G52" s="38" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
     </row>
     <row r="53" spans="1:7" ht="51" x14ac:dyDescent="0.2">
@@ -8117,7 +8108,7 @@
         <v>1148</v>
       </c>
       <c r="B53" s="39" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
       <c r="C53" s="39">
         <v>2009</v>
@@ -8126,10 +8117,10 @@
         <v>342</v>
       </c>
       <c r="E53" s="39" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
       <c r="F53" s="39" t="s">
-        <v>767</v>
+        <v>764</v>
       </c>
       <c r="G53" s="39" t="s">
         <v>373</v>
@@ -8140,7 +8131,7 @@
         <v>366</v>
       </c>
       <c r="B54" s="38" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
       <c r="C54" s="38">
         <v>2014</v>
@@ -8149,10 +8140,10 @@
         <v>343</v>
       </c>
       <c r="E54" s="38" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="F54" s="38" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
       <c r="G54" s="38" t="s">
         <v>373</v>
@@ -8163,7 +8154,7 @@
         <v>144</v>
       </c>
       <c r="B55" s="39" t="s">
-        <v>778</v>
+        <v>775</v>
       </c>
       <c r="C55" s="39">
         <v>2016</v>
@@ -8172,10 +8163,10 @@
         <v>344</v>
       </c>
       <c r="E55" s="39" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="F55" s="39" t="s">
-        <v>779</v>
+        <v>776</v>
       </c>
       <c r="G55" s="39" t="s">
         <v>373</v>
@@ -8186,7 +8177,7 @@
         <v>154</v>
       </c>
       <c r="B56" s="38" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
       <c r="C56" s="38">
         <v>2023</v>
@@ -8195,10 +8186,10 @@
         <v>345</v>
       </c>
       <c r="E56" s="38" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
       <c r="F56" s="38" t="s">
-        <v>786</v>
+        <v>783</v>
       </c>
       <c r="G56" s="38" t="s">
         <v>373</v>
@@ -8209,7 +8200,7 @@
         <v>654</v>
       </c>
       <c r="B57" s="39" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
       <c r="C57" s="39">
         <v>2005</v>
@@ -8218,13 +8209,13 @@
         <v>341</v>
       </c>
       <c r="E57" s="39" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="G57" s="39" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
     </row>
     <row r="58" spans="1:7" ht="51" x14ac:dyDescent="0.2">
@@ -8232,7 +8223,7 @@
         <v>600</v>
       </c>
       <c r="B58" s="38" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
       <c r="C58" s="38">
         <v>2009</v>
@@ -8241,10 +8232,10 @@
         <v>342</v>
       </c>
       <c r="E58" s="38" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
       <c r="F58" s="38" t="s">
-        <v>795</v>
+        <v>792</v>
       </c>
       <c r="G58" s="38" t="s">
         <v>373</v>
@@ -8255,7 +8246,7 @@
         <v>162</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
       <c r="C59" s="39">
         <v>2013</v>
@@ -8264,10 +8255,10 @@
         <v>343</v>
       </c>
       <c r="E59" s="39" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
       <c r="G59" s="39" t="s">
         <v>373</v>
@@ -8278,7 +8269,7 @@
         <v>18</v>
       </c>
       <c r="B60" s="38" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
       <c r="C60" s="38">
         <v>2016</v>
@@ -8287,10 +8278,10 @@
         <v>344</v>
       </c>
       <c r="E60" s="38" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="F60" s="38" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="G60" s="38" t="s">
         <v>373</v>
@@ -8301,7 +8292,7 @@
         <v>521</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>816</v>
+        <v>813</v>
       </c>
       <c r="C61" s="39">
         <v>2023</v>
@@ -8313,7 +8304,7 @@
         <v>372</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>815</v>
+        <v>812</v>
       </c>
       <c r="G61" s="39" t="s">
         <v>377</v>
@@ -8324,7 +8315,7 @@
         <v>34</v>
       </c>
       <c r="B62" s="38" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
       <c r="C62" s="38">
         <v>2010</v>
@@ -8333,10 +8324,10 @@
         <v>342</v>
       </c>
       <c r="E62" s="38" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
       <c r="F62" s="38" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="G62" s="38" t="s">
         <v>373</v>
@@ -8347,7 +8338,7 @@
         <v>409</v>
       </c>
       <c r="B63" s="39" t="s">
-        <v>828</v>
+        <v>825</v>
       </c>
       <c r="C63" s="39">
         <v>2015</v>
@@ -8356,10 +8347,10 @@
         <v>343</v>
       </c>
       <c r="E63" s="39" t="s">
-        <v>829</v>
+        <v>826</v>
       </c>
       <c r="F63" s="39" t="s">
-        <v>830</v>
+        <v>827</v>
       </c>
       <c r="G63" s="39" t="s">
         <v>364</v>
@@ -8370,7 +8361,7 @@
         <v>291</v>
       </c>
       <c r="B64" s="38" t="s">
-        <v>834</v>
+        <v>831</v>
       </c>
       <c r="C64" s="38">
         <v>2016</v>
@@ -8379,10 +8370,10 @@
         <v>344</v>
       </c>
       <c r="E64" s="38" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="F64" s="38" t="s">
-        <v>835</v>
+        <v>832</v>
       </c>
       <c r="G64" s="38" t="s">
         <v>396</v>
@@ -8393,7 +8384,7 @@
         <v>488</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>842</v>
+        <v>839</v>
       </c>
       <c r="C65" s="39">
         <v>2023</v>
@@ -8402,10 +8393,10 @@
         <v>345</v>
       </c>
       <c r="E65" s="39" t="s">
-        <v>843</v>
+        <v>840</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>844</v>
+        <v>841</v>
       </c>
       <c r="G65" s="39" t="s">
         <v>396</v>
@@ -8416,7 +8407,7 @@
         <v>53</v>
       </c>
       <c r="B66" s="38" t="s">
-        <v>852</v>
+        <v>849</v>
       </c>
       <c r="C66" s="38">
         <v>2009</v>
@@ -8428,7 +8419,7 @@
         <v>372</v>
       </c>
       <c r="F66" s="38" t="s">
-        <v>853</v>
+        <v>850</v>
       </c>
       <c r="G66" s="38" t="s">
         <v>373</v>
@@ -8439,7 +8430,7 @@
         <v>543</v>
       </c>
       <c r="B67" s="39" t="s">
-        <v>863</v>
+        <v>860</v>
       </c>
       <c r="C67" s="39">
         <v>2013</v>
@@ -8448,13 +8439,13 @@
         <v>343</v>
       </c>
       <c r="E67" s="39" t="s">
-        <v>864</v>
+        <v>861</v>
       </c>
       <c r="F67" s="39" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
       <c r="G67" s="39" t="s">
-        <v>865</v>
+        <v>862</v>
       </c>
     </row>
     <row r="68" spans="1:7" ht="51" x14ac:dyDescent="0.2">
@@ -8462,7 +8453,7 @@
         <v>208</v>
       </c>
       <c r="B68" s="38" t="s">
-        <v>868</v>
+        <v>865</v>
       </c>
       <c r="C68" s="38">
         <v>2016</v>
@@ -8471,13 +8462,13 @@
         <v>344</v>
       </c>
       <c r="E68" s="38" t="s">
-        <v>869</v>
+        <v>866</v>
       </c>
       <c r="F68" s="38" t="s">
-        <v>870</v>
+        <v>867</v>
       </c>
       <c r="G68" s="38" t="s">
-        <v>871</v>
+        <v>868</v>
       </c>
     </row>
     <row r="69" spans="1:7" ht="68" x14ac:dyDescent="0.2">
@@ -8485,7 +8476,7 @@
         <v>415</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>879</v>
+        <v>876</v>
       </c>
       <c r="C69" s="39">
         <v>2022</v>
@@ -8494,10 +8485,10 @@
         <v>345</v>
       </c>
       <c r="E69" s="39" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>880</v>
+        <v>877</v>
       </c>
       <c r="G69" s="39" t="s">
         <v>373</v>
@@ -8508,7 +8499,7 @@
         <v>373</v>
       </c>
       <c r="B70" s="38" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
       <c r="C70" s="38">
         <v>2008</v>
@@ -8517,13 +8508,13 @@
         <v>342</v>
       </c>
       <c r="E70" s="38" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
       <c r="F70" s="38" t="s">
-        <v>886</v>
+        <v>883</v>
       </c>
       <c r="G70" s="38" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
     </row>
     <row r="71" spans="1:7" ht="85" x14ac:dyDescent="0.2">
@@ -8531,7 +8522,7 @@
         <v>707</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>888</v>
+        <v>885</v>
       </c>
       <c r="C71" s="39">
         <v>2012</v>
@@ -8540,10 +8531,10 @@
         <v>343</v>
       </c>
       <c r="E71" s="39" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="F71" s="39" t="s">
-        <v>889</v>
+        <v>886</v>
       </c>
       <c r="G71" s="39" t="s">
         <v>421</v>
@@ -8554,7 +8545,7 @@
         <v>360</v>
       </c>
       <c r="B72" s="38" t="s">
-        <v>894</v>
+        <v>891</v>
       </c>
       <c r="C72" s="38">
         <v>2017</v>
@@ -8563,10 +8554,10 @@
         <v>344</v>
       </c>
       <c r="E72" s="38" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="F72" s="38" t="s">
-        <v>895</v>
+        <v>892</v>
       </c>
       <c r="G72" s="38" t="s">
         <v>373</v>
@@ -8577,7 +8568,7 @@
         <v>315</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>901</v>
+        <v>898</v>
       </c>
       <c r="C73" s="39">
         <v>2020</v>
@@ -8586,10 +8577,10 @@
         <v>345</v>
       </c>
       <c r="E73" s="39" t="s">
-        <v>902</v>
+        <v>899</v>
       </c>
       <c r="F73" s="39" t="s">
-        <v>903</v>
+        <v>900</v>
       </c>
       <c r="G73" s="39" t="s">
         <v>373</v>
@@ -8600,7 +8591,7 @@
         <v>164</v>
       </c>
       <c r="B74" s="38" t="s">
-        <v>911</v>
+        <v>908</v>
       </c>
       <c r="C74" s="38">
         <v>2009</v>
@@ -8612,7 +8603,7 @@
         <v>416</v>
       </c>
       <c r="F74" s="38" t="s">
-        <v>912</v>
+        <v>909</v>
       </c>
       <c r="G74" s="38" t="s">
         <v>373</v>
@@ -8623,7 +8614,7 @@
         <v>482</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="C75" s="39">
         <v>2012</v>
@@ -8632,10 +8623,10 @@
         <v>343</v>
       </c>
       <c r="E75" s="39" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="F75" s="39" t="s">
-        <v>914</v>
+        <v>911</v>
       </c>
       <c r="G75" s="39" t="s">
         <v>373</v>
@@ -8646,7 +8637,7 @@
         <v>251</v>
       </c>
       <c r="B76" s="38" t="s">
-        <v>919</v>
+        <v>916</v>
       </c>
       <c r="C76" s="38">
         <v>2018</v>
@@ -8655,10 +8646,10 @@
         <v>344</v>
       </c>
       <c r="E76" s="38" t="s">
-        <v>920</v>
+        <v>917</v>
       </c>
       <c r="F76" s="38" t="s">
-        <v>921</v>
+        <v>918</v>
       </c>
       <c r="G76" s="38" t="s">
         <v>373</v>
@@ -8669,7 +8660,7 @@
         <v>353</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>927</v>
+        <v>924</v>
       </c>
       <c r="C77" s="39">
         <v>2022</v>
@@ -8678,13 +8669,13 @@
         <v>345</v>
       </c>
       <c r="E77" s="39" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="F77" s="39" t="s">
-        <v>928</v>
+        <v>925</v>
       </c>
       <c r="G77" s="39" t="s">
-        <v>929</v>
+        <v>926</v>
       </c>
     </row>
     <row r="78" spans="1:7" ht="68" x14ac:dyDescent="0.2">
@@ -8692,7 +8683,7 @@
         <v>309</v>
       </c>
       <c r="B78" s="38" t="s">
-        <v>936</v>
+        <v>933</v>
       </c>
       <c r="C78" s="38">
         <v>2011</v>
@@ -8701,10 +8692,10 @@
         <v>342</v>
       </c>
       <c r="E78" s="38" t="s">
-        <v>902</v>
+        <v>899</v>
       </c>
       <c r="F78" s="38" t="s">
-        <v>937</v>
+        <v>934</v>
       </c>
       <c r="G78" s="38" t="s">
         <v>373</v>
@@ -8715,7 +8706,7 @@
         <v>388</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>942</v>
+        <v>939</v>
       </c>
       <c r="C79" s="39">
         <v>2012</v>
@@ -8724,10 +8715,10 @@
         <v>343</v>
       </c>
       <c r="E79" s="39" t="s">
-        <v>943</v>
+        <v>940</v>
       </c>
       <c r="F79" s="39" t="s">
-        <v>944</v>
+        <v>941</v>
       </c>
       <c r="G79" s="39" t="s">
         <v>373</v>
@@ -8738,7 +8729,7 @@
         <v>329</v>
       </c>
       <c r="B80" s="38" t="s">
-        <v>949</v>
+        <v>946</v>
       </c>
       <c r="C80" s="38">
         <v>2017</v>
@@ -8747,13 +8738,13 @@
         <v>344</v>
       </c>
       <c r="E80" s="38" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="F80" s="38" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
       <c r="G80" s="38" t="s">
-        <v>950</v>
+        <v>947</v>
       </c>
     </row>
     <row r="81" spans="1:8" ht="51" x14ac:dyDescent="0.2">
@@ -8761,7 +8752,7 @@
         <v>1353</v>
       </c>
       <c r="B81" s="39" t="s">
-        <v>958</v>
+        <v>955</v>
       </c>
       <c r="C81" s="39">
         <v>2022</v>
@@ -8773,7 +8764,7 @@
         <v>437</v>
       </c>
       <c r="F81" s="39" t="s">
-        <v>959</v>
+        <v>956</v>
       </c>
       <c r="G81" s="39" t="s">
         <v>373</v>
@@ -8784,7 +8775,7 @@
         <v>98</v>
       </c>
       <c r="B82" s="38" t="s">
-        <v>964</v>
+        <v>961</v>
       </c>
       <c r="C82" s="38">
         <v>2010</v>
@@ -8793,10 +8784,10 @@
         <v>342</v>
       </c>
       <c r="E82" s="38" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="F82" s="38" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="G82" s="38" t="s">
         <v>373</v>
@@ -8807,7 +8798,7 @@
         <v>277</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
       <c r="C83" s="39">
         <v>2014</v>
@@ -8816,10 +8807,10 @@
         <v>343</v>
       </c>
       <c r="E83" s="39" t="s">
-        <v>970</v>
+        <v>967</v>
       </c>
       <c r="F83" s="39" t="s">
-        <v>971</v>
+        <v>968</v>
       </c>
       <c r="G83" s="39" t="s">
         <v>396</v>
@@ -8830,7 +8821,7 @@
         <v>1051</v>
       </c>
       <c r="B84" s="38" t="s">
-        <v>975</v>
+        <v>972</v>
       </c>
       <c r="C84" s="38">
         <v>2019</v>
@@ -8839,10 +8830,10 @@
         <v>344</v>
       </c>
       <c r="E84" s="38" t="s">
-        <v>976</v>
+        <v>973</v>
       </c>
       <c r="F84" s="38" t="s">
-        <v>977</v>
+        <v>974</v>
       </c>
       <c r="G84" s="38" t="s">
         <v>373</v>
@@ -8853,7 +8844,7 @@
         <v>435</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>985</v>
+        <v>982</v>
       </c>
       <c r="C85" s="39">
         <v>2022</v>
@@ -8862,13 +8853,13 @@
         <v>345</v>
       </c>
       <c r="E85" s="39" t="s">
-        <v>986</v>
+        <v>983</v>
       </c>
       <c r="F85" s="39" t="s">
-        <v>987</v>
+        <v>984</v>
       </c>
       <c r="G85" s="39" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="86" spans="1:8" ht="51" x14ac:dyDescent="0.2">
@@ -8876,7 +8867,7 @@
         <v>127</v>
       </c>
       <c r="B86" s="38" t="s">
-        <v>992</v>
+        <v>989</v>
       </c>
       <c r="C86" s="38">
         <v>2010</v>
@@ -8885,10 +8876,10 @@
         <v>342</v>
       </c>
       <c r="E86" s="38" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="F86" s="38" t="s">
-        <v>993</v>
+        <v>990</v>
       </c>
       <c r="G86" s="38" t="s">
         <v>373</v>
@@ -8899,7 +8890,7 @@
         <v>109</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>998</v>
+        <v>995</v>
       </c>
       <c r="C87" s="39">
         <v>2012</v>
@@ -8908,10 +8899,10 @@
         <v>343</v>
       </c>
       <c r="E87" s="39" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="F87" s="39" t="s">
-        <v>999</v>
+        <v>996</v>
       </c>
       <c r="G87" s="39" t="s">
         <v>373</v>
@@ -8922,7 +8913,7 @@
         <v>380</v>
       </c>
       <c r="B88" s="38" t="s">
-        <v>1003</v>
+        <v>1000</v>
       </c>
       <c r="C88" s="38">
         <v>2019</v>
@@ -8931,10 +8922,10 @@
         <v>344</v>
       </c>
       <c r="E88" s="38" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="F88" s="38" t="s">
-        <v>1004</v>
+        <v>1001</v>
       </c>
       <c r="G88" s="38" t="s">
         <v>373</v>
@@ -8945,7 +8936,7 @@
         <v>313</v>
       </c>
       <c r="B89" s="39" t="s">
-        <v>1007</v>
+        <v>1004</v>
       </c>
       <c r="C89" s="39">
         <v>2021</v>
@@ -8954,10 +8945,10 @@
         <v>345</v>
       </c>
       <c r="E89" s="39" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="F89" s="39" t="s">
-        <v>1009</v>
+        <v>1006</v>
       </c>
       <c r="G89" s="39" t="s">
         <v>389</v>
@@ -8968,7 +8959,7 @@
         <v>94</v>
       </c>
       <c r="B90" s="38" t="s">
-        <v>1012</v>
+        <v>1009</v>
       </c>
       <c r="C90" s="38">
         <v>2010</v>
@@ -8977,13 +8968,13 @@
         <v>342</v>
       </c>
       <c r="E90" s="38" t="s">
-        <v>1013</v>
+        <v>1010</v>
       </c>
       <c r="F90" s="38" t="s">
-        <v>1014</v>
+        <v>1011</v>
       </c>
       <c r="G90" s="38" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="91" spans="1:8" ht="34" x14ac:dyDescent="0.2">
@@ -8991,7 +8982,7 @@
         <v>295</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>1018</v>
+        <v>1015</v>
       </c>
       <c r="C91" s="39">
         <v>2014</v>
@@ -9000,10 +8991,10 @@
         <v>343</v>
       </c>
       <c r="E91" s="39" t="s">
-        <v>1019</v>
+        <v>1016</v>
       </c>
       <c r="F91" s="39" t="s">
-        <v>1020</v>
+        <v>1017</v>
       </c>
       <c r="G91" s="39" t="s">
         <v>373</v>
@@ -9014,7 +9005,7 @@
         <v>138</v>
       </c>
       <c r="B92" s="38" t="s">
-        <v>1023</v>
+        <v>1020</v>
       </c>
       <c r="C92" s="38">
         <v>2019</v>
@@ -9023,10 +9014,10 @@
         <v>344</v>
       </c>
       <c r="E92" s="38" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="F92" s="38" t="s">
-        <v>1035</v>
+        <v>1032</v>
       </c>
       <c r="G92" s="38" t="s">
         <v>373</v>
@@ -9040,7 +9031,7 @@
         <v>549</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
       <c r="C93" s="39">
         <v>2023</v>
@@ -9049,10 +9040,10 @@
         <v>345</v>
       </c>
       <c r="E93" s="39" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="F93" s="39" t="s">
-        <v>1036</v>
+        <v>1033</v>
       </c>
       <c r="G93" s="39" t="s">
         <v>373</v>
@@ -9245,8 +9236,8 @@
   <dimension ref="A1:I130"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
+      <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="16" zeroHeight="1" x14ac:dyDescent="0.2"/>
@@ -9277,7 +9268,7 @@
         <v>325</v>
       </c>
       <c r="E1" s="40" t="s">
-        <v>1062</v>
+        <v>1059</v>
       </c>
       <c r="F1" s="40" t="s">
         <v>326</v>
@@ -9736,7 +9727,7 @@
         <v>Can dynamic occupancy models improve predictions of species' range dynamics? A test using Swiss birds</v>
       </c>
       <c r="C16" s="38" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="D16" s="38" t="s">
         <v>367</v>
@@ -9798,13 +9789,13 @@
         <v>Monitoring golden-cheeked warblers on private lands in Texas</v>
       </c>
       <c r="C18" s="38" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="D18" s="38" t="s">
+        <v>366</v>
+      </c>
+      <c r="E18" s="38" t="s">
         <v>367</v>
-      </c>
-      <c r="E18" s="38" t="s">
-        <v>366</v>
       </c>
       <c r="F18" s="38" t="s">
         <v>366</v>
@@ -9866,7 +9857,7 @@
         <v>366</v>
       </c>
       <c r="E20" s="38" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="F20" s="38" t="s">
         <v>367</v>
@@ -9959,10 +9950,10 @@
         <v>367</v>
       </c>
       <c r="E23" s="39" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="F23" s="39" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="G23" s="39" t="s">
         <v>366</v>
@@ -10030,7 +10021,7 @@
         <v>366</v>
       </c>
       <c r="H25" s="39" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="I25" s="39" t="s">
         <v>366</v>
@@ -10077,7 +10068,7 @@
         <v>An empirical evaluation of the area and isolation paradigm of metapopulation dynamics</v>
       </c>
       <c r="C27" s="39" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="D27" s="39" t="s">
         <v>366</v>
@@ -10201,7 +10192,7 @@
         <v>Decadal-scale phenology and seasonal climate drivers of migratory baleen whales in a rapidly warming marine ecosystem</v>
       </c>
       <c r="C31" s="39" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="D31" s="39" t="s">
         <v>366</v>
@@ -10790,7 +10781,7 @@
         <v>Are ranger patrols effective in reducing poaching-related threats within protected areas?</v>
       </c>
       <c r="C50" s="38" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="D50" s="38" t="s">
         <v>366</v>
@@ -10852,7 +10843,7 @@
         <v>Improving inferences in popoulation studies of rare species that are detected imperfectly</v>
       </c>
       <c r="C52" s="38" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="D52" s="38" t="s">
         <v>367</v>
@@ -10883,7 +10874,7 @@
         <v>A threshold response to habitat disturbance by forest birds in the Choco Andean corridor, Northwest Ecuador</v>
       </c>
       <c r="C53" s="39" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="D53" s="39" t="s">
         <v>366</v>
@@ -11100,7 +11091,7 @@
         <v>The effects of habitat, climate, and Barred Owls on long-term demography of Northern Spotted Owls</v>
       </c>
       <c r="C60" s="38" t="s">
-        <v>808</v>
+        <v>805</v>
       </c>
       <c r="D60" s="38" t="s">
         <v>366</v>
@@ -11131,7 +11122,7 @@
         <v>Intensive agriculture as the main limiting factor of the otter's return in southwest France</v>
       </c>
       <c r="C61" s="39" t="s">
-        <v>817</v>
+        <v>814</v>
       </c>
       <c r="D61" s="39" t="s">
         <v>366</v>
@@ -11255,7 +11246,7 @@
         <v>Influence of surrounding land cover on marsh-breeding birds: Implications for wetland restoration and conservation planning</v>
       </c>
       <c r="C65" s="39" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="D65" s="39" t="s">
         <v>366</v>
@@ -11410,7 +11401,7 @@
         <v>Dynamics of an endangered New Zealand skink: accounting for incomplete detectability in estimating patch occupancy</v>
       </c>
       <c r="C70" s="38" t="s">
-        <v>817</v>
+        <v>814</v>
       </c>
       <c r="D70" s="38" t="s">
         <v>366</v>
@@ -11441,7 +11432,7 @@
         <v>Monitoring in the presence of species misidentification: the case of the Eurasian lynx in the Alps</v>
       </c>
       <c r="C71" s="39" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="D71" s="39" t="s">
         <v>366</v>
@@ -11627,7 +11618,7 @@
         <v>Collaboration for conservation: Assessing countrywide carnivore occupancy dynamics from sparse data</v>
       </c>
       <c r="C77" s="39" t="s">
-        <v>930</v>
+        <v>927</v>
       </c>
       <c r="D77" s="39" t="s">
         <v>367</v>
@@ -11720,7 +11711,7 @@
         <v>Territory occupancy and breeding success of Peregrine Falcons Falco peregrinus at various stages of population recovery</v>
       </c>
       <c r="C80" s="38" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="D80" s="38" t="s">
         <v>366</v>
@@ -11813,7 +11804,7 @@
         <v>DIFFERENCE IN DETECTION AND OCCUPANCY BETWEEN TWO ANURANS: THE IMPORTANCE OF SPECIES-SPECIFIC MONITORING</v>
       </c>
       <c r="C83" s="39" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="D83" s="39" t="s">
         <v>366</v>
@@ -11844,7 +11835,7 @@
         <v>Ecological and social consequences of bison reintroduction in Colorado</v>
       </c>
       <c r="C84" s="38" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="D84" s="38" t="s">
         <v>366</v>
@@ -11875,7 +11866,7 @@
         <v>Experimentally testing the response of feral cats and their prey to poison baiting</v>
       </c>
       <c r="C85" s="39" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="D85" s="39" t="s">
         <v>366</v>
@@ -11906,7 +11897,7 @@
         <v>Site Occupancy Dynamics of Northern Spotted Owls in the Eastern Cascades, Washington, USA, 1990-2003</v>
       </c>
       <c r="C86" s="38" t="s">
-        <v>994</v>
+        <v>991</v>
       </c>
       <c r="D86" s="38" t="s">
         <v>366</v>
@@ -12092,7 +12083,7 @@
         <v>A multistate dynamic occupancy model to estimate local colonization &amp; extinction rates and patterns of co-occurrence between two or more interacting species</v>
       </c>
       <c r="C92" s="38" t="s">
-        <v>1024</v>
+        <v>1021</v>
       </c>
       <c r="D92" s="38" t="s">
         <v>367</v>
@@ -12123,7 +12114,7 @@
         <v>Accounting for misclassification of subspecies provides insights about habitat use and dynamics of the Florida Grasshopper Sparrow in response to fire</v>
       </c>
       <c r="C93" s="39" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="D93" s="39" t="s">
         <v>366</v>
@@ -12485,8 +12476,8 @@
   <dimension ref="A1:K175"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H12" sqref="H12"/>
+      <pane ySplit="1" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" zeroHeight="1" x14ac:dyDescent="0.2"/>
@@ -12543,7 +12534,7 @@
         <v>368</v>
       </c>
       <c r="D2" s="33" t="s">
-        <v>1109</v>
+        <v>1106</v>
       </c>
       <c r="E2" s="33" t="s">
         <v>55</v>
@@ -12586,7 +12577,7 @@
         <v>72</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>1112</v>
+        <v>1109</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>412</v>
@@ -12651,7 +12642,7 @@
         <v>74</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>1114</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="51" x14ac:dyDescent="0.2">
@@ -12760,7 +12751,7 @@
         <v>368</v>
       </c>
       <c r="D9" s="33" t="s">
-        <v>1118</v>
+        <v>1115</v>
       </c>
       <c r="E9" s="33" t="s">
         <v>54</v>
@@ -12772,7 +12763,7 @@
         <v>67</v>
       </c>
       <c r="H9" s="33" t="s">
-        <v>1119</v>
+        <v>1116</v>
       </c>
       <c r="I9" s="33" t="s">
         <v>57</v>
@@ -12791,7 +12782,7 @@
         <v>368</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>1123</v>
+        <v>1120</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>54</v>
@@ -12803,7 +12794,7 @@
         <v>67</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>1122</v>
+        <v>1119</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>96</v>
@@ -13067,10 +13058,10 @@
         <v>Distinguishing distribution dynamics from temporary emigration using dynamic occupancy models</v>
       </c>
       <c r="C19" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="D19" s="2" t="s">
         <v>487</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>488</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>55</v>
@@ -13082,10 +13073,10 @@
         <v>67</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="68" x14ac:dyDescent="0.2">
@@ -13098,10 +13089,10 @@
         <v>Can dynamic occupancy models improve predictions of species' range dynamics? A test using Swiss birds</v>
       </c>
       <c r="C20" s="33" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="D20" s="33" t="s">
-        <v>496</v>
+        <v>1124</v>
       </c>
       <c r="E20" s="33" t="s">
         <v>55</v>
@@ -13113,10 +13104,10 @@
         <v>67</v>
       </c>
       <c r="H20" s="33" t="s">
-        <v>81</v>
+        <v>133</v>
       </c>
       <c r="I20" s="33" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="85" x14ac:dyDescent="0.2">
@@ -13132,7 +13123,7 @@
         <v>368</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>55</v>
@@ -13147,7 +13138,7 @@
         <v>76</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="34" x14ac:dyDescent="0.2">
@@ -13163,7 +13154,7 @@
         <v>368</v>
       </c>
       <c r="D22" s="33" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="E22" s="33" t="s">
         <v>55</v>
@@ -13194,7 +13185,7 @@
         <v>368</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>56</v>
@@ -13209,7 +13200,7 @@
         <v>77</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="68" x14ac:dyDescent="0.2">
@@ -13225,7 +13216,7 @@
         <v>368</v>
       </c>
       <c r="D24" s="33" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="E24" s="33" t="s">
         <v>55</v>
@@ -13237,10 +13228,10 @@
         <v>67</v>
       </c>
       <c r="H24" s="33" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="I24" s="33" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="51" x14ac:dyDescent="0.2">
@@ -13256,7 +13247,7 @@
         <v>368</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>54</v>
@@ -13271,7 +13262,7 @@
         <v>74</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="85" x14ac:dyDescent="0.2">
@@ -13287,7 +13278,7 @@
         <v>368</v>
       </c>
       <c r="D26" s="33" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="E26" s="33" t="s">
         <v>55</v>
@@ -13318,7 +13309,7 @@
         <v>368</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>54</v>
@@ -13330,10 +13321,10 @@
         <v>67</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="68" x14ac:dyDescent="0.2">
@@ -13349,7 +13340,7 @@
         <v>368</v>
       </c>
       <c r="D28" s="33" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="E28" s="33" t="s">
         <v>55</v>
@@ -13380,7 +13371,7 @@
         <v>368</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>55</v>
@@ -13395,7 +13386,7 @@
         <v>74</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="51" x14ac:dyDescent="0.2">
@@ -13411,7 +13402,7 @@
         <v>398</v>
       </c>
       <c r="D30" s="33" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="E30" s="33" t="s">
         <v>56</v>
@@ -13426,7 +13417,7 @@
         <v>74</v>
       </c>
       <c r="I30" s="33" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="51" x14ac:dyDescent="0.2">
@@ -13442,7 +13433,7 @@
         <v>368</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>58</v>
@@ -13473,7 +13464,7 @@
         <v>400</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>58</v>
@@ -13504,7 +13495,7 @@
         <v>449</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>56</v>
@@ -13535,7 +13526,7 @@
         <v>450</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>55</v>
@@ -13566,7 +13557,7 @@
         <v>368</v>
       </c>
       <c r="D35" s="33" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="E35" s="33" t="s">
         <v>55</v>
@@ -13597,7 +13588,7 @@
         <v>368</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>54</v>
@@ -13628,7 +13619,7 @@
         <v>368</v>
       </c>
       <c r="D37" s="33" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="E37" s="33" t="s">
         <v>54</v>
@@ -13659,7 +13650,7 @@
         <v>368</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>54</v>
@@ -13674,7 +13665,7 @@
         <v>78</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="68" x14ac:dyDescent="0.2">
@@ -13682,13 +13673,13 @@
         <v>200</v>
       </c>
       <c r="B39" s="39" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>400</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>54</v>
@@ -13703,7 +13694,7 @@
         <v>81</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="68" x14ac:dyDescent="0.2">
@@ -13719,7 +13710,7 @@
         <v>368</v>
       </c>
       <c r="D40" s="33" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="E40" s="33" t="s">
         <v>55</v>
@@ -13750,7 +13741,7 @@
         <v>368</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>55</v>
@@ -13781,7 +13772,7 @@
         <v>400</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>55</v>
@@ -13812,7 +13803,7 @@
         <v>398</v>
       </c>
       <c r="D43" s="33" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="E43" s="33" t="s">
         <v>55</v>
@@ -13843,7 +13834,7 @@
         <v>368</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>54</v>
@@ -13874,7 +13865,7 @@
         <v>368</v>
       </c>
       <c r="D45" s="33" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="E45" s="33" t="s">
         <v>57</v>
@@ -13905,7 +13896,7 @@
         <v>368</v>
       </c>
       <c r="D46" s="33" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="E46" s="33" t="s">
         <v>54</v>
@@ -13936,7 +13927,7 @@
         <v>368</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>58</v>
@@ -13967,7 +13958,7 @@
         <v>368</v>
       </c>
       <c r="D48" s="33" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="E48" s="33" t="s">
         <v>56</v>
@@ -13998,7 +13989,7 @@
         <v>368</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>54</v>
@@ -14029,7 +14020,7 @@
         <v>368</v>
       </c>
       <c r="D50" s="33" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="E50" s="33" t="s">
         <v>54</v>
@@ -14044,7 +14035,7 @@
         <v>338</v>
       </c>
       <c r="I50" s="33" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
     </row>
     <row r="51" spans="1:9" ht="103" customHeight="1" x14ac:dyDescent="0.2">
@@ -14060,7 +14051,7 @@
         <v>368</v>
       </c>
       <c r="D51" s="33" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="E51" s="33" t="s">
         <v>54</v>
@@ -14091,7 +14082,7 @@
         <v>368</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>56</v>
@@ -14122,7 +14113,7 @@
         <v>368</v>
       </c>
       <c r="D53" s="33" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="E53" s="33" t="s">
         <v>55</v>
@@ -14153,7 +14144,7 @@
         <v>368</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>55</v>
@@ -14168,7 +14159,7 @@
         <v>76</v>
       </c>
       <c r="I54" s="2" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
     </row>
     <row r="55" spans="1:9" ht="68" x14ac:dyDescent="0.2">
@@ -14184,7 +14175,7 @@
         <v>368</v>
       </c>
       <c r="D55" s="33" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="E55" s="33" t="s">
         <v>54</v>
@@ -14199,7 +14190,7 @@
         <v>338</v>
       </c>
       <c r="I55" s="33" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
     </row>
     <row r="56" spans="1:9" ht="85" x14ac:dyDescent="0.2">
@@ -14215,7 +14206,7 @@
         <v>368</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>54</v>
@@ -14246,7 +14237,7 @@
         <v>368</v>
       </c>
       <c r="D57" s="33" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="E57" s="33" t="s">
         <v>56</v>
@@ -14277,7 +14268,7 @@
         <v>398</v>
       </c>
       <c r="D58" s="49" t="s">
-        <v>751</v>
+        <v>748</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>56</v>
@@ -14308,7 +14299,7 @@
         <v>368</v>
       </c>
       <c r="D59" s="33" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="E59" s="33" t="s">
         <v>55</v>
@@ -14339,7 +14330,7 @@
         <v>368</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>745</v>
+        <v>742</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>57</v>
@@ -14370,7 +14361,7 @@
         <v>368</v>
       </c>
       <c r="D61" s="33" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
       <c r="E61" s="33" t="s">
         <v>55</v>
@@ -14401,7 +14392,7 @@
         <v>368</v>
       </c>
       <c r="D62" s="33" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
       <c r="E62" s="33" t="s">
         <v>55</v>
@@ -14432,7 +14423,7 @@
         <v>368</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>56</v>
@@ -14463,7 +14454,7 @@
         <v>368</v>
       </c>
       <c r="D64" s="33" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
       <c r="E64" s="33" t="s">
         <v>55</v>
@@ -14494,7 +14485,7 @@
         <v>368</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>55</v>
@@ -14525,7 +14516,7 @@
         <v>368</v>
       </c>
       <c r="D66" s="33" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
       <c r="E66" s="33" t="s">
         <v>55</v>
@@ -14556,7 +14547,7 @@
         <v>368</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>54</v>
@@ -14587,7 +14578,7 @@
         <v>368</v>
       </c>
       <c r="D68" s="33" t="s">
-        <v>793</v>
+        <v>790</v>
       </c>
       <c r="E68" s="33" t="s">
         <v>56</v>
@@ -14618,7 +14609,7 @@
         <v>368</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>796</v>
+        <v>793</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>55</v>
@@ -14649,7 +14640,7 @@
         <v>400</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
       <c r="E70" s="2" t="s">
         <v>55</v>
@@ -14680,7 +14671,7 @@
         <v>368</v>
       </c>
       <c r="D71" s="33" t="s">
-        <v>800</v>
+        <v>797</v>
       </c>
       <c r="E71" s="33" t="s">
         <v>55</v>
@@ -14708,10 +14699,10 @@
         <v>The effects of habitat, climate, and Barred Owls on long-term demography of Northern Spotted Owls</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>811</v>
+        <v>808</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>810</v>
+        <v>807</v>
       </c>
       <c r="E72" s="2" t="s">
         <v>55</v>
@@ -14739,10 +14730,10 @@
         <v>The effects of habitat, climate, and Barred Owls on long-term demography of Northern Spotted Owls</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>811</v>
+        <v>808</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="E73" s="2" t="s">
         <v>55</v>
@@ -14773,7 +14764,7 @@
         <v>368</v>
       </c>
       <c r="D74" s="33" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
       <c r="E74" s="33" t="s">
         <v>54</v>
@@ -14788,7 +14779,7 @@
         <v>76</v>
       </c>
       <c r="I74" s="33" t="s">
-        <v>819</v>
+        <v>816</v>
       </c>
     </row>
     <row r="75" spans="1:9" ht="68" x14ac:dyDescent="0.2">
@@ -14804,7 +14795,7 @@
         <v>368</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>825</v>
+        <v>822</v>
       </c>
       <c r="E75" s="2" t="s">
         <v>55</v>
@@ -14835,7 +14826,7 @@
         <v>368</v>
       </c>
       <c r="D76" s="33" t="s">
-        <v>831</v>
+        <v>828</v>
       </c>
       <c r="E76" s="33" t="s">
         <v>54</v>
@@ -14866,7 +14857,7 @@
         <v>368</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>836</v>
+        <v>833</v>
       </c>
       <c r="E77" s="2" t="s">
         <v>55</v>
@@ -14897,7 +14888,7 @@
         <v>400</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
       <c r="E78" s="2" t="s">
         <v>55</v>
@@ -14928,7 +14919,7 @@
         <v>368</v>
       </c>
       <c r="D79" s="33" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
       <c r="E79" s="33" t="s">
         <v>55</v>
@@ -14959,7 +14950,7 @@
         <v>368</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>854</v>
+        <v>851</v>
       </c>
       <c r="E80" s="2" t="s">
         <v>55</v>
@@ -14990,7 +14981,7 @@
         <v>368</v>
       </c>
       <c r="D81" s="33" t="s">
-        <v>867</v>
+        <v>864</v>
       </c>
       <c r="E81" s="33" t="s">
         <v>55</v>
@@ -15021,7 +15012,7 @@
         <v>368</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>873</v>
+        <v>870</v>
       </c>
       <c r="E82" s="2" t="s">
         <v>55</v>
@@ -15052,7 +15043,7 @@
         <v>368</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>872</v>
+        <v>869</v>
       </c>
       <c r="E83" s="2" t="s">
         <v>55</v>
@@ -15083,7 +15074,7 @@
         <v>368</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>874</v>
+        <v>871</v>
       </c>
       <c r="E84" s="2" t="s">
         <v>55</v>
@@ -15114,7 +15105,7 @@
         <v>368</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>875</v>
+        <v>872</v>
       </c>
       <c r="E85" s="2" t="s">
         <v>55</v>
@@ -15145,7 +15136,7 @@
         <v>368</v>
       </c>
       <c r="D86" s="33" t="s">
-        <v>881</v>
+        <v>878</v>
       </c>
       <c r="E86" s="33" t="s">
         <v>58</v>
@@ -15176,7 +15167,7 @@
         <v>368</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="E87" s="2" t="s">
         <v>56</v>
@@ -15191,7 +15182,7 @@
         <v>77</v>
       </c>
       <c r="I87" s="2" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
     </row>
     <row r="88" spans="1:9" ht="51" x14ac:dyDescent="0.2">
@@ -15207,7 +15198,7 @@
         <v>368</v>
       </c>
       <c r="D88" s="33" t="s">
-        <v>891</v>
+        <v>888</v>
       </c>
       <c r="E88" s="33" t="s">
         <v>54</v>
@@ -15238,7 +15229,7 @@
         <v>368</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>896</v>
+        <v>893</v>
       </c>
       <c r="E89" s="2" t="s">
         <v>54</v>
@@ -15269,7 +15260,7 @@
         <v>368</v>
       </c>
       <c r="D90" s="33" t="s">
-        <v>904</v>
+        <v>901</v>
       </c>
       <c r="E90" s="33" t="s">
         <v>56</v>
@@ -15300,7 +15291,7 @@
         <v>368</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>854</v>
+        <v>851</v>
       </c>
       <c r="E91" s="2" t="s">
         <v>55</v>
@@ -15331,7 +15322,7 @@
         <v>368</v>
       </c>
       <c r="D92" s="33" t="s">
-        <v>915</v>
+        <v>912</v>
       </c>
       <c r="E92" s="33" t="s">
         <v>55</v>
@@ -15362,7 +15353,7 @@
         <v>368</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>922</v>
+        <v>919</v>
       </c>
       <c r="E93" s="2" t="s">
         <v>54</v>
@@ -15393,7 +15384,7 @@
         <v>368</v>
       </c>
       <c r="D94" s="33" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="E94" s="33" t="s">
         <v>54</v>
@@ -15424,7 +15415,7 @@
         <v>368</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>938</v>
+        <v>935</v>
       </c>
       <c r="E95" s="2" t="s">
         <v>54</v>
@@ -15455,7 +15446,7 @@
         <v>368</v>
       </c>
       <c r="D96" s="33" t="s">
-        <v>945</v>
+        <v>942</v>
       </c>
       <c r="E96" s="33" t="s">
         <v>56</v>
@@ -15486,7 +15477,7 @@
         <v>368</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>951</v>
+        <v>948</v>
       </c>
       <c r="E97" s="2" t="s">
         <v>55</v>
@@ -15501,7 +15492,7 @@
         <v>74</v>
       </c>
       <c r="I97" s="2" t="s">
-        <v>952</v>
+        <v>949</v>
       </c>
     </row>
     <row r="98" spans="1:9" ht="68" x14ac:dyDescent="0.2">
@@ -15517,7 +15508,7 @@
         <v>368</v>
       </c>
       <c r="D98" s="33" t="s">
-        <v>854</v>
+        <v>851</v>
       </c>
       <c r="E98" s="33" t="s">
         <v>55</v>
@@ -15532,7 +15523,7 @@
         <v>74</v>
       </c>
       <c r="I98" s="33" t="s">
-        <v>960</v>
+        <v>957</v>
       </c>
     </row>
     <row r="99" spans="1:9" ht="68" x14ac:dyDescent="0.2">
@@ -15548,7 +15539,7 @@
         <v>368</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>966</v>
+        <v>963</v>
       </c>
       <c r="E99" s="2" t="s">
         <v>55</v>
@@ -15579,7 +15570,7 @@
         <v>368</v>
       </c>
       <c r="D100" s="33" t="s">
-        <v>972</v>
+        <v>969</v>
       </c>
       <c r="E100" s="33" t="s">
         <v>56</v>
@@ -15610,7 +15601,7 @@
         <v>368</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>978</v>
+        <v>975</v>
       </c>
       <c r="E101" s="2" t="s">
         <v>55</v>
@@ -15641,7 +15632,7 @@
         <v>400</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>979</v>
+        <v>976</v>
       </c>
       <c r="E102" s="2" t="s">
         <v>54</v>
@@ -15669,10 +15660,10 @@
         <v>Experimentally testing the response of feral cats and their prey to poison baiting</v>
       </c>
       <c r="C103" s="33" t="s">
-        <v>988</v>
+        <v>985</v>
       </c>
       <c r="D103" s="33" t="s">
-        <v>989</v>
+        <v>986</v>
       </c>
       <c r="E103" s="33" t="s">
         <v>54</v>
@@ -15703,7 +15694,7 @@
         <v>368</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>995</v>
+        <v>992</v>
       </c>
       <c r="E104" s="2" t="s">
         <v>55</v>
@@ -15734,7 +15725,7 @@
         <v>398</v>
       </c>
       <c r="D105" s="33" t="s">
-        <v>1000</v>
+        <v>997</v>
       </c>
       <c r="E105" s="33" t="s">
         <v>55</v>
@@ -15765,7 +15756,7 @@
         <v>368</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>1005</v>
+        <v>1002</v>
       </c>
       <c r="E106" s="2" t="s">
         <v>54</v>
@@ -15796,7 +15787,7 @@
         <v>368</v>
       </c>
       <c r="D107" s="33" t="s">
-        <v>1010</v>
+        <v>1007</v>
       </c>
       <c r="E107" s="33" t="s">
         <v>59</v>
@@ -15827,7 +15818,7 @@
         <v>368</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>1015</v>
+        <v>1012</v>
       </c>
       <c r="E108" s="2" t="s">
         <v>56</v>
@@ -15842,7 +15833,7 @@
         <v>76</v>
       </c>
       <c r="I108" s="2" t="s">
-        <v>1016</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="109" spans="1:9" ht="51" x14ac:dyDescent="0.2">
@@ -15858,7 +15849,7 @@
         <v>368</v>
       </c>
       <c r="D109" s="33" t="s">
-        <v>1021</v>
+        <v>1018</v>
       </c>
       <c r="E109" s="33" t="s">
         <v>55</v>
@@ -15889,7 +15880,7 @@
         <v>368</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>1025</v>
+        <v>1022</v>
       </c>
       <c r="E110" s="2" t="s">
         <v>54</v>
@@ -15920,7 +15911,7 @@
         <v>368</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>1026</v>
+        <v>1023</v>
       </c>
       <c r="E111" s="2" t="s">
         <v>54</v>
@@ -15951,7 +15942,7 @@
         <v>368</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>1027</v>
+        <v>1024</v>
       </c>
       <c r="E112" s="2" t="s">
         <v>54</v>
@@ -15982,7 +15973,7 @@
         <v>368</v>
       </c>
       <c r="D113" s="33" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
       <c r="E113" s="33" t="s">
         <v>55</v>
@@ -16418,8 +16409,8 @@
   <dimension ref="A1:J158"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
+      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" zeroHeight="1" x14ac:dyDescent="0.2"/>
@@ -16907,7 +16898,7 @@
         <v>Distinguishing distribution dynamics from temporary emigration using dynamic occupancy models</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>373</v>
@@ -16938,7 +16929,7 @@
         <v>Can dynamic occupancy models improve predictions of species' range dynamics? A test using Swiss birds</v>
       </c>
       <c r="C17" s="33" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="D17" s="33" t="s">
         <v>421</v>
@@ -17034,7 +17025,7 @@
         <v>368</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>113</v>
@@ -17096,7 +17087,7 @@
         <v>368</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>110</v>
@@ -17158,7 +17149,7 @@
         <v>368</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>113</v>
@@ -17437,7 +17428,7 @@
         <v>368</v>
       </c>
       <c r="D33" s="33" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="E33" s="33" t="s">
         <v>108</v>
@@ -17716,7 +17707,7 @@
         <v>368</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>111</v>
@@ -17809,7 +17800,7 @@
         <v>368</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>110</v>
@@ -18026,7 +18017,7 @@
         <v>368</v>
       </c>
       <c r="D52" s="33" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="E52" s="33" t="s">
         <v>113</v>
@@ -18181,7 +18172,7 @@
         <v>368</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>112</v>
@@ -18274,7 +18265,7 @@
         <v>368</v>
       </c>
       <c r="D60" s="33" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
       <c r="E60" s="33" t="s">
         <v>109</v>
@@ -18643,7 +18634,7 @@
         <v>The effects of habitat, climate, and Barred Owls on long-term demography of Northern Spotted Owls</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="D72" s="2" t="s">
         <v>373</v>
@@ -18674,7 +18665,7 @@
         <v>The effects of habitat, climate, and Barred Owls on long-term demography of Northern Spotted Owls</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="D73" s="2" t="s">
         <v>373</v>
@@ -18705,7 +18696,7 @@
         <v>The effects of habitat, climate, and Barred Owls on long-term demography of Northern Spotted Owls</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
       <c r="D74" s="2" t="s">
         <v>373</v>
@@ -18736,7 +18727,7 @@
         <v>The effects of habitat, climate, and Barred Owls on long-term demography of Northern Spotted Owls</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="D75" s="2" t="s">
         <v>373</v>
@@ -18767,7 +18758,7 @@
         <v>The effects of habitat, climate, and Barred Owls on long-term demography of Northern Spotted Owls</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D76" s="2" t="s">
         <v>373</v>
@@ -18798,7 +18789,7 @@
         <v>The effects of habitat, climate, and Barred Owls on long-term demography of Northern Spotted Owls</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
       <c r="D77" s="2" t="s">
         <v>373</v>
@@ -18829,7 +18820,7 @@
         <v>The effects of habitat, climate, and Barred Owls on long-term demography of Northern Spotted Owls</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
       <c r="D78" s="2" t="s">
         <v>373</v>
@@ -18956,7 +18947,7 @@
         <v>368</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>838</v>
+        <v>835</v>
       </c>
       <c r="E82" s="2" t="s">
         <v>108</v>
@@ -18987,7 +18978,7 @@
         <v>400</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>838</v>
+        <v>835</v>
       </c>
       <c r="E83" s="2" t="s">
         <v>108</v>
@@ -19080,7 +19071,7 @@
         <v>368</v>
       </c>
       <c r="D86" s="33" t="s">
-        <v>865</v>
+        <v>862</v>
       </c>
       <c r="E86" s="33" t="s">
         <v>110</v>
@@ -19111,7 +19102,7 @@
         <v>368</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>876</v>
+        <v>873</v>
       </c>
       <c r="E87" s="2" t="s">
         <v>112</v>
@@ -19173,7 +19164,7 @@
         <v>368</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="E89" s="2" t="s">
         <v>113</v>
@@ -19204,7 +19195,7 @@
         <v>368</v>
       </c>
       <c r="D90" s="33" t="s">
-        <v>892</v>
+        <v>889</v>
       </c>
       <c r="E90" s="33" t="s">
         <v>110</v>
@@ -19390,7 +19381,7 @@
         <v>368</v>
       </c>
       <c r="D96" s="33" t="s">
-        <v>929</v>
+        <v>926</v>
       </c>
       <c r="E96" s="33" t="s">
         <v>112</v>
@@ -19483,7 +19474,7 @@
         <v>368</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>953</v>
+        <v>950</v>
       </c>
       <c r="E99" s="2" t="s">
         <v>110</v>
@@ -19635,10 +19626,10 @@
         <v>Experimentally testing the response of feral cats and their prey to poison baiting</v>
       </c>
       <c r="C104" s="33" t="s">
-        <v>988</v>
+        <v>985</v>
       </c>
       <c r="D104" s="33" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="E104" s="33" t="s">
         <v>113</v>
@@ -19793,7 +19784,7 @@
         <v>368</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="E109" s="2" t="s">
         <v>113</v>
@@ -20283,8 +20274,8 @@
   <dimension ref="A1:R211"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K16" sqref="K16"/>
+      <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P36" sqref="P36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" zeroHeight="1" x14ac:dyDescent="0.2"/>
@@ -20320,19 +20311,19 @@
         <v>23</v>
       </c>
       <c r="G1" s="44" t="s">
+        <v>1077</v>
+      </c>
+      <c r="H1" s="44" t="s">
+        <v>1079</v>
+      </c>
+      <c r="I1" s="44" t="s">
         <v>1080</v>
       </c>
-      <c r="H1" s="44" t="s">
+      <c r="J1" s="44" t="s">
+        <v>1081</v>
+      </c>
+      <c r="K1" s="44" t="s">
         <v>1082</v>
-      </c>
-      <c r="I1" s="44" t="s">
-        <v>1083</v>
-      </c>
-      <c r="J1" s="44" t="s">
-        <v>1084</v>
-      </c>
-      <c r="K1" s="44" t="s">
-        <v>1085</v>
       </c>
       <c r="L1" s="44" t="s">
         <v>24</v>
@@ -21199,13 +21190,21 @@
       <c r="F17" s="38">
         <v>2</v>
       </c>
-      <c r="G17" s="38"/>
+      <c r="G17" s="38">
+        <v>3</v>
+      </c>
       <c r="H17" s="38">
-        <v>4</v>
-      </c>
-      <c r="I17" s="38"/>
-      <c r="J17" s="38"/>
-      <c r="K17" s="38"/>
+        <v>2</v>
+      </c>
+      <c r="I17" s="38">
+        <v>2</v>
+      </c>
+      <c r="J17" s="38">
+        <v>2</v>
+      </c>
+      <c r="K17" s="38">
+        <v>2</v>
+      </c>
       <c r="L17" s="38" t="s">
         <v>132</v>
       </c>
@@ -21246,13 +21245,21 @@
       <c r="F18" s="39">
         <v>4</v>
       </c>
-      <c r="G18" s="39"/>
-      <c r="H18" s="50" t="s">
-        <v>471</v>
-      </c>
-      <c r="I18" s="50"/>
-      <c r="J18" s="50"/>
-      <c r="K18" s="50"/>
+      <c r="G18" s="39">
+        <v>3</v>
+      </c>
+      <c r="H18" s="111">
+        <v>2</v>
+      </c>
+      <c r="I18" s="111">
+        <v>3</v>
+      </c>
+      <c r="J18" s="50" t="s">
+        <v>322</v>
+      </c>
+      <c r="K18" s="50" t="s">
+        <v>322</v>
+      </c>
       <c r="L18" s="39" t="s">
         <v>129</v>
       </c>
@@ -21293,13 +21300,21 @@
       <c r="F19" s="38">
         <v>2</v>
       </c>
-      <c r="G19" s="38"/>
-      <c r="H19" s="51" t="s">
-        <v>481</v>
-      </c>
-      <c r="I19" s="51"/>
-      <c r="J19" s="51"/>
-      <c r="K19" s="51"/>
+      <c r="G19" s="38">
+        <v>5</v>
+      </c>
+      <c r="H19" s="112">
+        <v>1</v>
+      </c>
+      <c r="I19" s="112">
+        <v>5</v>
+      </c>
+      <c r="J19" s="51" t="s">
+        <v>322</v>
+      </c>
+      <c r="K19" s="51" t="s">
+        <v>322</v>
+      </c>
       <c r="L19" s="38" t="s">
         <v>129</v>
       </c>
@@ -21316,7 +21331,7 @@
         <v>155</v>
       </c>
       <c r="Q19" s="38" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="20" spans="1:17" ht="68" x14ac:dyDescent="0.2">
@@ -21340,13 +21355,21 @@
       <c r="F20" s="39">
         <v>2</v>
       </c>
-      <c r="G20" s="39"/>
+      <c r="G20" s="39">
+        <v>0.67</v>
+      </c>
       <c r="H20" s="39">
         <v>3</v>
       </c>
-      <c r="I20" s="39"/>
-      <c r="J20" s="39"/>
-      <c r="K20" s="39"/>
+      <c r="I20" s="39">
+        <v>3</v>
+      </c>
+      <c r="J20" s="39">
+        <v>3</v>
+      </c>
+      <c r="K20" s="39">
+        <v>3</v>
+      </c>
       <c r="L20" s="39" t="s">
         <v>131</v>
       </c>
@@ -21387,13 +21410,21 @@
       <c r="F21" s="39">
         <v>2</v>
       </c>
-      <c r="G21" s="39"/>
+      <c r="G21" s="39">
+        <v>0.03</v>
+      </c>
       <c r="H21" s="39">
         <v>3</v>
       </c>
-      <c r="I21" s="39"/>
-      <c r="J21" s="39"/>
-      <c r="K21" s="39"/>
+      <c r="I21" s="39">
+        <v>3</v>
+      </c>
+      <c r="J21" s="39">
+        <v>3</v>
+      </c>
+      <c r="K21" s="39">
+        <v>3</v>
+      </c>
       <c r="L21" s="39" t="s">
         <v>131</v>
       </c>
@@ -21434,13 +21465,21 @@
       <c r="F22" s="39">
         <v>2</v>
       </c>
-      <c r="G22" s="39"/>
-      <c r="H22" s="39" t="s">
-        <v>481</v>
-      </c>
-      <c r="I22" s="39"/>
-      <c r="J22" s="39"/>
-      <c r="K22" s="39"/>
+      <c r="G22" s="39">
+        <v>0.67</v>
+      </c>
+      <c r="H22" s="39">
+        <v>1</v>
+      </c>
+      <c r="I22" s="39">
+        <v>2</v>
+      </c>
+      <c r="J22" s="39">
+        <v>1.5</v>
+      </c>
+      <c r="K22" s="39">
+        <v>1.5</v>
+      </c>
       <c r="L22" s="39" t="s">
         <v>129</v>
       </c>
@@ -21481,13 +21520,21 @@
       <c r="F23" s="38">
         <v>3</v>
       </c>
-      <c r="G23" s="38"/>
-      <c r="H23" s="51" t="s">
-        <v>471</v>
-      </c>
-      <c r="I23" s="51"/>
-      <c r="J23" s="51"/>
-      <c r="K23" s="51"/>
+      <c r="G23" s="38">
+        <v>4</v>
+      </c>
+      <c r="H23" s="112">
+        <v>2</v>
+      </c>
+      <c r="I23" s="112">
+        <v>3</v>
+      </c>
+      <c r="J23" s="51" t="s">
+        <v>322</v>
+      </c>
+      <c r="K23" s="51" t="s">
+        <v>322</v>
+      </c>
       <c r="L23" s="38" t="s">
         <v>129</v>
       </c>
@@ -21504,7 +21551,7 @@
         <v>154</v>
       </c>
       <c r="Q23" s="38" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
     </row>
     <row r="24" spans="1:17" ht="68" x14ac:dyDescent="0.2">
@@ -21528,13 +21575,21 @@
       <c r="F24" s="38">
         <v>5</v>
       </c>
-      <c r="G24" s="38"/>
-      <c r="H24" s="51" t="s">
-        <v>471</v>
-      </c>
-      <c r="I24" s="51"/>
-      <c r="J24" s="51"/>
-      <c r="K24" s="51"/>
+      <c r="G24" s="38">
+        <v>4</v>
+      </c>
+      <c r="H24" s="112">
+        <v>2</v>
+      </c>
+      <c r="I24" s="112">
+        <v>3</v>
+      </c>
+      <c r="J24" s="51" t="s">
+        <v>322</v>
+      </c>
+      <c r="K24" s="51" t="s">
+        <v>322</v>
+      </c>
       <c r="L24" s="38" t="s">
         <v>129</v>
       </c>
@@ -21551,7 +21606,7 @@
         <v>154</v>
       </c>
       <c r="Q24" s="38" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
     </row>
     <row r="25" spans="1:17" ht="68" x14ac:dyDescent="0.2">
@@ -21575,13 +21630,21 @@
       <c r="F25" s="38">
         <v>10</v>
       </c>
-      <c r="G25" s="38"/>
-      <c r="H25" s="51" t="s">
-        <v>471</v>
-      </c>
-      <c r="I25" s="51"/>
-      <c r="J25" s="51"/>
-      <c r="K25" s="51"/>
+      <c r="G25" s="38">
+        <v>4</v>
+      </c>
+      <c r="H25" s="112">
+        <v>2</v>
+      </c>
+      <c r="I25" s="112">
+        <v>3</v>
+      </c>
+      <c r="J25" s="51" t="s">
+        <v>322</v>
+      </c>
+      <c r="K25" s="51" t="s">
+        <v>322</v>
+      </c>
       <c r="L25" s="38" t="s">
         <v>129</v>
       </c>
@@ -21598,7 +21661,7 @@
         <v>154</v>
       </c>
       <c r="Q25" s="38" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
     </row>
     <row r="26" spans="1:17" ht="102" x14ac:dyDescent="0.2">
@@ -21622,13 +21685,21 @@
       <c r="F26" s="39">
         <v>15</v>
       </c>
-      <c r="G26" s="39"/>
-      <c r="H26" s="39">
+      <c r="G26" s="39">
+        <v>5</v>
+      </c>
+      <c r="H26" s="39" t="s">
+        <v>322</v>
+      </c>
+      <c r="I26" s="39">
         <v>6</v>
       </c>
-      <c r="I26" s="39"/>
-      <c r="J26" s="39"/>
-      <c r="K26" s="39"/>
+      <c r="J26" s="39" t="s">
+        <v>322</v>
+      </c>
+      <c r="K26" s="39" t="s">
+        <v>322</v>
+      </c>
       <c r="L26" s="39" t="s">
         <v>129</v>
       </c>
@@ -21669,15 +21740,23 @@
       <c r="F27" s="38">
         <v>3</v>
       </c>
-      <c r="G27" s="38"/>
+      <c r="G27" s="38">
+        <v>3</v>
+      </c>
       <c r="H27" s="38">
+        <v>2</v>
+      </c>
+      <c r="I27" s="38">
         <v>6</v>
       </c>
-      <c r="I27" s="38"/>
-      <c r="J27" s="38"/>
-      <c r="K27" s="38"/>
+      <c r="J27" s="38" t="s">
+        <v>322</v>
+      </c>
+      <c r="K27" s="38" t="s">
+        <v>322</v>
+      </c>
       <c r="L27" s="38" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="M27" s="38" t="s">
         <v>141</v>
@@ -21716,13 +21795,21 @@
       <c r="F28" s="39">
         <v>3</v>
       </c>
-      <c r="G28" s="39"/>
+      <c r="G28" s="39">
+        <v>0.5</v>
+      </c>
       <c r="H28" s="39">
         <v>4</v>
       </c>
-      <c r="I28" s="39"/>
-      <c r="J28" s="39"/>
-      <c r="K28" s="39"/>
+      <c r="I28" s="39">
+        <v>4</v>
+      </c>
+      <c r="J28" s="39">
+        <v>4</v>
+      </c>
+      <c r="K28" s="39">
+        <v>4</v>
+      </c>
       <c r="L28" s="39" t="s">
         <v>129</v>
       </c>
@@ -21763,13 +21850,21 @@
       <c r="F29" s="38">
         <v>16</v>
       </c>
-      <c r="G29" s="38"/>
+      <c r="G29" s="38">
+        <v>2</v>
+      </c>
       <c r="H29" s="38">
         <v>50</v>
       </c>
-      <c r="I29" s="38"/>
-      <c r="J29" s="38"/>
-      <c r="K29" s="38"/>
+      <c r="I29" s="38">
+        <v>50</v>
+      </c>
+      <c r="J29" s="38">
+        <v>50</v>
+      </c>
+      <c r="K29" s="38">
+        <v>50</v>
+      </c>
       <c r="L29" s="38" t="s">
         <v>130</v>
       </c>
@@ -21783,7 +21878,7 @@
         <v>1371</v>
       </c>
       <c r="P29" s="38" t="s">
-        <v>57</v>
+        <v>330</v>
       </c>
       <c r="Q29" s="38" t="s">
         <v>322</v>
@@ -21801,22 +21896,30 @@
       <c r="C30" s="39" t="s">
         <v>368</v>
       </c>
-      <c r="D30" s="46">
-        <v>39539</v>
-      </c>
-      <c r="E30" s="46">
-        <v>44105</v>
+      <c r="D30" s="46" t="s">
+        <v>1126</v>
+      </c>
+      <c r="E30" s="46" t="s">
+        <v>1127</v>
       </c>
       <c r="F30" s="39">
         <v>26</v>
       </c>
-      <c r="G30" s="39"/>
+      <c r="G30" s="39" t="s">
+        <v>322</v>
+      </c>
       <c r="H30" s="39">
         <v>3</v>
       </c>
-      <c r="I30" s="39"/>
-      <c r="J30" s="39"/>
-      <c r="K30" s="39"/>
+      <c r="I30" s="39">
+        <v>3</v>
+      </c>
+      <c r="J30" s="39">
+        <v>3</v>
+      </c>
+      <c r="K30" s="39">
+        <v>3</v>
+      </c>
       <c r="L30" s="39" t="s">
         <v>129</v>
       </c>
@@ -21857,13 +21960,21 @@
       <c r="F31" s="38">
         <v>9</v>
       </c>
-      <c r="G31" s="38"/>
+      <c r="G31" s="38">
+        <v>2.5</v>
+      </c>
       <c r="H31" s="38">
+        <v>0</v>
+      </c>
+      <c r="I31" s="38">
         <v>2</v>
       </c>
-      <c r="I31" s="38"/>
-      <c r="J31" s="38"/>
-      <c r="K31" s="38"/>
+      <c r="J31" s="38" t="s">
+        <v>322</v>
+      </c>
+      <c r="K31" s="38">
+        <v>1.86</v>
+      </c>
       <c r="L31" s="38" t="s">
         <v>129</v>
       </c>
@@ -21877,7 +21988,7 @@
         <v>1045</v>
       </c>
       <c r="P31" s="38" t="s">
-        <v>57</v>
+        <v>330</v>
       </c>
       <c r="Q31" s="38" t="s">
         <v>162</v>
@@ -21904,13 +22015,21 @@
       <c r="F32" s="39">
         <v>2</v>
       </c>
-      <c r="G32" s="39"/>
-      <c r="H32" s="50" t="s">
-        <v>552</v>
-      </c>
-      <c r="I32" s="50"/>
-      <c r="J32" s="50"/>
-      <c r="K32" s="50"/>
+      <c r="G32" s="39">
+        <v>1</v>
+      </c>
+      <c r="H32" s="111">
+        <v>6</v>
+      </c>
+      <c r="I32" s="111">
+        <v>8</v>
+      </c>
+      <c r="J32" s="50" t="s">
+        <v>322</v>
+      </c>
+      <c r="K32" s="50" t="s">
+        <v>322</v>
+      </c>
       <c r="L32" s="39" t="s">
         <v>129</v>
       </c>
@@ -21951,13 +22070,21 @@
       <c r="F33" s="38">
         <v>20</v>
       </c>
-      <c r="G33" s="38"/>
-      <c r="H33" s="38">
+      <c r="G33" s="38">
+        <v>5</v>
+      </c>
+      <c r="H33" s="38" t="s">
+        <v>322</v>
+      </c>
+      <c r="I33" s="38">
         <v>10</v>
       </c>
-      <c r="I33" s="38"/>
-      <c r="J33" s="38"/>
-      <c r="K33" s="38"/>
+      <c r="J33" s="38" t="s">
+        <v>322</v>
+      </c>
+      <c r="K33" s="38" t="s">
+        <v>322</v>
+      </c>
       <c r="L33" s="38" t="s">
         <v>129</v>
       </c>
@@ -21998,13 +22125,21 @@
       <c r="F34" s="39">
         <v>15</v>
       </c>
-      <c r="G34" s="39"/>
-      <c r="H34" s="50" t="s">
-        <v>471</v>
-      </c>
-      <c r="I34" s="50"/>
-      <c r="J34" s="50"/>
-      <c r="K34" s="50"/>
+      <c r="G34" s="39">
+        <v>3</v>
+      </c>
+      <c r="H34" s="111">
+        <v>2</v>
+      </c>
+      <c r="I34" s="111">
+        <v>3</v>
+      </c>
+      <c r="J34" s="50" t="s">
+        <v>322</v>
+      </c>
+      <c r="K34" s="111">
+        <v>2.11</v>
+      </c>
       <c r="L34" s="39" t="s">
         <v>129</v>
       </c>
@@ -22021,7 +22156,7 @@
         <v>154</v>
       </c>
       <c r="Q34" s="39" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
     </row>
     <row r="35" spans="1:17" ht="68" x14ac:dyDescent="0.2">
@@ -22045,13 +22180,21 @@
       <c r="F35" s="38">
         <v>15</v>
       </c>
-      <c r="G35" s="38"/>
+      <c r="G35" s="38">
+        <v>3</v>
+      </c>
       <c r="H35" s="38">
         <v>2</v>
       </c>
-      <c r="I35" s="38"/>
-      <c r="J35" s="38"/>
-      <c r="K35" s="38"/>
+      <c r="I35" s="38">
+        <v>2</v>
+      </c>
+      <c r="J35" s="38">
+        <v>2</v>
+      </c>
+      <c r="K35" s="38">
+        <v>2</v>
+      </c>
       <c r="L35" s="38" t="s">
         <v>129</v>
       </c>
@@ -22092,13 +22235,21 @@
       <c r="F36" s="38">
         <v>16</v>
       </c>
-      <c r="G36" s="38"/>
+      <c r="G36" s="38">
+        <v>3</v>
+      </c>
       <c r="H36" s="38">
         <v>2</v>
       </c>
-      <c r="I36" s="38"/>
-      <c r="J36" s="38"/>
-      <c r="K36" s="38"/>
+      <c r="I36" s="38">
+        <v>2</v>
+      </c>
+      <c r="J36" s="38">
+        <v>2</v>
+      </c>
+      <c r="K36" s="38">
+        <v>2</v>
+      </c>
       <c r="L36" s="38" t="s">
         <v>129</v>
       </c>
@@ -22385,7 +22536,7 @@
         <v>320</v>
       </c>
       <c r="M42" s="39" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="N42" s="39" t="s">
         <v>367</v>
@@ -22444,7 +22595,7 @@
         <v>153</v>
       </c>
       <c r="Q43" s="38" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
     </row>
     <row r="44" spans="1:17" ht="85" x14ac:dyDescent="0.2">
@@ -22491,7 +22642,7 @@
         <v>154</v>
       </c>
       <c r="Q44" s="39" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
     </row>
     <row r="45" spans="1:17" ht="85" x14ac:dyDescent="0.2">
@@ -22538,7 +22689,7 @@
         <v>154</v>
       </c>
       <c r="Q45" s="39" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
     </row>
     <row r="46" spans="1:17" ht="68" x14ac:dyDescent="0.2">
@@ -22820,7 +22971,7 @@
         <v>153</v>
       </c>
       <c r="Q51" s="38" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="52" spans="1:17" ht="51" x14ac:dyDescent="0.2">
@@ -22867,7 +23018,7 @@
         <v>153</v>
       </c>
       <c r="Q52" s="38" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="53" spans="1:17" ht="102" x14ac:dyDescent="0.2">
@@ -22987,7 +23138,7 @@
       </c>
       <c r="G55" s="38"/>
       <c r="H55" s="51" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="I55" s="51"/>
       <c r="J55" s="51"/>
@@ -23196,7 +23347,7 @@
         <v>155</v>
       </c>
       <c r="Q59" s="38" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="60" spans="1:17" ht="68" x14ac:dyDescent="0.2">
@@ -23290,7 +23441,7 @@
         <v>153</v>
       </c>
       <c r="Q61" s="38" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
     </row>
     <row r="62" spans="1:17" ht="68" x14ac:dyDescent="0.2">
@@ -23369,10 +23520,10 @@
       <c r="J63" s="38"/>
       <c r="K63" s="38"/>
       <c r="L63" s="38" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="M63" s="38" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="N63" s="38" t="s">
         <v>366</v>
@@ -23431,7 +23582,7 @@
         <v>154</v>
       </c>
       <c r="Q64" s="39" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
     </row>
     <row r="65" spans="1:17" ht="51" x14ac:dyDescent="0.2">
@@ -23666,7 +23817,7 @@
         <v>154</v>
       </c>
       <c r="Q69" s="39" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
     </row>
     <row r="70" spans="1:17" ht="34" x14ac:dyDescent="0.2">
@@ -23760,7 +23911,7 @@
         <v>153</v>
       </c>
       <c r="Q71" s="39" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="72" spans="1:17" ht="68" x14ac:dyDescent="0.2">
@@ -24136,7 +24287,7 @@
         <v>154</v>
       </c>
       <c r="Q79" s="38" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
     </row>
     <row r="80" spans="1:17" ht="68" x14ac:dyDescent="0.2">
@@ -24337,7 +24488,7 @@
         <v>The effects of habitat, climate, and Barred Owls on long-term demography of Northern Spotted Owls</v>
       </c>
       <c r="C84" s="39" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="D84" s="46">
         <v>34759</v>
@@ -24384,7 +24535,7 @@
         <v>The effects of habitat, climate, and Barred Owls on long-term demography of Northern Spotted Owls</v>
       </c>
       <c r="C85" s="39" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="D85" s="46">
         <v>34759</v>
@@ -24431,7 +24582,7 @@
         <v>The effects of habitat, climate, and Barred Owls on long-term demography of Northern Spotted Owls</v>
       </c>
       <c r="C86" s="39" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
       <c r="D86" s="46">
         <v>34759</v>
@@ -24478,7 +24629,7 @@
         <v>The effects of habitat, climate, and Barred Owls on long-term demography of Northern Spotted Owls</v>
       </c>
       <c r="C87" s="39" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="D87" s="46">
         <v>34759</v>
@@ -24525,7 +24676,7 @@
         <v>The effects of habitat, climate, and Barred Owls on long-term demography of Northern Spotted Owls</v>
       </c>
       <c r="C88" s="39" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D88" s="46">
         <v>34759</v>
@@ -24572,7 +24723,7 @@
         <v>The effects of habitat, climate, and Barred Owls on long-term demography of Northern Spotted Owls</v>
       </c>
       <c r="C89" s="39" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
       <c r="D89" s="46">
         <v>34759</v>
@@ -24619,7 +24770,7 @@
         <v>The effects of habitat, climate, and Barred Owls on long-term demography of Northern Spotted Owls</v>
       </c>
       <c r="C90" s="39" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
       <c r="D90" s="46">
         <v>36220</v>
@@ -24914,7 +25065,7 @@
       </c>
       <c r="G96" s="38"/>
       <c r="H96" s="51" t="s">
-        <v>847</v>
+        <v>844</v>
       </c>
       <c r="I96" s="51"/>
       <c r="J96" s="51"/>
@@ -25029,7 +25180,7 @@
         <v>155</v>
       </c>
       <c r="Q98" s="38" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="99" spans="1:17" ht="68" x14ac:dyDescent="0.2">
@@ -25205,7 +25356,7 @@
         <v>320</v>
       </c>
       <c r="M102" s="38" t="s">
-        <v>893</v>
+        <v>890</v>
       </c>
       <c r="N102" s="38" t="s">
         <v>366</v>
@@ -25431,7 +25582,7 @@
       </c>
       <c r="G107" s="39"/>
       <c r="H107" s="39" t="s">
-        <v>923</v>
+        <v>920</v>
       </c>
       <c r="I107" s="39"/>
       <c r="J107" s="39"/>
@@ -25452,7 +25603,7 @@
         <v>154</v>
       </c>
       <c r="Q107" s="39" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="108" spans="1:17" ht="68" x14ac:dyDescent="0.2">
@@ -25487,7 +25638,7 @@
         <v>57</v>
       </c>
       <c r="M108" s="38" t="s">
-        <v>932</v>
+        <v>929</v>
       </c>
       <c r="N108" s="38" t="s">
         <v>366</v>
@@ -25499,7 +25650,7 @@
         <v>154</v>
       </c>
       <c r="Q108" s="38" t="s">
-        <v>933</v>
+        <v>930</v>
       </c>
     </row>
     <row r="109" spans="1:17" ht="85" x14ac:dyDescent="0.2">
@@ -25546,7 +25697,7 @@
         <v>57</v>
       </c>
       <c r="Q109" s="39" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="110" spans="1:17" ht="51" x14ac:dyDescent="0.2">
@@ -25687,7 +25838,7 @@
         <v>154</v>
       </c>
       <c r="Q112" s="38" t="s">
-        <v>961</v>
+        <v>958</v>
       </c>
     </row>
     <row r="113" spans="1:17" ht="68" x14ac:dyDescent="0.2">
@@ -25781,7 +25932,7 @@
         <v>155</v>
       </c>
       <c r="Q114" s="38" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
     </row>
     <row r="115" spans="1:17" ht="51" x14ac:dyDescent="0.2">
@@ -25828,7 +25979,7 @@
         <v>153</v>
       </c>
       <c r="Q115" s="39" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
     </row>
     <row r="116" spans="1:17" ht="51" x14ac:dyDescent="0.2">
@@ -25875,7 +26026,7 @@
         <v>154</v>
       </c>
       <c r="Q116" s="39" t="s">
-        <v>980</v>
+        <v>977</v>
       </c>
     </row>
     <row r="117" spans="1:17" ht="51" x14ac:dyDescent="0.2">
@@ -26076,7 +26227,7 @@
         <v>Experimentally testing the response of feral cats and their prey to poison baiting</v>
       </c>
       <c r="C121" s="38" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="D121" s="45">
         <v>43191</v>
@@ -26123,7 +26274,7 @@
         <v>Experimentally testing the response of feral cats and their prey to poison baiting</v>
       </c>
       <c r="C122" s="38" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="D122" s="45">
         <v>43556</v>
@@ -26330,7 +26481,7 @@
       <c r="J126" s="39"/>
       <c r="K126" s="39"/>
       <c r="L126" s="39" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="M126" s="39" t="s">
         <v>141</v>
@@ -26533,7 +26684,7 @@
         <v>153</v>
       </c>
       <c r="Q130" s="39" t="s">
-        <v>1028</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="131" spans="1:17" ht="102" x14ac:dyDescent="0.2">
@@ -27167,8 +27318,8 @@
   <dimension ref="A1:H540"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A45" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C47" sqref="C47:G50"/>
+      <pane ySplit="1" topLeftCell="A100" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D107" sqref="D107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" zeroHeight="1" x14ac:dyDescent="0.2"/>
@@ -27252,7 +27403,7 @@
         <v>176</v>
       </c>
       <c r="G3" s="38" t="s">
-        <v>1110</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="51" x14ac:dyDescent="0.2">
@@ -27277,7 +27428,7 @@
         <v>178</v>
       </c>
       <c r="G4" s="39" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="51" x14ac:dyDescent="0.2">
@@ -27302,7 +27453,7 @@
         <v>179</v>
       </c>
       <c r="G5" s="38" t="s">
-        <v>926</v>
+        <v>923</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="68" x14ac:dyDescent="0.2">
@@ -27502,7 +27653,7 @@
         <v>179</v>
       </c>
       <c r="G13" s="38" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="68" x14ac:dyDescent="0.2">
@@ -28077,7 +28228,7 @@
         <v>179</v>
       </c>
       <c r="G36" s="39" t="s">
-        <v>1120</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="68" x14ac:dyDescent="0.2">
@@ -28652,7 +28803,7 @@
         <v>173</v>
       </c>
       <c r="G59" s="38" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="60" spans="1:7" ht="68" x14ac:dyDescent="0.2">
@@ -28715,7 +28866,7 @@
         <v>Distinguishing distribution dynamics from temporary emigration using dynamic occupancy models</v>
       </c>
       <c r="C62" s="39" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="D62" s="39" t="s">
         <v>368</v>
@@ -28740,7 +28891,7 @@
         <v>Distinguishing distribution dynamics from temporary emigration using dynamic occupancy models</v>
       </c>
       <c r="C63" s="38" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="D63" s="38" t="s">
         <v>368</v>
@@ -28765,7 +28916,7 @@
         <v>Distinguishing distribution dynamics from temporary emigration using dynamic occupancy models</v>
       </c>
       <c r="C64" s="39" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="D64" s="39" t="s">
         <v>368</v>
@@ -28790,7 +28941,7 @@
         <v>Distinguishing distribution dynamics from temporary emigration using dynamic occupancy models</v>
       </c>
       <c r="C65" s="38" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="D65" s="38" t="s">
         <v>368</v>
@@ -28802,20 +28953,20 @@
         <v>179</v>
       </c>
       <c r="G65" s="38" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="66" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A66" s="39">
-        <f>'Article Data'!A14</f>
-        <v>428</v>
+        <f>'Article Data'!A16</f>
+        <v>180</v>
       </c>
       <c r="B66" s="39" t="str">
-        <f>'Article Data'!B14</f>
-        <v>Integrating dynamic occupancy modeling and genetics to infer the status of the imperiled flattened musk turtle</v>
+        <f>'Article Data'!B16</f>
+        <v>Can dynamic occupancy models improve predictions of species' range dynamics? A test using Swiss birds</v>
       </c>
       <c r="C66" s="39" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="D66" s="39" t="s">
         <v>368</v>
@@ -28827,20 +28978,20 @@
         <v>172</v>
       </c>
       <c r="G66" s="39" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
     </row>
     <row r="67" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A67" s="38">
-        <f>'Article Data'!A14</f>
-        <v>428</v>
+        <f>'Article Data'!A16</f>
+        <v>180</v>
       </c>
       <c r="B67" s="38" t="str">
-        <f>'Article Data'!B14</f>
-        <v>Integrating dynamic occupancy modeling and genetics to infer the status of the imperiled flattened musk turtle</v>
+        <f>'Article Data'!B16</f>
+        <v>Can dynamic occupancy models improve predictions of species' range dynamics? A test using Swiss birds</v>
       </c>
       <c r="C67" s="38" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="D67" s="38" t="s">
         <v>368</v>
@@ -28852,20 +29003,20 @@
         <v>176</v>
       </c>
       <c r="G67" s="38" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
     </row>
     <row r="68" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A68" s="39">
-        <f>'Article Data'!A14</f>
-        <v>428</v>
+        <f>'Article Data'!A16</f>
+        <v>180</v>
       </c>
       <c r="B68" s="39" t="str">
-        <f>'Article Data'!B14</f>
-        <v>Integrating dynamic occupancy modeling and genetics to infer the status of the imperiled flattened musk turtle</v>
+        <f>'Article Data'!B16</f>
+        <v>Can dynamic occupancy models improve predictions of species' range dynamics? A test using Swiss birds</v>
       </c>
       <c r="C68" s="39" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="D68" s="39" t="s">
         <v>368</v>
@@ -28877,20 +29028,20 @@
         <v>178</v>
       </c>
       <c r="G68" s="39" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A69" s="38">
-        <f>'Article Data'!A14</f>
-        <v>428</v>
+        <f>'Article Data'!A16</f>
+        <v>180</v>
       </c>
       <c r="B69" s="38" t="str">
-        <f>'Article Data'!B14</f>
-        <v>Integrating dynamic occupancy modeling and genetics to infer the status of the imperiled flattened musk turtle</v>
+        <f>'Article Data'!B16</f>
+        <v>Can dynamic occupancy models improve predictions of species' range dynamics? A test using Swiss birds</v>
       </c>
       <c r="C69" s="38" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="D69" s="38" t="s">
         <v>368</v>
@@ -28902,7 +29053,7 @@
         <v>179</v>
       </c>
       <c r="G69" s="38" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="70" spans="1:7" ht="85" x14ac:dyDescent="0.2">
@@ -28952,7 +29103,7 @@
         <v>176</v>
       </c>
       <c r="G71" s="39" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
     </row>
     <row r="72" spans="1:7" ht="85" x14ac:dyDescent="0.2">
@@ -28977,7 +29128,7 @@
         <v>178</v>
       </c>
       <c r="G72" s="39" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
     </row>
     <row r="73" spans="1:7" ht="85" x14ac:dyDescent="0.2">
@@ -29002,7 +29153,7 @@
         <v>179</v>
       </c>
       <c r="G73" s="39" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
     </row>
     <row r="74" spans="1:7" ht="34" x14ac:dyDescent="0.2">
@@ -29027,7 +29178,7 @@
         <v>173</v>
       </c>
       <c r="G74" s="38" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
     </row>
     <row r="75" spans="1:7" ht="34" x14ac:dyDescent="0.2">
@@ -29052,7 +29203,7 @@
         <v>176</v>
       </c>
       <c r="G75" s="39" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
     </row>
     <row r="76" spans="1:7" ht="34" x14ac:dyDescent="0.2">
@@ -29077,7 +29228,7 @@
         <v>179</v>
       </c>
       <c r="G76" s="38" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
     </row>
     <row r="77" spans="1:7" ht="68" x14ac:dyDescent="0.2">
@@ -29102,7 +29253,7 @@
         <v>172</v>
       </c>
       <c r="G77" s="39" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="78" spans="1:7" ht="68" x14ac:dyDescent="0.2">
@@ -29127,7 +29278,7 @@
         <v>176</v>
       </c>
       <c r="G78" s="38" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="79" spans="1:7" ht="68" x14ac:dyDescent="0.2">
@@ -29152,7 +29303,7 @@
         <v>178</v>
       </c>
       <c r="G79" s="39" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
     </row>
     <row r="80" spans="1:7" ht="68" x14ac:dyDescent="0.2">
@@ -29177,7 +29328,7 @@
         <v>179</v>
       </c>
       <c r="G80" s="38" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
     </row>
     <row r="81" spans="1:7" ht="68" x14ac:dyDescent="0.2">
@@ -29202,7 +29353,7 @@
         <v>172</v>
       </c>
       <c r="G81" s="39" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
     </row>
     <row r="82" spans="1:7" ht="68" x14ac:dyDescent="0.2">
@@ -29221,13 +29372,13 @@
         <v>368</v>
       </c>
       <c r="E82" s="39" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="F82" s="39" t="s">
         <v>336</v>
       </c>
       <c r="G82" s="39" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
     </row>
     <row r="83" spans="1:7" ht="68" x14ac:dyDescent="0.2">
@@ -29252,7 +29403,7 @@
         <v>176</v>
       </c>
       <c r="G83" s="38" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
     </row>
     <row r="84" spans="1:7" ht="68" x14ac:dyDescent="0.2">
@@ -29277,7 +29428,7 @@
         <v>178</v>
       </c>
       <c r="G84" s="39" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
     </row>
     <row r="85" spans="1:7" ht="68" x14ac:dyDescent="0.2">
@@ -29302,7 +29453,7 @@
         <v>179</v>
       </c>
       <c r="G85" s="38" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
     </row>
     <row r="86" spans="1:7" ht="51" x14ac:dyDescent="0.2">
@@ -29327,7 +29478,7 @@
         <v>172</v>
       </c>
       <c r="G86" s="39" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
     </row>
     <row r="87" spans="1:7" ht="51" x14ac:dyDescent="0.2">
@@ -29352,7 +29503,7 @@
         <v>176</v>
       </c>
       <c r="G87" s="38" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
     </row>
     <row r="88" spans="1:7" ht="51" x14ac:dyDescent="0.2">
@@ -29377,7 +29528,7 @@
         <v>178</v>
       </c>
       <c r="G88" s="39" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
     </row>
     <row r="89" spans="1:7" ht="51" x14ac:dyDescent="0.2">
@@ -29402,7 +29553,7 @@
         <v>179</v>
       </c>
       <c r="G89" s="38" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
     </row>
     <row r="90" spans="1:7" ht="85" x14ac:dyDescent="0.2">
@@ -29427,7 +29578,7 @@
         <v>173</v>
       </c>
       <c r="G90" s="39" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
     </row>
     <row r="91" spans="1:7" ht="85" x14ac:dyDescent="0.2">
@@ -29452,7 +29603,7 @@
         <v>176</v>
       </c>
       <c r="G91" s="38" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
     </row>
     <row r="92" spans="1:7" ht="85" x14ac:dyDescent="0.2">
@@ -29477,7 +29628,7 @@
         <v>179</v>
       </c>
       <c r="G92" s="39" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
     </row>
     <row r="93" spans="1:7" ht="68" x14ac:dyDescent="0.2">
@@ -29502,7 +29653,7 @@
         <v>173</v>
       </c>
       <c r="G93" s="38" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
     </row>
     <row r="94" spans="1:7" ht="68" x14ac:dyDescent="0.2">
@@ -29527,7 +29678,7 @@
         <v>178</v>
       </c>
       <c r="G94" s="39" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
     </row>
     <row r="95" spans="1:7" ht="68" x14ac:dyDescent="0.2">
@@ -29552,7 +29703,7 @@
         <v>179</v>
       </c>
       <c r="G95" s="38" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
     </row>
     <row r="96" spans="1:7" ht="68" x14ac:dyDescent="0.2">
@@ -29577,7 +29728,7 @@
         <v>172</v>
       </c>
       <c r="G96" s="39" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
     </row>
     <row r="97" spans="1:7" ht="85" x14ac:dyDescent="0.2">
@@ -29602,7 +29753,7 @@
         <v>176</v>
       </c>
       <c r="G97" s="38" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
     </row>
     <row r="98" spans="1:7" ht="85" x14ac:dyDescent="0.2">
@@ -29627,7 +29778,7 @@
         <v>178</v>
       </c>
       <c r="G98" s="39" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
     </row>
     <row r="99" spans="1:7" ht="68" x14ac:dyDescent="0.2">
@@ -29652,7 +29803,7 @@
         <v>179</v>
       </c>
       <c r="G99" s="38" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
     </row>
     <row r="100" spans="1:7" ht="68" x14ac:dyDescent="0.2">
@@ -29677,7 +29828,7 @@
         <v>172</v>
       </c>
       <c r="G100" s="39" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
     </row>
     <row r="101" spans="1:7" ht="119" x14ac:dyDescent="0.2">
@@ -29702,7 +29853,7 @@
         <v>176</v>
       </c>
       <c r="G101" s="38" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
     </row>
     <row r="102" spans="1:7" ht="119" x14ac:dyDescent="0.2">
@@ -29727,7 +29878,7 @@
         <v>178</v>
       </c>
       <c r="G102" s="39" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
     </row>
     <row r="103" spans="1:7" ht="68" x14ac:dyDescent="0.2">
@@ -29752,7 +29903,7 @@
         <v>179</v>
       </c>
       <c r="G103" s="38" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
     </row>
     <row r="104" spans="1:7" ht="51" x14ac:dyDescent="0.2">
@@ -29777,7 +29928,7 @@
         <v>172</v>
       </c>
       <c r="G104" s="39" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
     </row>
     <row r="105" spans="1:7" ht="51" x14ac:dyDescent="0.2">
@@ -29802,7 +29953,7 @@
         <v>176</v>
       </c>
       <c r="G105" s="38" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
     </row>
     <row r="106" spans="1:7" ht="51" x14ac:dyDescent="0.2">
@@ -29827,7 +29978,7 @@
         <v>178</v>
       </c>
       <c r="G106" s="39" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
     </row>
     <row r="107" spans="1:7" ht="51" x14ac:dyDescent="0.2">
@@ -29852,7 +30003,7 @@
         <v>179</v>
       </c>
       <c r="G107" s="38" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
     </row>
     <row r="108" spans="1:7" ht="51" x14ac:dyDescent="0.2">
@@ -29902,7 +30053,7 @@
         <v>176</v>
       </c>
       <c r="G109" s="38" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
     </row>
     <row r="110" spans="1:7" ht="51" x14ac:dyDescent="0.2">
@@ -29927,7 +30078,7 @@
         <v>178</v>
       </c>
       <c r="G110" s="39" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
     </row>
     <row r="111" spans="1:7" ht="51" x14ac:dyDescent="0.2">
@@ -30002,7 +30153,7 @@
         <v>176</v>
       </c>
       <c r="G113" s="38" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
     </row>
     <row r="114" spans="1:7" ht="51" x14ac:dyDescent="0.2">
@@ -30027,7 +30178,7 @@
         <v>178</v>
       </c>
       <c r="G114" s="39" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
     </row>
     <row r="115" spans="1:7" ht="51" x14ac:dyDescent="0.2">
@@ -30052,7 +30203,7 @@
         <v>179</v>
       </c>
       <c r="G115" s="38" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
     </row>
     <row r="116" spans="1:7" ht="68" x14ac:dyDescent="0.2">
@@ -30077,7 +30228,7 @@
         <v>172</v>
       </c>
       <c r="G116" s="39" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
     </row>
     <row r="117" spans="1:7" ht="68" x14ac:dyDescent="0.2">
@@ -30102,7 +30253,7 @@
         <v>176</v>
       </c>
       <c r="G117" s="38" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
     </row>
     <row r="118" spans="1:7" ht="68" x14ac:dyDescent="0.2">
@@ -30127,7 +30278,7 @@
         <v>178</v>
       </c>
       <c r="G118" s="39" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
     </row>
     <row r="119" spans="1:7" ht="69" customHeight="1" x14ac:dyDescent="0.2">
@@ -30146,13 +30297,13 @@
         <v>368</v>
       </c>
       <c r="E119" s="38" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="F119" s="38" t="s">
         <v>179</v>
       </c>
       <c r="G119" s="38" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
     </row>
     <row r="120" spans="1:7" ht="68" x14ac:dyDescent="0.2">
@@ -30171,13 +30322,13 @@
         <v>368</v>
       </c>
       <c r="E120" s="39" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="F120" s="39" t="s">
         <v>181</v>
       </c>
       <c r="G120" s="39" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
     </row>
     <row r="121" spans="1:7" ht="68" x14ac:dyDescent="0.2">
@@ -30196,13 +30347,13 @@
         <v>368</v>
       </c>
       <c r="E121" s="38" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="F121" s="38" t="s">
         <v>181</v>
       </c>
       <c r="G121" s="38" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
     </row>
     <row r="122" spans="1:7" ht="68" x14ac:dyDescent="0.2">
@@ -30227,7 +30378,7 @@
         <v>172</v>
       </c>
       <c r="G122" s="39" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
     </row>
     <row r="123" spans="1:7" ht="68" x14ac:dyDescent="0.2">
@@ -30252,7 +30403,7 @@
         <v>176</v>
       </c>
       <c r="G123" s="38" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
     </row>
     <row r="124" spans="1:7" ht="68" x14ac:dyDescent="0.2">
@@ -30277,7 +30428,7 @@
         <v>178</v>
       </c>
       <c r="G124" s="39" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
     </row>
     <row r="125" spans="1:7" ht="68" x14ac:dyDescent="0.2">
@@ -30302,7 +30453,7 @@
         <v>179</v>
       </c>
       <c r="G125" s="38" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
     </row>
     <row r="126" spans="1:7" ht="68" x14ac:dyDescent="0.2">
@@ -30321,13 +30472,13 @@
         <v>368</v>
       </c>
       <c r="E126" s="39" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="F126" s="39" t="s">
         <v>172</v>
       </c>
       <c r="G126" s="39" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
     </row>
     <row r="127" spans="1:7" ht="68" x14ac:dyDescent="0.2">
@@ -30352,7 +30503,7 @@
         <v>176</v>
       </c>
       <c r="G127" s="38" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
     </row>
     <row r="128" spans="1:7" ht="68" x14ac:dyDescent="0.2">
@@ -30377,7 +30528,7 @@
         <v>178</v>
       </c>
       <c r="G128" s="39" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
     </row>
     <row r="129" spans="1:7" ht="68" x14ac:dyDescent="0.2">
@@ -30402,7 +30553,7 @@
         <v>179</v>
       </c>
       <c r="G129" s="38" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
     </row>
     <row r="130" spans="1:7" ht="68" x14ac:dyDescent="0.2">
@@ -30415,7 +30566,7 @@
         <v>Modeling of site occupancy dynamics for northern spotted owls, with emphasis on the effects of barred owls</v>
       </c>
       <c r="C130" s="39" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="D130" s="39" t="s">
         <v>368</v>
@@ -30440,7 +30591,7 @@
         <v>Modeling of site occupancy dynamics for northern spotted owls, with emphasis on the effects of barred owls</v>
       </c>
       <c r="C131" s="38" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="D131" s="38" t="s">
         <v>368</v>
@@ -30452,7 +30603,7 @@
         <v>176</v>
       </c>
       <c r="G131" s="38" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
     </row>
     <row r="132" spans="1:7" ht="68" x14ac:dyDescent="0.2">
@@ -30465,7 +30616,7 @@
         <v>Modeling of site occupancy dynamics for northern spotted owls, with emphasis on the effects of barred owls</v>
       </c>
       <c r="C132" s="39" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="D132" s="39" t="s">
         <v>368</v>
@@ -30477,7 +30628,7 @@
         <v>178</v>
       </c>
       <c r="G132" s="39" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
     </row>
     <row r="133" spans="1:7" ht="68" x14ac:dyDescent="0.2">
@@ -30490,7 +30641,7 @@
         <v>Modeling of site occupancy dynamics for northern spotted owls, with emphasis on the effects of barred owls</v>
       </c>
       <c r="C133" s="38" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="D133" s="38" t="s">
         <v>368</v>
@@ -30502,7 +30653,7 @@
         <v>179</v>
       </c>
       <c r="G133" s="38" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
     </row>
     <row r="134" spans="1:7" ht="68" x14ac:dyDescent="0.2">
@@ -30552,7 +30703,7 @@
         <v>176</v>
       </c>
       <c r="G135" s="38" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
     </row>
     <row r="136" spans="1:7" ht="68" x14ac:dyDescent="0.2">
@@ -30577,7 +30728,7 @@
         <v>178</v>
       </c>
       <c r="G136" s="39" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
     </row>
     <row r="137" spans="1:7" ht="68" x14ac:dyDescent="0.2">
@@ -30627,7 +30778,7 @@
         <v>172</v>
       </c>
       <c r="G138" s="39" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
     </row>
     <row r="139" spans="1:7" ht="51" x14ac:dyDescent="0.2">
@@ -30702,7 +30853,7 @@
         <v>179</v>
       </c>
       <c r="G141" s="38" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
     </row>
     <row r="142" spans="1:7" ht="51" x14ac:dyDescent="0.2">
@@ -30727,7 +30878,7 @@
         <v>172</v>
       </c>
       <c r="G142" s="39" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
     </row>
     <row r="143" spans="1:7" ht="51" x14ac:dyDescent="0.2">
@@ -30802,7 +30953,7 @@
         <v>179</v>
       </c>
       <c r="G145" s="38" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
     </row>
     <row r="146" spans="1:7" ht="102" x14ac:dyDescent="0.2">
@@ -30827,7 +30978,7 @@
         <v>172</v>
       </c>
       <c r="G146" s="39" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
     </row>
     <row r="147" spans="1:7" ht="102" x14ac:dyDescent="0.2">
@@ -30846,7 +30997,7 @@
         <v>368</v>
       </c>
       <c r="E147" s="38" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="F147" s="38" t="s">
         <v>181</v>
@@ -30952,7 +31103,7 @@
         <v>172</v>
       </c>
       <c r="G151" s="38" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
     </row>
     <row r="152" spans="1:7" ht="68" x14ac:dyDescent="0.2">
@@ -30977,7 +31128,7 @@
         <v>176</v>
       </c>
       <c r="G152" s="39" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
     </row>
     <row r="153" spans="1:7" ht="68" x14ac:dyDescent="0.2">
@@ -30996,13 +31147,13 @@
         <v>368</v>
       </c>
       <c r="E153" s="39" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="F153" s="39" t="s">
         <v>176</v>
       </c>
       <c r="G153" s="39" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
     </row>
     <row r="154" spans="1:7" ht="68" x14ac:dyDescent="0.2">
@@ -31027,7 +31178,7 @@
         <v>178</v>
       </c>
       <c r="G154" s="38" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
     </row>
     <row r="155" spans="1:7" ht="68" x14ac:dyDescent="0.2">
@@ -31052,7 +31203,7 @@
         <v>179</v>
       </c>
       <c r="G155" s="39" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
     </row>
     <row r="156" spans="1:7" ht="85" x14ac:dyDescent="0.2">
@@ -31077,7 +31228,7 @@
         <v>172</v>
       </c>
       <c r="G156" s="38" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
     </row>
     <row r="157" spans="1:7" ht="68" x14ac:dyDescent="0.2">
@@ -31102,7 +31253,7 @@
         <v>176</v>
       </c>
       <c r="G157" s="39" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
     </row>
     <row r="158" spans="1:7" ht="68" x14ac:dyDescent="0.2">
@@ -31127,7 +31278,7 @@
         <v>178</v>
       </c>
       <c r="G158" s="38" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
     </row>
     <row r="159" spans="1:7" ht="68" x14ac:dyDescent="0.2">
@@ -31252,7 +31403,7 @@
         <v>179</v>
       </c>
       <c r="G163" s="39" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
     </row>
     <row r="164" spans="1:7" ht="51" x14ac:dyDescent="0.2">
@@ -31277,7 +31428,7 @@
         <v>172</v>
       </c>
       <c r="G164" s="38" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
     </row>
     <row r="165" spans="1:7" ht="51" x14ac:dyDescent="0.2">
@@ -31302,7 +31453,7 @@
         <v>176</v>
       </c>
       <c r="G165" s="39" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
     </row>
     <row r="166" spans="1:7" ht="51" x14ac:dyDescent="0.2">
@@ -31327,7 +31478,7 @@
         <v>178</v>
       </c>
       <c r="G166" s="38" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
     </row>
     <row r="167" spans="1:7" ht="51" x14ac:dyDescent="0.2">
@@ -31352,7 +31503,7 @@
         <v>179</v>
       </c>
       <c r="G167" s="39" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
     </row>
     <row r="168" spans="1:7" ht="68" x14ac:dyDescent="0.2">
@@ -31377,7 +31528,7 @@
         <v>172</v>
       </c>
       <c r="G168" s="38" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
     </row>
     <row r="169" spans="1:7" ht="68" x14ac:dyDescent="0.2">
@@ -31402,7 +31553,7 @@
         <v>176</v>
       </c>
       <c r="G169" s="39" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
     </row>
     <row r="170" spans="1:7" ht="68" x14ac:dyDescent="0.2">
@@ -31427,7 +31578,7 @@
         <v>178</v>
       </c>
       <c r="G170" s="38" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
     </row>
     <row r="171" spans="1:7" ht="68" x14ac:dyDescent="0.2">
@@ -31452,7 +31603,7 @@
         <v>179</v>
       </c>
       <c r="G171" s="39" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
     </row>
     <row r="172" spans="1:7" ht="51" x14ac:dyDescent="0.2">
@@ -31477,7 +31628,7 @@
         <v>172</v>
       </c>
       <c r="G172" s="38" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
     </row>
     <row r="173" spans="1:7" ht="51" x14ac:dyDescent="0.2">
@@ -31502,7 +31653,7 @@
         <v>176</v>
       </c>
       <c r="G173" s="39" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
     </row>
     <row r="174" spans="1:7" ht="51" x14ac:dyDescent="0.2">
@@ -31527,7 +31678,7 @@
         <v>178</v>
       </c>
       <c r="G174" s="38" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
     </row>
     <row r="175" spans="1:7" ht="51" x14ac:dyDescent="0.2">
@@ -31552,7 +31703,7 @@
         <v>179</v>
       </c>
       <c r="G175" s="39" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
     </row>
     <row r="176" spans="1:7" ht="51" x14ac:dyDescent="0.2">
@@ -31577,7 +31728,7 @@
         <v>172</v>
       </c>
       <c r="G176" s="38" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
     </row>
     <row r="177" spans="1:7" ht="51" x14ac:dyDescent="0.2">
@@ -31602,7 +31753,7 @@
         <v>176</v>
       </c>
       <c r="G177" s="39" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
     </row>
     <row r="178" spans="1:7" ht="51" x14ac:dyDescent="0.2">
@@ -31627,7 +31778,7 @@
         <v>178</v>
       </c>
       <c r="G178" s="38" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
     </row>
     <row r="179" spans="1:7" ht="51" x14ac:dyDescent="0.2">
@@ -31652,7 +31803,7 @@
         <v>179</v>
       </c>
       <c r="G179" s="39" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
     </row>
     <row r="180" spans="1:7" ht="68" x14ac:dyDescent="0.2">
@@ -31677,7 +31828,7 @@
         <v>173</v>
       </c>
       <c r="G180" s="38" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
     </row>
     <row r="181" spans="1:7" ht="68" x14ac:dyDescent="0.2">
@@ -31702,7 +31853,7 @@
         <v>176</v>
       </c>
       <c r="G181" s="39" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
     </row>
     <row r="182" spans="1:7" ht="68" x14ac:dyDescent="0.2">
@@ -31727,7 +31878,7 @@
         <v>179</v>
       </c>
       <c r="G182" s="38" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
     </row>
     <row r="183" spans="1:7" ht="51" x14ac:dyDescent="0.2">
@@ -31877,7 +32028,7 @@
         <v>176</v>
       </c>
       <c r="G188" s="38" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
     </row>
     <row r="189" spans="1:7" ht="85" x14ac:dyDescent="0.2">
@@ -31902,7 +32053,7 @@
         <v>178</v>
       </c>
       <c r="G189" s="39" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
     </row>
     <row r="190" spans="1:7" ht="68" x14ac:dyDescent="0.2">
@@ -31927,7 +32078,7 @@
         <v>179</v>
       </c>
       <c r="G190" s="38" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
     </row>
     <row r="191" spans="1:7" ht="68" x14ac:dyDescent="0.2">
@@ -31952,7 +32103,7 @@
         <v>172</v>
       </c>
       <c r="G191" s="39" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
     </row>
     <row r="192" spans="1:7" ht="68" x14ac:dyDescent="0.2">
@@ -32002,7 +32153,7 @@
         <v>178</v>
       </c>
       <c r="G193" s="39" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
     </row>
     <row r="194" spans="1:7" ht="68" x14ac:dyDescent="0.2">
@@ -32027,7 +32178,7 @@
         <v>179</v>
       </c>
       <c r="G194" s="38" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
     </row>
     <row r="195" spans="1:7" ht="85" x14ac:dyDescent="0.2">
@@ -32052,7 +32203,7 @@
         <v>172</v>
       </c>
       <c r="G195" s="39" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
     </row>
     <row r="196" spans="1:7" ht="85" x14ac:dyDescent="0.2">
@@ -32077,7 +32228,7 @@
         <v>176</v>
       </c>
       <c r="G196" s="38" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
     </row>
     <row r="197" spans="1:7" ht="85" x14ac:dyDescent="0.2">
@@ -32102,7 +32253,7 @@
         <v>178</v>
       </c>
       <c r="G197" s="39" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
     </row>
     <row r="198" spans="1:7" ht="85" x14ac:dyDescent="0.2">
@@ -32127,7 +32278,7 @@
         <v>179</v>
       </c>
       <c r="G198" s="38" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
     </row>
     <row r="199" spans="1:7" ht="34" x14ac:dyDescent="0.2">
@@ -32227,7 +32378,7 @@
         <v>179</v>
       </c>
       <c r="G202" s="38" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
     </row>
     <row r="203" spans="1:7" ht="68" x14ac:dyDescent="0.2">
@@ -32252,7 +32403,7 @@
         <v>173</v>
       </c>
       <c r="G203" s="38" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
     </row>
     <row r="204" spans="1:7" ht="68" x14ac:dyDescent="0.2">
@@ -32277,7 +32428,7 @@
         <v>176</v>
       </c>
       <c r="G204" s="39" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
     </row>
     <row r="205" spans="1:7" ht="68" x14ac:dyDescent="0.2">
@@ -32327,7 +32478,7 @@
         <v>173</v>
       </c>
       <c r="G206" s="38" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
     </row>
     <row r="207" spans="1:7" ht="68" x14ac:dyDescent="0.2">
@@ -32352,7 +32503,7 @@
         <v>176</v>
       </c>
       <c r="G207" s="39" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
     </row>
     <row r="208" spans="1:7" ht="68" x14ac:dyDescent="0.2">
@@ -32427,7 +32578,7 @@
         <v>176</v>
       </c>
       <c r="G210" s="38" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
     </row>
     <row r="211" spans="1:7" ht="51" x14ac:dyDescent="0.2">
@@ -32452,7 +32603,7 @@
         <v>178</v>
       </c>
       <c r="G211" s="39" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
     </row>
     <row r="212" spans="1:7" ht="51" x14ac:dyDescent="0.2">
@@ -32477,7 +32628,7 @@
         <v>179</v>
       </c>
       <c r="G212" s="38" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
     </row>
     <row r="213" spans="1:7" ht="51" x14ac:dyDescent="0.2">
@@ -32502,7 +32653,7 @@
         <v>172</v>
       </c>
       <c r="G213" s="39" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
     </row>
     <row r="214" spans="1:7" ht="51" x14ac:dyDescent="0.2">
@@ -32527,7 +32678,7 @@
         <v>176</v>
       </c>
       <c r="G214" s="38" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
     </row>
     <row r="215" spans="1:7" ht="51" x14ac:dyDescent="0.2">
@@ -32552,7 +32703,7 @@
         <v>178</v>
       </c>
       <c r="G215" s="39" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
     </row>
     <row r="216" spans="1:7" ht="51" x14ac:dyDescent="0.2">
@@ -32577,7 +32728,7 @@
         <v>179</v>
       </c>
       <c r="G216" s="38" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
     </row>
     <row r="217" spans="1:7" ht="85" x14ac:dyDescent="0.2">
@@ -32602,7 +32753,7 @@
         <v>172</v>
       </c>
       <c r="G217" s="39" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
     </row>
     <row r="218" spans="1:7" ht="85" x14ac:dyDescent="0.2">
@@ -32627,7 +32778,7 @@
         <v>176</v>
       </c>
       <c r="G218" s="38" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
     </row>
     <row r="219" spans="1:7" ht="85" x14ac:dyDescent="0.2">
@@ -32652,7 +32803,7 @@
         <v>178</v>
       </c>
       <c r="G219" s="39" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
     </row>
     <row r="220" spans="1:7" ht="136" x14ac:dyDescent="0.2">
@@ -32677,7 +32828,7 @@
         <v>179</v>
       </c>
       <c r="G220" s="38" t="s">
-        <v>757</v>
+        <v>754</v>
       </c>
     </row>
     <row r="221" spans="1:7" ht="85" x14ac:dyDescent="0.2">
@@ -32693,7 +32844,7 @@
         <v>368</v>
       </c>
       <c r="D221" s="39" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
       <c r="E221" s="39" t="s">
         <v>172</v>
@@ -32702,7 +32853,7 @@
         <v>172</v>
       </c>
       <c r="G221" s="39" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
     </row>
     <row r="222" spans="1:7" ht="85" x14ac:dyDescent="0.2">
@@ -32718,7 +32869,7 @@
         <v>368</v>
       </c>
       <c r="D222" s="38" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
       <c r="E222" s="38" t="s">
         <v>176</v>
@@ -32727,7 +32878,7 @@
         <v>176</v>
       </c>
       <c r="G222" s="38" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
     </row>
     <row r="223" spans="1:7" ht="85" x14ac:dyDescent="0.2">
@@ -32743,7 +32894,7 @@
         <v>368</v>
       </c>
       <c r="D223" s="39" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
       <c r="E223" s="39" t="s">
         <v>370</v>
@@ -32752,7 +32903,7 @@
         <v>178</v>
       </c>
       <c r="G223" s="39" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
     </row>
     <row r="224" spans="1:7" ht="136" x14ac:dyDescent="0.2">
@@ -32768,7 +32919,7 @@
         <v>368</v>
       </c>
       <c r="D224" s="38" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
       <c r="E224" s="38" t="s">
         <v>179</v>
@@ -32777,7 +32928,7 @@
         <v>179</v>
       </c>
       <c r="G224" s="38" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
     </row>
     <row r="225" spans="1:7" ht="51" x14ac:dyDescent="0.2">
@@ -32902,7 +33053,7 @@
         <v>172</v>
       </c>
       <c r="G229" s="39" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
     </row>
     <row r="230" spans="1:7" ht="68" x14ac:dyDescent="0.2">
@@ -32927,7 +33078,7 @@
         <v>176</v>
       </c>
       <c r="G230" s="38" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
     </row>
     <row r="231" spans="1:7" ht="68" x14ac:dyDescent="0.2">
@@ -32952,7 +33103,7 @@
         <v>178</v>
       </c>
       <c r="G231" s="39" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
     </row>
     <row r="232" spans="1:7" ht="68" x14ac:dyDescent="0.2">
@@ -32977,7 +33128,7 @@
         <v>179</v>
       </c>
       <c r="G232" s="38" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
     </row>
     <row r="233" spans="1:7" ht="34" x14ac:dyDescent="0.2">
@@ -33027,7 +33178,7 @@
         <v>176</v>
       </c>
       <c r="G234" s="38" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
     </row>
     <row r="235" spans="1:7" ht="51" x14ac:dyDescent="0.2">
@@ -33052,7 +33203,7 @@
         <v>178</v>
       </c>
       <c r="G235" s="39" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
     </row>
     <row r="236" spans="1:7" ht="51" x14ac:dyDescent="0.2">
@@ -33077,7 +33228,7 @@
         <v>179</v>
       </c>
       <c r="G236" s="38" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
     </row>
     <row r="237" spans="1:7" ht="68" x14ac:dyDescent="0.2">
@@ -33102,7 +33253,7 @@
         <v>173</v>
       </c>
       <c r="G237" s="39" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
     </row>
     <row r="238" spans="1:7" ht="51" x14ac:dyDescent="0.2">
@@ -33127,7 +33278,7 @@
         <v>178</v>
       </c>
       <c r="G238" s="38" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
     </row>
     <row r="239" spans="1:7" ht="51" x14ac:dyDescent="0.2">
@@ -33152,7 +33303,7 @@
         <v>179</v>
       </c>
       <c r="G239" s="39" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
     </row>
     <row r="240" spans="1:7" ht="51" x14ac:dyDescent="0.2">
@@ -33171,13 +33322,13 @@
         <v>368</v>
       </c>
       <c r="E240" s="38" t="s">
-        <v>781</v>
+        <v>778</v>
       </c>
       <c r="F240" s="38" t="s">
         <v>172</v>
       </c>
       <c r="G240" s="38" t="s">
-        <v>782</v>
+        <v>779</v>
       </c>
     </row>
     <row r="241" spans="1:7" ht="51" x14ac:dyDescent="0.2">
@@ -33196,13 +33347,13 @@
         <v>368</v>
       </c>
       <c r="E241" s="39" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="F241" s="39" t="s">
         <v>336</v>
       </c>
       <c r="G241" s="39" t="s">
-        <v>782</v>
+        <v>779</v>
       </c>
     </row>
     <row r="242" spans="1:7" ht="51" x14ac:dyDescent="0.2">
@@ -33227,7 +33378,7 @@
         <v>176</v>
       </c>
       <c r="G242" s="38" t="s">
-        <v>782</v>
+        <v>779</v>
       </c>
     </row>
     <row r="243" spans="1:7" ht="51" x14ac:dyDescent="0.2">
@@ -33252,7 +33403,7 @@
         <v>178</v>
       </c>
       <c r="G243" s="39" t="s">
-        <v>782</v>
+        <v>779</v>
       </c>
     </row>
     <row r="244" spans="1:7" ht="51" x14ac:dyDescent="0.2">
@@ -33277,7 +33428,7 @@
         <v>179</v>
       </c>
       <c r="G244" s="38" t="s">
-        <v>783</v>
+        <v>780</v>
       </c>
     </row>
     <row r="245" spans="1:7" ht="68" x14ac:dyDescent="0.2">
@@ -33302,7 +33453,7 @@
         <v>172</v>
       </c>
       <c r="G245" s="39" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
     </row>
     <row r="246" spans="1:7" ht="51" x14ac:dyDescent="0.2">
@@ -33327,7 +33478,7 @@
         <v>176</v>
       </c>
       <c r="G246" s="38" t="s">
-        <v>788</v>
+        <v>785</v>
       </c>
     </row>
     <row r="247" spans="1:7" ht="51" x14ac:dyDescent="0.2">
@@ -33352,7 +33503,7 @@
         <v>178</v>
       </c>
       <c r="G247" s="39" t="s">
-        <v>788</v>
+        <v>785</v>
       </c>
     </row>
     <row r="248" spans="1:7" ht="51" x14ac:dyDescent="0.2">
@@ -33377,7 +33528,7 @@
         <v>179</v>
       </c>
       <c r="G248" s="38" t="s">
-        <v>789</v>
+        <v>786</v>
       </c>
     </row>
     <row r="249" spans="1:7" ht="51" x14ac:dyDescent="0.2">
@@ -33602,7 +33753,7 @@
         <v>172</v>
       </c>
       <c r="G257" s="39" t="s">
-        <v>801</v>
+        <v>798</v>
       </c>
     </row>
     <row r="258" spans="1:7" ht="51" x14ac:dyDescent="0.2">
@@ -33627,7 +33778,7 @@
         <v>176</v>
       </c>
       <c r="G258" s="38" t="s">
-        <v>802</v>
+        <v>799</v>
       </c>
     </row>
     <row r="259" spans="1:7" ht="51" x14ac:dyDescent="0.2">
@@ -33652,7 +33803,7 @@
         <v>178</v>
       </c>
       <c r="G259" s="39" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
     </row>
     <row r="260" spans="1:7" ht="51" x14ac:dyDescent="0.2">
@@ -33677,7 +33828,7 @@
         <v>179</v>
       </c>
       <c r="G260" s="38" t="s">
-        <v>804</v>
+        <v>801</v>
       </c>
     </row>
     <row r="261" spans="1:7" ht="68" x14ac:dyDescent="0.2">
@@ -33690,7 +33841,7 @@
         <v>The effects of habitat, climate, and Barred Owls on long-term demography of Northern Spotted Owls</v>
       </c>
       <c r="C261" s="39" t="s">
-        <v>809</v>
+        <v>806</v>
       </c>
       <c r="D261" s="39" t="s">
         <v>368</v>
@@ -33702,7 +33853,7 @@
         <v>172</v>
       </c>
       <c r="G261" s="39" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
     </row>
     <row r="262" spans="1:7" ht="68" x14ac:dyDescent="0.2">
@@ -33715,7 +33866,7 @@
         <v>The effects of habitat, climate, and Barred Owls on long-term demography of Northern Spotted Owls</v>
       </c>
       <c r="C262" s="38" t="s">
-        <v>809</v>
+        <v>806</v>
       </c>
       <c r="D262" s="38" t="s">
         <v>368</v>
@@ -33727,7 +33878,7 @@
         <v>176</v>
       </c>
       <c r="G262" s="38" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
     </row>
     <row r="263" spans="1:7" ht="68" x14ac:dyDescent="0.2">
@@ -33740,7 +33891,7 @@
         <v>The effects of habitat, climate, and Barred Owls on long-term demography of Northern Spotted Owls</v>
       </c>
       <c r="C263" s="39" t="s">
-        <v>809</v>
+        <v>806</v>
       </c>
       <c r="D263" s="39" t="s">
         <v>368</v>
@@ -33752,7 +33903,7 @@
         <v>178</v>
       </c>
       <c r="G263" s="39" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
     </row>
     <row r="264" spans="1:7" ht="68" x14ac:dyDescent="0.2">
@@ -33765,7 +33916,7 @@
         <v>The effects of habitat, climate, and Barred Owls on long-term demography of Northern Spotted Owls</v>
       </c>
       <c r="C264" s="38" t="s">
-        <v>809</v>
+        <v>806</v>
       </c>
       <c r="D264" s="38" t="s">
         <v>368</v>
@@ -33777,7 +33928,7 @@
         <v>179</v>
       </c>
       <c r="G264" s="38" t="s">
-        <v>814</v>
+        <v>811</v>
       </c>
     </row>
     <row r="265" spans="1:7" ht="68" x14ac:dyDescent="0.2">
@@ -33790,7 +33941,7 @@
         <v>The effects of habitat, climate, and Barred Owls on long-term demography of Northern Spotted Owls</v>
       </c>
       <c r="C265" s="39" t="s">
-        <v>809</v>
+        <v>806</v>
       </c>
       <c r="D265" s="39" t="s">
         <v>368</v>
@@ -33815,7 +33966,7 @@
         <v>The effects of habitat, climate, and Barred Owls on long-term demography of Northern Spotted Owls</v>
       </c>
       <c r="C266" s="38" t="s">
-        <v>809</v>
+        <v>806</v>
       </c>
       <c r="D266" s="38" t="s">
         <v>368</v>
@@ -33827,7 +33978,7 @@
         <v>176</v>
       </c>
       <c r="G266" s="38" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
     </row>
     <row r="267" spans="1:7" ht="68" x14ac:dyDescent="0.2">
@@ -33840,7 +33991,7 @@
         <v>The effects of habitat, climate, and Barred Owls on long-term demography of Northern Spotted Owls</v>
       </c>
       <c r="C267" s="39" t="s">
-        <v>809</v>
+        <v>806</v>
       </c>
       <c r="D267" s="39" t="s">
         <v>368</v>
@@ -33852,7 +34003,7 @@
         <v>178</v>
       </c>
       <c r="G267" s="39" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
     </row>
     <row r="268" spans="1:7" ht="68" x14ac:dyDescent="0.2">
@@ -33865,7 +34016,7 @@
         <v>The effects of habitat, climate, and Barred Owls on long-term demography of Northern Spotted Owls</v>
       </c>
       <c r="C268" s="38" t="s">
-        <v>809</v>
+        <v>806</v>
       </c>
       <c r="D268" s="38" t="s">
         <v>368</v>
@@ -33877,7 +34028,7 @@
         <v>179</v>
       </c>
       <c r="G268" s="38" t="s">
-        <v>814</v>
+        <v>811</v>
       </c>
     </row>
     <row r="269" spans="1:7" ht="68" x14ac:dyDescent="0.2">
@@ -33902,7 +34053,7 @@
         <v>172</v>
       </c>
       <c r="G269" s="39" t="s">
-        <v>821</v>
+        <v>818</v>
       </c>
     </row>
     <row r="270" spans="1:7" ht="51" x14ac:dyDescent="0.2">
@@ -33927,7 +34078,7 @@
         <v>176</v>
       </c>
       <c r="G270" s="38" t="s">
-        <v>822</v>
+        <v>819</v>
       </c>
     </row>
     <row r="271" spans="1:7" ht="51" x14ac:dyDescent="0.2">
@@ -33977,7 +34128,7 @@
         <v>179</v>
       </c>
       <c r="G272" s="38" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
     </row>
     <row r="273" spans="1:7" ht="68" x14ac:dyDescent="0.2">
@@ -34002,7 +34153,7 @@
         <v>172</v>
       </c>
       <c r="G273" s="39" t="s">
-        <v>826</v>
+        <v>823</v>
       </c>
     </row>
     <row r="274" spans="1:7" ht="68" x14ac:dyDescent="0.2">
@@ -34027,7 +34178,7 @@
         <v>173</v>
       </c>
       <c r="G274" s="38" t="s">
-        <v>827</v>
+        <v>824</v>
       </c>
     </row>
     <row r="275" spans="1:7" ht="68" x14ac:dyDescent="0.2">
@@ -34052,7 +34203,7 @@
         <v>176</v>
       </c>
       <c r="G275" s="39" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
     </row>
     <row r="276" spans="1:7" ht="68" x14ac:dyDescent="0.2">
@@ -34077,7 +34228,7 @@
         <v>178</v>
       </c>
       <c r="G276" s="38" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
     </row>
     <row r="277" spans="1:7" ht="68" x14ac:dyDescent="0.2">
@@ -34085,7 +34236,7 @@
         <v>34</v>
       </c>
       <c r="B277" s="39" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
       <c r="C277" s="39" t="s">
         <v>368</v>
@@ -34100,7 +34251,7 @@
         <v>179</v>
       </c>
       <c r="G277" s="39" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
     </row>
     <row r="278" spans="1:7" ht="34" x14ac:dyDescent="0.2">
@@ -34125,7 +34276,7 @@
         <v>172</v>
       </c>
       <c r="G278" s="38" t="s">
-        <v>832</v>
+        <v>829</v>
       </c>
     </row>
     <row r="279" spans="1:7" ht="34" x14ac:dyDescent="0.2">
@@ -34150,7 +34301,7 @@
         <v>176</v>
       </c>
       <c r="G279" s="39" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
     </row>
     <row r="280" spans="1:7" ht="34" x14ac:dyDescent="0.2">
@@ -34175,7 +34326,7 @@
         <v>178</v>
       </c>
       <c r="G280" s="38" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
     </row>
     <row r="281" spans="1:7" ht="34" x14ac:dyDescent="0.2">
@@ -34225,7 +34376,7 @@
         <v>172</v>
       </c>
       <c r="G282" s="38" t="s">
-        <v>839</v>
+        <v>836</v>
       </c>
     </row>
     <row r="283" spans="1:7" ht="51" x14ac:dyDescent="0.2">
@@ -34250,7 +34401,7 @@
         <v>176</v>
       </c>
       <c r="G283" s="39" t="s">
-        <v>840</v>
+        <v>837</v>
       </c>
     </row>
     <row r="284" spans="1:7" ht="51" x14ac:dyDescent="0.2">
@@ -34275,7 +34426,7 @@
         <v>178</v>
       </c>
       <c r="G284" s="38" t="s">
-        <v>840</v>
+        <v>837</v>
       </c>
     </row>
     <row r="285" spans="1:7" ht="51" x14ac:dyDescent="0.2">
@@ -34300,7 +34451,7 @@
         <v>179</v>
       </c>
       <c r="G285" s="39" t="s">
-        <v>841</v>
+        <v>838</v>
       </c>
     </row>
     <row r="286" spans="1:7" ht="409.6" x14ac:dyDescent="0.2">
@@ -34319,13 +34470,13 @@
         <v>368</v>
       </c>
       <c r="E286" s="38" t="s">
-        <v>781</v>
+        <v>778</v>
       </c>
       <c r="F286" s="38" t="s">
         <v>172</v>
       </c>
       <c r="G286" s="38" t="s">
-        <v>850</v>
+        <v>847</v>
       </c>
     </row>
     <row r="287" spans="1:7" ht="409.6" x14ac:dyDescent="0.2">
@@ -34350,7 +34501,7 @@
         <v>176</v>
       </c>
       <c r="G287" s="39" t="s">
-        <v>849</v>
+        <v>846</v>
       </c>
     </row>
     <row r="288" spans="1:7" ht="409.6" x14ac:dyDescent="0.2">
@@ -34375,7 +34526,7 @@
         <v>178</v>
       </c>
       <c r="G288" s="38" t="s">
-        <v>849</v>
+        <v>846</v>
       </c>
     </row>
     <row r="289" spans="1:7" ht="68" x14ac:dyDescent="0.2">
@@ -34400,7 +34551,7 @@
         <v>179</v>
       </c>
       <c r="G289" s="39" t="s">
-        <v>848</v>
+        <v>845</v>
       </c>
     </row>
     <row r="290" spans="1:7" ht="85" x14ac:dyDescent="0.2">
@@ -34425,7 +34576,7 @@
         <v>176</v>
       </c>
       <c r="G290" s="38" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
     </row>
     <row r="291" spans="1:7" ht="85" x14ac:dyDescent="0.2">
@@ -34450,7 +34601,7 @@
         <v>178</v>
       </c>
       <c r="G291" s="39" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
     </row>
     <row r="292" spans="1:7" ht="85" x14ac:dyDescent="0.2">
@@ -34469,13 +34620,13 @@
         <v>368</v>
       </c>
       <c r="E292" s="38" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
       <c r="F292" s="38" t="s">
         <v>175</v>
       </c>
       <c r="G292" s="38" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
     </row>
     <row r="293" spans="1:7" ht="85" x14ac:dyDescent="0.2">
@@ -34494,13 +34645,13 @@
         <v>368</v>
       </c>
       <c r="E293" s="39" t="s">
-        <v>856</v>
+        <v>853</v>
       </c>
       <c r="F293" s="39" t="s">
         <v>175</v>
       </c>
       <c r="G293" s="39" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
     </row>
     <row r="294" spans="1:7" ht="85" x14ac:dyDescent="0.2">
@@ -34519,13 +34670,13 @@
         <v>368</v>
       </c>
       <c r="E294" s="38" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
       <c r="F294" s="38" t="s">
         <v>175</v>
       </c>
       <c r="G294" s="38" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
     </row>
     <row r="295" spans="1:7" ht="85" x14ac:dyDescent="0.2">
@@ -34544,13 +34695,13 @@
         <v>368</v>
       </c>
       <c r="E295" s="39" t="s">
-        <v>858</v>
+        <v>855</v>
       </c>
       <c r="F295" s="39" t="s">
         <v>175</v>
       </c>
       <c r="G295" s="39" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
     </row>
     <row r="296" spans="1:7" ht="85" x14ac:dyDescent="0.2">
@@ -34594,7 +34745,7 @@
         <v>368</v>
       </c>
       <c r="E297" s="39" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
       <c r="F297" s="39" t="s">
         <v>181</v>
@@ -34619,7 +34770,7 @@
         <v>368</v>
       </c>
       <c r="E298" s="38" t="s">
-        <v>860</v>
+        <v>857</v>
       </c>
       <c r="F298" s="38" t="s">
         <v>181</v>
@@ -34725,7 +34876,7 @@
         <v>179</v>
       </c>
       <c r="G302" s="38" t="s">
-        <v>1047</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="303" spans="1:7" ht="51" x14ac:dyDescent="0.2">
@@ -34750,7 +34901,7 @@
         <v>172</v>
       </c>
       <c r="G303" s="39" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
     </row>
     <row r="304" spans="1:7" ht="68" x14ac:dyDescent="0.2">
@@ -34775,7 +34926,7 @@
         <v>176</v>
       </c>
       <c r="G304" s="38" t="s">
-        <v>878</v>
+        <v>875</v>
       </c>
     </row>
     <row r="305" spans="1:7" ht="68" x14ac:dyDescent="0.2">
@@ -34800,7 +34951,7 @@
         <v>178</v>
       </c>
       <c r="G305" s="39" t="s">
-        <v>878</v>
+        <v>875</v>
       </c>
     </row>
     <row r="306" spans="1:7" ht="51" x14ac:dyDescent="0.2">
@@ -34825,7 +34976,7 @@
         <v>179</v>
       </c>
       <c r="G306" s="38" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
     </row>
     <row r="307" spans="1:7" ht="68" x14ac:dyDescent="0.2">
@@ -34850,7 +35001,7 @@
         <v>172</v>
       </c>
       <c r="G307" s="39" t="s">
-        <v>884</v>
+        <v>881</v>
       </c>
     </row>
     <row r="308" spans="1:7" ht="68" x14ac:dyDescent="0.2">
@@ -34875,7 +35026,7 @@
         <v>176</v>
       </c>
       <c r="G308" s="38" t="s">
-        <v>897</v>
+        <v>894</v>
       </c>
     </row>
     <row r="309" spans="1:7" ht="68" x14ac:dyDescent="0.2">
@@ -34900,7 +35051,7 @@
         <v>178</v>
       </c>
       <c r="G309" s="39" t="s">
-        <v>897</v>
+        <v>894</v>
       </c>
     </row>
     <row r="310" spans="1:7" ht="68" x14ac:dyDescent="0.2">
@@ -34919,13 +35070,13 @@
         <v>368</v>
       </c>
       <c r="E310" s="38" t="s">
-        <v>882</v>
+        <v>879</v>
       </c>
       <c r="F310" s="38" t="s">
         <v>181</v>
       </c>
       <c r="G310" s="38" t="s">
-        <v>897</v>
+        <v>894</v>
       </c>
     </row>
     <row r="311" spans="1:7" ht="68" x14ac:dyDescent="0.2">
@@ -34944,7 +35095,7 @@
         <v>368</v>
       </c>
       <c r="E311" s="39" t="s">
-        <v>883</v>
+        <v>880</v>
       </c>
       <c r="F311" s="39" t="s">
         <v>181</v>
@@ -35000,7 +35151,7 @@
         <v>176</v>
       </c>
       <c r="G313" s="39" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
     </row>
     <row r="314" spans="1:7" ht="68" x14ac:dyDescent="0.2">
@@ -35025,7 +35176,7 @@
         <v>178</v>
       </c>
       <c r="G314" s="38" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
     </row>
     <row r="315" spans="1:7" ht="68" x14ac:dyDescent="0.2">
@@ -35050,7 +35201,7 @@
         <v>179</v>
       </c>
       <c r="G315" s="39" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
     </row>
     <row r="316" spans="1:7" ht="51" x14ac:dyDescent="0.2">
@@ -35200,7 +35351,7 @@
         <v>176</v>
       </c>
       <c r="G321" s="39" t="s">
-        <v>900</v>
+        <v>897</v>
       </c>
     </row>
     <row r="322" spans="1:7" ht="51" x14ac:dyDescent="0.2">
@@ -35225,7 +35376,7 @@
         <v>178</v>
       </c>
       <c r="G322" s="38" t="s">
-        <v>898</v>
+        <v>895</v>
       </c>
     </row>
     <row r="323" spans="1:7" ht="51" x14ac:dyDescent="0.2">
@@ -35250,7 +35401,7 @@
         <v>179</v>
       </c>
       <c r="G323" s="39" t="s">
-        <v>899</v>
+        <v>896</v>
       </c>
     </row>
     <row r="324" spans="1:7" ht="51" x14ac:dyDescent="0.2">
@@ -35275,7 +35426,7 @@
         <v>172</v>
       </c>
       <c r="G324" s="38" t="s">
-        <v>906</v>
+        <v>903</v>
       </c>
     </row>
     <row r="325" spans="1:7" ht="51" x14ac:dyDescent="0.2">
@@ -35300,7 +35451,7 @@
         <v>176</v>
       </c>
       <c r="G325" s="39" t="s">
-        <v>907</v>
+        <v>904</v>
       </c>
     </row>
     <row r="326" spans="1:7" ht="68" x14ac:dyDescent="0.2">
@@ -35325,7 +35476,7 @@
         <v>178</v>
       </c>
       <c r="G326" s="38" t="s">
-        <v>908</v>
+        <v>905</v>
       </c>
     </row>
     <row r="327" spans="1:7" ht="51" x14ac:dyDescent="0.2">
@@ -35350,7 +35501,7 @@
         <v>179</v>
       </c>
       <c r="G327" s="39" t="s">
-        <v>909</v>
+        <v>906</v>
       </c>
     </row>
     <row r="328" spans="1:7" ht="68" x14ac:dyDescent="0.2">
@@ -35369,13 +35520,13 @@
         <v>368</v>
       </c>
       <c r="E328" s="38" t="s">
-        <v>905</v>
+        <v>902</v>
       </c>
       <c r="F328" s="38" t="s">
         <v>336</v>
       </c>
       <c r="G328" s="38" t="s">
-        <v>910</v>
+        <v>907</v>
       </c>
     </row>
     <row r="329" spans="1:7" ht="34" x14ac:dyDescent="0.2">
@@ -35525,7 +35676,7 @@
         <v>176</v>
       </c>
       <c r="G334" s="38" t="s">
-        <v>917</v>
+        <v>914</v>
       </c>
     </row>
     <row r="335" spans="1:7" ht="68" x14ac:dyDescent="0.2">
@@ -35550,7 +35701,7 @@
         <v>178</v>
       </c>
       <c r="G335" s="39" t="s">
-        <v>917</v>
+        <v>914</v>
       </c>
     </row>
     <row r="336" spans="1:7" ht="68" x14ac:dyDescent="0.2">
@@ -35575,7 +35726,7 @@
         <v>179</v>
       </c>
       <c r="G336" s="38" t="s">
-        <v>918</v>
+        <v>915</v>
       </c>
     </row>
     <row r="337" spans="1:7" ht="68" x14ac:dyDescent="0.2">
@@ -35600,7 +35751,7 @@
         <v>172</v>
       </c>
       <c r="G337" s="39" t="s">
-        <v>924</v>
+        <v>921</v>
       </c>
     </row>
     <row r="338" spans="1:7" ht="68" x14ac:dyDescent="0.2">
@@ -35625,7 +35776,7 @@
         <v>176</v>
       </c>
       <c r="G338" s="38" t="s">
-        <v>925</v>
+        <v>922</v>
       </c>
     </row>
     <row r="339" spans="1:7" ht="68" x14ac:dyDescent="0.2">
@@ -35650,7 +35801,7 @@
         <v>178</v>
       </c>
       <c r="G339" s="39" t="s">
-        <v>925</v>
+        <v>922</v>
       </c>
     </row>
     <row r="340" spans="1:7" ht="68" x14ac:dyDescent="0.2">
@@ -35675,7 +35826,7 @@
         <v>179</v>
       </c>
       <c r="G340" s="38" t="s">
-        <v>926</v>
+        <v>923</v>
       </c>
     </row>
     <row r="341" spans="1:7" ht="68" x14ac:dyDescent="0.2">
@@ -35700,7 +35851,7 @@
         <v>172</v>
       </c>
       <c r="G341" s="39" t="s">
-        <v>934</v>
+        <v>931</v>
       </c>
     </row>
     <row r="342" spans="1:7" ht="68" x14ac:dyDescent="0.2">
@@ -35725,7 +35876,7 @@
         <v>176</v>
       </c>
       <c r="G342" s="38" t="s">
-        <v>935</v>
+        <v>932</v>
       </c>
     </row>
     <row r="343" spans="1:7" ht="68" x14ac:dyDescent="0.2">
@@ -35750,7 +35901,7 @@
         <v>178</v>
       </c>
       <c r="G343" s="39" t="s">
-        <v>935</v>
+        <v>932</v>
       </c>
     </row>
     <row r="344" spans="1:7" ht="68" x14ac:dyDescent="0.2">
@@ -35775,7 +35926,7 @@
         <v>179</v>
       </c>
       <c r="G344" s="38" t="s">
-        <v>926</v>
+        <v>923</v>
       </c>
     </row>
     <row r="345" spans="1:7" ht="85" x14ac:dyDescent="0.2">
@@ -35800,7 +35951,7 @@
         <v>172</v>
       </c>
       <c r="G345" s="39" t="s">
-        <v>940</v>
+        <v>937</v>
       </c>
     </row>
     <row r="346" spans="1:7" ht="85" x14ac:dyDescent="0.2">
@@ -35825,7 +35976,7 @@
         <v>176</v>
       </c>
       <c r="G346" s="38" t="s">
-        <v>941</v>
+        <v>938</v>
       </c>
     </row>
     <row r="347" spans="1:7" ht="85" x14ac:dyDescent="0.2">
@@ -35850,7 +36001,7 @@
         <v>178</v>
       </c>
       <c r="G347" s="39" t="s">
-        <v>941</v>
+        <v>938</v>
       </c>
     </row>
     <row r="348" spans="1:7" ht="85" x14ac:dyDescent="0.2">
@@ -35875,7 +36026,7 @@
         <v>179</v>
       </c>
       <c r="G348" s="38" t="s">
-        <v>939</v>
+        <v>936</v>
       </c>
     </row>
     <row r="349" spans="1:7" ht="51" x14ac:dyDescent="0.2">
@@ -35900,7 +36051,7 @@
         <v>173</v>
       </c>
       <c r="G349" s="39" t="s">
-        <v>947</v>
+        <v>944</v>
       </c>
     </row>
     <row r="350" spans="1:7" ht="51" x14ac:dyDescent="0.2">
@@ -35950,7 +36101,7 @@
         <v>179</v>
       </c>
       <c r="G351" s="39" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
     </row>
     <row r="352" spans="1:7" ht="68" x14ac:dyDescent="0.2">
@@ -35975,7 +36126,7 @@
         <v>172</v>
       </c>
       <c r="G352" s="38" t="s">
-        <v>955</v>
+        <v>952</v>
       </c>
     </row>
     <row r="353" spans="1:7" ht="68" x14ac:dyDescent="0.2">
@@ -35994,13 +36145,13 @@
         <v>368</v>
       </c>
       <c r="E353" s="39" t="s">
-        <v>954</v>
+        <v>951</v>
       </c>
       <c r="F353" s="39" t="s">
         <v>336</v>
       </c>
       <c r="G353" s="39" t="s">
-        <v>955</v>
+        <v>952</v>
       </c>
     </row>
     <row r="354" spans="1:7" ht="68" x14ac:dyDescent="0.2">
@@ -36025,7 +36176,7 @@
         <v>175</v>
       </c>
       <c r="G354" s="38" t="s">
-        <v>956</v>
+        <v>953</v>
       </c>
     </row>
     <row r="355" spans="1:7" ht="68" x14ac:dyDescent="0.2">
@@ -36044,13 +36195,13 @@
         <v>368</v>
       </c>
       <c r="E355" s="39" t="s">
-        <v>905</v>
+        <v>902</v>
       </c>
       <c r="F355" s="39" t="s">
         <v>175</v>
       </c>
       <c r="G355" s="39" t="s">
-        <v>956</v>
+        <v>953</v>
       </c>
     </row>
     <row r="356" spans="1:7" ht="68" x14ac:dyDescent="0.2">
@@ -36075,7 +36226,7 @@
         <v>179</v>
       </c>
       <c r="G356" s="38" t="s">
-        <v>957</v>
+        <v>954</v>
       </c>
     </row>
     <row r="357" spans="1:7" ht="68" x14ac:dyDescent="0.2">
@@ -36094,7 +36245,7 @@
         <v>368</v>
       </c>
       <c r="E357" s="39" t="s">
-        <v>860</v>
+        <v>857</v>
       </c>
       <c r="F357" s="39" t="s">
         <v>181</v>
@@ -36125,7 +36276,7 @@
         <v>172</v>
       </c>
       <c r="G358" s="38" t="s">
-        <v>962</v>
+        <v>959</v>
       </c>
     </row>
     <row r="359" spans="1:7" ht="51" x14ac:dyDescent="0.2">
@@ -36200,7 +36351,7 @@
         <v>179</v>
       </c>
       <c r="G361" s="39" t="s">
-        <v>963</v>
+        <v>960</v>
       </c>
     </row>
     <row r="362" spans="1:7" ht="68" x14ac:dyDescent="0.2">
@@ -36225,7 +36376,7 @@
         <v>172</v>
       </c>
       <c r="G362" s="38" t="s">
-        <v>967</v>
+        <v>964</v>
       </c>
     </row>
     <row r="363" spans="1:7" ht="68" x14ac:dyDescent="0.2">
@@ -36250,7 +36401,7 @@
         <v>176</v>
       </c>
       <c r="G363" s="39" t="s">
-        <v>968</v>
+        <v>965</v>
       </c>
     </row>
     <row r="364" spans="1:7" ht="68" x14ac:dyDescent="0.2">
@@ -36275,7 +36426,7 @@
         <v>178</v>
       </c>
       <c r="G364" s="38" t="s">
-        <v>968</v>
+        <v>965</v>
       </c>
     </row>
     <row r="365" spans="1:7" ht="68" x14ac:dyDescent="0.2">
@@ -36300,7 +36451,7 @@
         <v>179</v>
       </c>
       <c r="G365" s="39" t="s">
-        <v>968</v>
+        <v>965</v>
       </c>
     </row>
     <row r="366" spans="1:7" ht="68" x14ac:dyDescent="0.2">
@@ -36400,7 +36551,7 @@
         <v>179</v>
       </c>
       <c r="G369" s="39" t="s">
-        <v>973</v>
+        <v>970</v>
       </c>
     </row>
     <row r="370" spans="1:7" ht="34" x14ac:dyDescent="0.2">
@@ -36425,7 +36576,7 @@
         <v>172</v>
       </c>
       <c r="G370" s="38" t="s">
-        <v>981</v>
+        <v>978</v>
       </c>
     </row>
     <row r="371" spans="1:7" ht="34" x14ac:dyDescent="0.2">
@@ -36450,7 +36601,7 @@
         <v>176</v>
       </c>
       <c r="G371" s="39" t="s">
-        <v>982</v>
+        <v>979</v>
       </c>
     </row>
     <row r="372" spans="1:7" ht="34" x14ac:dyDescent="0.2">
@@ -36475,7 +36626,7 @@
         <v>178</v>
       </c>
       <c r="G372" s="38" t="s">
-        <v>982</v>
+        <v>979</v>
       </c>
     </row>
     <row r="373" spans="1:7" ht="34" x14ac:dyDescent="0.2">
@@ -36500,7 +36651,7 @@
         <v>179</v>
       </c>
       <c r="G373" s="39" t="s">
-        <v>983</v>
+        <v>980</v>
       </c>
     </row>
     <row r="374" spans="1:7" ht="34" x14ac:dyDescent="0.2">
@@ -36525,7 +36676,7 @@
         <v>172</v>
       </c>
       <c r="G374" s="38" t="s">
-        <v>981</v>
+        <v>978</v>
       </c>
     </row>
     <row r="375" spans="1:7" ht="34" x14ac:dyDescent="0.2">
@@ -36550,7 +36701,7 @@
         <v>176</v>
       </c>
       <c r="G375" s="39" t="s">
-        <v>982</v>
+        <v>979</v>
       </c>
     </row>
     <row r="376" spans="1:7" ht="34" x14ac:dyDescent="0.2">
@@ -36575,7 +36726,7 @@
         <v>178</v>
       </c>
       <c r="G376" s="38" t="s">
-        <v>982</v>
+        <v>979</v>
       </c>
     </row>
     <row r="377" spans="1:7" ht="34" x14ac:dyDescent="0.2">
@@ -36600,7 +36751,7 @@
         <v>179</v>
       </c>
       <c r="G377" s="39" t="s">
-        <v>984</v>
+        <v>981</v>
       </c>
     </row>
     <row r="378" spans="1:7" ht="51" x14ac:dyDescent="0.2">
@@ -36613,7 +36764,7 @@
         <v>Experimentally testing the response of feral cats and their prey to poison baiting</v>
       </c>
       <c r="C378" s="38" t="s">
-        <v>988</v>
+        <v>985</v>
       </c>
       <c r="D378" s="38" t="s">
         <v>368</v>
@@ -36625,7 +36776,7 @@
         <v>172</v>
       </c>
       <c r="G378" s="38" t="s">
-        <v>991</v>
+        <v>988</v>
       </c>
     </row>
     <row r="379" spans="1:7" ht="51" x14ac:dyDescent="0.2">
@@ -36638,7 +36789,7 @@
         <v>Experimentally testing the response of feral cats and their prey to poison baiting</v>
       </c>
       <c r="C379" s="39" t="s">
-        <v>988</v>
+        <v>985</v>
       </c>
       <c r="D379" s="39" t="s">
         <v>368</v>
@@ -36663,7 +36814,7 @@
         <v>Experimentally testing the response of feral cats and their prey to poison baiting</v>
       </c>
       <c r="C380" s="38" t="s">
-        <v>988</v>
+        <v>985</v>
       </c>
       <c r="D380" s="38" t="s">
         <v>368</v>
@@ -36675,7 +36826,7 @@
         <v>178</v>
       </c>
       <c r="G380" s="38" t="s">
-        <v>991</v>
+        <v>988</v>
       </c>
     </row>
     <row r="381" spans="1:7" ht="51" x14ac:dyDescent="0.2">
@@ -36688,7 +36839,7 @@
         <v>Experimentally testing the response of feral cats and their prey to poison baiting</v>
       </c>
       <c r="C381" s="39" t="s">
-        <v>988</v>
+        <v>985</v>
       </c>
       <c r="D381" s="39" t="s">
         <v>368</v>
@@ -36700,7 +36851,7 @@
         <v>179</v>
       </c>
       <c r="G381" s="39" t="s">
-        <v>990</v>
+        <v>987</v>
       </c>
     </row>
     <row r="382" spans="1:7" ht="68" x14ac:dyDescent="0.2">
@@ -36750,7 +36901,7 @@
         <v>176</v>
       </c>
       <c r="G383" s="39" t="s">
-        <v>996</v>
+        <v>993</v>
       </c>
     </row>
     <row r="384" spans="1:7" ht="68" x14ac:dyDescent="0.2">
@@ -36775,7 +36926,7 @@
         <v>178</v>
       </c>
       <c r="G384" s="38" t="s">
-        <v>996</v>
+        <v>993</v>
       </c>
     </row>
     <row r="385" spans="1:7" ht="68" x14ac:dyDescent="0.2">
@@ -36800,7 +36951,7 @@
         <v>179</v>
       </c>
       <c r="G385" s="39" t="s">
-        <v>997</v>
+        <v>994</v>
       </c>
     </row>
     <row r="386" spans="1:7" ht="68" x14ac:dyDescent="0.2">
@@ -36825,7 +36976,7 @@
         <v>173</v>
       </c>
       <c r="G386" s="38" t="s">
-        <v>916</v>
+        <v>913</v>
       </c>
     </row>
     <row r="387" spans="1:7" ht="68" x14ac:dyDescent="0.2">
@@ -36875,7 +37026,7 @@
         <v>179</v>
       </c>
       <c r="G388" s="38" t="s">
-        <v>1001</v>
+        <v>998</v>
       </c>
     </row>
     <row r="389" spans="1:7" ht="68" x14ac:dyDescent="0.2">
@@ -36925,7 +37076,7 @@
         <v>176</v>
       </c>
       <c r="G390" s="38" t="s">
-        <v>1002</v>
+        <v>999</v>
       </c>
     </row>
     <row r="391" spans="1:7" ht="68" x14ac:dyDescent="0.2">
@@ -36950,7 +37101,7 @@
         <v>178</v>
       </c>
       <c r="G391" s="39" t="s">
-        <v>1002</v>
+        <v>999</v>
       </c>
     </row>
     <row r="392" spans="1:7" ht="68" x14ac:dyDescent="0.2">
@@ -37000,7 +37151,7 @@
         <v>172</v>
       </c>
       <c r="G393" s="39" t="s">
-        <v>1045</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="394" spans="1:7" ht="187" x14ac:dyDescent="0.2">
@@ -37025,7 +37176,7 @@
         <v>176</v>
       </c>
       <c r="G394" s="38" t="s">
-        <v>1046</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="395" spans="1:7" ht="187" x14ac:dyDescent="0.2">
@@ -37050,7 +37201,7 @@
         <v>178</v>
       </c>
       <c r="G395" s="39" t="s">
-        <v>1046</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="396" spans="1:7" ht="102" x14ac:dyDescent="0.2">
@@ -37075,7 +37226,7 @@
         <v>179</v>
       </c>
       <c r="G396" s="38" t="s">
-        <v>1006</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="397" spans="1:7" ht="85" x14ac:dyDescent="0.2">
@@ -37100,7 +37251,7 @@
         <v>173</v>
       </c>
       <c r="G397" s="39" t="s">
-        <v>1011</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="398" spans="1:7" ht="85" x14ac:dyDescent="0.2">
@@ -37125,7 +37276,7 @@
         <v>176</v>
       </c>
       <c r="G398" s="38" t="s">
-        <v>1011</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="399" spans="1:7" ht="85" x14ac:dyDescent="0.2">
@@ -37150,7 +37301,7 @@
         <v>178</v>
       </c>
       <c r="G399" s="39" t="s">
-        <v>1011</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="400" spans="1:7" ht="85" x14ac:dyDescent="0.2">
@@ -37200,7 +37351,7 @@
         <v>173</v>
       </c>
       <c r="G401" s="39" t="s">
-        <v>1017</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="402" spans="1:7" ht="68" x14ac:dyDescent="0.2">
@@ -37225,7 +37376,7 @@
         <v>178</v>
       </c>
       <c r="G402" s="38" t="s">
-        <v>1017</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="403" spans="1:7" ht="68" x14ac:dyDescent="0.2">
@@ -37300,7 +37451,7 @@
         <v>176</v>
       </c>
       <c r="G405" s="39" t="s">
-        <v>1022</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="406" spans="1:7" ht="119" x14ac:dyDescent="0.2">
@@ -37325,7 +37476,7 @@
         <v>178</v>
       </c>
       <c r="G406" s="38" t="s">
-        <v>1022</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="407" spans="1:7" ht="51" x14ac:dyDescent="0.2">
@@ -37369,7 +37520,7 @@
         <v>368</v>
       </c>
       <c r="E408" s="38" t="s">
-        <v>1029</v>
+        <v>1026</v>
       </c>
       <c r="F408" s="38" t="s">
         <v>172</v>
@@ -37394,13 +37545,13 @@
         <v>368</v>
       </c>
       <c r="E409" s="39" t="s">
-        <v>1030</v>
+        <v>1027</v>
       </c>
       <c r="F409" s="39" t="s">
         <v>176</v>
       </c>
       <c r="G409" s="39" t="s">
-        <v>898</v>
+        <v>895</v>
       </c>
     </row>
     <row r="410" spans="1:7" ht="85" x14ac:dyDescent="0.2">
@@ -37419,13 +37570,13 @@
         <v>368</v>
       </c>
       <c r="E410" s="38" t="s">
-        <v>1031</v>
+        <v>1028</v>
       </c>
       <c r="F410" s="38" t="s">
         <v>178</v>
       </c>
       <c r="G410" s="38" t="s">
-        <v>898</v>
+        <v>895</v>
       </c>
     </row>
     <row r="411" spans="1:7" ht="85" x14ac:dyDescent="0.2">
@@ -37444,7 +37595,7 @@
         <v>368</v>
       </c>
       <c r="E411" s="39" t="s">
-        <v>1032</v>
+        <v>1029</v>
       </c>
       <c r="F411" s="39" t="s">
         <v>179</v>
@@ -37500,7 +37651,7 @@
         <v>176</v>
       </c>
       <c r="G413" s="39" t="s">
-        <v>1043</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="414" spans="1:7" ht="85" x14ac:dyDescent="0.2">
@@ -37525,7 +37676,7 @@
         <v>178</v>
       </c>
       <c r="G414" s="38" t="s">
-        <v>1043</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="415" spans="1:7" ht="85" x14ac:dyDescent="0.2">
@@ -37550,7 +37701,7 @@
         <v>179</v>
       </c>
       <c r="G415" s="39" t="s">
-        <v>1040</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="416" spans="1:7" ht="85" x14ac:dyDescent="0.2">
@@ -37569,13 +37720,13 @@
         <v>368</v>
       </c>
       <c r="E416" s="38" t="s">
-        <v>1038</v>
+        <v>1035</v>
       </c>
       <c r="F416" s="38" t="s">
         <v>181</v>
       </c>
       <c r="G416" s="38" t="s">
-        <v>1041</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="417" spans="1:7" ht="85" x14ac:dyDescent="0.2">
@@ -37594,13 +37745,13 @@
         <v>368</v>
       </c>
       <c r="E417" s="52" t="s">
-        <v>1039</v>
+        <v>1036</v>
       </c>
       <c r="F417" s="52" t="s">
         <v>181</v>
       </c>
       <c r="G417" s="52" t="s">
-        <v>1042</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="418" spans="1:7" x14ac:dyDescent="0.2"/>
@@ -37748,9 +37899,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75A75B7C-E7E1-234A-BD6D-A3B2966FCDDB}">
   <dimension ref="A1:N171"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G12" sqref="G12"/>
+    <sheetView topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" zeroHeight="1" x14ac:dyDescent="0.2"/>
@@ -38300,7 +38451,7 @@
         <v>368</v>
       </c>
       <c r="E15" s="38" t="s">
-        <v>250</v>
+        <v>173</v>
       </c>
       <c r="F15" s="38" t="s">
         <v>260</v>
@@ -38331,7 +38482,7 @@
         <v>Distinguishing distribution dynamics from temporary emigration using dynamic occupancy models</v>
       </c>
       <c r="C16" s="39" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="D16" s="39" t="s">
         <v>368</v>
@@ -38368,7 +38519,7 @@
         <v>Can dynamic occupancy models improve predictions of species' range dynamics? A test using Swiss birds</v>
       </c>
       <c r="C17" s="38" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="D17" s="38" t="s">
         <v>368</v>
@@ -38386,13 +38537,13 @@
         <v>293</v>
       </c>
       <c r="I17" s="38" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="J17" s="38" t="s">
         <v>280</v>
       </c>
       <c r="K17" s="38" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="85" x14ac:dyDescent="0.2">
@@ -38448,7 +38599,7 @@
         <v>368</v>
       </c>
       <c r="E19" s="38" t="s">
-        <v>248</v>
+        <v>173</v>
       </c>
       <c r="F19" s="38" t="s">
         <v>260</v>
@@ -38503,7 +38654,7 @@
         <v>277</v>
       </c>
       <c r="K20" s="39" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="68" x14ac:dyDescent="0.2">
@@ -38571,7 +38722,7 @@
         <v>299</v>
       </c>
       <c r="I22" s="39" t="s">
-        <v>371</v>
+        <v>458</v>
       </c>
       <c r="J22" s="39" t="s">
         <v>280</v>
@@ -38596,7 +38747,7 @@
         <v>368</v>
       </c>
       <c r="E23" s="38" t="s">
-        <v>250</v>
+        <v>173</v>
       </c>
       <c r="F23" s="38" t="s">
         <v>260</v>
@@ -38608,7 +38759,7 @@
         <v>298</v>
       </c>
       <c r="I23" s="38" t="s">
-        <v>371</v>
+        <v>458</v>
       </c>
       <c r="J23" s="38" t="s">
         <v>277</v>
@@ -38633,7 +38784,7 @@
         <v>368</v>
       </c>
       <c r="E24" s="39" t="s">
-        <v>250</v>
+        <v>173</v>
       </c>
       <c r="F24" s="39" t="s">
         <v>260</v>
@@ -38645,7 +38796,7 @@
         <v>298</v>
       </c>
       <c r="I24" s="39" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="J24" s="39" t="s">
         <v>277</v>
@@ -38682,7 +38833,7 @@
         <v>299</v>
       </c>
       <c r="I25" s="39" t="s">
-        <v>555</v>
+        <v>267</v>
       </c>
       <c r="J25" s="39" t="s">
         <v>280</v>
@@ -38719,7 +38870,7 @@
         <v>293</v>
       </c>
       <c r="I26" s="38" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="J26" s="38" t="s">
         <v>280</v>
@@ -38762,7 +38913,7 @@
         <v>281</v>
       </c>
       <c r="K27" s="39" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="51" x14ac:dyDescent="0.2">
@@ -38904,7 +39055,7 @@
         <v>443</v>
       </c>
       <c r="I31" s="39" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="J31" s="39" t="s">
         <v>277</v>
@@ -38960,7 +39111,7 @@
         <v>Modeling of site occupancy dynamics for northern spotted owls, with emphasis on the effects of barred owls</v>
       </c>
       <c r="C33" s="39" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="D33" s="39" t="s">
         <v>368</v>
@@ -38978,7 +39129,7 @@
         <v>298</v>
       </c>
       <c r="I33" s="39" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="J33" s="39" t="s">
         <v>277</v>
@@ -39237,7 +39388,7 @@
         <v>298</v>
       </c>
       <c r="I40" s="39" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="J40" s="39" t="s">
         <v>277</v>
@@ -39422,7 +39573,7 @@
         <v>298</v>
       </c>
       <c r="I45" s="38" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="J45" s="38" t="s">
         <v>280</v>
@@ -39607,7 +39758,7 @@
         <v>299</v>
       </c>
       <c r="I50" s="39" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="J50" s="39" t="s">
         <v>280</v>
@@ -40088,13 +40239,13 @@
         <v>293</v>
       </c>
       <c r="I63" s="39" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="J63" s="39" t="s">
         <v>280</v>
       </c>
       <c r="K63" s="39" t="s">
-        <v>805</v>
+        <v>802</v>
       </c>
     </row>
     <row r="64" spans="1:11" ht="68" x14ac:dyDescent="0.2">
@@ -40107,7 +40258,7 @@
         <v>The effects of habitat, climate, and Barred Owls on long-term demography of Northern Spotted Owls</v>
       </c>
       <c r="C64" s="38" t="s">
-        <v>809</v>
+        <v>806</v>
       </c>
       <c r="D64" s="38" t="s">
         <v>368</v>
@@ -40125,7 +40276,7 @@
         <v>298</v>
       </c>
       <c r="I64" s="38" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="J64" s="38" t="s">
         <v>277</v>
@@ -40162,7 +40313,7 @@
         <v>293</v>
       </c>
       <c r="I65" s="39" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="J65" s="39" t="s">
         <v>277</v>
@@ -40273,7 +40424,7 @@
         <v>293</v>
       </c>
       <c r="I68" s="38" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="J68" s="38" t="s">
         <v>280</v>
@@ -40310,7 +40461,7 @@
         <v>293</v>
       </c>
       <c r="I69" s="39" t="s">
-        <v>851</v>
+        <v>848</v>
       </c>
       <c r="J69" s="39" t="s">
         <v>277</v>
@@ -40347,7 +40498,7 @@
         <v>299</v>
       </c>
       <c r="I70" s="38" t="s">
-        <v>862</v>
+        <v>859</v>
       </c>
       <c r="J70" s="38" t="s">
         <v>280</v>
@@ -40384,7 +40535,7 @@
         <v>299</v>
       </c>
       <c r="I71" s="39" t="s">
-        <v>862</v>
+        <v>859</v>
       </c>
       <c r="J71" s="39" t="s">
         <v>405</v>
@@ -40643,7 +40794,7 @@
         <v>298</v>
       </c>
       <c r="I78" s="38" t="s">
-        <v>862</v>
+        <v>859</v>
       </c>
       <c r="J78" s="38" t="s">
         <v>277</v>
@@ -40680,7 +40831,7 @@
         <v>299</v>
       </c>
       <c r="I79" s="39" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="J79" s="39" t="s">
         <v>277</v>
@@ -40717,7 +40868,7 @@
         <v>298</v>
       </c>
       <c r="I80" s="38" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="J80" s="38" t="s">
         <v>277</v>
@@ -40791,7 +40942,7 @@
         <v>299</v>
       </c>
       <c r="I82" s="39" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="J82" s="39" t="s">
         <v>277</v>
@@ -40902,7 +41053,7 @@
         <v>293</v>
       </c>
       <c r="I85" s="38" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="J85" s="38" t="s">
         <v>277</v>
@@ -40976,7 +41127,7 @@
         <v>299</v>
       </c>
       <c r="I87" s="38" t="s">
-        <v>974</v>
+        <v>971</v>
       </c>
       <c r="J87" s="38" t="s">
         <v>280</v>
@@ -41013,7 +41164,7 @@
         <v>293</v>
       </c>
       <c r="I88" s="39" t="s">
-        <v>862</v>
+        <v>859</v>
       </c>
       <c r="J88" s="39" t="s">
         <v>280</v>
@@ -41032,7 +41183,7 @@
         <v>Experimentally testing the response of feral cats and their prey to poison baiting</v>
       </c>
       <c r="C89" s="38" t="s">
-        <v>988</v>
+        <v>985</v>
       </c>
       <c r="D89" s="38" t="s">
         <v>368</v>
@@ -41050,7 +41201,7 @@
         <v>293</v>
       </c>
       <c r="I89" s="38" t="s">
-        <v>974</v>
+        <v>971</v>
       </c>
       <c r="J89" s="38" t="s">
         <v>277</v>
@@ -41087,7 +41238,7 @@
         <v>299</v>
       </c>
       <c r="I90" s="39" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="J90" s="39" t="s">
         <v>277</v>
@@ -41198,7 +41349,7 @@
         <v>299</v>
       </c>
       <c r="I93" s="38" t="s">
-        <v>862</v>
+        <v>859</v>
       </c>
       <c r="J93" s="38" t="s">
         <v>280</v>
@@ -41235,7 +41386,7 @@
         <v>57</v>
       </c>
       <c r="I94" s="39" t="s">
-        <v>974</v>
+        <v>971</v>
       </c>
       <c r="J94" s="39" t="s">
         <v>277</v>
@@ -41318,7 +41469,7 @@
         <v>285</v>
       </c>
       <c r="L96" t="s">
-        <v>1033</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="97" spans="1:11" ht="85" x14ac:dyDescent="0.2">
@@ -41349,7 +41500,7 @@
         <v>57</v>
       </c>
       <c r="I97" s="38" t="s">
-        <v>1044</v>
+        <v>1041</v>
       </c>
       <c r="J97" s="38" t="s">
         <v>57</v>
@@ -42042,7 +42193,7 @@
         <v>0</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>1077</v>
+        <v>1074</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>46</v>
@@ -42056,7 +42207,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>1076</v>
+        <v>1073</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>45</v>
@@ -42070,7 +42221,7 @@
         <v>13</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>1061</v>
+        <v>1058</v>
       </c>
       <c r="D5" s="7" t="s">
         <v>45</v>
@@ -42086,7 +42237,7 @@
         <v>14</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>1060</v>
+        <v>1057</v>
       </c>
       <c r="D6" s="7" t="s">
         <v>45</v>
@@ -42104,7 +42255,7 @@
         <v>3</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>1075</v>
+        <v>1072</v>
       </c>
       <c r="D7" s="9" t="s">
         <v>46</v>
@@ -42118,7 +42269,7 @@
         <v>49</v>
       </c>
       <c r="C8" s="108" t="s">
-        <v>1074</v>
+        <v>1071</v>
       </c>
       <c r="D8" s="109" t="s">
         <v>48</v>
@@ -42184,7 +42335,7 @@
         <v>5</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>1073</v>
+        <v>1070</v>
       </c>
       <c r="D13" s="9" t="s">
         <v>45</v>
@@ -42198,7 +42349,7 @@
         <v>6</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="D14" s="9" t="s">
         <v>51</v>
@@ -42209,10 +42360,10 @@
     <row r="15" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A15" s="101"/>
       <c r="B15" s="24" t="s">
-        <v>1053</v>
+        <v>1050</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>1071</v>
+        <v>1068</v>
       </c>
       <c r="D15" s="9" t="s">
         <v>51</v>
@@ -42230,7 +42381,7 @@
         <v>7</v>
       </c>
       <c r="C16" s="102" t="s">
-        <v>1054</v>
+        <v>1051</v>
       </c>
       <c r="D16" s="102" t="s">
         <v>53</v>
@@ -42295,10 +42446,10 @@
     <row r="21" spans="1:6" ht="85" x14ac:dyDescent="0.2">
       <c r="A21" s="98"/>
       <c r="B21" s="31" t="s">
-        <v>1055</v>
+        <v>1052</v>
       </c>
       <c r="C21" s="32" t="s">
-        <v>1115</v>
+        <v>1112</v>
       </c>
       <c r="D21" s="30" t="s">
         <v>151</v>
@@ -42312,7 +42463,7 @@
         <v>9</v>
       </c>
       <c r="C22" s="32" t="s">
-        <v>1058</v>
+        <v>1055</v>
       </c>
       <c r="D22" s="30" t="s">
         <v>151</v>
@@ -42326,7 +42477,7 @@
         <v>10</v>
       </c>
       <c r="C23" s="32" t="s">
-        <v>1059</v>
+        <v>1056</v>
       </c>
       <c r="D23" s="30" t="s">
         <v>151</v>
@@ -42354,7 +42505,7 @@
         <v>11</v>
       </c>
       <c r="C25" s="32" t="s">
-        <v>1056</v>
+        <v>1053</v>
       </c>
       <c r="D25" s="30" t="s">
         <v>151</v>
@@ -42368,7 +42519,7 @@
         <v>12</v>
       </c>
       <c r="C26" s="32" t="s">
-        <v>1057</v>
+        <v>1054</v>
       </c>
       <c r="D26" s="30" t="s">
         <v>151</v>
@@ -42384,7 +42535,7 @@
         <v>15</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>1069</v>
+        <v>1066</v>
       </c>
       <c r="D27" s="11" t="s">
         <v>45</v>
@@ -42398,7 +42549,7 @@
         <v>17</v>
       </c>
       <c r="C28" s="92" t="s">
-        <v>1068</v>
+        <v>1065</v>
       </c>
       <c r="D28" s="91" t="s">
         <v>53</v>
@@ -42476,7 +42627,7 @@
         <v>18</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>1070</v>
+        <v>1067</v>
       </c>
       <c r="D34" s="11" t="s">
         <v>46</v>
@@ -42490,7 +42641,7 @@
         <v>38</v>
       </c>
       <c r="C35" s="92" t="s">
-        <v>1063</v>
+        <v>1060</v>
       </c>
       <c r="D35" s="91" t="s">
         <v>48</v>
@@ -42544,7 +42695,7 @@
         <v>1</v>
       </c>
       <c r="C39" s="92" t="s">
-        <v>1067</v>
+        <v>1064</v>
       </c>
       <c r="D39" s="91" t="s">
         <v>53</v>
@@ -42658,7 +42809,7 @@
         <v>16</v>
       </c>
       <c r="C48" s="92" t="s">
-        <v>1066</v>
+        <v>1063</v>
       </c>
       <c r="D48" s="91" t="s">
         <v>53</v>
@@ -42774,7 +42925,7 @@
         <v>19</v>
       </c>
       <c r="C57" s="14" t="s">
-        <v>1065</v>
+        <v>1062</v>
       </c>
       <c r="D57" s="13" t="s">
         <v>45</v>
@@ -42790,7 +42941,7 @@
         <v>20</v>
       </c>
       <c r="C58" s="84" t="s">
-        <v>1064</v>
+        <v>1061</v>
       </c>
       <c r="D58" s="83" t="s">
         <v>48</v>
@@ -42856,7 +43007,7 @@
         <v>21</v>
       </c>
       <c r="C64" s="84" t="s">
-        <v>1052</v>
+        <v>1049</v>
       </c>
       <c r="D64" s="83" t="s">
         <v>48</v>
@@ -42924,7 +43075,7 @@
         <v>22</v>
       </c>
       <c r="C70" s="84" t="s">
-        <v>1051</v>
+        <v>1048</v>
       </c>
       <c r="D70" s="83" t="s">
         <v>48</v>
@@ -43022,7 +43173,7 @@
         <v>28</v>
       </c>
       <c r="C79" s="17" t="s">
-        <v>1078</v>
+        <v>1075</v>
       </c>
       <c r="D79" s="17" t="s">
         <v>128</v>
@@ -43036,7 +43187,7 @@
         <v>27</v>
       </c>
       <c r="C80" s="17" t="s">
-        <v>1078</v>
+        <v>1075</v>
       </c>
       <c r="D80" s="17" t="s">
         <v>128</v>
@@ -43050,7 +43201,7 @@
         <v>23</v>
       </c>
       <c r="C81" s="17" t="s">
-        <v>1079</v>
+        <v>1076</v>
       </c>
       <c r="D81" s="16" t="s">
         <v>46</v>
@@ -43061,10 +43212,10 @@
     <row r="82" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A82" s="78"/>
       <c r="B82" s="26" t="s">
-        <v>1080</v>
+        <v>1077</v>
       </c>
       <c r="C82" s="17" t="s">
-        <v>1081</v>
+        <v>1078</v>
       </c>
       <c r="D82" s="16" t="s">
         <v>46</v>
@@ -43075,10 +43226,10 @@
     <row r="83" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A83" s="78"/>
       <c r="B83" s="110" t="s">
-        <v>1082</v>
+        <v>1079</v>
       </c>
       <c r="C83" s="17" t="s">
-        <v>1086</v>
+        <v>1083</v>
       </c>
       <c r="D83" s="16" t="s">
         <v>46</v>
@@ -43089,10 +43240,10 @@
     <row r="84" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A84" s="78"/>
       <c r="B84" s="110" t="s">
-        <v>1083</v>
+        <v>1080</v>
       </c>
       <c r="C84" s="17" t="s">
-        <v>1087</v>
+        <v>1084</v>
       </c>
       <c r="D84" s="16" t="s">
         <v>46</v>
@@ -43103,10 +43254,10 @@
     <row r="85" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A85" s="78"/>
       <c r="B85" s="110" t="s">
-        <v>1084</v>
+        <v>1081</v>
       </c>
       <c r="C85" s="17" t="s">
-        <v>1088</v>
+        <v>1085</v>
       </c>
       <c r="D85" s="16" t="s">
         <v>46</v>
@@ -43117,10 +43268,10 @@
     <row r="86" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A86" s="78"/>
       <c r="B86" s="110" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="C86" s="17" t="s">
-        <v>1107</v>
+        <v>1104</v>
       </c>
       <c r="D86" s="16" t="s">
         <v>46</v>
@@ -43134,7 +43285,7 @@
         <v>24</v>
       </c>
       <c r="C87" s="76" t="s">
-        <v>1090</v>
+        <v>1087</v>
       </c>
       <c r="D87" s="75" t="s">
         <v>48</v>
@@ -43155,7 +43306,7 @@
         <v>320</v>
       </c>
       <c r="F88" s="16" t="s">
-        <v>1089</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.2">
@@ -43236,7 +43387,7 @@
         <v>26</v>
       </c>
       <c r="C95" s="79" t="s">
-        <v>1091</v>
+        <v>1088</v>
       </c>
       <c r="D95" s="79" t="s">
         <v>53</v>
@@ -43290,7 +43441,7 @@
         <v>150</v>
       </c>
       <c r="C99" s="17" t="s">
-        <v>1092</v>
+        <v>1089</v>
       </c>
       <c r="D99" s="16" t="s">
         <v>151</v>
@@ -43318,7 +43469,7 @@
         <v>25</v>
       </c>
       <c r="C101" s="76" t="s">
-        <v>1093</v>
+        <v>1090</v>
       </c>
       <c r="D101" s="75" t="s">
         <v>48</v>
@@ -43363,7 +43514,7 @@
         <v>330</v>
       </c>
       <c r="F104" s="16" t="s">
-        <v>1117</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.2">
@@ -43476,7 +43627,7 @@
         <v>30</v>
       </c>
       <c r="C113" s="18" t="s">
-        <v>1094</v>
+        <v>1091</v>
       </c>
       <c r="D113" s="19" t="s">
         <v>45</v>
@@ -43490,7 +43641,7 @@
         <v>171</v>
       </c>
       <c r="C114" s="67" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="D114" s="86" t="s">
         <v>48</v>
@@ -43511,7 +43662,7 @@
         <v>173</v>
       </c>
       <c r="F115" s="20" t="s">
-        <v>1048</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.2">
@@ -43547,7 +43698,7 @@
         <v>175</v>
       </c>
       <c r="F118" s="19" t="s">
-        <v>1049</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.2">
@@ -43571,7 +43722,7 @@
         <v>181</v>
       </c>
       <c r="F120" s="20" t="s">
-        <v>1050</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="121" spans="1:7" ht="17" x14ac:dyDescent="0.2">
@@ -43784,7 +43935,7 @@
         <v>335</v>
       </c>
       <c r="F136" s="19" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="G136" s="21"/>
     </row>
@@ -44062,7 +44213,7 @@
         <v>305</v>
       </c>
       <c r="C157" s="57" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="D157" s="57" t="s">
         <v>48</v>
@@ -44083,7 +44234,7 @@
         <v>173</v>
       </c>
       <c r="F158" s="22" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="159" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -44164,7 +44315,7 @@
         <v>304</v>
       </c>
       <c r="C165" s="57" t="s">
-        <v>1104</v>
+        <v>1101</v>
       </c>
       <c r="D165" s="57" t="s">
         <v>48</v>
@@ -44190,7 +44341,7 @@
         <v>32</v>
       </c>
       <c r="C167" s="55" t="s">
-        <v>1103</v>
+        <v>1100</v>
       </c>
       <c r="D167" s="55" t="s">
         <v>53</v>
@@ -44199,7 +44350,7 @@
         <v>70</v>
       </c>
       <c r="F167" s="22" t="s">
-        <v>1098</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="168" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -44211,7 +44362,7 @@
         <v>179</v>
       </c>
       <c r="F168" s="22" t="s">
-        <v>1097</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="169" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -44232,7 +44383,7 @@
         <v>262</v>
       </c>
       <c r="C170" s="57" t="s">
-        <v>1102</v>
+        <v>1099</v>
       </c>
       <c r="D170" s="57" t="s">
         <v>48</v>
@@ -44334,7 +44485,7 @@
         <v>33</v>
       </c>
       <c r="C178" s="55" t="s">
-        <v>1105</v>
+        <v>1102</v>
       </c>
       <c r="D178" s="55" t="s">
         <v>53</v>
@@ -44415,7 +44566,7 @@
         <v>276</v>
       </c>
       <c r="F184" s="22" t="s">
-        <v>1100</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="185" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -44448,7 +44599,7 @@
         <v>34</v>
       </c>
       <c r="C187" s="57" t="s">
-        <v>1101</v>
+        <v>1098</v>
       </c>
       <c r="D187" s="57" t="s">
         <v>48</v>
@@ -44538,7 +44689,7 @@
         <v>35</v>
       </c>
       <c r="C194" s="55" t="s">
-        <v>1106</v>
+        <v>1103</v>
       </c>
       <c r="D194" s="55" t="s">
         <v>53</v>

--- a/Spreadsheets/DOM_Spreadsheet.xlsx
+++ b/Spreadsheets/DOM_Spreadsheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/saoirsekelleher/Documents/Research/QAEco/DOM_Review/Spreadsheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE1E6EDA-1C02-6045-86BE-FABD9EBC4600}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4FBC7CB-16F5-374A-B446-4928D8323FCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="25080" windowHeight="28300" xr2:uid="{981D9C2C-D510-E947-BD55-27C976277DB6}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25080" windowHeight="28300" activeTab="6" xr2:uid="{981D9C2C-D510-E947-BD55-27C976277DB6}"/>
   </bookViews>
   <sheets>
     <sheet name="Article Data" sheetId="10" r:id="rId1"/>
@@ -45,48 +45,12 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={2FF4CC05-A896-DF4C-AFDC-E21E3F7C169B}</author>
-  </authors>
-  <commentList>
-    <comment ref="E60" authorId="0" shapeId="0" xr:uid="{2FF4CC05-A896-DF4C-AFDC-E21E3F7C169B}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    Humans</t>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>tc={FCBD3F9D-AE56-3749-BFFC-6B111FF2DCA8}</author>
-    <author>tc={6DBBE3F6-AA68-864A-818C-65C9CABFD942}</author>
     <author>tc={67FD50A1-CC8B-A34B-B9CE-7955900B4994}</author>
     <author>tc={7ECE793D-E849-6949-9D7E-A75E613750A0}</author>
     <author>tc={B4C0F129-054A-724D-AD17-F2572B27E9B9}</author>
   </authors>
   <commentList>
-    <comment ref="D57" authorId="0" shapeId="0" xr:uid="{FCBD3F9D-AE56-3749-BFFC-6B111FF2DCA8}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    Month unclear?</t>
-      </text>
-    </comment>
-    <comment ref="D63" authorId="1" shapeId="0" xr:uid="{6DBBE3F6-AA68-864A-818C-65C9CABFD942}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    Somewhat unclear</t>
-      </text>
-    </comment>
-    <comment ref="P70" authorId="2" shapeId="0" xr:uid="{67FD50A1-CC8B-A34B-B9CE-7955900B4994}">
+    <comment ref="P70" authorId="0" shapeId="0" xr:uid="{67FD50A1-CC8B-A34B-B9CE-7955900B4994}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -94,7 +58,7 @@
     Transect</t>
       </text>
     </comment>
-    <comment ref="P74" authorId="3" shapeId="0" xr:uid="{7ECE793D-E849-6949-9D7E-A75E613750A0}">
+    <comment ref="P74" authorId="1" shapeId="0" xr:uid="{7ECE793D-E849-6949-9D7E-A75E613750A0}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -102,7 +66,7 @@
     Transect</t>
       </text>
     </comment>
-    <comment ref="L108" authorId="4" shapeId="0" xr:uid="{B4C0F129-054A-724D-AD17-F2572B27E9B9}">
+    <comment ref="L108" authorId="2" shapeId="0" xr:uid="{B4C0F129-054A-724D-AD17-F2572B27E9B9}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -114,49 +78,13 @@
 </comments>
 </file>
 
-<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={116296D1-93E2-394B-8281-8AABA2BA4FCE}</author>
-  </authors>
-  <commentList>
-    <comment ref="G192" authorId="0" shapeId="0" xr:uid="{116296D1-93E2-394B-8281-8AABA2BA4FCE}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    Actually set to 0</t>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>tc={405CDF44-A1B4-F946-8695-78C12ACAF5C9}</author>
-    <author>tc={ABC2C893-9662-DB4D-A428-2A074FFD0574}</author>
     <author>tc={143C17AD-FBD4-8046-B615-2C4D07974540}</author>
   </authors>
   <commentList>
-    <comment ref="H52" authorId="0" shapeId="0" xr:uid="{405CDF44-A1B4-F946-8695-78C12ACAF5C9}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    STAN</t>
-      </text>
-    </comment>
-    <comment ref="F53" authorId="1" shapeId="0" xr:uid="{ABC2C893-9662-DB4D-A428-2A074FFD0574}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    Neural networks</t>
-      </text>
-    </comment>
-    <comment ref="J62" authorId="2" shapeId="0" xr:uid="{143C17AD-FBD4-8046-B615-2C4D07974540}">
+    <comment ref="J62" authorId="0" shapeId="0" xr:uid="{143C17AD-FBD4-8046-B615-2C4D07974540}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -191,7 +119,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6740" uniqueCount="1136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6769" uniqueCount="1148">
   <si>
     <t>Review ID</t>
   </si>
@@ -3131,55 +3059,13 @@
     <t>16 species in a chicago community</t>
   </si>
   <si>
-    <t>E-OTHER_SPEC_I_L, E-LACO_SI_D_I, S-SEAS_SE_I_L, E-ANTH_SI_R_I, S-SPEC_SPEC_I_I</t>
-  </si>
-  <si>
-    <t>S-SEAS_SE_I_I, S-SPEC_SPEC_I_I, E-PHEN_SE_I_I</t>
-  </si>
-  <si>
-    <t>S-SPEC_SPEC_I_L, E-LACO_SI_D_I, S-SEAS_SE_I_L, E-ANTH_SI_R_I, S-SPEC_SPEC_I_I</t>
-  </si>
-  <si>
-    <t>S-SPEC_SPEC_I_L</t>
-  </si>
-  <si>
     <t>Landscape context and spatial attributes matter for New England cottontail occupancy</t>
   </si>
   <si>
     <t>Bischoff, Kathryn E.; Rittenhouse, Tracy A. G.; Rittenhouse, Chadwick D.</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">New england cottontail </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Sylvilagus transitionalis</t>
-    </r>
-  </si>
-  <si>
     <t>Habitat loss, Invasives</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Eastern cottontail </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Sylvilagus floridanus</t>
-    </r>
   </si>
   <si>
     <t>E-CLWE_SU_D_L, E-CLWE_SU_D_L, E-CLWE_SU_R_L, E-CLWE_SU_R_L</t>
@@ -3288,15 +3174,6 @@
   </si>
   <si>
     <t>Grid, Stratified, Random</t>
-  </si>
-  <si>
-    <t>E-ANTH_SI_R_I, E-TOPO_SI_R_I, E-TOPO_SI_R_I, E-ANTH_SI_D_I, S-SPEC_SPEC_I_I</t>
-  </si>
-  <si>
-    <t>E-ANTH_SI_R_I, E-TOPO_SI_R_I, E-TOPO_SI_R_I, E-ANTH_SISE_D_I, S-SPEC_SPEC_I_I</t>
-  </si>
-  <si>
-    <t>E-ANTH_SI_R_I, E-ANTH_SI_R_I, S-OBSE_SU_I_I, S-SPEC_SPEC_I_I</t>
   </si>
   <si>
     <t>Evaluation of the status of anurans on a refuge in suburban Maryland</t>
@@ -3517,9 +3394,6 @@
     <t>E-TOPO_SI_R_L, E-TOPO_S_R_L, E-ANTH_SI_R_L, E-ANTH_SI_R_L, E-ANTH_SI_R_L, E-PROT_SI_R_L, E-PROT_SISE_I_L</t>
   </si>
   <si>
-    <t>E-GEOM_SI_R_L, S-SEAS_SE_I_L</t>
-  </si>
-  <si>
     <t>14 species of amphibian; adults and metamorphs of each modeled seperately</t>
   </si>
   <si>
@@ -5596,6 +5470,104 @@
   </si>
   <si>
     <t>WI-UUUU</t>
+  </si>
+  <si>
+    <t>Netherlands, Switzerland</t>
+  </si>
+  <si>
+    <t>UU-2010</t>
+  </si>
+  <si>
+    <t>UU-2013</t>
+  </si>
+  <si>
+    <t>LC, Invasive</t>
+  </si>
+  <si>
+    <t>AU-2010</t>
+  </si>
+  <si>
+    <t>SP-2013</t>
+  </si>
+  <si>
+    <t>S-SEAS_SE_I_L, E-PHEN_SE_I_L</t>
+  </si>
+  <si>
+    <t>E-LACO_SI_D_L, S-SEAS_SE_I_L, E-ANTH_SI_R_L</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">New england cottontail </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Sylvilagus transitionalis</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and Eastern cottontail </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>sylvilagus floridanus</t>
+    </r>
+  </si>
+  <si>
+    <t>VU, Invasive</t>
+  </si>
+  <si>
+    <t>UU-1989</t>
+  </si>
+  <si>
+    <t>UU-2000</t>
+  </si>
+  <si>
+    <t>UU-2015</t>
+  </si>
+  <si>
+    <t>Italy, Canada</t>
+  </si>
+  <si>
+    <t>E-ANTH_SI_R_L, E-TOPO_SI_R_L, E-TOPO_SI_R_L, E-ANTH_SISE_D_L</t>
+  </si>
+  <si>
+    <t>E-ANTH_SI_R_L, E-TOPO_SI_R_L, E-TOPO_SI_R_L, E-ANTH_SI_D_L</t>
+  </si>
+  <si>
+    <t>E-ANTH_SI_R_L, E-ANTH_SI_R_L, S-OBSE_SU_I_L</t>
+  </si>
+  <si>
+    <t>SP-1997</t>
+  </si>
+  <si>
+    <t>SU-2001</t>
+  </si>
+  <si>
+    <t>United States of America, Rwanda</t>
+  </si>
+  <si>
+    <t>E-SPAT_SI_R_L, S-SEAS_SE_I_L</t>
+  </si>
+  <si>
+    <t>Independent, Joint</t>
   </si>
 </sst>
 </file>
@@ -6065,7 +6037,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="112">
+  <cellXfs count="113">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -6392,6 +6364,9 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -6810,20 +6785,6 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="E60" dT="2024-08-13T22:43:19.41" personId="{7E158FB0-5ED6-8845-85E3-203C36CA0ECA}" id="{2FF4CC05-A896-DF4C-AFDC-E21E3F7C169B}">
-    <text>Humans</text>
-  </threadedComment>
-</ThreadedComments>
-</file>
-
-<file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
-<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="D57" dT="2024-08-13T01:03:47.46" personId="{7E158FB0-5ED6-8845-85E3-203C36CA0ECA}" id="{FCBD3F9D-AE56-3749-BFFC-6B111FF2DCA8}">
-    <text>Month unclear?</text>
-  </threadedComment>
-  <threadedComment ref="D63" dT="2024-08-13T19:51:51.36" personId="{7E158FB0-5ED6-8845-85E3-203C36CA0ECA}" id="{6DBBE3F6-AA68-864A-818C-65C9CABFD942}">
-    <text>Somewhat unclear</text>
-  </threadedComment>
   <threadedComment ref="P70" dT="2024-08-14T17:08:22.49" personId="{7E158FB0-5ED6-8845-85E3-203C36CA0ECA}" id="{67FD50A1-CC8B-A34B-B9CE-7955900B4994}">
     <text>Transect</text>
   </threadedComment>
@@ -6836,22 +6797,8 @@
 </ThreadedComments>
 </file>
 
-<file path=xl/threadedComments/threadedComment3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="G192" dT="2024-08-13T19:54:12.08" personId="{7E158FB0-5ED6-8845-85E3-203C36CA0ECA}" id="{116296D1-93E2-394B-8281-8AABA2BA4FCE}">
-    <text>Actually set to 0</text>
-  </threadedComment>
-</ThreadedComments>
-</file>
-
-<file path=xl/threadedComments/threadedComment4.xml><?xml version="1.0" encoding="utf-8"?>
-<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="H52" dT="2024-08-14T17:23:12.61" personId="{7E158FB0-5ED6-8845-85E3-203C36CA0ECA}" id="{405CDF44-A1B4-F946-8695-78C12ACAF5C9}">
-    <text>STAN</text>
-  </threadedComment>
-  <threadedComment ref="F53" dT="2024-08-14T17:26:06.34" personId="{7E158FB0-5ED6-8845-85E3-203C36CA0ECA}" id="{ABC2C893-9662-DB4D-A428-2A074FFD0574}">
-    <text>Neural networks</text>
-  </threadedComment>
   <threadedComment ref="J62" dT="2024-08-14T22:27:59.68" personId="{7E158FB0-5ED6-8845-85E3-203C36CA0ECA}" id="{143C17AD-FBD4-8046-B615-2C4D07974540}">
     <text>BIC</text>
   </threadedComment>
@@ -6862,9 +6809,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C80BA99-678B-E448-90AD-2521C38AEB8E}">
   <dimension ref="A1:XFB128"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B37" sqref="B37"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B51" sqref="B51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="16" zeroHeight="1" x14ac:dyDescent="0.2"/>
@@ -6900,7 +6847,7 @@
         <v>6</v>
       </c>
       <c r="G1" s="36" t="s">
-        <v>1047</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="68" x14ac:dyDescent="0.2">
@@ -6923,7 +6870,7 @@
         <v>363</v>
       </c>
       <c r="G2" s="38" t="s">
-        <v>1102</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="51" x14ac:dyDescent="0.2">
@@ -6969,7 +6916,7 @@
         <v>387</v>
       </c>
       <c r="G4" s="38" t="s">
-        <v>1107</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="68" x14ac:dyDescent="0.2">
@@ -7038,7 +6985,7 @@
         <v>417</v>
       </c>
       <c r="G7" s="39" t="s">
-        <v>1110</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="34" x14ac:dyDescent="0.2">
@@ -7084,7 +7031,7 @@
         <v>431</v>
       </c>
       <c r="G9" s="39" t="s">
-        <v>1115</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="51" x14ac:dyDescent="0.2">
@@ -7130,7 +7077,7 @@
         <v>447</v>
       </c>
       <c r="G11" s="39" t="s">
-        <v>1118</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="119" x14ac:dyDescent="0.2">
@@ -7153,7 +7100,7 @@
         <v>460</v>
       </c>
       <c r="G12" s="38" t="s">
-        <v>1119</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="51" x14ac:dyDescent="0.2">
@@ -7245,7 +7192,7 @@
         <v>490</v>
       </c>
       <c r="G16" s="38" t="s">
-        <v>1120</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="68" x14ac:dyDescent="0.2">
@@ -7291,7 +7238,7 @@
         <v>509</v>
       </c>
       <c r="G18" s="38" t="s">
-        <v>1122</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="68" x14ac:dyDescent="0.2">
@@ -7498,7 +7445,7 @@
         <v>575</v>
       </c>
       <c r="G27" s="39" t="s">
-        <v>1110</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="51" x14ac:dyDescent="0.2">
@@ -7529,7 +7476,7 @@
         <v>675</v>
       </c>
       <c r="B29" s="39" t="s">
-        <v>1130</v>
+        <v>1120</v>
       </c>
       <c r="C29" s="39">
         <v>2012</v>
@@ -7590,7 +7537,7 @@
         <v>606</v>
       </c>
       <c r="G31" s="39" t="s">
-        <v>832</v>
+        <v>822</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="51" x14ac:dyDescent="0.2">
@@ -7682,7 +7629,7 @@
         <v>634</v>
       </c>
       <c r="G35" s="39" t="s">
-        <v>1133</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="68" x14ac:dyDescent="0.2">
@@ -7751,7 +7698,7 @@
         <v>651</v>
       </c>
       <c r="G38" s="38" t="s">
-        <v>652</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="51" x14ac:dyDescent="0.2">
@@ -7805,7 +7752,7 @@
         <v>515</v>
       </c>
       <c r="B41" s="39" t="s">
-        <v>673</v>
+        <v>669</v>
       </c>
       <c r="C41" s="39">
         <v>2023</v>
@@ -7817,7 +7764,7 @@
         <v>508</v>
       </c>
       <c r="F41" s="39" t="s">
-        <v>674</v>
+        <v>670</v>
       </c>
       <c r="G41" s="39" t="s">
         <v>373</v>
@@ -7828,7 +7775,7 @@
         <v>49</v>
       </c>
       <c r="B42" s="38" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="C42" s="38">
         <v>2007</v>
@@ -7840,7 +7787,7 @@
         <v>553</v>
       </c>
       <c r="F42" s="38" t="s">
-        <v>682</v>
+        <v>676</v>
       </c>
       <c r="G42" s="38" t="s">
         <v>373</v>
@@ -7851,7 +7798,7 @@
         <v>822</v>
       </c>
       <c r="B43" s="39" t="s">
-        <v>686</v>
+        <v>680</v>
       </c>
       <c r="C43" s="39">
         <v>2011</v>
@@ -7860,10 +7807,10 @@
         <v>342</v>
       </c>
       <c r="E43" s="39" t="s">
-        <v>687</v>
+        <v>681</v>
       </c>
       <c r="F43" s="39" t="s">
-        <v>688</v>
+        <v>682</v>
       </c>
       <c r="G43" s="39" t="s">
         <v>396</v>
@@ -7874,7 +7821,7 @@
         <v>237</v>
       </c>
       <c r="B44" s="38" t="s">
-        <v>691</v>
+        <v>685</v>
       </c>
       <c r="C44" s="38">
         <v>2014</v>
@@ -7886,7 +7833,7 @@
         <v>508</v>
       </c>
       <c r="F44" s="38" t="s">
-        <v>692</v>
+        <v>686</v>
       </c>
       <c r="G44" s="38" t="s">
         <v>373</v>
@@ -7897,7 +7844,7 @@
         <v>69</v>
       </c>
       <c r="B45" s="39" t="s">
-        <v>696</v>
+        <v>690</v>
       </c>
       <c r="C45" s="39">
         <v>2017</v>
@@ -7909,7 +7856,7 @@
         <v>546</v>
       </c>
       <c r="F45" s="39" t="s">
-        <v>697</v>
+        <v>691</v>
       </c>
       <c r="G45" s="39" t="s">
         <v>491</v>
@@ -7920,7 +7867,7 @@
         <v>261</v>
       </c>
       <c r="B46" s="38" t="s">
-        <v>705</v>
+        <v>699</v>
       </c>
       <c r="C46" s="38">
         <v>2023</v>
@@ -7929,13 +7876,13 @@
         <v>345</v>
       </c>
       <c r="E46" s="38" t="s">
-        <v>706</v>
+        <v>700</v>
       </c>
       <c r="F46" s="38" t="s">
-        <v>707</v>
+        <v>701</v>
       </c>
       <c r="G46" s="38" t="s">
-        <v>389</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="34" x14ac:dyDescent="0.2">
@@ -7943,7 +7890,7 @@
         <v>336</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>713</v>
+        <v>704</v>
       </c>
       <c r="C47" s="39">
         <v>2007</v>
@@ -7952,10 +7899,10 @@
         <v>341</v>
       </c>
       <c r="E47" s="39" t="s">
-        <v>714</v>
+        <v>705</v>
       </c>
       <c r="F47" s="39" t="s">
-        <v>715</v>
+        <v>706</v>
       </c>
       <c r="G47" s="39" t="s">
         <v>373</v>
@@ -7966,7 +7913,7 @@
         <v>157</v>
       </c>
       <c r="B48" s="38" t="s">
-        <v>718</v>
+        <v>709</v>
       </c>
       <c r="C48" s="38">
         <v>2008</v>
@@ -7975,10 +7922,10 @@
         <v>342</v>
       </c>
       <c r="E48" s="38" t="s">
-        <v>719</v>
+        <v>710</v>
       </c>
       <c r="F48" s="38" t="s">
-        <v>720</v>
+        <v>711</v>
       </c>
       <c r="G48" s="38" t="s">
         <v>373</v>
@@ -7989,7 +7936,7 @@
         <v>46</v>
       </c>
       <c r="B49" s="39" t="s">
-        <v>730</v>
+        <v>721</v>
       </c>
       <c r="C49" s="39">
         <v>2012</v>
@@ -8001,7 +7948,7 @@
         <v>416</v>
       </c>
       <c r="F49" s="39" t="s">
-        <v>731</v>
+        <v>722</v>
       </c>
       <c r="G49" s="39" t="s">
         <v>373</v>
@@ -8012,7 +7959,7 @@
         <v>43</v>
       </c>
       <c r="B50" s="38" t="s">
-        <v>735</v>
+        <v>726</v>
       </c>
       <c r="C50" s="38">
         <v>2018</v>
@@ -8021,13 +7968,13 @@
         <v>344</v>
       </c>
       <c r="E50" s="38" t="s">
-        <v>736</v>
+        <v>727</v>
       </c>
       <c r="F50" s="38" t="s">
-        <v>737</v>
+        <v>728</v>
       </c>
       <c r="G50" s="38" t="s">
-        <v>373</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="51" spans="1:7" ht="34" x14ac:dyDescent="0.2">
@@ -8035,7 +7982,7 @@
         <v>154</v>
       </c>
       <c r="B51" s="39" t="s">
-        <v>746</v>
+        <v>736</v>
       </c>
       <c r="C51" s="39">
         <v>2020</v>
@@ -8044,10 +7991,10 @@
         <v>345</v>
       </c>
       <c r="E51" s="39" t="s">
-        <v>747</v>
+        <v>737</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>748</v>
+        <v>738</v>
       </c>
       <c r="G51" s="39" t="s">
         <v>373</v>
@@ -8058,7 +8005,7 @@
         <v>2</v>
       </c>
       <c r="B52" s="38" t="s">
-        <v>755</v>
+        <v>745</v>
       </c>
       <c r="C52" s="38">
         <v>2005</v>
@@ -8070,7 +8017,7 @@
         <v>416</v>
       </c>
       <c r="F52" s="38" t="s">
-        <v>756</v>
+        <v>746</v>
       </c>
       <c r="G52" s="38" t="s">
         <v>516</v>
@@ -8081,7 +8028,7 @@
         <v>1148</v>
       </c>
       <c r="B53" s="39" t="s">
-        <v>759</v>
+        <v>749</v>
       </c>
       <c r="C53" s="39">
         <v>2009</v>
@@ -8090,10 +8037,10 @@
         <v>342</v>
       </c>
       <c r="E53" s="39" t="s">
-        <v>760</v>
+        <v>750</v>
       </c>
       <c r="F53" s="39" t="s">
-        <v>761</v>
+        <v>751</v>
       </c>
       <c r="G53" s="39" t="s">
         <v>373</v>
@@ -8104,7 +8051,7 @@
         <v>366</v>
       </c>
       <c r="B54" s="38" t="s">
-        <v>766</v>
+        <v>756</v>
       </c>
       <c r="C54" s="38">
         <v>2014</v>
@@ -8116,7 +8063,7 @@
         <v>501</v>
       </c>
       <c r="F54" s="38" t="s">
-        <v>767</v>
+        <v>757</v>
       </c>
       <c r="G54" s="38" t="s">
         <v>373</v>
@@ -8127,7 +8074,7 @@
         <v>144</v>
       </c>
       <c r="B55" s="39" t="s">
-        <v>772</v>
+        <v>762</v>
       </c>
       <c r="C55" s="39">
         <v>2016</v>
@@ -8139,7 +8086,7 @@
         <v>489</v>
       </c>
       <c r="F55" s="39" t="s">
-        <v>773</v>
+        <v>763</v>
       </c>
       <c r="G55" s="39" t="s">
         <v>373</v>
@@ -8150,7 +8097,7 @@
         <v>154</v>
       </c>
       <c r="B56" s="38" t="s">
-        <v>778</v>
+        <v>768</v>
       </c>
       <c r="C56" s="38">
         <v>2023</v>
@@ -8159,10 +8106,10 @@
         <v>345</v>
       </c>
       <c r="E56" s="38" t="s">
-        <v>779</v>
+        <v>769</v>
       </c>
       <c r="F56" s="38" t="s">
-        <v>780</v>
+        <v>770</v>
       </c>
       <c r="G56" s="38" t="s">
         <v>373</v>
@@ -8173,7 +8120,7 @@
         <v>654</v>
       </c>
       <c r="B57" s="39" t="s">
-        <v>784</v>
+        <v>774</v>
       </c>
       <c r="C57" s="39">
         <v>2005</v>
@@ -8182,10 +8129,10 @@
         <v>341</v>
       </c>
       <c r="E57" s="39" t="s">
-        <v>785</v>
+        <v>775</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>786</v>
+        <v>776</v>
       </c>
       <c r="G57" s="39" t="s">
         <v>516</v>
@@ -8196,7 +8143,7 @@
         <v>600</v>
       </c>
       <c r="B58" s="38" t="s">
-        <v>788</v>
+        <v>778</v>
       </c>
       <c r="C58" s="38">
         <v>2009</v>
@@ -8205,10 +8152,10 @@
         <v>342</v>
       </c>
       <c r="E58" s="38" t="s">
-        <v>736</v>
+        <v>727</v>
       </c>
       <c r="F58" s="38" t="s">
-        <v>789</v>
+        <v>779</v>
       </c>
       <c r="G58" s="38" t="s">
         <v>373</v>
@@ -8219,7 +8166,7 @@
         <v>162</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>792</v>
+        <v>782</v>
       </c>
       <c r="C59" s="39">
         <v>2013</v>
@@ -8231,7 +8178,7 @@
         <v>546</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>793</v>
+        <v>783</v>
       </c>
       <c r="G59" s="39" t="s">
         <v>373</v>
@@ -8242,7 +8189,7 @@
         <v>18</v>
       </c>
       <c r="B60" s="38" t="s">
-        <v>800</v>
+        <v>790</v>
       </c>
       <c r="C60" s="38">
         <v>2016</v>
@@ -8254,7 +8201,7 @@
         <v>501</v>
       </c>
       <c r="F60" s="38" t="s">
-        <v>801</v>
+        <v>791</v>
       </c>
       <c r="G60" s="38" t="s">
         <v>373</v>
@@ -8265,7 +8212,7 @@
         <v>521</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>810</v>
+        <v>800</v>
       </c>
       <c r="C61" s="39">
         <v>2023</v>
@@ -8277,7 +8224,7 @@
         <v>372</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>809</v>
+        <v>799</v>
       </c>
       <c r="G61" s="39" t="s">
         <v>377</v>
@@ -8288,7 +8235,7 @@
         <v>34</v>
       </c>
       <c r="B62" s="38" t="s">
-        <v>817</v>
+        <v>807</v>
       </c>
       <c r="C62" s="38">
         <v>2010</v>
@@ -8297,10 +8244,10 @@
         <v>342</v>
       </c>
       <c r="E62" s="38" t="s">
-        <v>736</v>
+        <v>727</v>
       </c>
       <c r="F62" s="38" t="s">
-        <v>818</v>
+        <v>808</v>
       </c>
       <c r="G62" s="38" t="s">
         <v>373</v>
@@ -8311,7 +8258,7 @@
         <v>409</v>
       </c>
       <c r="B63" s="39" t="s">
-        <v>822</v>
+        <v>812</v>
       </c>
       <c r="C63" s="39">
         <v>2015</v>
@@ -8320,10 +8267,10 @@
         <v>343</v>
       </c>
       <c r="E63" s="39" t="s">
-        <v>823</v>
+        <v>813</v>
       </c>
       <c r="F63" s="39" t="s">
-        <v>824</v>
+        <v>814</v>
       </c>
       <c r="G63" s="39" t="s">
         <v>364</v>
@@ -8334,7 +8281,7 @@
         <v>291</v>
       </c>
       <c r="B64" s="38" t="s">
-        <v>828</v>
+        <v>818</v>
       </c>
       <c r="C64" s="38">
         <v>2016</v>
@@ -8346,7 +8293,7 @@
         <v>489</v>
       </c>
       <c r="F64" s="38" t="s">
-        <v>829</v>
+        <v>819</v>
       </c>
       <c r="G64" s="38" t="s">
         <v>396</v>
@@ -8357,7 +8304,7 @@
         <v>488</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>836</v>
+        <v>826</v>
       </c>
       <c r="C65" s="39">
         <v>2023</v>
@@ -8366,10 +8313,10 @@
         <v>345</v>
       </c>
       <c r="E65" s="39" t="s">
-        <v>837</v>
+        <v>827</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>838</v>
+        <v>828</v>
       </c>
       <c r="G65" s="39" t="s">
         <v>396</v>
@@ -8380,7 +8327,7 @@
         <v>53</v>
       </c>
       <c r="B66" s="38" t="s">
-        <v>846</v>
+        <v>836</v>
       </c>
       <c r="C66" s="38">
         <v>2009</v>
@@ -8392,7 +8339,7 @@
         <v>372</v>
       </c>
       <c r="F66" s="38" t="s">
-        <v>847</v>
+        <v>837</v>
       </c>
       <c r="G66" s="38" t="s">
         <v>373</v>
@@ -8403,7 +8350,7 @@
         <v>543</v>
       </c>
       <c r="B67" s="39" t="s">
-        <v>857</v>
+        <v>847</v>
       </c>
       <c r="C67" s="39">
         <v>2013</v>
@@ -8412,13 +8359,13 @@
         <v>343</v>
       </c>
       <c r="E67" s="39" t="s">
-        <v>858</v>
+        <v>848</v>
       </c>
       <c r="F67" s="39" t="s">
-        <v>860</v>
+        <v>850</v>
       </c>
       <c r="G67" s="39" t="s">
-        <v>859</v>
+        <v>849</v>
       </c>
     </row>
     <row r="68" spans="1:7" ht="51" x14ac:dyDescent="0.2">
@@ -8426,7 +8373,7 @@
         <v>208</v>
       </c>
       <c r="B68" s="38" t="s">
-        <v>862</v>
+        <v>852</v>
       </c>
       <c r="C68" s="38">
         <v>2016</v>
@@ -8435,13 +8382,13 @@
         <v>344</v>
       </c>
       <c r="E68" s="38" t="s">
-        <v>863</v>
+        <v>853</v>
       </c>
       <c r="F68" s="38" t="s">
-        <v>864</v>
+        <v>854</v>
       </c>
       <c r="G68" s="38" t="s">
-        <v>865</v>
+        <v>855</v>
       </c>
     </row>
     <row r="69" spans="1:7" ht="68" x14ac:dyDescent="0.2">
@@ -8449,7 +8396,7 @@
         <v>415</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>873</v>
+        <v>863</v>
       </c>
       <c r="C69" s="39">
         <v>2022</v>
@@ -8461,7 +8408,7 @@
         <v>483</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>874</v>
+        <v>864</v>
       </c>
       <c r="G69" s="39" t="s">
         <v>373</v>
@@ -8472,7 +8419,7 @@
         <v>373</v>
       </c>
       <c r="B70" s="38" t="s">
-        <v>879</v>
+        <v>869</v>
       </c>
       <c r="C70" s="38">
         <v>2008</v>
@@ -8481,10 +8428,10 @@
         <v>342</v>
       </c>
       <c r="E70" s="38" t="s">
-        <v>736</v>
+        <v>727</v>
       </c>
       <c r="F70" s="38" t="s">
-        <v>880</v>
+        <v>870</v>
       </c>
       <c r="G70" s="38" t="s">
         <v>516</v>
@@ -8495,7 +8442,7 @@
         <v>707</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>882</v>
+        <v>872</v>
       </c>
       <c r="C71" s="39">
         <v>2012</v>
@@ -8507,7 +8454,7 @@
         <v>599</v>
       </c>
       <c r="F71" s="39" t="s">
-        <v>883</v>
+        <v>873</v>
       </c>
       <c r="G71" s="39" t="s">
         <v>421</v>
@@ -8518,7 +8465,7 @@
         <v>360</v>
       </c>
       <c r="B72" s="38" t="s">
-        <v>888</v>
+        <v>878</v>
       </c>
       <c r="C72" s="38">
         <v>2017</v>
@@ -8530,7 +8477,7 @@
         <v>660</v>
       </c>
       <c r="F72" s="38" t="s">
-        <v>889</v>
+        <v>879</v>
       </c>
       <c r="G72" s="38" t="s">
         <v>373</v>
@@ -8541,7 +8488,7 @@
         <v>315</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>895</v>
+        <v>885</v>
       </c>
       <c r="C73" s="39">
         <v>2020</v>
@@ -8550,10 +8497,10 @@
         <v>345</v>
       </c>
       <c r="E73" s="39" t="s">
-        <v>896</v>
+        <v>886</v>
       </c>
       <c r="F73" s="39" t="s">
-        <v>897</v>
+        <v>887</v>
       </c>
       <c r="G73" s="39" t="s">
         <v>373</v>
@@ -8564,7 +8511,7 @@
         <v>164</v>
       </c>
       <c r="B74" s="38" t="s">
-        <v>905</v>
+        <v>895</v>
       </c>
       <c r="C74" s="38">
         <v>2009</v>
@@ -8576,7 +8523,7 @@
         <v>416</v>
       </c>
       <c r="F74" s="38" t="s">
-        <v>906</v>
+        <v>896</v>
       </c>
       <c r="G74" s="38" t="s">
         <v>373</v>
@@ -8587,7 +8534,7 @@
         <v>482</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>907</v>
+        <v>897</v>
       </c>
       <c r="C75" s="39">
         <v>2012</v>
@@ -8599,7 +8546,7 @@
         <v>508</v>
       </c>
       <c r="F75" s="39" t="s">
-        <v>908</v>
+        <v>898</v>
       </c>
       <c r="G75" s="39" t="s">
         <v>373</v>
@@ -8610,7 +8557,7 @@
         <v>251</v>
       </c>
       <c r="B76" s="38" t="s">
-        <v>913</v>
+        <v>903</v>
       </c>
       <c r="C76" s="38">
         <v>2018</v>
@@ -8619,10 +8566,10 @@
         <v>344</v>
       </c>
       <c r="E76" s="38" t="s">
-        <v>914</v>
+        <v>904</v>
       </c>
       <c r="F76" s="38" t="s">
-        <v>915</v>
+        <v>905</v>
       </c>
       <c r="G76" s="38" t="s">
         <v>373</v>
@@ -8633,7 +8580,7 @@
         <v>353</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>921</v>
+        <v>911</v>
       </c>
       <c r="C77" s="39">
         <v>2022</v>
@@ -8645,10 +8592,10 @@
         <v>546</v>
       </c>
       <c r="F77" s="39" t="s">
-        <v>922</v>
+        <v>912</v>
       </c>
       <c r="G77" s="39" t="s">
-        <v>923</v>
+        <v>913</v>
       </c>
     </row>
     <row r="78" spans="1:7" ht="68" x14ac:dyDescent="0.2">
@@ -8656,7 +8603,7 @@
         <v>309</v>
       </c>
       <c r="B78" s="38" t="s">
-        <v>930</v>
+        <v>920</v>
       </c>
       <c r="C78" s="38">
         <v>2011</v>
@@ -8665,10 +8612,10 @@
         <v>342</v>
       </c>
       <c r="E78" s="38" t="s">
-        <v>896</v>
+        <v>886</v>
       </c>
       <c r="F78" s="38" t="s">
-        <v>931</v>
+        <v>921</v>
       </c>
       <c r="G78" s="38" t="s">
         <v>373</v>
@@ -8679,7 +8626,7 @@
         <v>388</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>936</v>
+        <v>926</v>
       </c>
       <c r="C79" s="39">
         <v>2012</v>
@@ -8688,10 +8635,10 @@
         <v>343</v>
       </c>
       <c r="E79" s="39" t="s">
-        <v>937</v>
+        <v>927</v>
       </c>
       <c r="F79" s="39" t="s">
-        <v>938</v>
+        <v>928</v>
       </c>
       <c r="G79" s="39" t="s">
         <v>373</v>
@@ -8702,7 +8649,7 @@
         <v>329</v>
       </c>
       <c r="B80" s="38" t="s">
-        <v>943</v>
+        <v>933</v>
       </c>
       <c r="C80" s="38">
         <v>2017</v>
@@ -8714,10 +8661,10 @@
         <v>559</v>
       </c>
       <c r="F80" s="38" t="s">
-        <v>942</v>
+        <v>932</v>
       </c>
       <c r="G80" s="38" t="s">
-        <v>944</v>
+        <v>934</v>
       </c>
     </row>
     <row r="81" spans="1:8" ht="51" x14ac:dyDescent="0.2">
@@ -8725,7 +8672,7 @@
         <v>1353</v>
       </c>
       <c r="B81" s="39" t="s">
-        <v>952</v>
+        <v>942</v>
       </c>
       <c r="C81" s="39">
         <v>2022</v>
@@ -8737,7 +8684,7 @@
         <v>437</v>
       </c>
       <c r="F81" s="39" t="s">
-        <v>953</v>
+        <v>943</v>
       </c>
       <c r="G81" s="39" t="s">
         <v>373</v>
@@ -8748,7 +8695,7 @@
         <v>98</v>
       </c>
       <c r="B82" s="38" t="s">
-        <v>958</v>
+        <v>948</v>
       </c>
       <c r="C82" s="38">
         <v>2010</v>
@@ -8760,7 +8707,7 @@
         <v>501</v>
       </c>
       <c r="F82" s="38" t="s">
-        <v>959</v>
+        <v>949</v>
       </c>
       <c r="G82" s="38" t="s">
         <v>373</v>
@@ -8771,7 +8718,7 @@
         <v>277</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>963</v>
+        <v>953</v>
       </c>
       <c r="C83" s="39">
         <v>2014</v>
@@ -8780,10 +8727,10 @@
         <v>343</v>
       </c>
       <c r="E83" s="39" t="s">
-        <v>964</v>
+        <v>954</v>
       </c>
       <c r="F83" s="39" t="s">
-        <v>965</v>
+        <v>955</v>
       </c>
       <c r="G83" s="39" t="s">
         <v>396</v>
@@ -8794,7 +8741,7 @@
         <v>1051</v>
       </c>
       <c r="B84" s="38" t="s">
-        <v>969</v>
+        <v>959</v>
       </c>
       <c r="C84" s="38">
         <v>2019</v>
@@ -8803,10 +8750,10 @@
         <v>344</v>
       </c>
       <c r="E84" s="38" t="s">
-        <v>970</v>
+        <v>960</v>
       </c>
       <c r="F84" s="38" t="s">
-        <v>971</v>
+        <v>961</v>
       </c>
       <c r="G84" s="38" t="s">
         <v>373</v>
@@ -8817,7 +8764,7 @@
         <v>435</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>979</v>
+        <v>969</v>
       </c>
       <c r="C85" s="39">
         <v>2022</v>
@@ -8826,10 +8773,10 @@
         <v>345</v>
       </c>
       <c r="E85" s="39" t="s">
-        <v>980</v>
+        <v>970</v>
       </c>
       <c r="F85" s="39" t="s">
-        <v>981</v>
+        <v>971</v>
       </c>
       <c r="G85" s="39" t="s">
         <v>491</v>
@@ -8840,7 +8787,7 @@
         <v>127</v>
       </c>
       <c r="B86" s="38" t="s">
-        <v>986</v>
+        <v>976</v>
       </c>
       <c r="C86" s="38">
         <v>2010</v>
@@ -8852,7 +8799,7 @@
         <v>508</v>
       </c>
       <c r="F86" s="38" t="s">
-        <v>987</v>
+        <v>977</v>
       </c>
       <c r="G86" s="38" t="s">
         <v>373</v>
@@ -8863,7 +8810,7 @@
         <v>109</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>992</v>
+        <v>982</v>
       </c>
       <c r="C87" s="39">
         <v>2012</v>
@@ -8875,7 +8822,7 @@
         <v>508</v>
       </c>
       <c r="F87" s="39" t="s">
-        <v>993</v>
+        <v>983</v>
       </c>
       <c r="G87" s="39" t="s">
         <v>373</v>
@@ -8886,7 +8833,7 @@
         <v>380</v>
       </c>
       <c r="B88" s="38" t="s">
-        <v>997</v>
+        <v>987</v>
       </c>
       <c r="C88" s="38">
         <v>2019</v>
@@ -8898,7 +8845,7 @@
         <v>660</v>
       </c>
       <c r="F88" s="38" t="s">
-        <v>998</v>
+        <v>988</v>
       </c>
       <c r="G88" s="38" t="s">
         <v>373</v>
@@ -8909,7 +8856,7 @@
         <v>313</v>
       </c>
       <c r="B89" s="39" t="s">
-        <v>1001</v>
+        <v>991</v>
       </c>
       <c r="C89" s="39">
         <v>2021</v>
@@ -8918,10 +8865,10 @@
         <v>345</v>
       </c>
       <c r="E89" s="39" t="s">
-        <v>1002</v>
+        <v>992</v>
       </c>
       <c r="F89" s="39" t="s">
-        <v>1003</v>
+        <v>993</v>
       </c>
       <c r="G89" s="39" t="s">
         <v>389</v>
@@ -8932,7 +8879,7 @@
         <v>94</v>
       </c>
       <c r="B90" s="38" t="s">
-        <v>1006</v>
+        <v>996</v>
       </c>
       <c r="C90" s="38">
         <v>2010</v>
@@ -8941,10 +8888,10 @@
         <v>342</v>
       </c>
       <c r="E90" s="38" t="s">
-        <v>1007</v>
+        <v>997</v>
       </c>
       <c r="F90" s="38" t="s">
-        <v>1008</v>
+        <v>998</v>
       </c>
       <c r="G90" s="38" t="s">
         <v>491</v>
@@ -8955,7 +8902,7 @@
         <v>295</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>1012</v>
+        <v>1002</v>
       </c>
       <c r="C91" s="39">
         <v>2014</v>
@@ -8964,10 +8911,10 @@
         <v>343</v>
       </c>
       <c r="E91" s="39" t="s">
-        <v>1013</v>
+        <v>1003</v>
       </c>
       <c r="F91" s="39" t="s">
-        <v>1014</v>
+        <v>1004</v>
       </c>
       <c r="G91" s="39" t="s">
         <v>373</v>
@@ -8978,7 +8925,7 @@
         <v>138</v>
       </c>
       <c r="B92" s="38" t="s">
-        <v>1017</v>
+        <v>1007</v>
       </c>
       <c r="C92" s="38">
         <v>2019</v>
@@ -8990,7 +8937,7 @@
         <v>483</v>
       </c>
       <c r="F92" s="38" t="s">
-        <v>1029</v>
+        <v>1019</v>
       </c>
       <c r="G92" s="38" t="s">
         <v>373</v>
@@ -9004,7 +8951,7 @@
         <v>549</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>1028</v>
+        <v>1018</v>
       </c>
       <c r="C93" s="39">
         <v>2023</v>
@@ -9016,7 +8963,7 @@
         <v>626</v>
       </c>
       <c r="F93" s="39" t="s">
-        <v>1030</v>
+        <v>1020</v>
       </c>
       <c r="G93" s="39" t="s">
         <v>373</v>
@@ -9209,8 +9156,8 @@
   <dimension ref="A1:I130"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F37" sqref="F37"/>
+      <pane ySplit="1" topLeftCell="A45" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G50" sqref="G50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="16" zeroHeight="1" x14ac:dyDescent="0.2"/>
@@ -9241,7 +9188,7 @@
         <v>325</v>
       </c>
       <c r="E1" s="40" t="s">
-        <v>1056</v>
+        <v>1046</v>
       </c>
       <c r="F1" s="40" t="s">
         <v>326</v>
@@ -10388,7 +10335,7 @@
         <v>367</v>
       </c>
       <c r="E38" s="38" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="F38" s="38" t="s">
         <v>366</v>
@@ -10487,7 +10434,7 @@
         <v>367</v>
       </c>
       <c r="G41" s="39" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="H41" s="39" t="s">
         <v>366</v>
@@ -10729,7 +10676,7 @@
         <v>367</v>
       </c>
       <c r="E49" s="39" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="F49" s="39" t="s">
         <v>367</v>
@@ -10754,7 +10701,7 @@
         <v>Are ranger patrols effective in reducing poaching-related threats within protected areas?</v>
       </c>
       <c r="C50" s="38" t="s">
-        <v>738</v>
+        <v>729</v>
       </c>
       <c r="D50" s="38" t="s">
         <v>366</v>
@@ -10816,7 +10763,7 @@
         <v>Improving inferences in popoulation studies of rare species that are detected imperfectly</v>
       </c>
       <c r="C52" s="38" t="s">
-        <v>757</v>
+        <v>747</v>
       </c>
       <c r="D52" s="38" t="s">
         <v>367</v>
@@ -11064,7 +11011,7 @@
         <v>The effects of habitat, climate, and Barred Owls on long-term demography of Northern Spotted Owls</v>
       </c>
       <c r="C60" s="38" t="s">
-        <v>802</v>
+        <v>792</v>
       </c>
       <c r="D60" s="38" t="s">
         <v>366</v>
@@ -11095,7 +11042,7 @@
         <v>Intensive agriculture as the main limiting factor of the otter's return in southwest France</v>
       </c>
       <c r="C61" s="39" t="s">
-        <v>811</v>
+        <v>801</v>
       </c>
       <c r="D61" s="39" t="s">
         <v>366</v>
@@ -11219,7 +11166,7 @@
         <v>Influence of surrounding land cover on marsh-breeding birds: Implications for wetland restoration and conservation planning</v>
       </c>
       <c r="C65" s="39" t="s">
-        <v>839</v>
+        <v>829</v>
       </c>
       <c r="D65" s="39" t="s">
         <v>366</v>
@@ -11374,7 +11321,7 @@
         <v>Dynamics of an endangered New Zealand skink: accounting for incomplete detectability in estimating patch occupancy</v>
       </c>
       <c r="C70" s="38" t="s">
-        <v>811</v>
+        <v>801</v>
       </c>
       <c r="D70" s="38" t="s">
         <v>366</v>
@@ -11405,7 +11352,7 @@
         <v>Monitoring in the presence of species misidentification: the case of the Eurasian lynx in the Alps</v>
       </c>
       <c r="C71" s="39" t="s">
-        <v>884</v>
+        <v>874</v>
       </c>
       <c r="D71" s="39" t="s">
         <v>366</v>
@@ -11591,7 +11538,7 @@
         <v>Collaboration for conservation: Assessing countrywide carnivore occupancy dynamics from sparse data</v>
       </c>
       <c r="C77" s="39" t="s">
-        <v>924</v>
+        <v>914</v>
       </c>
       <c r="D77" s="39" t="s">
         <v>367</v>
@@ -11684,7 +11631,7 @@
         <v>Territory occupancy and breeding success of Peregrine Falcons Falco peregrinus at various stages of population recovery</v>
       </c>
       <c r="C80" s="38" t="s">
-        <v>884</v>
+        <v>874</v>
       </c>
       <c r="D80" s="38" t="s">
         <v>366</v>
@@ -11777,7 +11724,7 @@
         <v>DIFFERENCE IN DETECTION AND OCCUPANCY BETWEEN TWO ANURANS: THE IMPORTANCE OF SPECIES-SPECIFIC MONITORING</v>
       </c>
       <c r="C83" s="39" t="s">
-        <v>839</v>
+        <v>829</v>
       </c>
       <c r="D83" s="39" t="s">
         <v>366</v>
@@ -11870,7 +11817,7 @@
         <v>Site Occupancy Dynamics of Northern Spotted Owls in the Eastern Cascades, Washington, USA, 1990-2003</v>
       </c>
       <c r="C86" s="38" t="s">
-        <v>988</v>
+        <v>978</v>
       </c>
       <c r="D86" s="38" t="s">
         <v>366</v>
@@ -12056,7 +12003,7 @@
         <v>A multistate dynamic occupancy model to estimate local colonization &amp; extinction rates and patterns of co-occurrence between two or more interacting species</v>
       </c>
       <c r="C92" s="38" t="s">
-        <v>1018</v>
+        <v>1008</v>
       </c>
       <c r="D92" s="38" t="s">
         <v>367</v>
@@ -12445,12 +12392,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{972CA9F4-C4C2-C448-94BA-649C49266D7E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{972CA9F4-C4C2-C448-94BA-649C49266D7E}">
   <dimension ref="A1:I175"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H47" sqref="H47"/>
+      <pane ySplit="1" topLeftCell="A55" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G60" sqref="G60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" zeroHeight="1" x14ac:dyDescent="0.2"/>
@@ -12507,7 +12454,7 @@
         <v>368</v>
       </c>
       <c r="D2" s="33" t="s">
-        <v>1103</v>
+        <v>1093</v>
       </c>
       <c r="E2" s="33" t="s">
         <v>55</v>
@@ -12550,7 +12497,7 @@
         <v>72</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>1106</v>
+        <v>1096</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>412</v>
@@ -12615,7 +12562,7 @@
         <v>74</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>1108</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="51" x14ac:dyDescent="0.2">
@@ -12724,7 +12671,7 @@
         <v>368</v>
       </c>
       <c r="D9" s="33" t="s">
-        <v>1112</v>
+        <v>1102</v>
       </c>
       <c r="E9" s="33" t="s">
         <v>54</v>
@@ -12736,7 +12683,7 @@
         <v>67</v>
       </c>
       <c r="H9" s="33" t="s">
-        <v>1113</v>
+        <v>1103</v>
       </c>
       <c r="I9" s="33" t="s">
         <v>57</v>
@@ -12755,7 +12702,7 @@
         <v>368</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>1117</v>
+        <v>1107</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>54</v>
@@ -12767,7 +12714,7 @@
         <v>67</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>1116</v>
+        <v>1106</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>96</v>
@@ -13065,7 +13012,7 @@
         <v>493</v>
       </c>
       <c r="D20" s="33" t="s">
-        <v>1121</v>
+        <v>1111</v>
       </c>
       <c r="E20" s="33" t="s">
         <v>55</v>
@@ -13664,7 +13611,7 @@
         <v>67</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>1131</v>
+        <v>1121</v>
       </c>
       <c r="I39" s="2" t="s">
         <v>610</v>
@@ -13915,7 +13862,7 @@
         <v>74</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="51" x14ac:dyDescent="0.2">
@@ -13943,10 +13890,10 @@
         <v>67</v>
       </c>
       <c r="H48" s="33" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="I48" s="33" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
     </row>
     <row r="49" spans="1:9" ht="68" x14ac:dyDescent="0.2">
@@ -13974,10 +13921,10 @@
         <v>72</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>81</v>
+        <v>1129</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
     </row>
     <row r="50" spans="1:9" ht="103" customHeight="1" x14ac:dyDescent="0.2">
@@ -13993,385 +13940,385 @@
         <v>368</v>
       </c>
       <c r="D50" s="33" t="s">
-        <v>675</v>
+        <v>1134</v>
       </c>
       <c r="E50" s="33" t="s">
         <v>54</v>
       </c>
       <c r="F50" s="33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G50" s="33" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H50" s="33" t="s">
-        <v>338</v>
+        <v>1135</v>
       </c>
       <c r="I50" s="33" t="s">
-        <v>676</v>
+        <v>671</v>
       </c>
     </row>
     <row r="51" spans="1:9" ht="103" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="38">
-        <f>'Article Data'!A41</f>
-        <v>515</v>
-      </c>
-      <c r="B51" s="38" t="str">
-        <f>'Article Data'!B41</f>
-        <v>Landscape context and spatial attributes matter for New England cottontail occupancy</v>
-      </c>
-      <c r="C51" s="33" t="s">
-        <v>368</v>
-      </c>
-      <c r="D51" s="33" t="s">
-        <v>677</v>
-      </c>
-      <c r="E51" s="33" t="s">
-        <v>54</v>
-      </c>
-      <c r="F51" s="33">
-        <v>1</v>
-      </c>
-      <c r="G51" s="33" t="s">
-        <v>66</v>
-      </c>
-      <c r="H51" s="33" t="s">
-        <v>80</v>
-      </c>
-      <c r="I51" s="33" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" ht="103" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="39">
+      <c r="A51" s="39">
         <f>'Article Data'!A42</f>
         <v>49</v>
       </c>
-      <c r="B52" s="39" t="str">
+      <c r="B51" s="39" t="str">
         <f>'Article Data'!B42</f>
         <v>Responses of pond-breeding amphibians to wildfire: Short-term patterns in occupancy and colonization</v>
       </c>
-      <c r="C52" s="2" t="s">
-        <v>368</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>683</v>
-      </c>
-      <c r="E52" s="2" t="s">
+      <c r="C51" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>677</v>
+      </c>
+      <c r="E51" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="F52" s="2">
+      <c r="F51" s="2">
         <v>3</v>
       </c>
-      <c r="G52" s="2" t="s">
+      <c r="G51" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="H52" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="I52" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" ht="51" x14ac:dyDescent="0.2">
-      <c r="A53" s="38">
+      <c r="H51" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="I51" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+      <c r="A52" s="38">
         <f>'Article Data'!A43</f>
         <v>822</v>
       </c>
-      <c r="B53" s="38" t="str">
+      <c r="B52" s="38" t="str">
         <f>'Article Data'!B43</f>
         <v>Differential response of bird functional traits to post-fire salvage logging in a boreal forest ecosystem</v>
       </c>
-      <c r="C53" s="33" t="s">
-        <v>368</v>
-      </c>
-      <c r="D53" s="33" t="s">
-        <v>689</v>
-      </c>
-      <c r="E53" s="33" t="s">
+      <c r="C52" s="33" t="s">
+        <v>368</v>
+      </c>
+      <c r="D52" s="33" t="s">
+        <v>683</v>
+      </c>
+      <c r="E52" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="F53" s="33">
+      <c r="F52" s="33">
         <v>25</v>
       </c>
-      <c r="G53" s="33" t="s">
+      <c r="G52" s="33" t="s">
         <v>67</v>
       </c>
-      <c r="H53" s="33" t="s">
-        <v>81</v>
-      </c>
-      <c r="I53" s="33" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" ht="68" x14ac:dyDescent="0.2">
-      <c r="A54" s="39">
+      <c r="H52" s="33" t="s">
+        <v>1096</v>
+      </c>
+      <c r="I52" s="33" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+      <c r="A53" s="39">
         <f>'Article Data'!A44</f>
         <v>237</v>
       </c>
-      <c r="B54" s="39" t="str">
+      <c r="B53" s="39" t="str">
         <f>'Article Data'!B44</f>
         <v>Barred Owls and Landscape Attributes Influence Territory Occupancy of Northern Spotted Owls</v>
       </c>
-      <c r="C54" s="2" t="s">
-        <v>368</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>693</v>
-      </c>
-      <c r="E54" s="2" t="s">
+      <c r="C53" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>687</v>
+      </c>
+      <c r="E53" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="F54" s="2">
+      <c r="F53" s="2">
         <v>1</v>
       </c>
-      <c r="G54" s="2" t="s">
+      <c r="G53" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="H54" s="2" t="s">
+      <c r="H53" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="I54" s="2" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" ht="68" x14ac:dyDescent="0.2">
-      <c r="A55" s="38">
+      <c r="I53" s="2" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+      <c r="A54" s="38">
         <f>'Article Data'!A45</f>
         <v>69</v>
       </c>
-      <c r="B55" s="38" t="str">
+      <c r="B54" s="38" t="str">
         <f>'Article Data'!B45</f>
         <v>Top-down control of species distributions: feral cats driving the regional extinction of a threatened rodent in northern Australia</v>
       </c>
-      <c r="C55" s="33" t="s">
-        <v>368</v>
-      </c>
-      <c r="D55" s="33" t="s">
-        <v>698</v>
-      </c>
-      <c r="E55" s="33" t="s">
+      <c r="C54" s="33" t="s">
+        <v>368</v>
+      </c>
+      <c r="D54" s="33" t="s">
+        <v>692</v>
+      </c>
+      <c r="E54" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="F55" s="33">
+      <c r="F54" s="33">
         <v>1</v>
       </c>
-      <c r="G55" s="33" t="s">
+      <c r="G54" s="33" t="s">
         <v>66</v>
       </c>
-      <c r="H55" s="33" t="s">
+      <c r="H54" s="33" t="s">
         <v>338</v>
       </c>
-      <c r="I55" s="33" t="s">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" ht="85" x14ac:dyDescent="0.2">
-      <c r="A56" s="39">
+      <c r="I54" s="33" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" ht="85" x14ac:dyDescent="0.2">
+      <c r="A55" s="39">
         <f>'Article Data'!A46</f>
         <v>261</v>
       </c>
-      <c r="B56" s="39" t="str">
+      <c r="B55" s="39" t="str">
         <f>'Article Data'!B46</f>
         <v>Crowded mountains: Long-term effects of human outdoor recreation on a community of wild mammals monitored with systematic camera trapping</v>
       </c>
-      <c r="C56" s="2" t="s">
-        <v>368</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>708</v>
-      </c>
-      <c r="E56" s="2" t="s">
+      <c r="C55" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>702</v>
+      </c>
+      <c r="E55" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="F56" s="2">
+      <c r="F55" s="2">
         <v>8</v>
       </c>
-      <c r="G56" s="2" t="s">
+      <c r="G55" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="H56" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="I56" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" ht="170" x14ac:dyDescent="0.2">
-      <c r="A57" s="38">
+      <c r="H55" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="I55" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" ht="170" x14ac:dyDescent="0.2">
+      <c r="A56" s="38">
         <f>'Article Data'!A47</f>
         <v>336</v>
       </c>
-      <c r="B57" s="38" t="str">
+      <c r="B56" s="38" t="str">
         <f>'Article Data'!B47</f>
         <v>Evaluation of the status of anurans on a refuge in suburban Maryland</v>
       </c>
-      <c r="C57" s="33" t="s">
-        <v>368</v>
-      </c>
-      <c r="D57" s="33" t="s">
-        <v>716</v>
-      </c>
-      <c r="E57" s="33" t="s">
+      <c r="C56" s="33" t="s">
+        <v>368</v>
+      </c>
+      <c r="D56" s="33" t="s">
+        <v>707</v>
+      </c>
+      <c r="E56" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="F57" s="33">
+      <c r="F56" s="33">
         <v>6</v>
       </c>
-      <c r="G57" s="33" t="s">
+      <c r="G56" s="33" t="s">
         <v>67</v>
       </c>
-      <c r="H57" s="33" t="s">
-        <v>81</v>
-      </c>
-      <c r="I57" s="33" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" ht="68" x14ac:dyDescent="0.2">
-      <c r="A58" s="39">
+      <c r="H56" s="33" t="s">
+        <v>74</v>
+      </c>
+      <c r="I56" s="33" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+      <c r="A57" s="39">
         <f>'Article Data'!A48</f>
         <v>157</v>
       </c>
-      <c r="B58" s="39" t="str">
+      <c r="B57" s="39" t="str">
         <f>'Article Data'!B48</f>
         <v>Role of current versus historical hydrology in amphibian species turnover within local pond communities</v>
       </c>
-      <c r="C58" s="2" t="s">
+      <c r="C57" s="2" t="s">
         <v>398</v>
       </c>
-      <c r="D58" s="49" t="s">
-        <v>745</v>
-      </c>
-      <c r="E58" s="2" t="s">
+      <c r="D57" s="49" t="s">
+        <v>735</v>
+      </c>
+      <c r="E57" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="F58" s="2">
+      <c r="F57" s="2">
         <v>28</v>
       </c>
-      <c r="G58" s="2" t="s">
+      <c r="G57" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="H58" s="2" t="s">
+      <c r="H57" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="I57" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="I58" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" ht="68" x14ac:dyDescent="0.2">
-      <c r="A59" s="38">
+    </row>
+    <row r="58" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+      <c r="A58" s="38">
         <f>'Article Data'!A49</f>
         <v>46</v>
       </c>
-      <c r="B59" s="38" t="str">
+      <c r="B58" s="38" t="str">
         <f>'Article Data'!B49</f>
         <v>Neighborhood and habitat effects on vital rates: expansion of the Barred Owl in the Oregon Coast Ranges</v>
       </c>
-      <c r="C59" s="33" t="s">
-        <v>368</v>
-      </c>
-      <c r="D59" s="33" t="s">
-        <v>732</v>
-      </c>
-      <c r="E59" s="33" t="s">
+      <c r="C58" s="33" t="s">
+        <v>368</v>
+      </c>
+      <c r="D58" s="33" t="s">
+        <v>723</v>
+      </c>
+      <c r="E58" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="F59" s="33">
+      <c r="F58" s="33">
         <v>1</v>
       </c>
-      <c r="G59" s="33" t="s">
+      <c r="G58" s="33" t="s">
         <v>66</v>
       </c>
-      <c r="H59" s="33" t="s">
+      <c r="H58" s="33" t="s">
         <v>80</v>
       </c>
-      <c r="I59" s="33" t="s">
+      <c r="I58" s="33" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="60" spans="1:9" ht="51" x14ac:dyDescent="0.2">
-      <c r="A60" s="39">
+    <row r="59" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+      <c r="A59" s="39">
         <f>'Article Data'!A50</f>
         <v>43</v>
       </c>
-      <c r="B60" s="39" t="str">
+      <c r="B59" s="39" t="str">
         <f>'Article Data'!B50</f>
         <v>Are ranger patrols effective in reducing poaching-related threats within protected areas?</v>
       </c>
-      <c r="C60" s="2" t="s">
-        <v>368</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>739</v>
-      </c>
-      <c r="E60" s="2" t="s">
+      <c r="C59" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>730</v>
+      </c>
+      <c r="E59" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="F60" s="2">
+      <c r="F59" s="2">
         <v>1</v>
       </c>
-      <c r="G60" s="2" t="s">
+      <c r="G59" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="H60" s="2" t="s">
+      <c r="H59" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="I60" s="2" t="s">
+      <c r="I59" s="2" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="61" spans="1:9" ht="34" x14ac:dyDescent="0.2">
-      <c r="A61" s="38">
+    <row r="60" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+      <c r="A60" s="38">
         <f>'Article Data'!A51</f>
         <v>154</v>
       </c>
-      <c r="B61" s="38" t="str">
+      <c r="B60" s="38" t="str">
         <f>'Article Data'!B51</f>
         <v>Neural hierarchical models of ecological populations</v>
       </c>
-      <c r="C61" s="33" t="s">
-        <v>368</v>
-      </c>
-      <c r="D61" s="33" t="s">
-        <v>749</v>
-      </c>
-      <c r="E61" s="33" t="s">
+      <c r="C60" s="33" t="s">
+        <v>368</v>
+      </c>
+      <c r="D60" s="33" t="s">
+        <v>739</v>
+      </c>
+      <c r="E60" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="F61" s="33">
+      <c r="F60" s="33">
         <v>647</v>
       </c>
-      <c r="G61" s="33" t="s">
-        <v>67</v>
-      </c>
-      <c r="H61" s="33" t="s">
+      <c r="G60" s="33" t="s">
+        <v>1147</v>
+      </c>
+      <c r="H60" s="33" t="s">
+        <v>1103</v>
+      </c>
+      <c r="I60" s="33" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+      <c r="A61" s="39">
+        <f>'Article Data'!A52</f>
+        <v>2</v>
+      </c>
+      <c r="B61" s="39" t="str">
+        <f>'Article Data'!B52</f>
+        <v>Improving inferences in popoulation studies of rare species that are detected imperfectly</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>748</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F61" s="2">
+        <v>1</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="H61" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="I61" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="I61" s="33" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="62" spans="1:9" ht="68" x14ac:dyDescent="0.2">
       <c r="A62" s="38">
-        <f>'Article Data'!A51</f>
-        <v>154</v>
+        <f>'Article Data'!A53</f>
+        <v>1148</v>
       </c>
       <c r="B62" s="38" t="str">
-        <f>'Article Data'!B51</f>
-        <v>Neural hierarchical models of ecological populations</v>
+        <f>'Article Data'!B53</f>
+        <v>A threshold response to habitat disturbance by forest birds in the Choco Andean corridor, Northwest Ecuador</v>
       </c>
       <c r="C62" s="33" t="s">
         <v>368</v>
       </c>
       <c r="D62" s="33" t="s">
-        <v>749</v>
+        <v>752</v>
       </c>
       <c r="E62" s="33" t="s">
         <v>55</v>
       </c>
       <c r="F62" s="33">
-        <v>647</v>
+        <v>18</v>
       </c>
       <c r="G62" s="33" t="s">
         <v>72</v>
@@ -14383,14 +14330,14 @@
         <v>81</v>
       </c>
     </row>
-    <row r="63" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A63" s="39">
-        <f>'Article Data'!A52</f>
-        <v>2</v>
+        <f>'Article Data'!A54</f>
+        <v>366</v>
       </c>
       <c r="B63" s="39" t="str">
-        <f>'Article Data'!B52</f>
-        <v>Improving inferences in popoulation studies of rare species that are detected imperfectly</v>
+        <f>'Article Data'!B54</f>
+        <v>Factors affecting Burrowing Owl occupancy of prairie dog colonies</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>368</v>
@@ -14399,7 +14346,7 @@
         <v>758</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F63" s="2">
         <v>1</v>
@@ -14411,57 +14358,57 @@
         <v>74</v>
       </c>
       <c r="I63" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A64" s="38">
-        <f>'Article Data'!A53</f>
-        <v>1148</v>
+        <f>'Article Data'!A55</f>
+        <v>144</v>
       </c>
       <c r="B64" s="38" t="str">
-        <f>'Article Data'!B53</f>
-        <v>A threshold response to habitat disturbance by forest birds in the Choco Andean corridor, Northwest Ecuador</v>
+        <f>'Article Data'!B55</f>
+        <v>Estimating indices of range shifts in birds using dynamic models when detection is imperfect</v>
       </c>
       <c r="C64" s="33" t="s">
         <v>368</v>
       </c>
       <c r="D64" s="33" t="s">
-        <v>762</v>
+        <v>764</v>
       </c>
       <c r="E64" s="33" t="s">
         <v>55</v>
       </c>
       <c r="F64" s="33">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="G64" s="33" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="H64" s="33" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="I64" s="33" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="65" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A65" s="39">
-        <f>'Article Data'!A54</f>
-        <v>366</v>
+        <f>'Article Data'!A56</f>
+        <v>154</v>
       </c>
       <c r="B65" s="39" t="str">
-        <f>'Article Data'!B54</f>
-        <v>Factors affecting Burrowing Owl occupancy of prairie dog colonies</v>
+        <f>'Article Data'!B56</f>
+        <v>Examining dynamic occupancy of gray wolves in Idaho after a decade of managed harvest</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>368</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>768</v>
+        <v>591</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F65" s="2">
         <v>1</v>
@@ -14473,26 +14420,26 @@
         <v>74</v>
       </c>
       <c r="I65" s="2" t="s">
-        <v>412</v>
+        <v>81</v>
       </c>
     </row>
     <row r="66" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A66" s="38">
-        <f>'Article Data'!A55</f>
-        <v>144</v>
+        <f>'Article Data'!A57</f>
+        <v>654</v>
       </c>
       <c r="B66" s="38" t="str">
-        <f>'Article Data'!B55</f>
-        <v>Estimating indices of range shifts in birds using dynamic models when detection is imperfect</v>
+        <f>'Article Data'!B57</f>
+        <v>Was it there? Dealing with imperfect detection for species presence/absence data</v>
       </c>
       <c r="C66" s="33" t="s">
         <v>368</v>
       </c>
       <c r="D66" s="33" t="s">
-        <v>774</v>
+        <v>777</v>
       </c>
       <c r="E66" s="33" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F66" s="33">
         <v>1</v>
@@ -14507,361 +14454,361 @@
         <v>81</v>
       </c>
     </row>
-    <row r="67" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A67" s="39">
-        <f>'Article Data'!A56</f>
-        <v>154</v>
+        <f>'Article Data'!A58</f>
+        <v>600</v>
       </c>
       <c r="B67" s="39" t="str">
-        <f>'Article Data'!B56</f>
-        <v>Examining dynamic occupancy of gray wolves in Idaho after a decade of managed harvest</v>
+        <f>'Article Data'!B58</f>
+        <v>Occupancy estimation and the closure assumption</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>368</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>591</v>
+        <v>780</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F67" s="2">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H67" s="2" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="I67" s="2" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="68" spans="1:9" ht="51" x14ac:dyDescent="0.2">
-      <c r="A68" s="38">
-        <f>'Article Data'!A57</f>
-        <v>654</v>
-      </c>
-      <c r="B68" s="38" t="str">
-        <f>'Article Data'!B57</f>
-        <v>Was it there? Dealing with imperfect detection for species presence/absence data</v>
-      </c>
-      <c r="C68" s="33" t="s">
-        <v>368</v>
-      </c>
-      <c r="D68" s="33" t="s">
-        <v>787</v>
-      </c>
-      <c r="E68" s="33" t="s">
-        <v>56</v>
-      </c>
-      <c r="F68" s="33">
-        <v>1</v>
-      </c>
-      <c r="G68" s="33" t="s">
-        <v>66</v>
-      </c>
-      <c r="H68" s="33" t="s">
-        <v>74</v>
-      </c>
-      <c r="I68" s="33" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" ht="34" x14ac:dyDescent="0.2">
-      <c r="A69" s="39">
+    <row r="68" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="A68" s="39">
         <f>'Article Data'!A58</f>
         <v>600</v>
       </c>
-      <c r="B69" s="39" t="str">
+      <c r="B68" s="39" t="str">
         <f>'Article Data'!B58</f>
         <v>Occupancy estimation and the closure assumption</v>
       </c>
-      <c r="C69" s="2" t="s">
-        <v>368</v>
-      </c>
-      <c r="D69" s="2" t="s">
-        <v>790</v>
-      </c>
-      <c r="E69" s="2" t="s">
+      <c r="C68" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>781</v>
+      </c>
+      <c r="E68" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="F69" s="2">
-        <v>28</v>
-      </c>
-      <c r="G69" s="2" t="s">
+      <c r="F68" s="2">
+        <v>18</v>
+      </c>
+      <c r="G68" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="H69" s="2" t="s">
+      <c r="H68" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="I69" s="2" t="s">
+      <c r="I68" s="2" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="70" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+      <c r="A69" s="38">
+        <f>'Article Data'!A59</f>
+        <v>162</v>
+      </c>
+      <c r="B69" s="38" t="str">
+        <f>'Article Data'!B59</f>
+        <v>Applying occupancy estimation and modelling to the analysis of atlas data</v>
+      </c>
+      <c r="C69" s="33" t="s">
+        <v>368</v>
+      </c>
+      <c r="D69" s="33" t="s">
+        <v>784</v>
+      </c>
+      <c r="E69" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="F69" s="33">
+        <v>1</v>
+      </c>
+      <c r="G69" s="33" t="s">
+        <v>66</v>
+      </c>
+      <c r="H69" s="33" t="s">
+        <v>79</v>
+      </c>
+      <c r="I69" s="33" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" ht="68" x14ac:dyDescent="0.2">
       <c r="A70" s="39">
-        <f>'Article Data'!A58</f>
-        <v>600</v>
+        <f>'Article Data'!A60</f>
+        <v>18</v>
       </c>
       <c r="B70" s="39" t="str">
-        <f>'Article Data'!B58</f>
-        <v>Occupancy estimation and the closure assumption</v>
+        <f>'Article Data'!B60</f>
+        <v>The effects of habitat, climate, and Barred Owls on long-term demography of Northern Spotted Owls</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>400</v>
+        <v>795</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>791</v>
+        <v>794</v>
       </c>
       <c r="E70" s="2" t="s">
         <v>55</v>
       </c>
       <c r="F70" s="2">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="H70" s="2" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="I70" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" ht="51" x14ac:dyDescent="0.2">
-      <c r="A71" s="38">
-        <f>'Article Data'!A59</f>
-        <v>162</v>
-      </c>
-      <c r="B71" s="38" t="str">
-        <f>'Article Data'!B59</f>
-        <v>Applying occupancy estimation and modelling to the analysis of atlas data</v>
-      </c>
-      <c r="C71" s="33" t="s">
-        <v>368</v>
-      </c>
-      <c r="D71" s="33" t="s">
-        <v>794</v>
-      </c>
-      <c r="E71" s="33" t="s">
-        <v>55</v>
-      </c>
-      <c r="F71" s="33">
-        <v>1</v>
-      </c>
-      <c r="G71" s="33" t="s">
-        <v>66</v>
-      </c>
-      <c r="H71" s="33" t="s">
-        <v>79</v>
-      </c>
-      <c r="I71" s="33" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" ht="68" x14ac:dyDescent="0.2">
-      <c r="A72" s="39">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+      <c r="A71" s="39">
         <f>'Article Data'!A60</f>
         <v>18</v>
       </c>
-      <c r="B72" s="39" t="str">
+      <c r="B71" s="39" t="str">
         <f>'Article Data'!B60</f>
         <v>The effects of habitat, climate, and Barred Owls on long-term demography of Northern Spotted Owls</v>
       </c>
-      <c r="C72" s="2" t="s">
-        <v>805</v>
-      </c>
-      <c r="D72" s="2" t="s">
-        <v>804</v>
-      </c>
-      <c r="E72" s="2" t="s">
+      <c r="C71" s="2" t="s">
+        <v>795</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>723</v>
+      </c>
+      <c r="E71" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="F72" s="2">
+      <c r="F71" s="2">
         <v>1</v>
       </c>
-      <c r="G72" s="2" t="s">
+      <c r="G71" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="H72" s="2" t="s">
+      <c r="H71" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="I71" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+      <c r="A72" s="38">
+        <f>'Article Data'!A61</f>
+        <v>521</v>
+      </c>
+      <c r="B72" s="38" t="str">
+        <f>'Article Data'!B61</f>
+        <v>Intensive agriculture as the main limiting factor of the otter's return in southwest France</v>
+      </c>
+      <c r="C72" s="33" t="s">
+        <v>368</v>
+      </c>
+      <c r="D72" s="33" t="s">
+        <v>802</v>
+      </c>
+      <c r="E72" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="F72" s="33">
+        <v>1</v>
+      </c>
+      <c r="G72" s="33" t="s">
+        <v>66</v>
+      </c>
+      <c r="H72" s="33" t="s">
         <v>76</v>
       </c>
-      <c r="I72" s="2" t="s">
-        <v>95</v>
+      <c r="I72" s="33" t="s">
+        <v>803</v>
       </c>
     </row>
     <row r="73" spans="1:9" ht="68" x14ac:dyDescent="0.2">
       <c r="A73" s="39">
-        <f>'Article Data'!A60</f>
-        <v>18</v>
+        <f>'Article Data'!A62</f>
+        <v>34</v>
       </c>
       <c r="B73" s="39" t="str">
-        <f>'Article Data'!B60</f>
-        <v>The effects of habitat, climate, and Barred Owls on long-term demography of Northern Spotted Owls</v>
+        <f>'Article Data'!B62</f>
+        <v>Occupancy dynamics in a tropical bird community: unexpectedly high forest use by birds classified as non-forest species</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>805</v>
+        <v>368</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>732</v>
+        <v>809</v>
       </c>
       <c r="E73" s="2" t="s">
         <v>55</v>
       </c>
       <c r="F73" s="2">
-        <v>1</v>
+        <v>79</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H73" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I73" s="2" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="74" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:9" ht="85" x14ac:dyDescent="0.2">
       <c r="A74" s="38">
-        <f>'Article Data'!A61</f>
-        <v>521</v>
+        <f>'Article Data'!A63</f>
+        <v>409</v>
       </c>
       <c r="B74" s="38" t="str">
-        <f>'Article Data'!B61</f>
-        <v>Intensive agriculture as the main limiting factor of the otter's return in southwest France</v>
+        <f>'Article Data'!B63</f>
+        <v>Time-lags in primate occupancy: a study case using dynamic models</v>
       </c>
       <c r="C74" s="33" t="s">
         <v>368</v>
       </c>
       <c r="D74" s="33" t="s">
-        <v>812</v>
+        <v>815</v>
       </c>
       <c r="E74" s="33" t="s">
         <v>54</v>
       </c>
       <c r="F74" s="33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G74" s="33" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H74" s="33" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="I74" s="33" t="s">
-        <v>813</v>
+        <v>81</v>
       </c>
     </row>
     <row r="75" spans="1:9" ht="68" x14ac:dyDescent="0.2">
       <c r="A75" s="39">
-        <f>'Article Data'!A62</f>
-        <v>34</v>
+        <f>'Article Data'!A64</f>
+        <v>291</v>
       </c>
       <c r="B75" s="39" t="str">
-        <f>'Article Data'!B62</f>
-        <v>Occupancy dynamics in a tropical bird community: unexpectedly high forest use by birds classified as non-forest species</v>
+        <f>'Article Data'!B64</f>
+        <v>Spatio-temporal variation of biotic factors underpins contemporary range dynamics of congeners</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>368</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="E75" s="2" t="s">
         <v>55</v>
       </c>
       <c r="F75" s="2">
-        <v>79</v>
+        <v>1</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="H75" s="2" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="I75" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" ht="85" x14ac:dyDescent="0.2">
-      <c r="A76" s="38">
-        <f>'Article Data'!A63</f>
-        <v>409</v>
-      </c>
-      <c r="B76" s="38" t="str">
-        <f>'Article Data'!B63</f>
-        <v>Time-lags in primate occupancy: a study case using dynamic models</v>
-      </c>
-      <c r="C76" s="33" t="s">
-        <v>368</v>
-      </c>
-      <c r="D76" s="33" t="s">
-        <v>825</v>
-      </c>
-      <c r="E76" s="33" t="s">
-        <v>54</v>
-      </c>
-      <c r="F76" s="33">
-        <v>2</v>
-      </c>
-      <c r="G76" s="33" t="s">
-        <v>67</v>
-      </c>
-      <c r="H76" s="33" t="s">
-        <v>81</v>
-      </c>
-      <c r="I76" s="33" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" ht="68" x14ac:dyDescent="0.2">
-      <c r="A77" s="39">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+      <c r="A76" s="39">
         <f>'Article Data'!A64</f>
         <v>291</v>
       </c>
-      <c r="B77" s="39" t="str">
+      <c r="B76" s="39" t="str">
         <f>'Article Data'!B64</f>
         <v>Spatio-temporal variation of biotic factors underpins contemporary range dynamics of congeners</v>
       </c>
-      <c r="C77" s="2" t="s">
-        <v>368</v>
-      </c>
-      <c r="D77" s="2" t="s">
+      <c r="C76" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>821</v>
+      </c>
+      <c r="E76" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F76" s="2">
+        <v>1</v>
+      </c>
+      <c r="G76" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="H76" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="I76" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+      <c r="A77" s="38">
+        <f>'Article Data'!A65</f>
+        <v>488</v>
+      </c>
+      <c r="B77" s="38" t="str">
+        <f>'Article Data'!B65</f>
+        <v>Influence of surrounding land cover on marsh-breeding birds: Implications for wetland restoration and conservation planning</v>
+      </c>
+      <c r="C77" s="33" t="s">
+        <v>368</v>
+      </c>
+      <c r="D77" s="33" t="s">
         <v>830</v>
       </c>
-      <c r="E77" s="2" t="s">
+      <c r="E77" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="F77" s="2">
-        <v>1</v>
-      </c>
-      <c r="G77" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="H77" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="I77" s="2" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+      <c r="F77" s="33">
+        <v>13</v>
+      </c>
+      <c r="G77" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="H77" s="33" t="s">
+        <v>81</v>
+      </c>
+      <c r="I77" s="33" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" ht="85" x14ac:dyDescent="0.2">
       <c r="A78" s="39">
-        <f>'Article Data'!A64</f>
-        <v>291</v>
+        <f>'Article Data'!A66</f>
+        <v>53</v>
       </c>
       <c r="B78" s="39" t="str">
-        <f>'Article Data'!B64</f>
-        <v>Spatio-temporal variation of biotic factors underpins contemporary range dynamics of congeners</v>
+        <f>'Article Data'!B66</f>
+        <v>Dynamic multistate site occupancy models to evaluate hypotheses relevant to conservation of Golden Eagles in Denali National Park, Alaska</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>400</v>
+        <v>368</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>831</v>
+        <v>838</v>
       </c>
       <c r="E78" s="2" t="s">
         <v>55</v>
@@ -14876,35 +14823,35 @@
         <v>74</v>
       </c>
       <c r="I78" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" ht="85" x14ac:dyDescent="0.2">
       <c r="A79" s="38">
-        <f>'Article Data'!A65</f>
-        <v>488</v>
+        <f>'Article Data'!A67</f>
+        <v>543</v>
       </c>
       <c r="B79" s="38" t="str">
-        <f>'Article Data'!B65</f>
-        <v>Influence of surrounding land cover on marsh-breeding birds: Implications for wetland restoration and conservation planning</v>
+        <f>'Article Data'!B67</f>
+        <v>Detection probability of the Collared Flycatcher Ficedula albicollis during quick, multiple surveys: a case study in an isolated population in northern Poland</v>
       </c>
       <c r="C79" s="33" t="s">
         <v>368</v>
       </c>
       <c r="D79" s="33" t="s">
-        <v>840</v>
+        <v>851</v>
       </c>
       <c r="E79" s="33" t="s">
         <v>55</v>
       </c>
       <c r="F79" s="33">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="G79" s="33" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H79" s="33" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="I79" s="33" t="s">
         <v>81</v>
@@ -14912,63 +14859,63 @@
     </row>
     <row r="80" spans="1:9" ht="85" x14ac:dyDescent="0.2">
       <c r="A80" s="39">
-        <f>'Article Data'!A66</f>
-        <v>53</v>
+        <f>'Article Data'!A68</f>
+        <v>208</v>
       </c>
       <c r="B80" s="39" t="str">
-        <f>'Article Data'!B66</f>
-        <v>Dynamic multistate site occupancy models to evaluate hypotheses relevant to conservation of Golden Eagles in Denali National Park, Alaska</v>
+        <f>'Article Data'!B68</f>
+        <v>Coupled range dynamics of brood parasites and their hosts responding to climate and vegetation changes</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>368</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>848</v>
+        <v>857</v>
       </c>
       <c r="E80" s="2" t="s">
         <v>55</v>
       </c>
       <c r="F80" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="H80" s="2" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="I80" s="2" t="s">
-        <v>57</v>
+        <v>81</v>
       </c>
     </row>
     <row r="81" spans="1:9" ht="85" x14ac:dyDescent="0.2">
-      <c r="A81" s="38">
-        <f>'Article Data'!A67</f>
-        <v>543</v>
-      </c>
-      <c r="B81" s="38" t="str">
-        <f>'Article Data'!B67</f>
-        <v>Detection probability of the Collared Flycatcher Ficedula albicollis during quick, multiple surveys: a case study in an isolated population in northern Poland</v>
-      </c>
-      <c r="C81" s="33" t="s">
-        <v>368</v>
-      </c>
-      <c r="D81" s="33" t="s">
-        <v>861</v>
-      </c>
-      <c r="E81" s="33" t="s">
+      <c r="A81" s="39">
+        <f>'Article Data'!A68</f>
+        <v>208</v>
+      </c>
+      <c r="B81" s="39" t="str">
+        <f>'Article Data'!B68</f>
+        <v>Coupled range dynamics of brood parasites and their hosts responding to climate and vegetation changes</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>856</v>
+      </c>
+      <c r="E81" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="F81" s="33">
-        <v>1</v>
-      </c>
-      <c r="G81" s="33" t="s">
-        <v>66</v>
-      </c>
-      <c r="H81" s="33" t="s">
-        <v>74</v>
-      </c>
-      <c r="I81" s="33" t="s">
+      <c r="F81" s="2">
+        <v>2</v>
+      </c>
+      <c r="G81" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="H81" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="I81" s="2" t="s">
         <v>81</v>
       </c>
     </row>
@@ -14985,7 +14932,7 @@
         <v>368</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>867</v>
+        <v>858</v>
       </c>
       <c r="E82" s="2" t="s">
         <v>55</v>
@@ -15003,7 +14950,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="83" spans="1:9" ht="85" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:9" ht="68" x14ac:dyDescent="0.2">
       <c r="A83" s="39">
         <f>'Article Data'!A68</f>
         <v>208</v>
@@ -15016,7 +14963,7 @@
         <v>368</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>866</v>
+        <v>859</v>
       </c>
       <c r="E83" s="2" t="s">
         <v>55</v>
@@ -15035,75 +14982,75 @@
       </c>
     </row>
     <row r="84" spans="1:9" ht="85" x14ac:dyDescent="0.2">
-      <c r="A84" s="39">
-        <f>'Article Data'!A68</f>
-        <v>208</v>
-      </c>
-      <c r="B84" s="39" t="str">
-        <f>'Article Data'!B68</f>
-        <v>Coupled range dynamics of brood parasites and their hosts responding to climate and vegetation changes</v>
-      </c>
-      <c r="C84" s="2" t="s">
-        <v>368</v>
-      </c>
-      <c r="D84" s="2" t="s">
-        <v>868</v>
-      </c>
-      <c r="E84" s="2" t="s">
+      <c r="A84" s="38">
+        <f>'Article Data'!A69</f>
+        <v>415</v>
+      </c>
+      <c r="B84" s="38" t="str">
+        <f>'Article Data'!B69</f>
+        <v>Estimating species misclassification with occupancy dynamics and encounter rates: A semi-supervised, individual-level approach</v>
+      </c>
+      <c r="C84" s="33" t="s">
+        <v>368</v>
+      </c>
+      <c r="D84" s="33" t="s">
+        <v>865</v>
+      </c>
+      <c r="E84" s="33" t="s">
+        <v>58</v>
+      </c>
+      <c r="F84" s="33">
         <v>55</v>
       </c>
-      <c r="F84" s="2">
-        <v>2</v>
-      </c>
-      <c r="G84" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="H84" s="2" t="s">
+      <c r="G84" s="33" t="s">
+        <v>72</v>
+      </c>
+      <c r="H84" s="33" t="s">
         <v>81</v>
       </c>
-      <c r="I84" s="2" t="s">
+      <c r="I84" s="33" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="85" spans="1:9" ht="68" x14ac:dyDescent="0.2">
       <c r="A85" s="39">
-        <f>'Article Data'!A68</f>
-        <v>208</v>
+        <f>'Article Data'!A70</f>
+        <v>373</v>
       </c>
       <c r="B85" s="39" t="str">
-        <f>'Article Data'!B68</f>
-        <v>Coupled range dynamics of brood parasites and their hosts responding to climate and vegetation changes</v>
+        <f>'Article Data'!B70</f>
+        <v>Dynamics of an endangered New Zealand skink: accounting for incomplete detectability in estimating patch occupancy</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>368</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>869</v>
+        <v>518</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F85" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="H85" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="I85" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9" ht="85" x14ac:dyDescent="0.2">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A86" s="38">
-        <f>'Article Data'!A69</f>
-        <v>415</v>
+        <f>'Article Data'!A71</f>
+        <v>707</v>
       </c>
       <c r="B86" s="38" t="str">
-        <f>'Article Data'!B69</f>
-        <v>Estimating species misclassification with occupancy dynamics and encounter rates: A semi-supervised, individual-level approach</v>
+        <f>'Article Data'!B71</f>
+        <v>Monitoring in the presence of species misidentification: the case of the Eurasian lynx in the Alps</v>
       </c>
       <c r="C86" s="33" t="s">
         <v>368</v>
@@ -15112,69 +15059,69 @@
         <v>875</v>
       </c>
       <c r="E86" s="33" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F86" s="33">
-        <v>55</v>
+        <v>1</v>
       </c>
       <c r="G86" s="33" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="H86" s="33" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="I86" s="33" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="87" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A87" s="39">
-        <f>'Article Data'!A70</f>
-        <v>373</v>
+        <f>'Article Data'!A72</f>
+        <v>360</v>
       </c>
       <c r="B87" s="39" t="str">
-        <f>'Article Data'!B70</f>
-        <v>Dynamics of an endangered New Zealand skink: accounting for incomplete detectability in estimating patch occupancy</v>
+        <f>'Article Data'!B72</f>
+        <v>Using Fourier series to estimate periodic patterns in dynamic occupancy models</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>368</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>518</v>
+        <v>880</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F87" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H87" s="2" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="I87" s="2" t="s">
-        <v>676</v>
+        <v>81</v>
       </c>
     </row>
     <row r="88" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A88" s="38">
-        <f>'Article Data'!A71</f>
-        <v>707</v>
+        <f>'Article Data'!A73</f>
+        <v>315</v>
       </c>
       <c r="B88" s="38" t="str">
-        <f>'Article Data'!B71</f>
-        <v>Monitoring in the presence of species misidentification: the case of the Eurasian lynx in the Alps</v>
+        <f>'Article Data'!B73</f>
+        <v>Estimation of metademographic rates and landscape connectivity for a conservation-reliant anuran</v>
       </c>
       <c r="C88" s="33" t="s">
         <v>368</v>
       </c>
       <c r="D88" s="33" t="s">
-        <v>885</v>
+        <v>888</v>
       </c>
       <c r="E88" s="33" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F88" s="33">
         <v>1</v>
@@ -15183,91 +15130,91 @@
         <v>66</v>
       </c>
       <c r="H88" s="33" t="s">
-        <v>74</v>
+        <v>338</v>
       </c>
       <c r="I88" s="33" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="89" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A89" s="39">
-        <f>'Article Data'!A72</f>
-        <v>360</v>
+        <f>'Article Data'!A74</f>
+        <v>164</v>
       </c>
       <c r="B89" s="39" t="str">
-        <f>'Article Data'!B72</f>
-        <v>Using Fourier series to estimate periodic patterns in dynamic occupancy models</v>
+        <f>'Article Data'!B74</f>
+        <v>Perturbation analysis for patch occupancy dynamics</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>368</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>890</v>
+        <v>838</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F89" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H89" s="2" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="I89" s="2" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="90" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:9" ht="68" x14ac:dyDescent="0.2">
       <c r="A90" s="38">
-        <f>'Article Data'!A73</f>
-        <v>315</v>
+        <f>'Article Data'!A75</f>
+        <v>482</v>
       </c>
       <c r="B90" s="38" t="str">
-        <f>'Article Data'!B73</f>
-        <v>Estimation of metademographic rates and landscape connectivity for a conservation-reliant anuran</v>
+        <f>'Article Data'!B75</f>
+        <v>Site occupancy dynamics of northern spotted owls in managed interior Douglas fir forests, California, USA, 1995-2009</v>
       </c>
       <c r="C90" s="33" t="s">
         <v>368</v>
       </c>
       <c r="D90" s="33" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="E90" s="33" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F90" s="33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G90" s="33" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H90" s="33" t="s">
         <v>338</v>
       </c>
       <c r="I90" s="33" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" ht="68" x14ac:dyDescent="0.2">
       <c r="A91" s="39">
-        <f>'Article Data'!A74</f>
-        <v>164</v>
+        <f>'Article Data'!A76</f>
+        <v>251</v>
       </c>
       <c r="B91" s="39" t="str">
-        <f>'Article Data'!B74</f>
-        <v>Perturbation analysis for patch occupancy dynamics</v>
+        <f>'Article Data'!B76</f>
+        <v>Quantifying site-level usage and certainty of absence for an invasive species through occupancy analysis of camera-trap data</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>368</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>848</v>
+        <v>906</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F91" s="2">
         <v>1</v>
@@ -15276,7 +15223,7 @@
         <v>66</v>
       </c>
       <c r="H91" s="2" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="I91" s="2" t="s">
         <v>81</v>
@@ -15284,49 +15231,49 @@
     </row>
     <row r="92" spans="1:9" ht="68" x14ac:dyDescent="0.2">
       <c r="A92" s="38">
-        <f>'Article Data'!A75</f>
-        <v>482</v>
+        <f>'Article Data'!A77</f>
+        <v>353</v>
       </c>
       <c r="B92" s="38" t="str">
-        <f>'Article Data'!B75</f>
-        <v>Site occupancy dynamics of northern spotted owls in managed interior Douglas fir forests, California, USA, 1995-2009</v>
+        <f>'Article Data'!B77</f>
+        <v>Collaboration for conservation: Assessing countrywide carnivore occupancy dynamics from sparse data</v>
       </c>
       <c r="C92" s="33" t="s">
         <v>368</v>
       </c>
       <c r="D92" s="33" t="s">
-        <v>909</v>
+        <v>915</v>
       </c>
       <c r="E92" s="33" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F92" s="33">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G92" s="33" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="H92" s="33" t="s">
-        <v>338</v>
+        <v>81</v>
       </c>
       <c r="I92" s="33" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" ht="85" x14ac:dyDescent="0.2">
       <c r="A93" s="39">
-        <f>'Article Data'!A76</f>
-        <v>251</v>
+        <f>'Article Data'!A78</f>
+        <v>309</v>
       </c>
       <c r="B93" s="39" t="str">
-        <f>'Article Data'!B76</f>
-        <v>Quantifying site-level usage and certainty of absence for an invasive species through occupancy analysis of camera-trap data</v>
+        <f>'Article Data'!B78</f>
+        <v>Modeling occupancy dynamics of a rare species, Franklin's ground squirrel, with limited data: are simple connectivity metrics adequate?</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>368</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>916</v>
+        <v>922</v>
       </c>
       <c r="E93" s="2" t="s">
         <v>54</v>
@@ -15338,60 +15285,60 @@
         <v>66</v>
       </c>
       <c r="H93" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I93" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A94" s="38">
-        <f>'Article Data'!A77</f>
-        <v>353</v>
+        <f>'Article Data'!A79</f>
+        <v>388</v>
       </c>
       <c r="B94" s="38" t="str">
-        <f>'Article Data'!B77</f>
-        <v>Collaboration for conservation: Assessing countrywide carnivore occupancy dynamics from sparse data</v>
+        <f>'Article Data'!B79</f>
+        <v>Occupancy Dynamics of Breeding Crawfish Frogs in Southeastern Indiana</v>
       </c>
       <c r="C94" s="33" t="s">
         <v>368</v>
       </c>
       <c r="D94" s="33" t="s">
-        <v>925</v>
+        <v>929</v>
       </c>
       <c r="E94" s="33" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F94" s="33">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G94" s="33" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="H94" s="33" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="I94" s="33" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9" ht="85" x14ac:dyDescent="0.2">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" ht="68" x14ac:dyDescent="0.2">
       <c r="A95" s="39">
-        <f>'Article Data'!A78</f>
-        <v>309</v>
+        <f>'Article Data'!A80</f>
+        <v>329</v>
       </c>
       <c r="B95" s="39" t="str">
-        <f>'Article Data'!B78</f>
-        <v>Modeling occupancy dynamics of a rare species, Franklin's ground squirrel, with limited data: are simple connectivity metrics adequate?</v>
+        <f>'Article Data'!B80</f>
+        <v>Territory occupancy and breeding success of Peregrine Falcons Falco peregrinus at various stages of population recovery</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>368</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>932</v>
+        <v>935</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F95" s="2">
         <v>1</v>
@@ -15400,29 +15347,29 @@
         <v>66</v>
       </c>
       <c r="H95" s="2" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="I95" s="2" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" ht="68" x14ac:dyDescent="0.2">
       <c r="A96" s="38">
-        <f>'Article Data'!A79</f>
-        <v>388</v>
+        <f>'Article Data'!A81</f>
+        <v>1353</v>
       </c>
       <c r="B96" s="38" t="str">
-        <f>'Article Data'!B79</f>
-        <v>Occupancy Dynamics of Breeding Crawfish Frogs in Southeastern Indiana</v>
+        <f>'Article Data'!B81</f>
+        <v>Golden Eagle Occupancy Surveys and Monitoring Strategy in Coastal Southern California, United States</v>
       </c>
       <c r="C96" s="33" t="s">
         <v>368</v>
       </c>
       <c r="D96" s="33" t="s">
-        <v>939</v>
+        <v>838</v>
       </c>
       <c r="E96" s="33" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F96" s="33">
         <v>1</v>
@@ -15431,94 +15378,94 @@
         <v>66</v>
       </c>
       <c r="H96" s="33" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="I96" s="33" t="s">
-        <v>412</v>
+        <v>944</v>
       </c>
     </row>
     <row r="97" spans="1:9" ht="68" x14ac:dyDescent="0.2">
       <c r="A97" s="39">
-        <f>'Article Data'!A80</f>
-        <v>329</v>
+        <f>'Article Data'!A82</f>
+        <v>98</v>
       </c>
       <c r="B97" s="39" t="str">
-        <f>'Article Data'!B80</f>
-        <v>Territory occupancy and breeding success of Peregrine Falcons Falco peregrinus at various stages of population recovery</v>
+        <f>'Article Data'!B82</f>
+        <v>SETTLEMENT IN NOVEL HABITATS INDUCED BY SOCIAL INFORMATION MAY DISRUPT COMMUNITY STRUCTURE</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>368</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>945</v>
+        <v>950</v>
       </c>
       <c r="E97" s="2" t="s">
         <v>55</v>
       </c>
       <c r="F97" s="2">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H97" s="2" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="I97" s="2" t="s">
-        <v>946</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" ht="85" x14ac:dyDescent="0.2">
       <c r="A98" s="38">
-        <f>'Article Data'!A81</f>
-        <v>1353</v>
+        <f>'Article Data'!A83</f>
+        <v>277</v>
       </c>
       <c r="B98" s="38" t="str">
-        <f>'Article Data'!B81</f>
-        <v>Golden Eagle Occupancy Surveys and Monitoring Strategy in Coastal Southern California, United States</v>
+        <f>'Article Data'!B83</f>
+        <v>DIFFERENCE IN DETECTION AND OCCUPANCY BETWEEN TWO ANURANS: THE IMPORTANCE OF SPECIES-SPECIFIC MONITORING</v>
       </c>
       <c r="C98" s="33" t="s">
         <v>368</v>
       </c>
       <c r="D98" s="33" t="s">
-        <v>848</v>
+        <v>956</v>
       </c>
       <c r="E98" s="33" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F98" s="33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G98" s="33" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H98" s="33" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="I98" s="33" t="s">
-        <v>954</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" ht="119" x14ac:dyDescent="0.2">
       <c r="A99" s="39">
-        <f>'Article Data'!A82</f>
-        <v>98</v>
+        <f>'Article Data'!A84</f>
+        <v>1051</v>
       </c>
       <c r="B99" s="39" t="str">
-        <f>'Article Data'!B82</f>
-        <v>SETTLEMENT IN NOVEL HABITATS INDUCED BY SOCIAL INFORMATION MAY DISRUPT COMMUNITY STRUCTURE</v>
+        <f>'Article Data'!B84</f>
+        <v>Ecological and social consequences of bison reintroduction in Colorado</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>368</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>960</v>
+        <v>962</v>
       </c>
       <c r="E99" s="2" t="s">
         <v>55</v>
       </c>
       <c r="F99" s="2">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G99" s="2" t="s">
         <v>67</v>
@@ -15530,116 +15477,116 @@
         <v>81</v>
       </c>
     </row>
-    <row r="100" spans="1:9" ht="85" x14ac:dyDescent="0.2">
-      <c r="A100" s="38">
-        <f>'Article Data'!A83</f>
-        <v>277</v>
-      </c>
-      <c r="B100" s="38" t="str">
-        <f>'Article Data'!B83</f>
-        <v>DIFFERENCE IN DETECTION AND OCCUPANCY BETWEEN TWO ANURANS: THE IMPORTANCE OF SPECIES-SPECIFIC MONITORING</v>
-      </c>
-      <c r="C100" s="33" t="s">
-        <v>368</v>
-      </c>
-      <c r="D100" s="33" t="s">
-        <v>966</v>
-      </c>
-      <c r="E100" s="33" t="s">
-        <v>56</v>
-      </c>
-      <c r="F100" s="33">
-        <v>2</v>
-      </c>
-      <c r="G100" s="33" t="s">
-        <v>67</v>
-      </c>
-      <c r="H100" s="33" t="s">
-        <v>81</v>
-      </c>
-      <c r="I100" s="33" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9" ht="119" x14ac:dyDescent="0.2">
-      <c r="A101" s="39">
+    <row r="100" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+      <c r="A100" s="39">
         <f>'Article Data'!A84</f>
         <v>1051</v>
       </c>
-      <c r="B101" s="39" t="str">
+      <c r="B100" s="39" t="str">
         <f>'Article Data'!B84</f>
         <v>Ecological and social consequences of bison reintroduction in Colorado</v>
       </c>
-      <c r="C101" s="2" t="s">
-        <v>368</v>
-      </c>
-      <c r="D101" s="2" t="s">
+      <c r="C100" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>963</v>
+      </c>
+      <c r="E100" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F100" s="2">
+        <v>3</v>
+      </c>
+      <c r="G100" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="H100" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="I100" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+      <c r="A101" s="38">
+        <f>'Article Data'!A85</f>
+        <v>435</v>
+      </c>
+      <c r="B101" s="38" t="str">
+        <f>'Article Data'!B85</f>
+        <v>Experimentally testing the response of feral cats and their prey to poison baiting</v>
+      </c>
+      <c r="C101" s="33" t="s">
         <v>972</v>
       </c>
-      <c r="E101" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="F101" s="2">
-        <v>3</v>
-      </c>
-      <c r="G101" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="H101" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="I101" s="2" t="s">
+      <c r="D101" s="33" t="s">
+        <v>973</v>
+      </c>
+      <c r="E101" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="F101" s="33">
+        <v>1</v>
+      </c>
+      <c r="G101" s="33" t="s">
+        <v>66</v>
+      </c>
+      <c r="H101" s="33" t="s">
+        <v>80</v>
+      </c>
+      <c r="I101" s="33" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="102" spans="1:9" ht="68" x14ac:dyDescent="0.2">
       <c r="A102" s="39">
-        <f>'Article Data'!A84</f>
-        <v>1051</v>
+        <f>'Article Data'!A86</f>
+        <v>127</v>
       </c>
       <c r="B102" s="39" t="str">
-        <f>'Article Data'!B84</f>
-        <v>Ecological and social consequences of bison reintroduction in Colorado</v>
+        <f>'Article Data'!B86</f>
+        <v>Site Occupancy Dynamics of Northern Spotted Owls in the Eastern Cascades, Washington, USA, 1990-2003</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>400</v>
+        <v>368</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>973</v>
+        <v>979</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F102" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G102" s="2" t="s">
         <v>67</v>
       </c>
       <c r="H102" s="2" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="I102" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" ht="68" x14ac:dyDescent="0.2">
       <c r="A103" s="38">
-        <f>'Article Data'!A85</f>
-        <v>435</v>
+        <f>'Article Data'!A87</f>
+        <v>109</v>
       </c>
       <c r="B103" s="38" t="str">
-        <f>'Article Data'!B85</f>
-        <v>Experimentally testing the response of feral cats and their prey to poison baiting</v>
+        <f>'Article Data'!B87</f>
+        <v>Effects of rangeland management on the site occupancy dynamics of prairie-chickens in a protected prairie preserve</v>
       </c>
       <c r="C103" s="33" t="s">
-        <v>982</v>
+        <v>398</v>
       </c>
       <c r="D103" s="33" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="E103" s="33" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F103" s="33">
         <v>1</v>
@@ -15648,20 +15595,20 @@
         <v>66</v>
       </c>
       <c r="H103" s="33" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="I103" s="33" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A104" s="39">
-        <f>'Article Data'!A86</f>
-        <v>127</v>
+        <f>'Article Data'!A88</f>
+        <v>380</v>
       </c>
       <c r="B104" s="39" t="str">
-        <f>'Article Data'!B86</f>
-        <v>Site Occupancy Dynamics of Northern Spotted Owls in the Eastern Cascades, Washington, USA, 1990-2003</v>
+        <f>'Article Data'!B88</f>
+        <v>Occupancy dynamics of semi-aquatic herbivores in riparian systems in Illinois, USA</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>368</v>
@@ -15670,7 +15617,7 @@
         <v>989</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F104" s="2">
         <v>2</v>
@@ -15679,51 +15626,51 @@
         <v>67</v>
       </c>
       <c r="H104" s="2" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="I104" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" ht="85" x14ac:dyDescent="0.2">
       <c r="A105" s="38">
-        <f>'Article Data'!A87</f>
-        <v>109</v>
+        <f>'Article Data'!A89</f>
+        <v>313</v>
       </c>
       <c r="B105" s="38" t="str">
-        <f>'Article Data'!B87</f>
-        <v>Effects of rangeland management on the site occupancy dynamics of prairie-chickens in a protected prairie preserve</v>
+        <f>'Article Data'!B89</f>
+        <v>The Role of Climate Changes in the Spread of Freshwater Fishes: Implications for Alien Cool and Warm-Water Species in a Mediterranean Basin</v>
       </c>
       <c r="C105" s="33" t="s">
-        <v>398</v>
+        <v>368</v>
       </c>
       <c r="D105" s="33" t="s">
         <v>994</v>
       </c>
       <c r="E105" s="33" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="F105" s="33">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G105" s="33" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H105" s="33" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="I105" s="33" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" ht="85" x14ac:dyDescent="0.2">
       <c r="A106" s="39">
-        <f>'Article Data'!A88</f>
-        <v>380</v>
+        <f>'Article Data'!A90</f>
+        <v>94</v>
       </c>
       <c r="B106" s="39" t="str">
-        <f>'Article Data'!B88</f>
-        <v>Occupancy dynamics of semi-aquatic herbivores in riparian systems in Illinois, USA</v>
+        <f>'Article Data'!B90</f>
+        <v>Rapid Turnover in Site Occupancy of a Pond-breeding Frog Demonstrates the Need for Landscape-level Management</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>368</v>
@@ -15732,60 +15679,60 @@
         <v>999</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F106" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H106" s="2" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="I106" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9" ht="85" x14ac:dyDescent="0.2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A107" s="38">
-        <f>'Article Data'!A89</f>
-        <v>313</v>
+        <f>'Article Data'!A91</f>
+        <v>295</v>
       </c>
       <c r="B107" s="38" t="str">
-        <f>'Article Data'!B89</f>
-        <v>The Role of Climate Changes in the Spread of Freshwater Fishes: Implications for Alien Cool and Warm-Water Species in a Mediterranean Basin</v>
+        <f>'Article Data'!B91</f>
+        <v>Habitat fragmentation reduces occupancy of nest boxes by an open-country raptor</v>
       </c>
       <c r="C107" s="33" t="s">
         <v>368</v>
       </c>
       <c r="D107" s="33" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="E107" s="33" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F107" s="33">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G107" s="33" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H107" s="33" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I107" s="33" t="s">
-        <v>81</v>
+        <v>412</v>
       </c>
     </row>
     <row r="108" spans="1:9" ht="85" x14ac:dyDescent="0.2">
       <c r="A108" s="39">
-        <f>'Article Data'!A90</f>
-        <v>94</v>
+        <f>'Article Data'!A92</f>
+        <v>138</v>
       </c>
       <c r="B108" s="39" t="str">
-        <f>'Article Data'!B90</f>
-        <v>Rapid Turnover in Site Occupancy of a Pond-breeding Frog Demonstrates the Need for Landscape-level Management</v>
+        <f>'Article Data'!B92</f>
+        <v>A multistate dynamic occupancy model to estimate local colonization &amp; extinction rates and patterns of co-occurrence between two or more interacting species</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>368</v>
@@ -15794,50 +15741,50 @@
         <v>1009</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F108" s="2">
         <v>1</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="H108" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I108" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" ht="85" x14ac:dyDescent="0.2">
+      <c r="A109" s="39">
+        <f>'Article Data'!A92</f>
+        <v>138</v>
+      </c>
+      <c r="B109" s="39" t="str">
+        <f>'Article Data'!B92</f>
+        <v>A multistate dynamic occupancy model to estimate local colonization &amp; extinction rates and patterns of co-occurrence between two or more interacting species</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="D109" s="2" t="s">
         <v>1010</v>
       </c>
-    </row>
-    <row r="109" spans="1:9" ht="51" x14ac:dyDescent="0.2">
-      <c r="A109" s="38">
-        <f>'Article Data'!A91</f>
-        <v>295</v>
-      </c>
-      <c r="B109" s="38" t="str">
-        <f>'Article Data'!B91</f>
-        <v>Habitat fragmentation reduces occupancy of nest boxes by an open-country raptor</v>
-      </c>
-      <c r="C109" s="33" t="s">
-        <v>368</v>
-      </c>
-      <c r="D109" s="33" t="s">
-        <v>1015</v>
-      </c>
-      <c r="E109" s="33" t="s">
-        <v>55</v>
-      </c>
-      <c r="F109" s="33">
+      <c r="E109" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F109" s="2">
         <v>1</v>
       </c>
-      <c r="G109" s="33" t="s">
-        <v>66</v>
-      </c>
-      <c r="H109" s="33" t="s">
-        <v>79</v>
-      </c>
-      <c r="I109" s="33" t="s">
-        <v>412</v>
+      <c r="G109" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="H109" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="I109" s="2" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="110" spans="1:9" ht="85" x14ac:dyDescent="0.2">
@@ -15853,7 +15800,7 @@
         <v>368</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>1019</v>
+        <v>1011</v>
       </c>
       <c r="E110" s="2" t="s">
         <v>54</v>
@@ -15872,105 +15819,77 @@
       </c>
     </row>
     <row r="111" spans="1:9" ht="85" x14ac:dyDescent="0.2">
-      <c r="A111" s="39">
-        <f>'Article Data'!A92</f>
-        <v>138</v>
-      </c>
-      <c r="B111" s="39" t="str">
-        <f>'Article Data'!B92</f>
-        <v>A multistate dynamic occupancy model to estimate local colonization &amp; extinction rates and patterns of co-occurrence between two or more interacting species</v>
-      </c>
-      <c r="C111" s="2" t="s">
-        <v>368</v>
-      </c>
-      <c r="D111" s="2" t="s">
-        <v>1020</v>
-      </c>
-      <c r="E111" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="F111" s="2">
-        <v>1</v>
-      </c>
-      <c r="G111" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="H111" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="I111" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9" ht="85" x14ac:dyDescent="0.2">
-      <c r="A112" s="39">
-        <f>'Article Data'!A92</f>
-        <v>138</v>
-      </c>
-      <c r="B112" s="39" t="str">
-        <f>'Article Data'!B92</f>
-        <v>A multistate dynamic occupancy model to estimate local colonization &amp; extinction rates and patterns of co-occurrence between two or more interacting species</v>
-      </c>
-      <c r="C112" s="2" t="s">
-        <v>368</v>
-      </c>
-      <c r="D112" s="2" t="s">
-        <v>1021</v>
-      </c>
-      <c r="E112" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="F112" s="2">
-        <v>1</v>
-      </c>
-      <c r="G112" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="H112" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="I112" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9" ht="85" x14ac:dyDescent="0.2">
-      <c r="A113" s="38">
+      <c r="A111" s="38">
         <f>'Article Data'!A93</f>
         <v>549</v>
       </c>
-      <c r="B113" s="38" t="str">
+      <c r="B111" s="38" t="str">
         <f>'Article Data'!B93</f>
         <v>Accounting for misclassification of subspecies provides insights about habitat use and dynamics of the Florida Grasshopper Sparrow in response to fire</v>
       </c>
-      <c r="C113" s="33" t="s">
-        <v>368</v>
-      </c>
-      <c r="D113" s="33" t="s">
-        <v>1031</v>
-      </c>
-      <c r="E113" s="33" t="s">
+      <c r="C111" s="33" t="s">
+        <v>368</v>
+      </c>
+      <c r="D111" s="33" t="s">
+        <v>1021</v>
+      </c>
+      <c r="E111" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="F113" s="33">
+      <c r="F111" s="33">
         <v>1</v>
       </c>
-      <c r="G113" s="33" t="s">
+      <c r="G111" s="33" t="s">
         <v>66</v>
       </c>
-      <c r="H113" s="33" t="s">
+      <c r="H111" s="33" t="s">
         <v>79</v>
       </c>
-      <c r="I113" s="33" t="s">
+      <c r="I111" s="33" t="s">
         <v>81</v>
       </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A112" s="39">
+        <f>'Article Data'!A94</f>
+        <v>0</v>
+      </c>
+      <c r="B112" s="39">
+        <f>'Article Data'!B94</f>
+        <v>0</v>
+      </c>
+      <c r="C112" s="2"/>
+      <c r="D112" s="2"/>
+      <c r="E112" s="2"/>
+      <c r="F112" s="2"/>
+      <c r="G112" s="2"/>
+      <c r="H112" s="2"/>
+      <c r="I112" s="2"/>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A113" s="38">
+        <f>'Article Data'!A95</f>
+        <v>0</v>
+      </c>
+      <c r="B113" s="38">
+        <f>'Article Data'!B95</f>
+        <v>0</v>
+      </c>
+      <c r="C113" s="33"/>
+      <c r="D113" s="33"/>
+      <c r="E113" s="33"/>
+      <c r="F113" s="33"/>
+      <c r="G113" s="33"/>
+      <c r="H113" s="33"/>
+      <c r="I113" s="33"/>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A114" s="39">
-        <f>'Article Data'!A94</f>
+        <f>'Article Data'!A96</f>
         <v>0</v>
       </c>
       <c r="B114" s="39">
-        <f>'Article Data'!B94</f>
+        <f>'Article Data'!B96</f>
         <v>0</v>
       </c>
       <c r="C114" s="2"/>
@@ -15983,11 +15902,11 @@
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A115" s="38">
-        <f>'Article Data'!A95</f>
+        <f>'Article Data'!A97</f>
         <v>0</v>
       </c>
       <c r="B115" s="38">
-        <f>'Article Data'!B95</f>
+        <f>'Article Data'!B97</f>
         <v>0</v>
       </c>
       <c r="C115" s="33"/>
@@ -16000,11 +15919,11 @@
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A116" s="39">
-        <f>'Article Data'!A96</f>
+        <f>'Article Data'!A98</f>
         <v>0</v>
       </c>
       <c r="B116" s="39">
-        <f>'Article Data'!B96</f>
+        <f>'Article Data'!B98</f>
         <v>0</v>
       </c>
       <c r="C116" s="2"/>
@@ -16017,11 +15936,11 @@
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A117" s="38">
-        <f>'Article Data'!A97</f>
+        <f>'Article Data'!A99</f>
         <v>0</v>
       </c>
       <c r="B117" s="38">
-        <f>'Article Data'!B97</f>
+        <f>'Article Data'!B99</f>
         <v>0</v>
       </c>
       <c r="C117" s="33"/>
@@ -16034,11 +15953,11 @@
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A118" s="39">
-        <f>'Article Data'!A98</f>
+        <f>'Article Data'!A100</f>
         <v>0</v>
       </c>
       <c r="B118" s="39">
-        <f>'Article Data'!B98</f>
+        <f>'Article Data'!B100</f>
         <v>0</v>
       </c>
       <c r="C118" s="2"/>
@@ -16051,11 +15970,11 @@
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A119" s="38">
-        <f>'Article Data'!A99</f>
+        <f>'Article Data'!A101</f>
         <v>0</v>
       </c>
       <c r="B119" s="38">
-        <f>'Article Data'!B99</f>
+        <f>'Article Data'!B101</f>
         <v>0</v>
       </c>
       <c r="C119" s="33"/>
@@ -16068,11 +15987,11 @@
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A120" s="39">
-        <f>'Article Data'!A100</f>
+        <f>'Article Data'!A102</f>
         <v>0</v>
       </c>
       <c r="B120" s="39">
-        <f>'Article Data'!B100</f>
+        <f>'Article Data'!B102</f>
         <v>0</v>
       </c>
       <c r="C120" s="2"/>
@@ -16085,11 +16004,11 @@
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A121" s="38">
-        <f>'Article Data'!A101</f>
+        <f>'Article Data'!A103</f>
         <v>0</v>
       </c>
       <c r="B121" s="38">
-        <f>'Article Data'!B101</f>
+        <f>'Article Data'!B103</f>
         <v>0</v>
       </c>
       <c r="C121" s="33"/>
@@ -16102,11 +16021,11 @@
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A122" s="39">
-        <f>'Article Data'!A102</f>
+        <f>'Article Data'!A104</f>
         <v>0</v>
       </c>
       <c r="B122" s="39">
-        <f>'Article Data'!B102</f>
+        <f>'Article Data'!B104</f>
         <v>0</v>
       </c>
       <c r="C122" s="2"/>
@@ -16119,11 +16038,11 @@
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A123" s="38">
-        <f>'Article Data'!A103</f>
+        <f>'Article Data'!A105</f>
         <v>0</v>
       </c>
       <c r="B123" s="38">
-        <f>'Article Data'!B103</f>
+        <f>'Article Data'!B105</f>
         <v>0</v>
       </c>
       <c r="C123" s="33"/>
@@ -16136,11 +16055,11 @@
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A124" s="39">
-        <f>'Article Data'!A104</f>
+        <f>'Article Data'!A106</f>
         <v>0</v>
       </c>
       <c r="B124" s="39">
-        <f>'Article Data'!B104</f>
+        <f>'Article Data'!B106</f>
         <v>0</v>
       </c>
       <c r="C124" s="2"/>
@@ -16153,11 +16072,11 @@
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A125" s="38">
-        <f>'Article Data'!A105</f>
+        <f>'Article Data'!A107</f>
         <v>0</v>
       </c>
       <c r="B125" s="38">
-        <f>'Article Data'!B105</f>
+        <f>'Article Data'!B107</f>
         <v>0</v>
       </c>
       <c r="C125" s="33"/>
@@ -16170,11 +16089,11 @@
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A126" s="39">
-        <f>'Article Data'!A106</f>
+        <f>'Article Data'!A108</f>
         <v>0</v>
       </c>
       <c r="B126" s="39">
-        <f>'Article Data'!B106</f>
+        <f>'Article Data'!B108</f>
         <v>0</v>
       </c>
       <c r="C126" s="2"/>
@@ -16187,11 +16106,11 @@
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A127" s="38">
-        <f>'Article Data'!A107</f>
+        <f>'Article Data'!A109</f>
         <v>0</v>
       </c>
       <c r="B127" s="38">
-        <f>'Article Data'!B107</f>
+        <f>'Article Data'!B109</f>
         <v>0</v>
       </c>
       <c r="C127" s="33"/>
@@ -16204,11 +16123,11 @@
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A128" s="39">
-        <f>'Article Data'!A108</f>
+        <f>'Article Data'!A110</f>
         <v>0</v>
       </c>
       <c r="B128" s="39">
-        <f>'Article Data'!B108</f>
+        <f>'Article Data'!B110</f>
         <v>0</v>
       </c>
       <c r="C128" s="2"/>
@@ -16221,11 +16140,11 @@
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A129" s="38">
-        <f>'Article Data'!A109</f>
+        <f>'Article Data'!A111</f>
         <v>0</v>
       </c>
       <c r="B129" s="38">
-        <f>'Article Data'!B109</f>
+        <f>'Article Data'!B111</f>
         <v>0</v>
       </c>
       <c r="C129" s="33"/>
@@ -16238,11 +16157,11 @@
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A130" s="39">
-        <f>'Article Data'!A110</f>
+        <f>'Article Data'!A112</f>
         <v>0</v>
       </c>
       <c r="B130" s="39">
-        <f>'Article Data'!B110</f>
+        <f>'Article Data'!B112</f>
         <v>0</v>
       </c>
       <c r="C130" s="2"/>
@@ -16255,11 +16174,11 @@
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A131" s="38">
-        <f>'Article Data'!A111</f>
+        <f>'Article Data'!A113</f>
         <v>0</v>
       </c>
       <c r="B131" s="38">
-        <f>'Article Data'!B111</f>
+        <f>'Article Data'!B113</f>
         <v>0</v>
       </c>
       <c r="C131" s="33"/>
@@ -16270,40 +16189,8 @@
       <c r="H131" s="33"/>
       <c r="I131" s="33"/>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A132" s="39">
-        <f>'Article Data'!A112</f>
-        <v>0</v>
-      </c>
-      <c r="B132" s="39">
-        <f>'Article Data'!B112</f>
-        <v>0</v>
-      </c>
-      <c r="C132" s="2"/>
-      <c r="D132" s="2"/>
-      <c r="E132" s="2"/>
-      <c r="F132" s="2"/>
-      <c r="G132" s="2"/>
-      <c r="H132" s="2"/>
-      <c r="I132" s="2"/>
-    </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A133" s="38">
-        <f>'Article Data'!A113</f>
-        <v>0</v>
-      </c>
-      <c r="B133" s="38">
-        <f>'Article Data'!B113</f>
-        <v>0</v>
-      </c>
-      <c r="C133" s="33"/>
-      <c r="D133" s="33"/>
-      <c r="E133" s="33"/>
-      <c r="F133" s="33"/>
-      <c r="G133" s="33"/>
-      <c r="H133" s="33"/>
-      <c r="I133" s="33"/>
-    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.2"/>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.2"/>
     <row r="134" spans="1:9" x14ac:dyDescent="0.2"/>
     <row r="135" spans="1:9" x14ac:dyDescent="0.2"/>
     <row r="136" spans="1:9" x14ac:dyDescent="0.2"/>
@@ -16348,28 +16235,27 @@
     <row r="175" x14ac:dyDescent="0.2"/>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F133" xr:uid="{6040740E-CE9A-D448-8C18-9628B188DF67}">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F131" xr:uid="{6040740E-CE9A-D448-8C18-9628B188DF67}">
       <formula1>1</formula1>
       <formula2>1000</formula2>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-  <legacyDrawing r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{3BCD9EFB-7F65-8942-80BF-C06CA60533BF}">
+          <x14:formula1>
+            <xm:f>Metadata!$E$28:$E$33</xm:f>
+          </x14:formula1>
+          <xm:sqref>E84:E131 E2:E79</xm:sqref>
+        </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{9C5920C0-FDE3-124A-BF1F-0D19704E4E52}">
           <x14:formula1>
             <xm:f>Metadata!$E$35:$E$38</xm:f>
           </x14:formula1>
-          <xm:sqref>G2:G133</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{3BCD9EFB-7F65-8942-80BF-C06CA60533BF}">
-          <x14:formula1>
-            <xm:f>Metadata!$E$28:$E$33</xm:f>
-          </x14:formula1>
-          <xm:sqref>E2:E81 E86:E133</xm:sqref>
+          <xm:sqref>G2:G59 G61:G131</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -16382,8 +16268,8 @@
   <dimension ref="A1:I158"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H43" sqref="H43"/>
+      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E58" sqref="E58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" zeroHeight="1" x14ac:dyDescent="0.2"/>
@@ -18145,7 +18031,7 @@
         <v>368</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>740</v>
+        <v>731</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>112</v>
@@ -18238,7 +18124,7 @@
         <v>368</v>
       </c>
       <c r="D60" s="33" t="s">
-        <v>763</v>
+        <v>753</v>
       </c>
       <c r="E60" s="33" t="s">
         <v>109</v>
@@ -18607,7 +18493,7 @@
         <v>The effects of habitat, climate, and Barred Owls on long-term demography of Northern Spotted Owls</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>722</v>
+        <v>713</v>
       </c>
       <c r="D72" s="2" t="s">
         <v>373</v>
@@ -18638,7 +18524,7 @@
         <v>The effects of habitat, climate, and Barred Owls on long-term demography of Northern Spotted Owls</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>723</v>
+        <v>714</v>
       </c>
       <c r="D73" s="2" t="s">
         <v>373</v>
@@ -18669,7 +18555,7 @@
         <v>The effects of habitat, climate, and Barred Owls on long-term demography of Northern Spotted Owls</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>724</v>
+        <v>715</v>
       </c>
       <c r="D74" s="2" t="s">
         <v>373</v>
@@ -18700,7 +18586,7 @@
         <v>The effects of habitat, climate, and Barred Owls on long-term demography of Northern Spotted Owls</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>721</v>
+        <v>712</v>
       </c>
       <c r="D75" s="2" t="s">
         <v>373</v>
@@ -18731,7 +18617,7 @@
         <v>The effects of habitat, climate, and Barred Owls on long-term demography of Northern Spotted Owls</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>725</v>
+        <v>716</v>
       </c>
       <c r="D76" s="2" t="s">
         <v>373</v>
@@ -18762,7 +18648,7 @@
         <v>The effects of habitat, climate, and Barred Owls on long-term demography of Northern Spotted Owls</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>726</v>
+        <v>717</v>
       </c>
       <c r="D77" s="2" t="s">
         <v>373</v>
@@ -18793,7 +18679,7 @@
         <v>The effects of habitat, climate, and Barred Owls on long-term demography of Northern Spotted Owls</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>727</v>
+        <v>718</v>
       </c>
       <c r="D78" s="2" t="s">
         <v>373</v>
@@ -18920,7 +18806,7 @@
         <v>368</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>832</v>
+        <v>822</v>
       </c>
       <c r="E82" s="2" t="s">
         <v>108</v>
@@ -18951,7 +18837,7 @@
         <v>400</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>832</v>
+        <v>822</v>
       </c>
       <c r="E83" s="2" t="s">
         <v>108</v>
@@ -19044,7 +18930,7 @@
         <v>368</v>
       </c>
       <c r="D86" s="33" t="s">
-        <v>859</v>
+        <v>849</v>
       </c>
       <c r="E86" s="33" t="s">
         <v>110</v>
@@ -19075,7 +18961,7 @@
         <v>368</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>870</v>
+        <v>860</v>
       </c>
       <c r="E87" s="2" t="s">
         <v>112</v>
@@ -19168,7 +19054,7 @@
         <v>368</v>
       </c>
       <c r="D90" s="33" t="s">
-        <v>886</v>
+        <v>876</v>
       </c>
       <c r="E90" s="33" t="s">
         <v>110</v>
@@ -19354,7 +19240,7 @@
         <v>368</v>
       </c>
       <c r="D96" s="33" t="s">
-        <v>923</v>
+        <v>913</v>
       </c>
       <c r="E96" s="33" t="s">
         <v>112</v>
@@ -19447,7 +19333,7 @@
         <v>368</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>947</v>
+        <v>937</v>
       </c>
       <c r="E99" s="2" t="s">
         <v>110</v>
@@ -19599,7 +19485,7 @@
         <v>Experimentally testing the response of feral cats and their prey to poison baiting</v>
       </c>
       <c r="C104" s="33" t="s">
-        <v>982</v>
+        <v>972</v>
       </c>
       <c r="D104" s="33" t="s">
         <v>491</v>
@@ -20247,8 +20133,8 @@
   <dimension ref="A1:Q211"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I56" sqref="I56"/>
+      <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K70" sqref="K70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" zeroHeight="1" x14ac:dyDescent="0.2"/>
@@ -20284,19 +20170,19 @@
         <v>23</v>
       </c>
       <c r="G1" s="44" t="s">
-        <v>1074</v>
+        <v>1064</v>
       </c>
       <c r="H1" s="44" t="s">
-        <v>1076</v>
+        <v>1066</v>
       </c>
       <c r="I1" s="44" t="s">
-        <v>1077</v>
+        <v>1067</v>
       </c>
       <c r="J1" s="44" t="s">
-        <v>1078</v>
+        <v>1068</v>
       </c>
       <c r="K1" s="44" t="s">
-        <v>1079</v>
+        <v>1069</v>
       </c>
       <c r="L1" s="44" t="s">
         <v>24</v>
@@ -21870,10 +21756,10 @@
         <v>368</v>
       </c>
       <c r="D30" s="46" t="s">
-        <v>1123</v>
+        <v>1113</v>
       </c>
       <c r="E30" s="46" t="s">
-        <v>1124</v>
+        <v>1114</v>
       </c>
       <c r="F30" s="39">
         <v>26</v>
@@ -22255,10 +22141,10 @@
         <v>368</v>
       </c>
       <c r="D37" s="46" t="s">
-        <v>1125</v>
+        <v>1115</v>
       </c>
       <c r="E37" s="46" t="s">
-        <v>1126</v>
+        <v>1116</v>
       </c>
       <c r="F37" s="39">
         <v>4</v>
@@ -22310,10 +22196,10 @@
         <v>400</v>
       </c>
       <c r="D38" s="46" t="s">
-        <v>1127</v>
+        <v>1117</v>
       </c>
       <c r="E38" s="46" t="s">
-        <v>1128</v>
+        <v>1118</v>
       </c>
       <c r="F38" s="39">
         <v>9</v>
@@ -22365,10 +22251,10 @@
         <v>449</v>
       </c>
       <c r="D39" s="46" t="s">
-        <v>1129</v>
+        <v>1119</v>
       </c>
       <c r="E39" s="46" t="s">
-        <v>1128</v>
+        <v>1118</v>
       </c>
       <c r="F39" s="39">
         <v>4</v>
@@ -22750,10 +22636,10 @@
         <v>368</v>
       </c>
       <c r="D46" s="45" t="s">
-        <v>1132</v>
+        <v>1122</v>
       </c>
       <c r="E46" s="45" t="s">
-        <v>1129</v>
+        <v>1119</v>
       </c>
       <c r="F46" s="38">
         <v>13</v>
@@ -22805,10 +22691,10 @@
         <v>400</v>
       </c>
       <c r="D47" s="45" t="s">
-        <v>1132</v>
+        <v>1122</v>
       </c>
       <c r="E47" s="45" t="s">
-        <v>1129</v>
+        <v>1119</v>
       </c>
       <c r="F47" s="38">
         <v>13</v>
@@ -22860,10 +22746,10 @@
         <v>449</v>
       </c>
       <c r="D48" s="45" t="s">
-        <v>1132</v>
+        <v>1122</v>
       </c>
       <c r="E48" s="45" t="s">
-        <v>1129</v>
+        <v>1119</v>
       </c>
       <c r="F48" s="38">
         <v>13</v>
@@ -23245,10 +23131,10 @@
         <v>368</v>
       </c>
       <c r="D55" s="45" t="s">
-        <v>1134</v>
+        <v>1124</v>
       </c>
       <c r="E55" s="45" t="s">
-        <v>1135</v>
+        <v>1125</v>
       </c>
       <c r="F55" s="38">
         <v>4</v>
@@ -23308,13 +23194,21 @@
       <c r="F56" s="39">
         <v>60</v>
       </c>
-      <c r="G56" s="39"/>
+      <c r="G56" s="39">
+        <v>6</v>
+      </c>
       <c r="H56" s="39">
+        <v>0</v>
+      </c>
+      <c r="I56" s="39">
         <v>30</v>
       </c>
-      <c r="I56" s="39"/>
-      <c r="J56" s="39"/>
-      <c r="K56" s="39"/>
+      <c r="J56" s="39" t="s">
+        <v>322</v>
+      </c>
+      <c r="K56" s="39">
+        <v>6.6</v>
+      </c>
       <c r="L56" s="39" t="s">
         <v>320</v>
       </c>
@@ -23346,22 +23240,30 @@
       <c r="C57" s="38" t="s">
         <v>368</v>
       </c>
-      <c r="D57" s="45">
-        <v>40299</v>
-      </c>
-      <c r="E57" s="45">
-        <v>41395</v>
+      <c r="D57" s="45" t="s">
+        <v>1127</v>
+      </c>
+      <c r="E57" s="45" t="s">
+        <v>1128</v>
       </c>
       <c r="F57" s="38">
         <v>3</v>
       </c>
-      <c r="G57" s="38"/>
+      <c r="G57" s="38" t="s">
+        <v>322</v>
+      </c>
       <c r="H57" s="38">
+        <v>5</v>
+      </c>
+      <c r="I57" s="38">
         <v>13</v>
       </c>
-      <c r="I57" s="38"/>
-      <c r="J57" s="38"/>
-      <c r="K57" s="38"/>
+      <c r="J57" s="38" t="s">
+        <v>322</v>
+      </c>
+      <c r="K57" s="38" t="s">
+        <v>322</v>
+      </c>
       <c r="L57" s="38" t="s">
         <v>129</v>
       </c>
@@ -23393,22 +23295,30 @@
       <c r="C58" s="39" t="s">
         <v>368</v>
       </c>
-      <c r="D58" s="46">
-        <v>39692</v>
-      </c>
-      <c r="E58" s="46">
-        <v>41395</v>
+      <c r="D58" s="46" t="s">
+        <v>1130</v>
+      </c>
+      <c r="E58" s="46" t="s">
+        <v>1131</v>
       </c>
       <c r="F58" s="39">
         <v>11</v>
       </c>
-      <c r="G58" s="39"/>
+      <c r="G58" s="39">
+        <v>1</v>
+      </c>
       <c r="H58" s="39">
         <v>4</v>
       </c>
-      <c r="I58" s="39"/>
-      <c r="J58" s="39"/>
-      <c r="K58" s="39"/>
+      <c r="I58" s="39">
+        <v>4</v>
+      </c>
+      <c r="J58" s="39">
+        <v>4</v>
+      </c>
+      <c r="K58" s="39">
+        <v>4</v>
+      </c>
       <c r="L58" s="39" t="s">
         <v>320</v>
       </c>
@@ -23449,13 +23359,21 @@
       <c r="F59" s="38">
         <v>4</v>
       </c>
-      <c r="G59" s="38"/>
+      <c r="G59" s="38">
+        <v>6</v>
+      </c>
       <c r="H59" s="38">
+        <v>0</v>
+      </c>
+      <c r="I59" s="38">
         <v>2</v>
       </c>
-      <c r="I59" s="38"/>
-      <c r="J59" s="38"/>
-      <c r="K59" s="38"/>
+      <c r="J59" s="38" t="s">
+        <v>322</v>
+      </c>
+      <c r="K59" s="38" t="s">
+        <v>322</v>
+      </c>
       <c r="L59" s="38" t="s">
         <v>129</v>
       </c>
@@ -23496,13 +23414,21 @@
       <c r="F60" s="39">
         <v>6</v>
       </c>
-      <c r="G60" s="39"/>
+      <c r="G60" s="39">
+        <v>1.5</v>
+      </c>
       <c r="H60" s="39">
+        <v>1</v>
+      </c>
+      <c r="I60" s="39">
         <v>2</v>
       </c>
-      <c r="I60" s="39"/>
-      <c r="J60" s="39"/>
-      <c r="K60" s="39"/>
+      <c r="J60" s="39" t="s">
+        <v>322</v>
+      </c>
+      <c r="K60" s="39" t="s">
+        <v>322</v>
+      </c>
       <c r="L60" s="39" t="s">
         <v>129</v>
       </c>
@@ -23543,13 +23469,21 @@
       <c r="F61" s="38">
         <v>2</v>
       </c>
-      <c r="G61" s="38"/>
+      <c r="G61" s="38">
+        <v>1</v>
+      </c>
       <c r="H61" s="38">
+        <v>2</v>
+      </c>
+      <c r="I61" s="38">
         <v>3</v>
       </c>
-      <c r="I61" s="38"/>
-      <c r="J61" s="38"/>
-      <c r="K61" s="38"/>
+      <c r="J61" s="38">
+        <v>2.5</v>
+      </c>
+      <c r="K61" s="38">
+        <v>2.5</v>
+      </c>
       <c r="L61" s="38" t="s">
         <v>129</v>
       </c>
@@ -23566,7 +23500,7 @@
         <v>153</v>
       </c>
       <c r="Q61" s="38" t="s">
-        <v>690</v>
+        <v>684</v>
       </c>
     </row>
     <row r="62" spans="1:17" ht="68" x14ac:dyDescent="0.2">
@@ -23581,22 +23515,30 @@
       <c r="C62" s="39" t="s">
         <v>368</v>
       </c>
-      <c r="D62" s="46">
-        <v>32509</v>
-      </c>
-      <c r="E62" s="46">
-        <v>38687</v>
+      <c r="D62" s="46" t="s">
+        <v>1136</v>
+      </c>
+      <c r="E62" s="46" t="s">
+        <v>1118</v>
       </c>
       <c r="F62" s="39">
         <v>17</v>
       </c>
-      <c r="G62" s="39"/>
-      <c r="H62" s="39">
+      <c r="G62" s="39" t="s">
+        <v>322</v>
+      </c>
+      <c r="H62" s="39" t="s">
+        <v>322</v>
+      </c>
+      <c r="I62" s="39">
         <v>5</v>
       </c>
-      <c r="I62" s="39"/>
-      <c r="J62" s="39"/>
-      <c r="K62" s="39"/>
+      <c r="J62" s="39" t="s">
+        <v>322</v>
+      </c>
+      <c r="K62" s="39" t="s">
+        <v>322</v>
+      </c>
       <c r="L62" s="39" t="s">
         <v>129</v>
       </c>
@@ -23628,27 +23570,35 @@
       <c r="C63" s="38" t="s">
         <v>368</v>
       </c>
-      <c r="D63" s="45">
-        <v>36526</v>
-      </c>
-      <c r="E63" s="45">
-        <v>42339</v>
+      <c r="D63" s="45" t="s">
+        <v>1137</v>
+      </c>
+      <c r="E63" s="45" t="s">
+        <v>1138</v>
       </c>
       <c r="F63" s="38">
         <v>2</v>
       </c>
-      <c r="G63" s="38"/>
+      <c r="G63" s="38" t="s">
+        <v>322</v>
+      </c>
       <c r="H63" s="38" t="s">
-        <v>133</v>
-      </c>
-      <c r="I63" s="38"/>
-      <c r="J63" s="38"/>
-      <c r="K63" s="38"/>
+        <v>322</v>
+      </c>
+      <c r="I63" s="38" t="s">
+        <v>322</v>
+      </c>
+      <c r="J63" s="38" t="s">
+        <v>322</v>
+      </c>
+      <c r="K63" s="38" t="s">
+        <v>322</v>
+      </c>
       <c r="L63" s="38" t="s">
-        <v>701</v>
+        <v>695</v>
       </c>
       <c r="M63" s="38" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
       <c r="N63" s="38" t="s">
         <v>366</v>
@@ -23684,13 +23634,21 @@
       <c r="F64" s="39">
         <v>7</v>
       </c>
-      <c r="G64" s="39"/>
+      <c r="G64" s="39">
+        <v>3</v>
+      </c>
       <c r="H64" s="39">
         <v>100</v>
       </c>
-      <c r="I64" s="39"/>
-      <c r="J64" s="39"/>
-      <c r="K64" s="39"/>
+      <c r="I64" s="39">
+        <v>100</v>
+      </c>
+      <c r="J64" s="39">
+        <v>100</v>
+      </c>
+      <c r="K64" s="39">
+        <v>100</v>
+      </c>
       <c r="L64" s="39" t="s">
         <v>320</v>
       </c>
@@ -23707,7 +23665,7 @@
         <v>154</v>
       </c>
       <c r="Q64" s="39" t="s">
-        <v>709</v>
+        <v>703</v>
       </c>
     </row>
     <row r="65" spans="1:17" ht="51" x14ac:dyDescent="0.2">
@@ -23722,22 +23680,30 @@
       <c r="C65" s="38" t="s">
         <v>368</v>
       </c>
-      <c r="D65" s="45">
-        <v>35490</v>
-      </c>
-      <c r="E65" s="45">
-        <v>37073</v>
+      <c r="D65" s="45" t="s">
+        <v>1143</v>
+      </c>
+      <c r="E65" s="45" t="s">
+        <v>1144</v>
       </c>
       <c r="F65" s="38">
         <v>5</v>
       </c>
-      <c r="G65" s="38"/>
+      <c r="G65" s="38" t="s">
+        <v>133</v>
+      </c>
       <c r="H65" s="38" t="s">
         <v>133</v>
       </c>
-      <c r="I65" s="38"/>
-      <c r="J65" s="38"/>
-      <c r="K65" s="38"/>
+      <c r="I65" s="38" t="s">
+        <v>133</v>
+      </c>
+      <c r="J65" s="38" t="s">
+        <v>133</v>
+      </c>
+      <c r="K65" s="38" t="s">
+        <v>133</v>
+      </c>
       <c r="L65" s="38" t="s">
         <v>129</v>
       </c>
@@ -23778,13 +23744,21 @@
       <c r="F66" s="39">
         <v>5</v>
       </c>
-      <c r="G66" s="39"/>
-      <c r="H66" s="39">
+      <c r="G66" s="39">
+        <v>10</v>
+      </c>
+      <c r="H66" s="39" t="s">
+        <v>322</v>
+      </c>
+      <c r="I66" s="39">
         <v>20</v>
       </c>
-      <c r="I66" s="39"/>
-      <c r="J66" s="39"/>
-      <c r="K66" s="39"/>
+      <c r="J66" s="39" t="s">
+        <v>322</v>
+      </c>
+      <c r="K66" s="39" t="s">
+        <v>322</v>
+      </c>
       <c r="L66" s="39" t="s">
         <v>129</v>
       </c>
@@ -23825,13 +23799,21 @@
       <c r="F67" s="39">
         <v>5</v>
       </c>
-      <c r="G67" s="39"/>
-      <c r="H67" s="39">
+      <c r="G67" s="39">
+        <v>4</v>
+      </c>
+      <c r="H67" s="39" t="s">
+        <v>322</v>
+      </c>
+      <c r="I67" s="39">
         <v>8</v>
       </c>
-      <c r="I67" s="39"/>
-      <c r="J67" s="39"/>
-      <c r="K67" s="39"/>
+      <c r="J67" s="39" t="s">
+        <v>322</v>
+      </c>
+      <c r="K67" s="39" t="s">
+        <v>322</v>
+      </c>
       <c r="L67" s="39" t="s">
         <v>129</v>
       </c>
@@ -23872,13 +23854,21 @@
       <c r="F68" s="38">
         <v>21</v>
       </c>
-      <c r="G68" s="38"/>
+      <c r="G68" s="38">
+        <v>6</v>
+      </c>
       <c r="H68" s="38" t="s">
-        <v>133</v>
-      </c>
-      <c r="I68" s="38"/>
-      <c r="J68" s="38"/>
-      <c r="K68" s="38"/>
+        <v>322</v>
+      </c>
+      <c r="I68" s="38" t="s">
+        <v>322</v>
+      </c>
+      <c r="J68" s="38" t="s">
+        <v>322</v>
+      </c>
+      <c r="K68" s="38" t="s">
+        <v>322</v>
+      </c>
       <c r="L68" s="38" t="s">
         <v>129</v>
       </c>
@@ -23919,13 +23909,21 @@
       <c r="F69" s="39">
         <v>10</v>
       </c>
-      <c r="G69" s="39"/>
-      <c r="H69" s="39">
+      <c r="G69" s="39">
+        <v>12</v>
+      </c>
+      <c r="H69" s="39" t="s">
+        <v>322</v>
+      </c>
+      <c r="I69" s="39">
         <v>87</v>
       </c>
-      <c r="I69" s="39"/>
-      <c r="J69" s="39"/>
-      <c r="K69" s="39"/>
+      <c r="J69" s="39" t="s">
+        <v>322</v>
+      </c>
+      <c r="K69" s="39">
+        <v>10.9</v>
+      </c>
       <c r="L69" s="39" t="s">
         <v>129</v>
       </c>
@@ -23942,7 +23940,7 @@
         <v>154</v>
       </c>
       <c r="Q69" s="39" t="s">
-        <v>741</v>
+        <v>732</v>
       </c>
     </row>
     <row r="70" spans="1:17" ht="34" x14ac:dyDescent="0.2">
@@ -23966,13 +23964,21 @@
       <c r="F70" s="38">
         <v>22</v>
       </c>
-      <c r="G70" s="38"/>
+      <c r="G70" s="38">
+        <v>0</v>
+      </c>
       <c r="H70" s="38">
         <v>50</v>
       </c>
-      <c r="I70" s="38"/>
-      <c r="J70" s="38"/>
-      <c r="K70" s="38"/>
+      <c r="I70" s="38">
+        <v>50</v>
+      </c>
+      <c r="J70" s="38">
+        <v>50</v>
+      </c>
+      <c r="K70" s="38">
+        <v>50</v>
+      </c>
       <c r="L70" s="38" t="s">
         <v>130</v>
       </c>
@@ -24412,7 +24418,7 @@
         <v>154</v>
       </c>
       <c r="Q79" s="38" t="s">
-        <v>741</v>
+        <v>732</v>
       </c>
     </row>
     <row r="80" spans="1:17" ht="68" x14ac:dyDescent="0.2">
@@ -24613,7 +24619,7 @@
         <v>The effects of habitat, climate, and Barred Owls on long-term demography of Northern Spotted Owls</v>
       </c>
       <c r="C84" s="39" t="s">
-        <v>722</v>
+        <v>713</v>
       </c>
       <c r="D84" s="46">
         <v>34759</v>
@@ -24660,7 +24666,7 @@
         <v>The effects of habitat, climate, and Barred Owls on long-term demography of Northern Spotted Owls</v>
       </c>
       <c r="C85" s="39" t="s">
-        <v>723</v>
+        <v>714</v>
       </c>
       <c r="D85" s="46">
         <v>34759</v>
@@ -24707,7 +24713,7 @@
         <v>The effects of habitat, climate, and Barred Owls on long-term demography of Northern Spotted Owls</v>
       </c>
       <c r="C86" s="39" t="s">
-        <v>724</v>
+        <v>715</v>
       </c>
       <c r="D86" s="46">
         <v>34759</v>
@@ -24754,7 +24760,7 @@
         <v>The effects of habitat, climate, and Barred Owls on long-term demography of Northern Spotted Owls</v>
       </c>
       <c r="C87" s="39" t="s">
-        <v>721</v>
+        <v>712</v>
       </c>
       <c r="D87" s="46">
         <v>34759</v>
@@ -24801,7 +24807,7 @@
         <v>The effects of habitat, climate, and Barred Owls on long-term demography of Northern Spotted Owls</v>
       </c>
       <c r="C88" s="39" t="s">
-        <v>725</v>
+        <v>716</v>
       </c>
       <c r="D88" s="46">
         <v>34759</v>
@@ -24848,7 +24854,7 @@
         <v>The effects of habitat, climate, and Barred Owls on long-term demography of Northern Spotted Owls</v>
       </c>
       <c r="C89" s="39" t="s">
-        <v>726</v>
+        <v>717</v>
       </c>
       <c r="D89" s="46">
         <v>34759</v>
@@ -24895,7 +24901,7 @@
         <v>The effects of habitat, climate, and Barred Owls on long-term demography of Northern Spotted Owls</v>
       </c>
       <c r="C90" s="39" t="s">
-        <v>727</v>
+        <v>718</v>
       </c>
       <c r="D90" s="46">
         <v>36220</v>
@@ -25190,7 +25196,7 @@
       </c>
       <c r="G96" s="38"/>
       <c r="H96" s="51" t="s">
-        <v>841</v>
+        <v>831</v>
       </c>
       <c r="I96" s="51"/>
       <c r="J96" s="51"/>
@@ -25481,7 +25487,7 @@
         <v>320</v>
       </c>
       <c r="M102" s="38" t="s">
-        <v>887</v>
+        <v>877</v>
       </c>
       <c r="N102" s="38" t="s">
         <v>366</v>
@@ -25707,7 +25713,7 @@
       </c>
       <c r="G107" s="39"/>
       <c r="H107" s="39" t="s">
-        <v>917</v>
+        <v>907</v>
       </c>
       <c r="I107" s="39"/>
       <c r="J107" s="39"/>
@@ -25763,7 +25769,7 @@
         <v>57</v>
       </c>
       <c r="M108" s="38" t="s">
-        <v>926</v>
+        <v>916</v>
       </c>
       <c r="N108" s="38" t="s">
         <v>366</v>
@@ -25775,7 +25781,7 @@
         <v>154</v>
       </c>
       <c r="Q108" s="38" t="s">
-        <v>927</v>
+        <v>917</v>
       </c>
     </row>
     <row r="109" spans="1:17" ht="85" x14ac:dyDescent="0.2">
@@ -25963,7 +25969,7 @@
         <v>154</v>
       </c>
       <c r="Q112" s="38" t="s">
-        <v>955</v>
+        <v>945</v>
       </c>
     </row>
     <row r="113" spans="1:17" ht="68" x14ac:dyDescent="0.2">
@@ -26057,7 +26063,7 @@
         <v>155</v>
       </c>
       <c r="Q114" s="38" t="s">
-        <v>690</v>
+        <v>684</v>
       </c>
     </row>
     <row r="115" spans="1:17" ht="51" x14ac:dyDescent="0.2">
@@ -26104,7 +26110,7 @@
         <v>153</v>
       </c>
       <c r="Q115" s="39" t="s">
-        <v>690</v>
+        <v>684</v>
       </c>
     </row>
     <row r="116" spans="1:17" ht="51" x14ac:dyDescent="0.2">
@@ -26151,7 +26157,7 @@
         <v>154</v>
       </c>
       <c r="Q116" s="39" t="s">
-        <v>974</v>
+        <v>964</v>
       </c>
     </row>
     <row r="117" spans="1:17" ht="51" x14ac:dyDescent="0.2">
@@ -26352,7 +26358,7 @@
         <v>Experimentally testing the response of feral cats and their prey to poison baiting</v>
       </c>
       <c r="C121" s="38" t="s">
-        <v>722</v>
+        <v>713</v>
       </c>
       <c r="D121" s="45">
         <v>43191</v>
@@ -26399,7 +26405,7 @@
         <v>Experimentally testing the response of feral cats and their prey to poison baiting</v>
       </c>
       <c r="C122" s="38" t="s">
-        <v>723</v>
+        <v>714</v>
       </c>
       <c r="D122" s="45">
         <v>43556</v>
@@ -26809,7 +26815,7 @@
         <v>153</v>
       </c>
       <c r="Q130" s="39" t="s">
-        <v>1022</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="131" spans="1:17" ht="102" x14ac:dyDescent="0.2">
@@ -27439,12 +27445,12 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61C2225F-50EA-0B46-B746-50DCEE0DEA60}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61C2225F-50EA-0B46-B746-50DCEE0DEA60}">
   <dimension ref="A1:G540"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A152" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A156" sqref="A156:G159"/>
+    <sheetView topLeftCell="H1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A217" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N222" sqref="N222"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" zeroHeight="1" x14ac:dyDescent="0.2"/>
@@ -27528,7 +27534,7 @@
         <v>176</v>
       </c>
       <c r="G3" s="38" t="s">
-        <v>1104</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="51" x14ac:dyDescent="0.2">
@@ -27553,7 +27559,7 @@
         <v>178</v>
       </c>
       <c r="G4" s="39" t="s">
-        <v>1105</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="51" x14ac:dyDescent="0.2">
@@ -27578,7 +27584,7 @@
         <v>179</v>
       </c>
       <c r="G5" s="38" t="s">
-        <v>920</v>
+        <v>910</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="68" x14ac:dyDescent="0.2">
@@ -28353,7 +28359,7 @@
         <v>179</v>
       </c>
       <c r="G36" s="39" t="s">
-        <v>1114</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="68" x14ac:dyDescent="0.2">
@@ -31653,7 +31659,7 @@
         <v>172</v>
       </c>
       <c r="G168" s="38" t="s">
-        <v>672</v>
+        <v>96</v>
       </c>
     </row>
     <row r="169" spans="1:7" ht="68" x14ac:dyDescent="0.2">
@@ -31678,7 +31684,7 @@
         <v>176</v>
       </c>
       <c r="G169" s="39" t="s">
-        <v>671</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="170" spans="1:7" ht="68" x14ac:dyDescent="0.2">
@@ -31703,7 +31709,7 @@
         <v>178</v>
       </c>
       <c r="G170" s="38" t="s">
-        <v>669</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="171" spans="1:7" ht="68" x14ac:dyDescent="0.2">
@@ -31728,7 +31734,7 @@
         <v>179</v>
       </c>
       <c r="G171" s="39" t="s">
-        <v>670</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="172" spans="1:7" ht="51" x14ac:dyDescent="0.2">
@@ -31753,7 +31759,7 @@
         <v>172</v>
       </c>
       <c r="G172" s="38" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
     </row>
     <row r="173" spans="1:7" ht="51" x14ac:dyDescent="0.2">
@@ -31778,7 +31784,7 @@
         <v>176</v>
       </c>
       <c r="G173" s="39" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
     </row>
     <row r="174" spans="1:7" ht="51" x14ac:dyDescent="0.2">
@@ -31803,7 +31809,7 @@
         <v>178</v>
       </c>
       <c r="G174" s="38" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
     </row>
     <row r="175" spans="1:7" ht="51" x14ac:dyDescent="0.2">
@@ -31828,7 +31834,7 @@
         <v>179</v>
       </c>
       <c r="G175" s="39" t="s">
-        <v>678</v>
+        <v>672</v>
       </c>
     </row>
     <row r="176" spans="1:7" ht="51" x14ac:dyDescent="0.2">
@@ -31853,7 +31859,7 @@
         <v>172</v>
       </c>
       <c r="G176" s="38" t="s">
-        <v>680</v>
+        <v>674</v>
       </c>
     </row>
     <row r="177" spans="1:7" ht="51" x14ac:dyDescent="0.2">
@@ -31878,7 +31884,7 @@
         <v>176</v>
       </c>
       <c r="G177" s="39" t="s">
-        <v>680</v>
+        <v>674</v>
       </c>
     </row>
     <row r="178" spans="1:7" ht="51" x14ac:dyDescent="0.2">
@@ -31903,7 +31909,7 @@
         <v>178</v>
       </c>
       <c r="G178" s="38" t="s">
-        <v>680</v>
+        <v>674</v>
       </c>
     </row>
     <row r="179" spans="1:7" ht="51" x14ac:dyDescent="0.2">
@@ -31928,7 +31934,7 @@
         <v>179</v>
       </c>
       <c r="G179" s="39" t="s">
-        <v>678</v>
+        <v>672</v>
       </c>
     </row>
     <row r="180" spans="1:7" ht="68" x14ac:dyDescent="0.2">
@@ -31953,7 +31959,7 @@
         <v>173</v>
       </c>
       <c r="G180" s="38" t="s">
-        <v>684</v>
+        <v>678</v>
       </c>
     </row>
     <row r="181" spans="1:7" ht="68" x14ac:dyDescent="0.2">
@@ -31978,7 +31984,7 @@
         <v>176</v>
       </c>
       <c r="G181" s="39" t="s">
-        <v>684</v>
+        <v>678</v>
       </c>
     </row>
     <row r="182" spans="1:7" ht="68" x14ac:dyDescent="0.2">
@@ -32003,7 +32009,7 @@
         <v>179</v>
       </c>
       <c r="G182" s="38" t="s">
-        <v>685</v>
+        <v>679</v>
       </c>
     </row>
     <row r="183" spans="1:7" ht="51" x14ac:dyDescent="0.2">
@@ -32153,7 +32159,7 @@
         <v>176</v>
       </c>
       <c r="G188" s="38" t="s">
-        <v>695</v>
+        <v>689</v>
       </c>
     </row>
     <row r="189" spans="1:7" ht="85" x14ac:dyDescent="0.2">
@@ -32178,7 +32184,7 @@
         <v>178</v>
       </c>
       <c r="G189" s="39" t="s">
-        <v>695</v>
+        <v>689</v>
       </c>
     </row>
     <row r="190" spans="1:7" ht="68" x14ac:dyDescent="0.2">
@@ -32203,7 +32209,7 @@
         <v>179</v>
       </c>
       <c r="G190" s="38" t="s">
-        <v>694</v>
+        <v>688</v>
       </c>
     </row>
     <row r="191" spans="1:7" ht="68" x14ac:dyDescent="0.2">
@@ -32228,7 +32234,7 @@
         <v>172</v>
       </c>
       <c r="G191" s="39" t="s">
-        <v>702</v>
+        <v>696</v>
       </c>
     </row>
     <row r="192" spans="1:7" ht="68" x14ac:dyDescent="0.2">
@@ -32278,7 +32284,7 @@
         <v>178</v>
       </c>
       <c r="G193" s="39" t="s">
-        <v>704</v>
+        <v>698</v>
       </c>
     </row>
     <row r="194" spans="1:7" ht="68" x14ac:dyDescent="0.2">
@@ -32303,7 +32309,7 @@
         <v>179</v>
       </c>
       <c r="G194" s="38" t="s">
-        <v>703</v>
+        <v>697</v>
       </c>
     </row>
     <row r="195" spans="1:7" ht="85" x14ac:dyDescent="0.2">
@@ -32328,7 +32334,7 @@
         <v>172</v>
       </c>
       <c r="G195" s="39" t="s">
-        <v>710</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="196" spans="1:7" ht="85" x14ac:dyDescent="0.2">
@@ -32353,7 +32359,7 @@
         <v>176</v>
       </c>
       <c r="G196" s="38" t="s">
-        <v>711</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="197" spans="1:7" ht="85" x14ac:dyDescent="0.2">
@@ -32378,7 +32384,7 @@
         <v>178</v>
       </c>
       <c r="G197" s="39" t="s">
-        <v>711</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="198" spans="1:7" ht="85" x14ac:dyDescent="0.2">
@@ -32403,7 +32409,7 @@
         <v>179</v>
       </c>
       <c r="G198" s="38" t="s">
-        <v>712</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="199" spans="1:7" ht="34" x14ac:dyDescent="0.2">
@@ -32427,7 +32433,7 @@
       <c r="F199" s="39" t="s">
         <v>172</v>
       </c>
-      <c r="G199" s="39" t="s">
+      <c r="G199" s="112" t="s">
         <v>96</v>
       </c>
     </row>
@@ -32503,7 +32509,7 @@
         <v>179</v>
       </c>
       <c r="G202" s="38" t="s">
-        <v>717</v>
+        <v>708</v>
       </c>
     </row>
     <row r="203" spans="1:7" ht="68" x14ac:dyDescent="0.2">
@@ -32528,7 +32534,7 @@
         <v>173</v>
       </c>
       <c r="G203" s="38" t="s">
-        <v>728</v>
+        <v>719</v>
       </c>
     </row>
     <row r="204" spans="1:7" ht="68" x14ac:dyDescent="0.2">
@@ -32553,7 +32559,7 @@
         <v>176</v>
       </c>
       <c r="G204" s="39" t="s">
-        <v>728</v>
+        <v>719</v>
       </c>
     </row>
     <row r="205" spans="1:7" ht="68" x14ac:dyDescent="0.2">
@@ -32603,7 +32609,7 @@
         <v>173</v>
       </c>
       <c r="G206" s="38" t="s">
-        <v>729</v>
+        <v>720</v>
       </c>
     </row>
     <row r="207" spans="1:7" ht="68" x14ac:dyDescent="0.2">
@@ -32628,7 +32634,7 @@
         <v>176</v>
       </c>
       <c r="G207" s="39" t="s">
-        <v>729</v>
+        <v>720</v>
       </c>
     </row>
     <row r="208" spans="1:7" ht="68" x14ac:dyDescent="0.2">
@@ -32703,7 +32709,7 @@
         <v>176</v>
       </c>
       <c r="G210" s="38" t="s">
-        <v>734</v>
+        <v>725</v>
       </c>
     </row>
     <row r="211" spans="1:7" ht="51" x14ac:dyDescent="0.2">
@@ -32728,7 +32734,7 @@
         <v>178</v>
       </c>
       <c r="G211" s="39" t="s">
-        <v>734</v>
+        <v>725</v>
       </c>
     </row>
     <row r="212" spans="1:7" ht="51" x14ac:dyDescent="0.2">
@@ -32753,7 +32759,7 @@
         <v>179</v>
       </c>
       <c r="G212" s="38" t="s">
-        <v>733</v>
+        <v>724</v>
       </c>
     </row>
     <row r="213" spans="1:7" ht="51" x14ac:dyDescent="0.2">
@@ -32778,7 +32784,7 @@
         <v>172</v>
       </c>
       <c r="G213" s="39" t="s">
-        <v>742</v>
+        <v>733</v>
       </c>
     </row>
     <row r="214" spans="1:7" ht="51" x14ac:dyDescent="0.2">
@@ -32803,7 +32809,7 @@
         <v>176</v>
       </c>
       <c r="G214" s="38" t="s">
-        <v>743</v>
+        <v>734</v>
       </c>
     </row>
     <row r="215" spans="1:7" ht="51" x14ac:dyDescent="0.2">
@@ -32828,7 +32834,7 @@
         <v>178</v>
       </c>
       <c r="G215" s="39" t="s">
-        <v>743</v>
+        <v>734</v>
       </c>
     </row>
     <row r="216" spans="1:7" ht="51" x14ac:dyDescent="0.2">
@@ -32853,7 +32859,7 @@
         <v>179</v>
       </c>
       <c r="G216" s="38" t="s">
-        <v>744</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="217" spans="1:7" ht="85" x14ac:dyDescent="0.2">
@@ -32878,7 +32884,7 @@
         <v>172</v>
       </c>
       <c r="G217" s="39" t="s">
-        <v>752</v>
+        <v>742</v>
       </c>
     </row>
     <row r="218" spans="1:7" ht="85" x14ac:dyDescent="0.2">
@@ -32903,7 +32909,7 @@
         <v>176</v>
       </c>
       <c r="G218" s="38" t="s">
-        <v>752</v>
+        <v>742</v>
       </c>
     </row>
     <row r="219" spans="1:7" ht="85" x14ac:dyDescent="0.2">
@@ -32928,7 +32934,7 @@
         <v>178</v>
       </c>
       <c r="G219" s="39" t="s">
-        <v>752</v>
+        <v>742</v>
       </c>
     </row>
     <row r="220" spans="1:7" ht="136" x14ac:dyDescent="0.2">
@@ -32953,7 +32959,7 @@
         <v>179</v>
       </c>
       <c r="G220" s="38" t="s">
-        <v>751</v>
+        <v>741</v>
       </c>
     </row>
     <row r="221" spans="1:7" ht="85" x14ac:dyDescent="0.2">
@@ -32969,7 +32975,7 @@
         <v>368</v>
       </c>
       <c r="D221" s="39" t="s">
-        <v>750</v>
+        <v>740</v>
       </c>
       <c r="E221" s="39" t="s">
         <v>172</v>
@@ -32978,7 +32984,7 @@
         <v>172</v>
       </c>
       <c r="G221" s="39" t="s">
-        <v>753</v>
+        <v>743</v>
       </c>
     </row>
     <row r="222" spans="1:7" ht="85" x14ac:dyDescent="0.2">
@@ -32994,7 +33000,7 @@
         <v>368</v>
       </c>
       <c r="D222" s="38" t="s">
-        <v>750</v>
+        <v>740</v>
       </c>
       <c r="E222" s="38" t="s">
         <v>176</v>
@@ -33003,7 +33009,7 @@
         <v>176</v>
       </c>
       <c r="G222" s="38" t="s">
-        <v>753</v>
+        <v>743</v>
       </c>
     </row>
     <row r="223" spans="1:7" ht="85" x14ac:dyDescent="0.2">
@@ -33019,7 +33025,7 @@
         <v>368</v>
       </c>
       <c r="D223" s="39" t="s">
-        <v>750</v>
+        <v>740</v>
       </c>
       <c r="E223" s="39" t="s">
         <v>370</v>
@@ -33028,7 +33034,7 @@
         <v>178</v>
       </c>
       <c r="G223" s="39" t="s">
-        <v>753</v>
+        <v>743</v>
       </c>
     </row>
     <row r="224" spans="1:7" ht="136" x14ac:dyDescent="0.2">
@@ -33044,7 +33050,7 @@
         <v>368</v>
       </c>
       <c r="D224" s="38" t="s">
-        <v>750</v>
+        <v>740</v>
       </c>
       <c r="E224" s="38" t="s">
         <v>179</v>
@@ -33053,7 +33059,7 @@
         <v>179</v>
       </c>
       <c r="G224" s="38" t="s">
-        <v>754</v>
+        <v>744</v>
       </c>
     </row>
     <row r="225" spans="1:7" ht="51" x14ac:dyDescent="0.2">
@@ -33178,7 +33184,7 @@
         <v>172</v>
       </c>
       <c r="G229" s="39" t="s">
-        <v>764</v>
+        <v>754</v>
       </c>
     </row>
     <row r="230" spans="1:7" ht="68" x14ac:dyDescent="0.2">
@@ -33203,7 +33209,7 @@
         <v>176</v>
       </c>
       <c r="G230" s="38" t="s">
-        <v>764</v>
+        <v>754</v>
       </c>
     </row>
     <row r="231" spans="1:7" ht="68" x14ac:dyDescent="0.2">
@@ -33228,7 +33234,7 @@
         <v>178</v>
       </c>
       <c r="G231" s="39" t="s">
-        <v>764</v>
+        <v>754</v>
       </c>
     </row>
     <row r="232" spans="1:7" ht="68" x14ac:dyDescent="0.2">
@@ -33253,7 +33259,7 @@
         <v>179</v>
       </c>
       <c r="G232" s="38" t="s">
-        <v>765</v>
+        <v>755</v>
       </c>
     </row>
     <row r="233" spans="1:7" ht="34" x14ac:dyDescent="0.2">
@@ -33303,7 +33309,7 @@
         <v>176</v>
       </c>
       <c r="G234" s="38" t="s">
-        <v>770</v>
+        <v>760</v>
       </c>
     </row>
     <row r="235" spans="1:7" ht="51" x14ac:dyDescent="0.2">
@@ -33328,7 +33334,7 @@
         <v>178</v>
       </c>
       <c r="G235" s="39" t="s">
-        <v>770</v>
+        <v>760</v>
       </c>
     </row>
     <row r="236" spans="1:7" ht="51" x14ac:dyDescent="0.2">
@@ -33353,7 +33359,7 @@
         <v>179</v>
       </c>
       <c r="G236" s="38" t="s">
-        <v>769</v>
+        <v>759</v>
       </c>
     </row>
     <row r="237" spans="1:7" ht="68" x14ac:dyDescent="0.2">
@@ -33378,7 +33384,7 @@
         <v>173</v>
       </c>
       <c r="G237" s="39" t="s">
-        <v>771</v>
+        <v>761</v>
       </c>
     </row>
     <row r="238" spans="1:7" ht="51" x14ac:dyDescent="0.2">
@@ -33403,7 +33409,7 @@
         <v>178</v>
       </c>
       <c r="G238" s="38" t="s">
-        <v>770</v>
+        <v>760</v>
       </c>
     </row>
     <row r="239" spans="1:7" ht="51" x14ac:dyDescent="0.2">
@@ -33428,7 +33434,7 @@
         <v>179</v>
       </c>
       <c r="G239" s="39" t="s">
-        <v>769</v>
+        <v>759</v>
       </c>
     </row>
     <row r="240" spans="1:7" ht="51" x14ac:dyDescent="0.2">
@@ -33447,13 +33453,13 @@
         <v>368</v>
       </c>
       <c r="E240" s="38" t="s">
-        <v>775</v>
+        <v>765</v>
       </c>
       <c r="F240" s="38" t="s">
         <v>172</v>
       </c>
       <c r="G240" s="38" t="s">
-        <v>776</v>
+        <v>766</v>
       </c>
     </row>
     <row r="241" spans="1:7" ht="51" x14ac:dyDescent="0.2">
@@ -33478,7 +33484,7 @@
         <v>336</v>
       </c>
       <c r="G241" s="39" t="s">
-        <v>776</v>
+        <v>766</v>
       </c>
     </row>
     <row r="242" spans="1:7" ht="51" x14ac:dyDescent="0.2">
@@ -33503,7 +33509,7 @@
         <v>176</v>
       </c>
       <c r="G242" s="38" t="s">
-        <v>776</v>
+        <v>766</v>
       </c>
     </row>
     <row r="243" spans="1:7" ht="51" x14ac:dyDescent="0.2">
@@ -33528,7 +33534,7 @@
         <v>178</v>
       </c>
       <c r="G243" s="39" t="s">
-        <v>776</v>
+        <v>766</v>
       </c>
     </row>
     <row r="244" spans="1:7" ht="51" x14ac:dyDescent="0.2">
@@ -33553,7 +33559,7 @@
         <v>179</v>
       </c>
       <c r="G244" s="38" t="s">
-        <v>777</v>
+        <v>767</v>
       </c>
     </row>
     <row r="245" spans="1:7" ht="68" x14ac:dyDescent="0.2">
@@ -33578,7 +33584,7 @@
         <v>172</v>
       </c>
       <c r="G245" s="39" t="s">
-        <v>781</v>
+        <v>771</v>
       </c>
     </row>
     <row r="246" spans="1:7" ht="51" x14ac:dyDescent="0.2">
@@ -33603,7 +33609,7 @@
         <v>176</v>
       </c>
       <c r="G246" s="38" t="s">
-        <v>782</v>
+        <v>772</v>
       </c>
     </row>
     <row r="247" spans="1:7" ht="51" x14ac:dyDescent="0.2">
@@ -33628,7 +33634,7 @@
         <v>178</v>
       </c>
       <c r="G247" s="39" t="s">
-        <v>782</v>
+        <v>772</v>
       </c>
     </row>
     <row r="248" spans="1:7" ht="51" x14ac:dyDescent="0.2">
@@ -33653,7 +33659,7 @@
         <v>179</v>
       </c>
       <c r="G248" s="38" t="s">
-        <v>783</v>
+        <v>773</v>
       </c>
     </row>
     <row r="249" spans="1:7" ht="51" x14ac:dyDescent="0.2">
@@ -33878,7 +33884,7 @@
         <v>172</v>
       </c>
       <c r="G257" s="39" t="s">
-        <v>795</v>
+        <v>785</v>
       </c>
     </row>
     <row r="258" spans="1:7" ht="51" x14ac:dyDescent="0.2">
@@ -33903,7 +33909,7 @@
         <v>176</v>
       </c>
       <c r="G258" s="38" t="s">
-        <v>796</v>
+        <v>786</v>
       </c>
     </row>
     <row r="259" spans="1:7" ht="51" x14ac:dyDescent="0.2">
@@ -33928,7 +33934,7 @@
         <v>178</v>
       </c>
       <c r="G259" s="39" t="s">
-        <v>797</v>
+        <v>787</v>
       </c>
     </row>
     <row r="260" spans="1:7" ht="51" x14ac:dyDescent="0.2">
@@ -33953,7 +33959,7 @@
         <v>179</v>
       </c>
       <c r="G260" s="38" t="s">
-        <v>798</v>
+        <v>788</v>
       </c>
     </row>
     <row r="261" spans="1:7" ht="68" x14ac:dyDescent="0.2">
@@ -33966,7 +33972,7 @@
         <v>The effects of habitat, climate, and Barred Owls on long-term demography of Northern Spotted Owls</v>
       </c>
       <c r="C261" s="39" t="s">
-        <v>803</v>
+        <v>793</v>
       </c>
       <c r="D261" s="39" t="s">
         <v>368</v>
@@ -33978,7 +33984,7 @@
         <v>172</v>
       </c>
       <c r="G261" s="39" t="s">
-        <v>807</v>
+        <v>797</v>
       </c>
     </row>
     <row r="262" spans="1:7" ht="68" x14ac:dyDescent="0.2">
@@ -33991,7 +33997,7 @@
         <v>The effects of habitat, climate, and Barred Owls on long-term demography of Northern Spotted Owls</v>
       </c>
       <c r="C262" s="38" t="s">
-        <v>803</v>
+        <v>793</v>
       </c>
       <c r="D262" s="38" t="s">
         <v>368</v>
@@ -34003,7 +34009,7 @@
         <v>176</v>
       </c>
       <c r="G262" s="38" t="s">
-        <v>806</v>
+        <v>796</v>
       </c>
     </row>
     <row r="263" spans="1:7" ht="68" x14ac:dyDescent="0.2">
@@ -34016,7 +34022,7 @@
         <v>The effects of habitat, climate, and Barred Owls on long-term demography of Northern Spotted Owls</v>
       </c>
       <c r="C263" s="39" t="s">
-        <v>803</v>
+        <v>793</v>
       </c>
       <c r="D263" s="39" t="s">
         <v>368</v>
@@ -34028,7 +34034,7 @@
         <v>178</v>
       </c>
       <c r="G263" s="39" t="s">
-        <v>806</v>
+        <v>796</v>
       </c>
     </row>
     <row r="264" spans="1:7" ht="68" x14ac:dyDescent="0.2">
@@ -34041,7 +34047,7 @@
         <v>The effects of habitat, climate, and Barred Owls on long-term demography of Northern Spotted Owls</v>
       </c>
       <c r="C264" s="38" t="s">
-        <v>803</v>
+        <v>793</v>
       </c>
       <c r="D264" s="38" t="s">
         <v>368</v>
@@ -34053,7 +34059,7 @@
         <v>179</v>
       </c>
       <c r="G264" s="38" t="s">
-        <v>808</v>
+        <v>798</v>
       </c>
     </row>
     <row r="265" spans="1:7" ht="68" x14ac:dyDescent="0.2">
@@ -34066,7 +34072,7 @@
         <v>The effects of habitat, climate, and Barred Owls on long-term demography of Northern Spotted Owls</v>
       </c>
       <c r="C265" s="39" t="s">
-        <v>803</v>
+        <v>793</v>
       </c>
       <c r="D265" s="39" t="s">
         <v>368</v>
@@ -34091,7 +34097,7 @@
         <v>The effects of habitat, climate, and Barred Owls on long-term demography of Northern Spotted Owls</v>
       </c>
       <c r="C266" s="38" t="s">
-        <v>803</v>
+        <v>793</v>
       </c>
       <c r="D266" s="38" t="s">
         <v>368</v>
@@ -34103,7 +34109,7 @@
         <v>176</v>
       </c>
       <c r="G266" s="38" t="s">
-        <v>806</v>
+        <v>796</v>
       </c>
     </row>
     <row r="267" spans="1:7" ht="68" x14ac:dyDescent="0.2">
@@ -34116,7 +34122,7 @@
         <v>The effects of habitat, climate, and Barred Owls on long-term demography of Northern Spotted Owls</v>
       </c>
       <c r="C267" s="39" t="s">
-        <v>803</v>
+        <v>793</v>
       </c>
       <c r="D267" s="39" t="s">
         <v>368</v>
@@ -34128,7 +34134,7 @@
         <v>178</v>
       </c>
       <c r="G267" s="39" t="s">
-        <v>806</v>
+        <v>796</v>
       </c>
     </row>
     <row r="268" spans="1:7" ht="68" x14ac:dyDescent="0.2">
@@ -34141,7 +34147,7 @@
         <v>The effects of habitat, climate, and Barred Owls on long-term demography of Northern Spotted Owls</v>
       </c>
       <c r="C268" s="38" t="s">
-        <v>803</v>
+        <v>793</v>
       </c>
       <c r="D268" s="38" t="s">
         <v>368</v>
@@ -34153,7 +34159,7 @@
         <v>179</v>
       </c>
       <c r="G268" s="38" t="s">
-        <v>808</v>
+        <v>798</v>
       </c>
     </row>
     <row r="269" spans="1:7" ht="68" x14ac:dyDescent="0.2">
@@ -34178,7 +34184,7 @@
         <v>172</v>
       </c>
       <c r="G269" s="39" t="s">
-        <v>815</v>
+        <v>805</v>
       </c>
     </row>
     <row r="270" spans="1:7" ht="51" x14ac:dyDescent="0.2">
@@ -34203,7 +34209,7 @@
         <v>176</v>
       </c>
       <c r="G270" s="38" t="s">
-        <v>816</v>
+        <v>806</v>
       </c>
     </row>
     <row r="271" spans="1:7" ht="51" x14ac:dyDescent="0.2">
@@ -34253,7 +34259,7 @@
         <v>179</v>
       </c>
       <c r="G272" s="38" t="s">
-        <v>814</v>
+        <v>804</v>
       </c>
     </row>
     <row r="273" spans="1:7" ht="68" x14ac:dyDescent="0.2">
@@ -34278,7 +34284,7 @@
         <v>172</v>
       </c>
       <c r="G273" s="39" t="s">
-        <v>820</v>
+        <v>810</v>
       </c>
     </row>
     <row r="274" spans="1:7" ht="68" x14ac:dyDescent="0.2">
@@ -34303,7 +34309,7 @@
         <v>173</v>
       </c>
       <c r="G274" s="38" t="s">
-        <v>821</v>
+        <v>811</v>
       </c>
     </row>
     <row r="275" spans="1:7" ht="68" x14ac:dyDescent="0.2">
@@ -34361,7 +34367,7 @@
         <v>34</v>
       </c>
       <c r="B277" s="39" t="s">
-        <v>817</v>
+        <v>807</v>
       </c>
       <c r="C277" s="39" t="s">
         <v>368</v>
@@ -34401,7 +34407,7 @@
         <v>172</v>
       </c>
       <c r="G278" s="38" t="s">
-        <v>826</v>
+        <v>816</v>
       </c>
     </row>
     <row r="279" spans="1:7" ht="34" x14ac:dyDescent="0.2">
@@ -34426,7 +34432,7 @@
         <v>176</v>
       </c>
       <c r="G279" s="39" t="s">
-        <v>827</v>
+        <v>817</v>
       </c>
     </row>
     <row r="280" spans="1:7" ht="34" x14ac:dyDescent="0.2">
@@ -34451,7 +34457,7 @@
         <v>178</v>
       </c>
       <c r="G280" s="38" t="s">
-        <v>827</v>
+        <v>817</v>
       </c>
     </row>
     <row r="281" spans="1:7" ht="34" x14ac:dyDescent="0.2">
@@ -34501,7 +34507,7 @@
         <v>172</v>
       </c>
       <c r="G282" s="38" t="s">
-        <v>833</v>
+        <v>823</v>
       </c>
     </row>
     <row r="283" spans="1:7" ht="51" x14ac:dyDescent="0.2">
@@ -34526,7 +34532,7 @@
         <v>176</v>
       </c>
       <c r="G283" s="39" t="s">
-        <v>834</v>
+        <v>824</v>
       </c>
     </row>
     <row r="284" spans="1:7" ht="51" x14ac:dyDescent="0.2">
@@ -34551,7 +34557,7 @@
         <v>178</v>
       </c>
       <c r="G284" s="38" t="s">
-        <v>834</v>
+        <v>824</v>
       </c>
     </row>
     <row r="285" spans="1:7" ht="51" x14ac:dyDescent="0.2">
@@ -34576,7 +34582,7 @@
         <v>179</v>
       </c>
       <c r="G285" s="39" t="s">
-        <v>835</v>
+        <v>825</v>
       </c>
     </row>
     <row r="286" spans="1:7" ht="409.6" x14ac:dyDescent="0.2">
@@ -34595,13 +34601,13 @@
         <v>368</v>
       </c>
       <c r="E286" s="38" t="s">
-        <v>775</v>
+        <v>765</v>
       </c>
       <c r="F286" s="38" t="s">
         <v>172</v>
       </c>
       <c r="G286" s="38" t="s">
-        <v>844</v>
+        <v>834</v>
       </c>
     </row>
     <row r="287" spans="1:7" ht="409.6" x14ac:dyDescent="0.2">
@@ -34626,7 +34632,7 @@
         <v>176</v>
       </c>
       <c r="G287" s="39" t="s">
-        <v>843</v>
+        <v>833</v>
       </c>
     </row>
     <row r="288" spans="1:7" ht="409.6" x14ac:dyDescent="0.2">
@@ -34651,7 +34657,7 @@
         <v>178</v>
       </c>
       <c r="G288" s="38" t="s">
-        <v>843</v>
+        <v>833</v>
       </c>
     </row>
     <row r="289" spans="1:7" ht="68" x14ac:dyDescent="0.2">
@@ -34676,7 +34682,7 @@
         <v>179</v>
       </c>
       <c r="G289" s="39" t="s">
-        <v>842</v>
+        <v>832</v>
       </c>
     </row>
     <row r="290" spans="1:7" ht="85" x14ac:dyDescent="0.2">
@@ -34701,7 +34707,7 @@
         <v>176</v>
       </c>
       <c r="G290" s="38" t="s">
-        <v>855</v>
+        <v>845</v>
       </c>
     </row>
     <row r="291" spans="1:7" ht="85" x14ac:dyDescent="0.2">
@@ -34726,7 +34732,7 @@
         <v>178</v>
       </c>
       <c r="G291" s="39" t="s">
-        <v>855</v>
+        <v>845</v>
       </c>
     </row>
     <row r="292" spans="1:7" ht="85" x14ac:dyDescent="0.2">
@@ -34745,13 +34751,13 @@
         <v>368</v>
       </c>
       <c r="E292" s="38" t="s">
-        <v>849</v>
+        <v>839</v>
       </c>
       <c r="F292" s="38" t="s">
         <v>175</v>
       </c>
       <c r="G292" s="38" t="s">
-        <v>855</v>
+        <v>845</v>
       </c>
     </row>
     <row r="293" spans="1:7" ht="85" x14ac:dyDescent="0.2">
@@ -34770,13 +34776,13 @@
         <v>368</v>
       </c>
       <c r="E293" s="39" t="s">
-        <v>850</v>
+        <v>840</v>
       </c>
       <c r="F293" s="39" t="s">
         <v>175</v>
       </c>
       <c r="G293" s="39" t="s">
-        <v>855</v>
+        <v>845</v>
       </c>
     </row>
     <row r="294" spans="1:7" ht="85" x14ac:dyDescent="0.2">
@@ -34795,13 +34801,13 @@
         <v>368</v>
       </c>
       <c r="E294" s="38" t="s">
-        <v>851</v>
+        <v>841</v>
       </c>
       <c r="F294" s="38" t="s">
         <v>175</v>
       </c>
       <c r="G294" s="38" t="s">
-        <v>855</v>
+        <v>845</v>
       </c>
     </row>
     <row r="295" spans="1:7" ht="85" x14ac:dyDescent="0.2">
@@ -34820,13 +34826,13 @@
         <v>368</v>
       </c>
       <c r="E295" s="39" t="s">
-        <v>852</v>
+        <v>842</v>
       </c>
       <c r="F295" s="39" t="s">
         <v>175</v>
       </c>
       <c r="G295" s="39" t="s">
-        <v>855</v>
+        <v>845</v>
       </c>
     </row>
     <row r="296" spans="1:7" ht="85" x14ac:dyDescent="0.2">
@@ -34870,7 +34876,7 @@
         <v>368</v>
       </c>
       <c r="E297" s="39" t="s">
-        <v>853</v>
+        <v>843</v>
       </c>
       <c r="F297" s="39" t="s">
         <v>181</v>
@@ -34895,7 +34901,7 @@
         <v>368</v>
       </c>
       <c r="E298" s="38" t="s">
-        <v>854</v>
+        <v>844</v>
       </c>
       <c r="F298" s="38" t="s">
         <v>181</v>
@@ -35001,7 +35007,7 @@
         <v>179</v>
       </c>
       <c r="G302" s="38" t="s">
-        <v>1041</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="303" spans="1:7" ht="51" x14ac:dyDescent="0.2">
@@ -35026,7 +35032,7 @@
         <v>172</v>
       </c>
       <c r="G303" s="39" t="s">
-        <v>871</v>
+        <v>861</v>
       </c>
     </row>
     <row r="304" spans="1:7" ht="68" x14ac:dyDescent="0.2">
@@ -35051,7 +35057,7 @@
         <v>176</v>
       </c>
       <c r="G304" s="38" t="s">
-        <v>872</v>
+        <v>862</v>
       </c>
     </row>
     <row r="305" spans="1:7" ht="68" x14ac:dyDescent="0.2">
@@ -35076,7 +35082,7 @@
         <v>178</v>
       </c>
       <c r="G305" s="39" t="s">
-        <v>872</v>
+        <v>862</v>
       </c>
     </row>
     <row r="306" spans="1:7" ht="51" x14ac:dyDescent="0.2">
@@ -35101,7 +35107,7 @@
         <v>179</v>
       </c>
       <c r="G306" s="38" t="s">
-        <v>871</v>
+        <v>861</v>
       </c>
     </row>
     <row r="307" spans="1:7" ht="68" x14ac:dyDescent="0.2">
@@ -35126,7 +35132,7 @@
         <v>172</v>
       </c>
       <c r="G307" s="39" t="s">
-        <v>878</v>
+        <v>868</v>
       </c>
     </row>
     <row r="308" spans="1:7" ht="68" x14ac:dyDescent="0.2">
@@ -35151,7 +35157,7 @@
         <v>176</v>
       </c>
       <c r="G308" s="38" t="s">
-        <v>891</v>
+        <v>881</v>
       </c>
     </row>
     <row r="309" spans="1:7" ht="68" x14ac:dyDescent="0.2">
@@ -35176,7 +35182,7 @@
         <v>178</v>
       </c>
       <c r="G309" s="39" t="s">
-        <v>891</v>
+        <v>881</v>
       </c>
     </row>
     <row r="310" spans="1:7" ht="68" x14ac:dyDescent="0.2">
@@ -35195,13 +35201,13 @@
         <v>368</v>
       </c>
       <c r="E310" s="38" t="s">
-        <v>876</v>
+        <v>866</v>
       </c>
       <c r="F310" s="38" t="s">
         <v>181</v>
       </c>
       <c r="G310" s="38" t="s">
-        <v>891</v>
+        <v>881</v>
       </c>
     </row>
     <row r="311" spans="1:7" ht="68" x14ac:dyDescent="0.2">
@@ -35220,7 +35226,7 @@
         <v>368</v>
       </c>
       <c r="E311" s="39" t="s">
-        <v>877</v>
+        <v>867</v>
       </c>
       <c r="F311" s="39" t="s">
         <v>181</v>
@@ -35276,7 +35282,7 @@
         <v>176</v>
       </c>
       <c r="G313" s="39" t="s">
-        <v>881</v>
+        <v>871</v>
       </c>
     </row>
     <row r="314" spans="1:7" ht="68" x14ac:dyDescent="0.2">
@@ -35301,7 +35307,7 @@
         <v>178</v>
       </c>
       <c r="G314" s="38" t="s">
-        <v>881</v>
+        <v>871</v>
       </c>
     </row>
     <row r="315" spans="1:7" ht="68" x14ac:dyDescent="0.2">
@@ -35326,7 +35332,7 @@
         <v>179</v>
       </c>
       <c r="G315" s="39" t="s">
-        <v>881</v>
+        <v>871</v>
       </c>
     </row>
     <row r="316" spans="1:7" ht="51" x14ac:dyDescent="0.2">
@@ -35476,7 +35482,7 @@
         <v>176</v>
       </c>
       <c r="G321" s="39" t="s">
-        <v>894</v>
+        <v>884</v>
       </c>
     </row>
     <row r="322" spans="1:7" ht="51" x14ac:dyDescent="0.2">
@@ -35501,7 +35507,7 @@
         <v>178</v>
       </c>
       <c r="G322" s="38" t="s">
-        <v>892</v>
+        <v>882</v>
       </c>
     </row>
     <row r="323" spans="1:7" ht="51" x14ac:dyDescent="0.2">
@@ -35526,7 +35532,7 @@
         <v>179</v>
       </c>
       <c r="G323" s="39" t="s">
-        <v>893</v>
+        <v>883</v>
       </c>
     </row>
     <row r="324" spans="1:7" ht="51" x14ac:dyDescent="0.2">
@@ -35551,7 +35557,7 @@
         <v>172</v>
       </c>
       <c r="G324" s="38" t="s">
-        <v>900</v>
+        <v>890</v>
       </c>
     </row>
     <row r="325" spans="1:7" ht="51" x14ac:dyDescent="0.2">
@@ -35576,7 +35582,7 @@
         <v>176</v>
       </c>
       <c r="G325" s="39" t="s">
-        <v>901</v>
+        <v>891</v>
       </c>
     </row>
     <row r="326" spans="1:7" ht="68" x14ac:dyDescent="0.2">
@@ -35601,7 +35607,7 @@
         <v>178</v>
       </c>
       <c r="G326" s="38" t="s">
-        <v>902</v>
+        <v>892</v>
       </c>
     </row>
     <row r="327" spans="1:7" ht="51" x14ac:dyDescent="0.2">
@@ -35626,7 +35632,7 @@
         <v>179</v>
       </c>
       <c r="G327" s="39" t="s">
-        <v>903</v>
+        <v>893</v>
       </c>
     </row>
     <row r="328" spans="1:7" ht="68" x14ac:dyDescent="0.2">
@@ -35645,13 +35651,13 @@
         <v>368</v>
       </c>
       <c r="E328" s="38" t="s">
-        <v>899</v>
+        <v>889</v>
       </c>
       <c r="F328" s="38" t="s">
         <v>336</v>
       </c>
       <c r="G328" s="38" t="s">
-        <v>904</v>
+        <v>894</v>
       </c>
     </row>
     <row r="329" spans="1:7" ht="34" x14ac:dyDescent="0.2">
@@ -35801,7 +35807,7 @@
         <v>176</v>
       </c>
       <c r="G334" s="38" t="s">
-        <v>911</v>
+        <v>901</v>
       </c>
     </row>
     <row r="335" spans="1:7" ht="68" x14ac:dyDescent="0.2">
@@ -35826,7 +35832,7 @@
         <v>178</v>
       </c>
       <c r="G335" s="39" t="s">
-        <v>911</v>
+        <v>901</v>
       </c>
     </row>
     <row r="336" spans="1:7" ht="68" x14ac:dyDescent="0.2">
@@ -35851,7 +35857,7 @@
         <v>179</v>
       </c>
       <c r="G336" s="38" t="s">
-        <v>912</v>
+        <v>902</v>
       </c>
     </row>
     <row r="337" spans="1:7" ht="68" x14ac:dyDescent="0.2">
@@ -35876,7 +35882,7 @@
         <v>172</v>
       </c>
       <c r="G337" s="39" t="s">
-        <v>918</v>
+        <v>908</v>
       </c>
     </row>
     <row r="338" spans="1:7" ht="68" x14ac:dyDescent="0.2">
@@ -35901,7 +35907,7 @@
         <v>176</v>
       </c>
       <c r="G338" s="38" t="s">
-        <v>919</v>
+        <v>909</v>
       </c>
     </row>
     <row r="339" spans="1:7" ht="68" x14ac:dyDescent="0.2">
@@ -35926,7 +35932,7 @@
         <v>178</v>
       </c>
       <c r="G339" s="39" t="s">
-        <v>919</v>
+        <v>909</v>
       </c>
     </row>
     <row r="340" spans="1:7" ht="68" x14ac:dyDescent="0.2">
@@ -35951,7 +35957,7 @@
         <v>179</v>
       </c>
       <c r="G340" s="38" t="s">
-        <v>920</v>
+        <v>910</v>
       </c>
     </row>
     <row r="341" spans="1:7" ht="68" x14ac:dyDescent="0.2">
@@ -35976,7 +35982,7 @@
         <v>172</v>
       </c>
       <c r="G341" s="39" t="s">
-        <v>928</v>
+        <v>918</v>
       </c>
     </row>
     <row r="342" spans="1:7" ht="68" x14ac:dyDescent="0.2">
@@ -36001,7 +36007,7 @@
         <v>176</v>
       </c>
       <c r="G342" s="38" t="s">
-        <v>929</v>
+        <v>919</v>
       </c>
     </row>
     <row r="343" spans="1:7" ht="68" x14ac:dyDescent="0.2">
@@ -36026,7 +36032,7 @@
         <v>178</v>
       </c>
       <c r="G343" s="39" t="s">
-        <v>929</v>
+        <v>919</v>
       </c>
     </row>
     <row r="344" spans="1:7" ht="68" x14ac:dyDescent="0.2">
@@ -36051,7 +36057,7 @@
         <v>179</v>
       </c>
       <c r="G344" s="38" t="s">
-        <v>920</v>
+        <v>910</v>
       </c>
     </row>
     <row r="345" spans="1:7" ht="85" x14ac:dyDescent="0.2">
@@ -36076,7 +36082,7 @@
         <v>172</v>
       </c>
       <c r="G345" s="39" t="s">
-        <v>934</v>
+        <v>924</v>
       </c>
     </row>
     <row r="346" spans="1:7" ht="85" x14ac:dyDescent="0.2">
@@ -36101,7 +36107,7 @@
         <v>176</v>
       </c>
       <c r="G346" s="38" t="s">
-        <v>935</v>
+        <v>925</v>
       </c>
     </row>
     <row r="347" spans="1:7" ht="85" x14ac:dyDescent="0.2">
@@ -36126,7 +36132,7 @@
         <v>178</v>
       </c>
       <c r="G347" s="39" t="s">
-        <v>935</v>
+        <v>925</v>
       </c>
     </row>
     <row r="348" spans="1:7" ht="85" x14ac:dyDescent="0.2">
@@ -36151,7 +36157,7 @@
         <v>179</v>
       </c>
       <c r="G348" s="38" t="s">
-        <v>933</v>
+        <v>923</v>
       </c>
     </row>
     <row r="349" spans="1:7" ht="51" x14ac:dyDescent="0.2">
@@ -36176,7 +36182,7 @@
         <v>173</v>
       </c>
       <c r="G349" s="39" t="s">
-        <v>941</v>
+        <v>931</v>
       </c>
     </row>
     <row r="350" spans="1:7" ht="51" x14ac:dyDescent="0.2">
@@ -36226,7 +36232,7 @@
         <v>179</v>
       </c>
       <c r="G351" s="39" t="s">
-        <v>940</v>
+        <v>930</v>
       </c>
     </row>
     <row r="352" spans="1:7" ht="68" x14ac:dyDescent="0.2">
@@ -36251,7 +36257,7 @@
         <v>172</v>
       </c>
       <c r="G352" s="38" t="s">
-        <v>949</v>
+        <v>939</v>
       </c>
     </row>
     <row r="353" spans="1:7" ht="68" x14ac:dyDescent="0.2">
@@ -36270,13 +36276,13 @@
         <v>368</v>
       </c>
       <c r="E353" s="39" t="s">
-        <v>948</v>
+        <v>938</v>
       </c>
       <c r="F353" s="39" t="s">
         <v>336</v>
       </c>
       <c r="G353" s="39" t="s">
-        <v>949</v>
+        <v>939</v>
       </c>
     </row>
     <row r="354" spans="1:7" ht="68" x14ac:dyDescent="0.2">
@@ -36301,7 +36307,7 @@
         <v>175</v>
       </c>
       <c r="G354" s="38" t="s">
-        <v>950</v>
+        <v>940</v>
       </c>
     </row>
     <row r="355" spans="1:7" ht="68" x14ac:dyDescent="0.2">
@@ -36320,13 +36326,13 @@
         <v>368</v>
       </c>
       <c r="E355" s="39" t="s">
-        <v>899</v>
+        <v>889</v>
       </c>
       <c r="F355" s="39" t="s">
         <v>175</v>
       </c>
       <c r="G355" s="39" t="s">
-        <v>950</v>
+        <v>940</v>
       </c>
     </row>
     <row r="356" spans="1:7" ht="68" x14ac:dyDescent="0.2">
@@ -36351,7 +36357,7 @@
         <v>179</v>
       </c>
       <c r="G356" s="38" t="s">
-        <v>951</v>
+        <v>941</v>
       </c>
     </row>
     <row r="357" spans="1:7" ht="68" x14ac:dyDescent="0.2">
@@ -36370,7 +36376,7 @@
         <v>368</v>
       </c>
       <c r="E357" s="39" t="s">
-        <v>854</v>
+        <v>844</v>
       </c>
       <c r="F357" s="39" t="s">
         <v>181</v>
@@ -36401,7 +36407,7 @@
         <v>172</v>
       </c>
       <c r="G358" s="38" t="s">
-        <v>956</v>
+        <v>946</v>
       </c>
     </row>
     <row r="359" spans="1:7" ht="51" x14ac:dyDescent="0.2">
@@ -36476,7 +36482,7 @@
         <v>179</v>
       </c>
       <c r="G361" s="39" t="s">
-        <v>957</v>
+        <v>947</v>
       </c>
     </row>
     <row r="362" spans="1:7" ht="68" x14ac:dyDescent="0.2">
@@ -36501,7 +36507,7 @@
         <v>172</v>
       </c>
       <c r="G362" s="38" t="s">
-        <v>961</v>
+        <v>951</v>
       </c>
     </row>
     <row r="363" spans="1:7" ht="68" x14ac:dyDescent="0.2">
@@ -36526,7 +36532,7 @@
         <v>176</v>
       </c>
       <c r="G363" s="39" t="s">
-        <v>962</v>
+        <v>952</v>
       </c>
     </row>
     <row r="364" spans="1:7" ht="68" x14ac:dyDescent="0.2">
@@ -36551,7 +36557,7 @@
         <v>178</v>
       </c>
       <c r="G364" s="38" t="s">
-        <v>962</v>
+        <v>952</v>
       </c>
     </row>
     <row r="365" spans="1:7" ht="68" x14ac:dyDescent="0.2">
@@ -36576,7 +36582,7 @@
         <v>179</v>
       </c>
       <c r="G365" s="39" t="s">
-        <v>962</v>
+        <v>952</v>
       </c>
     </row>
     <row r="366" spans="1:7" ht="68" x14ac:dyDescent="0.2">
@@ -36676,7 +36682,7 @@
         <v>179</v>
       </c>
       <c r="G369" s="39" t="s">
-        <v>967</v>
+        <v>957</v>
       </c>
     </row>
     <row r="370" spans="1:7" ht="34" x14ac:dyDescent="0.2">
@@ -36701,7 +36707,7 @@
         <v>172</v>
       </c>
       <c r="G370" s="38" t="s">
-        <v>975</v>
+        <v>965</v>
       </c>
     </row>
     <row r="371" spans="1:7" ht="34" x14ac:dyDescent="0.2">
@@ -36726,7 +36732,7 @@
         <v>176</v>
       </c>
       <c r="G371" s="39" t="s">
-        <v>976</v>
+        <v>966</v>
       </c>
     </row>
     <row r="372" spans="1:7" ht="34" x14ac:dyDescent="0.2">
@@ -36751,7 +36757,7 @@
         <v>178</v>
       </c>
       <c r="G372" s="38" t="s">
-        <v>976</v>
+        <v>966</v>
       </c>
     </row>
     <row r="373" spans="1:7" ht="34" x14ac:dyDescent="0.2">
@@ -36776,7 +36782,7 @@
         <v>179</v>
       </c>
       <c r="G373" s="39" t="s">
-        <v>977</v>
+        <v>967</v>
       </c>
     </row>
     <row r="374" spans="1:7" ht="34" x14ac:dyDescent="0.2">
@@ -36801,7 +36807,7 @@
         <v>172</v>
       </c>
       <c r="G374" s="38" t="s">
-        <v>975</v>
+        <v>965</v>
       </c>
     </row>
     <row r="375" spans="1:7" ht="34" x14ac:dyDescent="0.2">
@@ -36826,7 +36832,7 @@
         <v>176</v>
       </c>
       <c r="G375" s="39" t="s">
-        <v>976</v>
+        <v>966</v>
       </c>
     </row>
     <row r="376" spans="1:7" ht="34" x14ac:dyDescent="0.2">
@@ -36851,7 +36857,7 @@
         <v>178</v>
       </c>
       <c r="G376" s="38" t="s">
-        <v>976</v>
+        <v>966</v>
       </c>
     </row>
     <row r="377" spans="1:7" ht="34" x14ac:dyDescent="0.2">
@@ -36876,7 +36882,7 @@
         <v>179</v>
       </c>
       <c r="G377" s="39" t="s">
-        <v>978</v>
+        <v>968</v>
       </c>
     </row>
     <row r="378" spans="1:7" ht="51" x14ac:dyDescent="0.2">
@@ -36889,7 +36895,7 @@
         <v>Experimentally testing the response of feral cats and their prey to poison baiting</v>
       </c>
       <c r="C378" s="38" t="s">
-        <v>982</v>
+        <v>972</v>
       </c>
       <c r="D378" s="38" t="s">
         <v>368</v>
@@ -36901,7 +36907,7 @@
         <v>172</v>
       </c>
       <c r="G378" s="38" t="s">
-        <v>985</v>
+        <v>975</v>
       </c>
     </row>
     <row r="379" spans="1:7" ht="51" x14ac:dyDescent="0.2">
@@ -36914,7 +36920,7 @@
         <v>Experimentally testing the response of feral cats and their prey to poison baiting</v>
       </c>
       <c r="C379" s="39" t="s">
-        <v>982</v>
+        <v>972</v>
       </c>
       <c r="D379" s="39" t="s">
         <v>368</v>
@@ -36939,7 +36945,7 @@
         <v>Experimentally testing the response of feral cats and their prey to poison baiting</v>
       </c>
       <c r="C380" s="38" t="s">
-        <v>982</v>
+        <v>972</v>
       </c>
       <c r="D380" s="38" t="s">
         <v>368</v>
@@ -36951,7 +36957,7 @@
         <v>178</v>
       </c>
       <c r="G380" s="38" t="s">
-        <v>985</v>
+        <v>975</v>
       </c>
     </row>
     <row r="381" spans="1:7" ht="51" x14ac:dyDescent="0.2">
@@ -36964,7 +36970,7 @@
         <v>Experimentally testing the response of feral cats and their prey to poison baiting</v>
       </c>
       <c r="C381" s="39" t="s">
-        <v>982</v>
+        <v>972</v>
       </c>
       <c r="D381" s="39" t="s">
         <v>368</v>
@@ -36976,7 +36982,7 @@
         <v>179</v>
       </c>
       <c r="G381" s="39" t="s">
-        <v>984</v>
+        <v>974</v>
       </c>
     </row>
     <row r="382" spans="1:7" ht="68" x14ac:dyDescent="0.2">
@@ -37026,7 +37032,7 @@
         <v>176</v>
       </c>
       <c r="G383" s="39" t="s">
-        <v>990</v>
+        <v>980</v>
       </c>
     </row>
     <row r="384" spans="1:7" ht="68" x14ac:dyDescent="0.2">
@@ -37051,7 +37057,7 @@
         <v>178</v>
       </c>
       <c r="G384" s="38" t="s">
-        <v>990</v>
+        <v>980</v>
       </c>
     </row>
     <row r="385" spans="1:7" ht="68" x14ac:dyDescent="0.2">
@@ -37076,7 +37082,7 @@
         <v>179</v>
       </c>
       <c r="G385" s="39" t="s">
-        <v>991</v>
+        <v>981</v>
       </c>
     </row>
     <row r="386" spans="1:7" ht="68" x14ac:dyDescent="0.2">
@@ -37101,7 +37107,7 @@
         <v>173</v>
       </c>
       <c r="G386" s="38" t="s">
-        <v>910</v>
+        <v>900</v>
       </c>
     </row>
     <row r="387" spans="1:7" ht="68" x14ac:dyDescent="0.2">
@@ -37151,7 +37157,7 @@
         <v>179</v>
       </c>
       <c r="G388" s="38" t="s">
-        <v>995</v>
+        <v>985</v>
       </c>
     </row>
     <row r="389" spans="1:7" ht="68" x14ac:dyDescent="0.2">
@@ -37201,7 +37207,7 @@
         <v>176</v>
       </c>
       <c r="G390" s="38" t="s">
-        <v>996</v>
+        <v>986</v>
       </c>
     </row>
     <row r="391" spans="1:7" ht="68" x14ac:dyDescent="0.2">
@@ -37226,7 +37232,7 @@
         <v>178</v>
       </c>
       <c r="G391" s="39" t="s">
-        <v>996</v>
+        <v>986</v>
       </c>
     </row>
     <row r="392" spans="1:7" ht="68" x14ac:dyDescent="0.2">
@@ -37276,7 +37282,7 @@
         <v>172</v>
       </c>
       <c r="G393" s="39" t="s">
-        <v>1039</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="394" spans="1:7" ht="187" x14ac:dyDescent="0.2">
@@ -37301,7 +37307,7 @@
         <v>176</v>
       </c>
       <c r="G394" s="38" t="s">
-        <v>1040</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="395" spans="1:7" ht="187" x14ac:dyDescent="0.2">
@@ -37326,7 +37332,7 @@
         <v>178</v>
       </c>
       <c r="G395" s="39" t="s">
-        <v>1040</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="396" spans="1:7" ht="102" x14ac:dyDescent="0.2">
@@ -37351,7 +37357,7 @@
         <v>179</v>
       </c>
       <c r="G396" s="38" t="s">
-        <v>1000</v>
+        <v>990</v>
       </c>
     </row>
     <row r="397" spans="1:7" ht="85" x14ac:dyDescent="0.2">
@@ -37376,7 +37382,7 @@
         <v>173</v>
       </c>
       <c r="G397" s="39" t="s">
-        <v>1005</v>
+        <v>995</v>
       </c>
     </row>
     <row r="398" spans="1:7" ht="85" x14ac:dyDescent="0.2">
@@ -37401,7 +37407,7 @@
         <v>176</v>
       </c>
       <c r="G398" s="38" t="s">
-        <v>1005</v>
+        <v>995</v>
       </c>
     </row>
     <row r="399" spans="1:7" ht="85" x14ac:dyDescent="0.2">
@@ -37426,7 +37432,7 @@
         <v>178</v>
       </c>
       <c r="G399" s="39" t="s">
-        <v>1005</v>
+        <v>995</v>
       </c>
     </row>
     <row r="400" spans="1:7" ht="85" x14ac:dyDescent="0.2">
@@ -37476,7 +37482,7 @@
         <v>173</v>
       </c>
       <c r="G401" s="39" t="s">
-        <v>1011</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="402" spans="1:7" ht="68" x14ac:dyDescent="0.2">
@@ -37501,7 +37507,7 @@
         <v>178</v>
       </c>
       <c r="G402" s="38" t="s">
-        <v>1011</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="403" spans="1:7" ht="68" x14ac:dyDescent="0.2">
@@ -37576,7 +37582,7 @@
         <v>176</v>
       </c>
       <c r="G405" s="39" t="s">
-        <v>1016</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="406" spans="1:7" ht="119" x14ac:dyDescent="0.2">
@@ -37601,7 +37607,7 @@
         <v>178</v>
       </c>
       <c r="G406" s="38" t="s">
-        <v>1016</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="407" spans="1:7" ht="51" x14ac:dyDescent="0.2">
@@ -37645,7 +37651,7 @@
         <v>368</v>
       </c>
       <c r="E408" s="38" t="s">
-        <v>1023</v>
+        <v>1013</v>
       </c>
       <c r="F408" s="38" t="s">
         <v>172</v>
@@ -37670,13 +37676,13 @@
         <v>368</v>
       </c>
       <c r="E409" s="39" t="s">
-        <v>1024</v>
+        <v>1014</v>
       </c>
       <c r="F409" s="39" t="s">
         <v>176</v>
       </c>
       <c r="G409" s="39" t="s">
-        <v>892</v>
+        <v>882</v>
       </c>
     </row>
     <row r="410" spans="1:7" ht="85" x14ac:dyDescent="0.2">
@@ -37695,13 +37701,13 @@
         <v>368</v>
       </c>
       <c r="E410" s="38" t="s">
-        <v>1025</v>
+        <v>1015</v>
       </c>
       <c r="F410" s="38" t="s">
         <v>178</v>
       </c>
       <c r="G410" s="38" t="s">
-        <v>892</v>
+        <v>882</v>
       </c>
     </row>
     <row r="411" spans="1:7" ht="85" x14ac:dyDescent="0.2">
@@ -37720,7 +37726,7 @@
         <v>368</v>
       </c>
       <c r="E411" s="39" t="s">
-        <v>1026</v>
+        <v>1016</v>
       </c>
       <c r="F411" s="39" t="s">
         <v>179</v>
@@ -37776,7 +37782,7 @@
         <v>176</v>
       </c>
       <c r="G413" s="39" t="s">
-        <v>1037</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="414" spans="1:7" ht="85" x14ac:dyDescent="0.2">
@@ -37801,7 +37807,7 @@
         <v>178</v>
       </c>
       <c r="G414" s="38" t="s">
-        <v>1037</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="415" spans="1:7" ht="85" x14ac:dyDescent="0.2">
@@ -37826,7 +37832,7 @@
         <v>179</v>
       </c>
       <c r="G415" s="39" t="s">
-        <v>1034</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="416" spans="1:7" ht="85" x14ac:dyDescent="0.2">
@@ -37845,13 +37851,13 @@
         <v>368</v>
       </c>
       <c r="E416" s="38" t="s">
-        <v>1032</v>
+        <v>1022</v>
       </c>
       <c r="F416" s="38" t="s">
         <v>181</v>
       </c>
       <c r="G416" s="38" t="s">
-        <v>1035</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="417" spans="1:7" ht="85" x14ac:dyDescent="0.2">
@@ -37870,13 +37876,13 @@
         <v>368</v>
       </c>
       <c r="E417" s="52" t="s">
-        <v>1033</v>
+        <v>1023</v>
       </c>
       <c r="F417" s="52" t="s">
         <v>181</v>
       </c>
       <c r="G417" s="52" t="s">
-        <v>1036</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="418" spans="1:7" x14ac:dyDescent="0.2"/>
@@ -38004,7 +38010,6 @@
     <row r="540" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
@@ -38024,9 +38029,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75A75B7C-E7E1-234A-BD6D-A3B2966FCDDB}">
   <dimension ref="A1:L171"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I38" sqref="I38"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F53" sqref="F53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" zeroHeight="1" x14ac:dyDescent="0.2"/>
@@ -39612,7 +39617,7 @@
         <v>368</v>
       </c>
       <c r="E43" s="38" t="s">
-        <v>250</v>
+        <v>173</v>
       </c>
       <c r="F43" s="38" t="s">
         <v>260</v>
@@ -39698,7 +39703,7 @@
         <v>298</v>
       </c>
       <c r="I45" s="38" t="s">
-        <v>551</v>
+        <v>267</v>
       </c>
       <c r="J45" s="38" t="s">
         <v>280</v>
@@ -39834,7 +39839,7 @@
         <v>398</v>
       </c>
       <c r="E49" s="38" t="s">
-        <v>250</v>
+        <v>173</v>
       </c>
       <c r="F49" s="38" t="s">
         <v>260</v>
@@ -39920,7 +39925,7 @@
         <v>298</v>
       </c>
       <c r="I51" s="38" t="s">
-        <v>371</v>
+        <v>458</v>
       </c>
       <c r="J51" s="38" t="s">
         <v>277</v>
@@ -40370,7 +40375,7 @@
         <v>280</v>
       </c>
       <c r="K63" s="39" t="s">
-        <v>799</v>
+        <v>789</v>
       </c>
     </row>
     <row r="64" spans="1:11" ht="68" x14ac:dyDescent="0.2">
@@ -40383,7 +40388,7 @@
         <v>The effects of habitat, climate, and Barred Owls on long-term demography of Northern Spotted Owls</v>
       </c>
       <c r="C64" s="38" t="s">
-        <v>803</v>
+        <v>793</v>
       </c>
       <c r="D64" s="38" t="s">
         <v>368</v>
@@ -40586,7 +40591,7 @@
         <v>293</v>
       </c>
       <c r="I69" s="39" t="s">
-        <v>845</v>
+        <v>835</v>
       </c>
       <c r="J69" s="39" t="s">
         <v>277</v>
@@ -40623,7 +40628,7 @@
         <v>299</v>
       </c>
       <c r="I70" s="38" t="s">
-        <v>856</v>
+        <v>846</v>
       </c>
       <c r="J70" s="38" t="s">
         <v>280</v>
@@ -40660,7 +40665,7 @@
         <v>299</v>
       </c>
       <c r="I71" s="39" t="s">
-        <v>856</v>
+        <v>846</v>
       </c>
       <c r="J71" s="39" t="s">
         <v>405</v>
@@ -40919,7 +40924,7 @@
         <v>298</v>
       </c>
       <c r="I78" s="38" t="s">
-        <v>856</v>
+        <v>846</v>
       </c>
       <c r="J78" s="38" t="s">
         <v>277</v>
@@ -41252,7 +41257,7 @@
         <v>299</v>
       </c>
       <c r="I87" s="38" t="s">
-        <v>968</v>
+        <v>958</v>
       </c>
       <c r="J87" s="38" t="s">
         <v>280</v>
@@ -41289,7 +41294,7 @@
         <v>293</v>
       </c>
       <c r="I88" s="39" t="s">
-        <v>856</v>
+        <v>846</v>
       </c>
       <c r="J88" s="39" t="s">
         <v>280</v>
@@ -41308,7 +41313,7 @@
         <v>Experimentally testing the response of feral cats and their prey to poison baiting</v>
       </c>
       <c r="C89" s="38" t="s">
-        <v>982</v>
+        <v>972</v>
       </c>
       <c r="D89" s="38" t="s">
         <v>368</v>
@@ -41326,7 +41331,7 @@
         <v>293</v>
       </c>
       <c r="I89" s="38" t="s">
-        <v>968</v>
+        <v>958</v>
       </c>
       <c r="J89" s="38" t="s">
         <v>277</v>
@@ -41474,7 +41479,7 @@
         <v>299</v>
       </c>
       <c r="I93" s="38" t="s">
-        <v>856</v>
+        <v>846</v>
       </c>
       <c r="J93" s="38" t="s">
         <v>280</v>
@@ -41511,7 +41516,7 @@
         <v>57</v>
       </c>
       <c r="I94" s="39" t="s">
-        <v>968</v>
+        <v>958</v>
       </c>
       <c r="J94" s="39" t="s">
         <v>277</v>
@@ -41594,7 +41599,7 @@
         <v>285</v>
       </c>
       <c r="L96" t="s">
-        <v>1027</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="97" spans="1:11" ht="85" x14ac:dyDescent="0.2">
@@ -41625,7 +41630,7 @@
         <v>57</v>
       </c>
       <c r="I97" s="38" t="s">
-        <v>1038</v>
+        <v>1028</v>
       </c>
       <c r="J97" s="38" t="s">
         <v>57</v>
@@ -42262,7 +42267,7 @@
   <dimension ref="A1:G206"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="bottomRight" activeCell="F64" sqref="F64:F69"/>
@@ -42318,7 +42323,7 @@
         <v>0</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>1071</v>
+        <v>1061</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>46</v>
@@ -42332,7 +42337,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>1070</v>
+        <v>1060</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>45</v>
@@ -42346,7 +42351,7 @@
         <v>13</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>1055</v>
+        <v>1045</v>
       </c>
       <c r="D5" s="7" t="s">
         <v>45</v>
@@ -42362,7 +42367,7 @@
         <v>14</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>1054</v>
+        <v>1044</v>
       </c>
       <c r="D6" s="7" t="s">
         <v>45</v>
@@ -42380,7 +42385,7 @@
         <v>3</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>1069</v>
+        <v>1059</v>
       </c>
       <c r="D7" s="9" t="s">
         <v>46</v>
@@ -42394,7 +42399,7 @@
         <v>49</v>
       </c>
       <c r="C8" s="57" t="s">
-        <v>1068</v>
+        <v>1058</v>
       </c>
       <c r="D8" s="58" t="s">
         <v>48</v>
@@ -42460,7 +42465,7 @@
         <v>5</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>1067</v>
+        <v>1057</v>
       </c>
       <c r="D13" s="9" t="s">
         <v>45</v>
@@ -42474,7 +42479,7 @@
         <v>6</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>1066</v>
+        <v>1056</v>
       </c>
       <c r="D14" s="9" t="s">
         <v>51</v>
@@ -42485,10 +42490,10 @@
     <row r="15" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A15" s="84"/>
       <c r="B15" s="24" t="s">
-        <v>1047</v>
+        <v>1037</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>1065</v>
+        <v>1055</v>
       </c>
       <c r="D15" s="9" t="s">
         <v>51</v>
@@ -42506,7 +42511,7 @@
         <v>7</v>
       </c>
       <c r="C16" s="59" t="s">
-        <v>1048</v>
+        <v>1038</v>
       </c>
       <c r="D16" s="59" t="s">
         <v>53</v>
@@ -42571,10 +42576,10 @@
     <row r="21" spans="1:6" ht="85" x14ac:dyDescent="0.2">
       <c r="A21" s="55"/>
       <c r="B21" s="31" t="s">
-        <v>1049</v>
+        <v>1039</v>
       </c>
       <c r="C21" s="32" t="s">
-        <v>1109</v>
+        <v>1099</v>
       </c>
       <c r="D21" s="30" t="s">
         <v>151</v>
@@ -42588,7 +42593,7 @@
         <v>9</v>
       </c>
       <c r="C22" s="32" t="s">
-        <v>1052</v>
+        <v>1042</v>
       </c>
       <c r="D22" s="30" t="s">
         <v>151</v>
@@ -42602,7 +42607,7 @@
         <v>10</v>
       </c>
       <c r="C23" s="32" t="s">
-        <v>1053</v>
+        <v>1043</v>
       </c>
       <c r="D23" s="30" t="s">
         <v>151</v>
@@ -42630,7 +42635,7 @@
         <v>11</v>
       </c>
       <c r="C25" s="32" t="s">
-        <v>1050</v>
+        <v>1040</v>
       </c>
       <c r="D25" s="30" t="s">
         <v>151</v>
@@ -42644,7 +42649,7 @@
         <v>12</v>
       </c>
       <c r="C26" s="32" t="s">
-        <v>1051</v>
+        <v>1041</v>
       </c>
       <c r="D26" s="30" t="s">
         <v>151</v>
@@ -42660,7 +42665,7 @@
         <v>15</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>1063</v>
+        <v>1053</v>
       </c>
       <c r="D27" s="11" t="s">
         <v>45</v>
@@ -42674,7 +42679,7 @@
         <v>17</v>
       </c>
       <c r="C28" s="74" t="s">
-        <v>1062</v>
+        <v>1052</v>
       </c>
       <c r="D28" s="73" t="s">
         <v>53</v>
@@ -42752,7 +42757,7 @@
         <v>18</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>1064</v>
+        <v>1054</v>
       </c>
       <c r="D34" s="11" t="s">
         <v>46</v>
@@ -42766,7 +42771,7 @@
         <v>38</v>
       </c>
       <c r="C35" s="74" t="s">
-        <v>1057</v>
+        <v>1047</v>
       </c>
       <c r="D35" s="73" t="s">
         <v>48</v>
@@ -42820,7 +42825,7 @@
         <v>1</v>
       </c>
       <c r="C39" s="74" t="s">
-        <v>1061</v>
+        <v>1051</v>
       </c>
       <c r="D39" s="73" t="s">
         <v>53</v>
@@ -42934,7 +42939,7 @@
         <v>16</v>
       </c>
       <c r="C48" s="74" t="s">
-        <v>1060</v>
+        <v>1050</v>
       </c>
       <c r="D48" s="73" t="s">
         <v>53</v>
@@ -43050,7 +43055,7 @@
         <v>19</v>
       </c>
       <c r="C57" s="14" t="s">
-        <v>1059</v>
+        <v>1049</v>
       </c>
       <c r="D57" s="13" t="s">
         <v>45</v>
@@ -43066,7 +43071,7 @@
         <v>20</v>
       </c>
       <c r="C58" s="75" t="s">
-        <v>1058</v>
+        <v>1048</v>
       </c>
       <c r="D58" s="72" t="s">
         <v>48</v>
@@ -43132,7 +43137,7 @@
         <v>21</v>
       </c>
       <c r="C64" s="75" t="s">
-        <v>1046</v>
+        <v>1036</v>
       </c>
       <c r="D64" s="72" t="s">
         <v>48</v>
@@ -43200,7 +43205,7 @@
         <v>22</v>
       </c>
       <c r="C70" s="75" t="s">
-        <v>1045</v>
+        <v>1035</v>
       </c>
       <c r="D70" s="72" t="s">
         <v>48</v>
@@ -43298,7 +43303,7 @@
         <v>28</v>
       </c>
       <c r="C79" s="17" t="s">
-        <v>1072</v>
+        <v>1062</v>
       </c>
       <c r="D79" s="17" t="s">
         <v>128</v>
@@ -43312,7 +43317,7 @@
         <v>27</v>
       </c>
       <c r="C80" s="17" t="s">
-        <v>1072</v>
+        <v>1062</v>
       </c>
       <c r="D80" s="17" t="s">
         <v>128</v>
@@ -43326,7 +43331,7 @@
         <v>23</v>
       </c>
       <c r="C81" s="17" t="s">
-        <v>1073</v>
+        <v>1063</v>
       </c>
       <c r="D81" s="16" t="s">
         <v>46</v>
@@ -43337,10 +43342,10 @@
     <row r="82" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A82" s="100"/>
       <c r="B82" s="26" t="s">
-        <v>1074</v>
+        <v>1064</v>
       </c>
       <c r="C82" s="17" t="s">
-        <v>1075</v>
+        <v>1065</v>
       </c>
       <c r="D82" s="16" t="s">
         <v>46</v>
@@ -43351,10 +43356,10 @@
     <row r="83" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A83" s="100"/>
       <c r="B83" s="53" t="s">
-        <v>1076</v>
+        <v>1066</v>
       </c>
       <c r="C83" s="17" t="s">
-        <v>1080</v>
+        <v>1070</v>
       </c>
       <c r="D83" s="16" t="s">
         <v>46</v>
@@ -43365,10 +43370,10 @@
     <row r="84" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A84" s="100"/>
       <c r="B84" s="53" t="s">
-        <v>1077</v>
+        <v>1067</v>
       </c>
       <c r="C84" s="17" t="s">
-        <v>1081</v>
+        <v>1071</v>
       </c>
       <c r="D84" s="16" t="s">
         <v>46</v>
@@ -43379,10 +43384,10 @@
     <row r="85" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A85" s="100"/>
       <c r="B85" s="53" t="s">
-        <v>1078</v>
+        <v>1068</v>
       </c>
       <c r="C85" s="17" t="s">
-        <v>1082</v>
+        <v>1072</v>
       </c>
       <c r="D85" s="16" t="s">
         <v>46</v>
@@ -43393,10 +43398,10 @@
     <row r="86" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A86" s="100"/>
       <c r="B86" s="53" t="s">
-        <v>1079</v>
+        <v>1069</v>
       </c>
       <c r="C86" s="17" t="s">
-        <v>1101</v>
+        <v>1091</v>
       </c>
       <c r="D86" s="16" t="s">
         <v>46</v>
@@ -43410,7 +43415,7 @@
         <v>24</v>
       </c>
       <c r="C87" s="98" t="s">
-        <v>1084</v>
+        <v>1074</v>
       </c>
       <c r="D87" s="97" t="s">
         <v>48</v>
@@ -43431,7 +43436,7 @@
         <v>320</v>
       </c>
       <c r="F88" s="16" t="s">
-        <v>1083</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.2">
@@ -43512,7 +43517,7 @@
         <v>26</v>
       </c>
       <c r="C95" s="69" t="s">
-        <v>1085</v>
+        <v>1075</v>
       </c>
       <c r="D95" s="69" t="s">
         <v>53</v>
@@ -43566,7 +43571,7 @@
         <v>150</v>
       </c>
       <c r="C99" s="17" t="s">
-        <v>1086</v>
+        <v>1076</v>
       </c>
       <c r="D99" s="16" t="s">
         <v>151</v>
@@ -43594,7 +43599,7 @@
         <v>25</v>
       </c>
       <c r="C101" s="98" t="s">
-        <v>1087</v>
+        <v>1077</v>
       </c>
       <c r="D101" s="97" t="s">
         <v>48</v>
@@ -43639,7 +43644,7 @@
         <v>330</v>
       </c>
       <c r="F104" s="16" t="s">
-        <v>1111</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.2">
@@ -43752,7 +43757,7 @@
         <v>30</v>
       </c>
       <c r="C113" s="18" t="s">
-        <v>1088</v>
+        <v>1078</v>
       </c>
       <c r="D113" s="19" t="s">
         <v>45</v>
@@ -43766,7 +43771,7 @@
         <v>171</v>
       </c>
       <c r="C114" s="108" t="s">
-        <v>1089</v>
+        <v>1079</v>
       </c>
       <c r="D114" s="91" t="s">
         <v>48</v>
@@ -43787,7 +43792,7 @@
         <v>173</v>
       </c>
       <c r="F115" s="20" t="s">
-        <v>1042</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.2">
@@ -43823,7 +43828,7 @@
         <v>175</v>
       </c>
       <c r="F118" s="19" t="s">
-        <v>1043</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.2">
@@ -43847,7 +43852,7 @@
         <v>181</v>
       </c>
       <c r="F120" s="20" t="s">
-        <v>1044</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="121" spans="1:7" ht="17" x14ac:dyDescent="0.2">
@@ -44338,7 +44343,7 @@
         <v>305</v>
       </c>
       <c r="C157" s="62" t="s">
-        <v>1093</v>
+        <v>1083</v>
       </c>
       <c r="D157" s="62" t="s">
         <v>48</v>
@@ -44359,7 +44364,7 @@
         <v>173</v>
       </c>
       <c r="F158" s="22" t="s">
-        <v>1090</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="159" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -44440,7 +44445,7 @@
         <v>304</v>
       </c>
       <c r="C165" s="62" t="s">
-        <v>1098</v>
+        <v>1088</v>
       </c>
       <c r="D165" s="62" t="s">
         <v>48</v>
@@ -44466,7 +44471,7 @@
         <v>32</v>
       </c>
       <c r="C167" s="77" t="s">
-        <v>1097</v>
+        <v>1087</v>
       </c>
       <c r="D167" s="77" t="s">
         <v>53</v>
@@ -44475,7 +44480,7 @@
         <v>70</v>
       </c>
       <c r="F167" s="22" t="s">
-        <v>1092</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="168" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -44487,7 +44492,7 @@
         <v>179</v>
       </c>
       <c r="F168" s="22" t="s">
-        <v>1091</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="169" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -44508,7 +44513,7 @@
         <v>262</v>
       </c>
       <c r="C170" s="62" t="s">
-        <v>1096</v>
+        <v>1086</v>
       </c>
       <c r="D170" s="62" t="s">
         <v>48</v>
@@ -44610,7 +44615,7 @@
         <v>33</v>
       </c>
       <c r="C178" s="77" t="s">
-        <v>1099</v>
+        <v>1089</v>
       </c>
       <c r="D178" s="77" t="s">
         <v>53</v>
@@ -44691,7 +44696,7 @@
         <v>276</v>
       </c>
       <c r="F184" s="22" t="s">
-        <v>1094</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="185" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -44724,7 +44729,7 @@
         <v>34</v>
       </c>
       <c r="C187" s="62" t="s">
-        <v>1095</v>
+        <v>1085</v>
       </c>
       <c r="D187" s="62" t="s">
         <v>48</v>
@@ -44814,7 +44819,7 @@
         <v>35</v>
       </c>
       <c r="C194" s="77" t="s">
-        <v>1100</v>
+        <v>1090</v>
       </c>
       <c r="D194" s="77" t="s">
         <v>53</v>

--- a/Spreadsheets/DOM_Spreadsheet.xlsx
+++ b/Spreadsheets/DOM_Spreadsheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/saoirsekelleher/Documents/Research/QAEco/DOM_Review/Spreadsheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AACF1520-2068-4D47-86FF-EBC2FDEBA21C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{634C57F2-0BB9-A942-B131-C656E5EE6EE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="25080" windowHeight="28300" xr2:uid="{981D9C2C-D510-E947-BD55-27C976277DB6}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25080" windowHeight="28300" activeTab="6" xr2:uid="{981D9C2C-D510-E947-BD55-27C976277DB6}"/>
   </bookViews>
   <sheets>
     <sheet name="Article Data" sheetId="10" r:id="rId1"/>
@@ -42,24 +42,6 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>tc={B4C0F129-054A-724D-AD17-F2572B27E9B9}</author>
-  </authors>
-  <commentList>
-    <comment ref="L108" authorId="0" shapeId="0" xr:uid="{B4C0F129-054A-724D-AD17-F2572B27E9B9}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    Multiple detection methods</t>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
 <metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata">
   <metadataTypes count="1">
@@ -83,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6828" uniqueCount="1162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6840" uniqueCount="1166">
   <si>
     <t>Review ID</t>
   </si>
@@ -4224,9 +4206,6 @@
     <t>Feral swine Sus scrofa</t>
   </si>
   <si>
-    <t>0-4</t>
-  </si>
-  <si>
     <t>E-SPAT_SI_I_L, E-SPAT_SI_I_L</t>
   </si>
   <si>
@@ -4349,9 +4328,6 @@
       </rPr>
       <t>at various stages of population recovery</t>
     </r>
-  </si>
-  <si>
-    <t>Austria</t>
   </si>
   <si>
     <r>
@@ -5594,6 +5570,24 @@
   </si>
   <si>
     <t>Switzerland, France, Italy, Slovenia, Austria, Germany, Liechtenstein</t>
+  </si>
+  <si>
+    <t>SP-2011</t>
+  </si>
+  <si>
+    <t>AU-2013</t>
+  </si>
+  <si>
+    <t>United States of America, Brazil</t>
+  </si>
+  <si>
+    <t>Botswana, United States of America, Switzerland, South Africa, United Kingdom, Netherlands, Canada</t>
+  </si>
+  <si>
+    <t>VU, EN, NT</t>
+  </si>
+  <si>
+    <t>Austria, United States of America, United Kingdom, Colombia</t>
   </si>
 </sst>
 </file>
@@ -6425,9 +6419,7 @@
 </file>
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <person displayName="Saoirse Kelleher" id="{7E158FB0-5ED6-8845-85E3-203C36CA0ECA}" userId="S::kelleherj@student.unimelb.edu.au::e139489a-58b8-4281-bfaf-61a1a4609630" providerId="AD"/>
-</personList>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6809,21 +6801,13 @@
 </a:theme>
 </file>
 
-<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
-<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="L108" dT="2024-08-27T00:12:15.47" personId="{7E158FB0-5ED6-8845-85E3-203C36CA0ECA}" id="{B4C0F129-054A-724D-AD17-F2572B27E9B9}">
-    <text>Multiple detection methods</text>
-  </threadedComment>
-</ThreadedComments>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C80BA99-678B-E448-90AD-2521C38AEB8E}">
   <dimension ref="A1:XFB128"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G72" sqref="G72"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G81" sqref="G81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="16" zeroHeight="1" x14ac:dyDescent="0.2"/>
@@ -6859,7 +6843,7 @@
         <v>6</v>
       </c>
       <c r="G1" s="36" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="68" x14ac:dyDescent="0.2">
@@ -6882,7 +6866,7 @@
         <v>363</v>
       </c>
       <c r="G2" s="38" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="51" x14ac:dyDescent="0.2">
@@ -6928,7 +6912,7 @@
         <v>387</v>
       </c>
       <c r="G4" s="38" t="s">
-        <v>1093</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="68" x14ac:dyDescent="0.2">
@@ -6997,7 +6981,7 @@
         <v>417</v>
       </c>
       <c r="G7" s="39" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="34" x14ac:dyDescent="0.2">
@@ -7043,7 +7027,7 @@
         <v>431</v>
       </c>
       <c r="G9" s="39" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="51" x14ac:dyDescent="0.2">
@@ -7089,7 +7073,7 @@
         <v>447</v>
       </c>
       <c r="G11" s="39" t="s">
-        <v>1104</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="119" x14ac:dyDescent="0.2">
@@ -7112,7 +7096,7 @@
         <v>460</v>
       </c>
       <c r="G12" s="38" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="51" x14ac:dyDescent="0.2">
@@ -7204,7 +7188,7 @@
         <v>490</v>
       </c>
       <c r="G16" s="38" t="s">
-        <v>1106</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="68" x14ac:dyDescent="0.2">
@@ -7250,7 +7234,7 @@
         <v>509</v>
       </c>
       <c r="G18" s="38" t="s">
-        <v>1108</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="68" x14ac:dyDescent="0.2">
@@ -7457,7 +7441,7 @@
         <v>575</v>
       </c>
       <c r="G27" s="39" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="51" x14ac:dyDescent="0.2">
@@ -7488,7 +7472,7 @@
         <v>675</v>
       </c>
       <c r="B29" s="39" t="s">
-        <v>1116</v>
+        <v>1114</v>
       </c>
       <c r="C29" s="39">
         <v>2012</v>
@@ -7641,7 +7625,7 @@
         <v>634</v>
       </c>
       <c r="G35" s="39" t="s">
-        <v>1119</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="68" x14ac:dyDescent="0.2">
@@ -7710,7 +7694,7 @@
         <v>651</v>
       </c>
       <c r="G38" s="38" t="s">
-        <v>1122</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="51" x14ac:dyDescent="0.2">
@@ -7894,7 +7878,7 @@
         <v>701</v>
       </c>
       <c r="G46" s="38" t="s">
-        <v>1135</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="34" x14ac:dyDescent="0.2">
@@ -7986,7 +7970,7 @@
         <v>728</v>
       </c>
       <c r="G50" s="38" t="s">
-        <v>1141</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="51" spans="1:7" ht="34" x14ac:dyDescent="0.2">
@@ -8032,7 +8016,7 @@
         <v>746</v>
       </c>
       <c r="G52" s="38" t="s">
-        <v>1144</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="53" spans="1:7" ht="51" x14ac:dyDescent="0.2">
@@ -8055,7 +8039,7 @@
         <v>751</v>
       </c>
       <c r="G53" s="39" t="s">
-        <v>1145</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="54" spans="1:7" ht="34" x14ac:dyDescent="0.2">
@@ -8285,7 +8269,7 @@
         <v>812</v>
       </c>
       <c r="G63" s="39" t="s">
-        <v>1157</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="64" spans="1:7" ht="51" x14ac:dyDescent="0.2">
@@ -8400,7 +8384,7 @@
         <v>851</v>
       </c>
       <c r="G68" s="38" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="69" spans="1:7" ht="68" x14ac:dyDescent="0.2">
@@ -8469,7 +8453,7 @@
         <v>869</v>
       </c>
       <c r="G71" s="39" t="s">
-        <v>1161</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="72" spans="1:7" ht="34" x14ac:dyDescent="0.2">
@@ -8515,7 +8499,7 @@
         <v>883</v>
       </c>
       <c r="G73" s="39" t="s">
-        <v>373</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="74" spans="1:7" ht="51" x14ac:dyDescent="0.2">
@@ -8592,7 +8576,7 @@
         <v>353</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="C77" s="39">
         <v>2022</v>
@@ -8604,10 +8588,10 @@
         <v>546</v>
       </c>
       <c r="F77" s="39" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="G77" s="39" t="s">
-        <v>909</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="78" spans="1:7" ht="68" x14ac:dyDescent="0.2">
@@ -8615,7 +8599,7 @@
         <v>309</v>
       </c>
       <c r="B78" s="38" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="C78" s="38">
         <v>2011</v>
@@ -8627,7 +8611,7 @@
         <v>882</v>
       </c>
       <c r="F78" s="38" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="G78" s="38" t="s">
         <v>373</v>
@@ -8638,7 +8622,7 @@
         <v>388</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="C79" s="39">
         <v>2012</v>
@@ -8647,10 +8631,10 @@
         <v>343</v>
       </c>
       <c r="E79" s="39" t="s">
+        <v>922</v>
+      </c>
+      <c r="F79" s="39" t="s">
         <v>923</v>
-      </c>
-      <c r="F79" s="39" t="s">
-        <v>924</v>
       </c>
       <c r="G79" s="39" t="s">
         <v>373</v>
@@ -8661,7 +8645,7 @@
         <v>329</v>
       </c>
       <c r="B80" s="38" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="C80" s="38">
         <v>2017</v>
@@ -8673,10 +8657,10 @@
         <v>559</v>
       </c>
       <c r="F80" s="38" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="G80" s="38" t="s">
-        <v>930</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="81" spans="1:8" ht="51" x14ac:dyDescent="0.2">
@@ -8684,7 +8668,7 @@
         <v>1353</v>
       </c>
       <c r="B81" s="39" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="C81" s="39">
         <v>2022</v>
@@ -8696,7 +8680,7 @@
         <v>437</v>
       </c>
       <c r="F81" s="39" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="G81" s="39" t="s">
         <v>373</v>
@@ -8707,7 +8691,7 @@
         <v>98</v>
       </c>
       <c r="B82" s="38" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="C82" s="38">
         <v>2010</v>
@@ -8719,10 +8703,10 @@
         <v>501</v>
       </c>
       <c r="F82" s="38" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="G82" s="38" t="s">
-        <v>373</v>
+        <v>820</v>
       </c>
     </row>
     <row r="83" spans="1:8" ht="68" x14ac:dyDescent="0.2">
@@ -8730,7 +8714,7 @@
         <v>277</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
       <c r="C83" s="39">
         <v>2014</v>
@@ -8739,10 +8723,10 @@
         <v>343</v>
       </c>
       <c r="E83" s="39" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
       <c r="F83" s="39" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="G83" s="39" t="s">
         <v>396</v>
@@ -8753,7 +8737,7 @@
         <v>1051</v>
       </c>
       <c r="B84" s="38" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="C84" s="38">
         <v>2019</v>
@@ -8762,10 +8746,10 @@
         <v>344</v>
       </c>
       <c r="E84" s="38" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="F84" s="38" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="G84" s="38" t="s">
         <v>373</v>
@@ -8776,7 +8760,7 @@
         <v>435</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="C85" s="39">
         <v>2022</v>
@@ -8785,10 +8769,10 @@
         <v>345</v>
       </c>
       <c r="E85" s="39" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="F85" s="39" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
       <c r="G85" s="39" t="s">
         <v>491</v>
@@ -8799,7 +8783,7 @@
         <v>127</v>
       </c>
       <c r="B86" s="38" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="C86" s="38">
         <v>2010</v>
@@ -8811,7 +8795,7 @@
         <v>508</v>
       </c>
       <c r="F86" s="38" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="G86" s="38" t="s">
         <v>373</v>
@@ -8822,7 +8806,7 @@
         <v>109</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="C87" s="39">
         <v>2012</v>
@@ -8834,7 +8818,7 @@
         <v>508</v>
       </c>
       <c r="F87" s="39" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
       <c r="G87" s="39" t="s">
         <v>373</v>
@@ -8845,7 +8829,7 @@
         <v>380</v>
       </c>
       <c r="B88" s="38" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="C88" s="38">
         <v>2019</v>
@@ -8857,7 +8841,7 @@
         <v>660</v>
       </c>
       <c r="F88" s="38" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="G88" s="38" t="s">
         <v>373</v>
@@ -8868,7 +8852,7 @@
         <v>313</v>
       </c>
       <c r="B89" s="39" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
       <c r="C89" s="39">
         <v>2021</v>
@@ -8877,10 +8861,10 @@
         <v>345</v>
       </c>
       <c r="E89" s="39" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
       <c r="F89" s="39" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="G89" s="39" t="s">
         <v>389</v>
@@ -8891,7 +8875,7 @@
         <v>94</v>
       </c>
       <c r="B90" s="38" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="C90" s="38">
         <v>2010</v>
@@ -8900,10 +8884,10 @@
         <v>342</v>
       </c>
       <c r="E90" s="38" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
       <c r="F90" s="38" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
       <c r="G90" s="38" t="s">
         <v>491</v>
@@ -8914,7 +8898,7 @@
         <v>295</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="C91" s="39">
         <v>2014</v>
@@ -8923,10 +8907,10 @@
         <v>343</v>
       </c>
       <c r="E91" s="39" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
       <c r="F91" s="39" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="G91" s="39" t="s">
         <v>373</v>
@@ -8937,7 +8921,7 @@
         <v>138</v>
       </c>
       <c r="B92" s="38" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="C92" s="38">
         <v>2019</v>
@@ -8949,7 +8933,7 @@
         <v>483</v>
       </c>
       <c r="F92" s="38" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="G92" s="38" t="s">
         <v>373</v>
@@ -8963,7 +8947,7 @@
         <v>549</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
       <c r="C93" s="39">
         <v>2023</v>
@@ -8975,7 +8959,7 @@
         <v>626</v>
       </c>
       <c r="F93" s="39" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="G93" s="39" t="s">
         <v>373</v>
@@ -9168,8 +9152,8 @@
   <dimension ref="A1:I130"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A66" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F75" sqref="F75"/>
+      <pane ySplit="1" topLeftCell="A72" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F81" sqref="F81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="16" zeroHeight="1" x14ac:dyDescent="0.2"/>
@@ -9200,7 +9184,7 @@
         <v>325</v>
       </c>
       <c r="E1" s="40" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
       <c r="F1" s="40" t="s">
         <v>326</v>
@@ -11550,7 +11534,7 @@
         <v>Collaboration for conservation: Assessing countrywide carnivore occupancy dynamics from sparse data</v>
       </c>
       <c r="C77" s="39" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="D77" s="39" t="s">
         <v>367</v>
@@ -11621,10 +11605,10 @@
         <v>366</v>
       </c>
       <c r="F79" s="39" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="G79" s="39" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="H79" s="39" t="s">
         <v>366</v>
@@ -11829,7 +11813,7 @@
         <v>Site Occupancy Dynamics of Northern Spotted Owls in the Eastern Cascades, Washington, USA, 1990-2003</v>
       </c>
       <c r="C86" s="38" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="D86" s="38" t="s">
         <v>366</v>
@@ -12015,7 +11999,7 @@
         <v>A multistate dynamic occupancy model to estimate local colonization &amp; extinction rates and patterns of co-occurrence between two or more interacting species</v>
       </c>
       <c r="C92" s="38" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="D92" s="38" t="s">
         <v>367</v>
@@ -12408,8 +12392,8 @@
   <dimension ref="A1:I175"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I85" sqref="I85"/>
+      <pane ySplit="1" topLeftCell="A85" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I95" sqref="I95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" zeroHeight="1" x14ac:dyDescent="0.2"/>
@@ -12466,7 +12450,7 @@
         <v>368</v>
       </c>
       <c r="D2" s="33" t="s">
-        <v>1089</v>
+        <v>1087</v>
       </c>
       <c r="E2" s="33" t="s">
         <v>55</v>
@@ -12509,7 +12493,7 @@
         <v>72</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>1092</v>
+        <v>1090</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>412</v>
@@ -12574,7 +12558,7 @@
         <v>74</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>1094</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="51" x14ac:dyDescent="0.2">
@@ -12683,7 +12667,7 @@
         <v>368</v>
       </c>
       <c r="D9" s="33" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
       <c r="E9" s="33" t="s">
         <v>54</v>
@@ -12695,7 +12679,7 @@
         <v>67</v>
       </c>
       <c r="H9" s="33" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
       <c r="I9" s="33" t="s">
         <v>57</v>
@@ -12714,7 +12698,7 @@
         <v>368</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>1103</v>
+        <v>1101</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>54</v>
@@ -12726,7 +12710,7 @@
         <v>67</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>1102</v>
+        <v>1100</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>96</v>
@@ -13024,7 +13008,7 @@
         <v>493</v>
       </c>
       <c r="D20" s="33" t="s">
-        <v>1107</v>
+        <v>1105</v>
       </c>
       <c r="E20" s="33" t="s">
         <v>55</v>
@@ -13623,7 +13607,7 @@
         <v>67</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="I39" s="2" t="s">
         <v>610</v>
@@ -13933,7 +13917,7 @@
         <v>72</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>1125</v>
+        <v>1123</v>
       </c>
       <c r="I49" s="2" t="s">
         <v>96</v>
@@ -13952,7 +13936,7 @@
         <v>368</v>
       </c>
       <c r="D50" s="33" t="s">
-        <v>1130</v>
+        <v>1128</v>
       </c>
       <c r="E50" s="33" t="s">
         <v>54</v>
@@ -13964,7 +13948,7 @@
         <v>67</v>
       </c>
       <c r="H50" s="33" t="s">
-        <v>1131</v>
+        <v>1129</v>
       </c>
       <c r="I50" s="33" t="s">
         <v>671</v>
@@ -14026,7 +14010,7 @@
         <v>67</v>
       </c>
       <c r="H52" s="33" t="s">
-        <v>1092</v>
+        <v>1090</v>
       </c>
       <c r="I52" s="33" t="s">
         <v>96</v>
@@ -14271,10 +14255,10 @@
         <v>647</v>
       </c>
       <c r="G60" s="33" t="s">
-        <v>1143</v>
+        <v>1141</v>
       </c>
       <c r="H60" s="33" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
       <c r="I60" s="33" t="s">
         <v>96</v>
@@ -14491,7 +14475,7 @@
         <v>67</v>
       </c>
       <c r="H67" s="2" t="s">
-        <v>1125</v>
+        <v>1123</v>
       </c>
       <c r="I67" s="2" t="s">
         <v>96</v>
@@ -14572,7 +14556,7 @@
         <v>793</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>1147</v>
+        <v>1145</v>
       </c>
       <c r="E70" s="2" t="s">
         <v>55</v>
@@ -14584,7 +14568,7 @@
         <v>70</v>
       </c>
       <c r="H70" s="2" t="s">
-        <v>1148</v>
+        <v>1146</v>
       </c>
       <c r="I70" s="2" t="s">
         <v>95</v>
@@ -14677,7 +14661,7 @@
         <v>67</v>
       </c>
       <c r="H73" s="33" t="s">
-        <v>1158</v>
+        <v>1156</v>
       </c>
       <c r="I73" s="33" t="s">
         <v>412</v>
@@ -15080,10 +15064,10 @@
         <v>67</v>
       </c>
       <c r="H86" s="2" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="I86" s="2" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
     </row>
     <row r="87" spans="1:9" ht="51" x14ac:dyDescent="0.2">
@@ -15114,7 +15098,7 @@
         <v>338</v>
       </c>
       <c r="I87" s="33" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
     </row>
     <row r="88" spans="1:9" ht="34" x14ac:dyDescent="0.2">
@@ -15145,7 +15129,7 @@
         <v>74</v>
       </c>
       <c r="I88" s="2" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
     </row>
     <row r="89" spans="1:9" ht="68" x14ac:dyDescent="0.2">
@@ -15223,7 +15207,7 @@
         <v>368</v>
       </c>
       <c r="D91" s="33" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="E91" s="33" t="s">
         <v>54</v>
@@ -15235,7 +15219,7 @@
         <v>72</v>
       </c>
       <c r="H91" s="33" t="s">
-        <v>81</v>
+        <v>1164</v>
       </c>
       <c r="I91" s="33" t="s">
         <v>463</v>
@@ -15254,7 +15238,7 @@
         <v>368</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="E92" s="2" t="s">
         <v>54</v>
@@ -15285,7 +15269,7 @@
         <v>368</v>
       </c>
       <c r="D93" s="33" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="E93" s="33" t="s">
         <v>56</v>
@@ -15316,7 +15300,7 @@
         <v>368</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="E94" s="2" t="s">
         <v>55</v>
@@ -15331,7 +15315,7 @@
         <v>74</v>
       </c>
       <c r="I94" s="2" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
     </row>
     <row r="95" spans="1:9" ht="68" x14ac:dyDescent="0.2">
@@ -15359,10 +15343,10 @@
         <v>66</v>
       </c>
       <c r="H95" s="33" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="I95" s="33" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
     </row>
     <row r="96" spans="1:9" ht="68" x14ac:dyDescent="0.2">
@@ -15378,7 +15362,7 @@
         <v>368</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="E96" s="2" t="s">
         <v>55</v>
@@ -15409,7 +15393,7 @@
         <v>368</v>
       </c>
       <c r="D97" s="33" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="E97" s="33" t="s">
         <v>56</v>
@@ -15440,7 +15424,7 @@
         <v>368</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="E98" s="2" t="s">
         <v>55</v>
@@ -15471,7 +15455,7 @@
         <v>400</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="E99" s="2" t="s">
         <v>54</v>
@@ -15499,10 +15483,10 @@
         <v>Experimentally testing the response of feral cats and their prey to poison baiting</v>
       </c>
       <c r="C100" s="33" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="D100" s="33" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="E100" s="33" t="s">
         <v>54</v>
@@ -15533,7 +15517,7 @@
         <v>368</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
       <c r="E101" s="2" t="s">
         <v>55</v>
@@ -15564,7 +15548,7 @@
         <v>398</v>
       </c>
       <c r="D102" s="33" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="E102" s="33" t="s">
         <v>55</v>
@@ -15595,7 +15579,7 @@
         <v>368</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="E103" s="2" t="s">
         <v>54</v>
@@ -15626,7 +15610,7 @@
         <v>368</v>
       </c>
       <c r="D104" s="33" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
       <c r="E104" s="33" t="s">
         <v>59</v>
@@ -15657,7 +15641,7 @@
         <v>368</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
       <c r="E105" s="2" t="s">
         <v>56</v>
@@ -15672,7 +15656,7 @@
         <v>76</v>
       </c>
       <c r="I105" s="2" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
     </row>
     <row r="106" spans="1:9" ht="51" x14ac:dyDescent="0.2">
@@ -15688,7 +15672,7 @@
         <v>368</v>
       </c>
       <c r="D106" s="33" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="E106" s="33" t="s">
         <v>55</v>
@@ -15719,7 +15703,7 @@
         <v>368</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="E107" s="2" t="s">
         <v>54</v>
@@ -15750,7 +15734,7 @@
         <v>368</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="E108" s="2" t="s">
         <v>54</v>
@@ -15781,7 +15765,7 @@
         <v>368</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="E109" s="2" t="s">
         <v>54</v>
@@ -15812,7 +15796,7 @@
         <v>368</v>
       </c>
       <c r="D110" s="33" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="E110" s="33" t="s">
         <v>55</v>
@@ -16250,8 +16234,8 @@
   <dimension ref="A1:I158"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A81" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E90" sqref="E90"/>
+      <pane ySplit="1" topLeftCell="A88" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G98" sqref="G98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" zeroHeight="1" x14ac:dyDescent="0.2"/>
@@ -19222,7 +19206,7 @@
         <v>368</v>
       </c>
       <c r="D96" s="33" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="E96" s="33" t="s">
         <v>112</v>
@@ -19315,7 +19299,7 @@
         <v>368</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="E99" s="2" t="s">
         <v>110</v>
@@ -19467,7 +19451,7 @@
         <v>Experimentally testing the response of feral cats and their prey to poison baiting</v>
       </c>
       <c r="C104" s="33" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="D104" s="33" t="s">
         <v>491</v>
@@ -20111,12 +20095,12 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B60FD29C-9206-FA47-9E36-5CC91A5A2C02}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B60FD29C-9206-FA47-9E36-5CC91A5A2C02}">
   <dimension ref="A1:Q211"/>
   <sheetViews>
     <sheetView topLeftCell="C1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A93" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K102" sqref="K102"/>
+      <pane ySplit="1" topLeftCell="A103" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H112" sqref="H112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" zeroHeight="1" x14ac:dyDescent="0.2"/>
@@ -20152,19 +20136,19 @@
         <v>23</v>
       </c>
       <c r="G1" s="44" t="s">
+        <v>1058</v>
+      </c>
+      <c r="H1" s="44" t="s">
         <v>1060</v>
       </c>
-      <c r="H1" s="44" t="s">
+      <c r="I1" s="44" t="s">
+        <v>1061</v>
+      </c>
+      <c r="J1" s="44" t="s">
         <v>1062</v>
       </c>
-      <c r="I1" s="44" t="s">
+      <c r="K1" s="44" t="s">
         <v>1063</v>
-      </c>
-      <c r="J1" s="44" t="s">
-        <v>1064</v>
-      </c>
-      <c r="K1" s="44" t="s">
-        <v>1065</v>
       </c>
       <c r="L1" s="44" t="s">
         <v>24</v>
@@ -21738,10 +21722,10 @@
         <v>368</v>
       </c>
       <c r="D30" s="46" t="s">
-        <v>1109</v>
+        <v>1107</v>
       </c>
       <c r="E30" s="46" t="s">
-        <v>1110</v>
+        <v>1108</v>
       </c>
       <c r="F30" s="39">
         <v>26</v>
@@ -22123,10 +22107,10 @@
         <v>368</v>
       </c>
       <c r="D37" s="46" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="E37" s="46" t="s">
-        <v>1112</v>
+        <v>1110</v>
       </c>
       <c r="F37" s="39">
         <v>4</v>
@@ -22178,10 +22162,10 @@
         <v>400</v>
       </c>
       <c r="D38" s="46" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
       <c r="E38" s="46" t="s">
-        <v>1114</v>
+        <v>1112</v>
       </c>
       <c r="F38" s="39">
         <v>9</v>
@@ -22233,10 +22217,10 @@
         <v>449</v>
       </c>
       <c r="D39" s="46" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
       <c r="E39" s="46" t="s">
-        <v>1114</v>
+        <v>1112</v>
       </c>
       <c r="F39" s="39">
         <v>4</v>
@@ -22618,10 +22602,10 @@
         <v>368</v>
       </c>
       <c r="D46" s="45" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="E46" s="45" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
       <c r="F46" s="38">
         <v>13</v>
@@ -22673,10 +22657,10 @@
         <v>400</v>
       </c>
       <c r="D47" s="45" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="E47" s="45" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
       <c r="F47" s="38">
         <v>13</v>
@@ -22728,10 +22712,10 @@
         <v>449</v>
       </c>
       <c r="D48" s="45" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="E48" s="45" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
       <c r="F48" s="38">
         <v>13</v>
@@ -23113,10 +23097,10 @@
         <v>368</v>
       </c>
       <c r="D55" s="45" t="s">
-        <v>1120</v>
+        <v>1118</v>
       </c>
       <c r="E55" s="45" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
       <c r="F55" s="38">
         <v>4</v>
@@ -23223,10 +23207,10 @@
         <v>368</v>
       </c>
       <c r="D57" s="45" t="s">
-        <v>1123</v>
+        <v>1121</v>
       </c>
       <c r="E57" s="45" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="F57" s="38">
         <v>3</v>
@@ -23278,10 +23262,10 @@
         <v>368</v>
       </c>
       <c r="D58" s="46" t="s">
-        <v>1126</v>
+        <v>1124</v>
       </c>
       <c r="E58" s="46" t="s">
-        <v>1127</v>
+        <v>1125</v>
       </c>
       <c r="F58" s="39">
         <v>11</v>
@@ -23498,10 +23482,10 @@
         <v>368</v>
       </c>
       <c r="D62" s="46" t="s">
-        <v>1132</v>
+        <v>1130</v>
       </c>
       <c r="E62" s="46" t="s">
-        <v>1114</v>
+        <v>1112</v>
       </c>
       <c r="F62" s="39">
         <v>17</v>
@@ -23553,10 +23537,10 @@
         <v>368</v>
       </c>
       <c r="D63" s="45" t="s">
-        <v>1133</v>
+        <v>1131</v>
       </c>
       <c r="E63" s="45" t="s">
-        <v>1134</v>
+        <v>1132</v>
       </c>
       <c r="F63" s="38">
         <v>2</v>
@@ -23663,10 +23647,10 @@
         <v>368</v>
       </c>
       <c r="D65" s="45" t="s">
-        <v>1139</v>
+        <v>1137</v>
       </c>
       <c r="E65" s="45" t="s">
-        <v>1140</v>
+        <v>1138</v>
       </c>
       <c r="F65" s="38">
         <v>5</v>
@@ -25203,10 +25187,10 @@
         <v>368</v>
       </c>
       <c r="D93" s="45" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
       <c r="E93" s="45" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="F93" s="38">
         <v>2</v>
@@ -25588,10 +25572,10 @@
         <v>368</v>
       </c>
       <c r="D100" s="45" t="s">
-        <v>1134</v>
+        <v>1132</v>
       </c>
       <c r="E100" s="45" t="s">
-        <v>1160</v>
+        <v>1158</v>
       </c>
       <c r="F100" s="38">
         <v>5</v>
@@ -25752,22 +25736,30 @@
       <c r="C103" s="39" t="s">
         <v>368</v>
       </c>
-      <c r="D103" s="46">
-        <v>40603</v>
-      </c>
-      <c r="E103" s="46">
-        <v>41548</v>
+      <c r="D103" s="46" t="s">
+        <v>1160</v>
+      </c>
+      <c r="E103" s="46" t="s">
+        <v>1161</v>
       </c>
       <c r="F103" s="39">
         <v>11</v>
       </c>
-      <c r="G103" s="39"/>
+      <c r="G103" s="39" t="s">
+        <v>322</v>
+      </c>
       <c r="H103" s="39">
+        <v>0</v>
+      </c>
+      <c r="I103" s="39">
         <v>28</v>
       </c>
-      <c r="I103" s="39"/>
-      <c r="J103" s="39"/>
-      <c r="K103" s="39"/>
+      <c r="J103" s="39">
+        <v>27</v>
+      </c>
+      <c r="K103" s="39" t="s">
+        <v>322</v>
+      </c>
       <c r="L103" s="39" t="s">
         <v>320</v>
       </c>
@@ -25808,13 +25800,21 @@
       <c r="F104" s="38">
         <v>9</v>
       </c>
-      <c r="G104" s="38"/>
+      <c r="G104" s="38">
+        <v>2.5</v>
+      </c>
       <c r="H104" s="38">
+        <v>0</v>
+      </c>
+      <c r="I104" s="38">
         <v>3</v>
       </c>
-      <c r="I104" s="38"/>
-      <c r="J104" s="38"/>
-      <c r="K104" s="38"/>
+      <c r="J104" s="38" t="s">
+        <v>322</v>
+      </c>
+      <c r="K104" s="38" t="s">
+        <v>322</v>
+      </c>
       <c r="L104" s="38" t="s">
         <v>129</v>
       </c>
@@ -25855,13 +25855,21 @@
       <c r="F105" s="39">
         <v>20</v>
       </c>
-      <c r="G105" s="39"/>
+      <c r="G105" s="39">
+        <v>4</v>
+      </c>
       <c r="H105" s="39">
+        <v>1</v>
+      </c>
+      <c r="I105" s="39">
         <v>3</v>
       </c>
-      <c r="I105" s="39"/>
-      <c r="J105" s="39"/>
-      <c r="K105" s="39"/>
+      <c r="J105" s="39" t="s">
+        <v>322</v>
+      </c>
+      <c r="K105" s="39" t="s">
+        <v>322</v>
+      </c>
       <c r="L105" s="39" t="s">
         <v>129</v>
       </c>
@@ -25902,13 +25910,21 @@
       <c r="F106" s="38">
         <v>15</v>
       </c>
-      <c r="G106" s="38"/>
+      <c r="G106" s="38">
+        <v>6</v>
+      </c>
       <c r="H106" s="38">
         <v>3</v>
       </c>
-      <c r="I106" s="38"/>
-      <c r="J106" s="38"/>
-      <c r="K106" s="38"/>
+      <c r="I106" s="38">
+        <v>3</v>
+      </c>
+      <c r="J106" s="38">
+        <v>3</v>
+      </c>
+      <c r="K106" s="38">
+        <v>3</v>
+      </c>
       <c r="L106" s="38" t="s">
         <v>129</v>
       </c>
@@ -25949,13 +25965,21 @@
       <c r="F107" s="39">
         <v>20</v>
       </c>
-      <c r="G107" s="39"/>
-      <c r="H107" s="39" t="s">
-        <v>903</v>
-      </c>
-      <c r="I107" s="39"/>
-      <c r="J107" s="39"/>
-      <c r="K107" s="39"/>
+      <c r="G107" s="39">
+        <v>1</v>
+      </c>
+      <c r="H107" s="39">
+        <v>0</v>
+      </c>
+      <c r="I107" s="39">
+        <v>4</v>
+      </c>
+      <c r="J107" s="39" t="s">
+        <v>322</v>
+      </c>
+      <c r="K107" s="39" t="s">
+        <v>322</v>
+      </c>
       <c r="L107" s="39" t="s">
         <v>320</v>
       </c>
@@ -25996,18 +26020,26 @@
       <c r="F108" s="38">
         <v>12</v>
       </c>
-      <c r="G108" s="38"/>
+      <c r="G108" s="38">
+        <v>6</v>
+      </c>
       <c r="H108" s="38">
         <v>4</v>
       </c>
-      <c r="I108" s="38"/>
-      <c r="J108" s="38"/>
-      <c r="K108" s="38"/>
+      <c r="I108" s="38">
+        <v>4</v>
+      </c>
+      <c r="J108" s="38">
+        <v>4</v>
+      </c>
+      <c r="K108" s="38">
+        <v>4</v>
+      </c>
       <c r="L108" s="38" t="s">
         <v>57</v>
       </c>
       <c r="M108" s="38" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="N108" s="38" t="s">
         <v>366</v>
@@ -26019,7 +26051,7 @@
         <v>154</v>
       </c>
       <c r="Q108" s="38" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="109" spans="1:17" ht="85" x14ac:dyDescent="0.2">
@@ -26043,13 +26075,21 @@
       <c r="F109" s="39">
         <v>3</v>
       </c>
-      <c r="G109" s="39"/>
+      <c r="G109" s="39">
+        <v>4</v>
+      </c>
       <c r="H109" s="39">
         <v>4</v>
       </c>
-      <c r="I109" s="39"/>
-      <c r="J109" s="39"/>
-      <c r="K109" s="39"/>
+      <c r="I109" s="39">
+        <v>4</v>
+      </c>
+      <c r="J109" s="39">
+        <v>4</v>
+      </c>
+      <c r="K109" s="39">
+        <v>4</v>
+      </c>
       <c r="L109" s="39" t="s">
         <v>129</v>
       </c>
@@ -26090,13 +26130,21 @@
       <c r="F110" s="38">
         <v>2</v>
       </c>
-      <c r="G110" s="38"/>
+      <c r="G110" s="38">
+        <v>0.5</v>
+      </c>
       <c r="H110" s="38">
         <v>5</v>
       </c>
-      <c r="I110" s="38"/>
-      <c r="J110" s="38"/>
-      <c r="K110" s="38"/>
+      <c r="I110" s="38">
+        <v>5</v>
+      </c>
+      <c r="J110" s="38">
+        <v>5</v>
+      </c>
+      <c r="K110" s="38">
+        <v>5</v>
+      </c>
       <c r="L110" s="38" t="s">
         <v>129</v>
       </c>
@@ -26137,13 +26185,21 @@
       <c r="F111" s="39">
         <v>52</v>
       </c>
-      <c r="G111" s="39"/>
+      <c r="G111" s="39">
+        <v>4</v>
+      </c>
       <c r="H111" s="39">
         <v>2</v>
       </c>
-      <c r="I111" s="39"/>
-      <c r="J111" s="39"/>
-      <c r="K111" s="39"/>
+      <c r="I111" s="39" t="s">
+        <v>322</v>
+      </c>
+      <c r="J111" s="39" t="s">
+        <v>322</v>
+      </c>
+      <c r="K111" s="39" t="s">
+        <v>322</v>
+      </c>
       <c r="L111" s="39" t="s">
         <v>129</v>
       </c>
@@ -26184,13 +26240,21 @@
       <c r="F112" s="38">
         <v>2</v>
       </c>
-      <c r="G112" s="38"/>
+      <c r="G112" s="38">
+        <v>7</v>
+      </c>
       <c r="H112" s="38">
         <v>4</v>
       </c>
-      <c r="I112" s="38"/>
-      <c r="J112" s="38"/>
-      <c r="K112" s="38"/>
+      <c r="I112" s="38">
+        <v>4</v>
+      </c>
+      <c r="J112" s="38">
+        <v>4</v>
+      </c>
+      <c r="K112" s="38">
+        <v>4</v>
+      </c>
       <c r="L112" s="38" t="s">
         <v>129</v>
       </c>
@@ -26207,7 +26271,7 @@
         <v>154</v>
       </c>
       <c r="Q112" s="38" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
     </row>
     <row r="113" spans="1:17" ht="68" x14ac:dyDescent="0.2">
@@ -26395,7 +26459,7 @@
         <v>154</v>
       </c>
       <c r="Q116" s="39" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
     </row>
     <row r="117" spans="1:17" ht="51" x14ac:dyDescent="0.2">
@@ -27053,7 +27117,7 @@
         <v>153</v>
       </c>
       <c r="Q130" s="39" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="131" spans="1:17" ht="102" x14ac:dyDescent="0.2">
@@ -27654,7 +27718,6 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
@@ -27687,8 +27750,8 @@
   <dimension ref="A1:G542"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A309" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G321" sqref="G321"/>
+      <pane ySplit="1" topLeftCell="A351" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F363" sqref="F363"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" zeroHeight="1" x14ac:dyDescent="0.2"/>
@@ -27772,7 +27835,7 @@
         <v>176</v>
       </c>
       <c r="G3" s="38" t="s">
-        <v>1090</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="51" x14ac:dyDescent="0.2">
@@ -27797,7 +27860,7 @@
         <v>178</v>
       </c>
       <c r="G4" s="39" t="s">
-        <v>1091</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="51" x14ac:dyDescent="0.2">
@@ -27822,7 +27885,7 @@
         <v>179</v>
       </c>
       <c r="G5" s="38" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="68" x14ac:dyDescent="0.2">
@@ -28597,7 +28660,7 @@
         <v>179</v>
       </c>
       <c r="G36" s="39" t="s">
-        <v>1100</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="68" x14ac:dyDescent="0.2">
@@ -31922,7 +31985,7 @@
         <v>176</v>
       </c>
       <c r="G169" s="39" t="s">
-        <v>1129</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="170" spans="1:7" ht="68" x14ac:dyDescent="0.2">
@@ -31947,7 +32010,7 @@
         <v>178</v>
       </c>
       <c r="G170" s="38" t="s">
-        <v>1129</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="171" spans="1:7" ht="68" x14ac:dyDescent="0.2">
@@ -31972,7 +32035,7 @@
         <v>179</v>
       </c>
       <c r="G171" s="39" t="s">
-        <v>1128</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="172" spans="1:7" ht="51" x14ac:dyDescent="0.2">
@@ -32572,7 +32635,7 @@
         <v>172</v>
       </c>
       <c r="G195" s="39" t="s">
-        <v>1137</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="196" spans="1:7" ht="85" x14ac:dyDescent="0.2">
@@ -32597,7 +32660,7 @@
         <v>176</v>
       </c>
       <c r="G196" s="38" t="s">
-        <v>1136</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="197" spans="1:7" ht="85" x14ac:dyDescent="0.2">
@@ -32622,7 +32685,7 @@
         <v>178</v>
       </c>
       <c r="G197" s="39" t="s">
-        <v>1136</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="198" spans="1:7" ht="85" x14ac:dyDescent="0.2">
@@ -32647,7 +32710,7 @@
         <v>179</v>
       </c>
       <c r="G198" s="38" t="s">
-        <v>1138</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="199" spans="1:7" ht="34" x14ac:dyDescent="0.2">
@@ -33097,7 +33160,7 @@
         <v>179</v>
       </c>
       <c r="G216" s="38" t="s">
-        <v>1142</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="217" spans="1:7" ht="85" x14ac:dyDescent="0.2">
@@ -33497,7 +33560,7 @@
         <v>179</v>
       </c>
       <c r="G232" s="38" t="s">
-        <v>1146</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="233" spans="1:7" ht="34" x14ac:dyDescent="0.2">
@@ -34216,7 +34279,7 @@
         <v>368</v>
       </c>
       <c r="E261" s="39" t="s">
-        <v>1149</v>
+        <v>1147</v>
       </c>
       <c r="F261" s="39" t="s">
         <v>172</v>
@@ -34241,7 +34304,7 @@
         <v>368</v>
       </c>
       <c r="E262" s="38" t="s">
-        <v>1150</v>
+        <v>1148</v>
       </c>
       <c r="F262" s="38" t="s">
         <v>176</v>
@@ -34266,7 +34329,7 @@
         <v>368</v>
       </c>
       <c r="E263" s="39" t="s">
-        <v>1151</v>
+        <v>1149</v>
       </c>
       <c r="F263" s="39" t="s">
         <v>178</v>
@@ -34291,7 +34354,7 @@
         <v>368</v>
       </c>
       <c r="E264" s="38" t="s">
-        <v>1152</v>
+        <v>1150</v>
       </c>
       <c r="F264" s="38" t="s">
         <v>179</v>
@@ -34316,7 +34379,7 @@
         <v>368</v>
       </c>
       <c r="E265" s="39" t="s">
-        <v>1153</v>
+        <v>1151</v>
       </c>
       <c r="F265" s="39" t="s">
         <v>172</v>
@@ -34341,7 +34404,7 @@
         <v>368</v>
       </c>
       <c r="E266" s="38" t="s">
-        <v>1154</v>
+        <v>1152</v>
       </c>
       <c r="F266" s="38" t="s">
         <v>176</v>
@@ -34366,7 +34429,7 @@
         <v>368</v>
       </c>
       <c r="E267" s="39" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="F267" s="39" t="s">
         <v>178</v>
@@ -34391,7 +34454,7 @@
         <v>368</v>
       </c>
       <c r="E268" s="38" t="s">
-        <v>1156</v>
+        <v>1154</v>
       </c>
       <c r="F268" s="38" t="s">
         <v>179</v>
@@ -34964,7 +35027,7 @@
         <v>368</v>
       </c>
       <c r="E291" s="39" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="F291" s="39" t="s">
         <v>336</v>
@@ -35295,7 +35358,7 @@
         <v>179</v>
       </c>
       <c r="G304" s="38" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="305" spans="1:7" ht="51" x14ac:dyDescent="0.2">
@@ -36170,7 +36233,7 @@
         <v>172</v>
       </c>
       <c r="G339" s="39" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
     </row>
     <row r="340" spans="1:7" ht="68" x14ac:dyDescent="0.2">
@@ -36195,7 +36258,7 @@
         <v>176</v>
       </c>
       <c r="G340" s="38" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
     </row>
     <row r="341" spans="1:7" ht="68" x14ac:dyDescent="0.2">
@@ -36220,7 +36283,7 @@
         <v>178</v>
       </c>
       <c r="G341" s="39" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
     </row>
     <row r="342" spans="1:7" ht="68" x14ac:dyDescent="0.2">
@@ -36245,7 +36308,7 @@
         <v>179</v>
       </c>
       <c r="G342" s="38" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
     </row>
     <row r="343" spans="1:7" ht="68" x14ac:dyDescent="0.2">
@@ -36270,7 +36333,7 @@
         <v>172</v>
       </c>
       <c r="G343" s="39" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
     </row>
     <row r="344" spans="1:7" ht="68" x14ac:dyDescent="0.2">
@@ -36295,7 +36358,7 @@
         <v>176</v>
       </c>
       <c r="G344" s="38" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
     </row>
     <row r="345" spans="1:7" ht="68" x14ac:dyDescent="0.2">
@@ -36320,7 +36383,7 @@
         <v>178</v>
       </c>
       <c r="G345" s="39" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
     </row>
     <row r="346" spans="1:7" ht="68" x14ac:dyDescent="0.2">
@@ -36345,7 +36408,7 @@
         <v>179</v>
       </c>
       <c r="G346" s="38" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
     </row>
     <row r="347" spans="1:7" ht="85" x14ac:dyDescent="0.2">
@@ -36370,7 +36433,7 @@
         <v>172</v>
       </c>
       <c r="G347" s="39" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="348" spans="1:7" ht="85" x14ac:dyDescent="0.2">
@@ -36395,7 +36458,7 @@
         <v>176</v>
       </c>
       <c r="G348" s="38" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
     <row r="349" spans="1:7" ht="85" x14ac:dyDescent="0.2">
@@ -36420,7 +36483,7 @@
         <v>178</v>
       </c>
       <c r="G349" s="39" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
     <row r="350" spans="1:7" ht="85" x14ac:dyDescent="0.2">
@@ -36445,7 +36508,7 @@
         <v>179</v>
       </c>
       <c r="G350" s="38" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="351" spans="1:7" ht="51" x14ac:dyDescent="0.2">
@@ -36470,7 +36533,7 @@
         <v>173</v>
       </c>
       <c r="G351" s="39" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
     </row>
     <row r="352" spans="1:7" ht="51" x14ac:dyDescent="0.2">
@@ -36520,7 +36583,7 @@
         <v>179</v>
       </c>
       <c r="G353" s="39" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
     </row>
     <row r="354" spans="1:7" ht="68" x14ac:dyDescent="0.2">
@@ -36545,7 +36608,7 @@
         <v>172</v>
       </c>
       <c r="G354" s="38" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
     </row>
     <row r="355" spans="1:7" ht="68" x14ac:dyDescent="0.2">
@@ -36564,13 +36627,13 @@
         <v>368</v>
       </c>
       <c r="E355" s="39" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="F355" s="39" t="s">
         <v>336</v>
       </c>
       <c r="G355" s="39" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
     </row>
     <row r="356" spans="1:7" ht="68" x14ac:dyDescent="0.2">
@@ -36595,7 +36658,7 @@
         <v>175</v>
       </c>
       <c r="G356" s="38" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
     </row>
     <row r="357" spans="1:7" ht="68" x14ac:dyDescent="0.2">
@@ -36620,7 +36683,7 @@
         <v>175</v>
       </c>
       <c r="G357" s="39" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
     </row>
     <row r="358" spans="1:7" ht="68" x14ac:dyDescent="0.2">
@@ -36645,7 +36708,7 @@
         <v>179</v>
       </c>
       <c r="G358" s="38" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
     </row>
     <row r="359" spans="1:7" ht="68" x14ac:dyDescent="0.2">
@@ -36695,7 +36758,7 @@
         <v>172</v>
       </c>
       <c r="G360" s="38" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
     </row>
     <row r="361" spans="1:7" ht="51" x14ac:dyDescent="0.2">
@@ -36770,7 +36833,7 @@
         <v>179</v>
       </c>
       <c r="G363" s="39" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
     </row>
     <row r="364" spans="1:7" ht="68" x14ac:dyDescent="0.2">
@@ -36795,7 +36858,7 @@
         <v>172</v>
       </c>
       <c r="G364" s="38" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
     </row>
     <row r="365" spans="1:7" ht="68" x14ac:dyDescent="0.2">
@@ -36820,7 +36883,7 @@
         <v>176</v>
       </c>
       <c r="G365" s="39" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
     </row>
     <row r="366" spans="1:7" ht="68" x14ac:dyDescent="0.2">
@@ -36845,7 +36908,7 @@
         <v>178</v>
       </c>
       <c r="G366" s="38" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
     </row>
     <row r="367" spans="1:7" ht="68" x14ac:dyDescent="0.2">
@@ -36870,7 +36933,7 @@
         <v>179</v>
       </c>
       <c r="G367" s="39" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
     </row>
     <row r="368" spans="1:7" ht="68" x14ac:dyDescent="0.2">
@@ -36970,7 +37033,7 @@
         <v>179</v>
       </c>
       <c r="G371" s="39" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
     </row>
     <row r="372" spans="1:7" ht="34" x14ac:dyDescent="0.2">
@@ -36995,7 +37058,7 @@
         <v>172</v>
       </c>
       <c r="G372" s="38" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
     </row>
     <row r="373" spans="1:7" ht="34" x14ac:dyDescent="0.2">
@@ -37020,7 +37083,7 @@
         <v>176</v>
       </c>
       <c r="G373" s="39" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
     </row>
     <row r="374" spans="1:7" ht="34" x14ac:dyDescent="0.2">
@@ -37045,7 +37108,7 @@
         <v>178</v>
       </c>
       <c r="G374" s="38" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
     </row>
     <row r="375" spans="1:7" ht="34" x14ac:dyDescent="0.2">
@@ -37070,7 +37133,7 @@
         <v>179</v>
       </c>
       <c r="G375" s="39" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
     </row>
     <row r="376" spans="1:7" ht="34" x14ac:dyDescent="0.2">
@@ -37095,7 +37158,7 @@
         <v>172</v>
       </c>
       <c r="G376" s="38" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
     </row>
     <row r="377" spans="1:7" ht="34" x14ac:dyDescent="0.2">
@@ -37120,7 +37183,7 @@
         <v>176</v>
       </c>
       <c r="G377" s="39" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
     </row>
     <row r="378" spans="1:7" ht="34" x14ac:dyDescent="0.2">
@@ -37145,7 +37208,7 @@
         <v>178</v>
       </c>
       <c r="G378" s="38" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
     </row>
     <row r="379" spans="1:7" ht="34" x14ac:dyDescent="0.2">
@@ -37170,7 +37233,7 @@
         <v>179</v>
       </c>
       <c r="G379" s="39" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
     </row>
     <row r="380" spans="1:7" ht="51" x14ac:dyDescent="0.2">
@@ -37183,7 +37246,7 @@
         <v>Experimentally testing the response of feral cats and their prey to poison baiting</v>
       </c>
       <c r="C380" s="38" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="D380" s="38" t="s">
         <v>368</v>
@@ -37195,7 +37258,7 @@
         <v>172</v>
       </c>
       <c r="G380" s="38" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
     </row>
     <row r="381" spans="1:7" ht="51" x14ac:dyDescent="0.2">
@@ -37208,7 +37271,7 @@
         <v>Experimentally testing the response of feral cats and their prey to poison baiting</v>
       </c>
       <c r="C381" s="39" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="D381" s="39" t="s">
         <v>368</v>
@@ -37233,7 +37296,7 @@
         <v>Experimentally testing the response of feral cats and their prey to poison baiting</v>
       </c>
       <c r="C382" s="38" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="D382" s="38" t="s">
         <v>368</v>
@@ -37245,7 +37308,7 @@
         <v>178</v>
       </c>
       <c r="G382" s="38" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
     </row>
     <row r="383" spans="1:7" ht="51" x14ac:dyDescent="0.2">
@@ -37258,7 +37321,7 @@
         <v>Experimentally testing the response of feral cats and their prey to poison baiting</v>
       </c>
       <c r="C383" s="39" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="D383" s="39" t="s">
         <v>368</v>
@@ -37270,7 +37333,7 @@
         <v>179</v>
       </c>
       <c r="G383" s="39" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
     </row>
     <row r="384" spans="1:7" ht="68" x14ac:dyDescent="0.2">
@@ -37320,7 +37383,7 @@
         <v>176</v>
       </c>
       <c r="G385" s="39" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
     </row>
     <row r="386" spans="1:7" ht="68" x14ac:dyDescent="0.2">
@@ -37345,7 +37408,7 @@
         <v>178</v>
       </c>
       <c r="G386" s="38" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
     </row>
     <row r="387" spans="1:7" ht="68" x14ac:dyDescent="0.2">
@@ -37370,7 +37433,7 @@
         <v>179</v>
       </c>
       <c r="G387" s="39" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
     </row>
     <row r="388" spans="1:7" ht="68" x14ac:dyDescent="0.2">
@@ -37445,7 +37508,7 @@
         <v>179</v>
       </c>
       <c r="G390" s="38" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
     </row>
     <row r="391" spans="1:7" ht="68" x14ac:dyDescent="0.2">
@@ -37495,7 +37558,7 @@
         <v>176</v>
       </c>
       <c r="G392" s="38" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
     </row>
     <row r="393" spans="1:7" ht="68" x14ac:dyDescent="0.2">
@@ -37520,7 +37583,7 @@
         <v>178</v>
       </c>
       <c r="G393" s="39" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
     </row>
     <row r="394" spans="1:7" ht="68" x14ac:dyDescent="0.2">
@@ -37570,7 +37633,7 @@
         <v>172</v>
       </c>
       <c r="G395" s="39" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="396" spans="1:7" ht="187" x14ac:dyDescent="0.2">
@@ -37595,7 +37658,7 @@
         <v>176</v>
       </c>
       <c r="G396" s="38" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="397" spans="1:7" ht="187" x14ac:dyDescent="0.2">
@@ -37620,7 +37683,7 @@
         <v>178</v>
       </c>
       <c r="G397" s="39" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="398" spans="1:7" ht="102" x14ac:dyDescent="0.2">
@@ -37645,7 +37708,7 @@
         <v>179</v>
       </c>
       <c r="G398" s="38" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
     </row>
     <row r="399" spans="1:7" ht="85" x14ac:dyDescent="0.2">
@@ -37670,7 +37733,7 @@
         <v>173</v>
       </c>
       <c r="G399" s="39" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
     </row>
     <row r="400" spans="1:7" ht="85" x14ac:dyDescent="0.2">
@@ -37695,7 +37758,7 @@
         <v>176</v>
       </c>
       <c r="G400" s="38" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
     </row>
     <row r="401" spans="1:7" ht="85" x14ac:dyDescent="0.2">
@@ -37720,7 +37783,7 @@
         <v>178</v>
       </c>
       <c r="G401" s="39" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
     </row>
     <row r="402" spans="1:7" ht="85" x14ac:dyDescent="0.2">
@@ -37770,7 +37833,7 @@
         <v>173</v>
       </c>
       <c r="G403" s="39" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
     </row>
     <row r="404" spans="1:7" ht="68" x14ac:dyDescent="0.2">
@@ -37795,7 +37858,7 @@
         <v>178</v>
       </c>
       <c r="G404" s="38" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
     </row>
     <row r="405" spans="1:7" ht="68" x14ac:dyDescent="0.2">
@@ -37870,7 +37933,7 @@
         <v>176</v>
       </c>
       <c r="G407" s="39" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="408" spans="1:7" ht="119" x14ac:dyDescent="0.2">
@@ -37895,7 +37958,7 @@
         <v>178</v>
       </c>
       <c r="G408" s="38" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="409" spans="1:7" ht="51" x14ac:dyDescent="0.2">
@@ -37939,7 +38002,7 @@
         <v>368</v>
       </c>
       <c r="E410" s="38" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="F410" s="38" t="s">
         <v>172</v>
@@ -37964,7 +38027,7 @@
         <v>368</v>
       </c>
       <c r="E411" s="39" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
       <c r="F411" s="39" t="s">
         <v>176</v>
@@ -37989,7 +38052,7 @@
         <v>368</v>
       </c>
       <c r="E412" s="38" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="F412" s="38" t="s">
         <v>178</v>
@@ -38014,7 +38077,7 @@
         <v>368</v>
       </c>
       <c r="E413" s="39" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
       <c r="F413" s="39" t="s">
         <v>179</v>
@@ -38070,7 +38133,7 @@
         <v>176</v>
       </c>
       <c r="G415" s="39" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="416" spans="1:7" ht="85" x14ac:dyDescent="0.2">
@@ -38095,7 +38158,7 @@
         <v>178</v>
       </c>
       <c r="G416" s="38" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="417" spans="1:7" ht="85" x14ac:dyDescent="0.2">
@@ -38120,7 +38183,7 @@
         <v>179</v>
       </c>
       <c r="G417" s="39" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="418" spans="1:7" ht="85" x14ac:dyDescent="0.2">
@@ -38139,13 +38202,13 @@
         <v>368</v>
       </c>
       <c r="E418" s="38" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="F418" s="38" t="s">
         <v>181</v>
       </c>
       <c r="G418" s="38" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="419" spans="1:7" ht="85" x14ac:dyDescent="0.2">
@@ -38164,13 +38227,13 @@
         <v>368</v>
       </c>
       <c r="E419" s="52" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="F419" s="52" t="s">
         <v>181</v>
       </c>
       <c r="G419" s="52" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="420" spans="1:7" x14ac:dyDescent="0.2"/>
@@ -38317,9 +38380,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75A75B7C-E7E1-234A-BD6D-A3B2966FCDDB}">
   <dimension ref="A1:L171"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A64" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A76" sqref="A76"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I85" sqref="I85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" zeroHeight="1" x14ac:dyDescent="0.2"/>
@@ -41212,7 +41275,7 @@
         <v>298</v>
       </c>
       <c r="I78" s="38" t="s">
-        <v>843</v>
+        <v>271</v>
       </c>
       <c r="J78" s="38" t="s">
         <v>277</v>
@@ -41249,7 +41312,7 @@
         <v>299</v>
       </c>
       <c r="I79" s="39" t="s">
-        <v>551</v>
+        <v>267</v>
       </c>
       <c r="J79" s="39" t="s">
         <v>277</v>
@@ -41286,7 +41349,7 @@
         <v>298</v>
       </c>
       <c r="I80" s="38" t="s">
-        <v>551</v>
+        <v>267</v>
       </c>
       <c r="J80" s="38" t="s">
         <v>277</v>
@@ -41311,7 +41374,7 @@
         <v>368</v>
       </c>
       <c r="E81" s="39" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="F81" s="39" t="s">
         <v>261</v>
@@ -41360,7 +41423,7 @@
         <v>299</v>
       </c>
       <c r="I82" s="39" t="s">
-        <v>551</v>
+        <v>267</v>
       </c>
       <c r="J82" s="39" t="s">
         <v>277</v>
@@ -41397,7 +41460,7 @@
         <v>299</v>
       </c>
       <c r="I83" s="38" t="s">
-        <v>371</v>
+        <v>458</v>
       </c>
       <c r="J83" s="38" t="s">
         <v>277</v>
@@ -41545,7 +41608,7 @@
         <v>299</v>
       </c>
       <c r="I87" s="38" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="J87" s="38" t="s">
         <v>280</v>
@@ -41601,7 +41664,7 @@
         <v>Experimentally testing the response of feral cats and their prey to poison baiting</v>
       </c>
       <c r="C89" s="38" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="D89" s="38" t="s">
         <v>368</v>
@@ -41619,7 +41682,7 @@
         <v>293</v>
       </c>
       <c r="I89" s="38" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="J89" s="38" t="s">
         <v>277</v>
@@ -41804,7 +41867,7 @@
         <v>57</v>
       </c>
       <c r="I94" s="39" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="J94" s="39" t="s">
         <v>277</v>
@@ -41887,7 +41950,7 @@
         <v>285</v>
       </c>
       <c r="L96" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="97" spans="1:11" ht="85" x14ac:dyDescent="0.2">
@@ -41918,7 +41981,7 @@
         <v>57</v>
       </c>
       <c r="I97" s="38" t="s">
-        <v>1024</v>
+        <v>1022</v>
       </c>
       <c r="J97" s="38" t="s">
         <v>57</v>
@@ -42610,7 +42673,7 @@
         <v>0</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>46</v>
@@ -42624,7 +42687,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>1056</v>
+        <v>1054</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>45</v>
@@ -42638,7 +42701,7 @@
         <v>13</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
       <c r="D5" s="7" t="s">
         <v>45</v>
@@ -42654,7 +42717,7 @@
         <v>14</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
       <c r="D6" s="7" t="s">
         <v>45</v>
@@ -42672,7 +42735,7 @@
         <v>3</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
       <c r="D7" s="9" t="s">
         <v>46</v>
@@ -42686,7 +42749,7 @@
         <v>49</v>
       </c>
       <c r="C8" s="57" t="s">
-        <v>1054</v>
+        <v>1052</v>
       </c>
       <c r="D8" s="58" t="s">
         <v>48</v>
@@ -42752,7 +42815,7 @@
         <v>5</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
       <c r="D13" s="9" t="s">
         <v>45</v>
@@ -42766,7 +42829,7 @@
         <v>6</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>1052</v>
+        <v>1050</v>
       </c>
       <c r="D14" s="9" t="s">
         <v>51</v>
@@ -42777,10 +42840,10 @@
     <row r="15" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A15" s="84"/>
       <c r="B15" s="24" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
       <c r="D15" s="9" t="s">
         <v>51</v>
@@ -42798,7 +42861,7 @@
         <v>7</v>
       </c>
       <c r="C16" s="59" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="D16" s="59" t="s">
         <v>53</v>
@@ -42863,10 +42926,10 @@
     <row r="21" spans="1:6" ht="85" x14ac:dyDescent="0.2">
       <c r="A21" s="55"/>
       <c r="B21" s="31" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
       <c r="C21" s="32" t="s">
-        <v>1095</v>
+        <v>1093</v>
       </c>
       <c r="D21" s="30" t="s">
         <v>151</v>
@@ -42880,7 +42943,7 @@
         <v>9</v>
       </c>
       <c r="C22" s="32" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="D22" s="30" t="s">
         <v>151</v>
@@ -42894,7 +42957,7 @@
         <v>10</v>
       </c>
       <c r="C23" s="32" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="D23" s="30" t="s">
         <v>151</v>
@@ -42922,7 +42985,7 @@
         <v>11</v>
       </c>
       <c r="C25" s="32" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
       <c r="D25" s="30" t="s">
         <v>151</v>
@@ -42936,7 +42999,7 @@
         <v>12</v>
       </c>
       <c r="C26" s="32" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
       <c r="D26" s="30" t="s">
         <v>151</v>
@@ -42952,7 +43015,7 @@
         <v>15</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="D27" s="11" t="s">
         <v>45</v>
@@ -42966,7 +43029,7 @@
         <v>17</v>
       </c>
       <c r="C28" s="74" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
       <c r="D28" s="73" t="s">
         <v>53</v>
@@ -43044,7 +43107,7 @@
         <v>18</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="D34" s="11" t="s">
         <v>46</v>
@@ -43058,7 +43121,7 @@
         <v>38</v>
       </c>
       <c r="C35" s="74" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
       <c r="D35" s="73" t="s">
         <v>48</v>
@@ -43112,7 +43175,7 @@
         <v>1</v>
       </c>
       <c r="C39" s="74" t="s">
-        <v>1047</v>
+        <v>1045</v>
       </c>
       <c r="D39" s="73" t="s">
         <v>53</v>
@@ -43226,7 +43289,7 @@
         <v>16</v>
       </c>
       <c r="C48" s="74" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
       <c r="D48" s="73" t="s">
         <v>53</v>
@@ -43342,7 +43405,7 @@
         <v>19</v>
       </c>
       <c r="C57" s="14" t="s">
-        <v>1045</v>
+        <v>1043</v>
       </c>
       <c r="D57" s="13" t="s">
         <v>45</v>
@@ -43358,7 +43421,7 @@
         <v>20</v>
       </c>
       <c r="C58" s="75" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
       <c r="D58" s="72" t="s">
         <v>48</v>
@@ -43424,7 +43487,7 @@
         <v>21</v>
       </c>
       <c r="C64" s="75" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="D64" s="72" t="s">
         <v>48</v>
@@ -43492,7 +43555,7 @@
         <v>22</v>
       </c>
       <c r="C70" s="75" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="D70" s="72" t="s">
         <v>48</v>
@@ -43590,7 +43653,7 @@
         <v>28</v>
       </c>
       <c r="C79" s="17" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
       <c r="D79" s="17" t="s">
         <v>128</v>
@@ -43604,7 +43667,7 @@
         <v>27</v>
       </c>
       <c r="C80" s="17" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
       <c r="D80" s="17" t="s">
         <v>128</v>
@@ -43618,7 +43681,7 @@
         <v>23</v>
       </c>
       <c r="C81" s="17" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="D81" s="16" t="s">
         <v>46</v>
@@ -43629,10 +43692,10 @@
     <row r="82" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A82" s="100"/>
       <c r="B82" s="26" t="s">
-        <v>1060</v>
+        <v>1058</v>
       </c>
       <c r="C82" s="17" t="s">
-        <v>1061</v>
+        <v>1059</v>
       </c>
       <c r="D82" s="16" t="s">
         <v>46</v>
@@ -43643,10 +43706,10 @@
     <row r="83" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A83" s="100"/>
       <c r="B83" s="53" t="s">
-        <v>1062</v>
+        <v>1060</v>
       </c>
       <c r="C83" s="17" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
       <c r="D83" s="16" t="s">
         <v>46</v>
@@ -43657,10 +43720,10 @@
     <row r="84" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A84" s="100"/>
       <c r="B84" s="53" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
       <c r="C84" s="17" t="s">
-        <v>1067</v>
+        <v>1065</v>
       </c>
       <c r="D84" s="16" t="s">
         <v>46</v>
@@ -43671,10 +43734,10 @@
     <row r="85" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A85" s="100"/>
       <c r="B85" s="53" t="s">
-        <v>1064</v>
+        <v>1062</v>
       </c>
       <c r="C85" s="17" t="s">
-        <v>1068</v>
+        <v>1066</v>
       </c>
       <c r="D85" s="16" t="s">
         <v>46</v>
@@ -43685,10 +43748,10 @@
     <row r="86" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A86" s="100"/>
       <c r="B86" s="53" t="s">
-        <v>1065</v>
+        <v>1063</v>
       </c>
       <c r="C86" s="17" t="s">
-        <v>1087</v>
+        <v>1085</v>
       </c>
       <c r="D86" s="16" t="s">
         <v>46</v>
@@ -43702,7 +43765,7 @@
         <v>24</v>
       </c>
       <c r="C87" s="98" t="s">
-        <v>1070</v>
+        <v>1068</v>
       </c>
       <c r="D87" s="97" t="s">
         <v>48</v>
@@ -43723,7 +43786,7 @@
         <v>320</v>
       </c>
       <c r="F88" s="16" t="s">
-        <v>1069</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.2">
@@ -43804,7 +43867,7 @@
         <v>26</v>
       </c>
       <c r="C95" s="69" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="D95" s="69" t="s">
         <v>53</v>
@@ -43858,7 +43921,7 @@
         <v>150</v>
       </c>
       <c r="C99" s="17" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
       <c r="D99" s="16" t="s">
         <v>151</v>
@@ -43886,7 +43949,7 @@
         <v>25</v>
       </c>
       <c r="C101" s="98" t="s">
-        <v>1073</v>
+        <v>1071</v>
       </c>
       <c r="D101" s="97" t="s">
         <v>48</v>
@@ -43931,7 +43994,7 @@
         <v>330</v>
       </c>
       <c r="F104" s="16" t="s">
-        <v>1097</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.2">
@@ -44044,7 +44107,7 @@
         <v>30</v>
       </c>
       <c r="C113" s="18" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="D113" s="19" t="s">
         <v>45</v>
@@ -44058,7 +44121,7 @@
         <v>171</v>
       </c>
       <c r="C114" s="108" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
       <c r="D114" s="91" t="s">
         <v>48</v>
@@ -44079,7 +44142,7 @@
         <v>173</v>
       </c>
       <c r="F115" s="20" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.2">
@@ -44115,7 +44178,7 @@
         <v>175</v>
       </c>
       <c r="F118" s="19" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.2">
@@ -44139,7 +44202,7 @@
         <v>181</v>
       </c>
       <c r="F120" s="20" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="121" spans="1:7" ht="17" x14ac:dyDescent="0.2">
@@ -44630,7 +44693,7 @@
         <v>305</v>
       </c>
       <c r="C157" s="62" t="s">
-        <v>1079</v>
+        <v>1077</v>
       </c>
       <c r="D157" s="62" t="s">
         <v>48</v>
@@ -44651,7 +44714,7 @@
         <v>173</v>
       </c>
       <c r="F158" s="22" t="s">
-        <v>1076</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="159" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -44732,7 +44795,7 @@
         <v>304</v>
       </c>
       <c r="C165" s="62" t="s">
-        <v>1084</v>
+        <v>1082</v>
       </c>
       <c r="D165" s="62" t="s">
         <v>48</v>
@@ -44758,7 +44821,7 @@
         <v>32</v>
       </c>
       <c r="C167" s="77" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
       <c r="D167" s="77" t="s">
         <v>53</v>
@@ -44767,7 +44830,7 @@
         <v>70</v>
       </c>
       <c r="F167" s="22" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="168" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -44779,7 +44842,7 @@
         <v>179</v>
       </c>
       <c r="F168" s="22" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="169" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -44800,7 +44863,7 @@
         <v>262</v>
       </c>
       <c r="C170" s="62" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
       <c r="D170" s="62" t="s">
         <v>48</v>
@@ -44902,7 +44965,7 @@
         <v>33</v>
       </c>
       <c r="C178" s="77" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
       <c r="D178" s="77" t="s">
         <v>53</v>
@@ -44983,7 +45046,7 @@
         <v>276</v>
       </c>
       <c r="F184" s="22" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="185" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -45016,7 +45079,7 @@
         <v>34</v>
       </c>
       <c r="C187" s="62" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
       <c r="D187" s="62" t="s">
         <v>48</v>
@@ -45106,7 +45169,7 @@
         <v>35</v>
       </c>
       <c r="C194" s="77" t="s">
-        <v>1086</v>
+        <v>1084</v>
       </c>
       <c r="D194" s="77" t="s">
         <v>53</v>

--- a/Spreadsheets/DOM_Spreadsheet.xlsx
+++ b/Spreadsheets/DOM_Spreadsheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/saoirsekelleher/Documents/Research/QAEco/DOM_Review/Spreadsheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{634C57F2-0BB9-A942-B131-C656E5EE6EE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{217B3D91-04A0-FD4C-8110-DBFE09BE43AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="25080" windowHeight="28300" activeTab="6" xr2:uid="{981D9C2C-D510-E947-BD55-27C976277DB6}"/>
   </bookViews>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6840" uniqueCount="1166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6850" uniqueCount="1166">
   <si>
     <t>Review ID</t>
   </si>
@@ -4811,15 +4811,6 @@
     <t>NGO, Private</t>
   </si>
   <si>
-    <t>Coyote Canis latrans</t>
-  </si>
-  <si>
-    <t>Raccoon Procyon lotor</t>
-  </si>
-  <si>
-    <t>Opossum Didelphis virginianus</t>
-  </si>
-  <si>
     <t>Transect, Preferential</t>
   </si>
   <si>
@@ -4833,9 +4824,6 @@
   </si>
   <si>
     <t>Multi-species conditional detection</t>
-  </si>
-  <si>
-    <t>e3</t>
   </si>
   <si>
     <t>Accounting for misclassification of subspecies provides insights about habitat use and dynamics of the Florida Grasshopper Sparrow in response to fire</t>
@@ -5588,6 +5576,68 @@
   </si>
   <si>
     <t>Austria, United States of America, United Kingdom, Colombia</t>
+  </si>
+  <si>
+    <t>Canada, New Zealand</t>
+  </si>
+  <si>
+    <t>AU-1998</t>
+  </si>
+  <si>
+    <t>AU-2018</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Coyote </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Canis latrans</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, Racoon </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Procyon lotor</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, Opossum </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Didelphis virginiana</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -6057,7 +6107,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="113">
+  <cellXfs count="112">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -6212,37 +6262,7 @@
     <xf numFmtId="0" fontId="10" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="14" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6252,6 +6272,12 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="14" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6275,11 +6301,35 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -6314,13 +6364,22 @@
     <xf numFmtId="0" fontId="10" fillId="17" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6331,9 +6390,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="15" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
@@ -6352,9 +6408,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="10" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="13" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
@@ -6381,12 +6434,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -6416,10 +6463,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6806,8 +6849,8 @@
   <dimension ref="A1:XFB128"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G81" sqref="G81"/>
+      <pane ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F93" sqref="F93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="16" zeroHeight="1" x14ac:dyDescent="0.2"/>
@@ -6843,7 +6886,7 @@
         <v>6</v>
       </c>
       <c r="G1" s="36" t="s">
-        <v>1031</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="68" x14ac:dyDescent="0.2">
@@ -6866,7 +6909,7 @@
         <v>363</v>
       </c>
       <c r="G2" s="38" t="s">
-        <v>1086</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="51" x14ac:dyDescent="0.2">
@@ -6912,7 +6955,7 @@
         <v>387</v>
       </c>
       <c r="G4" s="38" t="s">
-        <v>1091</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="68" x14ac:dyDescent="0.2">
@@ -6981,7 +7024,7 @@
         <v>417</v>
       </c>
       <c r="G7" s="39" t="s">
-        <v>1094</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="34" x14ac:dyDescent="0.2">
@@ -7027,7 +7070,7 @@
         <v>431</v>
       </c>
       <c r="G9" s="39" t="s">
-        <v>1099</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="51" x14ac:dyDescent="0.2">
@@ -7073,7 +7116,7 @@
         <v>447</v>
       </c>
       <c r="G11" s="39" t="s">
-        <v>1102</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="119" x14ac:dyDescent="0.2">
@@ -7096,7 +7139,7 @@
         <v>460</v>
       </c>
       <c r="G12" s="38" t="s">
-        <v>1103</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="51" x14ac:dyDescent="0.2">
@@ -7188,7 +7231,7 @@
         <v>490</v>
       </c>
       <c r="G16" s="38" t="s">
-        <v>1104</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="68" x14ac:dyDescent="0.2">
@@ -7234,7 +7277,7 @@
         <v>509</v>
       </c>
       <c r="G18" s="38" t="s">
-        <v>1106</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="68" x14ac:dyDescent="0.2">
@@ -7441,7 +7484,7 @@
         <v>575</v>
       </c>
       <c r="G27" s="39" t="s">
-        <v>1094</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="51" x14ac:dyDescent="0.2">
@@ -7472,7 +7515,7 @@
         <v>675</v>
       </c>
       <c r="B29" s="39" t="s">
-        <v>1114</v>
+        <v>1110</v>
       </c>
       <c r="C29" s="39">
         <v>2012</v>
@@ -7625,7 +7668,7 @@
         <v>634</v>
       </c>
       <c r="G35" s="39" t="s">
-        <v>1117</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="68" x14ac:dyDescent="0.2">
@@ -7694,7 +7737,7 @@
         <v>651</v>
       </c>
       <c r="G38" s="38" t="s">
-        <v>1120</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="51" x14ac:dyDescent="0.2">
@@ -7878,7 +7921,7 @@
         <v>701</v>
       </c>
       <c r="G46" s="38" t="s">
-        <v>1133</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="34" x14ac:dyDescent="0.2">
@@ -7970,7 +8013,7 @@
         <v>728</v>
       </c>
       <c r="G50" s="38" t="s">
-        <v>1139</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="51" spans="1:7" ht="34" x14ac:dyDescent="0.2">
@@ -8016,7 +8059,7 @@
         <v>746</v>
       </c>
       <c r="G52" s="38" t="s">
-        <v>1142</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="53" spans="1:7" ht="51" x14ac:dyDescent="0.2">
@@ -8039,7 +8082,7 @@
         <v>751</v>
       </c>
       <c r="G53" s="39" t="s">
-        <v>1143</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="54" spans="1:7" ht="34" x14ac:dyDescent="0.2">
@@ -8269,7 +8312,7 @@
         <v>812</v>
       </c>
       <c r="G63" s="39" t="s">
-        <v>1155</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="64" spans="1:7" ht="51" x14ac:dyDescent="0.2">
@@ -8384,7 +8427,7 @@
         <v>851</v>
       </c>
       <c r="G68" s="38" t="s">
-        <v>1157</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="69" spans="1:7" ht="68" x14ac:dyDescent="0.2">
@@ -8453,7 +8496,7 @@
         <v>869</v>
       </c>
       <c r="G71" s="39" t="s">
-        <v>1159</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="72" spans="1:7" ht="34" x14ac:dyDescent="0.2">
@@ -8499,7 +8542,7 @@
         <v>883</v>
       </c>
       <c r="G73" s="39" t="s">
-        <v>1162</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="74" spans="1:7" ht="51" x14ac:dyDescent="0.2">
@@ -8591,7 +8634,7 @@
         <v>907</v>
       </c>
       <c r="G77" s="39" t="s">
-        <v>1163</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="78" spans="1:7" ht="68" x14ac:dyDescent="0.2">
@@ -8660,7 +8703,7 @@
         <v>927</v>
       </c>
       <c r="G80" s="38" t="s">
-        <v>1165</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="81" spans="1:8" ht="51" x14ac:dyDescent="0.2">
@@ -8729,7 +8772,7 @@
         <v>949</v>
       </c>
       <c r="G83" s="39" t="s">
-        <v>396</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="84" spans="1:8" ht="34" x14ac:dyDescent="0.2">
@@ -8933,7 +8976,7 @@
         <v>483</v>
       </c>
       <c r="F92" s="38" t="s">
-        <v>1013</v>
+        <v>1009</v>
       </c>
       <c r="G92" s="38" t="s">
         <v>373</v>
@@ -8947,7 +8990,7 @@
         <v>549</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>1012</v>
+        <v>1008</v>
       </c>
       <c r="C93" s="39">
         <v>2023</v>
@@ -8959,7 +9002,7 @@
         <v>626</v>
       </c>
       <c r="F93" s="39" t="s">
-        <v>1014</v>
+        <v>1010</v>
       </c>
       <c r="G93" s="39" t="s">
         <v>373</v>
@@ -9152,8 +9195,8 @@
   <dimension ref="A1:I130"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A72" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F81" sqref="F81"/>
+      <pane ySplit="1" topLeftCell="A83" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F92" sqref="F92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="16" zeroHeight="1" x14ac:dyDescent="0.2"/>
@@ -9184,7 +9227,7 @@
         <v>325</v>
       </c>
       <c r="E1" s="40" t="s">
-        <v>1040</v>
+        <v>1036</v>
       </c>
       <c r="F1" s="40" t="s">
         <v>326</v>
@@ -11695,7 +11738,7 @@
         <v>366</v>
       </c>
       <c r="E82" s="38" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="F82" s="38" t="s">
         <v>366</v>
@@ -12391,9 +12434,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{972CA9F4-C4C2-C448-94BA-649C49266D7E}">
   <dimension ref="A1:I175"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A85" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I95" sqref="I95"/>
+    <sheetView topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A100" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I108" sqref="I108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" zeroHeight="1" x14ac:dyDescent="0.2"/>
@@ -12450,7 +12493,7 @@
         <v>368</v>
       </c>
       <c r="D2" s="33" t="s">
-        <v>1087</v>
+        <v>1083</v>
       </c>
       <c r="E2" s="33" t="s">
         <v>55</v>
@@ -12493,7 +12536,7 @@
         <v>72</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>1090</v>
+        <v>1086</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>412</v>
@@ -12558,7 +12601,7 @@
         <v>74</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>1092</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="51" x14ac:dyDescent="0.2">
@@ -12667,7 +12710,7 @@
         <v>368</v>
       </c>
       <c r="D9" s="33" t="s">
-        <v>1096</v>
+        <v>1092</v>
       </c>
       <c r="E9" s="33" t="s">
         <v>54</v>
@@ -12679,7 +12722,7 @@
         <v>67</v>
       </c>
       <c r="H9" s="33" t="s">
-        <v>1097</v>
+        <v>1093</v>
       </c>
       <c r="I9" s="33" t="s">
         <v>57</v>
@@ -12698,7 +12741,7 @@
         <v>368</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>1101</v>
+        <v>1097</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>54</v>
@@ -12710,7 +12753,7 @@
         <v>67</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>1100</v>
+        <v>1096</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>96</v>
@@ -13008,7 +13051,7 @@
         <v>493</v>
       </c>
       <c r="D20" s="33" t="s">
-        <v>1105</v>
+        <v>1101</v>
       </c>
       <c r="E20" s="33" t="s">
         <v>55</v>
@@ -13607,7 +13650,7 @@
         <v>67</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>1115</v>
+        <v>1111</v>
       </c>
       <c r="I39" s="2" t="s">
         <v>610</v>
@@ -13917,7 +13960,7 @@
         <v>72</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>1123</v>
+        <v>1119</v>
       </c>
       <c r="I49" s="2" t="s">
         <v>96</v>
@@ -13936,7 +13979,7 @@
         <v>368</v>
       </c>
       <c r="D50" s="33" t="s">
-        <v>1128</v>
+        <v>1124</v>
       </c>
       <c r="E50" s="33" t="s">
         <v>54</v>
@@ -13948,7 +13991,7 @@
         <v>67</v>
       </c>
       <c r="H50" s="33" t="s">
-        <v>1129</v>
+        <v>1125</v>
       </c>
       <c r="I50" s="33" t="s">
         <v>671</v>
@@ -14010,7 +14053,7 @@
         <v>67</v>
       </c>
       <c r="H52" s="33" t="s">
-        <v>1090</v>
+        <v>1086</v>
       </c>
       <c r="I52" s="33" t="s">
         <v>96</v>
@@ -14255,10 +14298,10 @@
         <v>647</v>
       </c>
       <c r="G60" s="33" t="s">
-        <v>1141</v>
+        <v>1137</v>
       </c>
       <c r="H60" s="33" t="s">
-        <v>1097</v>
+        <v>1093</v>
       </c>
       <c r="I60" s="33" t="s">
         <v>96</v>
@@ -14475,7 +14518,7 @@
         <v>67</v>
       </c>
       <c r="H67" s="2" t="s">
-        <v>1123</v>
+        <v>1119</v>
       </c>
       <c r="I67" s="2" t="s">
         <v>96</v>
@@ -14556,7 +14599,7 @@
         <v>793</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>1145</v>
+        <v>1141</v>
       </c>
       <c r="E70" s="2" t="s">
         <v>55</v>
@@ -14568,7 +14611,7 @@
         <v>70</v>
       </c>
       <c r="H70" s="2" t="s">
-        <v>1146</v>
+        <v>1142</v>
       </c>
       <c r="I70" s="2" t="s">
         <v>95</v>
@@ -14661,7 +14704,7 @@
         <v>67</v>
       </c>
       <c r="H73" s="33" t="s">
-        <v>1156</v>
+        <v>1152</v>
       </c>
       <c r="I73" s="33" t="s">
         <v>412</v>
@@ -15219,7 +15262,7 @@
         <v>72</v>
       </c>
       <c r="H91" s="33" t="s">
-        <v>1164</v>
+        <v>1160</v>
       </c>
       <c r="I91" s="33" t="s">
         <v>463</v>
@@ -15374,10 +15417,10 @@
         <v>67</v>
       </c>
       <c r="H96" s="2" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="I96" s="2" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
     </row>
     <row r="97" spans="1:9" ht="85" x14ac:dyDescent="0.2">
@@ -15405,10 +15448,10 @@
         <v>67</v>
       </c>
       <c r="H97" s="33" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="I97" s="33" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
     </row>
     <row r="98" spans="1:9" ht="119" x14ac:dyDescent="0.2">
@@ -15436,10 +15479,10 @@
         <v>67</v>
       </c>
       <c r="H98" s="2" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="I98" s="2" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
     </row>
     <row r="99" spans="1:9" ht="68" x14ac:dyDescent="0.2">
@@ -15467,10 +15510,10 @@
         <v>67</v>
       </c>
       <c r="H99" s="2" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="I99" s="2" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
     </row>
     <row r="100" spans="1:9" ht="51" x14ac:dyDescent="0.2">
@@ -15591,10 +15634,10 @@
         <v>67</v>
       </c>
       <c r="H103" s="2" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="I103" s="2" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
     </row>
     <row r="104" spans="1:9" ht="85" x14ac:dyDescent="0.2">
@@ -15703,13 +15746,13 @@
         <v>368</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>1003</v>
+        <v>1165</v>
       </c>
       <c r="E107" s="2" t="s">
         <v>54</v>
       </c>
       <c r="F107" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G107" s="2" t="s">
         <v>70</v>
@@ -15718,109 +15761,81 @@
         <v>74</v>
       </c>
       <c r="I107" s="2" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
     </row>
     <row r="108" spans="1:9" ht="85" x14ac:dyDescent="0.2">
-      <c r="A108" s="39">
-        <f>'Article Data'!A92</f>
-        <v>138</v>
-      </c>
-      <c r="B108" s="39" t="str">
-        <f>'Article Data'!B92</f>
-        <v>A multistate dynamic occupancy model to estimate local colonization &amp; extinction rates and patterns of co-occurrence between two or more interacting species</v>
-      </c>
-      <c r="C108" s="2" t="s">
-        <v>368</v>
-      </c>
-      <c r="D108" s="2" t="s">
-        <v>1004</v>
-      </c>
-      <c r="E108" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="F108" s="2">
-        <v>1</v>
-      </c>
-      <c r="G108" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="H108" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="I108" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9" ht="85" x14ac:dyDescent="0.2">
-      <c r="A109" s="39">
-        <f>'Article Data'!A92</f>
-        <v>138</v>
-      </c>
-      <c r="B109" s="39" t="str">
-        <f>'Article Data'!B92</f>
-        <v>A multistate dynamic occupancy model to estimate local colonization &amp; extinction rates and patterns of co-occurrence between two or more interacting species</v>
-      </c>
-      <c r="C109" s="2" t="s">
-        <v>368</v>
-      </c>
-      <c r="D109" s="2" t="s">
-        <v>1005</v>
-      </c>
-      <c r="E109" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="F109" s="2">
-        <v>1</v>
-      </c>
-      <c r="G109" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="H109" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="I109" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9" ht="85" x14ac:dyDescent="0.2">
-      <c r="A110" s="38">
+      <c r="A108" s="38">
         <f>'Article Data'!A93</f>
         <v>549</v>
       </c>
-      <c r="B110" s="38" t="str">
+      <c r="B108" s="38" t="str">
         <f>'Article Data'!B93</f>
         <v>Accounting for misclassification of subspecies provides insights about habitat use and dynamics of the Florida Grasshopper Sparrow in response to fire</v>
       </c>
-      <c r="C110" s="33" t="s">
-        <v>368</v>
-      </c>
-      <c r="D110" s="33" t="s">
-        <v>1015</v>
-      </c>
-      <c r="E110" s="33" t="s">
+      <c r="C108" s="33" t="s">
+        <v>368</v>
+      </c>
+      <c r="D108" s="33" t="s">
+        <v>1011</v>
+      </c>
+      <c r="E108" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="F110" s="33">
+      <c r="F108" s="33">
         <v>1</v>
       </c>
-      <c r="G110" s="33" t="s">
+      <c r="G108" s="33" t="s">
         <v>66</v>
       </c>
-      <c r="H110" s="33" t="s">
+      <c r="H108" s="33" t="s">
         <v>79</v>
       </c>
-      <c r="I110" s="33" t="s">
-        <v>81</v>
-      </c>
+      <c r="I108" s="33" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A109" s="39">
+        <f>'Article Data'!A94</f>
+        <v>0</v>
+      </c>
+      <c r="B109" s="39">
+        <f>'Article Data'!B94</f>
+        <v>0</v>
+      </c>
+      <c r="C109" s="2"/>
+      <c r="D109" s="2"/>
+      <c r="E109" s="2"/>
+      <c r="F109" s="2"/>
+      <c r="G109" s="2"/>
+      <c r="H109" s="2"/>
+      <c r="I109" s="2"/>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A110" s="38">
+        <f>'Article Data'!A95</f>
+        <v>0</v>
+      </c>
+      <c r="B110" s="38">
+        <f>'Article Data'!B95</f>
+        <v>0</v>
+      </c>
+      <c r="C110" s="33"/>
+      <c r="D110" s="33"/>
+      <c r="E110" s="33"/>
+      <c r="F110" s="33"/>
+      <c r="G110" s="33"/>
+      <c r="H110" s="33"/>
+      <c r="I110" s="33"/>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A111" s="39">
-        <f>'Article Data'!A94</f>
+        <f>'Article Data'!A96</f>
         <v>0</v>
       </c>
       <c r="B111" s="39">
-        <f>'Article Data'!B94</f>
+        <f>'Article Data'!B96</f>
         <v>0</v>
       </c>
       <c r="C111" s="2"/>
@@ -15833,11 +15848,11 @@
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A112" s="38">
-        <f>'Article Data'!A95</f>
+        <f>'Article Data'!A97</f>
         <v>0</v>
       </c>
       <c r="B112" s="38">
-        <f>'Article Data'!B95</f>
+        <f>'Article Data'!B97</f>
         <v>0</v>
       </c>
       <c r="C112" s="33"/>
@@ -15850,11 +15865,11 @@
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A113" s="39">
-        <f>'Article Data'!A96</f>
+        <f>'Article Data'!A98</f>
         <v>0</v>
       </c>
       <c r="B113" s="39">
-        <f>'Article Data'!B96</f>
+        <f>'Article Data'!B98</f>
         <v>0</v>
       </c>
       <c r="C113" s="2"/>
@@ -15867,11 +15882,11 @@
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A114" s="38">
-        <f>'Article Data'!A97</f>
+        <f>'Article Data'!A99</f>
         <v>0</v>
       </c>
       <c r="B114" s="38">
-        <f>'Article Data'!B97</f>
+        <f>'Article Data'!B99</f>
         <v>0</v>
       </c>
       <c r="C114" s="33"/>
@@ -15884,11 +15899,11 @@
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A115" s="39">
-        <f>'Article Data'!A98</f>
+        <f>'Article Data'!A100</f>
         <v>0</v>
       </c>
       <c r="B115" s="39">
-        <f>'Article Data'!B98</f>
+        <f>'Article Data'!B100</f>
         <v>0</v>
       </c>
       <c r="C115" s="2"/>
@@ -15901,11 +15916,11 @@
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A116" s="38">
-        <f>'Article Data'!A99</f>
+        <f>'Article Data'!A101</f>
         <v>0</v>
       </c>
       <c r="B116" s="38">
-        <f>'Article Data'!B99</f>
+        <f>'Article Data'!B101</f>
         <v>0</v>
       </c>
       <c r="C116" s="33"/>
@@ -15918,11 +15933,11 @@
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A117" s="39">
-        <f>'Article Data'!A100</f>
+        <f>'Article Data'!A102</f>
         <v>0</v>
       </c>
       <c r="B117" s="39">
-        <f>'Article Data'!B100</f>
+        <f>'Article Data'!B102</f>
         <v>0</v>
       </c>
       <c r="C117" s="2"/>
@@ -15935,11 +15950,11 @@
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A118" s="38">
-        <f>'Article Data'!A101</f>
+        <f>'Article Data'!A103</f>
         <v>0</v>
       </c>
       <c r="B118" s="38">
-        <f>'Article Data'!B101</f>
+        <f>'Article Data'!B103</f>
         <v>0</v>
       </c>
       <c r="C118" s="33"/>
@@ -15952,11 +15967,11 @@
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A119" s="39">
-        <f>'Article Data'!A102</f>
+        <f>'Article Data'!A104</f>
         <v>0</v>
       </c>
       <c r="B119" s="39">
-        <f>'Article Data'!B102</f>
+        <f>'Article Data'!B104</f>
         <v>0</v>
       </c>
       <c r="C119" s="2"/>
@@ -15969,11 +15984,11 @@
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A120" s="38">
-        <f>'Article Data'!A103</f>
+        <f>'Article Data'!A105</f>
         <v>0</v>
       </c>
       <c r="B120" s="38">
-        <f>'Article Data'!B103</f>
+        <f>'Article Data'!B105</f>
         <v>0</v>
       </c>
       <c r="C120" s="33"/>
@@ -15986,11 +16001,11 @@
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A121" s="39">
-        <f>'Article Data'!A104</f>
+        <f>'Article Data'!A106</f>
         <v>0</v>
       </c>
       <c r="B121" s="39">
-        <f>'Article Data'!B104</f>
+        <f>'Article Data'!B106</f>
         <v>0</v>
       </c>
       <c r="C121" s="2"/>
@@ -16003,11 +16018,11 @@
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A122" s="38">
-        <f>'Article Data'!A105</f>
+        <f>'Article Data'!A107</f>
         <v>0</v>
       </c>
       <c r="B122" s="38">
-        <f>'Article Data'!B105</f>
+        <f>'Article Data'!B107</f>
         <v>0</v>
       </c>
       <c r="C122" s="33"/>
@@ -16020,11 +16035,11 @@
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A123" s="39">
-        <f>'Article Data'!A106</f>
+        <f>'Article Data'!A108</f>
         <v>0</v>
       </c>
       <c r="B123" s="39">
-        <f>'Article Data'!B106</f>
+        <f>'Article Data'!B108</f>
         <v>0</v>
       </c>
       <c r="C123" s="2"/>
@@ -16037,11 +16052,11 @@
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A124" s="38">
-        <f>'Article Data'!A107</f>
+        <f>'Article Data'!A109</f>
         <v>0</v>
       </c>
       <c r="B124" s="38">
-        <f>'Article Data'!B107</f>
+        <f>'Article Data'!B109</f>
         <v>0</v>
       </c>
       <c r="C124" s="33"/>
@@ -16054,11 +16069,11 @@
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A125" s="39">
-        <f>'Article Data'!A108</f>
+        <f>'Article Data'!A110</f>
         <v>0</v>
       </c>
       <c r="B125" s="39">
-        <f>'Article Data'!B108</f>
+        <f>'Article Data'!B110</f>
         <v>0</v>
       </c>
       <c r="C125" s="2"/>
@@ -16071,11 +16086,11 @@
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A126" s="38">
-        <f>'Article Data'!A109</f>
+        <f>'Article Data'!A111</f>
         <v>0</v>
       </c>
       <c r="B126" s="38">
-        <f>'Article Data'!B109</f>
+        <f>'Article Data'!B111</f>
         <v>0</v>
       </c>
       <c r="C126" s="33"/>
@@ -16088,11 +16103,11 @@
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A127" s="39">
-        <f>'Article Data'!A110</f>
+        <f>'Article Data'!A112</f>
         <v>0</v>
       </c>
       <c r="B127" s="39">
-        <f>'Article Data'!B110</f>
+        <f>'Article Data'!B112</f>
         <v>0</v>
       </c>
       <c r="C127" s="2"/>
@@ -16105,11 +16120,11 @@
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A128" s="38">
-        <f>'Article Data'!A111</f>
+        <f>'Article Data'!A113</f>
         <v>0</v>
       </c>
       <c r="B128" s="38">
-        <f>'Article Data'!B111</f>
+        <f>'Article Data'!B113</f>
         <v>0</v>
       </c>
       <c r="C128" s="33"/>
@@ -16120,54 +16135,22 @@
       <c r="H128" s="33"/>
       <c r="I128" s="33"/>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A129" s="39">
-        <f>'Article Data'!A112</f>
-        <v>0</v>
-      </c>
-      <c r="B129" s="39">
-        <f>'Article Data'!B112</f>
-        <v>0</v>
-      </c>
-      <c r="C129" s="2"/>
-      <c r="D129" s="2"/>
-      <c r="E129" s="2"/>
-      <c r="F129" s="2"/>
-      <c r="G129" s="2"/>
-      <c r="H129" s="2"/>
-      <c r="I129" s="2"/>
-    </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A130" s="38">
-        <f>'Article Data'!A113</f>
-        <v>0</v>
-      </c>
-      <c r="B130" s="38">
-        <f>'Article Data'!B113</f>
-        <v>0</v>
-      </c>
-      <c r="C130" s="33"/>
-      <c r="D130" s="33"/>
-      <c r="E130" s="33"/>
-      <c r="F130" s="33"/>
-      <c r="G130" s="33"/>
-      <c r="H130" s="33"/>
-      <c r="I130" s="33"/>
-    </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.2"/>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.2"/>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.2"/>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.2"/>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.2"/>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.2"/>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.2"/>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.2"/>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.2"/>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.2"/>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.2"/>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.2"/>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.2"/>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.2"/>
+    <row r="129" x14ac:dyDescent="0.2"/>
+    <row r="130" x14ac:dyDescent="0.2"/>
+    <row r="131" x14ac:dyDescent="0.2"/>
+    <row r="132" x14ac:dyDescent="0.2"/>
+    <row r="133" x14ac:dyDescent="0.2"/>
+    <row r="134" x14ac:dyDescent="0.2"/>
+    <row r="135" x14ac:dyDescent="0.2"/>
+    <row r="136" x14ac:dyDescent="0.2"/>
+    <row r="137" x14ac:dyDescent="0.2"/>
+    <row r="138" x14ac:dyDescent="0.2"/>
+    <row r="139" x14ac:dyDescent="0.2"/>
+    <row r="140" x14ac:dyDescent="0.2"/>
+    <row r="141" x14ac:dyDescent="0.2"/>
+    <row r="142" x14ac:dyDescent="0.2"/>
+    <row r="143" x14ac:dyDescent="0.2"/>
+    <row r="144" x14ac:dyDescent="0.2"/>
     <row r="145" x14ac:dyDescent="0.2"/>
     <row r="146" x14ac:dyDescent="0.2"/>
     <row r="147" x14ac:dyDescent="0.2"/>
@@ -16201,7 +16184,7 @@
     <row r="175" x14ac:dyDescent="0.2"/>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F130" xr:uid="{6040740E-CE9A-D448-8C18-9628B188DF67}">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F128" xr:uid="{6040740E-CE9A-D448-8C18-9628B188DF67}">
       <formula1>1</formula1>
       <formula2>1000</formula2>
     </dataValidation>
@@ -16215,13 +16198,13 @@
           <x14:formula1>
             <xm:f>Metadata!$E$28:$E$33</xm:f>
           </x14:formula1>
-          <xm:sqref>E83:E130 E2:E78</xm:sqref>
+          <xm:sqref>E2:E78 E83:E128</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{9C5920C0-FDE3-124A-BF1F-0D19704E4E52}">
           <x14:formula1>
             <xm:f>Metadata!$E$35:$E$38</xm:f>
           </x14:formula1>
-          <xm:sqref>G2:G59 G61:G130</xm:sqref>
+          <xm:sqref>G2:G59 G61:G128</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -16234,8 +16217,8 @@
   <dimension ref="A1:I158"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A88" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G98" sqref="G98"/>
+      <pane ySplit="1" topLeftCell="A102" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G109" sqref="G109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" zeroHeight="1" x14ac:dyDescent="0.2"/>
@@ -20098,9 +20081,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B60FD29C-9206-FA47-9E36-5CC91A5A2C02}">
   <dimension ref="A1:Q211"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A103" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H112" sqref="H112"/>
+    <sheetView topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A125" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K131" sqref="K131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" zeroHeight="1" x14ac:dyDescent="0.2"/>
@@ -20136,19 +20119,19 @@
         <v>23</v>
       </c>
       <c r="G1" s="44" t="s">
+        <v>1054</v>
+      </c>
+      <c r="H1" s="44" t="s">
+        <v>1056</v>
+      </c>
+      <c r="I1" s="44" t="s">
+        <v>1057</v>
+      </c>
+      <c r="J1" s="44" t="s">
         <v>1058</v>
       </c>
-      <c r="H1" s="44" t="s">
-        <v>1060</v>
-      </c>
-      <c r="I1" s="44" t="s">
-        <v>1061</v>
-      </c>
-      <c r="J1" s="44" t="s">
-        <v>1062</v>
-      </c>
       <c r="K1" s="44" t="s">
-        <v>1063</v>
+        <v>1059</v>
       </c>
       <c r="L1" s="44" t="s">
         <v>24</v>
@@ -21722,10 +21705,10 @@
         <v>368</v>
       </c>
       <c r="D30" s="46" t="s">
-        <v>1107</v>
+        <v>1103</v>
       </c>
       <c r="E30" s="46" t="s">
-        <v>1108</v>
+        <v>1104</v>
       </c>
       <c r="F30" s="39">
         <v>26</v>
@@ -22107,10 +22090,10 @@
         <v>368</v>
       </c>
       <c r="D37" s="46" t="s">
-        <v>1109</v>
+        <v>1105</v>
       </c>
       <c r="E37" s="46" t="s">
-        <v>1110</v>
+        <v>1106</v>
       </c>
       <c r="F37" s="39">
         <v>4</v>
@@ -22162,10 +22145,10 @@
         <v>400</v>
       </c>
       <c r="D38" s="46" t="s">
-        <v>1111</v>
+        <v>1107</v>
       </c>
       <c r="E38" s="46" t="s">
-        <v>1112</v>
+        <v>1108</v>
       </c>
       <c r="F38" s="39">
         <v>9</v>
@@ -22217,10 +22200,10 @@
         <v>449</v>
       </c>
       <c r="D39" s="46" t="s">
-        <v>1113</v>
+        <v>1109</v>
       </c>
       <c r="E39" s="46" t="s">
-        <v>1112</v>
+        <v>1108</v>
       </c>
       <c r="F39" s="39">
         <v>4</v>
@@ -22338,10 +22321,10 @@
       <c r="G41" s="38">
         <v>4.5</v>
       </c>
-      <c r="H41" s="111">
+      <c r="H41" s="38">
         <v>2</v>
       </c>
-      <c r="I41" s="111">
+      <c r="I41" s="38">
         <v>3</v>
       </c>
       <c r="J41" s="51" t="s">
@@ -22602,10 +22585,10 @@
         <v>368</v>
       </c>
       <c r="D46" s="45" t="s">
-        <v>1116</v>
+        <v>1112</v>
       </c>
       <c r="E46" s="45" t="s">
-        <v>1113</v>
+        <v>1109</v>
       </c>
       <c r="F46" s="38">
         <v>13</v>
@@ -22657,10 +22640,10 @@
         <v>400</v>
       </c>
       <c r="D47" s="45" t="s">
-        <v>1116</v>
+        <v>1112</v>
       </c>
       <c r="E47" s="45" t="s">
-        <v>1113</v>
+        <v>1109</v>
       </c>
       <c r="F47" s="38">
         <v>13</v>
@@ -22712,10 +22695,10 @@
         <v>449</v>
       </c>
       <c r="D48" s="45" t="s">
-        <v>1116</v>
+        <v>1112</v>
       </c>
       <c r="E48" s="45" t="s">
-        <v>1113</v>
+        <v>1109</v>
       </c>
       <c r="F48" s="38">
         <v>13</v>
@@ -22888,16 +22871,16 @@
       <c r="G51" s="38">
         <v>2</v>
       </c>
-      <c r="H51" s="111">
+      <c r="H51" s="38">
         <v>2</v>
       </c>
-      <c r="I51" s="111">
+      <c r="I51" s="38">
         <v>3</v>
       </c>
-      <c r="J51" s="111">
+      <c r="J51" s="38">
         <v>2.5</v>
       </c>
-      <c r="K51" s="111">
+      <c r="K51" s="38">
         <v>2.5</v>
       </c>
       <c r="L51" s="38" t="s">
@@ -22943,16 +22926,16 @@
       <c r="G52" s="38">
         <v>2</v>
       </c>
-      <c r="H52" s="111">
+      <c r="H52" s="38">
         <v>2</v>
       </c>
-      <c r="I52" s="111">
+      <c r="I52" s="38">
         <v>3</v>
       </c>
-      <c r="J52" s="111">
+      <c r="J52" s="38">
         <v>2.5</v>
       </c>
-      <c r="K52" s="111">
+      <c r="K52" s="38">
         <v>2.5</v>
       </c>
       <c r="L52" s="38" t="s">
@@ -23097,10 +23080,10 @@
         <v>368</v>
       </c>
       <c r="D55" s="45" t="s">
-        <v>1118</v>
+        <v>1114</v>
       </c>
       <c r="E55" s="45" t="s">
-        <v>1119</v>
+        <v>1115</v>
       </c>
       <c r="F55" s="38">
         <v>4</v>
@@ -23108,10 +23091,10 @@
       <c r="G55" s="38" t="s">
         <v>322</v>
       </c>
-      <c r="H55" s="111">
+      <c r="H55" s="38">
         <v>3</v>
       </c>
-      <c r="I55" s="111">
+      <c r="I55" s="38">
         <v>5</v>
       </c>
       <c r="J55" s="51" t="s">
@@ -23207,10 +23190,10 @@
         <v>368</v>
       </c>
       <c r="D57" s="45" t="s">
-        <v>1121</v>
+        <v>1117</v>
       </c>
       <c r="E57" s="45" t="s">
-        <v>1122</v>
+        <v>1118</v>
       </c>
       <c r="F57" s="38">
         <v>3</v>
@@ -23262,10 +23245,10 @@
         <v>368</v>
       </c>
       <c r="D58" s="46" t="s">
-        <v>1124</v>
+        <v>1120</v>
       </c>
       <c r="E58" s="46" t="s">
-        <v>1125</v>
+        <v>1121</v>
       </c>
       <c r="F58" s="39">
         <v>11</v>
@@ -23482,10 +23465,10 @@
         <v>368</v>
       </c>
       <c r="D62" s="46" t="s">
-        <v>1130</v>
+        <v>1126</v>
       </c>
       <c r="E62" s="46" t="s">
-        <v>1112</v>
+        <v>1108</v>
       </c>
       <c r="F62" s="39">
         <v>17</v>
@@ -23537,10 +23520,10 @@
         <v>368</v>
       </c>
       <c r="D63" s="45" t="s">
-        <v>1131</v>
+        <v>1127</v>
       </c>
       <c r="E63" s="45" t="s">
-        <v>1132</v>
+        <v>1128</v>
       </c>
       <c r="F63" s="38">
         <v>2</v>
@@ -23647,10 +23630,10 @@
         <v>368</v>
       </c>
       <c r="D65" s="45" t="s">
-        <v>1137</v>
+        <v>1133</v>
       </c>
       <c r="E65" s="45" t="s">
-        <v>1138</v>
+        <v>1134</v>
       </c>
       <c r="F65" s="38">
         <v>5</v>
@@ -25187,10 +25170,10 @@
         <v>368</v>
       </c>
       <c r="D93" s="45" t="s">
-        <v>1113</v>
+        <v>1109</v>
       </c>
       <c r="E93" s="45" t="s">
-        <v>1122</v>
+        <v>1118</v>
       </c>
       <c r="F93" s="38">
         <v>2</v>
@@ -25363,10 +25346,10 @@
       <c r="G96" s="38">
         <v>15</v>
       </c>
-      <c r="H96" s="111">
+      <c r="H96" s="38">
         <v>4</v>
       </c>
-      <c r="I96" s="111">
+      <c r="I96" s="38">
         <v>6</v>
       </c>
       <c r="J96" s="51" t="s">
@@ -25572,10 +25555,10 @@
         <v>368</v>
       </c>
       <c r="D100" s="45" t="s">
-        <v>1132</v>
+        <v>1128</v>
       </c>
       <c r="E100" s="45" t="s">
-        <v>1158</v>
+        <v>1154</v>
       </c>
       <c r="F100" s="38">
         <v>5</v>
@@ -25737,10 +25720,10 @@
         <v>368</v>
       </c>
       <c r="D103" s="46" t="s">
-        <v>1160</v>
+        <v>1156</v>
       </c>
       <c r="E103" s="46" t="s">
-        <v>1161</v>
+        <v>1157</v>
       </c>
       <c r="F103" s="39">
         <v>11</v>
@@ -26295,13 +26278,21 @@
       <c r="F113" s="39">
         <v>5</v>
       </c>
-      <c r="G113" s="39"/>
+      <c r="G113" s="39">
+        <v>0.1</v>
+      </c>
       <c r="H113" s="39">
         <v>3</v>
       </c>
-      <c r="I113" s="39"/>
-      <c r="J113" s="39"/>
-      <c r="K113" s="39"/>
+      <c r="I113" s="39">
+        <v>3</v>
+      </c>
+      <c r="J113" s="39">
+        <v>3</v>
+      </c>
+      <c r="K113" s="39">
+        <v>3</v>
+      </c>
       <c r="L113" s="39" t="s">
         <v>131</v>
       </c>
@@ -26342,13 +26333,21 @@
       <c r="F114" s="38">
         <v>6</v>
       </c>
-      <c r="G114" s="38"/>
+      <c r="G114" s="38">
+        <v>1.3</v>
+      </c>
       <c r="H114" s="38">
         <v>4</v>
       </c>
-      <c r="I114" s="38"/>
-      <c r="J114" s="38"/>
-      <c r="K114" s="38"/>
+      <c r="I114" s="38">
+        <v>4</v>
+      </c>
+      <c r="J114" s="38">
+        <v>4</v>
+      </c>
+      <c r="K114" s="38">
+        <v>4</v>
+      </c>
       <c r="L114" s="38" t="s">
         <v>129</v>
       </c>
@@ -26389,13 +26388,21 @@
       <c r="F115" s="39">
         <v>3</v>
       </c>
-      <c r="G115" s="39"/>
+      <c r="G115" s="39">
+        <v>2</v>
+      </c>
       <c r="H115" s="39">
         <v>5</v>
       </c>
-      <c r="I115" s="39"/>
-      <c r="J115" s="39"/>
-      <c r="K115" s="39"/>
+      <c r="I115" s="39">
+        <v>5</v>
+      </c>
+      <c r="J115" s="39">
+        <v>5</v>
+      </c>
+      <c r="K115" s="39">
+        <v>5</v>
+      </c>
       <c r="L115" s="39" t="s">
         <v>129</v>
       </c>
@@ -26436,13 +26443,21 @@
       <c r="F116" s="39">
         <v>3</v>
       </c>
-      <c r="G116" s="39"/>
+      <c r="G116" s="39">
+        <v>4</v>
+      </c>
       <c r="H116" s="39">
         <v>15</v>
       </c>
-      <c r="I116" s="39"/>
-      <c r="J116" s="39"/>
-      <c r="K116" s="39"/>
+      <c r="I116" s="39">
+        <v>15</v>
+      </c>
+      <c r="J116" s="39">
+        <v>15</v>
+      </c>
+      <c r="K116" s="39">
+        <v>15</v>
+      </c>
       <c r="L116" s="39" t="s">
         <v>320</v>
       </c>
@@ -26483,13 +26498,21 @@
       <c r="F117" s="38">
         <v>2</v>
       </c>
-      <c r="G117" s="38"/>
+      <c r="G117" s="38">
+        <v>1</v>
+      </c>
       <c r="H117" s="38">
         <v>12</v>
       </c>
-      <c r="I117" s="38"/>
-      <c r="J117" s="38"/>
-      <c r="K117" s="38"/>
+      <c r="I117" s="38">
+        <v>12</v>
+      </c>
+      <c r="J117" s="38">
+        <v>12</v>
+      </c>
+      <c r="K117" s="38">
+        <v>12</v>
+      </c>
       <c r="L117" s="38" t="s">
         <v>320</v>
       </c>
@@ -26530,13 +26553,21 @@
       <c r="F118" s="38">
         <v>2</v>
       </c>
-      <c r="G118" s="38"/>
+      <c r="G118" s="38">
+        <v>1</v>
+      </c>
       <c r="H118" s="38">
         <v>12</v>
       </c>
-      <c r="I118" s="38"/>
-      <c r="J118" s="38"/>
-      <c r="K118" s="38"/>
+      <c r="I118" s="38">
+        <v>12</v>
+      </c>
+      <c r="J118" s="38">
+        <v>12</v>
+      </c>
+      <c r="K118" s="38">
+        <v>12</v>
+      </c>
       <c r="L118" s="38" t="s">
         <v>320</v>
       </c>
@@ -26577,13 +26608,21 @@
       <c r="F119" s="38">
         <v>2</v>
       </c>
-      <c r="G119" s="38"/>
+      <c r="G119" s="38">
+        <v>1</v>
+      </c>
       <c r="H119" s="38">
         <v>11</v>
       </c>
-      <c r="I119" s="38"/>
-      <c r="J119" s="38"/>
-      <c r="K119" s="38"/>
+      <c r="I119" s="38">
+        <v>11</v>
+      </c>
+      <c r="J119" s="38">
+        <v>11</v>
+      </c>
+      <c r="K119" s="38">
+        <v>11</v>
+      </c>
       <c r="L119" s="38" t="s">
         <v>320</v>
       </c>
@@ -26624,13 +26663,21 @@
       <c r="F120" s="38">
         <v>2</v>
       </c>
-      <c r="G120" s="38"/>
+      <c r="G120" s="38">
+        <v>1</v>
+      </c>
       <c r="H120" s="38">
         <v>10</v>
       </c>
-      <c r="I120" s="38"/>
-      <c r="J120" s="38"/>
-      <c r="K120" s="38"/>
+      <c r="I120" s="38">
+        <v>10</v>
+      </c>
+      <c r="J120" s="38">
+        <v>10</v>
+      </c>
+      <c r="K120" s="38">
+        <v>10</v>
+      </c>
       <c r="L120" s="38" t="s">
         <v>320</v>
       </c>
@@ -26671,13 +26718,21 @@
       <c r="F121" s="38">
         <v>2</v>
       </c>
-      <c r="G121" s="38"/>
+      <c r="G121" s="38">
+        <v>1</v>
+      </c>
       <c r="H121" s="38">
         <v>9</v>
       </c>
-      <c r="I121" s="38"/>
-      <c r="J121" s="38"/>
-      <c r="K121" s="38"/>
+      <c r="I121" s="38">
+        <v>9</v>
+      </c>
+      <c r="J121" s="38">
+        <v>9</v>
+      </c>
+      <c r="K121" s="38">
+        <v>9</v>
+      </c>
       <c r="L121" s="38" t="s">
         <v>320</v>
       </c>
@@ -26718,13 +26773,21 @@
       <c r="F122" s="38">
         <v>2</v>
       </c>
-      <c r="G122" s="38"/>
+      <c r="G122" s="38">
+        <v>1</v>
+      </c>
       <c r="H122" s="38">
         <v>9</v>
       </c>
-      <c r="I122" s="38"/>
-      <c r="J122" s="38"/>
-      <c r="K122" s="38"/>
+      <c r="I122" s="38">
+        <v>9</v>
+      </c>
+      <c r="J122" s="38">
+        <v>9</v>
+      </c>
+      <c r="K122" s="38">
+        <v>9</v>
+      </c>
       <c r="L122" s="38" t="s">
         <v>320</v>
       </c>
@@ -26765,13 +26828,21 @@
       <c r="F123" s="39">
         <v>14</v>
       </c>
-      <c r="G123" s="39"/>
-      <c r="H123" s="39">
+      <c r="G123" s="39">
         <v>6</v>
       </c>
-      <c r="I123" s="39"/>
-      <c r="J123" s="39"/>
-      <c r="K123" s="39"/>
+      <c r="H123" s="39" t="s">
+        <v>322</v>
+      </c>
+      <c r="I123" s="39">
+        <v>6</v>
+      </c>
+      <c r="J123" s="39" t="s">
+        <v>322</v>
+      </c>
+      <c r="K123" s="39">
+        <v>4.0999999999999996</v>
+      </c>
       <c r="L123" s="39" t="s">
         <v>129</v>
       </c>
@@ -26812,13 +26883,21 @@
       <c r="F124" s="38">
         <v>28</v>
       </c>
-      <c r="G124" s="38"/>
+      <c r="G124" s="38">
+        <v>3</v>
+      </c>
       <c r="H124" s="38">
         <v>2</v>
       </c>
-      <c r="I124" s="38"/>
-      <c r="J124" s="38"/>
-      <c r="K124" s="38"/>
+      <c r="I124" s="38">
+        <v>4</v>
+      </c>
+      <c r="J124" s="38" t="s">
+        <v>322</v>
+      </c>
+      <c r="K124" s="38" t="s">
+        <v>322</v>
+      </c>
       <c r="L124" s="38" t="s">
         <v>129</v>
       </c>
@@ -26859,13 +26938,21 @@
       <c r="F125" s="38">
         <v>26</v>
       </c>
-      <c r="G125" s="38"/>
+      <c r="G125" s="38">
+        <v>3</v>
+      </c>
       <c r="H125" s="38">
         <v>2</v>
       </c>
-      <c r="I125" s="38"/>
-      <c r="J125" s="38"/>
-      <c r="K125" s="38"/>
+      <c r="I125" s="38">
+        <v>4</v>
+      </c>
+      <c r="J125" s="38" t="s">
+        <v>322</v>
+      </c>
+      <c r="K125" s="38" t="s">
+        <v>322</v>
+      </c>
       <c r="L125" s="38" t="s">
         <v>129</v>
       </c>
@@ -26906,13 +26993,21 @@
       <c r="F126" s="39">
         <v>6</v>
       </c>
-      <c r="G126" s="39"/>
+      <c r="G126" s="39">
+        <v>2</v>
+      </c>
       <c r="H126" s="39">
         <v>4</v>
       </c>
-      <c r="I126" s="39"/>
-      <c r="J126" s="39"/>
-      <c r="K126" s="39"/>
+      <c r="I126" s="39">
+        <v>4</v>
+      </c>
+      <c r="J126" s="39">
+        <v>4</v>
+      </c>
+      <c r="K126" s="39">
+        <v>4</v>
+      </c>
       <c r="L126" s="39" t="s">
         <v>512</v>
       </c>
@@ -26944,22 +27039,30 @@
       <c r="C127" s="38" t="s">
         <v>368</v>
       </c>
-      <c r="D127" s="45">
-        <v>35796</v>
-      </c>
-      <c r="E127" s="45">
-        <v>43435</v>
+      <c r="D127" s="45" t="s">
+        <v>1163</v>
+      </c>
+      <c r="E127" s="45" t="s">
+        <v>1164</v>
       </c>
       <c r="F127" s="38">
         <v>3</v>
       </c>
-      <c r="G127" s="38"/>
+      <c r="G127" s="38" t="s">
+        <v>322</v>
+      </c>
       <c r="H127" s="38">
         <v>1</v>
       </c>
-      <c r="I127" s="38"/>
-      <c r="J127" s="38"/>
-      <c r="K127" s="38"/>
+      <c r="I127" s="38">
+        <v>1</v>
+      </c>
+      <c r="J127" s="38">
+        <v>1</v>
+      </c>
+      <c r="K127" s="38">
+        <v>1</v>
+      </c>
       <c r="L127" s="38" t="s">
         <v>133</v>
       </c>
@@ -27000,13 +27103,21 @@
       <c r="F128" s="39">
         <v>2</v>
       </c>
-      <c r="G128" s="39"/>
+      <c r="G128" s="39">
+        <v>8</v>
+      </c>
       <c r="H128" s="39">
         <v>14</v>
       </c>
-      <c r="I128" s="39"/>
-      <c r="J128" s="39"/>
-      <c r="K128" s="39"/>
+      <c r="I128" s="39">
+        <v>14</v>
+      </c>
+      <c r="J128" s="39">
+        <v>14</v>
+      </c>
+      <c r="K128" s="39">
+        <v>14</v>
+      </c>
       <c r="L128" s="39" t="s">
         <v>129</v>
       </c>
@@ -27047,13 +27158,21 @@
       <c r="F129" s="38">
         <v>5</v>
       </c>
-      <c r="G129" s="38"/>
+      <c r="G129" s="38">
+        <v>4</v>
+      </c>
       <c r="H129" s="38">
         <v>4</v>
       </c>
-      <c r="I129" s="38"/>
-      <c r="J129" s="38"/>
-      <c r="K129" s="38"/>
+      <c r="I129" s="38">
+        <v>4</v>
+      </c>
+      <c r="J129" s="38">
+        <v>4</v>
+      </c>
+      <c r="K129" s="38">
+        <v>4</v>
+      </c>
       <c r="L129" s="38" t="s">
         <v>129</v>
       </c>
@@ -27085,22 +27204,30 @@
       <c r="C130" s="39" t="s">
         <v>368</v>
       </c>
-      <c r="D130" s="46">
-        <v>40603</v>
-      </c>
-      <c r="E130" s="46">
-        <v>41334</v>
+      <c r="D130" s="46" t="s">
+        <v>1156</v>
+      </c>
+      <c r="E130" s="46" t="s">
+        <v>1121</v>
       </c>
       <c r="F130" s="39">
-        <v>13</v>
-      </c>
-      <c r="G130" s="39"/>
+        <v>1</v>
+      </c>
+      <c r="G130" s="39">
+        <v>3</v>
+      </c>
       <c r="H130" s="39">
         <v>4</v>
       </c>
-      <c r="I130" s="39"/>
-      <c r="J130" s="39"/>
-      <c r="K130" s="39"/>
+      <c r="I130" s="39">
+        <v>4</v>
+      </c>
+      <c r="J130" s="39">
+        <v>4</v>
+      </c>
+      <c r="K130" s="39">
+        <v>4</v>
+      </c>
       <c r="L130" s="39" t="s">
         <v>320</v>
       </c>
@@ -27117,7 +27244,7 @@
         <v>153</v>
       </c>
       <c r="Q130" s="39" t="s">
-        <v>1006</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="131" spans="1:17" ht="102" x14ac:dyDescent="0.2">
@@ -27141,13 +27268,21 @@
       <c r="F131" s="38">
         <v>16</v>
       </c>
-      <c r="G131" s="38"/>
-      <c r="H131" s="38">
+      <c r="G131" s="38">
+        <v>4</v>
+      </c>
+      <c r="H131" s="38" t="s">
+        <v>322</v>
+      </c>
+      <c r="I131" s="38">
         <v>3</v>
       </c>
-      <c r="I131" s="38"/>
-      <c r="J131" s="38"/>
-      <c r="K131" s="38"/>
+      <c r="J131" s="38" t="s">
+        <v>322</v>
+      </c>
+      <c r="K131" s="38" t="s">
+        <v>322</v>
+      </c>
       <c r="L131" s="38" t="s">
         <v>129</v>
       </c>
@@ -27750,8 +27885,8 @@
   <dimension ref="A1:G542"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A351" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F363" sqref="F363"/>
+      <pane ySplit="1" topLeftCell="A411" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A419" sqref="A419"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" zeroHeight="1" x14ac:dyDescent="0.2"/>
@@ -27835,7 +27970,7 @@
         <v>176</v>
       </c>
       <c r="G3" s="38" t="s">
-        <v>1088</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="51" x14ac:dyDescent="0.2">
@@ -27860,7 +27995,7 @@
         <v>178</v>
       </c>
       <c r="G4" s="39" t="s">
-        <v>1089</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="51" x14ac:dyDescent="0.2">
@@ -28660,7 +28795,7 @@
         <v>179</v>
       </c>
       <c r="G36" s="39" t="s">
-        <v>1098</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="68" x14ac:dyDescent="0.2">
@@ -31985,7 +32120,7 @@
         <v>176</v>
       </c>
       <c r="G169" s="39" t="s">
-        <v>1127</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="170" spans="1:7" ht="68" x14ac:dyDescent="0.2">
@@ -32010,7 +32145,7 @@
         <v>178</v>
       </c>
       <c r="G170" s="38" t="s">
-        <v>1127</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="171" spans="1:7" ht="68" x14ac:dyDescent="0.2">
@@ -32035,7 +32170,7 @@
         <v>179</v>
       </c>
       <c r="G171" s="39" t="s">
-        <v>1126</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="172" spans="1:7" ht="51" x14ac:dyDescent="0.2">
@@ -32635,7 +32770,7 @@
         <v>172</v>
       </c>
       <c r="G195" s="39" t="s">
-        <v>1135</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="196" spans="1:7" ht="85" x14ac:dyDescent="0.2">
@@ -32660,7 +32795,7 @@
         <v>176</v>
       </c>
       <c r="G196" s="38" t="s">
-        <v>1134</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="197" spans="1:7" ht="85" x14ac:dyDescent="0.2">
@@ -32685,7 +32820,7 @@
         <v>178</v>
       </c>
       <c r="G197" s="39" t="s">
-        <v>1134</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="198" spans="1:7" ht="85" x14ac:dyDescent="0.2">
@@ -32710,7 +32845,7 @@
         <v>179</v>
       </c>
       <c r="G198" s="38" t="s">
-        <v>1136</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="199" spans="1:7" ht="34" x14ac:dyDescent="0.2">
@@ -32734,7 +32869,7 @@
       <c r="F199" s="39" t="s">
         <v>172</v>
       </c>
-      <c r="G199" s="112" t="s">
+      <c r="G199" s="54" t="s">
         <v>96</v>
       </c>
     </row>
@@ -33160,7 +33295,7 @@
         <v>179</v>
       </c>
       <c r="G216" s="38" t="s">
-        <v>1140</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="217" spans="1:7" ht="85" x14ac:dyDescent="0.2">
@@ -33560,7 +33695,7 @@
         <v>179</v>
       </c>
       <c r="G232" s="38" t="s">
-        <v>1144</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="233" spans="1:7" ht="34" x14ac:dyDescent="0.2">
@@ -34279,7 +34414,7 @@
         <v>368</v>
       </c>
       <c r="E261" s="39" t="s">
-        <v>1147</v>
+        <v>1143</v>
       </c>
       <c r="F261" s="39" t="s">
         <v>172</v>
@@ -34304,7 +34439,7 @@
         <v>368</v>
       </c>
       <c r="E262" s="38" t="s">
-        <v>1148</v>
+        <v>1144</v>
       </c>
       <c r="F262" s="38" t="s">
         <v>176</v>
@@ -34329,7 +34464,7 @@
         <v>368</v>
       </c>
       <c r="E263" s="39" t="s">
-        <v>1149</v>
+        <v>1145</v>
       </c>
       <c r="F263" s="39" t="s">
         <v>178</v>
@@ -34354,7 +34489,7 @@
         <v>368</v>
       </c>
       <c r="E264" s="38" t="s">
-        <v>1150</v>
+        <v>1146</v>
       </c>
       <c r="F264" s="38" t="s">
         <v>179</v>
@@ -34379,7 +34514,7 @@
         <v>368</v>
       </c>
       <c r="E265" s="39" t="s">
-        <v>1151</v>
+        <v>1147</v>
       </c>
       <c r="F265" s="39" t="s">
         <v>172</v>
@@ -34404,7 +34539,7 @@
         <v>368</v>
       </c>
       <c r="E266" s="38" t="s">
-        <v>1152</v>
+        <v>1148</v>
       </c>
       <c r="F266" s="38" t="s">
         <v>176</v>
@@ -34429,7 +34564,7 @@
         <v>368</v>
       </c>
       <c r="E267" s="39" t="s">
-        <v>1153</v>
+        <v>1149</v>
       </c>
       <c r="F267" s="39" t="s">
         <v>178</v>
@@ -34454,7 +34589,7 @@
         <v>368</v>
       </c>
       <c r="E268" s="38" t="s">
-        <v>1154</v>
+        <v>1150</v>
       </c>
       <c r="F268" s="38" t="s">
         <v>179</v>
@@ -34886,7 +35021,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="286" spans="1:7" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:7" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A286" s="38">
         <f>'Article Data'!A65</f>
         <v>488</v>
@@ -34911,7 +35046,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="287" spans="1:7" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:7" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A287" s="39">
         <f>'Article Data'!A65</f>
         <v>488</v>
@@ -34936,7 +35071,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="288" spans="1:7" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:7" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A288" s="38">
         <f>'Article Data'!A65</f>
         <v>488</v>
@@ -35358,7 +35493,7 @@
         <v>179</v>
       </c>
       <c r="G304" s="38" t="s">
-        <v>1025</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="305" spans="1:7" ht="51" x14ac:dyDescent="0.2">
@@ -37633,7 +37768,7 @@
         <v>172</v>
       </c>
       <c r="G395" s="39" t="s">
-        <v>1023</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="396" spans="1:7" ht="187" x14ac:dyDescent="0.2">
@@ -37658,7 +37793,7 @@
         <v>176</v>
       </c>
       <c r="G396" s="38" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="397" spans="1:7" ht="187" x14ac:dyDescent="0.2">
@@ -37683,7 +37818,7 @@
         <v>178</v>
       </c>
       <c r="G397" s="39" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="398" spans="1:7" ht="102" x14ac:dyDescent="0.2">
@@ -38002,7 +38137,7 @@
         <v>368</v>
       </c>
       <c r="E410" s="38" t="s">
-        <v>1007</v>
+        <v>1004</v>
       </c>
       <c r="F410" s="38" t="s">
         <v>172</v>
@@ -38027,7 +38162,7 @@
         <v>368</v>
       </c>
       <c r="E411" s="39" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="F411" s="39" t="s">
         <v>176</v>
@@ -38052,7 +38187,7 @@
         <v>368</v>
       </c>
       <c r="E412" s="38" t="s">
-        <v>1009</v>
+        <v>1006</v>
       </c>
       <c r="F412" s="38" t="s">
         <v>178</v>
@@ -38077,7 +38212,7 @@
         <v>368</v>
       </c>
       <c r="E413" s="39" t="s">
-        <v>1010</v>
+        <v>1007</v>
       </c>
       <c r="F413" s="39" t="s">
         <v>179</v>
@@ -38133,7 +38268,7 @@
         <v>176</v>
       </c>
       <c r="G415" s="39" t="s">
-        <v>1021</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="416" spans="1:7" ht="85" x14ac:dyDescent="0.2">
@@ -38158,7 +38293,7 @@
         <v>178</v>
       </c>
       <c r="G416" s="38" t="s">
-        <v>1021</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="417" spans="1:7" ht="85" x14ac:dyDescent="0.2">
@@ -38183,7 +38318,7 @@
         <v>179</v>
       </c>
       <c r="G417" s="39" t="s">
-        <v>1018</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="418" spans="1:7" ht="85" x14ac:dyDescent="0.2">
@@ -38202,13 +38337,13 @@
         <v>368</v>
       </c>
       <c r="E418" s="38" t="s">
-        <v>1016</v>
+        <v>1012</v>
       </c>
       <c r="F418" s="38" t="s">
         <v>181</v>
       </c>
       <c r="G418" s="38" t="s">
-        <v>1019</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="419" spans="1:7" ht="85" x14ac:dyDescent="0.2">
@@ -38227,13 +38362,13 @@
         <v>368</v>
       </c>
       <c r="E419" s="52" t="s">
-        <v>1017</v>
+        <v>1013</v>
       </c>
       <c r="F419" s="52" t="s">
         <v>181</v>
       </c>
       <c r="G419" s="52" t="s">
-        <v>1020</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="420" spans="1:7" x14ac:dyDescent="0.2"/>
@@ -38378,11 +38513,11 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75A75B7C-E7E1-234A-BD6D-A3B2966FCDDB}">
-  <dimension ref="A1:L171"/>
+  <dimension ref="A1:K172"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I85" sqref="I85"/>
+      <pane ySplit="1" topLeftCell="A87" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F94" sqref="F94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" zeroHeight="1" x14ac:dyDescent="0.2"/>
@@ -40915,7 +41050,7 @@
       </c>
     </row>
     <row r="69" spans="1:11" ht="68" x14ac:dyDescent="0.2">
-      <c r="A69" s="112">
+      <c r="A69" s="54">
         <f>'Article Data'!A65</f>
         <v>488</v>
       </c>
@@ -41358,7 +41493,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="81" spans="1:12" ht="68" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A81" s="39">
         <f>'Article Data'!A77</f>
         <v>353</v>
@@ -41395,7 +41530,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="82" spans="1:12" ht="85" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:11" ht="85" x14ac:dyDescent="0.2">
       <c r="A82" s="39">
         <f>'Article Data'!A78</f>
         <v>309</v>
@@ -41432,7 +41567,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="83" spans="1:12" ht="51" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A83" s="38">
         <f>'Article Data'!A79</f>
         <v>388</v>
@@ -41469,7 +41604,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="84" spans="1:12" ht="68" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A84" s="39">
         <f>'Article Data'!A80</f>
         <v>329</v>
@@ -41506,7 +41641,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="85" spans="1:12" ht="51" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A85" s="38">
         <f>'Article Data'!A81</f>
         <v>1353</v>
@@ -41543,7 +41678,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="86" spans="1:12" ht="68" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A86" s="39">
         <f>'Article Data'!A82</f>
         <v>98</v>
@@ -41580,7 +41715,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="87" spans="1:12" ht="68" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A87" s="38">
         <f>'Article Data'!A83</f>
         <v>277</v>
@@ -41617,7 +41752,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="88" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:11" ht="34" x14ac:dyDescent="0.2">
       <c r="A88" s="39">
         <f>'Article Data'!A84</f>
         <v>1051</v>
@@ -41645,7 +41780,7 @@
         <v>293</v>
       </c>
       <c r="I88" s="39" t="s">
-        <v>843</v>
+        <v>271</v>
       </c>
       <c r="J88" s="39" t="s">
         <v>280</v>
@@ -41654,7 +41789,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="89" spans="1:12" ht="51" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A89" s="38">
         <f>'Article Data'!A85</f>
         <v>435</v>
@@ -41682,7 +41817,7 @@
         <v>293</v>
       </c>
       <c r="I89" s="38" t="s">
-        <v>952</v>
+        <v>273</v>
       </c>
       <c r="J89" s="38" t="s">
         <v>277</v>
@@ -41691,7 +41826,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="90" spans="1:12" ht="68" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A90" s="39">
         <f>'Article Data'!A86</f>
         <v>127</v>
@@ -41728,7 +41863,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="91" spans="1:12" ht="68" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A91" s="38">
         <f>'Article Data'!A87</f>
         <v>109</v>
@@ -41738,13 +41873,13 @@
         <v>Effects of rangeland management on the site occupancy dynamics of prairie-chickens in a protected prairie preserve</v>
       </c>
       <c r="C91" s="38" t="s">
-        <v>398</v>
+        <v>368</v>
       </c>
       <c r="D91" s="38" t="s">
-        <v>398</v>
+        <v>368</v>
       </c>
       <c r="E91" s="38" t="s">
-        <v>248</v>
+        <v>173</v>
       </c>
       <c r="F91" s="38" t="s">
         <v>260</v>
@@ -41765,765 +41900,798 @@
         <v>96</v>
       </c>
     </row>
-    <row r="92" spans="1:12" ht="51" x14ac:dyDescent="0.2">
-      <c r="A92" s="39">
+    <row r="92" spans="1:11" ht="68" x14ac:dyDescent="0.2">
+      <c r="A92" s="38">
+        <f>'Article Data'!A87</f>
+        <v>109</v>
+      </c>
+      <c r="B92" s="38" t="str">
+        <f>'Article Data'!B87</f>
+        <v>Effects of rangeland management on the site occupancy dynamics of prairie-chickens in a protected prairie preserve</v>
+      </c>
+      <c r="C92" s="38" t="s">
+        <v>400</v>
+      </c>
+      <c r="D92" s="38" t="s">
+        <v>400</v>
+      </c>
+      <c r="E92" s="38" t="s">
+        <v>248</v>
+      </c>
+      <c r="F92" s="38" t="s">
+        <v>260</v>
+      </c>
+      <c r="G92" s="38" t="s">
+        <v>96</v>
+      </c>
+      <c r="H92" s="38" t="s">
+        <v>299</v>
+      </c>
+      <c r="I92" s="38" t="s">
+        <v>371</v>
+      </c>
+      <c r="J92" s="38" t="s">
+        <v>277</v>
+      </c>
+      <c r="K92" s="38" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" ht="51" x14ac:dyDescent="0.2">
+      <c r="A93" s="39">
         <f>'Article Data'!A88</f>
         <v>380</v>
       </c>
-      <c r="B92" s="39" t="str">
+      <c r="B93" s="39" t="str">
         <f>'Article Data'!B88</f>
         <v>Occupancy dynamics of semi-aquatic herbivores in riparian systems in Illinois, USA</v>
       </c>
-      <c r="C92" s="39" t="s">
-        <v>368</v>
-      </c>
-      <c r="D92" s="39" t="s">
-        <v>368</v>
-      </c>
-      <c r="E92" s="39" t="s">
+      <c r="C93" s="39" t="s">
+        <v>368</v>
+      </c>
+      <c r="D93" s="39" t="s">
+        <v>368</v>
+      </c>
+      <c r="E93" s="39" t="s">
         <v>248</v>
       </c>
-      <c r="F92" s="39" t="s">
+      <c r="F93" s="39" t="s">
         <v>260</v>
       </c>
-      <c r="G92" s="39" t="s">
+      <c r="G93" s="39" t="s">
         <v>96</v>
       </c>
-      <c r="H92" s="39" t="s">
+      <c r="H93" s="39" t="s">
         <v>293</v>
       </c>
-      <c r="I92" s="39" t="s">
+      <c r="I93" s="39" t="s">
         <v>267</v>
       </c>
-      <c r="J92" s="39" t="s">
+      <c r="J93" s="39" t="s">
         <v>280</v>
       </c>
-      <c r="K92" s="39" t="s">
+      <c r="K93" s="39" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="93" spans="1:12" ht="85" x14ac:dyDescent="0.2">
-      <c r="A93" s="38">
+    <row r="94" spans="1:11" ht="85" x14ac:dyDescent="0.2">
+      <c r="A94" s="38">
         <f>'Article Data'!A89</f>
         <v>313</v>
       </c>
-      <c r="B93" s="38" t="str">
+      <c r="B94" s="38" t="str">
         <f>'Article Data'!B89</f>
         <v>The Role of Climate Changes in the Spread of Freshwater Fishes: Implications for Alien Cool and Warm-Water Species in a Mediterranean Basin</v>
       </c>
-      <c r="C93" s="38" t="s">
-        <v>368</v>
-      </c>
-      <c r="D93" s="38" t="s">
-        <v>368</v>
-      </c>
-      <c r="E93" s="38" t="s">
+      <c r="C94" s="38" t="s">
+        <v>368</v>
+      </c>
+      <c r="D94" s="38" t="s">
+        <v>368</v>
+      </c>
+      <c r="E94" s="38" t="s">
         <v>248</v>
       </c>
-      <c r="F93" s="38" t="s">
+      <c r="F94" s="38" t="s">
         <v>260</v>
       </c>
-      <c r="G93" s="38" t="s">
+      <c r="G94" s="38" t="s">
         <v>96</v>
       </c>
-      <c r="H93" s="38" t="s">
+      <c r="H94" s="38" t="s">
         <v>299</v>
       </c>
-      <c r="I93" s="38" t="s">
+      <c r="I94" s="38" t="s">
         <v>843</v>
       </c>
-      <c r="J93" s="38" t="s">
+      <c r="J94" s="38" t="s">
         <v>280</v>
       </c>
-      <c r="K93" s="38" t="s">
+      <c r="K94" s="38" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="94" spans="1:12" ht="68" x14ac:dyDescent="0.2">
-      <c r="A94" s="39">
+    <row r="95" spans="1:11" ht="68" x14ac:dyDescent="0.2">
+      <c r="A95" s="39">
         <f>'Article Data'!A90</f>
         <v>94</v>
       </c>
-      <c r="B94" s="39" t="str">
+      <c r="B95" s="39" t="str">
         <f>'Article Data'!B90</f>
         <v>Rapid Turnover in Site Occupancy of a Pond-breeding Frog Demonstrates the Need for Landscape-level Management</v>
       </c>
-      <c r="C94" s="39" t="s">
-        <v>368</v>
-      </c>
-      <c r="D94" s="39" t="s">
-        <v>368</v>
-      </c>
-      <c r="E94" s="39" t="s">
-        <v>248</v>
-      </c>
-      <c r="F94" s="39" t="s">
+      <c r="C95" s="39" t="s">
+        <v>368</v>
+      </c>
+      <c r="D95" s="39" t="s">
+        <v>368</v>
+      </c>
+      <c r="E95" s="39" t="s">
+        <v>173</v>
+      </c>
+      <c r="F95" s="39" t="s">
         <v>260</v>
       </c>
-      <c r="G94" s="39" t="s">
+      <c r="G95" s="39" t="s">
         <v>96</v>
       </c>
-      <c r="H94" s="39" t="s">
+      <c r="H95" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="I94" s="39" t="s">
+      <c r="I95" s="39" t="s">
         <v>952</v>
       </c>
-      <c r="J94" s="39" t="s">
+      <c r="J95" s="39" t="s">
         <v>277</v>
       </c>
-      <c r="K94" s="39" t="s">
+      <c r="K95" s="39" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="95" spans="1:12" ht="51" x14ac:dyDescent="0.2">
-      <c r="A95" s="38">
+    <row r="96" spans="1:11" ht="51" x14ac:dyDescent="0.2">
+      <c r="A96" s="38">
         <f>'Article Data'!A91</f>
         <v>295</v>
       </c>
-      <c r="B95" s="38" t="str">
+      <c r="B96" s="38" t="str">
         <f>'Article Data'!B91</f>
         <v>Habitat fragmentation reduces occupancy of nest boxes by an open-country raptor</v>
       </c>
-      <c r="C95" s="38" t="s">
-        <v>368</v>
-      </c>
-      <c r="D95" s="38" t="s">
-        <v>368</v>
-      </c>
-      <c r="E95" s="38" t="s">
+      <c r="C96" s="38" t="s">
+        <v>368</v>
+      </c>
+      <c r="D96" s="38" t="s">
+        <v>368</v>
+      </c>
+      <c r="E96" s="38" t="s">
         <v>248</v>
       </c>
-      <c r="F95" s="38" t="s">
+      <c r="F96" s="38" t="s">
         <v>261</v>
       </c>
-      <c r="G95" s="38" t="s">
+      <c r="G96" s="38" t="s">
         <v>259</v>
       </c>
-      <c r="H95" s="38" t="s">
+      <c r="H96" s="38" t="s">
         <v>300</v>
       </c>
-      <c r="I95" s="38" t="s">
+      <c r="I96" s="38" t="s">
         <v>57</v>
       </c>
-      <c r="J95" s="38" t="s">
+      <c r="J96" s="38" t="s">
         <v>57</v>
       </c>
-      <c r="K95" s="38" t="s">
+      <c r="K96" s="38" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="96" spans="1:12" ht="85" x14ac:dyDescent="0.2">
-      <c r="A96" s="39">
+    <row r="97" spans="1:11" ht="85" x14ac:dyDescent="0.2">
+      <c r="A97" s="39">
         <f>'Article Data'!A92</f>
         <v>138</v>
       </c>
-      <c r="B96" s="39" t="str">
+      <c r="B97" s="39" t="str">
         <f>'Article Data'!B92</f>
         <v>A multistate dynamic occupancy model to estimate local colonization &amp; extinction rates and patterns of co-occurrence between two or more interacting species</v>
       </c>
-      <c r="C96" s="39" t="s">
-        <v>368</v>
-      </c>
-      <c r="D96" s="39" t="s">
-        <v>368</v>
-      </c>
-      <c r="E96" s="39" t="s">
+      <c r="C97" s="39" t="s">
+        <v>368</v>
+      </c>
+      <c r="D97" s="39" t="s">
+        <v>368</v>
+      </c>
+      <c r="E97" s="39" t="s">
         <v>253</v>
       </c>
-      <c r="F96" s="39" t="s">
+      <c r="F97" s="39" t="s">
         <v>261</v>
       </c>
-      <c r="G96" s="39" t="s">
+      <c r="G97" s="39" t="s">
         <v>70</v>
       </c>
-      <c r="H96" s="39" t="s">
+      <c r="H97" s="39" t="s">
         <v>297</v>
       </c>
-      <c r="I96" s="39" t="s">
+      <c r="I97" s="39" t="s">
         <v>264</v>
       </c>
-      <c r="J96" s="39" t="s">
+      <c r="J97" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="K96" s="39" t="s">
+      <c r="K97" s="39" t="s">
         <v>285</v>
       </c>
-      <c r="L96" t="s">
-        <v>1011</v>
-      </c>
-    </row>
-    <row r="97" spans="1:11" ht="85" x14ac:dyDescent="0.2">
-      <c r="A97" s="38">
+    </row>
+    <row r="98" spans="1:11" ht="85" x14ac:dyDescent="0.2">
+      <c r="A98" s="38">
         <f>'Article Data'!A93</f>
         <v>549</v>
       </c>
-      <c r="B97" s="38" t="str">
+      <c r="B98" s="38" t="str">
         <f>'Article Data'!B93</f>
         <v>Accounting for misclassification of subspecies provides insights about habitat use and dynamics of the Florida Grasshopper Sparrow in response to fire</v>
       </c>
-      <c r="C97" s="38" t="s">
-        <v>368</v>
-      </c>
-      <c r="D97" s="38" t="s">
-        <v>368</v>
-      </c>
-      <c r="E97" s="38" t="s">
+      <c r="C98" s="38" t="s">
+        <v>368</v>
+      </c>
+      <c r="D98" s="38" t="s">
+        <v>368</v>
+      </c>
+      <c r="E98" s="38" t="s">
         <v>255</v>
       </c>
-      <c r="F97" s="38" t="s">
+      <c r="F98" s="38" t="s">
         <v>261</v>
       </c>
-      <c r="G97" s="38" t="s">
+      <c r="G98" s="38" t="s">
         <v>96</v>
       </c>
-      <c r="H97" s="38" t="s">
+      <c r="H98" s="38" t="s">
         <v>57</v>
       </c>
-      <c r="I97" s="38" t="s">
-        <v>1022</v>
-      </c>
-      <c r="J97" s="38" t="s">
+      <c r="I98" s="38" t="s">
+        <v>1018</v>
+      </c>
+      <c r="J98" s="38" t="s">
         <v>57</v>
       </c>
-      <c r="K97" s="38" t="s">
+      <c r="K98" s="38" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A98" s="39">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A99" s="39">
         <f>'Article Data'!A94</f>
         <v>0</v>
       </c>
-      <c r="B98" s="39">
+      <c r="B99" s="39">
         <f>'Article Data'!B94</f>
         <v>0</v>
       </c>
-      <c r="C98" s="39"/>
-      <c r="D98" s="39"/>
-      <c r="E98" s="39"/>
-      <c r="F98" s="39"/>
-      <c r="G98" s="39"/>
-      <c r="H98" s="39"/>
-      <c r="I98" s="39"/>
-      <c r="J98" s="39"/>
-      <c r="K98" s="39"/>
-    </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A99" s="38">
+      <c r="C99" s="39"/>
+      <c r="D99" s="39"/>
+      <c r="E99" s="39"/>
+      <c r="F99" s="39"/>
+      <c r="G99" s="39"/>
+      <c r="H99" s="39"/>
+      <c r="I99" s="39"/>
+      <c r="J99" s="39"/>
+      <c r="K99" s="39"/>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A100" s="38">
         <f>'Article Data'!A95</f>
         <v>0</v>
       </c>
-      <c r="B99" s="38">
+      <c r="B100" s="38">
         <f>'Article Data'!B95</f>
         <v>0</v>
       </c>
-      <c r="C99" s="38"/>
-      <c r="D99" s="38"/>
-      <c r="E99" s="38"/>
-      <c r="F99" s="38"/>
-      <c r="G99" s="38"/>
-      <c r="H99" s="38"/>
-      <c r="I99" s="38"/>
-      <c r="J99" s="38"/>
-      <c r="K99" s="38"/>
-    </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A100" s="39">
+      <c r="C100" s="38"/>
+      <c r="D100" s="38"/>
+      <c r="E100" s="38"/>
+      <c r="F100" s="38"/>
+      <c r="G100" s="38"/>
+      <c r="H100" s="38"/>
+      <c r="I100" s="38"/>
+      <c r="J100" s="38"/>
+      <c r="K100" s="38"/>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A101" s="39">
         <f>'Article Data'!A96</f>
         <v>0</v>
       </c>
-      <c r="B100" s="39">
+      <c r="B101" s="39">
         <f>'Article Data'!B96</f>
         <v>0</v>
       </c>
-      <c r="C100" s="39"/>
-      <c r="D100" s="39"/>
-      <c r="E100" s="39"/>
-      <c r="F100" s="39"/>
-      <c r="G100" s="39"/>
-      <c r="H100" s="39"/>
-      <c r="I100" s="39"/>
-      <c r="J100" s="39"/>
-      <c r="K100" s="39"/>
-    </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A101" s="38">
+      <c r="C101" s="39"/>
+      <c r="D101" s="39"/>
+      <c r="E101" s="39"/>
+      <c r="F101" s="39"/>
+      <c r="G101" s="39"/>
+      <c r="H101" s="39"/>
+      <c r="I101" s="39"/>
+      <c r="J101" s="39"/>
+      <c r="K101" s="39"/>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A102" s="38">
         <f>'Article Data'!A97</f>
         <v>0</v>
       </c>
-      <c r="B101" s="38">
+      <c r="B102" s="38">
         <f>'Article Data'!B97</f>
         <v>0</v>
       </c>
-      <c r="C101" s="38"/>
-      <c r="D101" s="38"/>
-      <c r="E101" s="38"/>
-      <c r="F101" s="38"/>
-      <c r="G101" s="38"/>
-      <c r="H101" s="38"/>
-      <c r="I101" s="38"/>
-      <c r="J101" s="38"/>
-      <c r="K101" s="38"/>
-    </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A102" s="39">
+      <c r="C102" s="38"/>
+      <c r="D102" s="38"/>
+      <c r="E102" s="38"/>
+      <c r="F102" s="38"/>
+      <c r="G102" s="38"/>
+      <c r="H102" s="38"/>
+      <c r="I102" s="38"/>
+      <c r="J102" s="38"/>
+      <c r="K102" s="38"/>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A103" s="39">
         <f>'Article Data'!A98</f>
         <v>0</v>
       </c>
-      <c r="B102" s="39">
+      <c r="B103" s="39">
         <f>'Article Data'!B98</f>
         <v>0</v>
       </c>
-      <c r="C102" s="39"/>
-      <c r="D102" s="39"/>
-      <c r="E102" s="39"/>
-      <c r="F102" s="39"/>
-      <c r="G102" s="39"/>
-      <c r="H102" s="39"/>
-      <c r="I102" s="39"/>
-      <c r="J102" s="39"/>
-      <c r="K102" s="39"/>
-    </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A103" s="38">
+      <c r="C103" s="39"/>
+      <c r="D103" s="39"/>
+      <c r="E103" s="39"/>
+      <c r="F103" s="39"/>
+      <c r="G103" s="39"/>
+      <c r="H103" s="39"/>
+      <c r="I103" s="39"/>
+      <c r="J103" s="39"/>
+      <c r="K103" s="39"/>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A104" s="38">
         <f>'Article Data'!A99</f>
         <v>0</v>
       </c>
-      <c r="B103" s="38">
+      <c r="B104" s="38">
         <f>'Article Data'!B99</f>
         <v>0</v>
       </c>
-      <c r="C103" s="38"/>
-      <c r="D103" s="38"/>
-      <c r="E103" s="38"/>
-      <c r="F103" s="38"/>
-      <c r="G103" s="38"/>
-      <c r="H103" s="38"/>
-      <c r="I103" s="38"/>
-      <c r="J103" s="38"/>
-      <c r="K103" s="38"/>
-    </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A104" s="39">
+      <c r="C104" s="38"/>
+      <c r="D104" s="38"/>
+      <c r="E104" s="38"/>
+      <c r="F104" s="38"/>
+      <c r="G104" s="38"/>
+      <c r="H104" s="38"/>
+      <c r="I104" s="38"/>
+      <c r="J104" s="38"/>
+      <c r="K104" s="38"/>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A105" s="39">
         <f>'Article Data'!A100</f>
         <v>0</v>
       </c>
-      <c r="B104" s="39">
+      <c r="B105" s="39">
         <f>'Article Data'!B100</f>
         <v>0</v>
       </c>
-      <c r="C104" s="39"/>
-      <c r="D104" s="39"/>
-      <c r="E104" s="39"/>
-      <c r="F104" s="39"/>
-      <c r="G104" s="39"/>
-      <c r="H104" s="39"/>
-      <c r="I104" s="39"/>
-      <c r="J104" s="39"/>
-      <c r="K104" s="39"/>
-    </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A105" s="38">
+      <c r="C105" s="39"/>
+      <c r="D105" s="39"/>
+      <c r="E105" s="39"/>
+      <c r="F105" s="39"/>
+      <c r="G105" s="39"/>
+      <c r="H105" s="39"/>
+      <c r="I105" s="39"/>
+      <c r="J105" s="39"/>
+      <c r="K105" s="39"/>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A106" s="38">
         <f>'Article Data'!A101</f>
         <v>0</v>
       </c>
-      <c r="B105" s="38">
+      <c r="B106" s="38">
         <f>'Article Data'!B101</f>
         <v>0</v>
       </c>
-      <c r="C105" s="38"/>
-      <c r="D105" s="38"/>
-      <c r="E105" s="38"/>
-      <c r="F105" s="38"/>
-      <c r="G105" s="38"/>
-      <c r="H105" s="38"/>
-      <c r="I105" s="38"/>
-      <c r="J105" s="38"/>
-      <c r="K105" s="38"/>
-    </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A106" s="39">
+      <c r="C106" s="38"/>
+      <c r="D106" s="38"/>
+      <c r="E106" s="38"/>
+      <c r="F106" s="38"/>
+      <c r="G106" s="38"/>
+      <c r="H106" s="38"/>
+      <c r="I106" s="38"/>
+      <c r="J106" s="38"/>
+      <c r="K106" s="38"/>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A107" s="39">
         <f>'Article Data'!A102</f>
         <v>0</v>
       </c>
-      <c r="B106" s="39">
+      <c r="B107" s="39">
         <f>'Article Data'!B102</f>
         <v>0</v>
       </c>
-      <c r="C106" s="39"/>
-      <c r="D106" s="39"/>
-      <c r="E106" s="39"/>
-      <c r="F106" s="39"/>
-      <c r="G106" s="39"/>
-      <c r="H106" s="39"/>
-      <c r="I106" s="39"/>
-      <c r="J106" s="39"/>
-      <c r="K106" s="39"/>
-    </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A107" s="38">
+      <c r="C107" s="39"/>
+      <c r="D107" s="39"/>
+      <c r="E107" s="39"/>
+      <c r="F107" s="39"/>
+      <c r="G107" s="39"/>
+      <c r="H107" s="39"/>
+      <c r="I107" s="39"/>
+      <c r="J107" s="39"/>
+      <c r="K107" s="39"/>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A108" s="38">
         <f>'Article Data'!A103</f>
         <v>0</v>
       </c>
-      <c r="B107" s="38">
+      <c r="B108" s="38">
         <f>'Article Data'!B103</f>
         <v>0</v>
       </c>
-      <c r="C107" s="38"/>
-      <c r="D107" s="38"/>
-      <c r="E107" s="38"/>
-      <c r="F107" s="38"/>
-      <c r="G107" s="38"/>
-      <c r="H107" s="38"/>
-      <c r="I107" s="38"/>
-      <c r="J107" s="38"/>
-      <c r="K107" s="38"/>
-    </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A108" s="39">
+      <c r="C108" s="38"/>
+      <c r="D108" s="38"/>
+      <c r="E108" s="38"/>
+      <c r="F108" s="38"/>
+      <c r="G108" s="38"/>
+      <c r="H108" s="38"/>
+      <c r="I108" s="38"/>
+      <c r="J108" s="38"/>
+      <c r="K108" s="38"/>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A109" s="39">
         <f>'Article Data'!A104</f>
         <v>0</v>
       </c>
-      <c r="B108" s="39">
+      <c r="B109" s="39">
         <f>'Article Data'!B104</f>
         <v>0</v>
       </c>
-      <c r="C108" s="39"/>
-      <c r="D108" s="39"/>
-      <c r="E108" s="39"/>
-      <c r="F108" s="39"/>
-      <c r="G108" s="39"/>
-      <c r="H108" s="39"/>
-      <c r="I108" s="39"/>
-      <c r="J108" s="39"/>
-      <c r="K108" s="39"/>
-    </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A109" s="38">
+      <c r="C109" s="39"/>
+      <c r="D109" s="39"/>
+      <c r="E109" s="39"/>
+      <c r="F109" s="39"/>
+      <c r="G109" s="39"/>
+      <c r="H109" s="39"/>
+      <c r="I109" s="39"/>
+      <c r="J109" s="39"/>
+      <c r="K109" s="39"/>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A110" s="38">
         <f>'Article Data'!A105</f>
         <v>0</v>
       </c>
-      <c r="B109" s="38">
+      <c r="B110" s="38">
         <f>'Article Data'!B105</f>
         <v>0</v>
       </c>
-      <c r="C109" s="38"/>
-      <c r="D109" s="38"/>
-      <c r="E109" s="38"/>
-      <c r="F109" s="38"/>
-      <c r="G109" s="38"/>
-      <c r="H109" s="38"/>
-      <c r="I109" s="38"/>
-      <c r="J109" s="38"/>
-      <c r="K109" s="38"/>
-    </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A110" s="39">
+      <c r="C110" s="38"/>
+      <c r="D110" s="38"/>
+      <c r="E110" s="38"/>
+      <c r="F110" s="38"/>
+      <c r="G110" s="38"/>
+      <c r="H110" s="38"/>
+      <c r="I110" s="38"/>
+      <c r="J110" s="38"/>
+      <c r="K110" s="38"/>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A111" s="39">
         <f>'Article Data'!A106</f>
         <v>0</v>
       </c>
-      <c r="B110" s="39">
+      <c r="B111" s="39">
         <f>'Article Data'!B106</f>
         <v>0</v>
       </c>
-      <c r="C110" s="39"/>
-      <c r="D110" s="39"/>
-      <c r="E110" s="39"/>
-      <c r="F110" s="39"/>
-      <c r="G110" s="39"/>
-      <c r="H110" s="39"/>
-      <c r="I110" s="39"/>
-      <c r="J110" s="39"/>
-      <c r="K110" s="39"/>
-    </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A111" s="38">
+      <c r="C111" s="39"/>
+      <c r="D111" s="39"/>
+      <c r="E111" s="39"/>
+      <c r="F111" s="39"/>
+      <c r="G111" s="39"/>
+      <c r="H111" s="39"/>
+      <c r="I111" s="39"/>
+      <c r="J111" s="39"/>
+      <c r="K111" s="39"/>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A112" s="38">
         <f>'Article Data'!A107</f>
         <v>0</v>
       </c>
-      <c r="B111" s="38">
+      <c r="B112" s="38">
         <f>'Article Data'!B107</f>
         <v>0</v>
       </c>
-      <c r="C111" s="38"/>
-      <c r="D111" s="38"/>
-      <c r="E111" s="38"/>
-      <c r="F111" s="38"/>
-      <c r="G111" s="38"/>
-      <c r="H111" s="38"/>
-      <c r="I111" s="38"/>
-      <c r="J111" s="38"/>
-      <c r="K111" s="38"/>
-    </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A112" s="39">
+      <c r="C112" s="38"/>
+      <c r="D112" s="38"/>
+      <c r="E112" s="38"/>
+      <c r="F112" s="38"/>
+      <c r="G112" s="38"/>
+      <c r="H112" s="38"/>
+      <c r="I112" s="38"/>
+      <c r="J112" s="38"/>
+      <c r="K112" s="38"/>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A113" s="39">
         <f>'Article Data'!A108</f>
         <v>0</v>
       </c>
-      <c r="B112" s="39">
+      <c r="B113" s="39">
         <f>'Article Data'!B108</f>
         <v>0</v>
       </c>
-      <c r="C112" s="39"/>
-      <c r="D112" s="39"/>
-      <c r="E112" s="39"/>
-      <c r="F112" s="39"/>
-      <c r="G112" s="39"/>
-      <c r="H112" s="39"/>
-      <c r="I112" s="39"/>
-      <c r="J112" s="39"/>
-      <c r="K112" s="39"/>
-    </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A113" s="38">
+      <c r="C113" s="39"/>
+      <c r="D113" s="39"/>
+      <c r="E113" s="39"/>
+      <c r="F113" s="39"/>
+      <c r="G113" s="39"/>
+      <c r="H113" s="39"/>
+      <c r="I113" s="39"/>
+      <c r="J113" s="39"/>
+      <c r="K113" s="39"/>
+    </row>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A114" s="38">
         <f>'Article Data'!A109</f>
         <v>0</v>
       </c>
-      <c r="B113" s="38">
+      <c r="B114" s="38">
         <f>'Article Data'!B109</f>
         <v>0</v>
       </c>
-      <c r="C113" s="38"/>
-      <c r="D113" s="38"/>
-      <c r="E113" s="38"/>
-      <c r="F113" s="38"/>
-      <c r="G113" s="38"/>
-      <c r="H113" s="38"/>
-      <c r="I113" s="38"/>
-      <c r="J113" s="38"/>
-      <c r="K113" s="38"/>
-    </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A114" s="39">
+      <c r="C114" s="38"/>
+      <c r="D114" s="38"/>
+      <c r="E114" s="38"/>
+      <c r="F114" s="38"/>
+      <c r="G114" s="38"/>
+      <c r="H114" s="38"/>
+      <c r="I114" s="38"/>
+      <c r="J114" s="38"/>
+      <c r="K114" s="38"/>
+    </row>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A115" s="39">
         <f>'Article Data'!A110</f>
         <v>0</v>
       </c>
-      <c r="B114" s="39">
+      <c r="B115" s="39">
         <f>'Article Data'!B110</f>
         <v>0</v>
       </c>
-      <c r="C114" s="39"/>
-      <c r="D114" s="39"/>
-      <c r="E114" s="39"/>
-      <c r="F114" s="39"/>
-      <c r="G114" s="39"/>
-      <c r="H114" s="39"/>
-      <c r="I114" s="39"/>
-      <c r="J114" s="39"/>
-      <c r="K114" s="39"/>
-    </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A115" s="38">
+      <c r="C115" s="39"/>
+      <c r="D115" s="39"/>
+      <c r="E115" s="39"/>
+      <c r="F115" s="39"/>
+      <c r="G115" s="39"/>
+      <c r="H115" s="39"/>
+      <c r="I115" s="39"/>
+      <c r="J115" s="39"/>
+      <c r="K115" s="39"/>
+    </row>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A116" s="38">
         <f>'Article Data'!A111</f>
         <v>0</v>
       </c>
-      <c r="B115" s="38">
+      <c r="B116" s="38">
         <f>'Article Data'!B111</f>
         <v>0</v>
       </c>
-      <c r="C115" s="38"/>
-      <c r="D115" s="38"/>
-      <c r="E115" s="38"/>
-      <c r="F115" s="38"/>
-      <c r="G115" s="38"/>
-      <c r="H115" s="38"/>
-      <c r="I115" s="38"/>
-      <c r="J115" s="38"/>
-      <c r="K115" s="38"/>
-    </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A116" s="39">
+      <c r="C116" s="38"/>
+      <c r="D116" s="38"/>
+      <c r="E116" s="38"/>
+      <c r="F116" s="38"/>
+      <c r="G116" s="38"/>
+      <c r="H116" s="38"/>
+      <c r="I116" s="38"/>
+      <c r="J116" s="38"/>
+      <c r="K116" s="38"/>
+    </row>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A117" s="39">
         <f>'Article Data'!A112</f>
         <v>0</v>
       </c>
-      <c r="B116" s="39">
+      <c r="B117" s="39">
         <f>'Article Data'!B112</f>
         <v>0</v>
       </c>
-      <c r="C116" s="39"/>
-      <c r="D116" s="39"/>
-      <c r="E116" s="39"/>
-      <c r="F116" s="39"/>
-      <c r="G116" s="39"/>
-      <c r="H116" s="39"/>
-      <c r="I116" s="39"/>
-      <c r="J116" s="39"/>
-      <c r="K116" s="39"/>
-    </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A117" s="38">
+      <c r="C117" s="39"/>
+      <c r="D117" s="39"/>
+      <c r="E117" s="39"/>
+      <c r="F117" s="39"/>
+      <c r="G117" s="39"/>
+      <c r="H117" s="39"/>
+      <c r="I117" s="39"/>
+      <c r="J117" s="39"/>
+      <c r="K117" s="39"/>
+    </row>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A118" s="38">
         <f>'Article Data'!A113</f>
         <v>0</v>
       </c>
-      <c r="B117" s="38">
+      <c r="B118" s="38">
         <f>'Article Data'!B113</f>
         <v>0</v>
       </c>
-      <c r="C117" s="38"/>
-      <c r="D117" s="38"/>
-      <c r="E117" s="38"/>
-      <c r="F117" s="38"/>
-      <c r="G117" s="38"/>
-      <c r="H117" s="38"/>
-      <c r="I117" s="38"/>
-      <c r="J117" s="38"/>
-      <c r="K117" s="38"/>
-    </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A118" s="39">
+      <c r="C118" s="38"/>
+      <c r="D118" s="38"/>
+      <c r="E118" s="38"/>
+      <c r="F118" s="38"/>
+      <c r="G118" s="38"/>
+      <c r="H118" s="38"/>
+      <c r="I118" s="38"/>
+      <c r="J118" s="38"/>
+      <c r="K118" s="38"/>
+    </row>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A119" s="39">
         <f>'Article Data'!A114</f>
         <v>0</v>
       </c>
-      <c r="B118" s="39">
+      <c r="B119" s="39">
         <f>'Article Data'!B114</f>
         <v>0</v>
       </c>
-      <c r="C118" s="39"/>
-      <c r="D118" s="39"/>
-      <c r="E118" s="39"/>
-      <c r="F118" s="39"/>
-      <c r="G118" s="39"/>
-      <c r="H118" s="39"/>
-      <c r="I118" s="39"/>
-      <c r="J118" s="39"/>
-      <c r="K118" s="39"/>
-    </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A119" s="38">
+      <c r="C119" s="39"/>
+      <c r="D119" s="39"/>
+      <c r="E119" s="39"/>
+      <c r="F119" s="39"/>
+      <c r="G119" s="39"/>
+      <c r="H119" s="39"/>
+      <c r="I119" s="39"/>
+      <c r="J119" s="39"/>
+      <c r="K119" s="39"/>
+    </row>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A120" s="38">
         <f>'Article Data'!A115</f>
         <v>0</v>
       </c>
-      <c r="B119" s="38">
+      <c r="B120" s="38">
         <f>'Article Data'!B115</f>
         <v>0</v>
       </c>
-      <c r="C119" s="38"/>
-      <c r="D119" s="38"/>
-      <c r="E119" s="38"/>
-      <c r="F119" s="38"/>
-      <c r="G119" s="38"/>
-      <c r="H119" s="38"/>
-      <c r="I119" s="38"/>
-      <c r="J119" s="38"/>
-      <c r="K119" s="38"/>
-    </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A120" s="39">
+      <c r="C120" s="38"/>
+      <c r="D120" s="38"/>
+      <c r="E120" s="38"/>
+      <c r="F120" s="38"/>
+      <c r="G120" s="38"/>
+      <c r="H120" s="38"/>
+      <c r="I120" s="38"/>
+      <c r="J120" s="38"/>
+      <c r="K120" s="38"/>
+    </row>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A121" s="39">
         <f>'Article Data'!A116</f>
         <v>0</v>
       </c>
-      <c r="B120" s="39">
+      <c r="B121" s="39">
         <f>'Article Data'!B116</f>
         <v>0</v>
       </c>
-      <c r="C120" s="39"/>
-      <c r="D120" s="39"/>
-      <c r="E120" s="39"/>
-      <c r="F120" s="39"/>
-      <c r="G120" s="39"/>
-      <c r="H120" s="39"/>
-      <c r="I120" s="39"/>
-      <c r="J120" s="39"/>
-      <c r="K120" s="39"/>
-    </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A121" s="38">
+      <c r="C121" s="39"/>
+      <c r="D121" s="39"/>
+      <c r="E121" s="39"/>
+      <c r="F121" s="39"/>
+      <c r="G121" s="39"/>
+      <c r="H121" s="39"/>
+      <c r="I121" s="39"/>
+      <c r="J121" s="39"/>
+      <c r="K121" s="39"/>
+    </row>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A122" s="38">
         <f>'Article Data'!A117</f>
         <v>0</v>
       </c>
-      <c r="B121" s="38">
+      <c r="B122" s="38">
         <f>'Article Data'!B117</f>
         <v>0</v>
       </c>
-      <c r="C121" s="38"/>
-      <c r="D121" s="38"/>
-      <c r="E121" s="38"/>
-      <c r="F121" s="38"/>
-      <c r="G121" s="38"/>
-      <c r="H121" s="38"/>
-      <c r="I121" s="38"/>
-      <c r="J121" s="38"/>
-      <c r="K121" s="38"/>
-    </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A122" s="39">
+      <c r="C122" s="38"/>
+      <c r="D122" s="38"/>
+      <c r="E122" s="38"/>
+      <c r="F122" s="38"/>
+      <c r="G122" s="38"/>
+      <c r="H122" s="38"/>
+      <c r="I122" s="38"/>
+      <c r="J122" s="38"/>
+      <c r="K122" s="38"/>
+    </row>
+    <row r="123" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A123" s="39">
         <f>'Article Data'!A118</f>
         <v>0</v>
       </c>
-      <c r="B122" s="39">
+      <c r="B123" s="39">
         <f>'Article Data'!B118</f>
         <v>0</v>
       </c>
-      <c r="C122" s="39"/>
-      <c r="D122" s="39"/>
-      <c r="E122" s="39"/>
-      <c r="F122" s="39"/>
-      <c r="G122" s="39"/>
-      <c r="H122" s="39"/>
-      <c r="I122" s="39"/>
-      <c r="J122" s="39"/>
-      <c r="K122" s="39"/>
-    </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A123" s="38">
+      <c r="C123" s="39"/>
+      <c r="D123" s="39"/>
+      <c r="E123" s="39"/>
+      <c r="F123" s="39"/>
+      <c r="G123" s="39"/>
+      <c r="H123" s="39"/>
+      <c r="I123" s="39"/>
+      <c r="J123" s="39"/>
+      <c r="K123" s="39"/>
+    </row>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A124" s="38">
         <f>'Article Data'!A119</f>
         <v>0</v>
       </c>
-      <c r="B123" s="38">
+      <c r="B124" s="38">
         <f>'Article Data'!B119</f>
         <v>0</v>
       </c>
-      <c r="C123" s="38"/>
-      <c r="D123" s="38"/>
-      <c r="E123" s="38"/>
-      <c r="F123" s="38"/>
-      <c r="G123" s="38"/>
-      <c r="H123" s="38"/>
-      <c r="I123" s="38"/>
-      <c r="J123" s="38"/>
-      <c r="K123" s="38"/>
-    </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A124" s="39">
+      <c r="C124" s="38"/>
+      <c r="D124" s="38"/>
+      <c r="E124" s="38"/>
+      <c r="F124" s="38"/>
+      <c r="G124" s="38"/>
+      <c r="H124" s="38"/>
+      <c r="I124" s="38"/>
+      <c r="J124" s="38"/>
+      <c r="K124" s="38"/>
+    </row>
+    <row r="125" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A125" s="39">
         <f>'Article Data'!A120</f>
         <v>0</v>
       </c>
-      <c r="B124" s="39">
+      <c r="B125" s="39">
         <f>'Article Data'!B120</f>
         <v>0</v>
       </c>
-      <c r="C124" s="39"/>
-      <c r="D124" s="39"/>
-      <c r="E124" s="39"/>
-      <c r="F124" s="39"/>
-      <c r="G124" s="39"/>
-      <c r="H124" s="39"/>
-      <c r="I124" s="39"/>
-      <c r="J124" s="39"/>
-      <c r="K124" s="39"/>
-    </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A125" s="38">
+      <c r="C125" s="39"/>
+      <c r="D125" s="39"/>
+      <c r="E125" s="39"/>
+      <c r="F125" s="39"/>
+      <c r="G125" s="39"/>
+      <c r="H125" s="39"/>
+      <c r="I125" s="39"/>
+      <c r="J125" s="39"/>
+      <c r="K125" s="39"/>
+    </row>
+    <row r="126" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A126" s="38">
         <f>'Article Data'!A121</f>
         <v>0</v>
       </c>
-      <c r="B125" s="38">
+      <c r="B126" s="38">
         <f>'Article Data'!B121</f>
         <v>0</v>
       </c>
-      <c r="C125" s="38"/>
-      <c r="D125" s="38"/>
-      <c r="E125" s="38"/>
-      <c r="F125" s="38"/>
-      <c r="G125" s="38"/>
-      <c r="H125" s="38"/>
-      <c r="I125" s="38"/>
-      <c r="J125" s="38"/>
-      <c r="K125" s="38"/>
-    </row>
-    <row r="126" spans="1:11" ht="17" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.2"/>
+      <c r="C126" s="38"/>
+      <c r="D126" s="38"/>
+      <c r="E126" s="38"/>
+      <c r="F126" s="38"/>
+      <c r="G126" s="38"/>
+      <c r="H126" s="38"/>
+      <c r="I126" s="38"/>
+      <c r="J126" s="38"/>
+      <c r="K126" s="38"/>
+    </row>
+    <row r="127" spans="1:11" ht="17" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="128" spans="1:11" x14ac:dyDescent="0.2"/>
     <row r="129" x14ac:dyDescent="0.2"/>
     <row r="130" x14ac:dyDescent="0.2"/>
@@ -42568,6 +42736,7 @@
     <row r="169" x14ac:dyDescent="0.2"/>
     <row r="170" x14ac:dyDescent="0.2"/>
     <row r="171" x14ac:dyDescent="0.2"/>
+    <row r="172" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -42577,31 +42746,31 @@
           <x14:formula1>
             <xm:f>Metadata!$E$157:$E$164</xm:f>
           </x14:formula1>
-          <xm:sqref>E2:E52 E54:E125</xm:sqref>
+          <xm:sqref>E2:E52 E54:E126</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{82C0C8ED-F9AC-1D4F-BB74-D00E2DC78E21}">
           <x14:formula1>
             <xm:f>Metadata!$E$165:$E$166</xm:f>
           </x14:formula1>
-          <xm:sqref>F2:F52 F55:F125</xm:sqref>
+          <xm:sqref>F2:F52 F55:F126</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{DB1D91A3-0DAE-8E4E-8E38-32805E0491B0}">
           <x14:formula1>
             <xm:f>Metadata!$E$170:$E$177</xm:f>
           </x14:formula1>
-          <xm:sqref>H2:H12 H14:H60 H63:H125</xm:sqref>
+          <xm:sqref>H2:H12 H14:H60 H63:H126</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{CDCBCF4B-875F-004E-A26C-76AB814A4451}">
           <x14:formula1>
             <xm:f>Metadata!$E$187:$E$193</xm:f>
           </x14:formula1>
-          <xm:sqref>J2:J125</xm:sqref>
+          <xm:sqref>J2:J126</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{F89AFB19-4598-9848-8D8E-E040A68840E0}">
           <x14:formula1>
             <xm:f>Metadata!$E$194:$E$199</xm:f>
           </x14:formula1>
-          <xm:sqref>K2:K16 K64:K125 K28:K62 K21:K26 K18:K19</xm:sqref>
+          <xm:sqref>K2:K16 K64:K126 K28:K62 K21:K26 K18:K19</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -42673,7 +42842,7 @@
         <v>0</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>46</v>
@@ -42687,7 +42856,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>1054</v>
+        <v>1050</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>45</v>
@@ -42701,7 +42870,7 @@
         <v>13</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>1039</v>
+        <v>1035</v>
       </c>
       <c r="D5" s="7" t="s">
         <v>45</v>
@@ -42717,7 +42886,7 @@
         <v>14</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>1038</v>
+        <v>1034</v>
       </c>
       <c r="D6" s="7" t="s">
         <v>45</v>
@@ -42735,7 +42904,7 @@
         <v>3</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>1053</v>
+        <v>1049</v>
       </c>
       <c r="D7" s="9" t="s">
         <v>46</v>
@@ -42748,10 +42917,10 @@
       <c r="B8" s="83" t="s">
         <v>49</v>
       </c>
-      <c r="C8" s="57" t="s">
-        <v>1052</v>
-      </c>
-      <c r="D8" s="58" t="s">
+      <c r="C8" s="67" t="s">
+        <v>1048</v>
+      </c>
+      <c r="D8" s="68" t="s">
         <v>48</v>
       </c>
       <c r="E8" s="9" t="s">
@@ -42764,8 +42933,8 @@
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="84"/>
       <c r="B9" s="83"/>
-      <c r="C9" s="57"/>
-      <c r="D9" s="58"/>
+      <c r="C9" s="67"/>
+      <c r="D9" s="68"/>
       <c r="E9" s="9" t="s">
         <v>342</v>
       </c>
@@ -42776,8 +42945,8 @@
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="84"/>
       <c r="B10" s="83"/>
-      <c r="C10" s="57"/>
-      <c r="D10" s="58"/>
+      <c r="C10" s="67"/>
+      <c r="D10" s="68"/>
       <c r="E10" s="9" t="s">
         <v>343</v>
       </c>
@@ -42788,8 +42957,8 @@
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="84"/>
       <c r="B11" s="83"/>
-      <c r="C11" s="57"/>
-      <c r="D11" s="58"/>
+      <c r="C11" s="67"/>
+      <c r="D11" s="68"/>
       <c r="E11" s="9" t="s">
         <v>344</v>
       </c>
@@ -42800,8 +42969,8 @@
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="84"/>
       <c r="B12" s="83"/>
-      <c r="C12" s="57"/>
-      <c r="D12" s="58"/>
+      <c r="C12" s="67"/>
+      <c r="D12" s="68"/>
       <c r="E12" s="9" t="s">
         <v>345</v>
       </c>
@@ -42815,7 +42984,7 @@
         <v>5</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>1051</v>
+        <v>1047</v>
       </c>
       <c r="D13" s="9" t="s">
         <v>45</v>
@@ -42829,7 +42998,7 @@
         <v>6</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>1050</v>
+        <v>1046</v>
       </c>
       <c r="D14" s="9" t="s">
         <v>51</v>
@@ -42840,10 +43009,10 @@
     <row r="15" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A15" s="84"/>
       <c r="B15" s="24" t="s">
-        <v>1031</v>
+        <v>1027</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>1049</v>
+        <v>1045</v>
       </c>
       <c r="D15" s="9" t="s">
         <v>51</v>
@@ -42854,16 +43023,16 @@
       <c r="F15" s="9"/>
     </row>
     <row r="16" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="54" t="s">
+      <c r="A16" s="88" t="s">
         <v>309</v>
       </c>
       <c r="B16" s="85" t="s">
         <v>7</v>
       </c>
-      <c r="C16" s="59" t="s">
-        <v>1032</v>
-      </c>
-      <c r="D16" s="59" t="s">
+      <c r="C16" s="69" t="s">
+        <v>1028</v>
+      </c>
+      <c r="D16" s="69" t="s">
         <v>53</v>
       </c>
       <c r="E16" s="30" t="s">
@@ -42874,10 +43043,10 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="55"/>
+      <c r="A17" s="89"/>
       <c r="B17" s="86"/>
-      <c r="C17" s="60"/>
-      <c r="D17" s="60"/>
+      <c r="C17" s="70"/>
+      <c r="D17" s="70"/>
       <c r="E17" s="30" t="s">
         <v>311</v>
       </c>
@@ -42886,10 +43055,10 @@
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="55"/>
+      <c r="A18" s="89"/>
       <c r="B18" s="86"/>
-      <c r="C18" s="60"/>
-      <c r="D18" s="60"/>
+      <c r="C18" s="70"/>
+      <c r="D18" s="70"/>
       <c r="E18" s="30" t="s">
         <v>312</v>
       </c>
@@ -42898,10 +43067,10 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="55"/>
+      <c r="A19" s="89"/>
       <c r="B19" s="87"/>
-      <c r="C19" s="61"/>
-      <c r="D19" s="61"/>
+      <c r="C19" s="71"/>
+      <c r="D19" s="71"/>
       <c r="E19" s="30" t="s">
         <v>313</v>
       </c>
@@ -42910,7 +43079,7 @@
       </c>
     </row>
     <row r="20" spans="1:6" ht="34" x14ac:dyDescent="0.2">
-      <c r="A20" s="55"/>
+      <c r="A20" s="89"/>
       <c r="B20" s="31" t="s">
         <v>8</v>
       </c>
@@ -42924,12 +43093,12 @@
       <c r="F20" s="30"/>
     </row>
     <row r="21" spans="1:6" ht="85" x14ac:dyDescent="0.2">
-      <c r="A21" s="55"/>
+      <c r="A21" s="89"/>
       <c r="B21" s="31" t="s">
-        <v>1033</v>
+        <v>1029</v>
       </c>
       <c r="C21" s="32" t="s">
-        <v>1093</v>
+        <v>1089</v>
       </c>
       <c r="D21" s="30" t="s">
         <v>151</v>
@@ -42938,12 +43107,12 @@
       <c r="F21" s="30"/>
     </row>
     <row r="22" spans="1:6" ht="51" x14ac:dyDescent="0.2">
-      <c r="A22" s="55"/>
+      <c r="A22" s="89"/>
       <c r="B22" s="31" t="s">
         <v>9</v>
       </c>
       <c r="C22" s="32" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
       <c r="D22" s="30" t="s">
         <v>151</v>
@@ -42952,12 +43121,12 @@
       <c r="F22" s="30"/>
     </row>
     <row r="23" spans="1:6" ht="51" x14ac:dyDescent="0.2">
-      <c r="A23" s="55"/>
+      <c r="A23" s="89"/>
       <c r="B23" s="31" t="s">
         <v>10</v>
       </c>
       <c r="C23" s="32" t="s">
-        <v>1037</v>
+        <v>1033</v>
       </c>
       <c r="D23" s="30" t="s">
         <v>151</v>
@@ -42966,7 +43135,7 @@
       <c r="F23" s="30"/>
     </row>
     <row r="24" spans="1:6" ht="34" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="55"/>
+      <c r="A24" s="89"/>
       <c r="B24" s="31" t="s">
         <v>11</v>
       </c>
@@ -42980,12 +43149,12 @@
       <c r="F24" s="30"/>
     </row>
     <row r="25" spans="1:6" ht="34" x14ac:dyDescent="0.2">
-      <c r="A25" s="55"/>
+      <c r="A25" s="89"/>
       <c r="B25" s="31" t="s">
         <v>11</v>
       </c>
       <c r="C25" s="32" t="s">
-        <v>1034</v>
+        <v>1030</v>
       </c>
       <c r="D25" s="30" t="s">
         <v>151</v>
@@ -42994,12 +43163,12 @@
       <c r="F25" s="30"/>
     </row>
     <row r="26" spans="1:6" ht="34" x14ac:dyDescent="0.2">
-      <c r="A26" s="56"/>
+      <c r="A26" s="90"/>
       <c r="B26" s="31" t="s">
         <v>12</v>
       </c>
       <c r="C26" s="32" t="s">
-        <v>1035</v>
+        <v>1031</v>
       </c>
       <c r="D26" s="30" t="s">
         <v>151</v>
@@ -43015,7 +43184,7 @@
         <v>15</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>1047</v>
+        <v>1043</v>
       </c>
       <c r="D27" s="11" t="s">
         <v>45</v>
@@ -43025,13 +43194,13 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="79"/>
-      <c r="B28" s="68" t="s">
+      <c r="B28" s="60" t="s">
         <v>17</v>
       </c>
-      <c r="C28" s="74" t="s">
-        <v>1046</v>
-      </c>
-      <c r="D28" s="73" t="s">
+      <c r="C28" s="66" t="s">
+        <v>1042</v>
+      </c>
+      <c r="D28" s="65" t="s">
         <v>53</v>
       </c>
       <c r="E28" s="12" t="s">
@@ -43043,9 +43212,9 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="79"/>
-      <c r="B29" s="68"/>
-      <c r="C29" s="74"/>
-      <c r="D29" s="73"/>
+      <c r="B29" s="60"/>
+      <c r="C29" s="66"/>
+      <c r="D29" s="65"/>
       <c r="E29" s="12" t="s">
         <v>55</v>
       </c>
@@ -43055,9 +43224,9 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="79"/>
-      <c r="B30" s="68"/>
-      <c r="C30" s="74"/>
-      <c r="D30" s="73"/>
+      <c r="B30" s="60"/>
+      <c r="C30" s="66"/>
+      <c r="D30" s="65"/>
       <c r="E30" s="12" t="s">
         <v>56</v>
       </c>
@@ -43067,9 +43236,9 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="79"/>
-      <c r="B31" s="68"/>
-      <c r="C31" s="74"/>
-      <c r="D31" s="73"/>
+      <c r="B31" s="60"/>
+      <c r="C31" s="66"/>
+      <c r="D31" s="65"/>
       <c r="E31" s="12" t="s">
         <v>59</v>
       </c>
@@ -43079,9 +43248,9 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="79"/>
-      <c r="B32" s="68"/>
-      <c r="C32" s="74"/>
-      <c r="D32" s="73"/>
+      <c r="B32" s="60"/>
+      <c r="C32" s="66"/>
+      <c r="D32" s="65"/>
       <c r="E32" s="12" t="s">
         <v>58</v>
       </c>
@@ -43091,9 +43260,9 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="79"/>
-      <c r="B33" s="68"/>
-      <c r="C33" s="74"/>
-      <c r="D33" s="73"/>
+      <c r="B33" s="60"/>
+      <c r="C33" s="66"/>
+      <c r="D33" s="65"/>
       <c r="E33" s="12" t="s">
         <v>57</v>
       </c>
@@ -43107,7 +43276,7 @@
         <v>18</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>1048</v>
+        <v>1044</v>
       </c>
       <c r="D34" s="11" t="s">
         <v>46</v>
@@ -43117,13 +43286,13 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="79"/>
-      <c r="B35" s="68" t="s">
+      <c r="B35" s="60" t="s">
         <v>38</v>
       </c>
-      <c r="C35" s="74" t="s">
-        <v>1041</v>
-      </c>
-      <c r="D35" s="73" t="s">
+      <c r="C35" s="66" t="s">
+        <v>1037</v>
+      </c>
+      <c r="D35" s="65" t="s">
         <v>48</v>
       </c>
       <c r="E35" s="12" t="s">
@@ -43135,9 +43304,9 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="79"/>
-      <c r="B36" s="68"/>
-      <c r="C36" s="74"/>
-      <c r="D36" s="73"/>
+      <c r="B36" s="60"/>
+      <c r="C36" s="66"/>
+      <c r="D36" s="65"/>
       <c r="E36" s="12" t="s">
         <v>67</v>
       </c>
@@ -43147,9 +43316,9 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="79"/>
-      <c r="B37" s="68"/>
-      <c r="C37" s="74"/>
-      <c r="D37" s="73"/>
+      <c r="B37" s="60"/>
+      <c r="C37" s="66"/>
+      <c r="D37" s="65"/>
       <c r="E37" s="12" t="s">
         <v>70</v>
       </c>
@@ -43159,9 +43328,9 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="79"/>
-      <c r="B38" s="68"/>
-      <c r="C38" s="74"/>
-      <c r="D38" s="73"/>
+      <c r="B38" s="60"/>
+      <c r="C38" s="66"/>
+      <c r="D38" s="65"/>
       <c r="E38" s="12" t="s">
         <v>72</v>
       </c>
@@ -43171,13 +43340,13 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="79"/>
-      <c r="B39" s="68" t="s">
+      <c r="B39" s="60" t="s">
         <v>1</v>
       </c>
-      <c r="C39" s="74" t="s">
-        <v>1045</v>
-      </c>
-      <c r="D39" s="73" t="s">
+      <c r="C39" s="66" t="s">
+        <v>1041</v>
+      </c>
+      <c r="D39" s="65" t="s">
         <v>53</v>
       </c>
       <c r="E39" s="12" t="s">
@@ -43189,9 +43358,9 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="79"/>
-      <c r="B40" s="68"/>
-      <c r="C40" s="74"/>
-      <c r="D40" s="73"/>
+      <c r="B40" s="60"/>
+      <c r="C40" s="66"/>
+      <c r="D40" s="65"/>
       <c r="E40" s="12" t="s">
         <v>74</v>
       </c>
@@ -43201,9 +43370,9 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="79"/>
-      <c r="B41" s="68"/>
-      <c r="C41" s="74"/>
-      <c r="D41" s="73"/>
+      <c r="B41" s="60"/>
+      <c r="C41" s="66"/>
+      <c r="D41" s="65"/>
       <c r="E41" s="12" t="s">
         <v>76</v>
       </c>
@@ -43213,9 +43382,9 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" s="79"/>
-      <c r="B42" s="68"/>
-      <c r="C42" s="74"/>
-      <c r="D42" s="73"/>
+      <c r="B42" s="60"/>
+      <c r="C42" s="66"/>
+      <c r="D42" s="65"/>
       <c r="E42" s="12" t="s">
         <v>338</v>
       </c>
@@ -43225,9 +43394,9 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" s="79"/>
-      <c r="B43" s="68"/>
-      <c r="C43" s="74"/>
-      <c r="D43" s="73"/>
+      <c r="B43" s="60"/>
+      <c r="C43" s="66"/>
+      <c r="D43" s="65"/>
       <c r="E43" s="12" t="s">
         <v>77</v>
       </c>
@@ -43237,9 +43406,9 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" s="79"/>
-      <c r="B44" s="68"/>
-      <c r="C44" s="74"/>
-      <c r="D44" s="73"/>
+      <c r="B44" s="60"/>
+      <c r="C44" s="66"/>
+      <c r="D44" s="65"/>
       <c r="E44" s="12" t="s">
         <v>78</v>
       </c>
@@ -43249,9 +43418,9 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" s="79"/>
-      <c r="B45" s="68"/>
-      <c r="C45" s="74"/>
-      <c r="D45" s="73"/>
+      <c r="B45" s="60"/>
+      <c r="C45" s="66"/>
+      <c r="D45" s="65"/>
       <c r="E45" s="12" t="s">
         <v>79</v>
       </c>
@@ -43261,9 +43430,9 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" s="79"/>
-      <c r="B46" s="68"/>
-      <c r="C46" s="74"/>
-      <c r="D46" s="73"/>
+      <c r="B46" s="60"/>
+      <c r="C46" s="66"/>
+      <c r="D46" s="65"/>
       <c r="E46" s="12" t="s">
         <v>80</v>
       </c>
@@ -43273,9 +43442,9 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" s="79"/>
-      <c r="B47" s="68"/>
-      <c r="C47" s="74"/>
-      <c r="D47" s="73"/>
+      <c r="B47" s="60"/>
+      <c r="C47" s="66"/>
+      <c r="D47" s="65"/>
       <c r="E47" s="12" t="s">
         <v>81</v>
       </c>
@@ -43285,13 +43454,13 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" s="79"/>
-      <c r="B48" s="68" t="s">
+      <c r="B48" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="C48" s="74" t="s">
-        <v>1044</v>
-      </c>
-      <c r="D48" s="73" t="s">
+      <c r="C48" s="66" t="s">
+        <v>1040</v>
+      </c>
+      <c r="D48" s="65" t="s">
         <v>53</v>
       </c>
       <c r="E48" s="12" t="s">
@@ -43303,9 +43472,9 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" s="79"/>
-      <c r="B49" s="68"/>
-      <c r="C49" s="74"/>
-      <c r="D49" s="73"/>
+      <c r="B49" s="60"/>
+      <c r="C49" s="66"/>
+      <c r="D49" s="65"/>
       <c r="E49" s="12" t="s">
         <v>92</v>
       </c>
@@ -43315,9 +43484,9 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" s="79"/>
-      <c r="B50" s="68"/>
-      <c r="C50" s="74"/>
-      <c r="D50" s="73"/>
+      <c r="B50" s="60"/>
+      <c r="C50" s="66"/>
+      <c r="D50" s="65"/>
       <c r="E50" s="12" t="s">
         <v>93</v>
       </c>
@@ -43327,9 +43496,9 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" s="79"/>
-      <c r="B51" s="68"/>
-      <c r="C51" s="74"/>
-      <c r="D51" s="73"/>
+      <c r="B51" s="60"/>
+      <c r="C51" s="66"/>
+      <c r="D51" s="65"/>
       <c r="E51" s="12" t="s">
         <v>94</v>
       </c>
@@ -43339,9 +43508,9 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" s="79"/>
-      <c r="B52" s="68"/>
-      <c r="C52" s="74"/>
-      <c r="D52" s="73"/>
+      <c r="B52" s="60"/>
+      <c r="C52" s="66"/>
+      <c r="D52" s="65"/>
       <c r="E52" s="12" t="s">
         <v>95</v>
       </c>
@@ -43351,9 +43520,9 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" s="79"/>
-      <c r="B53" s="68"/>
-      <c r="C53" s="74"/>
-      <c r="D53" s="73"/>
+      <c r="B53" s="60"/>
+      <c r="C53" s="66"/>
+      <c r="D53" s="65"/>
       <c r="E53" s="12" t="s">
         <v>97</v>
       </c>
@@ -43363,9 +43532,9 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" s="79"/>
-      <c r="B54" s="68"/>
-      <c r="C54" s="74"/>
-      <c r="D54" s="73"/>
+      <c r="B54" s="60"/>
+      <c r="C54" s="66"/>
+      <c r="D54" s="65"/>
       <c r="E54" s="12" t="s">
         <v>57</v>
       </c>
@@ -43375,9 +43544,9 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" s="79"/>
-      <c r="B55" s="68"/>
-      <c r="C55" s="74"/>
-      <c r="D55" s="73"/>
+      <c r="B55" s="60"/>
+      <c r="C55" s="66"/>
+      <c r="D55" s="65"/>
       <c r="E55" s="12" t="s">
         <v>96</v>
       </c>
@@ -43387,9 +43556,9 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" s="79"/>
-      <c r="B56" s="68"/>
-      <c r="C56" s="74"/>
-      <c r="D56" s="73"/>
+      <c r="B56" s="60"/>
+      <c r="C56" s="66"/>
+      <c r="D56" s="65"/>
       <c r="E56" s="12" t="s">
         <v>81</v>
       </c>
@@ -43398,14 +43567,14 @@
       </c>
     </row>
     <row r="57" spans="1:6" ht="34" x14ac:dyDescent="0.2">
-      <c r="A57" s="95" t="s">
+      <c r="A57" s="97" t="s">
         <v>107</v>
       </c>
       <c r="B57" s="28" t="s">
         <v>19</v>
       </c>
       <c r="C57" s="14" t="s">
-        <v>1043</v>
+        <v>1039</v>
       </c>
       <c r="D57" s="13" t="s">
         <v>45</v>
@@ -43416,14 +43585,14 @@
       <c r="F57" s="13"/>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A58" s="96"/>
-      <c r="B58" s="76" t="s">
+      <c r="A58" s="98"/>
+      <c r="B58" s="93" t="s">
         <v>20</v>
       </c>
-      <c r="C58" s="75" t="s">
-        <v>1042</v>
-      </c>
-      <c r="D58" s="72" t="s">
+      <c r="C58" s="92" t="s">
+        <v>1038</v>
+      </c>
+      <c r="D58" s="64" t="s">
         <v>48</v>
       </c>
       <c r="E58" s="13" t="s">
@@ -43432,132 +43601,132 @@
       <c r="F58" s="13"/>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A59" s="96"/>
-      <c r="B59" s="76"/>
-      <c r="C59" s="75"/>
-      <c r="D59" s="72"/>
+      <c r="A59" s="98"/>
+      <c r="B59" s="93"/>
+      <c r="C59" s="92"/>
+      <c r="D59" s="64"/>
       <c r="E59" s="13" t="s">
         <v>111</v>
       </c>
       <c r="F59" s="13"/>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A60" s="96"/>
-      <c r="B60" s="76"/>
-      <c r="C60" s="75"/>
-      <c r="D60" s="72"/>
+      <c r="A60" s="98"/>
+      <c r="B60" s="93"/>
+      <c r="C60" s="92"/>
+      <c r="D60" s="64"/>
       <c r="E60" s="13" t="s">
         <v>110</v>
       </c>
       <c r="F60" s="13"/>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A61" s="96"/>
-      <c r="B61" s="76"/>
-      <c r="C61" s="75"/>
-      <c r="D61" s="72"/>
+      <c r="A61" s="98"/>
+      <c r="B61" s="93"/>
+      <c r="C61" s="92"/>
+      <c r="D61" s="64"/>
       <c r="E61" s="13" t="s">
         <v>108</v>
       </c>
       <c r="F61" s="13"/>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A62" s="96"/>
-      <c r="B62" s="76"/>
-      <c r="C62" s="75"/>
-      <c r="D62" s="72"/>
+      <c r="A62" s="98"/>
+      <c r="B62" s="93"/>
+      <c r="C62" s="92"/>
+      <c r="D62" s="64"/>
       <c r="E62" s="13" t="s">
         <v>113</v>
       </c>
       <c r="F62" s="13"/>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A63" s="96"/>
-      <c r="B63" s="76"/>
-      <c r="C63" s="75"/>
-      <c r="D63" s="72"/>
+      <c r="A63" s="98"/>
+      <c r="B63" s="93"/>
+      <c r="C63" s="92"/>
+      <c r="D63" s="64"/>
       <c r="E63" s="13" t="s">
         <v>109</v>
       </c>
       <c r="F63" s="13"/>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A64" s="96"/>
-      <c r="B64" s="76" t="s">
+      <c r="A64" s="98"/>
+      <c r="B64" s="93" t="s">
         <v>21</v>
       </c>
-      <c r="C64" s="75" t="s">
-        <v>1030</v>
-      </c>
-      <c r="D64" s="72" t="s">
+      <c r="C64" s="92" t="s">
+        <v>1026</v>
+      </c>
+      <c r="D64" s="64" t="s">
         <v>48</v>
       </c>
       <c r="E64" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="F64" s="88" t="e" vm="1">
+      <c r="F64" s="91" t="e" vm="1">
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A65" s="96"/>
-      <c r="B65" s="76"/>
-      <c r="C65" s="75"/>
-      <c r="D65" s="72"/>
+      <c r="A65" s="98"/>
+      <c r="B65" s="93"/>
+      <c r="C65" s="92"/>
+      <c r="D65" s="64"/>
       <c r="E65" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="F65" s="88"/>
+      <c r="F65" s="91"/>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A66" s="96"/>
-      <c r="B66" s="76"/>
-      <c r="C66" s="75"/>
-      <c r="D66" s="72"/>
+      <c r="A66" s="98"/>
+      <c r="B66" s="93"/>
+      <c r="C66" s="92"/>
+      <c r="D66" s="64"/>
       <c r="E66" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="F66" s="88"/>
+      <c r="F66" s="91"/>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A67" s="96"/>
-      <c r="B67" s="76"/>
-      <c r="C67" s="75"/>
-      <c r="D67" s="72"/>
+      <c r="A67" s="98"/>
+      <c r="B67" s="93"/>
+      <c r="C67" s="92"/>
+      <c r="D67" s="64"/>
       <c r="E67" s="13" t="s">
         <v>337</v>
       </c>
-      <c r="F67" s="88"/>
+      <c r="F67" s="91"/>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A68" s="96"/>
-      <c r="B68" s="76"/>
-      <c r="C68" s="75"/>
-      <c r="D68" s="72"/>
+      <c r="A68" s="98"/>
+      <c r="B68" s="93"/>
+      <c r="C68" s="92"/>
+      <c r="D68" s="64"/>
       <c r="E68" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="F68" s="88"/>
+      <c r="F68" s="91"/>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A69" s="96"/>
-      <c r="B69" s="76"/>
-      <c r="C69" s="75"/>
-      <c r="D69" s="72"/>
+      <c r="A69" s="98"/>
+      <c r="B69" s="93"/>
+      <c r="C69" s="92"/>
+      <c r="D69" s="64"/>
       <c r="E69" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="F69" s="88"/>
+      <c r="F69" s="91"/>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A70" s="96"/>
-      <c r="B70" s="76" t="s">
+      <c r="A70" s="98"/>
+      <c r="B70" s="93" t="s">
         <v>22</v>
       </c>
-      <c r="C70" s="75" t="s">
-        <v>1029</v>
-      </c>
-      <c r="D70" s="72" t="s">
+      <c r="C70" s="92" t="s">
+        <v>1025</v>
+      </c>
+      <c r="D70" s="64" t="s">
         <v>48</v>
       </c>
       <c r="E70" s="13" t="s">
@@ -43566,94 +43735,94 @@
       <c r="F70" s="13"/>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A71" s="96"/>
-      <c r="B71" s="76"/>
-      <c r="C71" s="75"/>
-      <c r="D71" s="72"/>
+      <c r="A71" s="98"/>
+      <c r="B71" s="93"/>
+      <c r="C71" s="92"/>
+      <c r="D71" s="64"/>
       <c r="E71" s="15" t="s">
         <v>120</v>
       </c>
       <c r="F71" s="13"/>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A72" s="96"/>
-      <c r="B72" s="76"/>
-      <c r="C72" s="75"/>
-      <c r="D72" s="72"/>
+      <c r="A72" s="98"/>
+      <c r="B72" s="93"/>
+      <c r="C72" s="92"/>
+      <c r="D72" s="64"/>
       <c r="E72" s="13" t="s">
         <v>121</v>
       </c>
       <c r="F72" s="13"/>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A73" s="96"/>
-      <c r="B73" s="76"/>
-      <c r="C73" s="75"/>
-      <c r="D73" s="72"/>
+      <c r="A73" s="98"/>
+      <c r="B73" s="93"/>
+      <c r="C73" s="92"/>
+      <c r="D73" s="64"/>
       <c r="E73" s="13" t="s">
         <v>122</v>
       </c>
       <c r="F73" s="13"/>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A74" s="96"/>
-      <c r="B74" s="76"/>
-      <c r="C74" s="75"/>
-      <c r="D74" s="72"/>
+      <c r="A74" s="98"/>
+      <c r="B74" s="93"/>
+      <c r="C74" s="92"/>
+      <c r="D74" s="64"/>
       <c r="E74" s="13" t="s">
         <v>124</v>
       </c>
       <c r="F74" s="13"/>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A75" s="96"/>
-      <c r="B75" s="76"/>
-      <c r="C75" s="75"/>
-      <c r="D75" s="72"/>
+      <c r="A75" s="98"/>
+      <c r="B75" s="93"/>
+      <c r="C75" s="92"/>
+      <c r="D75" s="64"/>
       <c r="E75" s="13" t="s">
         <v>123</v>
       </c>
       <c r="F75" s="13"/>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A76" s="96"/>
-      <c r="B76" s="76"/>
-      <c r="C76" s="75"/>
-      <c r="D76" s="72"/>
+      <c r="A76" s="98"/>
+      <c r="B76" s="93"/>
+      <c r="C76" s="92"/>
+      <c r="D76" s="64"/>
       <c r="E76" s="13" t="s">
         <v>125</v>
       </c>
       <c r="F76" s="13"/>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A77" s="96"/>
-      <c r="B77" s="76"/>
-      <c r="C77" s="75"/>
-      <c r="D77" s="72"/>
+      <c r="A77" s="98"/>
+      <c r="B77" s="93"/>
+      <c r="C77" s="92"/>
+      <c r="D77" s="64"/>
       <c r="E77" s="13" t="s">
         <v>126</v>
       </c>
       <c r="F77" s="13"/>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A78" s="96"/>
-      <c r="B78" s="76"/>
-      <c r="C78" s="75"/>
-      <c r="D78" s="72"/>
+      <c r="A78" s="98"/>
+      <c r="B78" s="93"/>
+      <c r="C78" s="92"/>
+      <c r="D78" s="64"/>
       <c r="E78" s="13" t="s">
         <v>322</v>
       </c>
       <c r="F78" s="13"/>
     </row>
     <row r="79" spans="1:6" ht="102" x14ac:dyDescent="0.2">
-      <c r="A79" s="100" t="s">
+      <c r="A79" s="102" t="s">
         <v>127</v>
       </c>
       <c r="B79" s="26" t="s">
         <v>28</v>
       </c>
       <c r="C79" s="17" t="s">
-        <v>1056</v>
+        <v>1052</v>
       </c>
       <c r="D79" s="17" t="s">
         <v>128</v>
@@ -43662,12 +43831,12 @@
       <c r="F79" s="16"/>
     </row>
     <row r="80" spans="1:6" ht="102" x14ac:dyDescent="0.2">
-      <c r="A80" s="100"/>
+      <c r="A80" s="102"/>
       <c r="B80" s="26" t="s">
         <v>27</v>
       </c>
       <c r="C80" s="17" t="s">
-        <v>1056</v>
+        <v>1052</v>
       </c>
       <c r="D80" s="17" t="s">
         <v>128</v>
@@ -43676,12 +43845,12 @@
       <c r="F80" s="16"/>
     </row>
     <row r="81" spans="1:6" ht="34" x14ac:dyDescent="0.2">
-      <c r="A81" s="100"/>
+      <c r="A81" s="102"/>
       <c r="B81" s="26" t="s">
         <v>23</v>
       </c>
       <c r="C81" s="17" t="s">
-        <v>1057</v>
+        <v>1053</v>
       </c>
       <c r="D81" s="16" t="s">
         <v>46</v>
@@ -43690,12 +43859,12 @@
       <c r="F81" s="16"/>
     </row>
     <row r="82" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A82" s="100"/>
+      <c r="A82" s="102"/>
       <c r="B82" s="26" t="s">
-        <v>1058</v>
+        <v>1054</v>
       </c>
       <c r="C82" s="17" t="s">
-        <v>1059</v>
+        <v>1055</v>
       </c>
       <c r="D82" s="16" t="s">
         <v>46</v>
@@ -43704,12 +43873,12 @@
       <c r="F82" s="16"/>
     </row>
     <row r="83" spans="1:6" ht="34" x14ac:dyDescent="0.2">
-      <c r="A83" s="100"/>
+      <c r="A83" s="102"/>
       <c r="B83" s="53" t="s">
+        <v>1056</v>
+      </c>
+      <c r="C83" s="17" t="s">
         <v>1060</v>
-      </c>
-      <c r="C83" s="17" t="s">
-        <v>1064</v>
       </c>
       <c r="D83" s="16" t="s">
         <v>46</v>
@@ -43718,12 +43887,12 @@
       <c r="F83" s="16"/>
     </row>
     <row r="84" spans="1:6" ht="34" x14ac:dyDescent="0.2">
-      <c r="A84" s="100"/>
+      <c r="A84" s="102"/>
       <c r="B84" s="53" t="s">
+        <v>1057</v>
+      </c>
+      <c r="C84" s="17" t="s">
         <v>1061</v>
-      </c>
-      <c r="C84" s="17" t="s">
-        <v>1065</v>
       </c>
       <c r="D84" s="16" t="s">
         <v>46</v>
@@ -43732,12 +43901,12 @@
       <c r="F84" s="16"/>
     </row>
     <row r="85" spans="1:6" ht="34" x14ac:dyDescent="0.2">
-      <c r="A85" s="100"/>
+      <c r="A85" s="102"/>
       <c r="B85" s="53" t="s">
+        <v>1058</v>
+      </c>
+      <c r="C85" s="17" t="s">
         <v>1062</v>
-      </c>
-      <c r="C85" s="17" t="s">
-        <v>1066</v>
       </c>
       <c r="D85" s="16" t="s">
         <v>46</v>
@@ -43746,12 +43915,12 @@
       <c r="F85" s="16"/>
     </row>
     <row r="86" spans="1:6" ht="34" x14ac:dyDescent="0.2">
-      <c r="A86" s="100"/>
+      <c r="A86" s="102"/>
       <c r="B86" s="53" t="s">
-        <v>1063</v>
+        <v>1059</v>
       </c>
       <c r="C86" s="17" t="s">
-        <v>1085</v>
+        <v>1081</v>
       </c>
       <c r="D86" s="16" t="s">
         <v>46</v>
@@ -43760,14 +43929,14 @@
       <c r="F86" s="16"/>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A87" s="100"/>
-      <c r="B87" s="99" t="s">
+      <c r="A87" s="102"/>
+      <c r="B87" s="101" t="s">
         <v>24</v>
       </c>
-      <c r="C87" s="98" t="s">
-        <v>1068</v>
-      </c>
-      <c r="D87" s="97" t="s">
+      <c r="C87" s="100" t="s">
+        <v>1064</v>
+      </c>
+      <c r="D87" s="99" t="s">
         <v>48</v>
       </c>
       <c r="E87" s="16" t="s">
@@ -43778,22 +43947,22 @@
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A88" s="100"/>
-      <c r="B88" s="99"/>
-      <c r="C88" s="98"/>
-      <c r="D88" s="97"/>
+      <c r="A88" s="102"/>
+      <c r="B88" s="101"/>
+      <c r="C88" s="100"/>
+      <c r="D88" s="99"/>
       <c r="E88" s="16" t="s">
         <v>320</v>
       </c>
       <c r="F88" s="16" t="s">
-        <v>1067</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A89" s="100"/>
-      <c r="B89" s="99"/>
-      <c r="C89" s="98"/>
-      <c r="D89" s="97"/>
+      <c r="A89" s="102"/>
+      <c r="B89" s="101"/>
+      <c r="C89" s="100"/>
+      <c r="D89" s="99"/>
       <c r="E89" s="16" t="s">
         <v>130</v>
       </c>
@@ -43802,10 +43971,10 @@
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A90" s="100"/>
-      <c r="B90" s="99"/>
-      <c r="C90" s="98"/>
-      <c r="D90" s="97"/>
+      <c r="A90" s="102"/>
+      <c r="B90" s="101"/>
+      <c r="C90" s="100"/>
+      <c r="D90" s="99"/>
       <c r="E90" s="16" t="s">
         <v>131</v>
       </c>
@@ -43814,10 +43983,10 @@
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A91" s="100"/>
-      <c r="B91" s="99"/>
-      <c r="C91" s="98"/>
-      <c r="D91" s="97"/>
+      <c r="A91" s="102"/>
+      <c r="B91" s="101"/>
+      <c r="C91" s="100"/>
+      <c r="D91" s="99"/>
       <c r="E91" s="16" t="s">
         <v>132</v>
       </c>
@@ -43826,10 +43995,10 @@
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A92" s="100"/>
-      <c r="B92" s="99"/>
-      <c r="C92" s="98"/>
-      <c r="D92" s="97"/>
+      <c r="A92" s="102"/>
+      <c r="B92" s="101"/>
+      <c r="C92" s="100"/>
+      <c r="D92" s="99"/>
       <c r="E92" s="16" t="s">
         <v>137</v>
       </c>
@@ -43838,10 +44007,10 @@
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A93" s="100"/>
-      <c r="B93" s="99"/>
-      <c r="C93" s="98"/>
-      <c r="D93" s="97"/>
+      <c r="A93" s="102"/>
+      <c r="B93" s="101"/>
+      <c r="C93" s="100"/>
+      <c r="D93" s="99"/>
       <c r="E93" s="16" t="s">
         <v>57</v>
       </c>
@@ -43850,10 +44019,10 @@
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A94" s="100"/>
-      <c r="B94" s="99"/>
-      <c r="C94" s="98"/>
-      <c r="D94" s="97"/>
+      <c r="A94" s="102"/>
+      <c r="B94" s="101"/>
+      <c r="C94" s="100"/>
+      <c r="D94" s="99"/>
       <c r="E94" s="16" t="s">
         <v>133</v>
       </c>
@@ -43862,14 +44031,14 @@
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A95" s="100"/>
-      <c r="B95" s="99" t="s">
+      <c r="A95" s="102"/>
+      <c r="B95" s="101" t="s">
         <v>26</v>
       </c>
-      <c r="C95" s="69" t="s">
-        <v>1069</v>
-      </c>
-      <c r="D95" s="69" t="s">
+      <c r="C95" s="61" t="s">
+        <v>1065</v>
+      </c>
+      <c r="D95" s="61" t="s">
         <v>53</v>
       </c>
       <c r="E95" s="16" t="s">
@@ -43880,10 +44049,10 @@
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A96" s="100"/>
-      <c r="B96" s="99"/>
-      <c r="C96" s="70"/>
-      <c r="D96" s="70"/>
+      <c r="A96" s="102"/>
+      <c r="B96" s="101"/>
+      <c r="C96" s="62"/>
+      <c r="D96" s="62"/>
       <c r="E96" s="16" t="s">
         <v>142</v>
       </c>
@@ -43892,10 +44061,10 @@
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A97" s="100"/>
-      <c r="B97" s="99"/>
-      <c r="C97" s="70"/>
-      <c r="D97" s="70"/>
+      <c r="A97" s="102"/>
+      <c r="B97" s="101"/>
+      <c r="C97" s="62"/>
+      <c r="D97" s="62"/>
       <c r="E97" s="16" t="s">
         <v>144</v>
       </c>
@@ -43904,10 +44073,10 @@
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A98" s="100"/>
-      <c r="B98" s="99"/>
-      <c r="C98" s="71"/>
-      <c r="D98" s="71"/>
+      <c r="A98" s="102"/>
+      <c r="B98" s="101"/>
+      <c r="C98" s="63"/>
+      <c r="D98" s="63"/>
       <c r="E98" s="16" t="s">
         <v>145</v>
       </c>
@@ -43916,12 +44085,12 @@
       </c>
     </row>
     <row r="99" spans="1:6" ht="34" x14ac:dyDescent="0.2">
-      <c r="A99" s="100"/>
+      <c r="A99" s="102"/>
       <c r="B99" s="26" t="s">
         <v>150</v>
       </c>
       <c r="C99" s="17" t="s">
-        <v>1070</v>
+        <v>1066</v>
       </c>
       <c r="D99" s="16" t="s">
         <v>151</v>
@@ -43930,7 +44099,7 @@
       <c r="F99" s="16"/>
     </row>
     <row r="100" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A100" s="100"/>
+      <c r="A100" s="102"/>
       <c r="B100" s="26" t="s">
         <v>149</v>
       </c>
@@ -43944,14 +44113,14 @@
       <c r="F100" s="16"/>
     </row>
     <row r="101" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="100"/>
-      <c r="B101" s="99" t="s">
+      <c r="A101" s="102"/>
+      <c r="B101" s="101" t="s">
         <v>25</v>
       </c>
-      <c r="C101" s="98" t="s">
-        <v>1071</v>
-      </c>
-      <c r="D101" s="97" t="s">
+      <c r="C101" s="100" t="s">
+        <v>1067</v>
+      </c>
+      <c r="D101" s="99" t="s">
         <v>48</v>
       </c>
       <c r="E101" s="16" t="s">
@@ -43962,10 +44131,10 @@
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A102" s="100"/>
-      <c r="B102" s="99"/>
-      <c r="C102" s="98"/>
-      <c r="D102" s="97"/>
+      <c r="A102" s="102"/>
+      <c r="B102" s="101"/>
+      <c r="C102" s="100"/>
+      <c r="D102" s="99"/>
       <c r="E102" s="16" t="s">
         <v>154</v>
       </c>
@@ -43974,10 +44143,10 @@
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A103" s="100"/>
-      <c r="B103" s="99"/>
-      <c r="C103" s="98"/>
-      <c r="D103" s="97"/>
+      <c r="A103" s="102"/>
+      <c r="B103" s="101"/>
+      <c r="C103" s="100"/>
+      <c r="D103" s="99"/>
       <c r="E103" s="16" t="s">
         <v>155</v>
       </c>
@@ -43986,22 +44155,22 @@
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A104" s="100"/>
-      <c r="B104" s="99"/>
-      <c r="C104" s="98"/>
-      <c r="D104" s="97"/>
+      <c r="A104" s="102"/>
+      <c r="B104" s="101"/>
+      <c r="C104" s="100"/>
+      <c r="D104" s="99"/>
       <c r="E104" s="16" t="s">
         <v>330</v>
       </c>
       <c r="F104" s="16" t="s">
-        <v>1095</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A105" s="100"/>
-      <c r="B105" s="99"/>
-      <c r="C105" s="98"/>
-      <c r="D105" s="97"/>
+      <c r="A105" s="102"/>
+      <c r="B105" s="101"/>
+      <c r="C105" s="100"/>
+      <c r="D105" s="99"/>
       <c r="E105" s="16" t="s">
         <v>57</v>
       </c>
@@ -44010,14 +44179,14 @@
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A106" s="100"/>
-      <c r="B106" s="99" t="s">
+      <c r="A106" s="102"/>
+      <c r="B106" s="101" t="s">
         <v>159</v>
       </c>
-      <c r="C106" s="98" t="s">
+      <c r="C106" s="100" t="s">
         <v>170</v>
       </c>
-      <c r="D106" s="97" t="s">
+      <c r="D106" s="99" t="s">
         <v>53</v>
       </c>
       <c r="E106" s="16" t="s">
@@ -44028,10 +44197,10 @@
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A107" s="100"/>
-      <c r="B107" s="99"/>
-      <c r="C107" s="98"/>
-      <c r="D107" s="97"/>
+      <c r="A107" s="102"/>
+      <c r="B107" s="101"/>
+      <c r="C107" s="100"/>
+      <c r="D107" s="99"/>
       <c r="E107" s="16" t="s">
         <v>162</v>
       </c>
@@ -44040,10 +44209,10 @@
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A108" s="100"/>
-      <c r="B108" s="99"/>
-      <c r="C108" s="98"/>
-      <c r="D108" s="97"/>
+      <c r="A108" s="102"/>
+      <c r="B108" s="101"/>
+      <c r="C108" s="100"/>
+      <c r="D108" s="99"/>
       <c r="E108" s="16" t="s">
         <v>330</v>
       </c>
@@ -44052,10 +44221,10 @@
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A109" s="100"/>
-      <c r="B109" s="99"/>
-      <c r="C109" s="98"/>
-      <c r="D109" s="97"/>
+      <c r="A109" s="102"/>
+      <c r="B109" s="101"/>
+      <c r="C109" s="100"/>
+      <c r="D109" s="99"/>
       <c r="E109" s="16" t="s">
         <v>164</v>
       </c>
@@ -44064,10 +44233,10 @@
       </c>
     </row>
     <row r="110" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A110" s="100"/>
-      <c r="B110" s="99"/>
-      <c r="C110" s="98"/>
-      <c r="D110" s="97"/>
+      <c r="A110" s="102"/>
+      <c r="B110" s="101"/>
+      <c r="C110" s="100"/>
+      <c r="D110" s="99"/>
       <c r="E110" s="16" t="s">
         <v>166</v>
       </c>
@@ -44076,10 +44245,10 @@
       </c>
     </row>
     <row r="111" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A111" s="100"/>
-      <c r="B111" s="99"/>
-      <c r="C111" s="98"/>
-      <c r="D111" s="97"/>
+      <c r="A111" s="102"/>
+      <c r="B111" s="101"/>
+      <c r="C111" s="100"/>
+      <c r="D111" s="99"/>
       <c r="E111" s="16" t="s">
         <v>271</v>
       </c>
@@ -44088,10 +44257,10 @@
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A112" s="100"/>
-      <c r="B112" s="99"/>
-      <c r="C112" s="98"/>
-      <c r="D112" s="97"/>
+      <c r="A112" s="102"/>
+      <c r="B112" s="101"/>
+      <c r="C112" s="100"/>
+      <c r="D112" s="99"/>
       <c r="E112" s="16" t="s">
         <v>168</v>
       </c>
@@ -44100,14 +44269,14 @@
       </c>
     </row>
     <row r="113" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A113" s="104" t="s">
+      <c r="A113" s="105" t="s">
         <v>31</v>
       </c>
       <c r="B113" s="27" t="s">
         <v>30</v>
       </c>
       <c r="C113" s="18" t="s">
-        <v>1072</v>
+        <v>1068</v>
       </c>
       <c r="D113" s="19" t="s">
         <v>45</v>
@@ -44116,14 +44285,14 @@
       <c r="F113" s="19"/>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A114" s="104"/>
-      <c r="B114" s="105" t="s">
+      <c r="A114" s="105"/>
+      <c r="B114" s="106" t="s">
         <v>171</v>
       </c>
-      <c r="C114" s="108" t="s">
-        <v>1073</v>
-      </c>
-      <c r="D114" s="91" t="s">
+      <c r="C114" s="109" t="s">
+        <v>1069</v>
+      </c>
+      <c r="D114" s="94" t="s">
         <v>48</v>
       </c>
       <c r="E114" s="19" t="s">
@@ -44134,22 +44303,22 @@
       </c>
     </row>
     <row r="115" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A115" s="104"/>
-      <c r="B115" s="106"/>
-      <c r="C115" s="109"/>
-      <c r="D115" s="92"/>
+      <c r="A115" s="105"/>
+      <c r="B115" s="107"/>
+      <c r="C115" s="110"/>
+      <c r="D115" s="95"/>
       <c r="E115" s="19" t="s">
         <v>173</v>
       </c>
       <c r="F115" s="20" t="s">
-        <v>1026</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A116" s="104"/>
-      <c r="B116" s="106"/>
-      <c r="C116" s="109"/>
-      <c r="D116" s="92"/>
+      <c r="A116" s="105"/>
+      <c r="B116" s="107"/>
+      <c r="C116" s="110"/>
+      <c r="D116" s="95"/>
       <c r="E116" s="19" t="s">
         <v>176</v>
       </c>
@@ -44158,10 +44327,10 @@
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A117" s="104"/>
-      <c r="B117" s="106"/>
-      <c r="C117" s="109"/>
-      <c r="D117" s="92"/>
+      <c r="A117" s="105"/>
+      <c r="B117" s="107"/>
+      <c r="C117" s="110"/>
+      <c r="D117" s="95"/>
       <c r="E117" s="19" t="s">
         <v>178</v>
       </c>
@@ -44170,22 +44339,22 @@
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A118" s="104"/>
-      <c r="B118" s="106"/>
-      <c r="C118" s="109"/>
-      <c r="D118" s="92"/>
+      <c r="A118" s="105"/>
+      <c r="B118" s="107"/>
+      <c r="C118" s="110"/>
+      <c r="D118" s="95"/>
       <c r="E118" s="19" t="s">
         <v>175</v>
       </c>
       <c r="F118" s="19" t="s">
-        <v>1027</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A119" s="104"/>
-      <c r="B119" s="106"/>
-      <c r="C119" s="109"/>
-      <c r="D119" s="92"/>
+      <c r="A119" s="105"/>
+      <c r="B119" s="107"/>
+      <c r="C119" s="110"/>
+      <c r="D119" s="95"/>
       <c r="E119" s="19" t="s">
         <v>179</v>
       </c>
@@ -44194,22 +44363,22 @@
       </c>
     </row>
     <row r="120" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A120" s="104"/>
-      <c r="B120" s="106"/>
-      <c r="C120" s="109"/>
-      <c r="D120" s="92"/>
+      <c r="A120" s="105"/>
+      <c r="B120" s="107"/>
+      <c r="C120" s="110"/>
+      <c r="D120" s="95"/>
       <c r="E120" s="19" t="s">
         <v>181</v>
       </c>
       <c r="F120" s="20" t="s">
-        <v>1028</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="121" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A121" s="104"/>
-      <c r="B121" s="107"/>
-      <c r="C121" s="110"/>
-      <c r="D121" s="93"/>
+      <c r="A121" s="105"/>
+      <c r="B121" s="108"/>
+      <c r="C121" s="111"/>
+      <c r="D121" s="96"/>
       <c r="E121" s="19" t="s">
         <v>336</v>
       </c>
@@ -44218,7 +44387,7 @@
       </c>
     </row>
     <row r="122" spans="1:7" ht="85" x14ac:dyDescent="0.2">
-      <c r="A122" s="104"/>
+      <c r="A122" s="105"/>
       <c r="B122" s="27" t="s">
         <v>31</v>
       </c>
@@ -44232,14 +44401,14 @@
       <c r="F122" s="19"/>
     </row>
     <row r="123" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A123" s="104"/>
-      <c r="B123" s="90" t="s">
+      <c r="A123" s="105"/>
+      <c r="B123" s="73" t="s">
         <v>183</v>
       </c>
-      <c r="C123" s="94" t="s">
+      <c r="C123" s="76" t="s">
         <v>246</v>
       </c>
-      <c r="D123" s="89" t="s">
+      <c r="D123" s="75" t="s">
         <v>48</v>
       </c>
       <c r="E123" s="19" t="s">
@@ -44251,10 +44420,10 @@
       <c r="G123" s="21"/>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A124" s="104"/>
-      <c r="B124" s="90"/>
-      <c r="C124" s="94"/>
-      <c r="D124" s="89"/>
+      <c r="A124" s="105"/>
+      <c r="B124" s="73"/>
+      <c r="C124" s="76"/>
+      <c r="D124" s="75"/>
       <c r="E124" s="19" t="s">
         <v>204</v>
       </c>
@@ -44264,10 +44433,10 @@
       <c r="G124" s="21"/>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A125" s="104"/>
-      <c r="B125" s="90"/>
-      <c r="C125" s="94"/>
-      <c r="D125" s="89"/>
+      <c r="A125" s="105"/>
+      <c r="B125" s="73"/>
+      <c r="C125" s="76"/>
+      <c r="D125" s="75"/>
       <c r="E125" s="19" t="s">
         <v>205</v>
       </c>
@@ -44277,10 +44446,10 @@
       <c r="G125" s="21"/>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A126" s="104"/>
-      <c r="B126" s="90"/>
-      <c r="C126" s="94"/>
-      <c r="D126" s="89"/>
+      <c r="A126" s="105"/>
+      <c r="B126" s="73"/>
+      <c r="C126" s="76"/>
+      <c r="D126" s="75"/>
       <c r="E126" s="19" t="s">
         <v>381</v>
       </c>
@@ -44290,10 +44459,10 @@
       <c r="G126" s="21"/>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A127" s="104"/>
-      <c r="B127" s="90"/>
-      <c r="C127" s="94"/>
-      <c r="D127" s="89"/>
+      <c r="A127" s="105"/>
+      <c r="B127" s="73"/>
+      <c r="C127" s="76"/>
+      <c r="D127" s="75"/>
       <c r="E127" s="19" t="s">
         <v>206</v>
       </c>
@@ -44303,10 +44472,10 @@
       <c r="G127" s="21"/>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A128" s="104"/>
-      <c r="B128" s="90"/>
-      <c r="C128" s="94"/>
-      <c r="D128" s="89"/>
+      <c r="A128" s="105"/>
+      <c r="B128" s="73"/>
+      <c r="C128" s="76"/>
+      <c r="D128" s="75"/>
       <c r="E128" s="19" t="s">
         <v>207</v>
       </c>
@@ -44316,10 +44485,10 @@
       <c r="G128" s="21"/>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A129" s="104"/>
-      <c r="B129" s="90"/>
-      <c r="C129" s="94"/>
-      <c r="D129" s="89"/>
+      <c r="A129" s="105"/>
+      <c r="B129" s="73"/>
+      <c r="C129" s="76"/>
+      <c r="D129" s="75"/>
       <c r="E129" s="19" t="s">
         <v>208</v>
       </c>
@@ -44329,10 +44498,10 @@
       <c r="G129" s="21"/>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A130" s="104"/>
-      <c r="B130" s="90"/>
-      <c r="C130" s="94"/>
-      <c r="D130" s="89"/>
+      <c r="A130" s="105"/>
+      <c r="B130" s="73"/>
+      <c r="C130" s="76"/>
+      <c r="D130" s="75"/>
       <c r="E130" s="19" t="s">
         <v>354</v>
       </c>
@@ -44342,10 +44511,10 @@
       <c r="G130" s="21"/>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A131" s="104"/>
-      <c r="B131" s="90"/>
-      <c r="C131" s="94"/>
-      <c r="D131" s="89"/>
+      <c r="A131" s="105"/>
+      <c r="B131" s="73"/>
+      <c r="C131" s="76"/>
+      <c r="D131" s="75"/>
       <c r="E131" s="19" t="s">
         <v>209</v>
       </c>
@@ -44355,10 +44524,10 @@
       <c r="G131" s="21"/>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A132" s="104"/>
-      <c r="B132" s="90"/>
-      <c r="C132" s="94"/>
-      <c r="D132" s="89"/>
+      <c r="A132" s="105"/>
+      <c r="B132" s="73"/>
+      <c r="C132" s="76"/>
+      <c r="D132" s="75"/>
       <c r="E132" s="19" t="s">
         <v>352</v>
       </c>
@@ -44368,10 +44537,10 @@
       <c r="G132" s="21"/>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A133" s="104"/>
-      <c r="B133" s="90"/>
-      <c r="C133" s="94"/>
-      <c r="D133" s="89"/>
+      <c r="A133" s="105"/>
+      <c r="B133" s="73"/>
+      <c r="C133" s="76"/>
+      <c r="D133" s="75"/>
       <c r="E133" s="19" t="s">
         <v>210</v>
       </c>
@@ -44381,10 +44550,10 @@
       <c r="G133" s="21"/>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A134" s="104"/>
-      <c r="B134" s="90"/>
-      <c r="C134" s="94"/>
-      <c r="D134" s="89"/>
+      <c r="A134" s="105"/>
+      <c r="B134" s="73"/>
+      <c r="C134" s="76"/>
+      <c r="D134" s="75"/>
       <c r="E134" s="19" t="s">
         <v>211</v>
       </c>
@@ -44394,10 +44563,10 @@
       <c r="G134" s="21"/>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A135" s="104"/>
-      <c r="B135" s="90"/>
-      <c r="C135" s="94"/>
-      <c r="D135" s="89"/>
+      <c r="A135" s="105"/>
+      <c r="B135" s="73"/>
+      <c r="C135" s="76"/>
+      <c r="D135" s="75"/>
       <c r="E135" s="19" t="s">
         <v>212</v>
       </c>
@@ -44407,10 +44576,10 @@
       <c r="G135" s="21"/>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A136" s="104"/>
-      <c r="B136" s="90"/>
-      <c r="C136" s="94"/>
-      <c r="D136" s="89"/>
+      <c r="A136" s="105"/>
+      <c r="B136" s="73"/>
+      <c r="C136" s="76"/>
+      <c r="D136" s="75"/>
       <c r="E136" s="19" t="s">
         <v>335</v>
       </c>
@@ -44420,10 +44589,10 @@
       <c r="G136" s="21"/>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A137" s="104"/>
-      <c r="B137" s="90"/>
-      <c r="C137" s="94"/>
-      <c r="D137" s="89"/>
+      <c r="A137" s="105"/>
+      <c r="B137" s="73"/>
+      <c r="C137" s="76"/>
+      <c r="D137" s="75"/>
       <c r="E137" s="19" t="s">
         <v>213</v>
       </c>
@@ -44433,10 +44602,10 @@
       <c r="G137" s="21"/>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A138" s="104"/>
-      <c r="B138" s="90"/>
-      <c r="C138" s="94"/>
-      <c r="D138" s="89"/>
+      <c r="A138" s="105"/>
+      <c r="B138" s="73"/>
+      <c r="C138" s="76"/>
+      <c r="D138" s="75"/>
       <c r="E138" s="19" t="s">
         <v>199</v>
       </c>
@@ -44446,10 +44615,10 @@
       <c r="G138" s="21"/>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A139" s="104"/>
-      <c r="B139" s="90"/>
-      <c r="C139" s="94"/>
-      <c r="D139" s="89"/>
+      <c r="A139" s="105"/>
+      <c r="B139" s="73"/>
+      <c r="C139" s="76"/>
+      <c r="D139" s="75"/>
       <c r="E139" s="19" t="s">
         <v>214</v>
       </c>
@@ -44459,10 +44628,10 @@
       <c r="G139" s="21"/>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A140" s="104"/>
-      <c r="B140" s="90"/>
-      <c r="C140" s="94"/>
-      <c r="D140" s="89"/>
+      <c r="A140" s="105"/>
+      <c r="B140" s="73"/>
+      <c r="C140" s="76"/>
+      <c r="D140" s="75"/>
       <c r="E140" s="19" t="s">
         <v>215</v>
       </c>
@@ -44472,10 +44641,10 @@
       <c r="G140" s="21"/>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A141" s="104"/>
-      <c r="B141" s="90"/>
-      <c r="C141" s="94"/>
-      <c r="D141" s="89"/>
+      <c r="A141" s="105"/>
+      <c r="B141" s="73"/>
+      <c r="C141" s="76"/>
+      <c r="D141" s="75"/>
       <c r="E141" s="19" t="s">
         <v>216</v>
       </c>
@@ -44485,10 +44654,10 @@
       <c r="G141" s="21"/>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A142" s="104"/>
-      <c r="B142" s="90"/>
-      <c r="C142" s="94"/>
-      <c r="D142" s="89"/>
+      <c r="A142" s="105"/>
+      <c r="B142" s="73"/>
+      <c r="C142" s="76"/>
+      <c r="D142" s="75"/>
       <c r="E142" s="19" t="s">
         <v>217</v>
       </c>
@@ -44498,10 +44667,10 @@
       <c r="G142" s="21"/>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A143" s="104"/>
-      <c r="B143" s="90"/>
-      <c r="C143" s="94"/>
-      <c r="D143" s="89"/>
+      <c r="A143" s="105"/>
+      <c r="B143" s="73"/>
+      <c r="C143" s="76"/>
+      <c r="D143" s="75"/>
       <c r="E143" s="19" t="s">
         <v>218</v>
       </c>
@@ -44511,10 +44680,10 @@
       <c r="G143" s="21"/>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A144" s="104"/>
-      <c r="B144" s="90"/>
-      <c r="C144" s="94"/>
-      <c r="D144" s="89"/>
+      <c r="A144" s="105"/>
+      <c r="B144" s="73"/>
+      <c r="C144" s="76"/>
+      <c r="D144" s="75"/>
       <c r="E144" s="19" t="s">
         <v>201</v>
       </c>
@@ -44524,14 +44693,14 @@
       <c r="G144" s="21"/>
     </row>
     <row r="145" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A145" s="104"/>
-      <c r="B145" s="90" t="s">
+      <c r="A145" s="105"/>
+      <c r="B145" s="73" t="s">
         <v>219</v>
       </c>
-      <c r="C145" s="94" t="s">
+      <c r="C145" s="76" t="s">
         <v>220</v>
       </c>
-      <c r="D145" s="89" t="s">
+      <c r="D145" s="75" t="s">
         <v>48</v>
       </c>
       <c r="E145" s="19" t="s">
@@ -44542,10 +44711,10 @@
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A146" s="104"/>
-      <c r="B146" s="90"/>
-      <c r="C146" s="94"/>
-      <c r="D146" s="89"/>
+      <c r="A146" s="105"/>
+      <c r="B146" s="73"/>
+      <c r="C146" s="76"/>
+      <c r="D146" s="75"/>
       <c r="E146" s="19" t="s">
         <v>223</v>
       </c>
@@ -44554,10 +44723,10 @@
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A147" s="104"/>
-      <c r="B147" s="90"/>
-      <c r="C147" s="94"/>
-      <c r="D147" s="89"/>
+      <c r="A147" s="105"/>
+      <c r="B147" s="73"/>
+      <c r="C147" s="76"/>
+      <c r="D147" s="75"/>
       <c r="E147" s="19" t="s">
         <v>226</v>
       </c>
@@ -44566,10 +44735,10 @@
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A148" s="104"/>
-      <c r="B148" s="90"/>
-      <c r="C148" s="94"/>
-      <c r="D148" s="89"/>
+      <c r="A148" s="105"/>
+      <c r="B148" s="73"/>
+      <c r="C148" s="76"/>
+      <c r="D148" s="75"/>
       <c r="E148" s="19" t="s">
         <v>222</v>
       </c>
@@ -44578,10 +44747,10 @@
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A149" s="104"/>
-      <c r="B149" s="90"/>
-      <c r="C149" s="94"/>
-      <c r="D149" s="89"/>
+      <c r="A149" s="105"/>
+      <c r="B149" s="73"/>
+      <c r="C149" s="76"/>
+      <c r="D149" s="75"/>
       <c r="E149" s="19" t="s">
         <v>196</v>
       </c>
@@ -44590,14 +44759,14 @@
       </c>
     </row>
     <row r="150" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A150" s="104"/>
-      <c r="B150" s="90" t="s">
+      <c r="A150" s="105"/>
+      <c r="B150" s="73" t="s">
         <v>181</v>
       </c>
-      <c r="C150" s="101" t="s">
+      <c r="C150" s="74" t="s">
         <v>228</v>
       </c>
-      <c r="D150" s="89" t="s">
+      <c r="D150" s="75" t="s">
         <v>48</v>
       </c>
       <c r="E150" s="19" t="s">
@@ -44608,10 +44777,10 @@
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A151" s="104"/>
-      <c r="B151" s="90"/>
-      <c r="C151" s="101"/>
-      <c r="D151" s="89"/>
+      <c r="A151" s="105"/>
+      <c r="B151" s="73"/>
+      <c r="C151" s="74"/>
+      <c r="D151" s="75"/>
       <c r="E151" s="19" t="s">
         <v>230</v>
       </c>
@@ -44620,10 +44789,10 @@
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A152" s="104"/>
-      <c r="B152" s="90"/>
-      <c r="C152" s="101"/>
-      <c r="D152" s="89"/>
+      <c r="A152" s="105"/>
+      <c r="B152" s="73"/>
+      <c r="C152" s="74"/>
+      <c r="D152" s="75"/>
       <c r="E152" s="19" t="s">
         <v>231</v>
       </c>
@@ -44632,14 +44801,14 @@
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A153" s="104"/>
-      <c r="B153" s="90" t="s">
+      <c r="A153" s="105"/>
+      <c r="B153" s="73" t="s">
         <v>237</v>
       </c>
-      <c r="C153" s="94" t="s">
+      <c r="C153" s="76" t="s">
         <v>238</v>
       </c>
-      <c r="D153" s="89" t="s">
+      <c r="D153" s="75" t="s">
         <v>48</v>
       </c>
       <c r="E153" s="19" t="s">
@@ -44650,10 +44819,10 @@
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A154" s="104"/>
-      <c r="B154" s="90"/>
-      <c r="C154" s="94"/>
-      <c r="D154" s="89"/>
+      <c r="A154" s="105"/>
+      <c r="B154" s="73"/>
+      <c r="C154" s="76"/>
+      <c r="D154" s="75"/>
       <c r="E154" s="19" t="s">
         <v>243</v>
       </c>
@@ -44662,10 +44831,10 @@
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A155" s="104"/>
-      <c r="B155" s="90"/>
-      <c r="C155" s="94"/>
-      <c r="D155" s="89"/>
+      <c r="A155" s="105"/>
+      <c r="B155" s="73"/>
+      <c r="C155" s="76"/>
+      <c r="D155" s="75"/>
       <c r="E155" s="19" t="s">
         <v>231</v>
       </c>
@@ -44674,10 +44843,10 @@
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A156" s="104"/>
-      <c r="B156" s="90"/>
-      <c r="C156" s="94"/>
-      <c r="D156" s="89"/>
+      <c r="A156" s="105"/>
+      <c r="B156" s="73"/>
+      <c r="C156" s="76"/>
+      <c r="D156" s="75"/>
       <c r="E156" s="19" t="s">
         <v>244</v>
       </c>
@@ -44686,16 +44855,16 @@
       </c>
     </row>
     <row r="157" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A157" s="102" t="s">
+      <c r="A157" s="103" t="s">
         <v>247</v>
       </c>
-      <c r="B157" s="65" t="s">
+      <c r="B157" s="55" t="s">
         <v>305</v>
       </c>
-      <c r="C157" s="62" t="s">
-        <v>1077</v>
-      </c>
-      <c r="D157" s="62" t="s">
+      <c r="C157" s="58" t="s">
+        <v>1073</v>
+      </c>
+      <c r="D157" s="58" t="s">
         <v>48</v>
       </c>
       <c r="E157" s="22" t="s">
@@ -44706,22 +44875,22 @@
       </c>
     </row>
     <row r="158" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A158" s="102"/>
-      <c r="B158" s="66"/>
-      <c r="C158" s="63"/>
-      <c r="D158" s="63"/>
+      <c r="A158" s="103"/>
+      <c r="B158" s="56"/>
+      <c r="C158" s="72"/>
+      <c r="D158" s="72"/>
       <c r="E158" s="22" t="s">
         <v>173</v>
       </c>
       <c r="F158" s="22" t="s">
-        <v>1074</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="159" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A159" s="102"/>
-      <c r="B159" s="66"/>
-      <c r="C159" s="63"/>
-      <c r="D159" s="63"/>
+      <c r="A159" s="103"/>
+      <c r="B159" s="56"/>
+      <c r="C159" s="72"/>
+      <c r="D159" s="72"/>
       <c r="E159" s="22" t="s">
         <v>251</v>
       </c>
@@ -44730,10 +44899,10 @@
       </c>
     </row>
     <row r="160" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A160" s="102"/>
-      <c r="B160" s="66"/>
-      <c r="C160" s="63"/>
-      <c r="D160" s="63"/>
+      <c r="A160" s="103"/>
+      <c r="B160" s="56"/>
+      <c r="C160" s="72"/>
+      <c r="D160" s="72"/>
       <c r="E160" s="22" t="s">
         <v>253</v>
       </c>
@@ -44742,10 +44911,10 @@
       </c>
     </row>
     <row r="161" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A161" s="102"/>
-      <c r="B161" s="66"/>
-      <c r="C161" s="63"/>
-      <c r="D161" s="63"/>
+      <c r="A161" s="103"/>
+      <c r="B161" s="56"/>
+      <c r="C161" s="72"/>
+      <c r="D161" s="72"/>
       <c r="E161" s="22" t="s">
         <v>255</v>
       </c>
@@ -44754,10 +44923,10 @@
       </c>
     </row>
     <row r="162" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A162" s="102"/>
-      <c r="B162" s="66"/>
-      <c r="C162" s="63"/>
-      <c r="D162" s="63"/>
+      <c r="A162" s="103"/>
+      <c r="B162" s="56"/>
+      <c r="C162" s="72"/>
+      <c r="D162" s="72"/>
       <c r="E162" s="22" t="s">
         <v>257</v>
       </c>
@@ -44766,10 +44935,10 @@
       </c>
     </row>
     <row r="163" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A163" s="102"/>
-      <c r="B163" s="66"/>
-      <c r="C163" s="63"/>
-      <c r="D163" s="63"/>
+      <c r="A163" s="103"/>
+      <c r="B163" s="56"/>
+      <c r="C163" s="72"/>
+      <c r="D163" s="72"/>
       <c r="E163" s="22" t="s">
         <v>333</v>
       </c>
@@ -44778,10 +44947,10 @@
       </c>
     </row>
     <row r="164" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A164" s="102"/>
-      <c r="B164" s="67"/>
-      <c r="C164" s="64"/>
-      <c r="D164" s="64"/>
+      <c r="A164" s="103"/>
+      <c r="B164" s="57"/>
+      <c r="C164" s="59"/>
+      <c r="D164" s="59"/>
       <c r="E164" s="22" t="s">
         <v>323</v>
       </c>
@@ -44790,14 +44959,14 @@
       </c>
     </row>
     <row r="165" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A165" s="102"/>
-      <c r="B165" s="65" t="s">
+      <c r="A165" s="103"/>
+      <c r="B165" s="55" t="s">
         <v>304</v>
       </c>
-      <c r="C165" s="62" t="s">
-        <v>1082</v>
-      </c>
-      <c r="D165" s="62" t="s">
+      <c r="C165" s="58" t="s">
+        <v>1078</v>
+      </c>
+      <c r="D165" s="58" t="s">
         <v>48</v>
       </c>
       <c r="E165" s="22" t="s">
@@ -44806,22 +44975,22 @@
       <c r="F165" s="22"/>
     </row>
     <row r="166" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A166" s="102"/>
-      <c r="B166" s="67"/>
-      <c r="C166" s="64"/>
-      <c r="D166" s="64"/>
+      <c r="A166" s="103"/>
+      <c r="B166" s="57"/>
+      <c r="C166" s="59"/>
+      <c r="D166" s="59"/>
       <c r="E166" s="22" t="s">
         <v>261</v>
       </c>
       <c r="F166" s="22"/>
     </row>
     <row r="167" spans="1:6" ht="34" x14ac:dyDescent="0.2">
-      <c r="A167" s="102"/>
-      <c r="B167" s="103" t="s">
+      <c r="A167" s="103"/>
+      <c r="B167" s="104" t="s">
         <v>32</v>
       </c>
       <c r="C167" s="77" t="s">
-        <v>1081</v>
+        <v>1077</v>
       </c>
       <c r="D167" s="77" t="s">
         <v>53</v>
@@ -44830,24 +44999,24 @@
         <v>70</v>
       </c>
       <c r="F167" s="22" t="s">
-        <v>1076</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="168" spans="1:6" ht="34" x14ac:dyDescent="0.2">
-      <c r="A168" s="102"/>
-      <c r="B168" s="103"/>
+      <c r="A168" s="103"/>
+      <c r="B168" s="104"/>
       <c r="C168" s="77"/>
       <c r="D168" s="77"/>
       <c r="E168" s="22" t="s">
         <v>179</v>
       </c>
       <c r="F168" s="22" t="s">
-        <v>1075</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="169" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A169" s="102"/>
-      <c r="B169" s="103"/>
+      <c r="A169" s="103"/>
+      <c r="B169" s="104"/>
       <c r="C169" s="77"/>
       <c r="D169" s="77"/>
       <c r="E169" s="22" t="s">
@@ -44858,14 +45027,14 @@
       </c>
     </row>
     <row r="170" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A170" s="102"/>
-      <c r="B170" s="65" t="s">
+      <c r="A170" s="103"/>
+      <c r="B170" s="55" t="s">
         <v>262</v>
       </c>
-      <c r="C170" s="62" t="s">
-        <v>1080</v>
-      </c>
-      <c r="D170" s="62" t="s">
+      <c r="C170" s="58" t="s">
+        <v>1076</v>
+      </c>
+      <c r="D170" s="58" t="s">
         <v>48</v>
       </c>
       <c r="E170" s="22" t="s">
@@ -44876,10 +45045,10 @@
       </c>
     </row>
     <row r="171" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A171" s="102"/>
-      <c r="B171" s="66"/>
-      <c r="C171" s="63"/>
-      <c r="D171" s="63"/>
+      <c r="A171" s="103"/>
+      <c r="B171" s="56"/>
+      <c r="C171" s="72"/>
+      <c r="D171" s="72"/>
       <c r="E171" s="22" t="s">
         <v>298</v>
       </c>
@@ -44888,10 +45057,10 @@
       </c>
     </row>
     <row r="172" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A172" s="102"/>
-      <c r="B172" s="66"/>
-      <c r="C172" s="63"/>
-      <c r="D172" s="63"/>
+      <c r="A172" s="103"/>
+      <c r="B172" s="56"/>
+      <c r="C172" s="72"/>
+      <c r="D172" s="72"/>
       <c r="E172" s="22" t="s">
         <v>443</v>
       </c>
@@ -44900,10 +45069,10 @@
       </c>
     </row>
     <row r="173" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A173" s="102"/>
-      <c r="B173" s="66"/>
-      <c r="C173" s="63"/>
-      <c r="D173" s="63"/>
+      <c r="A173" s="103"/>
+      <c r="B173" s="56"/>
+      <c r="C173" s="72"/>
+      <c r="D173" s="72"/>
       <c r="E173" s="22" t="s">
         <v>299</v>
       </c>
@@ -44912,10 +45081,10 @@
       </c>
     </row>
     <row r="174" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A174" s="102"/>
-      <c r="B174" s="66"/>
-      <c r="C174" s="63"/>
-      <c r="D174" s="63"/>
+      <c r="A174" s="103"/>
+      <c r="B174" s="56"/>
+      <c r="C174" s="72"/>
+      <c r="D174" s="72"/>
       <c r="E174" s="22" t="s">
         <v>297</v>
       </c>
@@ -44924,10 +45093,10 @@
       </c>
     </row>
     <row r="175" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A175" s="102"/>
-      <c r="B175" s="66"/>
-      <c r="C175" s="63"/>
-      <c r="D175" s="63"/>
+      <c r="A175" s="103"/>
+      <c r="B175" s="56"/>
+      <c r="C175" s="72"/>
+      <c r="D175" s="72"/>
       <c r="E175" s="22" t="s">
         <v>300</v>
       </c>
@@ -44936,10 +45105,10 @@
       </c>
     </row>
     <row r="176" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A176" s="102"/>
-      <c r="B176" s="66"/>
-      <c r="C176" s="63"/>
-      <c r="D176" s="63"/>
+      <c r="A176" s="103"/>
+      <c r="B176" s="56"/>
+      <c r="C176" s="72"/>
+      <c r="D176" s="72"/>
       <c r="E176" s="22" t="s">
         <v>302</v>
       </c>
@@ -44948,10 +45117,10 @@
       </c>
     </row>
     <row r="177" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A177" s="102"/>
-      <c r="B177" s="67"/>
-      <c r="C177" s="64"/>
-      <c r="D177" s="64"/>
+      <c r="A177" s="103"/>
+      <c r="B177" s="57"/>
+      <c r="C177" s="59"/>
+      <c r="D177" s="59"/>
       <c r="E177" s="22" t="s">
         <v>57</v>
       </c>
@@ -44960,12 +45129,12 @@
       </c>
     </row>
     <row r="178" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A178" s="102"/>
-      <c r="B178" s="103" t="s">
+      <c r="A178" s="103"/>
+      <c r="B178" s="104" t="s">
         <v>33</v>
       </c>
       <c r="C178" s="77" t="s">
-        <v>1083</v>
+        <v>1079</v>
       </c>
       <c r="D178" s="77" t="s">
         <v>53</v>
@@ -44978,8 +45147,8 @@
       </c>
     </row>
     <row r="179" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A179" s="102"/>
-      <c r="B179" s="103"/>
+      <c r="A179" s="103"/>
+      <c r="B179" s="104"/>
       <c r="C179" s="77"/>
       <c r="D179" s="77"/>
       <c r="E179" s="22" t="s">
@@ -44990,8 +45159,8 @@
       </c>
     </row>
     <row r="180" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A180" s="102"/>
-      <c r="B180" s="103"/>
+      <c r="A180" s="103"/>
+      <c r="B180" s="104"/>
       <c r="C180" s="77"/>
       <c r="D180" s="77"/>
       <c r="E180" s="22" t="s">
@@ -45002,8 +45171,8 @@
       </c>
     </row>
     <row r="181" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A181" s="102"/>
-      <c r="B181" s="103"/>
+      <c r="A181" s="103"/>
+      <c r="B181" s="104"/>
       <c r="C181" s="77"/>
       <c r="D181" s="77"/>
       <c r="E181" s="22" t="s">
@@ -45014,8 +45183,8 @@
       </c>
     </row>
     <row r="182" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A182" s="102"/>
-      <c r="B182" s="103"/>
+      <c r="A182" s="103"/>
+      <c r="B182" s="104"/>
       <c r="C182" s="77"/>
       <c r="D182" s="77"/>
       <c r="E182" s="22" t="s">
@@ -45026,8 +45195,8 @@
       </c>
     </row>
     <row r="183" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A183" s="102"/>
-      <c r="B183" s="103"/>
+      <c r="A183" s="103"/>
+      <c r="B183" s="104"/>
       <c r="C183" s="77"/>
       <c r="D183" s="77"/>
       <c r="E183" s="22" t="s">
@@ -45038,20 +45207,20 @@
       </c>
     </row>
     <row r="184" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A184" s="102"/>
-      <c r="B184" s="103"/>
+      <c r="A184" s="103"/>
+      <c r="B184" s="104"/>
       <c r="C184" s="77"/>
       <c r="D184" s="77"/>
       <c r="E184" s="22" t="s">
         <v>276</v>
       </c>
       <c r="F184" s="22" t="s">
-        <v>1078</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="185" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A185" s="102"/>
-      <c r="B185" s="103"/>
+      <c r="A185" s="103"/>
+      <c r="B185" s="104"/>
       <c r="C185" s="77"/>
       <c r="D185" s="77"/>
       <c r="E185" s="22" t="s">
@@ -45062,8 +45231,8 @@
       </c>
     </row>
     <row r="186" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A186" s="102"/>
-      <c r="B186" s="103"/>
+      <c r="A186" s="103"/>
+      <c r="B186" s="104"/>
       <c r="C186" s="77"/>
       <c r="D186" s="77"/>
       <c r="E186" s="22" t="s">
@@ -45074,14 +45243,14 @@
       </c>
     </row>
     <row r="187" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A187" s="102"/>
-      <c r="B187" s="65" t="s">
+      <c r="A187" s="103"/>
+      <c r="B187" s="55" t="s">
         <v>34</v>
       </c>
-      <c r="C187" s="62" t="s">
-        <v>1079</v>
-      </c>
-      <c r="D187" s="62" t="s">
+      <c r="C187" s="58" t="s">
+        <v>1075</v>
+      </c>
+      <c r="D187" s="58" t="s">
         <v>48</v>
       </c>
       <c r="E187" s="22" t="s">
@@ -45092,10 +45261,10 @@
       </c>
     </row>
     <row r="188" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A188" s="102"/>
-      <c r="B188" s="66"/>
-      <c r="C188" s="63"/>
-      <c r="D188" s="63"/>
+      <c r="A188" s="103"/>
+      <c r="B188" s="56"/>
+      <c r="C188" s="72"/>
+      <c r="D188" s="72"/>
       <c r="E188" s="22" t="s">
         <v>277</v>
       </c>
@@ -45104,10 +45273,10 @@
       </c>
     </row>
     <row r="189" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A189" s="102"/>
-      <c r="B189" s="66"/>
-      <c r="C189" s="63"/>
-      <c r="D189" s="63"/>
+      <c r="A189" s="103"/>
+      <c r="B189" s="56"/>
+      <c r="C189" s="72"/>
+      <c r="D189" s="72"/>
       <c r="E189" s="22" t="s">
         <v>405</v>
       </c>
@@ -45116,10 +45285,10 @@
       </c>
     </row>
     <row r="190" spans="1:6" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A190" s="102"/>
-      <c r="B190" s="66"/>
-      <c r="C190" s="63"/>
-      <c r="D190" s="63"/>
+      <c r="A190" s="103"/>
+      <c r="B190" s="56"/>
+      <c r="C190" s="72"/>
+      <c r="D190" s="72"/>
       <c r="E190" s="22" t="s">
         <v>278</v>
       </c>
@@ -45128,10 +45297,10 @@
       </c>
     </row>
     <row r="191" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A191" s="102"/>
-      <c r="B191" s="66"/>
-      <c r="C191" s="63"/>
-      <c r="D191" s="63"/>
+      <c r="A191" s="103"/>
+      <c r="B191" s="56"/>
+      <c r="C191" s="72"/>
+      <c r="D191" s="72"/>
       <c r="E191" s="22" t="s">
         <v>281</v>
       </c>
@@ -45140,10 +45309,10 @@
       </c>
     </row>
     <row r="192" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A192" s="102"/>
-      <c r="B192" s="66"/>
-      <c r="C192" s="63"/>
-      <c r="D192" s="63"/>
+      <c r="A192" s="103"/>
+      <c r="B192" s="56"/>
+      <c r="C192" s="72"/>
+      <c r="D192" s="72"/>
       <c r="E192" s="22" t="s">
         <v>57</v>
       </c>
@@ -45152,10 +45321,10 @@
       </c>
     </row>
     <row r="193" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A193" s="102"/>
-      <c r="B193" s="67"/>
-      <c r="C193" s="64"/>
-      <c r="D193" s="64"/>
+      <c r="A193" s="103"/>
+      <c r="B193" s="57"/>
+      <c r="C193" s="59"/>
+      <c r="D193" s="59"/>
       <c r="E193" s="22" t="s">
         <v>81</v>
       </c>
@@ -45164,12 +45333,12 @@
       </c>
     </row>
     <row r="194" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A194" s="102"/>
-      <c r="B194" s="103" t="s">
+      <c r="A194" s="103"/>
+      <c r="B194" s="104" t="s">
         <v>35</v>
       </c>
       <c r="C194" s="77" t="s">
-        <v>1084</v>
+        <v>1080</v>
       </c>
       <c r="D194" s="77" t="s">
         <v>53</v>
@@ -45182,8 +45351,8 @@
       </c>
     </row>
     <row r="195" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A195" s="102"/>
-      <c r="B195" s="103"/>
+      <c r="A195" s="103"/>
+      <c r="B195" s="104"/>
       <c r="C195" s="77"/>
       <c r="D195" s="77"/>
       <c r="E195" s="22" t="s">
@@ -45194,8 +45363,8 @@
       </c>
     </row>
     <row r="196" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A196" s="102"/>
-      <c r="B196" s="103"/>
+      <c r="A196" s="103"/>
+      <c r="B196" s="104"/>
       <c r="C196" s="77"/>
       <c r="D196" s="77"/>
       <c r="E196" s="22" t="s">
@@ -45206,8 +45375,8 @@
       </c>
     </row>
     <row r="197" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A197" s="102"/>
-      <c r="B197" s="103"/>
+      <c r="A197" s="103"/>
+      <c r="B197" s="104"/>
       <c r="C197" s="77"/>
       <c r="D197" s="77"/>
       <c r="E197" s="22" t="s">
@@ -45218,8 +45387,8 @@
       </c>
     </row>
     <row r="198" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A198" s="102"/>
-      <c r="B198" s="103"/>
+      <c r="A198" s="103"/>
+      <c r="B198" s="104"/>
       <c r="C198" s="77"/>
       <c r="D198" s="77"/>
       <c r="E198" s="22" t="s">
@@ -45230,8 +45399,8 @@
       </c>
     </row>
     <row r="199" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A199" s="102"/>
-      <c r="B199" s="103"/>
+      <c r="A199" s="103"/>
+      <c r="B199" s="104"/>
       <c r="C199" s="77"/>
       <c r="D199" s="77"/>
       <c r="E199" s="22" t="s">
@@ -45277,6 +45446,8 @@
     <mergeCell ref="C106:C112"/>
     <mergeCell ref="B106:B112"/>
     <mergeCell ref="D95:D98"/>
+    <mergeCell ref="C58:C63"/>
+    <mergeCell ref="B58:B63"/>
     <mergeCell ref="F64:F69"/>
     <mergeCell ref="D64:D69"/>
     <mergeCell ref="C64:C69"/>
@@ -45303,26 +45474,20 @@
     <mergeCell ref="A7:A15"/>
     <mergeCell ref="C16:C19"/>
     <mergeCell ref="B16:B19"/>
-    <mergeCell ref="C58:C63"/>
-    <mergeCell ref="B58:B63"/>
-    <mergeCell ref="D157:D164"/>
-    <mergeCell ref="C157:C164"/>
-    <mergeCell ref="D167:D169"/>
-    <mergeCell ref="B157:B164"/>
-    <mergeCell ref="B153:B156"/>
-    <mergeCell ref="B150:B152"/>
-    <mergeCell ref="C150:C152"/>
-    <mergeCell ref="D150:D152"/>
-    <mergeCell ref="C145:C149"/>
-    <mergeCell ref="D145:D149"/>
-    <mergeCell ref="B145:B149"/>
-    <mergeCell ref="D153:D156"/>
     <mergeCell ref="A16:A26"/>
     <mergeCell ref="C8:C12"/>
     <mergeCell ref="D8:D12"/>
     <mergeCell ref="D16:D19"/>
     <mergeCell ref="D170:D177"/>
     <mergeCell ref="C170:C177"/>
+    <mergeCell ref="C150:C152"/>
+    <mergeCell ref="D150:D152"/>
+    <mergeCell ref="C145:C149"/>
+    <mergeCell ref="D145:D149"/>
+    <mergeCell ref="D157:D164"/>
+    <mergeCell ref="C157:C164"/>
+    <mergeCell ref="D167:D169"/>
+    <mergeCell ref="D153:D156"/>
     <mergeCell ref="B170:B177"/>
     <mergeCell ref="D165:D166"/>
     <mergeCell ref="C165:C166"/>
@@ -45333,6 +45498,10 @@
     <mergeCell ref="D35:D38"/>
     <mergeCell ref="C35:C38"/>
     <mergeCell ref="B35:B38"/>
+    <mergeCell ref="B150:B152"/>
+    <mergeCell ref="B145:B149"/>
+    <mergeCell ref="B157:B164"/>
+    <mergeCell ref="B153:B156"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="53" fitToHeight="4" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
